--- a/LJ+UA Experiments.xlsx
+++ b/LJ+UA Experiments.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dhvan\Documents\GitHub\P4P-Transformer-ASR-for-Dysarthric-Speech\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BEF9C9D-7F7A-491F-BAFB-47C4BA760345}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BDEB20A-124A-4CC1-B846-5E972C24A250}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13155" xr2:uid="{75EE08EB-D9DA-45E6-8F41-68FBAE46F917}"/>
+    <workbookView xWindow="3360" yWindow="3517" windowWidth="15390" windowHeight="9443" xr2:uid="{75EE08EB-D9DA-45E6-8F41-68FBAE46F917}"/>
   </bookViews>
   <sheets>
     <sheet name="E1" sheetId="1" r:id="rId1"/>
@@ -67,6 +67,18 @@
     <t>model.summary after</t>
   </si>
   <si>
+    <t>Epoch</t>
+  </si>
+  <si>
+    <t>WER</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Epoch </t>
+  </si>
+  <si>
+    <t>Accuracy</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <b/>
@@ -86,20 +98,29 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> LJ200_UAControl_FreezeE1.h5</t>
+      <t xml:space="preserve"> LJ200_UAControl_FreezeE1.h5 </t>
     </r>
-  </si>
-  <si>
-    <t>Epoch</t>
-  </si>
-  <si>
-    <t>WER</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Epoch </t>
-  </si>
-  <si>
-    <t>Accuracy</t>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Accuracy:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>89% (2% increase)</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -143,12 +164,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -164,6 +186,1140 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'E1'!$V$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Accuracy</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'E1'!$V$2:$V$101</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="100"/>
+                <c:pt idx="0">
+                  <c:v>1.5625</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>15.625</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>42.1875</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>59.375</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>76.5625</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>78.125</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>78.125</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>79.6875</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>76.5625</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>78.125</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>73.4375</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>82.8125</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>78.125</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>85.9375</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>81.25</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>79.6875</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>81.25</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>87.5</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>89.0625</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>85.9375</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>90.625</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>82.8125</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>85.9375</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>84.375</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>87.5</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>82.8125</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>84.375</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>82.8125</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>87.5</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>84.375</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>92.1875</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>85.9375</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>85.9375</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>89.0625</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>90.625</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>84.375</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>87.5</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>90.625</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>90.625</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>92.1875</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>89.0625</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>87.5</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>84.375</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>90.625</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>89.0625</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>87.5</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>85.9375</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>82.8125</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>87.5</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>82.8125</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>87.5</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>92.1875</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>85.9375</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>85.9375</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>89.0625</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>85.9375</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>85.9375</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>84.375</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>84.375</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>85.9375</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>85.9375</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>89.0625</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>79.6875</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>87.5</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>89.0625</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>87.5</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>89.0625</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>85.9375</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>87.5</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>89.0625</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>89.0625</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>89.0625</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>85.9375</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>87.5</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>85.9375</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>85.9375</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>89.0625</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>87.5</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>92.1875</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>92.1875</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>92.1875</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>90.625</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>87.5</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>90.625</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>89.0625</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>89.0625</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>90.625</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>89.0625</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>89.0625</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>89.0625</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>89.0625</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>89.0625</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>89.0625</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>89.0625</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>89.0625</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>89.0625</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>89.0625</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>89.0625</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-9F5B-4986-AF83-D8D6A2253E10}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="174164559"/>
+        <c:axId val="174163311"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="174164559"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="174163311"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="174163311"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="174164559"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -253,6 +1409,92 @@
         </a:prstGeom>
       </xdr:spPr>
     </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>327497</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>143540</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>164873</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>11142</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C1AD864E-201F-05B2-2BC9-115D1A0112B9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5537089" y="512877"/>
+          <a:ext cx="4395770" cy="3376302"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>483196</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>72321</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>67798</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>135953</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4AC6F59C-A85B-749A-B618-2EFB30C8223F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -555,62 +1797,1660 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8291A156-869C-41B2-85E5-143FBF3A090A}">
-  <dimension ref="A1:P20"/>
+  <dimension ref="A1:V101"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="82" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="O2" sqref="O2"/>
+    <sheetView tabSelected="1" zoomScale="49" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="H50" sqref="H50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="18" max="18" width="9.06640625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="A1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="H1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
+      <c r="S1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="H1" s="1" t="s">
+      <c r="T1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="S2">
         <v>0</v>
       </c>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
-      <c r="L1" s="1"/>
-      <c r="M1" s="2" t="s">
+      <c r="T2">
+        <v>0.984375</v>
+      </c>
+      <c r="U2">
+        <f xml:space="preserve"> 1+S2</f>
+        <v>1</v>
+      </c>
+      <c r="V2">
+        <f xml:space="preserve"> (1-T2)*100</f>
+        <v>1.5625</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="A3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="S3">
+        <v>1</v>
+      </c>
+      <c r="T3">
+        <v>0.84375</v>
+      </c>
+      <c r="U3">
+        <f t="shared" ref="U3:U66" si="0" xml:space="preserve"> 1+S3</f>
+        <v>2</v>
+      </c>
+      <c r="V3">
+        <f t="shared" ref="V3:V66" si="1" xml:space="preserve"> (1-T3)*100</f>
+        <v>15.625</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="S4">
+        <v>2</v>
+      </c>
+      <c r="T4">
+        <v>0.578125</v>
+      </c>
+      <c r="U4">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="V4">
+        <f t="shared" si="1"/>
+        <v>42.1875</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="S5">
+        <v>3</v>
+      </c>
+      <c r="T5">
+        <v>0.40625</v>
+      </c>
+      <c r="U5">
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="V5">
+        <f t="shared" si="1"/>
+        <v>59.375</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="S6">
+        <v>4</v>
+      </c>
+      <c r="T6">
+        <v>0.234375</v>
+      </c>
+      <c r="U6">
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="V6">
+        <f t="shared" si="1"/>
+        <v>76.5625</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="S7">
+        <v>5</v>
+      </c>
+      <c r="T7">
+        <v>0.21875</v>
+      </c>
+      <c r="U7">
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="V7">
+        <f t="shared" si="1"/>
+        <v>78.125</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="S8">
+        <v>6</v>
+      </c>
+      <c r="T8">
+        <v>0.21875</v>
+      </c>
+      <c r="U8">
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A20" s="1" t="s">
+      <c r="V8">
+        <f t="shared" si="1"/>
+        <v>78.125</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="S9">
+        <v>7</v>
+      </c>
+      <c r="T9">
+        <v>0.203125</v>
+      </c>
+      <c r="U9">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="V9">
+        <f t="shared" si="1"/>
+        <v>79.6875</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="S10">
+        <v>8</v>
+      </c>
+      <c r="T10">
+        <v>0.25</v>
+      </c>
+      <c r="U10">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="V10">
+        <f t="shared" si="1"/>
+        <v>75</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="S11">
+        <v>9</v>
+      </c>
+      <c r="T11">
+        <v>0.25</v>
+      </c>
+      <c r="U11">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="V11">
+        <f t="shared" si="1"/>
+        <v>75</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="S12">
+        <v>10</v>
+      </c>
+      <c r="T12">
+        <v>0.234375</v>
+      </c>
+      <c r="U12">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="V12">
+        <f t="shared" si="1"/>
+        <v>76.5625</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="S13">
+        <v>11</v>
+      </c>
+      <c r="T13">
+        <v>0.21875</v>
+      </c>
+      <c r="U13">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="V13">
+        <f t="shared" si="1"/>
+        <v>78.125</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="S14">
+        <v>12</v>
+      </c>
+      <c r="T14">
+        <v>0.265625</v>
+      </c>
+      <c r="U14">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="V14">
+        <f t="shared" si="1"/>
+        <v>73.4375</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="S15">
+        <v>13</v>
+      </c>
+      <c r="T15">
+        <v>0.171875</v>
+      </c>
+      <c r="U15">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="V15">
+        <f t="shared" si="1"/>
+        <v>82.8125</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="S16">
+        <v>14</v>
+      </c>
+      <c r="T16">
+        <v>0.21875</v>
+      </c>
+      <c r="U16">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="V16">
+        <f t="shared" si="1"/>
+        <v>78.125</v>
+      </c>
+    </row>
+    <row r="17" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="S17">
+        <v>15</v>
+      </c>
+      <c r="T17">
+        <v>0.140625</v>
+      </c>
+      <c r="U17">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="V17">
+        <f t="shared" si="1"/>
+        <v>85.9375</v>
+      </c>
+    </row>
+    <row r="18" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="S18">
+        <v>16</v>
+      </c>
+      <c r="T18">
+        <v>0.1875</v>
+      </c>
+      <c r="U18">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="V18">
+        <f t="shared" si="1"/>
+        <v>81.25</v>
+      </c>
+    </row>
+    <row r="19" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="S19">
+        <v>17</v>
+      </c>
+      <c r="T19">
+        <v>0.203125</v>
+      </c>
+      <c r="U19">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="V19">
+        <f t="shared" si="1"/>
+        <v>79.6875</v>
+      </c>
+    </row>
+    <row r="20" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="A20" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B20" s="1"/>
-      <c r="C20" s="1"/>
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
+      <c r="S20">
+        <v>18</v>
+      </c>
+      <c r="T20">
+        <v>0.1875</v>
+      </c>
+      <c r="U20">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="V20">
+        <f t="shared" si="1"/>
+        <v>81.25</v>
+      </c>
+    </row>
+    <row r="21" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="S21">
+        <v>19</v>
+      </c>
+      <c r="T21">
+        <v>0.125</v>
+      </c>
+      <c r="U21">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="V21">
+        <f t="shared" si="1"/>
+        <v>87.5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="S22">
+        <v>20</v>
+      </c>
+      <c r="T22">
+        <v>0.109375</v>
+      </c>
+      <c r="U22">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="V22">
+        <f t="shared" si="1"/>
+        <v>89.0625</v>
+      </c>
+    </row>
+    <row r="23" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="S23">
+        <v>21</v>
+      </c>
+      <c r="T23">
+        <v>0.140625</v>
+      </c>
+      <c r="U23">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="V23">
+        <f t="shared" si="1"/>
+        <v>85.9375</v>
+      </c>
+    </row>
+    <row r="24" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="S24">
+        <v>22</v>
+      </c>
+      <c r="T24">
+        <v>9.375E-2</v>
+      </c>
+      <c r="U24">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="V24">
+        <f t="shared" si="1"/>
+        <v>90.625</v>
+      </c>
+    </row>
+    <row r="25" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="S25">
+        <v>23</v>
+      </c>
+      <c r="T25">
+        <v>0.171875</v>
+      </c>
+      <c r="U25">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="V25">
+        <f t="shared" si="1"/>
+        <v>82.8125</v>
+      </c>
+    </row>
+    <row r="26" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="S26">
+        <v>24</v>
+      </c>
+      <c r="T26">
+        <v>0.140625</v>
+      </c>
+      <c r="U26">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="V26">
+        <f t="shared" si="1"/>
+        <v>85.9375</v>
+      </c>
+    </row>
+    <row r="27" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="S27">
+        <v>25</v>
+      </c>
+      <c r="T27">
+        <v>0.15625</v>
+      </c>
+      <c r="U27">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+      <c r="V27">
+        <f t="shared" si="1"/>
+        <v>84.375</v>
+      </c>
+    </row>
+    <row r="28" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="S28">
+        <v>26</v>
+      </c>
+      <c r="T28">
+        <v>0.125</v>
+      </c>
+      <c r="U28">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+      <c r="V28">
+        <f t="shared" si="1"/>
+        <v>87.5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="S29">
+        <v>27</v>
+      </c>
+      <c r="T29">
+        <v>0.171875</v>
+      </c>
+      <c r="U29">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+      <c r="V29">
+        <f t="shared" si="1"/>
+        <v>82.8125</v>
+      </c>
+    </row>
+    <row r="30" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="S30">
+        <v>28</v>
+      </c>
+      <c r="T30">
+        <v>0.15625</v>
+      </c>
+      <c r="U30">
+        <f t="shared" si="0"/>
+        <v>29</v>
+      </c>
+      <c r="V30">
+        <f t="shared" si="1"/>
+        <v>84.375</v>
+      </c>
+    </row>
+    <row r="31" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="S31">
+        <v>29</v>
+      </c>
+      <c r="T31">
+        <v>0.171875</v>
+      </c>
+      <c r="U31">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="V31">
+        <f t="shared" si="1"/>
+        <v>82.8125</v>
+      </c>
+    </row>
+    <row r="32" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="S32">
+        <v>30</v>
+      </c>
+      <c r="T32">
+        <v>0.125</v>
+      </c>
+      <c r="U32">
+        <f t="shared" si="0"/>
+        <v>31</v>
+      </c>
+      <c r="V32">
+        <f t="shared" si="1"/>
+        <v>87.5</v>
+      </c>
+    </row>
+    <row r="33" spans="19:22" x14ac:dyDescent="0.45">
+      <c r="S33">
+        <v>31</v>
+      </c>
+      <c r="T33">
+        <v>0.15625</v>
+      </c>
+      <c r="U33">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+      <c r="V33">
+        <f t="shared" si="1"/>
+        <v>84.375</v>
+      </c>
+    </row>
+    <row r="34" spans="19:22" x14ac:dyDescent="0.45">
+      <c r="S34">
+        <v>32</v>
+      </c>
+      <c r="T34">
+        <v>7.8125E-2</v>
+      </c>
+      <c r="U34">
+        <f t="shared" si="0"/>
+        <v>33</v>
+      </c>
+      <c r="V34">
+        <f t="shared" si="1"/>
+        <v>92.1875</v>
+      </c>
+    </row>
+    <row r="35" spans="19:22" x14ac:dyDescent="0.45">
+      <c r="S35">
+        <v>33</v>
+      </c>
+      <c r="T35">
+        <v>0.140625</v>
+      </c>
+      <c r="U35">
+        <f t="shared" si="0"/>
+        <v>34</v>
+      </c>
+      <c r="V35">
+        <f t="shared" si="1"/>
+        <v>85.9375</v>
+      </c>
+    </row>
+    <row r="36" spans="19:22" x14ac:dyDescent="0.45">
+      <c r="S36">
+        <v>34</v>
+      </c>
+      <c r="T36">
+        <v>0.140625</v>
+      </c>
+      <c r="U36">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+      <c r="V36">
+        <f t="shared" si="1"/>
+        <v>85.9375</v>
+      </c>
+    </row>
+    <row r="37" spans="19:22" x14ac:dyDescent="0.45">
+      <c r="S37">
+        <v>35</v>
+      </c>
+      <c r="T37">
+        <v>0.109375</v>
+      </c>
+      <c r="U37">
+        <f t="shared" si="0"/>
+        <v>36</v>
+      </c>
+      <c r="V37">
+        <f t="shared" si="1"/>
+        <v>89.0625</v>
+      </c>
+    </row>
+    <row r="38" spans="19:22" x14ac:dyDescent="0.45">
+      <c r="S38">
+        <v>36</v>
+      </c>
+      <c r="T38">
+        <v>9.375E-2</v>
+      </c>
+      <c r="U38">
+        <f t="shared" si="0"/>
+        <v>37</v>
+      </c>
+      <c r="V38">
+        <f t="shared" si="1"/>
+        <v>90.625</v>
+      </c>
+    </row>
+    <row r="39" spans="19:22" x14ac:dyDescent="0.45">
+      <c r="S39">
+        <v>37</v>
+      </c>
+      <c r="T39">
+        <v>0.15625</v>
+      </c>
+      <c r="U39">
+        <f t="shared" si="0"/>
+        <v>38</v>
+      </c>
+      <c r="V39">
+        <f t="shared" si="1"/>
+        <v>84.375</v>
+      </c>
+    </row>
+    <row r="40" spans="19:22" x14ac:dyDescent="0.45">
+      <c r="S40">
+        <v>38</v>
+      </c>
+      <c r="T40">
+        <v>0.125</v>
+      </c>
+      <c r="U40">
+        <f t="shared" si="0"/>
+        <v>39</v>
+      </c>
+      <c r="V40">
+        <f t="shared" si="1"/>
+        <v>87.5</v>
+      </c>
+    </row>
+    <row r="41" spans="19:22" x14ac:dyDescent="0.45">
+      <c r="S41">
+        <v>39</v>
+      </c>
+      <c r="T41">
+        <v>9.375E-2</v>
+      </c>
+      <c r="U41">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="V41">
+        <f t="shared" si="1"/>
+        <v>90.625</v>
+      </c>
+    </row>
+    <row r="42" spans="19:22" x14ac:dyDescent="0.45">
+      <c r="S42">
+        <v>40</v>
+      </c>
+      <c r="T42">
+        <v>9.375E-2</v>
+      </c>
+      <c r="U42">
+        <f t="shared" si="0"/>
+        <v>41</v>
+      </c>
+      <c r="V42">
+        <f t="shared" si="1"/>
+        <v>90.625</v>
+      </c>
+    </row>
+    <row r="43" spans="19:22" x14ac:dyDescent="0.45">
+      <c r="S43">
+        <v>41</v>
+      </c>
+      <c r="T43">
+        <v>7.8125E-2</v>
+      </c>
+      <c r="U43">
+        <f t="shared" si="0"/>
+        <v>42</v>
+      </c>
+      <c r="V43">
+        <f t="shared" si="1"/>
+        <v>92.1875</v>
+      </c>
+    </row>
+    <row r="44" spans="19:22" x14ac:dyDescent="0.45">
+      <c r="S44">
+        <v>42</v>
+      </c>
+      <c r="T44">
+        <v>0.109375</v>
+      </c>
+      <c r="U44">
+        <f t="shared" si="0"/>
+        <v>43</v>
+      </c>
+      <c r="V44">
+        <f t="shared" si="1"/>
+        <v>89.0625</v>
+      </c>
+    </row>
+    <row r="45" spans="19:22" x14ac:dyDescent="0.45">
+      <c r="S45">
+        <v>43</v>
+      </c>
+      <c r="T45">
+        <v>0.125</v>
+      </c>
+      <c r="U45">
+        <f t="shared" si="0"/>
+        <v>44</v>
+      </c>
+      <c r="V45">
+        <f t="shared" si="1"/>
+        <v>87.5</v>
+      </c>
+    </row>
+    <row r="46" spans="19:22" x14ac:dyDescent="0.45">
+      <c r="S46">
+        <v>44</v>
+      </c>
+      <c r="T46">
+        <v>0.15625</v>
+      </c>
+      <c r="U46">
+        <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+      <c r="V46">
+        <f t="shared" si="1"/>
+        <v>84.375</v>
+      </c>
+    </row>
+    <row r="47" spans="19:22" x14ac:dyDescent="0.45">
+      <c r="S47">
+        <v>45</v>
+      </c>
+      <c r="T47">
+        <v>9.375E-2</v>
+      </c>
+      <c r="U47">
+        <f t="shared" si="0"/>
+        <v>46</v>
+      </c>
+      <c r="V47">
+        <f t="shared" si="1"/>
+        <v>90.625</v>
+      </c>
+    </row>
+    <row r="48" spans="19:22" x14ac:dyDescent="0.45">
+      <c r="S48">
+        <v>46</v>
+      </c>
+      <c r="T48">
+        <v>0.109375</v>
+      </c>
+      <c r="U48">
+        <f t="shared" si="0"/>
+        <v>47</v>
+      </c>
+      <c r="V48">
+        <f t="shared" si="1"/>
+        <v>89.0625</v>
+      </c>
+    </row>
+    <row r="49" spans="19:22" x14ac:dyDescent="0.45">
+      <c r="S49">
+        <v>47</v>
+      </c>
+      <c r="T49">
+        <v>0.125</v>
+      </c>
+      <c r="U49">
+        <f t="shared" si="0"/>
+        <v>48</v>
+      </c>
+      <c r="V49">
+        <f t="shared" si="1"/>
+        <v>87.5</v>
+      </c>
+    </row>
+    <row r="50" spans="19:22" x14ac:dyDescent="0.45">
+      <c r="S50">
+        <v>48</v>
+      </c>
+      <c r="T50">
+        <v>0.140625</v>
+      </c>
+      <c r="U50">
+        <f t="shared" si="0"/>
+        <v>49</v>
+      </c>
+      <c r="V50">
+        <f t="shared" si="1"/>
+        <v>85.9375</v>
+      </c>
+    </row>
+    <row r="51" spans="19:22" x14ac:dyDescent="0.45">
+      <c r="S51">
+        <v>49</v>
+      </c>
+      <c r="T51">
+        <v>0.171875</v>
+      </c>
+      <c r="U51">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+      <c r="V51">
+        <f t="shared" si="1"/>
+        <v>82.8125</v>
+      </c>
+    </row>
+    <row r="52" spans="19:22" x14ac:dyDescent="0.45">
+      <c r="S52">
+        <v>50</v>
+      </c>
+      <c r="T52">
+        <v>0.125</v>
+      </c>
+      <c r="U52">
+        <f t="shared" si="0"/>
+        <v>51</v>
+      </c>
+      <c r="V52">
+        <f t="shared" si="1"/>
+        <v>87.5</v>
+      </c>
+    </row>
+    <row r="53" spans="19:22" x14ac:dyDescent="0.45">
+      <c r="S53">
+        <v>51</v>
+      </c>
+      <c r="T53">
+        <v>0.171875</v>
+      </c>
+      <c r="U53">
+        <f t="shared" si="0"/>
+        <v>52</v>
+      </c>
+      <c r="V53">
+        <f t="shared" si="1"/>
+        <v>82.8125</v>
+      </c>
+    </row>
+    <row r="54" spans="19:22" x14ac:dyDescent="0.45">
+      <c r="S54">
+        <v>52</v>
+      </c>
+      <c r="T54">
+        <v>0.125</v>
+      </c>
+      <c r="U54">
+        <f t="shared" si="0"/>
+        <v>53</v>
+      </c>
+      <c r="V54">
+        <f t="shared" si="1"/>
+        <v>87.5</v>
+      </c>
+    </row>
+    <row r="55" spans="19:22" x14ac:dyDescent="0.45">
+      <c r="S55">
+        <v>53</v>
+      </c>
+      <c r="T55">
+        <v>7.8125E-2</v>
+      </c>
+      <c r="U55">
+        <f t="shared" si="0"/>
+        <v>54</v>
+      </c>
+      <c r="V55">
+        <f t="shared" si="1"/>
+        <v>92.1875</v>
+      </c>
+    </row>
+    <row r="56" spans="19:22" x14ac:dyDescent="0.45">
+      <c r="S56">
+        <v>54</v>
+      </c>
+      <c r="T56">
+        <v>0.140625</v>
+      </c>
+      <c r="U56">
+        <f t="shared" si="0"/>
+        <v>55</v>
+      </c>
+      <c r="V56">
+        <f t="shared" si="1"/>
+        <v>85.9375</v>
+      </c>
+    </row>
+    <row r="57" spans="19:22" x14ac:dyDescent="0.45">
+      <c r="S57">
+        <v>55</v>
+      </c>
+      <c r="T57">
+        <v>0.140625</v>
+      </c>
+      <c r="U57">
+        <f t="shared" si="0"/>
+        <v>56</v>
+      </c>
+      <c r="V57">
+        <f t="shared" si="1"/>
+        <v>85.9375</v>
+      </c>
+    </row>
+    <row r="58" spans="19:22" x14ac:dyDescent="0.45">
+      <c r="S58">
+        <v>56</v>
+      </c>
+      <c r="T58">
+        <v>0.109375</v>
+      </c>
+      <c r="U58">
+        <f t="shared" si="0"/>
+        <v>57</v>
+      </c>
+      <c r="V58">
+        <f t="shared" si="1"/>
+        <v>89.0625</v>
+      </c>
+    </row>
+    <row r="59" spans="19:22" x14ac:dyDescent="0.45">
+      <c r="S59">
+        <v>57</v>
+      </c>
+      <c r="T59">
+        <v>0.140625</v>
+      </c>
+      <c r="U59">
+        <f t="shared" si="0"/>
+        <v>58</v>
+      </c>
+      <c r="V59">
+        <f t="shared" si="1"/>
+        <v>85.9375</v>
+      </c>
+    </row>
+    <row r="60" spans="19:22" x14ac:dyDescent="0.45">
+      <c r="S60">
+        <v>58</v>
+      </c>
+      <c r="T60">
+        <v>0.140625</v>
+      </c>
+      <c r="U60">
+        <f t="shared" si="0"/>
+        <v>59</v>
+      </c>
+      <c r="V60">
+        <f t="shared" si="1"/>
+        <v>85.9375</v>
+      </c>
+    </row>
+    <row r="61" spans="19:22" x14ac:dyDescent="0.45">
+      <c r="S61">
+        <v>59</v>
+      </c>
+      <c r="T61">
+        <v>0.15625</v>
+      </c>
+      <c r="U61">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+      <c r="V61">
+        <f t="shared" si="1"/>
+        <v>84.375</v>
+      </c>
+    </row>
+    <row r="62" spans="19:22" x14ac:dyDescent="0.45">
+      <c r="S62">
+        <v>60</v>
+      </c>
+      <c r="T62">
+        <v>0.15625</v>
+      </c>
+      <c r="U62">
+        <f t="shared" si="0"/>
+        <v>61</v>
+      </c>
+      <c r="V62">
+        <f t="shared" si="1"/>
+        <v>84.375</v>
+      </c>
+    </row>
+    <row r="63" spans="19:22" x14ac:dyDescent="0.45">
+      <c r="S63">
+        <v>61</v>
+      </c>
+      <c r="T63">
+        <v>0.140625</v>
+      </c>
+      <c r="U63">
+        <f t="shared" si="0"/>
+        <v>62</v>
+      </c>
+      <c r="V63">
+        <f t="shared" si="1"/>
+        <v>85.9375</v>
+      </c>
+    </row>
+    <row r="64" spans="19:22" x14ac:dyDescent="0.45">
+      <c r="S64">
+        <v>62</v>
+      </c>
+      <c r="T64">
+        <v>0.140625</v>
+      </c>
+      <c r="U64">
+        <f t="shared" si="0"/>
+        <v>63</v>
+      </c>
+      <c r="V64">
+        <f t="shared" si="1"/>
+        <v>85.9375</v>
+      </c>
+    </row>
+    <row r="65" spans="19:22" x14ac:dyDescent="0.45">
+      <c r="S65">
+        <v>63</v>
+      </c>
+      <c r="T65">
+        <v>0.109375</v>
+      </c>
+      <c r="U65">
+        <f t="shared" si="0"/>
+        <v>64</v>
+      </c>
+      <c r="V65">
+        <f t="shared" si="1"/>
+        <v>89.0625</v>
+      </c>
+    </row>
+    <row r="66" spans="19:22" x14ac:dyDescent="0.45">
+      <c r="S66">
+        <v>64</v>
+      </c>
+      <c r="T66">
+        <v>0.203125</v>
+      </c>
+      <c r="U66">
+        <f t="shared" si="0"/>
+        <v>65</v>
+      </c>
+      <c r="V66">
+        <f t="shared" si="1"/>
+        <v>79.6875</v>
+      </c>
+    </row>
+    <row r="67" spans="19:22" x14ac:dyDescent="0.45">
+      <c r="S67">
+        <v>65</v>
+      </c>
+      <c r="T67">
+        <v>0.125</v>
+      </c>
+      <c r="U67">
+        <f t="shared" ref="U67:U130" si="2" xml:space="preserve"> 1+S67</f>
+        <v>66</v>
+      </c>
+      <c r="V67">
+        <f t="shared" ref="V67:V101" si="3" xml:space="preserve"> (1-T67)*100</f>
+        <v>87.5</v>
+      </c>
+    </row>
+    <row r="68" spans="19:22" x14ac:dyDescent="0.45">
+      <c r="S68">
+        <v>66</v>
+      </c>
+      <c r="T68">
+        <v>0.109375</v>
+      </c>
+      <c r="U68">
+        <f t="shared" si="2"/>
+        <v>67</v>
+      </c>
+      <c r="V68">
+        <f t="shared" si="3"/>
+        <v>89.0625</v>
+      </c>
+    </row>
+    <row r="69" spans="19:22" x14ac:dyDescent="0.45">
+      <c r="S69">
+        <v>67</v>
+      </c>
+      <c r="T69">
+        <v>0.125</v>
+      </c>
+      <c r="U69">
+        <f t="shared" si="2"/>
+        <v>68</v>
+      </c>
+      <c r="V69">
+        <f t="shared" si="3"/>
+        <v>87.5</v>
+      </c>
+    </row>
+    <row r="70" spans="19:22" x14ac:dyDescent="0.45">
+      <c r="S70">
+        <v>68</v>
+      </c>
+      <c r="T70">
+        <v>0.109375</v>
+      </c>
+      <c r="U70">
+        <f t="shared" si="2"/>
+        <v>69</v>
+      </c>
+      <c r="V70">
+        <f t="shared" si="3"/>
+        <v>89.0625</v>
+      </c>
+    </row>
+    <row r="71" spans="19:22" x14ac:dyDescent="0.45">
+      <c r="S71">
+        <v>69</v>
+      </c>
+      <c r="T71">
+        <v>0.140625</v>
+      </c>
+      <c r="U71">
+        <f t="shared" si="2"/>
+        <v>70</v>
+      </c>
+      <c r="V71">
+        <f t="shared" si="3"/>
+        <v>85.9375</v>
+      </c>
+    </row>
+    <row r="72" spans="19:22" x14ac:dyDescent="0.45">
+      <c r="S72">
+        <v>70</v>
+      </c>
+      <c r="T72">
+        <v>0.125</v>
+      </c>
+      <c r="U72">
+        <f t="shared" si="2"/>
+        <v>71</v>
+      </c>
+      <c r="V72">
+        <f t="shared" si="3"/>
+        <v>87.5</v>
+      </c>
+    </row>
+    <row r="73" spans="19:22" x14ac:dyDescent="0.45">
+      <c r="S73">
+        <v>71</v>
+      </c>
+      <c r="T73">
+        <v>0.109375</v>
+      </c>
+      <c r="U73">
+        <f t="shared" si="2"/>
+        <v>72</v>
+      </c>
+      <c r="V73">
+        <f t="shared" si="3"/>
+        <v>89.0625</v>
+      </c>
+    </row>
+    <row r="74" spans="19:22" x14ac:dyDescent="0.45">
+      <c r="S74">
+        <v>72</v>
+      </c>
+      <c r="T74">
+        <v>0.109375</v>
+      </c>
+      <c r="U74">
+        <f t="shared" si="2"/>
+        <v>73</v>
+      </c>
+      <c r="V74">
+        <f t="shared" si="3"/>
+        <v>89.0625</v>
+      </c>
+    </row>
+    <row r="75" spans="19:22" x14ac:dyDescent="0.45">
+      <c r="S75">
+        <v>73</v>
+      </c>
+      <c r="T75">
+        <v>0.109375</v>
+      </c>
+      <c r="U75">
+        <f t="shared" si="2"/>
+        <v>74</v>
+      </c>
+      <c r="V75">
+        <f t="shared" si="3"/>
+        <v>89.0625</v>
+      </c>
+    </row>
+    <row r="76" spans="19:22" x14ac:dyDescent="0.45">
+      <c r="S76">
+        <v>74</v>
+      </c>
+      <c r="T76">
+        <v>0.140625</v>
+      </c>
+      <c r="U76">
+        <f t="shared" si="2"/>
+        <v>75</v>
+      </c>
+      <c r="V76">
+        <f t="shared" si="3"/>
+        <v>85.9375</v>
+      </c>
+    </row>
+    <row r="77" spans="19:22" x14ac:dyDescent="0.45">
+      <c r="S77">
+        <v>75</v>
+      </c>
+      <c r="T77">
+        <v>0.125</v>
+      </c>
+      <c r="U77">
+        <f t="shared" si="2"/>
+        <v>76</v>
+      </c>
+      <c r="V77">
+        <f t="shared" si="3"/>
+        <v>87.5</v>
+      </c>
+    </row>
+    <row r="78" spans="19:22" x14ac:dyDescent="0.45">
+      <c r="S78">
+        <v>76</v>
+      </c>
+      <c r="T78">
+        <v>0.140625</v>
+      </c>
+      <c r="U78">
+        <f t="shared" si="2"/>
+        <v>77</v>
+      </c>
+      <c r="V78">
+        <f t="shared" si="3"/>
+        <v>85.9375</v>
+      </c>
+    </row>
+    <row r="79" spans="19:22" x14ac:dyDescent="0.45">
+      <c r="S79">
+        <v>77</v>
+      </c>
+      <c r="T79">
+        <v>0.140625</v>
+      </c>
+      <c r="U79">
+        <f t="shared" si="2"/>
+        <v>78</v>
+      </c>
+      <c r="V79">
+        <f t="shared" si="3"/>
+        <v>85.9375</v>
+      </c>
+    </row>
+    <row r="80" spans="19:22" x14ac:dyDescent="0.45">
+      <c r="S80">
+        <v>78</v>
+      </c>
+      <c r="T80">
+        <v>0.109375</v>
+      </c>
+      <c r="U80">
+        <f t="shared" si="2"/>
+        <v>79</v>
+      </c>
+      <c r="V80">
+        <f t="shared" si="3"/>
+        <v>89.0625</v>
+      </c>
+    </row>
+    <row r="81" spans="19:22" x14ac:dyDescent="0.45">
+      <c r="S81">
+        <v>79</v>
+      </c>
+      <c r="T81">
+        <v>0.125</v>
+      </c>
+      <c r="U81">
+        <f t="shared" si="2"/>
+        <v>80</v>
+      </c>
+      <c r="V81">
+        <f t="shared" si="3"/>
+        <v>87.5</v>
+      </c>
+    </row>
+    <row r="82" spans="19:22" x14ac:dyDescent="0.45">
+      <c r="S82">
+        <v>80</v>
+      </c>
+      <c r="T82">
+        <v>7.8125E-2</v>
+      </c>
+      <c r="U82">
+        <f t="shared" si="2"/>
+        <v>81</v>
+      </c>
+      <c r="V82">
+        <f t="shared" si="3"/>
+        <v>92.1875</v>
+      </c>
+    </row>
+    <row r="83" spans="19:22" x14ac:dyDescent="0.45">
+      <c r="S83">
+        <v>81</v>
+      </c>
+      <c r="T83">
+        <v>7.8125E-2</v>
+      </c>
+      <c r="U83">
+        <f t="shared" si="2"/>
+        <v>82</v>
+      </c>
+      <c r="V83">
+        <f t="shared" si="3"/>
+        <v>92.1875</v>
+      </c>
+    </row>
+    <row r="84" spans="19:22" x14ac:dyDescent="0.45">
+      <c r="S84">
+        <v>82</v>
+      </c>
+      <c r="T84">
+        <v>7.8125E-2</v>
+      </c>
+      <c r="U84">
+        <f t="shared" si="2"/>
+        <v>83</v>
+      </c>
+      <c r="V84">
+        <f t="shared" si="3"/>
+        <v>92.1875</v>
+      </c>
+    </row>
+    <row r="85" spans="19:22" x14ac:dyDescent="0.45">
+      <c r="S85">
+        <v>83</v>
+      </c>
+      <c r="T85">
+        <v>9.375E-2</v>
+      </c>
+      <c r="U85">
+        <f t="shared" si="2"/>
+        <v>84</v>
+      </c>
+      <c r="V85">
+        <f t="shared" si="3"/>
+        <v>90.625</v>
+      </c>
+    </row>
+    <row r="86" spans="19:22" x14ac:dyDescent="0.45">
+      <c r="S86">
+        <v>84</v>
+      </c>
+      <c r="T86">
+        <v>0.125</v>
+      </c>
+      <c r="U86">
+        <f t="shared" si="2"/>
+        <v>85</v>
+      </c>
+      <c r="V86">
+        <f t="shared" si="3"/>
+        <v>87.5</v>
+      </c>
+    </row>
+    <row r="87" spans="19:22" x14ac:dyDescent="0.45">
+      <c r="S87">
+        <v>85</v>
+      </c>
+      <c r="T87">
+        <v>9.375E-2</v>
+      </c>
+      <c r="U87">
+        <f t="shared" si="2"/>
+        <v>86</v>
+      </c>
+      <c r="V87">
+        <f t="shared" si="3"/>
+        <v>90.625</v>
+      </c>
+    </row>
+    <row r="88" spans="19:22" x14ac:dyDescent="0.45">
+      <c r="S88">
+        <v>86</v>
+      </c>
+      <c r="T88">
+        <v>0.109375</v>
+      </c>
+      <c r="U88">
+        <f t="shared" si="2"/>
+        <v>87</v>
+      </c>
+      <c r="V88">
+        <f t="shared" si="3"/>
+        <v>89.0625</v>
+      </c>
+    </row>
+    <row r="89" spans="19:22" x14ac:dyDescent="0.45">
+      <c r="S89">
+        <v>87</v>
+      </c>
+      <c r="T89">
+        <v>0.109375</v>
+      </c>
+      <c r="U89">
+        <f t="shared" si="2"/>
+        <v>88</v>
+      </c>
+      <c r="V89">
+        <f t="shared" si="3"/>
+        <v>89.0625</v>
+      </c>
+    </row>
+    <row r="90" spans="19:22" x14ac:dyDescent="0.45">
+      <c r="S90">
+        <v>88</v>
+      </c>
+      <c r="T90">
+        <v>9.375E-2</v>
+      </c>
+      <c r="U90">
+        <f t="shared" si="2"/>
+        <v>89</v>
+      </c>
+      <c r="V90">
+        <f t="shared" si="3"/>
+        <v>90.625</v>
+      </c>
+    </row>
+    <row r="91" spans="19:22" x14ac:dyDescent="0.45">
+      <c r="S91">
+        <v>89</v>
+      </c>
+      <c r="T91">
+        <v>0.109375</v>
+      </c>
+      <c r="U91">
+        <f t="shared" si="2"/>
+        <v>90</v>
+      </c>
+      <c r="V91">
+        <f t="shared" si="3"/>
+        <v>89.0625</v>
+      </c>
+    </row>
+    <row r="92" spans="19:22" x14ac:dyDescent="0.45">
+      <c r="S92">
+        <v>90</v>
+      </c>
+      <c r="T92">
+        <v>0.109375</v>
+      </c>
+      <c r="U92">
+        <f t="shared" si="2"/>
+        <v>91</v>
+      </c>
+      <c r="V92">
+        <f t="shared" si="3"/>
+        <v>89.0625</v>
+      </c>
+    </row>
+    <row r="93" spans="19:22" x14ac:dyDescent="0.45">
+      <c r="S93">
+        <v>91</v>
+      </c>
+      <c r="T93">
+        <v>0.109375</v>
+      </c>
+      <c r="U93">
+        <f t="shared" si="2"/>
+        <v>92</v>
+      </c>
+      <c r="V93">
+        <f t="shared" si="3"/>
+        <v>89.0625</v>
+      </c>
+    </row>
+    <row r="94" spans="19:22" x14ac:dyDescent="0.45">
+      <c r="S94">
+        <v>92</v>
+      </c>
+      <c r="T94">
+        <v>0.109375</v>
+      </c>
+      <c r="U94">
+        <f t="shared" si="2"/>
+        <v>93</v>
+      </c>
+      <c r="V94">
+        <f t="shared" si="3"/>
+        <v>89.0625</v>
+      </c>
+    </row>
+    <row r="95" spans="19:22" x14ac:dyDescent="0.45">
+      <c r="S95">
+        <v>93</v>
+      </c>
+      <c r="T95">
+        <v>0.109375</v>
+      </c>
+      <c r="U95">
+        <f t="shared" si="2"/>
+        <v>94</v>
+      </c>
+      <c r="V95">
+        <f t="shared" si="3"/>
+        <v>89.0625</v>
+      </c>
+    </row>
+    <row r="96" spans="19:22" x14ac:dyDescent="0.45">
+      <c r="S96">
+        <v>94</v>
+      </c>
+      <c r="T96">
+        <v>0.109375</v>
+      </c>
+      <c r="U96">
+        <f t="shared" si="2"/>
+        <v>95</v>
+      </c>
+      <c r="V96">
+        <f t="shared" si="3"/>
+        <v>89.0625</v>
+      </c>
+    </row>
+    <row r="97" spans="19:22" x14ac:dyDescent="0.45">
+      <c r="S97">
+        <v>95</v>
+      </c>
+      <c r="T97">
+        <v>0.109375</v>
+      </c>
+      <c r="U97">
+        <f t="shared" si="2"/>
+        <v>96</v>
+      </c>
+      <c r="V97">
+        <f t="shared" si="3"/>
+        <v>89.0625</v>
+      </c>
+    </row>
+    <row r="98" spans="19:22" x14ac:dyDescent="0.45">
+      <c r="S98">
+        <v>96</v>
+      </c>
+      <c r="T98">
+        <v>0.109375</v>
+      </c>
+      <c r="U98">
+        <f t="shared" si="2"/>
+        <v>97</v>
+      </c>
+      <c r="V98">
+        <f t="shared" si="3"/>
+        <v>89.0625</v>
+      </c>
+    </row>
+    <row r="99" spans="19:22" x14ac:dyDescent="0.45">
+      <c r="S99">
+        <v>97</v>
+      </c>
+      <c r="T99">
+        <v>0.109375</v>
+      </c>
+      <c r="U99">
+        <f t="shared" si="2"/>
+        <v>98</v>
+      </c>
+      <c r="V99">
+        <f t="shared" si="3"/>
+        <v>89.0625</v>
+      </c>
+    </row>
+    <row r="100" spans="19:22" x14ac:dyDescent="0.45">
+      <c r="S100">
+        <v>98</v>
+      </c>
+      <c r="T100">
+        <v>0.109375</v>
+      </c>
+      <c r="U100">
+        <f t="shared" si="2"/>
+        <v>99</v>
+      </c>
+      <c r="V100">
+        <f t="shared" si="3"/>
+        <v>89.0625</v>
+      </c>
+    </row>
+    <row r="101" spans="19:22" x14ac:dyDescent="0.45">
+      <c r="S101">
+        <v>99</v>
+      </c>
+      <c r="T101">
+        <v>0.109375</v>
+      </c>
+      <c r="U101">
+        <f t="shared" si="2"/>
+        <v>100</v>
+      </c>
+      <c r="V101">
+        <f t="shared" si="3"/>
+        <v>89.0625</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="3">
     <mergeCell ref="H1:L1"/>
     <mergeCell ref="A3:C3"/>
     <mergeCell ref="A20:C20"/>
-    <mergeCell ref="A1:E1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/LJ+UA Experiments.xlsx
+++ b/LJ+UA Experiments.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dhvan\Documents\GitHub\P4P-Transformer-ASR-for-Dysarthric-Speech\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BDEB20A-124A-4CC1-B846-5E972C24A250}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{744121A6-F12D-4D8A-A1CC-967F8023721B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3360" yWindow="3517" windowWidth="15390" windowHeight="9443" xr2:uid="{75EE08EB-D9DA-45E6-8F41-68FBAE46F917}"/>
+    <workbookView xWindow="3360" yWindow="3517" windowWidth="15390" windowHeight="9443" activeTab="1" xr2:uid="{75EE08EB-D9DA-45E6-8F41-68FBAE46F917}"/>
   </bookViews>
   <sheets>
     <sheet name="E1" sheetId="1" r:id="rId1"/>
+    <sheet name="E2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -1799,7 +1800,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8291A156-869C-41B2-85E5-143FBF3A090A}">
   <dimension ref="A1:V101"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="49" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView zoomScale="49" zoomScaleNormal="160" workbookViewId="0">
       <selection activeCell="H50" sqref="H50"/>
     </sheetView>
   </sheetViews>
@@ -3456,4 +3457,16 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68AFAB66-8867-4821-9ACF-FD3223DD8066}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/LJ+UA Experiments.xlsx
+++ b/LJ+UA Experiments.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dhvan\Documents\GitHub\P4P-Transformer-ASR-for-Dysarthric-Speech\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{744121A6-F12D-4D8A-A1CC-967F8023721B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4312107B-9F43-4420-B23C-210593A99CA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3360" yWindow="3517" windowWidth="15390" windowHeight="9443" activeTab="1" xr2:uid="{75EE08EB-D9DA-45E6-8F41-68FBAE46F917}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13155" activeTab="1" xr2:uid="{75EE08EB-D9DA-45E6-8F41-68FBAE46F917}"/>
   </bookViews>
   <sheets>
     <sheet name="E1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="9">
   <si>
     <r>
       <rPr>
@@ -123,6 +123,50 @@
       <t>89% (2% increase)</t>
     </r>
   </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Model Name:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> LJ200_UAControl_FreezeE2.h5 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Accuracy:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>89% (2% increase)</t>
+    </r>
+  </si>
 </sst>
 </file>
 
@@ -165,13 +209,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -578,6 +621,584 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-9F5B-4986-AF83-D8D6A2253E10}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="174164559"/>
+        <c:axId val="174163311"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="174164559"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="174163311"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="174163311"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="174164559"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'E1'!$V$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Accuracy</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'E1'!$V$2:$V$101</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="100"/>
+                <c:pt idx="0">
+                  <c:v>1.5625</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>15.625</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>42.1875</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>59.375</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>76.5625</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>78.125</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>78.125</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>79.6875</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>76.5625</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>78.125</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>73.4375</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>82.8125</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>78.125</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>85.9375</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>81.25</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>79.6875</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>81.25</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>87.5</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>89.0625</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>85.9375</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>90.625</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>82.8125</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>85.9375</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>84.375</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>87.5</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>82.8125</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>84.375</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>82.8125</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>87.5</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>84.375</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>92.1875</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>85.9375</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>85.9375</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>89.0625</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>90.625</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>84.375</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>87.5</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>90.625</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>90.625</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>92.1875</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>89.0625</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>87.5</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>84.375</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>90.625</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>89.0625</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>87.5</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>85.9375</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>82.8125</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>87.5</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>82.8125</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>87.5</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>92.1875</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>85.9375</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>85.9375</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>89.0625</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>85.9375</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>85.9375</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>84.375</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>84.375</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>85.9375</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>85.9375</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>89.0625</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>79.6875</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>87.5</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>89.0625</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>87.5</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>89.0625</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>85.9375</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>87.5</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>89.0625</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>89.0625</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>89.0625</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>85.9375</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>87.5</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>85.9375</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>85.9375</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>89.0625</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>87.5</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>92.1875</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>92.1875</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>92.1875</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>90.625</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>87.5</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>90.625</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>89.0625</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>89.0625</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>90.625</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>89.0625</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>89.0625</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>89.0625</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>89.0625</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>89.0625</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>89.0625</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>89.0625</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>89.0625</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>89.0625</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>89.0625</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>89.0625</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-2D83-4ADD-B5C5-4B43E3BCE7E4}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -807,7 +1428,563 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -1501,6 +2678,186 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>65539</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>14072</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>104863</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0C1FC1B4-11AF-484B-9249-DE122AAD8202}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:srcRect l="-331" t="38919" r="61637" b="11975"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1" y="608464"/>
+          <a:ext cx="3252571" cy="2753949"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>483196</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>72321</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>67798</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>135953</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{62350AA1-35FF-421A-8BE1-623703A0DBCE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>33337</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>176213</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>137995</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F042D5F2-1232-E876-274E-8413AED7915F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="33337" y="3614738"/>
+          <a:ext cx="3233738" cy="2676407"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>495299</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>481012</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>132160</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CA2BCD90-9E88-EE26-896B-87E4424E366B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5676899" y="666750"/>
+          <a:ext cx="3871913" cy="2903935"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -1801,7 +3158,7 @@
   <dimension ref="A1:V101"/>
   <sheetViews>
     <sheetView zoomScale="49" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="H50" sqref="H50"/>
+      <selection activeCell="F22" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1810,13 +3167,9 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.45">
-      <c r="A1" s="3" t="s">
+      <c r="A1" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
       <c r="H1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2895,7 +4248,7 @@
         <v>0.125</v>
       </c>
       <c r="U67">
-        <f t="shared" ref="U67:U130" si="2" xml:space="preserve"> 1+S67</f>
+        <f t="shared" ref="U67:U101" si="2" xml:space="preserve"> 1+S67</f>
         <v>66</v>
       </c>
       <c r="V67">
@@ -3461,12 +4814,1663 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68AFAB66-8867-4821-9ACF-FD3223DD8066}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:V101"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="A1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
+      <c r="S1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="S2">
+        <v>0</v>
+      </c>
+      <c r="T2">
+        <v>1</v>
+      </c>
+      <c r="U2">
+        <f xml:space="preserve"> 1+S2</f>
+        <v>1</v>
+      </c>
+      <c r="V2">
+        <f xml:space="preserve"> (1-T2)*100</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="A3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="S3">
+        <v>1</v>
+      </c>
+      <c r="T3">
+        <v>0.859375</v>
+      </c>
+      <c r="U3">
+        <f t="shared" ref="U3:U66" si="0" xml:space="preserve"> 1+S3</f>
+        <v>2</v>
+      </c>
+      <c r="V3">
+        <f t="shared" ref="V3:V66" si="1" xml:space="preserve"> (1-T3)*100</f>
+        <v>14.0625</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="S4">
+        <v>2</v>
+      </c>
+      <c r="T4">
+        <v>0.671875</v>
+      </c>
+      <c r="U4">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="V4">
+        <f t="shared" si="1"/>
+        <v>32.8125</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="S5">
+        <v>3</v>
+      </c>
+      <c r="T5">
+        <v>0.375</v>
+      </c>
+      <c r="U5">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="V5">
+        <f t="shared" si="1"/>
+        <v>62.5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="S6">
+        <v>4</v>
+      </c>
+      <c r="T6">
+        <v>0.28125</v>
+      </c>
+      <c r="U6">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="V6">
+        <f t="shared" si="1"/>
+        <v>71.875</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="S7">
+        <v>5</v>
+      </c>
+      <c r="T7">
+        <v>0.296875</v>
+      </c>
+      <c r="U7">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="V7">
+        <f t="shared" si="1"/>
+        <v>70.3125</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="S8">
+        <v>6</v>
+      </c>
+      <c r="T8">
+        <v>0.3125</v>
+      </c>
+      <c r="U8">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="V8">
+        <f t="shared" si="1"/>
+        <v>68.75</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="S9">
+        <v>7</v>
+      </c>
+      <c r="T9">
+        <v>0.28125</v>
+      </c>
+      <c r="U9">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="V9">
+        <f t="shared" si="1"/>
+        <v>71.875</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="S10">
+        <v>8</v>
+      </c>
+      <c r="T10">
+        <v>0.21875</v>
+      </c>
+      <c r="U10">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="V10">
+        <f t="shared" si="1"/>
+        <v>78.125</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="S11">
+        <v>9</v>
+      </c>
+      <c r="T11">
+        <v>0.234375</v>
+      </c>
+      <c r="U11">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="V11">
+        <f t="shared" si="1"/>
+        <v>76.5625</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="S12">
+        <v>10</v>
+      </c>
+      <c r="T12">
+        <v>0.21875</v>
+      </c>
+      <c r="U12">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="V12">
+        <f t="shared" si="1"/>
+        <v>78.125</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="S13">
+        <v>11</v>
+      </c>
+      <c r="T13">
+        <v>0.1875</v>
+      </c>
+      <c r="U13">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="V13">
+        <f t="shared" si="1"/>
+        <v>81.25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="S14">
+        <v>12</v>
+      </c>
+      <c r="T14">
+        <v>0.28125</v>
+      </c>
+      <c r="U14">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="V14">
+        <f t="shared" si="1"/>
+        <v>71.875</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="S15">
+        <v>13</v>
+      </c>
+      <c r="T15">
+        <v>0.15625</v>
+      </c>
+      <c r="U15">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="V15">
+        <f t="shared" si="1"/>
+        <v>84.375</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="S16">
+        <v>14</v>
+      </c>
+      <c r="T16">
+        <v>0.1875</v>
+      </c>
+      <c r="U16">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="V16">
+        <f t="shared" si="1"/>
+        <v>81.25</v>
+      </c>
+    </row>
+    <row r="17" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="S17">
+        <v>15</v>
+      </c>
+      <c r="T17">
+        <v>0.21875</v>
+      </c>
+      <c r="U17">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="V17">
+        <f t="shared" si="1"/>
+        <v>78.125</v>
+      </c>
+    </row>
+    <row r="18" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="S18">
+        <v>16</v>
+      </c>
+      <c r="T18">
+        <v>0.203125</v>
+      </c>
+      <c r="U18">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="V18">
+        <f t="shared" si="1"/>
+        <v>79.6875</v>
+      </c>
+    </row>
+    <row r="19" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="S19">
+        <v>17</v>
+      </c>
+      <c r="T19">
+        <v>9.375E-2</v>
+      </c>
+      <c r="U19">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="V19">
+        <f t="shared" si="1"/>
+        <v>90.625</v>
+      </c>
+    </row>
+    <row r="20" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="A20" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
+      <c r="S20">
+        <v>18</v>
+      </c>
+      <c r="T20">
+        <v>0.1875</v>
+      </c>
+      <c r="U20">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="V20">
+        <f t="shared" si="1"/>
+        <v>81.25</v>
+      </c>
+    </row>
+    <row r="21" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="S21">
+        <v>19</v>
+      </c>
+      <c r="T21">
+        <v>0.171875</v>
+      </c>
+      <c r="U21">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="V21">
+        <f t="shared" si="1"/>
+        <v>82.8125</v>
+      </c>
+    </row>
+    <row r="22" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="S22">
+        <v>20</v>
+      </c>
+      <c r="T22">
+        <v>0.1875</v>
+      </c>
+      <c r="U22">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="V22">
+        <f t="shared" si="1"/>
+        <v>81.25</v>
+      </c>
+    </row>
+    <row r="23" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="S23">
+        <v>21</v>
+      </c>
+      <c r="T23">
+        <v>0.203125</v>
+      </c>
+      <c r="U23">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="V23">
+        <f t="shared" si="1"/>
+        <v>79.6875</v>
+      </c>
+    </row>
+    <row r="24" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="S24">
+        <v>22</v>
+      </c>
+      <c r="T24">
+        <v>0.125</v>
+      </c>
+      <c r="U24">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="V24">
+        <f t="shared" si="1"/>
+        <v>87.5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="S25">
+        <v>23</v>
+      </c>
+      <c r="T25">
+        <v>0.15625</v>
+      </c>
+      <c r="U25">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="V25">
+        <f t="shared" si="1"/>
+        <v>84.375</v>
+      </c>
+    </row>
+    <row r="26" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="S26">
+        <v>24</v>
+      </c>
+      <c r="T26">
+        <v>0.15625</v>
+      </c>
+      <c r="U26">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="V26">
+        <f t="shared" si="1"/>
+        <v>84.375</v>
+      </c>
+    </row>
+    <row r="27" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="S27">
+        <v>25</v>
+      </c>
+      <c r="T27">
+        <v>0.21875</v>
+      </c>
+      <c r="U27">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+      <c r="V27">
+        <f t="shared" si="1"/>
+        <v>78.125</v>
+      </c>
+    </row>
+    <row r="28" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="S28">
+        <v>26</v>
+      </c>
+      <c r="T28">
+        <v>0.1875</v>
+      </c>
+      <c r="U28">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+      <c r="V28">
+        <f t="shared" si="1"/>
+        <v>81.25</v>
+      </c>
+    </row>
+    <row r="29" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="S29">
+        <v>27</v>
+      </c>
+      <c r="T29">
+        <v>6.25E-2</v>
+      </c>
+      <c r="U29">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+      <c r="V29">
+        <f t="shared" si="1"/>
+        <v>93.75</v>
+      </c>
+    </row>
+    <row r="30" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="S30">
+        <v>28</v>
+      </c>
+      <c r="T30">
+        <v>0.171875</v>
+      </c>
+      <c r="U30">
+        <f t="shared" si="0"/>
+        <v>29</v>
+      </c>
+      <c r="V30">
+        <f t="shared" si="1"/>
+        <v>82.8125</v>
+      </c>
+    </row>
+    <row r="31" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="S31">
+        <v>29</v>
+      </c>
+      <c r="T31">
+        <v>0.125</v>
+      </c>
+      <c r="U31">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="V31">
+        <f t="shared" si="1"/>
+        <v>87.5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="S32">
+        <v>30</v>
+      </c>
+      <c r="T32">
+        <v>0.1875</v>
+      </c>
+      <c r="U32">
+        <f t="shared" si="0"/>
+        <v>31</v>
+      </c>
+      <c r="V32">
+        <f t="shared" si="1"/>
+        <v>81.25</v>
+      </c>
+    </row>
+    <row r="33" spans="19:22" x14ac:dyDescent="0.45">
+      <c r="S33">
+        <v>31</v>
+      </c>
+      <c r="T33">
+        <v>0.171875</v>
+      </c>
+      <c r="U33">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+      <c r="V33">
+        <f t="shared" si="1"/>
+        <v>82.8125</v>
+      </c>
+    </row>
+    <row r="34" spans="19:22" x14ac:dyDescent="0.45">
+      <c r="S34">
+        <v>32</v>
+      </c>
+      <c r="T34">
+        <v>0.234375</v>
+      </c>
+      <c r="U34">
+        <f t="shared" si="0"/>
+        <v>33</v>
+      </c>
+      <c r="V34">
+        <f t="shared" si="1"/>
+        <v>76.5625</v>
+      </c>
+    </row>
+    <row r="35" spans="19:22" x14ac:dyDescent="0.45">
+      <c r="S35">
+        <v>33</v>
+      </c>
+      <c r="T35">
+        <v>0.1875</v>
+      </c>
+      <c r="U35">
+        <f t="shared" si="0"/>
+        <v>34</v>
+      </c>
+      <c r="V35">
+        <f t="shared" si="1"/>
+        <v>81.25</v>
+      </c>
+    </row>
+    <row r="36" spans="19:22" x14ac:dyDescent="0.45">
+      <c r="S36">
+        <v>34</v>
+      </c>
+      <c r="T36">
+        <v>0.234375</v>
+      </c>
+      <c r="U36">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+      <c r="V36">
+        <f t="shared" si="1"/>
+        <v>76.5625</v>
+      </c>
+    </row>
+    <row r="37" spans="19:22" x14ac:dyDescent="0.45">
+      <c r="S37">
+        <v>35</v>
+      </c>
+      <c r="T37">
+        <v>0.15625</v>
+      </c>
+      <c r="U37">
+        <f t="shared" si="0"/>
+        <v>36</v>
+      </c>
+      <c r="V37">
+        <f t="shared" si="1"/>
+        <v>84.375</v>
+      </c>
+    </row>
+    <row r="38" spans="19:22" x14ac:dyDescent="0.45">
+      <c r="S38">
+        <v>36</v>
+      </c>
+      <c r="T38">
+        <v>0.15625</v>
+      </c>
+      <c r="U38">
+        <f t="shared" si="0"/>
+        <v>37</v>
+      </c>
+      <c r="V38">
+        <f t="shared" si="1"/>
+        <v>84.375</v>
+      </c>
+    </row>
+    <row r="39" spans="19:22" x14ac:dyDescent="0.45">
+      <c r="S39">
+        <v>37</v>
+      </c>
+      <c r="T39">
+        <v>0.171875</v>
+      </c>
+      <c r="U39">
+        <f t="shared" si="0"/>
+        <v>38</v>
+      </c>
+      <c r="V39">
+        <f t="shared" si="1"/>
+        <v>82.8125</v>
+      </c>
+    </row>
+    <row r="40" spans="19:22" x14ac:dyDescent="0.45">
+      <c r="S40">
+        <v>38</v>
+      </c>
+      <c r="T40">
+        <v>0.109375</v>
+      </c>
+      <c r="U40">
+        <f t="shared" si="0"/>
+        <v>39</v>
+      </c>
+      <c r="V40">
+        <f t="shared" si="1"/>
+        <v>89.0625</v>
+      </c>
+    </row>
+    <row r="41" spans="19:22" x14ac:dyDescent="0.45">
+      <c r="S41">
+        <v>39</v>
+      </c>
+      <c r="T41">
+        <v>0.140625</v>
+      </c>
+      <c r="U41">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="V41">
+        <f t="shared" si="1"/>
+        <v>85.9375</v>
+      </c>
+    </row>
+    <row r="42" spans="19:22" x14ac:dyDescent="0.45">
+      <c r="S42">
+        <v>40</v>
+      </c>
+      <c r="T42">
+        <v>0.15625</v>
+      </c>
+      <c r="U42">
+        <f t="shared" si="0"/>
+        <v>41</v>
+      </c>
+      <c r="V42">
+        <f t="shared" si="1"/>
+        <v>84.375</v>
+      </c>
+    </row>
+    <row r="43" spans="19:22" x14ac:dyDescent="0.45">
+      <c r="S43">
+        <v>41</v>
+      </c>
+      <c r="T43">
+        <v>0.15625</v>
+      </c>
+      <c r="U43">
+        <f t="shared" si="0"/>
+        <v>42</v>
+      </c>
+      <c r="V43">
+        <f t="shared" si="1"/>
+        <v>84.375</v>
+      </c>
+    </row>
+    <row r="44" spans="19:22" x14ac:dyDescent="0.45">
+      <c r="S44">
+        <v>42</v>
+      </c>
+      <c r="T44">
+        <v>0.140625</v>
+      </c>
+      <c r="U44">
+        <f t="shared" si="0"/>
+        <v>43</v>
+      </c>
+      <c r="V44">
+        <f t="shared" si="1"/>
+        <v>85.9375</v>
+      </c>
+    </row>
+    <row r="45" spans="19:22" x14ac:dyDescent="0.45">
+      <c r="S45">
+        <v>43</v>
+      </c>
+      <c r="T45">
+        <v>0.171875</v>
+      </c>
+      <c r="U45">
+        <f t="shared" si="0"/>
+        <v>44</v>
+      </c>
+      <c r="V45">
+        <f t="shared" si="1"/>
+        <v>82.8125</v>
+      </c>
+    </row>
+    <row r="46" spans="19:22" x14ac:dyDescent="0.45">
+      <c r="S46">
+        <v>44</v>
+      </c>
+      <c r="T46">
+        <v>0.15625</v>
+      </c>
+      <c r="U46">
+        <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+      <c r="V46">
+        <f t="shared" si="1"/>
+        <v>84.375</v>
+      </c>
+    </row>
+    <row r="47" spans="19:22" x14ac:dyDescent="0.45">
+      <c r="S47">
+        <v>45</v>
+      </c>
+      <c r="T47">
+        <v>0.125</v>
+      </c>
+      <c r="U47">
+        <f t="shared" si="0"/>
+        <v>46</v>
+      </c>
+      <c r="V47">
+        <f t="shared" si="1"/>
+        <v>87.5</v>
+      </c>
+    </row>
+    <row r="48" spans="19:22" x14ac:dyDescent="0.45">
+      <c r="S48">
+        <v>46</v>
+      </c>
+      <c r="T48">
+        <v>9.375E-2</v>
+      </c>
+      <c r="U48">
+        <f t="shared" si="0"/>
+        <v>47</v>
+      </c>
+      <c r="V48">
+        <f t="shared" si="1"/>
+        <v>90.625</v>
+      </c>
+    </row>
+    <row r="49" spans="19:22" x14ac:dyDescent="0.45">
+      <c r="S49">
+        <v>47</v>
+      </c>
+      <c r="T49">
+        <v>0.125</v>
+      </c>
+      <c r="U49">
+        <f t="shared" si="0"/>
+        <v>48</v>
+      </c>
+      <c r="V49">
+        <f t="shared" si="1"/>
+        <v>87.5</v>
+      </c>
+    </row>
+    <row r="50" spans="19:22" x14ac:dyDescent="0.45">
+      <c r="S50">
+        <v>48</v>
+      </c>
+      <c r="T50">
+        <v>0.125</v>
+      </c>
+      <c r="U50">
+        <f t="shared" si="0"/>
+        <v>49</v>
+      </c>
+      <c r="V50">
+        <f t="shared" si="1"/>
+        <v>87.5</v>
+      </c>
+    </row>
+    <row r="51" spans="19:22" x14ac:dyDescent="0.45">
+      <c r="S51">
+        <v>49</v>
+      </c>
+      <c r="T51">
+        <v>0.109375</v>
+      </c>
+      <c r="U51">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+      <c r="V51">
+        <f t="shared" si="1"/>
+        <v>89.0625</v>
+      </c>
+    </row>
+    <row r="52" spans="19:22" x14ac:dyDescent="0.45">
+      <c r="S52">
+        <v>50</v>
+      </c>
+      <c r="T52">
+        <v>0.125</v>
+      </c>
+      <c r="U52">
+        <f t="shared" si="0"/>
+        <v>51</v>
+      </c>
+      <c r="V52">
+        <f t="shared" si="1"/>
+        <v>87.5</v>
+      </c>
+    </row>
+    <row r="53" spans="19:22" x14ac:dyDescent="0.45">
+      <c r="S53">
+        <v>51</v>
+      </c>
+      <c r="T53">
+        <v>0.140625</v>
+      </c>
+      <c r="U53">
+        <f t="shared" si="0"/>
+        <v>52</v>
+      </c>
+      <c r="V53">
+        <f t="shared" si="1"/>
+        <v>85.9375</v>
+      </c>
+    </row>
+    <row r="54" spans="19:22" x14ac:dyDescent="0.45">
+      <c r="S54">
+        <v>52</v>
+      </c>
+      <c r="T54">
+        <v>6.25E-2</v>
+      </c>
+      <c r="U54">
+        <f t="shared" si="0"/>
+        <v>53</v>
+      </c>
+      <c r="V54">
+        <f t="shared" si="1"/>
+        <v>93.75</v>
+      </c>
+    </row>
+    <row r="55" spans="19:22" x14ac:dyDescent="0.45">
+      <c r="S55">
+        <v>53</v>
+      </c>
+      <c r="T55">
+        <v>0.125</v>
+      </c>
+      <c r="U55">
+        <f t="shared" si="0"/>
+        <v>54</v>
+      </c>
+      <c r="V55">
+        <f t="shared" si="1"/>
+        <v>87.5</v>
+      </c>
+    </row>
+    <row r="56" spans="19:22" x14ac:dyDescent="0.45">
+      <c r="S56">
+        <v>54</v>
+      </c>
+      <c r="T56">
+        <v>0.140625</v>
+      </c>
+      <c r="U56">
+        <f t="shared" si="0"/>
+        <v>55</v>
+      </c>
+      <c r="V56">
+        <f t="shared" si="1"/>
+        <v>85.9375</v>
+      </c>
+    </row>
+    <row r="57" spans="19:22" x14ac:dyDescent="0.45">
+      <c r="S57">
+        <v>55</v>
+      </c>
+      <c r="T57">
+        <v>0.171875</v>
+      </c>
+      <c r="U57">
+        <f t="shared" si="0"/>
+        <v>56</v>
+      </c>
+      <c r="V57">
+        <f t="shared" si="1"/>
+        <v>82.8125</v>
+      </c>
+    </row>
+    <row r="58" spans="19:22" x14ac:dyDescent="0.45">
+      <c r="S58">
+        <v>56</v>
+      </c>
+      <c r="T58">
+        <v>0.109375</v>
+      </c>
+      <c r="U58">
+        <f t="shared" si="0"/>
+        <v>57</v>
+      </c>
+      <c r="V58">
+        <f t="shared" si="1"/>
+        <v>89.0625</v>
+      </c>
+    </row>
+    <row r="59" spans="19:22" x14ac:dyDescent="0.45">
+      <c r="S59">
+        <v>57</v>
+      </c>
+      <c r="T59">
+        <v>0.109375</v>
+      </c>
+      <c r="U59">
+        <f t="shared" si="0"/>
+        <v>58</v>
+      </c>
+      <c r="V59">
+        <f t="shared" si="1"/>
+        <v>89.0625</v>
+      </c>
+    </row>
+    <row r="60" spans="19:22" x14ac:dyDescent="0.45">
+      <c r="S60">
+        <v>58</v>
+      </c>
+      <c r="T60">
+        <v>0.125</v>
+      </c>
+      <c r="U60">
+        <f t="shared" si="0"/>
+        <v>59</v>
+      </c>
+      <c r="V60">
+        <f t="shared" si="1"/>
+        <v>87.5</v>
+      </c>
+    </row>
+    <row r="61" spans="19:22" x14ac:dyDescent="0.45">
+      <c r="S61">
+        <v>59</v>
+      </c>
+      <c r="T61">
+        <v>9.375E-2</v>
+      </c>
+      <c r="U61">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+      <c r="V61">
+        <f t="shared" si="1"/>
+        <v>90.625</v>
+      </c>
+    </row>
+    <row r="62" spans="19:22" x14ac:dyDescent="0.45">
+      <c r="S62">
+        <v>60</v>
+      </c>
+      <c r="T62">
+        <v>0.109375</v>
+      </c>
+      <c r="U62">
+        <f t="shared" si="0"/>
+        <v>61</v>
+      </c>
+      <c r="V62">
+        <f t="shared" si="1"/>
+        <v>89.0625</v>
+      </c>
+    </row>
+    <row r="63" spans="19:22" x14ac:dyDescent="0.45">
+      <c r="S63">
+        <v>61</v>
+      </c>
+      <c r="T63">
+        <v>0.15625</v>
+      </c>
+      <c r="U63">
+        <f t="shared" si="0"/>
+        <v>62</v>
+      </c>
+      <c r="V63">
+        <f t="shared" si="1"/>
+        <v>84.375</v>
+      </c>
+    </row>
+    <row r="64" spans="19:22" x14ac:dyDescent="0.45">
+      <c r="S64">
+        <v>62</v>
+      </c>
+      <c r="T64">
+        <v>0.125</v>
+      </c>
+      <c r="U64">
+        <f t="shared" si="0"/>
+        <v>63</v>
+      </c>
+      <c r="V64">
+        <f t="shared" si="1"/>
+        <v>87.5</v>
+      </c>
+    </row>
+    <row r="65" spans="19:22" x14ac:dyDescent="0.45">
+      <c r="S65">
+        <v>63</v>
+      </c>
+      <c r="T65">
+        <v>9.375E-2</v>
+      </c>
+      <c r="U65">
+        <f t="shared" si="0"/>
+        <v>64</v>
+      </c>
+      <c r="V65">
+        <f t="shared" si="1"/>
+        <v>90.625</v>
+      </c>
+    </row>
+    <row r="66" spans="19:22" x14ac:dyDescent="0.45">
+      <c r="S66">
+        <v>64</v>
+      </c>
+      <c r="T66">
+        <v>0.125</v>
+      </c>
+      <c r="U66">
+        <f t="shared" si="0"/>
+        <v>65</v>
+      </c>
+      <c r="V66">
+        <f t="shared" si="1"/>
+        <v>87.5</v>
+      </c>
+    </row>
+    <row r="67" spans="19:22" x14ac:dyDescent="0.45">
+      <c r="S67">
+        <v>65</v>
+      </c>
+      <c r="T67">
+        <v>7.8125E-2</v>
+      </c>
+      <c r="U67">
+        <f t="shared" ref="U67:U101" si="2" xml:space="preserve"> 1+S67</f>
+        <v>66</v>
+      </c>
+      <c r="V67">
+        <f t="shared" ref="V67:V101" si="3" xml:space="preserve"> (1-T67)*100</f>
+        <v>92.1875</v>
+      </c>
+    </row>
+    <row r="68" spans="19:22" x14ac:dyDescent="0.45">
+      <c r="S68">
+        <v>66</v>
+      </c>
+      <c r="T68">
+        <v>7.8125E-2</v>
+      </c>
+      <c r="U68">
+        <f t="shared" si="2"/>
+        <v>67</v>
+      </c>
+      <c r="V68">
+        <f t="shared" si="3"/>
+        <v>92.1875</v>
+      </c>
+    </row>
+    <row r="69" spans="19:22" x14ac:dyDescent="0.45">
+      <c r="S69">
+        <v>67</v>
+      </c>
+      <c r="T69">
+        <v>7.8125E-2</v>
+      </c>
+      <c r="U69">
+        <f t="shared" si="2"/>
+        <v>68</v>
+      </c>
+      <c r="V69">
+        <f t="shared" si="3"/>
+        <v>92.1875</v>
+      </c>
+    </row>
+    <row r="70" spans="19:22" x14ac:dyDescent="0.45">
+      <c r="S70">
+        <v>68</v>
+      </c>
+      <c r="T70">
+        <v>9.375E-2</v>
+      </c>
+      <c r="U70">
+        <f t="shared" si="2"/>
+        <v>69</v>
+      </c>
+      <c r="V70">
+        <f t="shared" si="3"/>
+        <v>90.625</v>
+      </c>
+    </row>
+    <row r="71" spans="19:22" x14ac:dyDescent="0.45">
+      <c r="S71">
+        <v>69</v>
+      </c>
+      <c r="T71">
+        <v>7.8125E-2</v>
+      </c>
+      <c r="U71">
+        <f t="shared" si="2"/>
+        <v>70</v>
+      </c>
+      <c r="V71">
+        <f t="shared" si="3"/>
+        <v>92.1875</v>
+      </c>
+    </row>
+    <row r="72" spans="19:22" x14ac:dyDescent="0.45">
+      <c r="S72">
+        <v>70</v>
+      </c>
+      <c r="T72">
+        <v>7.8125E-2</v>
+      </c>
+      <c r="U72">
+        <f t="shared" si="2"/>
+        <v>71</v>
+      </c>
+      <c r="V72">
+        <f t="shared" si="3"/>
+        <v>92.1875</v>
+      </c>
+    </row>
+    <row r="73" spans="19:22" x14ac:dyDescent="0.45">
+      <c r="S73">
+        <v>71</v>
+      </c>
+      <c r="T73">
+        <v>0.171875</v>
+      </c>
+      <c r="U73">
+        <f t="shared" si="2"/>
+        <v>72</v>
+      </c>
+      <c r="V73">
+        <f t="shared" si="3"/>
+        <v>82.8125</v>
+      </c>
+    </row>
+    <row r="74" spans="19:22" x14ac:dyDescent="0.45">
+      <c r="S74">
+        <v>72</v>
+      </c>
+      <c r="T74">
+        <v>0.109375</v>
+      </c>
+      <c r="U74">
+        <f t="shared" si="2"/>
+        <v>73</v>
+      </c>
+      <c r="V74">
+        <f t="shared" si="3"/>
+        <v>89.0625</v>
+      </c>
+    </row>
+    <row r="75" spans="19:22" x14ac:dyDescent="0.45">
+      <c r="S75">
+        <v>73</v>
+      </c>
+      <c r="T75">
+        <v>0.15625</v>
+      </c>
+      <c r="U75">
+        <f t="shared" si="2"/>
+        <v>74</v>
+      </c>
+      <c r="V75">
+        <f t="shared" si="3"/>
+        <v>84.375</v>
+      </c>
+    </row>
+    <row r="76" spans="19:22" x14ac:dyDescent="0.45">
+      <c r="S76">
+        <v>74</v>
+      </c>
+      <c r="T76">
+        <v>0.125</v>
+      </c>
+      <c r="U76">
+        <f t="shared" si="2"/>
+        <v>75</v>
+      </c>
+      <c r="V76">
+        <f t="shared" si="3"/>
+        <v>87.5</v>
+      </c>
+    </row>
+    <row r="77" spans="19:22" x14ac:dyDescent="0.45">
+      <c r="S77">
+        <v>75</v>
+      </c>
+      <c r="T77">
+        <v>0.109375</v>
+      </c>
+      <c r="U77">
+        <f t="shared" si="2"/>
+        <v>76</v>
+      </c>
+      <c r="V77">
+        <f t="shared" si="3"/>
+        <v>89.0625</v>
+      </c>
+    </row>
+    <row r="78" spans="19:22" x14ac:dyDescent="0.45">
+      <c r="S78">
+        <v>76</v>
+      </c>
+      <c r="T78">
+        <v>0.125</v>
+      </c>
+      <c r="U78">
+        <f t="shared" si="2"/>
+        <v>77</v>
+      </c>
+      <c r="V78">
+        <f t="shared" si="3"/>
+        <v>87.5</v>
+      </c>
+    </row>
+    <row r="79" spans="19:22" x14ac:dyDescent="0.45">
+      <c r="S79">
+        <v>77</v>
+      </c>
+      <c r="T79">
+        <v>0.125</v>
+      </c>
+      <c r="U79">
+        <f t="shared" si="2"/>
+        <v>78</v>
+      </c>
+      <c r="V79">
+        <f t="shared" si="3"/>
+        <v>87.5</v>
+      </c>
+    </row>
+    <row r="80" spans="19:22" x14ac:dyDescent="0.45">
+      <c r="S80">
+        <v>78</v>
+      </c>
+      <c r="T80">
+        <v>0.109375</v>
+      </c>
+      <c r="U80">
+        <f t="shared" si="2"/>
+        <v>79</v>
+      </c>
+      <c r="V80">
+        <f t="shared" si="3"/>
+        <v>89.0625</v>
+      </c>
+    </row>
+    <row r="81" spans="19:22" x14ac:dyDescent="0.45">
+      <c r="S81">
+        <v>79</v>
+      </c>
+      <c r="T81">
+        <v>0.125</v>
+      </c>
+      <c r="U81">
+        <f t="shared" si="2"/>
+        <v>80</v>
+      </c>
+      <c r="V81">
+        <f t="shared" si="3"/>
+        <v>87.5</v>
+      </c>
+    </row>
+    <row r="82" spans="19:22" x14ac:dyDescent="0.45">
+      <c r="S82">
+        <v>80</v>
+      </c>
+      <c r="T82">
+        <v>7.8125E-2</v>
+      </c>
+      <c r="U82">
+        <f t="shared" si="2"/>
+        <v>81</v>
+      </c>
+      <c r="V82">
+        <f t="shared" si="3"/>
+        <v>92.1875</v>
+      </c>
+    </row>
+    <row r="83" spans="19:22" x14ac:dyDescent="0.45">
+      <c r="S83">
+        <v>81</v>
+      </c>
+      <c r="T83">
+        <v>9.375E-2</v>
+      </c>
+      <c r="U83">
+        <f t="shared" si="2"/>
+        <v>82</v>
+      </c>
+      <c r="V83">
+        <f t="shared" si="3"/>
+        <v>90.625</v>
+      </c>
+    </row>
+    <row r="84" spans="19:22" x14ac:dyDescent="0.45">
+      <c r="S84">
+        <v>82</v>
+      </c>
+      <c r="T84">
+        <v>7.8125E-2</v>
+      </c>
+      <c r="U84">
+        <f t="shared" si="2"/>
+        <v>83</v>
+      </c>
+      <c r="V84">
+        <f t="shared" si="3"/>
+        <v>92.1875</v>
+      </c>
+    </row>
+    <row r="85" spans="19:22" x14ac:dyDescent="0.45">
+      <c r="S85">
+        <v>83</v>
+      </c>
+      <c r="T85">
+        <v>9.375E-2</v>
+      </c>
+      <c r="U85">
+        <f t="shared" si="2"/>
+        <v>84</v>
+      </c>
+      <c r="V85">
+        <f t="shared" si="3"/>
+        <v>90.625</v>
+      </c>
+    </row>
+    <row r="86" spans="19:22" x14ac:dyDescent="0.45">
+      <c r="S86">
+        <v>84</v>
+      </c>
+      <c r="T86">
+        <v>0.109375</v>
+      </c>
+      <c r="U86">
+        <f t="shared" si="2"/>
+        <v>85</v>
+      </c>
+      <c r="V86">
+        <f t="shared" si="3"/>
+        <v>89.0625</v>
+      </c>
+    </row>
+    <row r="87" spans="19:22" x14ac:dyDescent="0.45">
+      <c r="S87">
+        <v>85</v>
+      </c>
+      <c r="T87">
+        <v>9.375E-2</v>
+      </c>
+      <c r="U87">
+        <f t="shared" si="2"/>
+        <v>86</v>
+      </c>
+      <c r="V87">
+        <f t="shared" si="3"/>
+        <v>90.625</v>
+      </c>
+    </row>
+    <row r="88" spans="19:22" x14ac:dyDescent="0.45">
+      <c r="S88">
+        <v>86</v>
+      </c>
+      <c r="T88">
+        <v>9.375E-2</v>
+      </c>
+      <c r="U88">
+        <f t="shared" si="2"/>
+        <v>87</v>
+      </c>
+      <c r="V88">
+        <f t="shared" si="3"/>
+        <v>90.625</v>
+      </c>
+    </row>
+    <row r="89" spans="19:22" x14ac:dyDescent="0.45">
+      <c r="S89">
+        <v>87</v>
+      </c>
+      <c r="T89">
+        <v>9.375E-2</v>
+      </c>
+      <c r="U89">
+        <f t="shared" si="2"/>
+        <v>88</v>
+      </c>
+      <c r="V89">
+        <f t="shared" si="3"/>
+        <v>90.625</v>
+      </c>
+    </row>
+    <row r="90" spans="19:22" x14ac:dyDescent="0.45">
+      <c r="S90">
+        <v>88</v>
+      </c>
+      <c r="T90">
+        <v>9.375E-2</v>
+      </c>
+      <c r="U90">
+        <f t="shared" si="2"/>
+        <v>89</v>
+      </c>
+      <c r="V90">
+        <f t="shared" si="3"/>
+        <v>90.625</v>
+      </c>
+    </row>
+    <row r="91" spans="19:22" x14ac:dyDescent="0.45">
+      <c r="S91">
+        <v>89</v>
+      </c>
+      <c r="T91">
+        <v>9.375E-2</v>
+      </c>
+      <c r="U91">
+        <f t="shared" si="2"/>
+        <v>90</v>
+      </c>
+      <c r="V91">
+        <f t="shared" si="3"/>
+        <v>90.625</v>
+      </c>
+    </row>
+    <row r="92" spans="19:22" x14ac:dyDescent="0.45">
+      <c r="S92">
+        <v>90</v>
+      </c>
+      <c r="T92">
+        <v>9.375E-2</v>
+      </c>
+      <c r="U92">
+        <f t="shared" si="2"/>
+        <v>91</v>
+      </c>
+      <c r="V92">
+        <f t="shared" si="3"/>
+        <v>90.625</v>
+      </c>
+    </row>
+    <row r="93" spans="19:22" x14ac:dyDescent="0.45">
+      <c r="S93">
+        <v>91</v>
+      </c>
+      <c r="T93">
+        <v>9.375E-2</v>
+      </c>
+      <c r="U93">
+        <f t="shared" si="2"/>
+        <v>92</v>
+      </c>
+      <c r="V93">
+        <f t="shared" si="3"/>
+        <v>90.625</v>
+      </c>
+    </row>
+    <row r="94" spans="19:22" x14ac:dyDescent="0.45">
+      <c r="S94">
+        <v>92</v>
+      </c>
+      <c r="T94">
+        <v>9.375E-2</v>
+      </c>
+      <c r="U94">
+        <f t="shared" si="2"/>
+        <v>93</v>
+      </c>
+      <c r="V94">
+        <f t="shared" si="3"/>
+        <v>90.625</v>
+      </c>
+    </row>
+    <row r="95" spans="19:22" x14ac:dyDescent="0.45">
+      <c r="S95">
+        <v>93</v>
+      </c>
+      <c r="T95">
+        <v>9.375E-2</v>
+      </c>
+      <c r="U95">
+        <f t="shared" si="2"/>
+        <v>94</v>
+      </c>
+      <c r="V95">
+        <f t="shared" si="3"/>
+        <v>90.625</v>
+      </c>
+    </row>
+    <row r="96" spans="19:22" x14ac:dyDescent="0.45">
+      <c r="S96">
+        <v>94</v>
+      </c>
+      <c r="T96">
+        <v>9.375E-2</v>
+      </c>
+      <c r="U96">
+        <f t="shared" si="2"/>
+        <v>95</v>
+      </c>
+      <c r="V96">
+        <f t="shared" si="3"/>
+        <v>90.625</v>
+      </c>
+    </row>
+    <row r="97" spans="19:22" x14ac:dyDescent="0.45">
+      <c r="S97">
+        <v>95</v>
+      </c>
+      <c r="T97">
+        <v>9.375E-2</v>
+      </c>
+      <c r="U97">
+        <f t="shared" si="2"/>
+        <v>96</v>
+      </c>
+      <c r="V97">
+        <f t="shared" si="3"/>
+        <v>90.625</v>
+      </c>
+    </row>
+    <row r="98" spans="19:22" x14ac:dyDescent="0.45">
+      <c r="S98">
+        <v>96</v>
+      </c>
+      <c r="T98">
+        <v>0.109375</v>
+      </c>
+      <c r="U98">
+        <f t="shared" si="2"/>
+        <v>97</v>
+      </c>
+      <c r="V98">
+        <f t="shared" si="3"/>
+        <v>89.0625</v>
+      </c>
+    </row>
+    <row r="99" spans="19:22" x14ac:dyDescent="0.45">
+      <c r="S99">
+        <v>97</v>
+      </c>
+      <c r="T99">
+        <v>0.109375</v>
+      </c>
+      <c r="U99">
+        <f t="shared" si="2"/>
+        <v>98</v>
+      </c>
+      <c r="V99">
+        <f t="shared" si="3"/>
+        <v>89.0625</v>
+      </c>
+    </row>
+    <row r="100" spans="19:22" x14ac:dyDescent="0.45">
+      <c r="S100">
+        <v>98</v>
+      </c>
+      <c r="T100">
+        <v>0.109375</v>
+      </c>
+      <c r="U100">
+        <f t="shared" si="2"/>
+        <v>99</v>
+      </c>
+      <c r="V100">
+        <f t="shared" si="3"/>
+        <v>89.0625</v>
+      </c>
+    </row>
+    <row r="101" spans="19:22" x14ac:dyDescent="0.45">
+      <c r="S101">
+        <v>99</v>
+      </c>
+      <c r="T101">
+        <v>0.109375</v>
+      </c>
+      <c r="U101">
+        <f t="shared" si="2"/>
+        <v>100</v>
+      </c>
+      <c r="V101">
+        <f t="shared" si="3"/>
+        <v>89.0625</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="H1:L1"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="A20:C20"/>
+    <mergeCell ref="A1:G1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/LJ+UA Experiments.xlsx
+++ b/LJ+UA Experiments.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dhvan\Documents\GitHub\P4P-Transformer-ASR-for-Dysarthric-Speech\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4312107B-9F43-4420-B23C-210593A99CA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F96C1F32-F655-4D9A-BDC8-F86E4DE5B563}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13155" activeTab="1" xr2:uid="{75EE08EB-D9DA-45E6-8F41-68FBAE46F917}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13155" activeTab="2" xr2:uid="{75EE08EB-D9DA-45E6-8F41-68FBAE46F917}"/>
   </bookViews>
   <sheets>
     <sheet name="E1" sheetId="1" r:id="rId1"/>
     <sheet name="E2" sheetId="2" r:id="rId2"/>
+    <sheet name="E12" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="11">
   <si>
     <r>
       <rPr>
@@ -165,6 +166,53 @@
         <scheme val="minor"/>
       </rPr>
       <t>89% (2% increase)</t>
+    </r>
+  </si>
+  <si>
+    <t>&lt;__main__.DisplayOutputs object at 0x7feeb3a49910&gt;</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Model Name:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> LJ200_UAControl_FreezeE12.h5 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Accuracy:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>88% (1% increase)</t>
     </r>
   </si>
 </sst>
@@ -1388,6 +1436,584 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'E1'!$V$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Accuracy</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'E1'!$V$2:$V$101</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="100"/>
+                <c:pt idx="0">
+                  <c:v>1.5625</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>15.625</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>42.1875</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>59.375</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>76.5625</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>78.125</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>78.125</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>79.6875</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>76.5625</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>78.125</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>73.4375</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>82.8125</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>78.125</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>85.9375</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>81.25</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>79.6875</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>81.25</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>87.5</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>89.0625</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>85.9375</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>90.625</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>82.8125</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>85.9375</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>84.375</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>87.5</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>82.8125</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>84.375</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>82.8125</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>87.5</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>84.375</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>92.1875</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>85.9375</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>85.9375</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>89.0625</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>90.625</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>84.375</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>87.5</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>90.625</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>90.625</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>92.1875</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>89.0625</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>87.5</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>84.375</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>90.625</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>89.0625</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>87.5</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>85.9375</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>82.8125</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>87.5</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>82.8125</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>87.5</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>92.1875</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>85.9375</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>85.9375</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>89.0625</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>85.9375</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>85.9375</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>84.375</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>84.375</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>85.9375</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>85.9375</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>89.0625</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>79.6875</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>87.5</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>89.0625</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>87.5</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>89.0625</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>85.9375</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>87.5</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>89.0625</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>89.0625</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>89.0625</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>85.9375</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>87.5</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>85.9375</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>85.9375</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>89.0625</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>87.5</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>92.1875</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>92.1875</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>92.1875</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>90.625</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>87.5</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>90.625</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>89.0625</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>89.0625</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>90.625</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>89.0625</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>89.0625</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>89.0625</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>89.0625</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>89.0625</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>89.0625</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>89.0625</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>89.0625</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>89.0625</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>89.0625</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>89.0625</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-C33F-4664-B3CC-71819413A798}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="174164559"/>
+        <c:axId val="174163311"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="174164559"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="174163311"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="174163311"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="174164559"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -1429,6 +2055,46 @@
 </file>
 
 <file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -2500,6 +3166,522 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
@@ -2858,6 +4040,186 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>65539</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>14072</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>104863</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9B1CEFFC-9348-4F81-ACD7-85F145E47DE5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:srcRect l="-331" t="38919" r="61637" b="11975"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1" y="608464"/>
+          <a:ext cx="3252571" cy="2753949"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>483196</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>72321</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>67798</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>135953</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E97F91FC-3133-4E39-B145-0E1F14712375}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>105603</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B616C63F-1DEA-6CCB-2A10-167AF30316A6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="3619500"/>
+          <a:ext cx="3286125" cy="2820228"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>561975</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>11906</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4677962C-5693-2F80-E97F-623B6B612A5C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5638800" y="819150"/>
+          <a:ext cx="3990975" cy="2993231"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -4816,8 +6178,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68AFAB66-8867-4821-9ACF-FD3223DD8066}">
   <dimension ref="A1:V101"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H6" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -6473,4 +7835,2074 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A8EB816-6050-4D95-ADB3-911C7F7A4858}">
+  <dimension ref="A1:V152"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P14" sqref="P14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetData>
+    <row r="1" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="A1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
+      <c r="S1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="S2">
+        <v>0</v>
+      </c>
+      <c r="T2">
+        <v>0.984375</v>
+      </c>
+      <c r="U2">
+        <f xml:space="preserve"> 1+S2</f>
+        <v>1</v>
+      </c>
+      <c r="V2">
+        <f xml:space="preserve"> (1-T2)*100</f>
+        <v>1.5625</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="A3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="S3">
+        <v>1</v>
+      </c>
+      <c r="T3">
+        <v>0.90625</v>
+      </c>
+      <c r="U3">
+        <f t="shared" ref="U3:U66" si="0" xml:space="preserve"> 1+S3</f>
+        <v>2</v>
+      </c>
+      <c r="V3">
+        <f t="shared" ref="V3:V66" si="1" xml:space="preserve"> (1-T3)*100</f>
+        <v>9.375</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="S4">
+        <v>2</v>
+      </c>
+      <c r="T4">
+        <v>0.734375</v>
+      </c>
+      <c r="U4">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="V4">
+        <f t="shared" si="1"/>
+        <v>26.5625</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="S5">
+        <v>3</v>
+      </c>
+      <c r="T5">
+        <v>0.421875</v>
+      </c>
+      <c r="U5">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="V5">
+        <f t="shared" si="1"/>
+        <v>57.8125</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="S6">
+        <v>4</v>
+      </c>
+      <c r="T6">
+        <v>0.3125</v>
+      </c>
+      <c r="U6">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="V6">
+        <f t="shared" si="1"/>
+        <v>68.75</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="S7">
+        <v>5</v>
+      </c>
+      <c r="T7">
+        <v>0.265625</v>
+      </c>
+      <c r="U7">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="V7">
+        <f t="shared" si="1"/>
+        <v>73.4375</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="S8">
+        <v>6</v>
+      </c>
+      <c r="T8">
+        <v>0.21875</v>
+      </c>
+      <c r="U8">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="V8">
+        <f t="shared" si="1"/>
+        <v>78.125</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="S9">
+        <v>7</v>
+      </c>
+      <c r="T9">
+        <v>0.234375</v>
+      </c>
+      <c r="U9">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="V9">
+        <f t="shared" si="1"/>
+        <v>76.5625</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="S10">
+        <v>8</v>
+      </c>
+      <c r="T10">
+        <v>0.265625</v>
+      </c>
+      <c r="U10">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="V10">
+        <f t="shared" si="1"/>
+        <v>73.4375</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="S11">
+        <v>9</v>
+      </c>
+      <c r="T11">
+        <v>0.25</v>
+      </c>
+      <c r="U11">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="V11">
+        <f t="shared" si="1"/>
+        <v>75</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="S12">
+        <v>10</v>
+      </c>
+      <c r="T12">
+        <v>0.265625</v>
+      </c>
+      <c r="U12">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="V12">
+        <f t="shared" si="1"/>
+        <v>73.4375</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="S13">
+        <v>11</v>
+      </c>
+      <c r="T13">
+        <v>0.21875</v>
+      </c>
+      <c r="U13">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="V13">
+        <f t="shared" si="1"/>
+        <v>78.125</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="S14">
+        <v>12</v>
+      </c>
+      <c r="T14">
+        <v>0.171875</v>
+      </c>
+      <c r="U14">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="V14">
+        <f t="shared" si="1"/>
+        <v>82.8125</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="S15">
+        <v>13</v>
+      </c>
+      <c r="T15">
+        <v>0.15625</v>
+      </c>
+      <c r="U15">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="V15">
+        <f t="shared" si="1"/>
+        <v>84.375</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="S16">
+        <v>14</v>
+      </c>
+      <c r="T16">
+        <v>0.21875</v>
+      </c>
+      <c r="U16">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="V16">
+        <f t="shared" si="1"/>
+        <v>78.125</v>
+      </c>
+    </row>
+    <row r="17" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="S17">
+        <v>15</v>
+      </c>
+      <c r="T17">
+        <v>0.140625</v>
+      </c>
+      <c r="U17">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="V17">
+        <f t="shared" si="1"/>
+        <v>85.9375</v>
+      </c>
+    </row>
+    <row r="18" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="S18">
+        <v>16</v>
+      </c>
+      <c r="T18">
+        <v>0.1875</v>
+      </c>
+      <c r="U18">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="V18">
+        <f t="shared" si="1"/>
+        <v>81.25</v>
+      </c>
+    </row>
+    <row r="19" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="S19">
+        <v>17</v>
+      </c>
+      <c r="T19">
+        <v>0.203125</v>
+      </c>
+      <c r="U19">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="V19">
+        <f t="shared" si="1"/>
+        <v>79.6875</v>
+      </c>
+    </row>
+    <row r="20" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="A20" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
+      <c r="S20">
+        <v>18</v>
+      </c>
+      <c r="T20">
+        <v>0.25</v>
+      </c>
+      <c r="U20">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="V20">
+        <f t="shared" si="1"/>
+        <v>75</v>
+      </c>
+    </row>
+    <row r="21" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="S21">
+        <v>19</v>
+      </c>
+      <c r="T21">
+        <v>0.171875</v>
+      </c>
+      <c r="U21">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="V21">
+        <f t="shared" si="1"/>
+        <v>82.8125</v>
+      </c>
+    </row>
+    <row r="22" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="S22">
+        <v>20</v>
+      </c>
+      <c r="T22">
+        <v>0.109375</v>
+      </c>
+      <c r="U22">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="V22">
+        <f t="shared" si="1"/>
+        <v>89.0625</v>
+      </c>
+    </row>
+    <row r="23" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="S23">
+        <v>21</v>
+      </c>
+      <c r="T23">
+        <v>0.171875</v>
+      </c>
+      <c r="U23">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="V23">
+        <f t="shared" si="1"/>
+        <v>82.8125</v>
+      </c>
+    </row>
+    <row r="24" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="S24">
+        <v>22</v>
+      </c>
+      <c r="T24">
+        <v>0.15625</v>
+      </c>
+      <c r="U24">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="V24">
+        <f t="shared" si="1"/>
+        <v>84.375</v>
+      </c>
+    </row>
+    <row r="25" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="S25">
+        <v>23</v>
+      </c>
+      <c r="T25">
+        <v>0.1875</v>
+      </c>
+      <c r="U25">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="V25">
+        <f t="shared" si="1"/>
+        <v>81.25</v>
+      </c>
+    </row>
+    <row r="26" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="S26">
+        <v>24</v>
+      </c>
+      <c r="T26">
+        <v>0.125</v>
+      </c>
+      <c r="U26">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="V26">
+        <f t="shared" si="1"/>
+        <v>87.5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="S27">
+        <v>25</v>
+      </c>
+      <c r="T27">
+        <v>0.1875</v>
+      </c>
+      <c r="U27">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+      <c r="V27">
+        <f t="shared" si="1"/>
+        <v>81.25</v>
+      </c>
+    </row>
+    <row r="28" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="S28">
+        <v>26</v>
+      </c>
+      <c r="T28">
+        <v>0.15625</v>
+      </c>
+      <c r="U28">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+      <c r="V28">
+        <f t="shared" si="1"/>
+        <v>84.375</v>
+      </c>
+    </row>
+    <row r="29" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="S29">
+        <v>27</v>
+      </c>
+      <c r="T29">
+        <v>0.171875</v>
+      </c>
+      <c r="U29">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+      <c r="V29">
+        <f t="shared" si="1"/>
+        <v>82.8125</v>
+      </c>
+    </row>
+    <row r="30" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="S30">
+        <v>28</v>
+      </c>
+      <c r="T30">
+        <v>0.15625</v>
+      </c>
+      <c r="U30">
+        <f t="shared" si="0"/>
+        <v>29</v>
+      </c>
+      <c r="V30">
+        <f t="shared" si="1"/>
+        <v>84.375</v>
+      </c>
+    </row>
+    <row r="31" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="S31">
+        <v>29</v>
+      </c>
+      <c r="T31">
+        <v>0.203125</v>
+      </c>
+      <c r="U31">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="V31">
+        <f t="shared" si="1"/>
+        <v>79.6875</v>
+      </c>
+    </row>
+    <row r="32" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="S32">
+        <v>30</v>
+      </c>
+      <c r="T32">
+        <v>0.1875</v>
+      </c>
+      <c r="U32">
+        <f t="shared" si="0"/>
+        <v>31</v>
+      </c>
+      <c r="V32">
+        <f t="shared" si="1"/>
+        <v>81.25</v>
+      </c>
+    </row>
+    <row r="33" spans="19:22" x14ac:dyDescent="0.45">
+      <c r="S33">
+        <v>31</v>
+      </c>
+      <c r="T33">
+        <v>0.21875</v>
+      </c>
+      <c r="U33">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+      <c r="V33">
+        <f t="shared" si="1"/>
+        <v>78.125</v>
+      </c>
+    </row>
+    <row r="34" spans="19:22" x14ac:dyDescent="0.45">
+      <c r="S34">
+        <v>32</v>
+      </c>
+      <c r="T34">
+        <v>0.140625</v>
+      </c>
+      <c r="U34">
+        <f t="shared" si="0"/>
+        <v>33</v>
+      </c>
+      <c r="V34">
+        <f t="shared" si="1"/>
+        <v>85.9375</v>
+      </c>
+    </row>
+    <row r="35" spans="19:22" x14ac:dyDescent="0.45">
+      <c r="S35">
+        <v>33</v>
+      </c>
+      <c r="T35">
+        <v>0.203125</v>
+      </c>
+      <c r="U35">
+        <f t="shared" si="0"/>
+        <v>34</v>
+      </c>
+      <c r="V35">
+        <f t="shared" si="1"/>
+        <v>79.6875</v>
+      </c>
+    </row>
+    <row r="36" spans="19:22" x14ac:dyDescent="0.45">
+      <c r="S36">
+        <v>34</v>
+      </c>
+      <c r="T36">
+        <v>0.125</v>
+      </c>
+      <c r="U36">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+      <c r="V36">
+        <f t="shared" si="1"/>
+        <v>87.5</v>
+      </c>
+    </row>
+    <row r="37" spans="19:22" x14ac:dyDescent="0.45">
+      <c r="S37">
+        <v>35</v>
+      </c>
+      <c r="T37">
+        <v>0.109375</v>
+      </c>
+      <c r="U37">
+        <f t="shared" si="0"/>
+        <v>36</v>
+      </c>
+      <c r="V37">
+        <f t="shared" si="1"/>
+        <v>89.0625</v>
+      </c>
+    </row>
+    <row r="38" spans="19:22" x14ac:dyDescent="0.45">
+      <c r="S38">
+        <v>36</v>
+      </c>
+      <c r="T38">
+        <v>0.109375</v>
+      </c>
+      <c r="U38">
+        <f t="shared" si="0"/>
+        <v>37</v>
+      </c>
+      <c r="V38">
+        <f t="shared" si="1"/>
+        <v>89.0625</v>
+      </c>
+    </row>
+    <row r="39" spans="19:22" x14ac:dyDescent="0.45">
+      <c r="S39">
+        <v>37</v>
+      </c>
+      <c r="T39">
+        <v>0.171875</v>
+      </c>
+      <c r="U39">
+        <f t="shared" si="0"/>
+        <v>38</v>
+      </c>
+      <c r="V39">
+        <f t="shared" si="1"/>
+        <v>82.8125</v>
+      </c>
+    </row>
+    <row r="40" spans="19:22" x14ac:dyDescent="0.45">
+      <c r="S40">
+        <v>38</v>
+      </c>
+      <c r="T40">
+        <v>9.375E-2</v>
+      </c>
+      <c r="U40">
+        <f t="shared" si="0"/>
+        <v>39</v>
+      </c>
+      <c r="V40">
+        <f t="shared" si="1"/>
+        <v>90.625</v>
+      </c>
+    </row>
+    <row r="41" spans="19:22" x14ac:dyDescent="0.45">
+      <c r="S41">
+        <v>39</v>
+      </c>
+      <c r="T41">
+        <v>0.125</v>
+      </c>
+      <c r="U41">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="V41">
+        <f t="shared" si="1"/>
+        <v>87.5</v>
+      </c>
+    </row>
+    <row r="42" spans="19:22" x14ac:dyDescent="0.45">
+      <c r="S42">
+        <v>40</v>
+      </c>
+      <c r="T42">
+        <v>0.140625</v>
+      </c>
+      <c r="U42">
+        <f t="shared" si="0"/>
+        <v>41</v>
+      </c>
+      <c r="V42">
+        <f t="shared" si="1"/>
+        <v>85.9375</v>
+      </c>
+    </row>
+    <row r="43" spans="19:22" x14ac:dyDescent="0.45">
+      <c r="S43">
+        <v>41</v>
+      </c>
+      <c r="T43">
+        <v>0.140625</v>
+      </c>
+      <c r="U43">
+        <f t="shared" si="0"/>
+        <v>42</v>
+      </c>
+      <c r="V43">
+        <f t="shared" si="1"/>
+        <v>85.9375</v>
+      </c>
+    </row>
+    <row r="44" spans="19:22" x14ac:dyDescent="0.45">
+      <c r="S44">
+        <v>42</v>
+      </c>
+      <c r="T44">
+        <v>0.25</v>
+      </c>
+      <c r="U44">
+        <f t="shared" si="0"/>
+        <v>43</v>
+      </c>
+      <c r="V44">
+        <f t="shared" si="1"/>
+        <v>75</v>
+      </c>
+    </row>
+    <row r="45" spans="19:22" x14ac:dyDescent="0.45">
+      <c r="S45">
+        <v>43</v>
+      </c>
+      <c r="T45">
+        <v>0.234375</v>
+      </c>
+      <c r="U45">
+        <f t="shared" si="0"/>
+        <v>44</v>
+      </c>
+      <c r="V45">
+        <f t="shared" si="1"/>
+        <v>76.5625</v>
+      </c>
+    </row>
+    <row r="46" spans="19:22" x14ac:dyDescent="0.45">
+      <c r="S46">
+        <v>44</v>
+      </c>
+      <c r="T46">
+        <v>0.171875</v>
+      </c>
+      <c r="U46">
+        <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+      <c r="V46">
+        <f t="shared" si="1"/>
+        <v>82.8125</v>
+      </c>
+    </row>
+    <row r="47" spans="19:22" x14ac:dyDescent="0.45">
+      <c r="S47">
+        <v>45</v>
+      </c>
+      <c r="T47">
+        <v>0.140625</v>
+      </c>
+      <c r="U47">
+        <f t="shared" si="0"/>
+        <v>46</v>
+      </c>
+      <c r="V47">
+        <f t="shared" si="1"/>
+        <v>85.9375</v>
+      </c>
+    </row>
+    <row r="48" spans="19:22" x14ac:dyDescent="0.45">
+      <c r="S48">
+        <v>46</v>
+      </c>
+      <c r="T48">
+        <v>0.140625</v>
+      </c>
+      <c r="U48">
+        <f t="shared" si="0"/>
+        <v>47</v>
+      </c>
+      <c r="V48">
+        <f t="shared" si="1"/>
+        <v>85.9375</v>
+      </c>
+    </row>
+    <row r="49" spans="19:22" x14ac:dyDescent="0.45">
+      <c r="S49">
+        <v>47</v>
+      </c>
+      <c r="T49">
+        <v>0.125</v>
+      </c>
+      <c r="U49">
+        <f t="shared" si="0"/>
+        <v>48</v>
+      </c>
+      <c r="V49">
+        <f t="shared" si="1"/>
+        <v>87.5</v>
+      </c>
+    </row>
+    <row r="50" spans="19:22" x14ac:dyDescent="0.45">
+      <c r="S50">
+        <v>48</v>
+      </c>
+      <c r="T50">
+        <v>0.125</v>
+      </c>
+      <c r="U50">
+        <f t="shared" si="0"/>
+        <v>49</v>
+      </c>
+      <c r="V50">
+        <f t="shared" si="1"/>
+        <v>87.5</v>
+      </c>
+    </row>
+    <row r="51" spans="19:22" x14ac:dyDescent="0.45">
+      <c r="S51">
+        <v>49</v>
+      </c>
+      <c r="T51">
+        <v>0.203125</v>
+      </c>
+      <c r="U51">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+      <c r="V51">
+        <f t="shared" si="1"/>
+        <v>79.6875</v>
+      </c>
+    </row>
+    <row r="52" spans="19:22" x14ac:dyDescent="0.45">
+      <c r="S52">
+        <v>50</v>
+      </c>
+      <c r="T52">
+        <v>0.109375</v>
+      </c>
+      <c r="U52">
+        <f t="shared" si="0"/>
+        <v>51</v>
+      </c>
+      <c r="V52">
+        <f t="shared" si="1"/>
+        <v>89.0625</v>
+      </c>
+    </row>
+    <row r="53" spans="19:22" x14ac:dyDescent="0.45">
+      <c r="S53">
+        <v>51</v>
+      </c>
+      <c r="T53">
+        <v>0.125</v>
+      </c>
+      <c r="U53">
+        <f t="shared" si="0"/>
+        <v>52</v>
+      </c>
+      <c r="V53">
+        <f t="shared" si="1"/>
+        <v>87.5</v>
+      </c>
+    </row>
+    <row r="54" spans="19:22" x14ac:dyDescent="0.45">
+      <c r="S54">
+        <v>52</v>
+      </c>
+      <c r="T54">
+        <v>9.375E-2</v>
+      </c>
+      <c r="U54">
+        <f t="shared" si="0"/>
+        <v>53</v>
+      </c>
+      <c r="V54">
+        <f t="shared" si="1"/>
+        <v>90.625</v>
+      </c>
+    </row>
+    <row r="55" spans="19:22" x14ac:dyDescent="0.45">
+      <c r="S55">
+        <v>53</v>
+      </c>
+      <c r="T55">
+        <v>0.125</v>
+      </c>
+      <c r="U55">
+        <f t="shared" si="0"/>
+        <v>54</v>
+      </c>
+      <c r="V55">
+        <f t="shared" si="1"/>
+        <v>87.5</v>
+      </c>
+    </row>
+    <row r="56" spans="19:22" x14ac:dyDescent="0.45">
+      <c r="S56">
+        <v>54</v>
+      </c>
+      <c r="T56">
+        <v>0.109375</v>
+      </c>
+      <c r="U56">
+        <f t="shared" si="0"/>
+        <v>55</v>
+      </c>
+      <c r="V56">
+        <f t="shared" si="1"/>
+        <v>89.0625</v>
+      </c>
+    </row>
+    <row r="57" spans="19:22" x14ac:dyDescent="0.45">
+      <c r="S57">
+        <v>55</v>
+      </c>
+      <c r="T57">
+        <v>9.375E-2</v>
+      </c>
+      <c r="U57">
+        <f t="shared" si="0"/>
+        <v>56</v>
+      </c>
+      <c r="V57">
+        <f t="shared" si="1"/>
+        <v>90.625</v>
+      </c>
+    </row>
+    <row r="58" spans="19:22" x14ac:dyDescent="0.45">
+      <c r="S58">
+        <v>56</v>
+      </c>
+      <c r="T58">
+        <v>0.15625</v>
+      </c>
+      <c r="U58">
+        <f t="shared" si="0"/>
+        <v>57</v>
+      </c>
+      <c r="V58">
+        <f t="shared" si="1"/>
+        <v>84.375</v>
+      </c>
+    </row>
+    <row r="59" spans="19:22" x14ac:dyDescent="0.45">
+      <c r="S59">
+        <v>57</v>
+      </c>
+      <c r="T59">
+        <v>0.125</v>
+      </c>
+      <c r="U59">
+        <f t="shared" si="0"/>
+        <v>58</v>
+      </c>
+      <c r="V59">
+        <f t="shared" si="1"/>
+        <v>87.5</v>
+      </c>
+    </row>
+    <row r="60" spans="19:22" x14ac:dyDescent="0.45">
+      <c r="S60">
+        <v>58</v>
+      </c>
+      <c r="T60">
+        <v>0.171875</v>
+      </c>
+      <c r="U60">
+        <f t="shared" si="0"/>
+        <v>59</v>
+      </c>
+      <c r="V60">
+        <f t="shared" si="1"/>
+        <v>82.8125</v>
+      </c>
+    </row>
+    <row r="61" spans="19:22" x14ac:dyDescent="0.45">
+      <c r="S61">
+        <v>59</v>
+      </c>
+      <c r="T61">
+        <v>0.15625</v>
+      </c>
+      <c r="U61">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+      <c r="V61">
+        <f t="shared" si="1"/>
+        <v>84.375</v>
+      </c>
+    </row>
+    <row r="62" spans="19:22" x14ac:dyDescent="0.45">
+      <c r="S62">
+        <v>60</v>
+      </c>
+      <c r="T62">
+        <v>0.125</v>
+      </c>
+      <c r="U62">
+        <f t="shared" si="0"/>
+        <v>61</v>
+      </c>
+      <c r="V62">
+        <f t="shared" si="1"/>
+        <v>87.5</v>
+      </c>
+    </row>
+    <row r="63" spans="19:22" x14ac:dyDescent="0.45">
+      <c r="S63">
+        <v>61</v>
+      </c>
+      <c r="T63">
+        <v>0.1875</v>
+      </c>
+      <c r="U63">
+        <f t="shared" si="0"/>
+        <v>62</v>
+      </c>
+      <c r="V63">
+        <f t="shared" si="1"/>
+        <v>81.25</v>
+      </c>
+    </row>
+    <row r="64" spans="19:22" x14ac:dyDescent="0.45">
+      <c r="S64">
+        <v>62</v>
+      </c>
+      <c r="T64">
+        <v>0.125</v>
+      </c>
+      <c r="U64">
+        <f t="shared" si="0"/>
+        <v>63</v>
+      </c>
+      <c r="V64">
+        <f t="shared" si="1"/>
+        <v>87.5</v>
+      </c>
+    </row>
+    <row r="65" spans="19:22" x14ac:dyDescent="0.45">
+      <c r="S65">
+        <v>63</v>
+      </c>
+      <c r="T65">
+        <v>0.125</v>
+      </c>
+      <c r="U65">
+        <f t="shared" si="0"/>
+        <v>64</v>
+      </c>
+      <c r="V65">
+        <f t="shared" si="1"/>
+        <v>87.5</v>
+      </c>
+    </row>
+    <row r="66" spans="19:22" x14ac:dyDescent="0.45">
+      <c r="S66">
+        <v>64</v>
+      </c>
+      <c r="T66">
+        <v>0.125</v>
+      </c>
+      <c r="U66">
+        <f t="shared" si="0"/>
+        <v>65</v>
+      </c>
+      <c r="V66">
+        <f t="shared" si="1"/>
+        <v>87.5</v>
+      </c>
+    </row>
+    <row r="67" spans="19:22" x14ac:dyDescent="0.45">
+      <c r="S67">
+        <v>65</v>
+      </c>
+      <c r="T67">
+        <v>0.140625</v>
+      </c>
+      <c r="U67">
+        <f t="shared" ref="U67:U101" si="2" xml:space="preserve"> 1+S67</f>
+        <v>66</v>
+      </c>
+      <c r="V67">
+        <f t="shared" ref="V67:V101" si="3" xml:space="preserve"> (1-T67)*100</f>
+        <v>85.9375</v>
+      </c>
+    </row>
+    <row r="68" spans="19:22" x14ac:dyDescent="0.45">
+      <c r="S68">
+        <v>66</v>
+      </c>
+      <c r="T68">
+        <v>0.109375</v>
+      </c>
+      <c r="U68">
+        <f t="shared" si="2"/>
+        <v>67</v>
+      </c>
+      <c r="V68">
+        <f t="shared" si="3"/>
+        <v>89.0625</v>
+      </c>
+    </row>
+    <row r="69" spans="19:22" x14ac:dyDescent="0.45">
+      <c r="S69">
+        <v>67</v>
+      </c>
+      <c r="T69">
+        <v>0.109375</v>
+      </c>
+      <c r="U69">
+        <f t="shared" si="2"/>
+        <v>68</v>
+      </c>
+      <c r="V69">
+        <f t="shared" si="3"/>
+        <v>89.0625</v>
+      </c>
+    </row>
+    <row r="70" spans="19:22" x14ac:dyDescent="0.45">
+      <c r="S70">
+        <v>68</v>
+      </c>
+      <c r="T70">
+        <v>0.15625</v>
+      </c>
+      <c r="U70">
+        <f t="shared" si="2"/>
+        <v>69</v>
+      </c>
+      <c r="V70">
+        <f t="shared" si="3"/>
+        <v>84.375</v>
+      </c>
+    </row>
+    <row r="71" spans="19:22" x14ac:dyDescent="0.45">
+      <c r="S71">
+        <v>69</v>
+      </c>
+      <c r="T71">
+        <v>0.140625</v>
+      </c>
+      <c r="U71">
+        <f t="shared" si="2"/>
+        <v>70</v>
+      </c>
+      <c r="V71">
+        <f t="shared" si="3"/>
+        <v>85.9375</v>
+      </c>
+    </row>
+    <row r="72" spans="19:22" x14ac:dyDescent="0.45">
+      <c r="S72">
+        <v>70</v>
+      </c>
+      <c r="T72">
+        <v>0.15625</v>
+      </c>
+      <c r="U72">
+        <f t="shared" si="2"/>
+        <v>71</v>
+      </c>
+      <c r="V72">
+        <f t="shared" si="3"/>
+        <v>84.375</v>
+      </c>
+    </row>
+    <row r="73" spans="19:22" x14ac:dyDescent="0.45">
+      <c r="S73">
+        <v>71</v>
+      </c>
+      <c r="T73">
+        <v>0.15625</v>
+      </c>
+      <c r="U73">
+        <f t="shared" si="2"/>
+        <v>72</v>
+      </c>
+      <c r="V73">
+        <f t="shared" si="3"/>
+        <v>84.375</v>
+      </c>
+    </row>
+    <row r="74" spans="19:22" x14ac:dyDescent="0.45">
+      <c r="S74">
+        <v>72</v>
+      </c>
+      <c r="T74">
+        <v>0.171875</v>
+      </c>
+      <c r="U74">
+        <f t="shared" si="2"/>
+        <v>73</v>
+      </c>
+      <c r="V74">
+        <f t="shared" si="3"/>
+        <v>82.8125</v>
+      </c>
+    </row>
+    <row r="75" spans="19:22" x14ac:dyDescent="0.45">
+      <c r="S75">
+        <v>73</v>
+      </c>
+      <c r="T75">
+        <v>0.109375</v>
+      </c>
+      <c r="U75">
+        <f t="shared" si="2"/>
+        <v>74</v>
+      </c>
+      <c r="V75">
+        <f t="shared" si="3"/>
+        <v>89.0625</v>
+      </c>
+    </row>
+    <row r="76" spans="19:22" x14ac:dyDescent="0.45">
+      <c r="S76">
+        <v>74</v>
+      </c>
+      <c r="T76">
+        <v>0.15625</v>
+      </c>
+      <c r="U76">
+        <f t="shared" si="2"/>
+        <v>75</v>
+      </c>
+      <c r="V76">
+        <f t="shared" si="3"/>
+        <v>84.375</v>
+      </c>
+    </row>
+    <row r="77" spans="19:22" x14ac:dyDescent="0.45">
+      <c r="S77">
+        <v>75</v>
+      </c>
+      <c r="T77">
+        <v>0.15625</v>
+      </c>
+      <c r="U77">
+        <f t="shared" si="2"/>
+        <v>76</v>
+      </c>
+      <c r="V77">
+        <f t="shared" si="3"/>
+        <v>84.375</v>
+      </c>
+    </row>
+    <row r="78" spans="19:22" x14ac:dyDescent="0.45">
+      <c r="S78">
+        <v>76</v>
+      </c>
+      <c r="T78">
+        <v>0.109375</v>
+      </c>
+      <c r="U78">
+        <f t="shared" si="2"/>
+        <v>77</v>
+      </c>
+      <c r="V78">
+        <f t="shared" si="3"/>
+        <v>89.0625</v>
+      </c>
+    </row>
+    <row r="79" spans="19:22" x14ac:dyDescent="0.45">
+      <c r="S79">
+        <v>77</v>
+      </c>
+      <c r="T79">
+        <v>0.15625</v>
+      </c>
+      <c r="U79">
+        <f t="shared" si="2"/>
+        <v>78</v>
+      </c>
+      <c r="V79">
+        <f t="shared" si="3"/>
+        <v>84.375</v>
+      </c>
+    </row>
+    <row r="80" spans="19:22" x14ac:dyDescent="0.45">
+      <c r="S80">
+        <v>78</v>
+      </c>
+      <c r="T80">
+        <v>0.140625</v>
+      </c>
+      <c r="U80">
+        <f t="shared" si="2"/>
+        <v>79</v>
+      </c>
+      <c r="V80">
+        <f t="shared" si="3"/>
+        <v>85.9375</v>
+      </c>
+    </row>
+    <row r="81" spans="19:22" x14ac:dyDescent="0.45">
+      <c r="S81">
+        <v>79</v>
+      </c>
+      <c r="T81">
+        <v>0.125</v>
+      </c>
+      <c r="U81">
+        <f t="shared" si="2"/>
+        <v>80</v>
+      </c>
+      <c r="V81">
+        <f t="shared" si="3"/>
+        <v>87.5</v>
+      </c>
+    </row>
+    <row r="82" spans="19:22" x14ac:dyDescent="0.45">
+      <c r="S82">
+        <v>80</v>
+      </c>
+      <c r="T82">
+        <v>0.140625</v>
+      </c>
+      <c r="U82">
+        <f t="shared" si="2"/>
+        <v>81</v>
+      </c>
+      <c r="V82">
+        <f t="shared" si="3"/>
+        <v>85.9375</v>
+      </c>
+    </row>
+    <row r="83" spans="19:22" x14ac:dyDescent="0.45">
+      <c r="S83">
+        <v>81</v>
+      </c>
+      <c r="T83">
+        <v>0.203125</v>
+      </c>
+      <c r="U83">
+        <f t="shared" si="2"/>
+        <v>82</v>
+      </c>
+      <c r="V83">
+        <f t="shared" si="3"/>
+        <v>79.6875</v>
+      </c>
+    </row>
+    <row r="84" spans="19:22" x14ac:dyDescent="0.45">
+      <c r="S84">
+        <v>82</v>
+      </c>
+      <c r="T84">
+        <v>0.140625</v>
+      </c>
+      <c r="U84">
+        <f t="shared" si="2"/>
+        <v>83</v>
+      </c>
+      <c r="V84">
+        <f t="shared" si="3"/>
+        <v>85.9375</v>
+      </c>
+    </row>
+    <row r="85" spans="19:22" x14ac:dyDescent="0.45">
+      <c r="S85">
+        <v>83</v>
+      </c>
+      <c r="T85">
+        <v>0.125</v>
+      </c>
+      <c r="U85">
+        <f t="shared" si="2"/>
+        <v>84</v>
+      </c>
+      <c r="V85">
+        <f t="shared" si="3"/>
+        <v>87.5</v>
+      </c>
+    </row>
+    <row r="86" spans="19:22" x14ac:dyDescent="0.45">
+      <c r="S86">
+        <v>84</v>
+      </c>
+      <c r="T86">
+        <v>0.125</v>
+      </c>
+      <c r="U86">
+        <f t="shared" si="2"/>
+        <v>85</v>
+      </c>
+      <c r="V86">
+        <f t="shared" si="3"/>
+        <v>87.5</v>
+      </c>
+    </row>
+    <row r="87" spans="19:22" x14ac:dyDescent="0.45">
+      <c r="S87">
+        <v>85</v>
+      </c>
+      <c r="T87">
+        <v>0.125</v>
+      </c>
+      <c r="U87">
+        <f t="shared" si="2"/>
+        <v>86</v>
+      </c>
+      <c r="V87">
+        <f t="shared" si="3"/>
+        <v>87.5</v>
+      </c>
+    </row>
+    <row r="88" spans="19:22" x14ac:dyDescent="0.45">
+      <c r="S88">
+        <v>86</v>
+      </c>
+      <c r="T88">
+        <v>0.140625</v>
+      </c>
+      <c r="U88">
+        <f t="shared" si="2"/>
+        <v>87</v>
+      </c>
+      <c r="V88">
+        <f t="shared" si="3"/>
+        <v>85.9375</v>
+      </c>
+    </row>
+    <row r="89" spans="19:22" x14ac:dyDescent="0.45">
+      <c r="S89">
+        <v>87</v>
+      </c>
+      <c r="T89">
+        <v>0.125</v>
+      </c>
+      <c r="U89">
+        <f t="shared" si="2"/>
+        <v>88</v>
+      </c>
+      <c r="V89">
+        <f t="shared" si="3"/>
+        <v>87.5</v>
+      </c>
+    </row>
+    <row r="90" spans="19:22" x14ac:dyDescent="0.45">
+      <c r="S90">
+        <v>88</v>
+      </c>
+      <c r="T90">
+        <v>0.125</v>
+      </c>
+      <c r="U90">
+        <f t="shared" si="2"/>
+        <v>89</v>
+      </c>
+      <c r="V90">
+        <f t="shared" si="3"/>
+        <v>87.5</v>
+      </c>
+    </row>
+    <row r="91" spans="19:22" x14ac:dyDescent="0.45">
+      <c r="S91">
+        <v>89</v>
+      </c>
+      <c r="T91">
+        <v>0.125</v>
+      </c>
+      <c r="U91">
+        <f t="shared" si="2"/>
+        <v>90</v>
+      </c>
+      <c r="V91">
+        <f t="shared" si="3"/>
+        <v>87.5</v>
+      </c>
+    </row>
+    <row r="92" spans="19:22" x14ac:dyDescent="0.45">
+      <c r="S92">
+        <v>90</v>
+      </c>
+      <c r="T92">
+        <v>0.125</v>
+      </c>
+      <c r="U92">
+        <f t="shared" si="2"/>
+        <v>91</v>
+      </c>
+      <c r="V92">
+        <f t="shared" si="3"/>
+        <v>87.5</v>
+      </c>
+    </row>
+    <row r="93" spans="19:22" x14ac:dyDescent="0.45">
+      <c r="S93">
+        <v>91</v>
+      </c>
+      <c r="T93">
+        <v>0.125</v>
+      </c>
+      <c r="U93">
+        <f t="shared" si="2"/>
+        <v>92</v>
+      </c>
+      <c r="V93">
+        <f t="shared" si="3"/>
+        <v>87.5</v>
+      </c>
+    </row>
+    <row r="94" spans="19:22" x14ac:dyDescent="0.45">
+      <c r="S94">
+        <v>92</v>
+      </c>
+      <c r="T94">
+        <v>0.125</v>
+      </c>
+      <c r="U94">
+        <f t="shared" si="2"/>
+        <v>93</v>
+      </c>
+      <c r="V94">
+        <f t="shared" si="3"/>
+        <v>87.5</v>
+      </c>
+    </row>
+    <row r="95" spans="19:22" x14ac:dyDescent="0.45">
+      <c r="S95">
+        <v>93</v>
+      </c>
+      <c r="T95">
+        <v>0.125</v>
+      </c>
+      <c r="U95">
+        <f t="shared" si="2"/>
+        <v>94</v>
+      </c>
+      <c r="V95">
+        <f t="shared" si="3"/>
+        <v>87.5</v>
+      </c>
+    </row>
+    <row r="96" spans="19:22" x14ac:dyDescent="0.45">
+      <c r="S96">
+        <v>94</v>
+      </c>
+      <c r="T96">
+        <v>0.125</v>
+      </c>
+      <c r="U96">
+        <f t="shared" si="2"/>
+        <v>95</v>
+      </c>
+      <c r="V96">
+        <f t="shared" si="3"/>
+        <v>87.5</v>
+      </c>
+    </row>
+    <row r="97" spans="19:22" x14ac:dyDescent="0.45">
+      <c r="S97">
+        <v>95</v>
+      </c>
+      <c r="T97">
+        <v>0.125</v>
+      </c>
+      <c r="U97">
+        <f t="shared" si="2"/>
+        <v>96</v>
+      </c>
+      <c r="V97">
+        <f t="shared" si="3"/>
+        <v>87.5</v>
+      </c>
+    </row>
+    <row r="98" spans="19:22" x14ac:dyDescent="0.45">
+      <c r="S98">
+        <v>96</v>
+      </c>
+      <c r="T98">
+        <v>0.125</v>
+      </c>
+      <c r="U98">
+        <f t="shared" si="2"/>
+        <v>97</v>
+      </c>
+      <c r="V98">
+        <f t="shared" si="3"/>
+        <v>87.5</v>
+      </c>
+    </row>
+    <row r="99" spans="19:22" x14ac:dyDescent="0.45">
+      <c r="S99">
+        <v>97</v>
+      </c>
+      <c r="T99">
+        <v>0.125</v>
+      </c>
+      <c r="U99">
+        <f t="shared" si="2"/>
+        <v>98</v>
+      </c>
+      <c r="V99">
+        <f t="shared" si="3"/>
+        <v>87.5</v>
+      </c>
+    </row>
+    <row r="100" spans="19:22" x14ac:dyDescent="0.45">
+      <c r="S100">
+        <v>98</v>
+      </c>
+      <c r="T100">
+        <v>0.125</v>
+      </c>
+      <c r="U100">
+        <f t="shared" si="2"/>
+        <v>99</v>
+      </c>
+      <c r="V100">
+        <f t="shared" si="3"/>
+        <v>87.5</v>
+      </c>
+    </row>
+    <row r="101" spans="19:22" x14ac:dyDescent="0.45">
+      <c r="S101">
+        <v>99</v>
+      </c>
+      <c r="T101">
+        <v>0.125</v>
+      </c>
+      <c r="U101">
+        <f t="shared" si="2"/>
+        <v>100</v>
+      </c>
+      <c r="V101">
+        <f t="shared" si="3"/>
+        <v>87.5</v>
+      </c>
+    </row>
+    <row r="102" spans="19:22" x14ac:dyDescent="0.45">
+      <c r="S102" t="s">
+        <v>9</v>
+      </c>
+      <c r="T102">
+        <v>0.125</v>
+      </c>
+    </row>
+    <row r="103" spans="19:22" x14ac:dyDescent="0.45">
+      <c r="S103" t="s">
+        <v>9</v>
+      </c>
+      <c r="T103">
+        <v>0.125</v>
+      </c>
+    </row>
+    <row r="104" spans="19:22" x14ac:dyDescent="0.45">
+      <c r="S104" t="s">
+        <v>9</v>
+      </c>
+      <c r="T104">
+        <v>7.8125E-2</v>
+      </c>
+    </row>
+    <row r="105" spans="19:22" x14ac:dyDescent="0.45">
+      <c r="S105" t="s">
+        <v>9</v>
+      </c>
+      <c r="T105">
+        <v>9.375E-2</v>
+      </c>
+    </row>
+    <row r="106" spans="19:22" x14ac:dyDescent="0.45">
+      <c r="S106" t="s">
+        <v>9</v>
+      </c>
+      <c r="T106">
+        <v>0.140625</v>
+      </c>
+    </row>
+    <row r="107" spans="19:22" x14ac:dyDescent="0.45">
+      <c r="S107" t="s">
+        <v>9</v>
+      </c>
+      <c r="T107">
+        <v>7.8125E-2</v>
+      </c>
+    </row>
+    <row r="108" spans="19:22" x14ac:dyDescent="0.45">
+      <c r="S108" t="s">
+        <v>9</v>
+      </c>
+      <c r="T108">
+        <v>0.109375</v>
+      </c>
+    </row>
+    <row r="109" spans="19:22" x14ac:dyDescent="0.45">
+      <c r="S109" t="s">
+        <v>9</v>
+      </c>
+      <c r="T109">
+        <v>0.15625</v>
+      </c>
+    </row>
+    <row r="110" spans="19:22" x14ac:dyDescent="0.45">
+      <c r="S110" t="s">
+        <v>9</v>
+      </c>
+      <c r="T110">
+        <v>4.6875E-2</v>
+      </c>
+    </row>
+    <row r="111" spans="19:22" x14ac:dyDescent="0.45">
+      <c r="S111" t="s">
+        <v>9</v>
+      </c>
+      <c r="T111">
+        <v>0.125</v>
+      </c>
+    </row>
+    <row r="112" spans="19:22" x14ac:dyDescent="0.45">
+      <c r="S112" t="s">
+        <v>9</v>
+      </c>
+      <c r="T112">
+        <v>4.6875E-2</v>
+      </c>
+    </row>
+    <row r="113" spans="19:20" x14ac:dyDescent="0.45">
+      <c r="S113" t="s">
+        <v>9</v>
+      </c>
+      <c r="T113">
+        <v>0.171875</v>
+      </c>
+    </row>
+    <row r="114" spans="19:20" x14ac:dyDescent="0.45">
+      <c r="S114" t="s">
+        <v>9</v>
+      </c>
+      <c r="T114">
+        <v>0.140625</v>
+      </c>
+    </row>
+    <row r="115" spans="19:20" x14ac:dyDescent="0.45">
+      <c r="S115" t="s">
+        <v>9</v>
+      </c>
+      <c r="T115">
+        <v>0.109375</v>
+      </c>
+    </row>
+    <row r="116" spans="19:20" x14ac:dyDescent="0.45">
+      <c r="S116" t="s">
+        <v>9</v>
+      </c>
+      <c r="T116">
+        <v>7.8125E-2</v>
+      </c>
+    </row>
+    <row r="117" spans="19:20" x14ac:dyDescent="0.45">
+      <c r="S117" t="s">
+        <v>9</v>
+      </c>
+      <c r="T117">
+        <v>0.140625</v>
+      </c>
+    </row>
+    <row r="118" spans="19:20" x14ac:dyDescent="0.45">
+      <c r="S118" t="s">
+        <v>9</v>
+      </c>
+      <c r="T118">
+        <v>0.171875</v>
+      </c>
+    </row>
+    <row r="119" spans="19:20" x14ac:dyDescent="0.45">
+      <c r="S119" t="s">
+        <v>9</v>
+      </c>
+      <c r="T119">
+        <v>0.15625</v>
+      </c>
+    </row>
+    <row r="120" spans="19:20" x14ac:dyDescent="0.45">
+      <c r="S120" t="s">
+        <v>9</v>
+      </c>
+      <c r="T120">
+        <v>0.125</v>
+      </c>
+    </row>
+    <row r="121" spans="19:20" x14ac:dyDescent="0.45">
+      <c r="S121" t="s">
+        <v>9</v>
+      </c>
+      <c r="T121">
+        <v>9.375E-2</v>
+      </c>
+    </row>
+    <row r="122" spans="19:20" x14ac:dyDescent="0.45">
+      <c r="S122" t="s">
+        <v>9</v>
+      </c>
+      <c r="T122">
+        <v>6.25E-2</v>
+      </c>
+    </row>
+    <row r="123" spans="19:20" x14ac:dyDescent="0.45">
+      <c r="S123" t="s">
+        <v>9</v>
+      </c>
+      <c r="T123">
+        <v>9.375E-2</v>
+      </c>
+    </row>
+    <row r="124" spans="19:20" x14ac:dyDescent="0.45">
+      <c r="S124" t="s">
+        <v>9</v>
+      </c>
+      <c r="T124">
+        <v>0.125</v>
+      </c>
+    </row>
+    <row r="125" spans="19:20" x14ac:dyDescent="0.45">
+      <c r="S125" t="s">
+        <v>9</v>
+      </c>
+      <c r="T125">
+        <v>7.8125E-2</v>
+      </c>
+    </row>
+    <row r="126" spans="19:20" x14ac:dyDescent="0.45">
+      <c r="S126" t="s">
+        <v>9</v>
+      </c>
+      <c r="T126">
+        <v>0.125</v>
+      </c>
+    </row>
+    <row r="127" spans="19:20" x14ac:dyDescent="0.45">
+      <c r="S127" t="s">
+        <v>9</v>
+      </c>
+      <c r="T127">
+        <v>7.8125E-2</v>
+      </c>
+    </row>
+    <row r="128" spans="19:20" x14ac:dyDescent="0.45">
+      <c r="S128" t="s">
+        <v>9</v>
+      </c>
+      <c r="T128">
+        <v>0.125</v>
+      </c>
+    </row>
+    <row r="129" spans="19:20" x14ac:dyDescent="0.45">
+      <c r="S129" t="s">
+        <v>9</v>
+      </c>
+      <c r="T129">
+        <v>0.125</v>
+      </c>
+    </row>
+    <row r="130" spans="19:20" x14ac:dyDescent="0.45">
+      <c r="S130" t="s">
+        <v>9</v>
+      </c>
+      <c r="T130">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="131" spans="19:20" x14ac:dyDescent="0.45">
+      <c r="S131" t="s">
+        <v>9</v>
+      </c>
+      <c r="T131">
+        <v>0.109375</v>
+      </c>
+    </row>
+    <row r="132" spans="19:20" x14ac:dyDescent="0.45">
+      <c r="S132" t="s">
+        <v>9</v>
+      </c>
+      <c r="T132">
+        <v>0.15625</v>
+      </c>
+    </row>
+    <row r="133" spans="19:20" x14ac:dyDescent="0.45">
+      <c r="S133" t="s">
+        <v>9</v>
+      </c>
+      <c r="T133">
+        <v>0.125</v>
+      </c>
+    </row>
+    <row r="134" spans="19:20" x14ac:dyDescent="0.45">
+      <c r="S134" t="s">
+        <v>9</v>
+      </c>
+      <c r="T134">
+        <v>0.15625</v>
+      </c>
+    </row>
+    <row r="135" spans="19:20" x14ac:dyDescent="0.45">
+      <c r="S135" t="s">
+        <v>9</v>
+      </c>
+      <c r="T135">
+        <v>0.109375</v>
+      </c>
+    </row>
+    <row r="136" spans="19:20" x14ac:dyDescent="0.45">
+      <c r="S136" t="s">
+        <v>9</v>
+      </c>
+      <c r="T136">
+        <v>0.15625</v>
+      </c>
+    </row>
+    <row r="137" spans="19:20" x14ac:dyDescent="0.45">
+      <c r="S137" t="s">
+        <v>9</v>
+      </c>
+      <c r="T137">
+        <v>0.203125</v>
+      </c>
+    </row>
+    <row r="138" spans="19:20" x14ac:dyDescent="0.45">
+      <c r="S138" t="s">
+        <v>9</v>
+      </c>
+      <c r="T138">
+        <v>6.25E-2</v>
+      </c>
+    </row>
+    <row r="139" spans="19:20" x14ac:dyDescent="0.45">
+      <c r="S139" t="s">
+        <v>9</v>
+      </c>
+      <c r="T139">
+        <v>0.109375</v>
+      </c>
+    </row>
+    <row r="140" spans="19:20" x14ac:dyDescent="0.45">
+      <c r="S140" t="s">
+        <v>9</v>
+      </c>
+      <c r="T140">
+        <v>0.109375</v>
+      </c>
+    </row>
+    <row r="141" spans="19:20" x14ac:dyDescent="0.45">
+      <c r="S141" t="s">
+        <v>9</v>
+      </c>
+      <c r="T141">
+        <v>0.171875</v>
+      </c>
+    </row>
+    <row r="142" spans="19:20" x14ac:dyDescent="0.45">
+      <c r="S142" t="s">
+        <v>9</v>
+      </c>
+      <c r="T142">
+        <v>0.125</v>
+      </c>
+    </row>
+    <row r="143" spans="19:20" x14ac:dyDescent="0.45">
+      <c r="S143" t="s">
+        <v>9</v>
+      </c>
+      <c r="T143">
+        <v>6.25E-2</v>
+      </c>
+    </row>
+    <row r="144" spans="19:20" x14ac:dyDescent="0.45">
+      <c r="S144" t="s">
+        <v>9</v>
+      </c>
+      <c r="T144">
+        <v>4.6875E-2</v>
+      </c>
+    </row>
+    <row r="145" spans="19:20" x14ac:dyDescent="0.45">
+      <c r="S145" t="s">
+        <v>9</v>
+      </c>
+      <c r="T145">
+        <v>0.203125</v>
+      </c>
+    </row>
+    <row r="146" spans="19:20" x14ac:dyDescent="0.45">
+      <c r="S146" t="s">
+        <v>9</v>
+      </c>
+      <c r="T146">
+        <v>0.21875</v>
+      </c>
+    </row>
+    <row r="147" spans="19:20" x14ac:dyDescent="0.45">
+      <c r="S147" t="s">
+        <v>9</v>
+      </c>
+      <c r="T147">
+        <v>0.125</v>
+      </c>
+    </row>
+    <row r="148" spans="19:20" x14ac:dyDescent="0.45">
+      <c r="S148" t="s">
+        <v>9</v>
+      </c>
+      <c r="T148">
+        <v>0.140625</v>
+      </c>
+    </row>
+    <row r="149" spans="19:20" x14ac:dyDescent="0.45">
+      <c r="S149" t="s">
+        <v>9</v>
+      </c>
+      <c r="T149">
+        <v>6.25E-2</v>
+      </c>
+    </row>
+    <row r="150" spans="19:20" x14ac:dyDescent="0.45">
+      <c r="S150" t="s">
+        <v>9</v>
+      </c>
+      <c r="T150">
+        <v>0.140625</v>
+      </c>
+    </row>
+    <row r="151" spans="19:20" x14ac:dyDescent="0.45">
+      <c r="S151" t="s">
+        <v>9</v>
+      </c>
+      <c r="T151">
+        <v>0.109375</v>
+      </c>
+    </row>
+    <row r="152" spans="19:20" x14ac:dyDescent="0.45">
+      <c r="S152" t="s">
+        <v>9</v>
+      </c>
+      <c r="T152">
+        <v>7.2727272727272724E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="H1:L1"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="A20:C20"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/LJ+UA Experiments.xlsx
+++ b/LJ+UA Experiments.xlsx
@@ -8,14 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dhvan\Documents\GitHub\P4P-Transformer-ASR-for-Dysarthric-Speech\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F96C1F32-F655-4D9A-BDC8-F86E4DE5B563}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{804F7A39-947D-42DF-8516-3A54ABE28718}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13155" activeTab="2" xr2:uid="{75EE08EB-D9DA-45E6-8F41-68FBAE46F917}"/>
+    <workbookView xWindow="4035" yWindow="3855" windowWidth="15390" windowHeight="9443" activeTab="4" xr2:uid="{75EE08EB-D9DA-45E6-8F41-68FBAE46F917}"/>
   </bookViews>
   <sheets>
     <sheet name="E1" sheetId="1" r:id="rId1"/>
     <sheet name="E2" sheetId="2" r:id="rId2"/>
     <sheet name="E12" sheetId="3" r:id="rId3"/>
+    <sheet name="E123" sheetId="4" r:id="rId4"/>
+    <sheet name="E1234" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="14">
   <si>
     <r>
       <rPr>
@@ -213,6 +215,97 @@
         <scheme val="minor"/>
       </rPr>
       <t>88% (1% increase)</t>
+    </r>
+  </si>
+  <si>
+    <t>&lt;__main__.DisplayOutputs object at 0x7fd9d1c2c820&gt;</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Model Name:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> LJ200_UAControl_FreezeE123.h5 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Accuracy:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>90% (3% increase)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Model Name:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> LJ200_UAControl_FreezeE1234.h5 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Accuracy:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>% (% increase)</t>
     </r>
   </si>
 </sst>
@@ -1825,6 +1918,1162 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-C33F-4664-B3CC-71819413A798}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="174164559"/>
+        <c:axId val="174163311"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="174164559"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="174163311"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="174163311"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="174164559"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'E1'!$V$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Accuracy</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'E1'!$V$2:$V$101</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="100"/>
+                <c:pt idx="0">
+                  <c:v>1.5625</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>15.625</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>42.1875</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>59.375</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>76.5625</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>78.125</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>78.125</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>79.6875</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>76.5625</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>78.125</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>73.4375</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>82.8125</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>78.125</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>85.9375</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>81.25</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>79.6875</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>81.25</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>87.5</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>89.0625</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>85.9375</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>90.625</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>82.8125</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>85.9375</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>84.375</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>87.5</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>82.8125</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>84.375</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>82.8125</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>87.5</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>84.375</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>92.1875</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>85.9375</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>85.9375</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>89.0625</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>90.625</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>84.375</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>87.5</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>90.625</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>90.625</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>92.1875</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>89.0625</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>87.5</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>84.375</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>90.625</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>89.0625</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>87.5</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>85.9375</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>82.8125</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>87.5</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>82.8125</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>87.5</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>92.1875</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>85.9375</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>85.9375</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>89.0625</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>85.9375</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>85.9375</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>84.375</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>84.375</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>85.9375</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>85.9375</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>89.0625</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>79.6875</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>87.5</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>89.0625</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>87.5</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>89.0625</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>85.9375</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>87.5</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>89.0625</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>89.0625</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>89.0625</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>85.9375</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>87.5</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>85.9375</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>85.9375</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>89.0625</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>87.5</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>92.1875</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>92.1875</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>92.1875</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>90.625</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>87.5</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>90.625</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>89.0625</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>89.0625</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>90.625</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>89.0625</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>89.0625</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>89.0625</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>89.0625</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>89.0625</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>89.0625</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>89.0625</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>89.0625</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>89.0625</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>89.0625</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>89.0625</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-7282-4930-93A8-C53E57766D61}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="174164559"/>
+        <c:axId val="174163311"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="174164559"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="174163311"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="174163311"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="174164559"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'E1'!$V$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Accuracy</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'E1'!$V$2:$V$101</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="100"/>
+                <c:pt idx="0">
+                  <c:v>1.5625</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>15.625</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>42.1875</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>59.375</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>76.5625</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>78.125</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>78.125</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>79.6875</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>76.5625</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>78.125</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>73.4375</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>82.8125</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>78.125</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>85.9375</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>81.25</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>79.6875</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>81.25</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>87.5</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>89.0625</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>85.9375</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>90.625</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>82.8125</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>85.9375</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>84.375</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>87.5</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>82.8125</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>84.375</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>82.8125</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>87.5</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>84.375</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>92.1875</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>85.9375</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>85.9375</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>89.0625</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>90.625</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>84.375</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>87.5</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>90.625</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>90.625</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>92.1875</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>89.0625</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>87.5</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>84.375</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>90.625</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>89.0625</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>87.5</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>85.9375</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>82.8125</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>87.5</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>82.8125</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>87.5</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>92.1875</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>85.9375</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>85.9375</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>89.0625</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>85.9375</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>85.9375</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>84.375</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>84.375</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>85.9375</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>85.9375</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>89.0625</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>79.6875</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>87.5</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>89.0625</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>87.5</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>89.0625</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>85.9375</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>87.5</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>89.0625</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>89.0625</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>89.0625</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>85.9375</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>87.5</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>85.9375</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>85.9375</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>89.0625</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>87.5</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>92.1875</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>92.1875</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>92.1875</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>90.625</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>87.5</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>90.625</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>89.0625</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>89.0625</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>90.625</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>89.0625</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>89.0625</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>89.0625</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>89.0625</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>89.0625</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>89.0625</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>89.0625</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>89.0625</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>89.0625</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>89.0625</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>89.0625</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-0F69-40C1-A1A8-452F46C1CD47}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2095,6 +3344,86 @@
 </file>
 
 <file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -3682,6 +5011,1038 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
@@ -4220,6 +6581,272 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>65539</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>14072</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>104863</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E2253273-B21E-4DDE-991D-9FE47B72EC67}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:srcRect l="-331" t="38919" r="61637" b="11975"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1" y="608464"/>
+          <a:ext cx="3252571" cy="2753949"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>483196</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>72321</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>67798</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>135953</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{243FAAC5-DAA4-4871-B66B-D14A7C9CBC77}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>17861</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>71439</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9AB557EB-6A9D-B758-C7B1-AB97EDBEC9AB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1" y="3619501"/>
+          <a:ext cx="3256360" cy="2605088"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>395288</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>28576</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>485776</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>115492</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3F6EAD52-902D-99CE-8037-2CD9E887475D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5576888" y="752476"/>
+          <a:ext cx="3976688" cy="2982516"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>65539</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>14072</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>104863</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1532F926-30A3-48CA-B50F-ADED91958399}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:srcRect l="-331" t="38919" r="61637" b="11975"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1" y="608464"/>
+          <a:ext cx="3252571" cy="2753949"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>483196</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>72321</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>67798</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>135953</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3E1FB2A6-752E-4167-BDC4-480D4CCAD5B0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -7841,8 +10468,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A8EB816-6050-4D95-ADB3-911C7F7A4858}">
   <dimension ref="A1:V152"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P14" sqref="P14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H13" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -9893,6 +12520,4147 @@
       </c>
       <c r="T152">
         <v>7.2727272727272724E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="H1:L1"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="A20:C20"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8525D1C2-26B5-468B-8EDE-6B9C6AD44D63}">
+  <dimension ref="A1:V152"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G9" sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetData>
+    <row r="1" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="A1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
+      <c r="S1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="S2">
+        <v>0</v>
+      </c>
+      <c r="T2">
+        <v>1</v>
+      </c>
+      <c r="U2">
+        <f xml:space="preserve"> 1+S2</f>
+        <v>1</v>
+      </c>
+      <c r="V2">
+        <f xml:space="preserve"> (1-T2)*100</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="A3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="S3">
+        <v>1</v>
+      </c>
+      <c r="T3">
+        <v>0.9375</v>
+      </c>
+      <c r="U3">
+        <f t="shared" ref="U3:U66" si="0" xml:space="preserve"> 1+S3</f>
+        <v>2</v>
+      </c>
+      <c r="V3">
+        <f t="shared" ref="V3:V66" si="1" xml:space="preserve"> (1-T3)*100</f>
+        <v>6.25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="S4">
+        <v>2</v>
+      </c>
+      <c r="T4">
+        <v>0.8125</v>
+      </c>
+      <c r="U4">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="V4">
+        <f t="shared" si="1"/>
+        <v>18.75</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="S5">
+        <v>3</v>
+      </c>
+      <c r="T5">
+        <v>0.40625</v>
+      </c>
+      <c r="U5">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="V5">
+        <f t="shared" si="1"/>
+        <v>59.375</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="S6">
+        <v>4</v>
+      </c>
+      <c r="T6">
+        <v>0.390625</v>
+      </c>
+      <c r="U6">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="V6">
+        <f t="shared" si="1"/>
+        <v>60.9375</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="S7">
+        <v>5</v>
+      </c>
+      <c r="T7">
+        <v>0.328125</v>
+      </c>
+      <c r="U7">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="V7">
+        <f t="shared" si="1"/>
+        <v>67.1875</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="S8">
+        <v>6</v>
+      </c>
+      <c r="T8">
+        <v>0.203125</v>
+      </c>
+      <c r="U8">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="V8">
+        <f t="shared" si="1"/>
+        <v>79.6875</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="S9">
+        <v>7</v>
+      </c>
+      <c r="T9">
+        <v>0.203125</v>
+      </c>
+      <c r="U9">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="V9">
+        <f t="shared" si="1"/>
+        <v>79.6875</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="S10">
+        <v>8</v>
+      </c>
+      <c r="T10">
+        <v>0.1875</v>
+      </c>
+      <c r="U10">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="V10">
+        <f t="shared" si="1"/>
+        <v>81.25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="S11">
+        <v>9</v>
+      </c>
+      <c r="T11">
+        <v>0.234375</v>
+      </c>
+      <c r="U11">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="V11">
+        <f t="shared" si="1"/>
+        <v>76.5625</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="S12">
+        <v>10</v>
+      </c>
+      <c r="T12">
+        <v>0.15625</v>
+      </c>
+      <c r="U12">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="V12">
+        <f t="shared" si="1"/>
+        <v>84.375</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="S13">
+        <v>11</v>
+      </c>
+      <c r="T13">
+        <v>0.1875</v>
+      </c>
+      <c r="U13">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="V13">
+        <f t="shared" si="1"/>
+        <v>81.25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="S14">
+        <v>12</v>
+      </c>
+      <c r="T14">
+        <v>0.21875</v>
+      </c>
+      <c r="U14">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="V14">
+        <f t="shared" si="1"/>
+        <v>78.125</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="S15">
+        <v>13</v>
+      </c>
+      <c r="T15">
+        <v>0.125</v>
+      </c>
+      <c r="U15">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="V15">
+        <f t="shared" si="1"/>
+        <v>87.5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="S16">
+        <v>14</v>
+      </c>
+      <c r="T16">
+        <v>0.171875</v>
+      </c>
+      <c r="U16">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="V16">
+        <f t="shared" si="1"/>
+        <v>82.8125</v>
+      </c>
+    </row>
+    <row r="17" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="S17">
+        <v>15</v>
+      </c>
+      <c r="T17">
+        <v>0.21875</v>
+      </c>
+      <c r="U17">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="V17">
+        <f t="shared" si="1"/>
+        <v>78.125</v>
+      </c>
+    </row>
+    <row r="18" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="S18">
+        <v>16</v>
+      </c>
+      <c r="T18">
+        <v>0.171875</v>
+      </c>
+      <c r="U18">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="V18">
+        <f t="shared" si="1"/>
+        <v>82.8125</v>
+      </c>
+    </row>
+    <row r="19" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="S19">
+        <v>17</v>
+      </c>
+      <c r="T19">
+        <v>0.15625</v>
+      </c>
+      <c r="U19">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="V19">
+        <f t="shared" si="1"/>
+        <v>84.375</v>
+      </c>
+    </row>
+    <row r="20" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="A20" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
+      <c r="S20">
+        <v>18</v>
+      </c>
+      <c r="T20">
+        <v>0.140625</v>
+      </c>
+      <c r="U20">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="V20">
+        <f t="shared" si="1"/>
+        <v>85.9375</v>
+      </c>
+    </row>
+    <row r="21" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="S21">
+        <v>19</v>
+      </c>
+      <c r="T21">
+        <v>0.140625</v>
+      </c>
+      <c r="U21">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="V21">
+        <f t="shared" si="1"/>
+        <v>85.9375</v>
+      </c>
+    </row>
+    <row r="22" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="S22">
+        <v>20</v>
+      </c>
+      <c r="T22">
+        <v>9.375E-2</v>
+      </c>
+      <c r="U22">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="V22">
+        <f t="shared" si="1"/>
+        <v>90.625</v>
+      </c>
+    </row>
+    <row r="23" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="S23">
+        <v>21</v>
+      </c>
+      <c r="T23">
+        <v>0.125</v>
+      </c>
+      <c r="U23">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="V23">
+        <f t="shared" si="1"/>
+        <v>87.5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="S24">
+        <v>22</v>
+      </c>
+      <c r="T24">
+        <v>0.140625</v>
+      </c>
+      <c r="U24">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="V24">
+        <f t="shared" si="1"/>
+        <v>85.9375</v>
+      </c>
+    </row>
+    <row r="25" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="S25">
+        <v>23</v>
+      </c>
+      <c r="T25">
+        <v>0.15625</v>
+      </c>
+      <c r="U25">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="V25">
+        <f t="shared" si="1"/>
+        <v>84.375</v>
+      </c>
+    </row>
+    <row r="26" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="S26">
+        <v>24</v>
+      </c>
+      <c r="T26">
+        <v>0.15625</v>
+      </c>
+      <c r="U26">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="V26">
+        <f t="shared" si="1"/>
+        <v>84.375</v>
+      </c>
+    </row>
+    <row r="27" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="S27">
+        <v>25</v>
+      </c>
+      <c r="T27">
+        <v>0.140625</v>
+      </c>
+      <c r="U27">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+      <c r="V27">
+        <f t="shared" si="1"/>
+        <v>85.9375</v>
+      </c>
+    </row>
+    <row r="28" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="S28">
+        <v>26</v>
+      </c>
+      <c r="T28">
+        <v>0.140625</v>
+      </c>
+      <c r="U28">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+      <c r="V28">
+        <f t="shared" si="1"/>
+        <v>85.9375</v>
+      </c>
+    </row>
+    <row r="29" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="S29">
+        <v>27</v>
+      </c>
+      <c r="T29">
+        <v>0.15625</v>
+      </c>
+      <c r="U29">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+      <c r="V29">
+        <f t="shared" si="1"/>
+        <v>84.375</v>
+      </c>
+    </row>
+    <row r="30" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="S30">
+        <v>28</v>
+      </c>
+      <c r="T30">
+        <v>0.21875</v>
+      </c>
+      <c r="U30">
+        <f t="shared" si="0"/>
+        <v>29</v>
+      </c>
+      <c r="V30">
+        <f t="shared" si="1"/>
+        <v>78.125</v>
+      </c>
+    </row>
+    <row r="31" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="S31">
+        <v>29</v>
+      </c>
+      <c r="T31">
+        <v>0.15625</v>
+      </c>
+      <c r="U31">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="V31">
+        <f t="shared" si="1"/>
+        <v>84.375</v>
+      </c>
+    </row>
+    <row r="32" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="S32">
+        <v>30</v>
+      </c>
+      <c r="T32">
+        <v>0.125</v>
+      </c>
+      <c r="U32">
+        <f t="shared" si="0"/>
+        <v>31</v>
+      </c>
+      <c r="V32">
+        <f t="shared" si="1"/>
+        <v>87.5</v>
+      </c>
+    </row>
+    <row r="33" spans="19:22" x14ac:dyDescent="0.45">
+      <c r="S33">
+        <v>31</v>
+      </c>
+      <c r="T33">
+        <v>0.125</v>
+      </c>
+      <c r="U33">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+      <c r="V33">
+        <f t="shared" si="1"/>
+        <v>87.5</v>
+      </c>
+    </row>
+    <row r="34" spans="19:22" x14ac:dyDescent="0.45">
+      <c r="S34">
+        <v>32</v>
+      </c>
+      <c r="T34">
+        <v>0.140625</v>
+      </c>
+      <c r="U34">
+        <f t="shared" si="0"/>
+        <v>33</v>
+      </c>
+      <c r="V34">
+        <f t="shared" si="1"/>
+        <v>85.9375</v>
+      </c>
+    </row>
+    <row r="35" spans="19:22" x14ac:dyDescent="0.45">
+      <c r="S35">
+        <v>33</v>
+      </c>
+      <c r="T35">
+        <v>0.1875</v>
+      </c>
+      <c r="U35">
+        <f t="shared" si="0"/>
+        <v>34</v>
+      </c>
+      <c r="V35">
+        <f t="shared" si="1"/>
+        <v>81.25</v>
+      </c>
+    </row>
+    <row r="36" spans="19:22" x14ac:dyDescent="0.45">
+      <c r="S36">
+        <v>34</v>
+      </c>
+      <c r="T36">
+        <v>9.375E-2</v>
+      </c>
+      <c r="U36">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+      <c r="V36">
+        <f t="shared" si="1"/>
+        <v>90.625</v>
+      </c>
+    </row>
+    <row r="37" spans="19:22" x14ac:dyDescent="0.45">
+      <c r="S37">
+        <v>35</v>
+      </c>
+      <c r="T37">
+        <v>0.125</v>
+      </c>
+      <c r="U37">
+        <f t="shared" si="0"/>
+        <v>36</v>
+      </c>
+      <c r="V37">
+        <f t="shared" si="1"/>
+        <v>87.5</v>
+      </c>
+    </row>
+    <row r="38" spans="19:22" x14ac:dyDescent="0.45">
+      <c r="S38">
+        <v>36</v>
+      </c>
+      <c r="T38">
+        <v>0.140625</v>
+      </c>
+      <c r="U38">
+        <f t="shared" si="0"/>
+        <v>37</v>
+      </c>
+      <c r="V38">
+        <f t="shared" si="1"/>
+        <v>85.9375</v>
+      </c>
+    </row>
+    <row r="39" spans="19:22" x14ac:dyDescent="0.45">
+      <c r="S39">
+        <v>37</v>
+      </c>
+      <c r="T39">
+        <v>9.375E-2</v>
+      </c>
+      <c r="U39">
+        <f t="shared" si="0"/>
+        <v>38</v>
+      </c>
+      <c r="V39">
+        <f t="shared" si="1"/>
+        <v>90.625</v>
+      </c>
+    </row>
+    <row r="40" spans="19:22" x14ac:dyDescent="0.45">
+      <c r="S40">
+        <v>38</v>
+      </c>
+      <c r="T40">
+        <v>0.125</v>
+      </c>
+      <c r="U40">
+        <f t="shared" si="0"/>
+        <v>39</v>
+      </c>
+      <c r="V40">
+        <f t="shared" si="1"/>
+        <v>87.5</v>
+      </c>
+    </row>
+    <row r="41" spans="19:22" x14ac:dyDescent="0.45">
+      <c r="S41">
+        <v>39</v>
+      </c>
+      <c r="T41">
+        <v>0.140625</v>
+      </c>
+      <c r="U41">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="V41">
+        <f t="shared" si="1"/>
+        <v>85.9375</v>
+      </c>
+    </row>
+    <row r="42" spans="19:22" x14ac:dyDescent="0.45">
+      <c r="S42">
+        <v>40</v>
+      </c>
+      <c r="T42">
+        <v>9.375E-2</v>
+      </c>
+      <c r="U42">
+        <f t="shared" si="0"/>
+        <v>41</v>
+      </c>
+      <c r="V42">
+        <f t="shared" si="1"/>
+        <v>90.625</v>
+      </c>
+    </row>
+    <row r="43" spans="19:22" x14ac:dyDescent="0.45">
+      <c r="S43">
+        <v>41</v>
+      </c>
+      <c r="T43">
+        <v>0.15625</v>
+      </c>
+      <c r="U43">
+        <f t="shared" si="0"/>
+        <v>42</v>
+      </c>
+      <c r="V43">
+        <f t="shared" si="1"/>
+        <v>84.375</v>
+      </c>
+    </row>
+    <row r="44" spans="19:22" x14ac:dyDescent="0.45">
+      <c r="S44">
+        <v>42</v>
+      </c>
+      <c r="T44">
+        <v>0.140625</v>
+      </c>
+      <c r="U44">
+        <f t="shared" si="0"/>
+        <v>43</v>
+      </c>
+      <c r="V44">
+        <f t="shared" si="1"/>
+        <v>85.9375</v>
+      </c>
+    </row>
+    <row r="45" spans="19:22" x14ac:dyDescent="0.45">
+      <c r="S45">
+        <v>43</v>
+      </c>
+      <c r="T45">
+        <v>0.15625</v>
+      </c>
+      <c r="U45">
+        <f t="shared" si="0"/>
+        <v>44</v>
+      </c>
+      <c r="V45">
+        <f t="shared" si="1"/>
+        <v>84.375</v>
+      </c>
+    </row>
+    <row r="46" spans="19:22" x14ac:dyDescent="0.45">
+      <c r="S46">
+        <v>44</v>
+      </c>
+      <c r="T46">
+        <v>0.15625</v>
+      </c>
+      <c r="U46">
+        <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+      <c r="V46">
+        <f t="shared" si="1"/>
+        <v>84.375</v>
+      </c>
+    </row>
+    <row r="47" spans="19:22" x14ac:dyDescent="0.45">
+      <c r="S47">
+        <v>45</v>
+      </c>
+      <c r="T47">
+        <v>0.109375</v>
+      </c>
+      <c r="U47">
+        <f t="shared" si="0"/>
+        <v>46</v>
+      </c>
+      <c r="V47">
+        <f t="shared" si="1"/>
+        <v>89.0625</v>
+      </c>
+    </row>
+    <row r="48" spans="19:22" x14ac:dyDescent="0.45">
+      <c r="S48">
+        <v>46</v>
+      </c>
+      <c r="T48">
+        <v>0.109375</v>
+      </c>
+      <c r="U48">
+        <f t="shared" si="0"/>
+        <v>47</v>
+      </c>
+      <c r="V48">
+        <f t="shared" si="1"/>
+        <v>89.0625</v>
+      </c>
+    </row>
+    <row r="49" spans="19:22" x14ac:dyDescent="0.45">
+      <c r="S49">
+        <v>47</v>
+      </c>
+      <c r="T49">
+        <v>0.140625</v>
+      </c>
+      <c r="U49">
+        <f t="shared" si="0"/>
+        <v>48</v>
+      </c>
+      <c r="V49">
+        <f t="shared" si="1"/>
+        <v>85.9375</v>
+      </c>
+    </row>
+    <row r="50" spans="19:22" x14ac:dyDescent="0.45">
+      <c r="S50">
+        <v>48</v>
+      </c>
+      <c r="T50">
+        <v>0.140625</v>
+      </c>
+      <c r="U50">
+        <f t="shared" si="0"/>
+        <v>49</v>
+      </c>
+      <c r="V50">
+        <f t="shared" si="1"/>
+        <v>85.9375</v>
+      </c>
+    </row>
+    <row r="51" spans="19:22" x14ac:dyDescent="0.45">
+      <c r="S51">
+        <v>49</v>
+      </c>
+      <c r="T51">
+        <v>0.15625</v>
+      </c>
+      <c r="U51">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+      <c r="V51">
+        <f t="shared" si="1"/>
+        <v>84.375</v>
+      </c>
+    </row>
+    <row r="52" spans="19:22" x14ac:dyDescent="0.45">
+      <c r="S52">
+        <v>50</v>
+      </c>
+      <c r="T52">
+        <v>0.15625</v>
+      </c>
+      <c r="U52">
+        <f t="shared" si="0"/>
+        <v>51</v>
+      </c>
+      <c r="V52">
+        <f t="shared" si="1"/>
+        <v>84.375</v>
+      </c>
+    </row>
+    <row r="53" spans="19:22" x14ac:dyDescent="0.45">
+      <c r="S53">
+        <v>51</v>
+      </c>
+      <c r="T53">
+        <v>0.125</v>
+      </c>
+      <c r="U53">
+        <f t="shared" si="0"/>
+        <v>52</v>
+      </c>
+      <c r="V53">
+        <f t="shared" si="1"/>
+        <v>87.5</v>
+      </c>
+    </row>
+    <row r="54" spans="19:22" x14ac:dyDescent="0.45">
+      <c r="S54">
+        <v>52</v>
+      </c>
+      <c r="T54">
+        <v>0.125</v>
+      </c>
+      <c r="U54">
+        <f t="shared" si="0"/>
+        <v>53</v>
+      </c>
+      <c r="V54">
+        <f t="shared" si="1"/>
+        <v>87.5</v>
+      </c>
+    </row>
+    <row r="55" spans="19:22" x14ac:dyDescent="0.45">
+      <c r="S55">
+        <v>53</v>
+      </c>
+      <c r="T55">
+        <v>0.125</v>
+      </c>
+      <c r="U55">
+        <f t="shared" si="0"/>
+        <v>54</v>
+      </c>
+      <c r="V55">
+        <f t="shared" si="1"/>
+        <v>87.5</v>
+      </c>
+    </row>
+    <row r="56" spans="19:22" x14ac:dyDescent="0.45">
+      <c r="S56">
+        <v>54</v>
+      </c>
+      <c r="T56">
+        <v>0.140625</v>
+      </c>
+      <c r="U56">
+        <f t="shared" si="0"/>
+        <v>55</v>
+      </c>
+      <c r="V56">
+        <f t="shared" si="1"/>
+        <v>85.9375</v>
+      </c>
+    </row>
+    <row r="57" spans="19:22" x14ac:dyDescent="0.45">
+      <c r="S57">
+        <v>55</v>
+      </c>
+      <c r="T57">
+        <v>0.140625</v>
+      </c>
+      <c r="U57">
+        <f t="shared" si="0"/>
+        <v>56</v>
+      </c>
+      <c r="V57">
+        <f t="shared" si="1"/>
+        <v>85.9375</v>
+      </c>
+    </row>
+    <row r="58" spans="19:22" x14ac:dyDescent="0.45">
+      <c r="S58">
+        <v>56</v>
+      </c>
+      <c r="T58">
+        <v>0.125</v>
+      </c>
+      <c r="U58">
+        <f t="shared" si="0"/>
+        <v>57</v>
+      </c>
+      <c r="V58">
+        <f t="shared" si="1"/>
+        <v>87.5</v>
+      </c>
+    </row>
+    <row r="59" spans="19:22" x14ac:dyDescent="0.45">
+      <c r="S59">
+        <v>57</v>
+      </c>
+      <c r="T59">
+        <v>0.125</v>
+      </c>
+      <c r="U59">
+        <f t="shared" si="0"/>
+        <v>58</v>
+      </c>
+      <c r="V59">
+        <f t="shared" si="1"/>
+        <v>87.5</v>
+      </c>
+    </row>
+    <row r="60" spans="19:22" x14ac:dyDescent="0.45">
+      <c r="S60">
+        <v>58</v>
+      </c>
+      <c r="T60">
+        <v>6.25E-2</v>
+      </c>
+      <c r="U60">
+        <f t="shared" si="0"/>
+        <v>59</v>
+      </c>
+      <c r="V60">
+        <f t="shared" si="1"/>
+        <v>93.75</v>
+      </c>
+    </row>
+    <row r="61" spans="19:22" x14ac:dyDescent="0.45">
+      <c r="S61">
+        <v>59</v>
+      </c>
+      <c r="T61">
+        <v>0.109375</v>
+      </c>
+      <c r="U61">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+      <c r="V61">
+        <f t="shared" si="1"/>
+        <v>89.0625</v>
+      </c>
+    </row>
+    <row r="62" spans="19:22" x14ac:dyDescent="0.45">
+      <c r="S62">
+        <v>60</v>
+      </c>
+      <c r="T62">
+        <v>9.375E-2</v>
+      </c>
+      <c r="U62">
+        <f t="shared" si="0"/>
+        <v>61</v>
+      </c>
+      <c r="V62">
+        <f t="shared" si="1"/>
+        <v>90.625</v>
+      </c>
+    </row>
+    <row r="63" spans="19:22" x14ac:dyDescent="0.45">
+      <c r="S63">
+        <v>61</v>
+      </c>
+      <c r="T63">
+        <v>9.375E-2</v>
+      </c>
+      <c r="U63">
+        <f t="shared" si="0"/>
+        <v>62</v>
+      </c>
+      <c r="V63">
+        <f t="shared" si="1"/>
+        <v>90.625</v>
+      </c>
+    </row>
+    <row r="64" spans="19:22" x14ac:dyDescent="0.45">
+      <c r="S64">
+        <v>62</v>
+      </c>
+      <c r="T64">
+        <v>9.375E-2</v>
+      </c>
+      <c r="U64">
+        <f t="shared" si="0"/>
+        <v>63</v>
+      </c>
+      <c r="V64">
+        <f t="shared" si="1"/>
+        <v>90.625</v>
+      </c>
+    </row>
+    <row r="65" spans="19:22" x14ac:dyDescent="0.45">
+      <c r="S65">
+        <v>63</v>
+      </c>
+      <c r="T65">
+        <v>9.375E-2</v>
+      </c>
+      <c r="U65">
+        <f t="shared" si="0"/>
+        <v>64</v>
+      </c>
+      <c r="V65">
+        <f t="shared" si="1"/>
+        <v>90.625</v>
+      </c>
+    </row>
+    <row r="66" spans="19:22" x14ac:dyDescent="0.45">
+      <c r="S66">
+        <v>64</v>
+      </c>
+      <c r="T66">
+        <v>9.375E-2</v>
+      </c>
+      <c r="U66">
+        <f t="shared" si="0"/>
+        <v>65</v>
+      </c>
+      <c r="V66">
+        <f t="shared" si="1"/>
+        <v>90.625</v>
+      </c>
+    </row>
+    <row r="67" spans="19:22" x14ac:dyDescent="0.45">
+      <c r="S67">
+        <v>65</v>
+      </c>
+      <c r="T67">
+        <v>0.15625</v>
+      </c>
+      <c r="U67">
+        <f t="shared" ref="U67:U101" si="2" xml:space="preserve"> 1+S67</f>
+        <v>66</v>
+      </c>
+      <c r="V67">
+        <f t="shared" ref="V67:V101" si="3" xml:space="preserve"> (1-T67)*100</f>
+        <v>84.375</v>
+      </c>
+    </row>
+    <row r="68" spans="19:22" x14ac:dyDescent="0.45">
+      <c r="S68">
+        <v>66</v>
+      </c>
+      <c r="T68">
+        <v>0.140625</v>
+      </c>
+      <c r="U68">
+        <f t="shared" si="2"/>
+        <v>67</v>
+      </c>
+      <c r="V68">
+        <f t="shared" si="3"/>
+        <v>85.9375</v>
+      </c>
+    </row>
+    <row r="69" spans="19:22" x14ac:dyDescent="0.45">
+      <c r="S69">
+        <v>67</v>
+      </c>
+      <c r="T69">
+        <v>9.375E-2</v>
+      </c>
+      <c r="U69">
+        <f t="shared" si="2"/>
+        <v>68</v>
+      </c>
+      <c r="V69">
+        <f t="shared" si="3"/>
+        <v>90.625</v>
+      </c>
+    </row>
+    <row r="70" spans="19:22" x14ac:dyDescent="0.45">
+      <c r="S70">
+        <v>68</v>
+      </c>
+      <c r="T70">
+        <v>0.109375</v>
+      </c>
+      <c r="U70">
+        <f t="shared" si="2"/>
+        <v>69</v>
+      </c>
+      <c r="V70">
+        <f t="shared" si="3"/>
+        <v>89.0625</v>
+      </c>
+    </row>
+    <row r="71" spans="19:22" x14ac:dyDescent="0.45">
+      <c r="S71">
+        <v>69</v>
+      </c>
+      <c r="T71">
+        <v>6.25E-2</v>
+      </c>
+      <c r="U71">
+        <f t="shared" si="2"/>
+        <v>70</v>
+      </c>
+      <c r="V71">
+        <f t="shared" si="3"/>
+        <v>93.75</v>
+      </c>
+    </row>
+    <row r="72" spans="19:22" x14ac:dyDescent="0.45">
+      <c r="S72">
+        <v>70</v>
+      </c>
+      <c r="T72">
+        <v>6.25E-2</v>
+      </c>
+      <c r="U72">
+        <f t="shared" si="2"/>
+        <v>71</v>
+      </c>
+      <c r="V72">
+        <f t="shared" si="3"/>
+        <v>93.75</v>
+      </c>
+    </row>
+    <row r="73" spans="19:22" x14ac:dyDescent="0.45">
+      <c r="S73">
+        <v>71</v>
+      </c>
+      <c r="T73">
+        <v>9.375E-2</v>
+      </c>
+      <c r="U73">
+        <f t="shared" si="2"/>
+        <v>72</v>
+      </c>
+      <c r="V73">
+        <f t="shared" si="3"/>
+        <v>90.625</v>
+      </c>
+    </row>
+    <row r="74" spans="19:22" x14ac:dyDescent="0.45">
+      <c r="S74">
+        <v>72</v>
+      </c>
+      <c r="T74">
+        <v>7.8125E-2</v>
+      </c>
+      <c r="U74">
+        <f t="shared" si="2"/>
+        <v>73</v>
+      </c>
+      <c r="V74">
+        <f t="shared" si="3"/>
+        <v>92.1875</v>
+      </c>
+    </row>
+    <row r="75" spans="19:22" x14ac:dyDescent="0.45">
+      <c r="S75">
+        <v>73</v>
+      </c>
+      <c r="T75">
+        <v>9.375E-2</v>
+      </c>
+      <c r="U75">
+        <f t="shared" si="2"/>
+        <v>74</v>
+      </c>
+      <c r="V75">
+        <f t="shared" si="3"/>
+        <v>90.625</v>
+      </c>
+    </row>
+    <row r="76" spans="19:22" x14ac:dyDescent="0.45">
+      <c r="S76">
+        <v>74</v>
+      </c>
+      <c r="T76">
+        <v>0.109375</v>
+      </c>
+      <c r="U76">
+        <f t="shared" si="2"/>
+        <v>75</v>
+      </c>
+      <c r="V76">
+        <f t="shared" si="3"/>
+        <v>89.0625</v>
+      </c>
+    </row>
+    <row r="77" spans="19:22" x14ac:dyDescent="0.45">
+      <c r="S77">
+        <v>75</v>
+      </c>
+      <c r="T77">
+        <v>6.25E-2</v>
+      </c>
+      <c r="U77">
+        <f t="shared" si="2"/>
+        <v>76</v>
+      </c>
+      <c r="V77">
+        <f t="shared" si="3"/>
+        <v>93.75</v>
+      </c>
+    </row>
+    <row r="78" spans="19:22" x14ac:dyDescent="0.45">
+      <c r="S78">
+        <v>76</v>
+      </c>
+      <c r="T78">
+        <v>9.375E-2</v>
+      </c>
+      <c r="U78">
+        <f t="shared" si="2"/>
+        <v>77</v>
+      </c>
+      <c r="V78">
+        <f t="shared" si="3"/>
+        <v>90.625</v>
+      </c>
+    </row>
+    <row r="79" spans="19:22" x14ac:dyDescent="0.45">
+      <c r="S79">
+        <v>77</v>
+      </c>
+      <c r="T79">
+        <v>6.25E-2</v>
+      </c>
+      <c r="U79">
+        <f t="shared" si="2"/>
+        <v>78</v>
+      </c>
+      <c r="V79">
+        <f t="shared" si="3"/>
+        <v>93.75</v>
+      </c>
+    </row>
+    <row r="80" spans="19:22" x14ac:dyDescent="0.45">
+      <c r="S80">
+        <v>78</v>
+      </c>
+      <c r="T80">
+        <v>7.8125E-2</v>
+      </c>
+      <c r="U80">
+        <f t="shared" si="2"/>
+        <v>79</v>
+      </c>
+      <c r="V80">
+        <f t="shared" si="3"/>
+        <v>92.1875</v>
+      </c>
+    </row>
+    <row r="81" spans="19:22" x14ac:dyDescent="0.45">
+      <c r="S81">
+        <v>79</v>
+      </c>
+      <c r="T81">
+        <v>7.8125E-2</v>
+      </c>
+      <c r="U81">
+        <f t="shared" si="2"/>
+        <v>80</v>
+      </c>
+      <c r="V81">
+        <f t="shared" si="3"/>
+        <v>92.1875</v>
+      </c>
+    </row>
+    <row r="82" spans="19:22" x14ac:dyDescent="0.45">
+      <c r="S82">
+        <v>80</v>
+      </c>
+      <c r="T82">
+        <v>4.6875E-2</v>
+      </c>
+      <c r="U82">
+        <f t="shared" si="2"/>
+        <v>81</v>
+      </c>
+      <c r="V82">
+        <f t="shared" si="3"/>
+        <v>95.3125</v>
+      </c>
+    </row>
+    <row r="83" spans="19:22" x14ac:dyDescent="0.45">
+      <c r="S83">
+        <v>81</v>
+      </c>
+      <c r="T83">
+        <v>0.109375</v>
+      </c>
+      <c r="U83">
+        <f t="shared" si="2"/>
+        <v>82</v>
+      </c>
+      <c r="V83">
+        <f t="shared" si="3"/>
+        <v>89.0625</v>
+      </c>
+    </row>
+    <row r="84" spans="19:22" x14ac:dyDescent="0.45">
+      <c r="S84">
+        <v>82</v>
+      </c>
+      <c r="T84">
+        <v>9.375E-2</v>
+      </c>
+      <c r="U84">
+        <f t="shared" si="2"/>
+        <v>83</v>
+      </c>
+      <c r="V84">
+        <f t="shared" si="3"/>
+        <v>90.625</v>
+      </c>
+    </row>
+    <row r="85" spans="19:22" x14ac:dyDescent="0.45">
+      <c r="S85">
+        <v>83</v>
+      </c>
+      <c r="T85">
+        <v>4.6875E-2</v>
+      </c>
+      <c r="U85">
+        <f t="shared" si="2"/>
+        <v>84</v>
+      </c>
+      <c r="V85">
+        <f t="shared" si="3"/>
+        <v>95.3125</v>
+      </c>
+    </row>
+    <row r="86" spans="19:22" x14ac:dyDescent="0.45">
+      <c r="S86">
+        <v>84</v>
+      </c>
+      <c r="T86">
+        <v>7.8125E-2</v>
+      </c>
+      <c r="U86">
+        <f t="shared" si="2"/>
+        <v>85</v>
+      </c>
+      <c r="V86">
+        <f t="shared" si="3"/>
+        <v>92.1875</v>
+      </c>
+    </row>
+    <row r="87" spans="19:22" x14ac:dyDescent="0.45">
+      <c r="S87">
+        <v>85</v>
+      </c>
+      <c r="T87">
+        <v>7.8125E-2</v>
+      </c>
+      <c r="U87">
+        <f t="shared" si="2"/>
+        <v>86</v>
+      </c>
+      <c r="V87">
+        <f t="shared" si="3"/>
+        <v>92.1875</v>
+      </c>
+    </row>
+    <row r="88" spans="19:22" x14ac:dyDescent="0.45">
+      <c r="S88">
+        <v>86</v>
+      </c>
+      <c r="T88">
+        <v>7.8125E-2</v>
+      </c>
+      <c r="U88">
+        <f t="shared" si="2"/>
+        <v>87</v>
+      </c>
+      <c r="V88">
+        <f t="shared" si="3"/>
+        <v>92.1875</v>
+      </c>
+    </row>
+    <row r="89" spans="19:22" x14ac:dyDescent="0.45">
+      <c r="S89">
+        <v>87</v>
+      </c>
+      <c r="T89">
+        <v>6.25E-2</v>
+      </c>
+      <c r="U89">
+        <f t="shared" si="2"/>
+        <v>88</v>
+      </c>
+      <c r="V89">
+        <f t="shared" si="3"/>
+        <v>93.75</v>
+      </c>
+    </row>
+    <row r="90" spans="19:22" x14ac:dyDescent="0.45">
+      <c r="S90">
+        <v>88</v>
+      </c>
+      <c r="T90">
+        <v>7.8125E-2</v>
+      </c>
+      <c r="U90">
+        <f t="shared" si="2"/>
+        <v>89</v>
+      </c>
+      <c r="V90">
+        <f t="shared" si="3"/>
+        <v>92.1875</v>
+      </c>
+    </row>
+    <row r="91" spans="19:22" x14ac:dyDescent="0.45">
+      <c r="S91">
+        <v>89</v>
+      </c>
+      <c r="T91">
+        <v>6.25E-2</v>
+      </c>
+      <c r="U91">
+        <f t="shared" si="2"/>
+        <v>90</v>
+      </c>
+      <c r="V91">
+        <f t="shared" si="3"/>
+        <v>93.75</v>
+      </c>
+    </row>
+    <row r="92" spans="19:22" x14ac:dyDescent="0.45">
+      <c r="S92">
+        <v>90</v>
+      </c>
+      <c r="T92">
+        <v>6.25E-2</v>
+      </c>
+      <c r="U92">
+        <f t="shared" si="2"/>
+        <v>91</v>
+      </c>
+      <c r="V92">
+        <f t="shared" si="3"/>
+        <v>93.75</v>
+      </c>
+    </row>
+    <row r="93" spans="19:22" x14ac:dyDescent="0.45">
+      <c r="S93">
+        <v>91</v>
+      </c>
+      <c r="T93">
+        <v>6.25E-2</v>
+      </c>
+      <c r="U93">
+        <f t="shared" si="2"/>
+        <v>92</v>
+      </c>
+      <c r="V93">
+        <f t="shared" si="3"/>
+        <v>93.75</v>
+      </c>
+    </row>
+    <row r="94" spans="19:22" x14ac:dyDescent="0.45">
+      <c r="S94">
+        <v>92</v>
+      </c>
+      <c r="T94">
+        <v>6.25E-2</v>
+      </c>
+      <c r="U94">
+        <f t="shared" si="2"/>
+        <v>93</v>
+      </c>
+      <c r="V94">
+        <f t="shared" si="3"/>
+        <v>93.75</v>
+      </c>
+    </row>
+    <row r="95" spans="19:22" x14ac:dyDescent="0.45">
+      <c r="S95">
+        <v>93</v>
+      </c>
+      <c r="T95">
+        <v>6.25E-2</v>
+      </c>
+      <c r="U95">
+        <f t="shared" si="2"/>
+        <v>94</v>
+      </c>
+      <c r="V95">
+        <f t="shared" si="3"/>
+        <v>93.75</v>
+      </c>
+    </row>
+    <row r="96" spans="19:22" x14ac:dyDescent="0.45">
+      <c r="S96">
+        <v>94</v>
+      </c>
+      <c r="T96">
+        <v>6.25E-2</v>
+      </c>
+      <c r="U96">
+        <f t="shared" si="2"/>
+        <v>95</v>
+      </c>
+      <c r="V96">
+        <f t="shared" si="3"/>
+        <v>93.75</v>
+      </c>
+    </row>
+    <row r="97" spans="19:22" x14ac:dyDescent="0.45">
+      <c r="S97">
+        <v>95</v>
+      </c>
+      <c r="T97">
+        <v>6.25E-2</v>
+      </c>
+      <c r="U97">
+        <f t="shared" si="2"/>
+        <v>96</v>
+      </c>
+      <c r="V97">
+        <f t="shared" si="3"/>
+        <v>93.75</v>
+      </c>
+    </row>
+    <row r="98" spans="19:22" x14ac:dyDescent="0.45">
+      <c r="S98">
+        <v>96</v>
+      </c>
+      <c r="T98">
+        <v>6.25E-2</v>
+      </c>
+      <c r="U98">
+        <f t="shared" si="2"/>
+        <v>97</v>
+      </c>
+      <c r="V98">
+        <f t="shared" si="3"/>
+        <v>93.75</v>
+      </c>
+    </row>
+    <row r="99" spans="19:22" x14ac:dyDescent="0.45">
+      <c r="S99">
+        <v>97</v>
+      </c>
+      <c r="T99">
+        <v>6.25E-2</v>
+      </c>
+      <c r="U99">
+        <f t="shared" si="2"/>
+        <v>98</v>
+      </c>
+      <c r="V99">
+        <f t="shared" si="3"/>
+        <v>93.75</v>
+      </c>
+    </row>
+    <row r="100" spans="19:22" x14ac:dyDescent="0.45">
+      <c r="S100">
+        <v>98</v>
+      </c>
+      <c r="T100">
+        <v>6.25E-2</v>
+      </c>
+      <c r="U100">
+        <f t="shared" si="2"/>
+        <v>99</v>
+      </c>
+      <c r="V100">
+        <f t="shared" si="3"/>
+        <v>93.75</v>
+      </c>
+    </row>
+    <row r="101" spans="19:22" x14ac:dyDescent="0.45">
+      <c r="S101">
+        <v>99</v>
+      </c>
+      <c r="T101">
+        <v>6.25E-2</v>
+      </c>
+      <c r="U101">
+        <f t="shared" si="2"/>
+        <v>100</v>
+      </c>
+      <c r="V101">
+        <f t="shared" si="3"/>
+        <v>93.75</v>
+      </c>
+    </row>
+    <row r="102" spans="19:22" x14ac:dyDescent="0.45">
+      <c r="S102" t="s">
+        <v>11</v>
+      </c>
+      <c r="T102">
+        <v>6.25E-2</v>
+      </c>
+    </row>
+    <row r="103" spans="19:22" x14ac:dyDescent="0.45">
+      <c r="S103" t="s">
+        <v>11</v>
+      </c>
+      <c r="T103">
+        <v>9.375E-2</v>
+      </c>
+    </row>
+    <row r="104" spans="19:22" x14ac:dyDescent="0.45">
+      <c r="S104" t="s">
+        <v>11</v>
+      </c>
+      <c r="T104">
+        <v>9.375E-2</v>
+      </c>
+    </row>
+    <row r="105" spans="19:22" x14ac:dyDescent="0.45">
+      <c r="S105" t="s">
+        <v>11</v>
+      </c>
+      <c r="T105">
+        <v>0.125</v>
+      </c>
+    </row>
+    <row r="106" spans="19:22" x14ac:dyDescent="0.45">
+      <c r="S106" t="s">
+        <v>11</v>
+      </c>
+      <c r="T106">
+        <v>0.109375</v>
+      </c>
+    </row>
+    <row r="107" spans="19:22" x14ac:dyDescent="0.45">
+      <c r="S107" t="s">
+        <v>11</v>
+      </c>
+      <c r="T107">
+        <v>9.375E-2</v>
+      </c>
+    </row>
+    <row r="108" spans="19:22" x14ac:dyDescent="0.45">
+      <c r="S108" t="s">
+        <v>11</v>
+      </c>
+      <c r="T108">
+        <v>9.375E-2</v>
+      </c>
+    </row>
+    <row r="109" spans="19:22" x14ac:dyDescent="0.45">
+      <c r="S109" t="s">
+        <v>11</v>
+      </c>
+      <c r="T109">
+        <v>0.125</v>
+      </c>
+    </row>
+    <row r="110" spans="19:22" x14ac:dyDescent="0.45">
+      <c r="S110" t="s">
+        <v>11</v>
+      </c>
+      <c r="T110">
+        <v>0.109375</v>
+      </c>
+    </row>
+    <row r="111" spans="19:22" x14ac:dyDescent="0.45">
+      <c r="S111" t="s">
+        <v>11</v>
+      </c>
+      <c r="T111">
+        <v>0.171875</v>
+      </c>
+    </row>
+    <row r="112" spans="19:22" x14ac:dyDescent="0.45">
+      <c r="S112" t="s">
+        <v>11</v>
+      </c>
+      <c r="T112">
+        <v>9.375E-2</v>
+      </c>
+    </row>
+    <row r="113" spans="19:20" x14ac:dyDescent="0.45">
+      <c r="S113" t="s">
+        <v>11</v>
+      </c>
+      <c r="T113">
+        <v>0.140625</v>
+      </c>
+    </row>
+    <row r="114" spans="19:20" x14ac:dyDescent="0.45">
+      <c r="S114" t="s">
+        <v>11</v>
+      </c>
+      <c r="T114">
+        <v>6.25E-2</v>
+      </c>
+    </row>
+    <row r="115" spans="19:20" x14ac:dyDescent="0.45">
+      <c r="S115" t="s">
+        <v>11</v>
+      </c>
+      <c r="T115">
+        <v>7.8125E-2</v>
+      </c>
+    </row>
+    <row r="116" spans="19:20" x14ac:dyDescent="0.45">
+      <c r="S116" t="s">
+        <v>11</v>
+      </c>
+      <c r="T116">
+        <v>6.25E-2</v>
+      </c>
+    </row>
+    <row r="117" spans="19:20" x14ac:dyDescent="0.45">
+      <c r="S117" t="s">
+        <v>11</v>
+      </c>
+      <c r="T117">
+        <v>0.109375</v>
+      </c>
+    </row>
+    <row r="118" spans="19:20" x14ac:dyDescent="0.45">
+      <c r="S118" t="s">
+        <v>11</v>
+      </c>
+      <c r="T118">
+        <v>0.140625</v>
+      </c>
+    </row>
+    <row r="119" spans="19:20" x14ac:dyDescent="0.45">
+      <c r="S119" t="s">
+        <v>11</v>
+      </c>
+      <c r="T119">
+        <v>9.375E-2</v>
+      </c>
+    </row>
+    <row r="120" spans="19:20" x14ac:dyDescent="0.45">
+      <c r="S120" t="s">
+        <v>11</v>
+      </c>
+      <c r="T120">
+        <v>6.25E-2</v>
+      </c>
+    </row>
+    <row r="121" spans="19:20" x14ac:dyDescent="0.45">
+      <c r="S121" t="s">
+        <v>11</v>
+      </c>
+      <c r="T121">
+        <v>0.109375</v>
+      </c>
+    </row>
+    <row r="122" spans="19:20" x14ac:dyDescent="0.45">
+      <c r="S122" t="s">
+        <v>11</v>
+      </c>
+      <c r="T122">
+        <v>4.6875E-2</v>
+      </c>
+    </row>
+    <row r="123" spans="19:20" x14ac:dyDescent="0.45">
+      <c r="S123" t="s">
+        <v>11</v>
+      </c>
+      <c r="T123">
+        <v>6.25E-2</v>
+      </c>
+    </row>
+    <row r="124" spans="19:20" x14ac:dyDescent="0.45">
+      <c r="S124" t="s">
+        <v>11</v>
+      </c>
+      <c r="T124">
+        <v>9.375E-2</v>
+      </c>
+    </row>
+    <row r="125" spans="19:20" x14ac:dyDescent="0.45">
+      <c r="S125" t="s">
+        <v>11</v>
+      </c>
+      <c r="T125">
+        <v>7.8125E-2</v>
+      </c>
+    </row>
+    <row r="126" spans="19:20" x14ac:dyDescent="0.45">
+      <c r="S126" t="s">
+        <v>11</v>
+      </c>
+      <c r="T126">
+        <v>9.375E-2</v>
+      </c>
+    </row>
+    <row r="127" spans="19:20" x14ac:dyDescent="0.45">
+      <c r="S127" t="s">
+        <v>11</v>
+      </c>
+      <c r="T127">
+        <v>7.8125E-2</v>
+      </c>
+    </row>
+    <row r="128" spans="19:20" x14ac:dyDescent="0.45">
+      <c r="S128" t="s">
+        <v>11</v>
+      </c>
+      <c r="T128">
+        <v>7.8125E-2</v>
+      </c>
+    </row>
+    <row r="129" spans="19:20" x14ac:dyDescent="0.45">
+      <c r="S129" t="s">
+        <v>11</v>
+      </c>
+      <c r="T129">
+        <v>0.125</v>
+      </c>
+    </row>
+    <row r="130" spans="19:20" x14ac:dyDescent="0.45">
+      <c r="S130" t="s">
+        <v>11</v>
+      </c>
+      <c r="T130">
+        <v>0.203125</v>
+      </c>
+    </row>
+    <row r="131" spans="19:20" x14ac:dyDescent="0.45">
+      <c r="S131" t="s">
+        <v>11</v>
+      </c>
+      <c r="T131">
+        <v>0.109375</v>
+      </c>
+    </row>
+    <row r="132" spans="19:20" x14ac:dyDescent="0.45">
+      <c r="S132" t="s">
+        <v>11</v>
+      </c>
+      <c r="T132">
+        <v>0.109375</v>
+      </c>
+    </row>
+    <row r="133" spans="19:20" x14ac:dyDescent="0.45">
+      <c r="S133" t="s">
+        <v>11</v>
+      </c>
+      <c r="T133">
+        <v>0.125</v>
+      </c>
+    </row>
+    <row r="134" spans="19:20" x14ac:dyDescent="0.45">
+      <c r="S134" t="s">
+        <v>11</v>
+      </c>
+      <c r="T134">
+        <v>0.125</v>
+      </c>
+    </row>
+    <row r="135" spans="19:20" x14ac:dyDescent="0.45">
+      <c r="S135" t="s">
+        <v>11</v>
+      </c>
+      <c r="T135">
+        <v>4.6875E-2</v>
+      </c>
+    </row>
+    <row r="136" spans="19:20" x14ac:dyDescent="0.45">
+      <c r="S136" t="s">
+        <v>11</v>
+      </c>
+      <c r="T136">
+        <v>0.125</v>
+      </c>
+    </row>
+    <row r="137" spans="19:20" x14ac:dyDescent="0.45">
+      <c r="S137" t="s">
+        <v>11</v>
+      </c>
+      <c r="T137">
+        <v>0.109375</v>
+      </c>
+    </row>
+    <row r="138" spans="19:20" x14ac:dyDescent="0.45">
+      <c r="S138" t="s">
+        <v>11</v>
+      </c>
+      <c r="T138">
+        <v>9.375E-2</v>
+      </c>
+    </row>
+    <row r="139" spans="19:20" x14ac:dyDescent="0.45">
+      <c r="S139" t="s">
+        <v>11</v>
+      </c>
+      <c r="T139">
+        <v>3.125E-2</v>
+      </c>
+    </row>
+    <row r="140" spans="19:20" x14ac:dyDescent="0.45">
+      <c r="S140" t="s">
+        <v>11</v>
+      </c>
+      <c r="T140">
+        <v>9.375E-2</v>
+      </c>
+    </row>
+    <row r="141" spans="19:20" x14ac:dyDescent="0.45">
+      <c r="S141" t="s">
+        <v>11</v>
+      </c>
+      <c r="T141">
+        <v>7.8125E-2</v>
+      </c>
+    </row>
+    <row r="142" spans="19:20" x14ac:dyDescent="0.45">
+      <c r="S142" t="s">
+        <v>11</v>
+      </c>
+      <c r="T142">
+        <v>9.375E-2</v>
+      </c>
+    </row>
+    <row r="143" spans="19:20" x14ac:dyDescent="0.45">
+      <c r="S143" t="s">
+        <v>11</v>
+      </c>
+      <c r="T143">
+        <v>0.125</v>
+      </c>
+    </row>
+    <row r="144" spans="19:20" x14ac:dyDescent="0.45">
+      <c r="S144" t="s">
+        <v>11</v>
+      </c>
+      <c r="T144">
+        <v>6.25E-2</v>
+      </c>
+    </row>
+    <row r="145" spans="19:20" x14ac:dyDescent="0.45">
+      <c r="S145" t="s">
+        <v>11</v>
+      </c>
+      <c r="T145">
+        <v>0.171875</v>
+      </c>
+    </row>
+    <row r="146" spans="19:20" x14ac:dyDescent="0.45">
+      <c r="S146" t="s">
+        <v>11</v>
+      </c>
+      <c r="T146">
+        <v>0.109375</v>
+      </c>
+    </row>
+    <row r="147" spans="19:20" x14ac:dyDescent="0.45">
+      <c r="S147" t="s">
+        <v>11</v>
+      </c>
+      <c r="T147">
+        <v>0.109375</v>
+      </c>
+    </row>
+    <row r="148" spans="19:20" x14ac:dyDescent="0.45">
+      <c r="S148" t="s">
+        <v>11</v>
+      </c>
+      <c r="T148">
+        <v>0.125</v>
+      </c>
+    </row>
+    <row r="149" spans="19:20" x14ac:dyDescent="0.45">
+      <c r="S149" t="s">
+        <v>11</v>
+      </c>
+      <c r="T149">
+        <v>4.6875E-2</v>
+      </c>
+    </row>
+    <row r="150" spans="19:20" x14ac:dyDescent="0.45">
+      <c r="S150" t="s">
+        <v>11</v>
+      </c>
+      <c r="T150">
+        <v>0.15625</v>
+      </c>
+    </row>
+    <row r="151" spans="19:20" x14ac:dyDescent="0.45">
+      <c r="S151" t="s">
+        <v>11</v>
+      </c>
+      <c r="T151">
+        <v>0.109375</v>
+      </c>
+    </row>
+    <row r="152" spans="19:20" x14ac:dyDescent="0.45">
+      <c r="S152" t="s">
+        <v>11</v>
+      </c>
+      <c r="T152">
+        <v>3.6363636363636362E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="H1:L1"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="A20:C20"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55D9FD51-27E4-4AE4-A4A7-D84888DA39D7}">
+  <dimension ref="A1:V152"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetData>
+    <row r="1" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="A1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
+      <c r="S1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="S2">
+        <v>0</v>
+      </c>
+      <c r="T2">
+        <v>1</v>
+      </c>
+      <c r="U2">
+        <f xml:space="preserve"> 1+S2</f>
+        <v>1</v>
+      </c>
+      <c r="V2">
+        <f xml:space="preserve"> (1-T2)*100</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="A3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="S3">
+        <v>1</v>
+      </c>
+      <c r="T3">
+        <v>0.9375</v>
+      </c>
+      <c r="U3">
+        <f t="shared" ref="U3:U66" si="0" xml:space="preserve"> 1+S3</f>
+        <v>2</v>
+      </c>
+      <c r="V3">
+        <f t="shared" ref="V3:V66" si="1" xml:space="preserve"> (1-T3)*100</f>
+        <v>6.25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="S4">
+        <v>2</v>
+      </c>
+      <c r="T4">
+        <v>0.8125</v>
+      </c>
+      <c r="U4">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="V4">
+        <f t="shared" si="1"/>
+        <v>18.75</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="S5">
+        <v>3</v>
+      </c>
+      <c r="T5">
+        <v>0.40625</v>
+      </c>
+      <c r="U5">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="V5">
+        <f t="shared" si="1"/>
+        <v>59.375</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="S6">
+        <v>4</v>
+      </c>
+      <c r="T6">
+        <v>0.390625</v>
+      </c>
+      <c r="U6">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="V6">
+        <f t="shared" si="1"/>
+        <v>60.9375</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="S7">
+        <v>5</v>
+      </c>
+      <c r="T7">
+        <v>0.328125</v>
+      </c>
+      <c r="U7">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="V7">
+        <f t="shared" si="1"/>
+        <v>67.1875</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="S8">
+        <v>6</v>
+      </c>
+      <c r="T8">
+        <v>0.203125</v>
+      </c>
+      <c r="U8">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="V8">
+        <f t="shared" si="1"/>
+        <v>79.6875</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="S9">
+        <v>7</v>
+      </c>
+      <c r="T9">
+        <v>0.203125</v>
+      </c>
+      <c r="U9">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="V9">
+        <f t="shared" si="1"/>
+        <v>79.6875</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="S10">
+        <v>8</v>
+      </c>
+      <c r="T10">
+        <v>0.1875</v>
+      </c>
+      <c r="U10">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="V10">
+        <f t="shared" si="1"/>
+        <v>81.25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="S11">
+        <v>9</v>
+      </c>
+      <c r="T11">
+        <v>0.234375</v>
+      </c>
+      <c r="U11">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="V11">
+        <f t="shared" si="1"/>
+        <v>76.5625</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="S12">
+        <v>10</v>
+      </c>
+      <c r="T12">
+        <v>0.15625</v>
+      </c>
+      <c r="U12">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="V12">
+        <f t="shared" si="1"/>
+        <v>84.375</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="S13">
+        <v>11</v>
+      </c>
+      <c r="T13">
+        <v>0.1875</v>
+      </c>
+      <c r="U13">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="V13">
+        <f t="shared" si="1"/>
+        <v>81.25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="S14">
+        <v>12</v>
+      </c>
+      <c r="T14">
+        <v>0.21875</v>
+      </c>
+      <c r="U14">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="V14">
+        <f t="shared" si="1"/>
+        <v>78.125</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="S15">
+        <v>13</v>
+      </c>
+      <c r="T15">
+        <v>0.125</v>
+      </c>
+      <c r="U15">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="V15">
+        <f t="shared" si="1"/>
+        <v>87.5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="S16">
+        <v>14</v>
+      </c>
+      <c r="T16">
+        <v>0.171875</v>
+      </c>
+      <c r="U16">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="V16">
+        <f t="shared" si="1"/>
+        <v>82.8125</v>
+      </c>
+    </row>
+    <row r="17" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="S17">
+        <v>15</v>
+      </c>
+      <c r="T17">
+        <v>0.21875</v>
+      </c>
+      <c r="U17">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="V17">
+        <f t="shared" si="1"/>
+        <v>78.125</v>
+      </c>
+    </row>
+    <row r="18" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="S18">
+        <v>16</v>
+      </c>
+      <c r="T18">
+        <v>0.171875</v>
+      </c>
+      <c r="U18">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="V18">
+        <f t="shared" si="1"/>
+        <v>82.8125</v>
+      </c>
+    </row>
+    <row r="19" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="S19">
+        <v>17</v>
+      </c>
+      <c r="T19">
+        <v>0.15625</v>
+      </c>
+      <c r="U19">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="V19">
+        <f t="shared" si="1"/>
+        <v>84.375</v>
+      </c>
+    </row>
+    <row r="20" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="A20" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
+      <c r="S20">
+        <v>18</v>
+      </c>
+      <c r="T20">
+        <v>0.140625</v>
+      </c>
+      <c r="U20">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="V20">
+        <f t="shared" si="1"/>
+        <v>85.9375</v>
+      </c>
+    </row>
+    <row r="21" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="S21">
+        <v>19</v>
+      </c>
+      <c r="T21">
+        <v>0.140625</v>
+      </c>
+      <c r="U21">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="V21">
+        <f t="shared" si="1"/>
+        <v>85.9375</v>
+      </c>
+    </row>
+    <row r="22" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="S22">
+        <v>20</v>
+      </c>
+      <c r="T22">
+        <v>9.375E-2</v>
+      </c>
+      <c r="U22">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="V22">
+        <f t="shared" si="1"/>
+        <v>90.625</v>
+      </c>
+    </row>
+    <row r="23" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="S23">
+        <v>21</v>
+      </c>
+      <c r="T23">
+        <v>0.125</v>
+      </c>
+      <c r="U23">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="V23">
+        <f t="shared" si="1"/>
+        <v>87.5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="S24">
+        <v>22</v>
+      </c>
+      <c r="T24">
+        <v>0.140625</v>
+      </c>
+      <c r="U24">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="V24">
+        <f t="shared" si="1"/>
+        <v>85.9375</v>
+      </c>
+    </row>
+    <row r="25" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="S25">
+        <v>23</v>
+      </c>
+      <c r="T25">
+        <v>0.15625</v>
+      </c>
+      <c r="U25">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="V25">
+        <f t="shared" si="1"/>
+        <v>84.375</v>
+      </c>
+    </row>
+    <row r="26" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="S26">
+        <v>24</v>
+      </c>
+      <c r="T26">
+        <v>0.15625</v>
+      </c>
+      <c r="U26">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="V26">
+        <f t="shared" si="1"/>
+        <v>84.375</v>
+      </c>
+    </row>
+    <row r="27" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="S27">
+        <v>25</v>
+      </c>
+      <c r="T27">
+        <v>0.140625</v>
+      </c>
+      <c r="U27">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+      <c r="V27">
+        <f t="shared" si="1"/>
+        <v>85.9375</v>
+      </c>
+    </row>
+    <row r="28" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="S28">
+        <v>26</v>
+      </c>
+      <c r="T28">
+        <v>0.140625</v>
+      </c>
+      <c r="U28">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+      <c r="V28">
+        <f t="shared" si="1"/>
+        <v>85.9375</v>
+      </c>
+    </row>
+    <row r="29" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="S29">
+        <v>27</v>
+      </c>
+      <c r="T29">
+        <v>0.15625</v>
+      </c>
+      <c r="U29">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+      <c r="V29">
+        <f t="shared" si="1"/>
+        <v>84.375</v>
+      </c>
+    </row>
+    <row r="30" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="S30">
+        <v>28</v>
+      </c>
+      <c r="T30">
+        <v>0.21875</v>
+      </c>
+      <c r="U30">
+        <f t="shared" si="0"/>
+        <v>29</v>
+      </c>
+      <c r="V30">
+        <f t="shared" si="1"/>
+        <v>78.125</v>
+      </c>
+    </row>
+    <row r="31" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="S31">
+        <v>29</v>
+      </c>
+      <c r="T31">
+        <v>0.15625</v>
+      </c>
+      <c r="U31">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="V31">
+        <f t="shared" si="1"/>
+        <v>84.375</v>
+      </c>
+    </row>
+    <row r="32" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="S32">
+        <v>30</v>
+      </c>
+      <c r="T32">
+        <v>0.125</v>
+      </c>
+      <c r="U32">
+        <f t="shared" si="0"/>
+        <v>31</v>
+      </c>
+      <c r="V32">
+        <f t="shared" si="1"/>
+        <v>87.5</v>
+      </c>
+    </row>
+    <row r="33" spans="19:22" x14ac:dyDescent="0.45">
+      <c r="S33">
+        <v>31</v>
+      </c>
+      <c r="T33">
+        <v>0.125</v>
+      </c>
+      <c r="U33">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+      <c r="V33">
+        <f t="shared" si="1"/>
+        <v>87.5</v>
+      </c>
+    </row>
+    <row r="34" spans="19:22" x14ac:dyDescent="0.45">
+      <c r="S34">
+        <v>32</v>
+      </c>
+      <c r="T34">
+        <v>0.140625</v>
+      </c>
+      <c r="U34">
+        <f t="shared" si="0"/>
+        <v>33</v>
+      </c>
+      <c r="V34">
+        <f t="shared" si="1"/>
+        <v>85.9375</v>
+      </c>
+    </row>
+    <row r="35" spans="19:22" x14ac:dyDescent="0.45">
+      <c r="S35">
+        <v>33</v>
+      </c>
+      <c r="T35">
+        <v>0.1875</v>
+      </c>
+      <c r="U35">
+        <f t="shared" si="0"/>
+        <v>34</v>
+      </c>
+      <c r="V35">
+        <f t="shared" si="1"/>
+        <v>81.25</v>
+      </c>
+    </row>
+    <row r="36" spans="19:22" x14ac:dyDescent="0.45">
+      <c r="S36">
+        <v>34</v>
+      </c>
+      <c r="T36">
+        <v>9.375E-2</v>
+      </c>
+      <c r="U36">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+      <c r="V36">
+        <f t="shared" si="1"/>
+        <v>90.625</v>
+      </c>
+    </row>
+    <row r="37" spans="19:22" x14ac:dyDescent="0.45">
+      <c r="S37">
+        <v>35</v>
+      </c>
+      <c r="T37">
+        <v>0.125</v>
+      </c>
+      <c r="U37">
+        <f t="shared" si="0"/>
+        <v>36</v>
+      </c>
+      <c r="V37">
+        <f t="shared" si="1"/>
+        <v>87.5</v>
+      </c>
+    </row>
+    <row r="38" spans="19:22" x14ac:dyDescent="0.45">
+      <c r="S38">
+        <v>36</v>
+      </c>
+      <c r="T38">
+        <v>0.140625</v>
+      </c>
+      <c r="U38">
+        <f t="shared" si="0"/>
+        <v>37</v>
+      </c>
+      <c r="V38">
+        <f t="shared" si="1"/>
+        <v>85.9375</v>
+      </c>
+    </row>
+    <row r="39" spans="19:22" x14ac:dyDescent="0.45">
+      <c r="S39">
+        <v>37</v>
+      </c>
+      <c r="T39">
+        <v>9.375E-2</v>
+      </c>
+      <c r="U39">
+        <f t="shared" si="0"/>
+        <v>38</v>
+      </c>
+      <c r="V39">
+        <f t="shared" si="1"/>
+        <v>90.625</v>
+      </c>
+    </row>
+    <row r="40" spans="19:22" x14ac:dyDescent="0.45">
+      <c r="S40">
+        <v>38</v>
+      </c>
+      <c r="T40">
+        <v>0.125</v>
+      </c>
+      <c r="U40">
+        <f t="shared" si="0"/>
+        <v>39</v>
+      </c>
+      <c r="V40">
+        <f t="shared" si="1"/>
+        <v>87.5</v>
+      </c>
+    </row>
+    <row r="41" spans="19:22" x14ac:dyDescent="0.45">
+      <c r="S41">
+        <v>39</v>
+      </c>
+      <c r="T41">
+        <v>0.140625</v>
+      </c>
+      <c r="U41">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="V41">
+        <f t="shared" si="1"/>
+        <v>85.9375</v>
+      </c>
+    </row>
+    <row r="42" spans="19:22" x14ac:dyDescent="0.45">
+      <c r="S42">
+        <v>40</v>
+      </c>
+      <c r="T42">
+        <v>9.375E-2</v>
+      </c>
+      <c r="U42">
+        <f t="shared" si="0"/>
+        <v>41</v>
+      </c>
+      <c r="V42">
+        <f t="shared" si="1"/>
+        <v>90.625</v>
+      </c>
+    </row>
+    <row r="43" spans="19:22" x14ac:dyDescent="0.45">
+      <c r="S43">
+        <v>41</v>
+      </c>
+      <c r="T43">
+        <v>0.15625</v>
+      </c>
+      <c r="U43">
+        <f t="shared" si="0"/>
+        <v>42</v>
+      </c>
+      <c r="V43">
+        <f t="shared" si="1"/>
+        <v>84.375</v>
+      </c>
+    </row>
+    <row r="44" spans="19:22" x14ac:dyDescent="0.45">
+      <c r="S44">
+        <v>42</v>
+      </c>
+      <c r="T44">
+        <v>0.140625</v>
+      </c>
+      <c r="U44">
+        <f t="shared" si="0"/>
+        <v>43</v>
+      </c>
+      <c r="V44">
+        <f t="shared" si="1"/>
+        <v>85.9375</v>
+      </c>
+    </row>
+    <row r="45" spans="19:22" x14ac:dyDescent="0.45">
+      <c r="S45">
+        <v>43</v>
+      </c>
+      <c r="T45">
+        <v>0.15625</v>
+      </c>
+      <c r="U45">
+        <f t="shared" si="0"/>
+        <v>44</v>
+      </c>
+      <c r="V45">
+        <f t="shared" si="1"/>
+        <v>84.375</v>
+      </c>
+    </row>
+    <row r="46" spans="19:22" x14ac:dyDescent="0.45">
+      <c r="S46">
+        <v>44</v>
+      </c>
+      <c r="T46">
+        <v>0.15625</v>
+      </c>
+      <c r="U46">
+        <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+      <c r="V46">
+        <f t="shared" si="1"/>
+        <v>84.375</v>
+      </c>
+    </row>
+    <row r="47" spans="19:22" x14ac:dyDescent="0.45">
+      <c r="S47">
+        <v>45</v>
+      </c>
+      <c r="T47">
+        <v>0.109375</v>
+      </c>
+      <c r="U47">
+        <f t="shared" si="0"/>
+        <v>46</v>
+      </c>
+      <c r="V47">
+        <f t="shared" si="1"/>
+        <v>89.0625</v>
+      </c>
+    </row>
+    <row r="48" spans="19:22" x14ac:dyDescent="0.45">
+      <c r="S48">
+        <v>46</v>
+      </c>
+      <c r="T48">
+        <v>0.109375</v>
+      </c>
+      <c r="U48">
+        <f t="shared" si="0"/>
+        <v>47</v>
+      </c>
+      <c r="V48">
+        <f t="shared" si="1"/>
+        <v>89.0625</v>
+      </c>
+    </row>
+    <row r="49" spans="19:22" x14ac:dyDescent="0.45">
+      <c r="S49">
+        <v>47</v>
+      </c>
+      <c r="T49">
+        <v>0.140625</v>
+      </c>
+      <c r="U49">
+        <f t="shared" si="0"/>
+        <v>48</v>
+      </c>
+      <c r="V49">
+        <f t="shared" si="1"/>
+        <v>85.9375</v>
+      </c>
+    </row>
+    <row r="50" spans="19:22" x14ac:dyDescent="0.45">
+      <c r="S50">
+        <v>48</v>
+      </c>
+      <c r="T50">
+        <v>0.140625</v>
+      </c>
+      <c r="U50">
+        <f t="shared" si="0"/>
+        <v>49</v>
+      </c>
+      <c r="V50">
+        <f t="shared" si="1"/>
+        <v>85.9375</v>
+      </c>
+    </row>
+    <row r="51" spans="19:22" x14ac:dyDescent="0.45">
+      <c r="S51">
+        <v>49</v>
+      </c>
+      <c r="T51">
+        <v>0.15625</v>
+      </c>
+      <c r="U51">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+      <c r="V51">
+        <f t="shared" si="1"/>
+        <v>84.375</v>
+      </c>
+    </row>
+    <row r="52" spans="19:22" x14ac:dyDescent="0.45">
+      <c r="S52">
+        <v>50</v>
+      </c>
+      <c r="T52">
+        <v>0.15625</v>
+      </c>
+      <c r="U52">
+        <f t="shared" si="0"/>
+        <v>51</v>
+      </c>
+      <c r="V52">
+        <f t="shared" si="1"/>
+        <v>84.375</v>
+      </c>
+    </row>
+    <row r="53" spans="19:22" x14ac:dyDescent="0.45">
+      <c r="S53">
+        <v>51</v>
+      </c>
+      <c r="T53">
+        <v>0.125</v>
+      </c>
+      <c r="U53">
+        <f t="shared" si="0"/>
+        <v>52</v>
+      </c>
+      <c r="V53">
+        <f t="shared" si="1"/>
+        <v>87.5</v>
+      </c>
+    </row>
+    <row r="54" spans="19:22" x14ac:dyDescent="0.45">
+      <c r="S54">
+        <v>52</v>
+      </c>
+      <c r="T54">
+        <v>0.125</v>
+      </c>
+      <c r="U54">
+        <f t="shared" si="0"/>
+        <v>53</v>
+      </c>
+      <c r="V54">
+        <f t="shared" si="1"/>
+        <v>87.5</v>
+      </c>
+    </row>
+    <row r="55" spans="19:22" x14ac:dyDescent="0.45">
+      <c r="S55">
+        <v>53</v>
+      </c>
+      <c r="T55">
+        <v>0.125</v>
+      </c>
+      <c r="U55">
+        <f t="shared" si="0"/>
+        <v>54</v>
+      </c>
+      <c r="V55">
+        <f t="shared" si="1"/>
+        <v>87.5</v>
+      </c>
+    </row>
+    <row r="56" spans="19:22" x14ac:dyDescent="0.45">
+      <c r="S56">
+        <v>54</v>
+      </c>
+      <c r="T56">
+        <v>0.140625</v>
+      </c>
+      <c r="U56">
+        <f t="shared" si="0"/>
+        <v>55</v>
+      </c>
+      <c r="V56">
+        <f t="shared" si="1"/>
+        <v>85.9375</v>
+      </c>
+    </row>
+    <row r="57" spans="19:22" x14ac:dyDescent="0.45">
+      <c r="S57">
+        <v>55</v>
+      </c>
+      <c r="T57">
+        <v>0.140625</v>
+      </c>
+      <c r="U57">
+        <f t="shared" si="0"/>
+        <v>56</v>
+      </c>
+      <c r="V57">
+        <f t="shared" si="1"/>
+        <v>85.9375</v>
+      </c>
+    </row>
+    <row r="58" spans="19:22" x14ac:dyDescent="0.45">
+      <c r="S58">
+        <v>56</v>
+      </c>
+      <c r="T58">
+        <v>0.125</v>
+      </c>
+      <c r="U58">
+        <f t="shared" si="0"/>
+        <v>57</v>
+      </c>
+      <c r="V58">
+        <f t="shared" si="1"/>
+        <v>87.5</v>
+      </c>
+    </row>
+    <row r="59" spans="19:22" x14ac:dyDescent="0.45">
+      <c r="S59">
+        <v>57</v>
+      </c>
+      <c r="T59">
+        <v>0.125</v>
+      </c>
+      <c r="U59">
+        <f t="shared" si="0"/>
+        <v>58</v>
+      </c>
+      <c r="V59">
+        <f t="shared" si="1"/>
+        <v>87.5</v>
+      </c>
+    </row>
+    <row r="60" spans="19:22" x14ac:dyDescent="0.45">
+      <c r="S60">
+        <v>58</v>
+      </c>
+      <c r="T60">
+        <v>6.25E-2</v>
+      </c>
+      <c r="U60">
+        <f t="shared" si="0"/>
+        <v>59</v>
+      </c>
+      <c r="V60">
+        <f t="shared" si="1"/>
+        <v>93.75</v>
+      </c>
+    </row>
+    <row r="61" spans="19:22" x14ac:dyDescent="0.45">
+      <c r="S61">
+        <v>59</v>
+      </c>
+      <c r="T61">
+        <v>0.109375</v>
+      </c>
+      <c r="U61">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+      <c r="V61">
+        <f t="shared" si="1"/>
+        <v>89.0625</v>
+      </c>
+    </row>
+    <row r="62" spans="19:22" x14ac:dyDescent="0.45">
+      <c r="S62">
+        <v>60</v>
+      </c>
+      <c r="T62">
+        <v>9.375E-2</v>
+      </c>
+      <c r="U62">
+        <f t="shared" si="0"/>
+        <v>61</v>
+      </c>
+      <c r="V62">
+        <f t="shared" si="1"/>
+        <v>90.625</v>
+      </c>
+    </row>
+    <row r="63" spans="19:22" x14ac:dyDescent="0.45">
+      <c r="S63">
+        <v>61</v>
+      </c>
+      <c r="T63">
+        <v>9.375E-2</v>
+      </c>
+      <c r="U63">
+        <f t="shared" si="0"/>
+        <v>62</v>
+      </c>
+      <c r="V63">
+        <f t="shared" si="1"/>
+        <v>90.625</v>
+      </c>
+    </row>
+    <row r="64" spans="19:22" x14ac:dyDescent="0.45">
+      <c r="S64">
+        <v>62</v>
+      </c>
+      <c r="T64">
+        <v>9.375E-2</v>
+      </c>
+      <c r="U64">
+        <f t="shared" si="0"/>
+        <v>63</v>
+      </c>
+      <c r="V64">
+        <f t="shared" si="1"/>
+        <v>90.625</v>
+      </c>
+    </row>
+    <row r="65" spans="19:22" x14ac:dyDescent="0.45">
+      <c r="S65">
+        <v>63</v>
+      </c>
+      <c r="T65">
+        <v>9.375E-2</v>
+      </c>
+      <c r="U65">
+        <f t="shared" si="0"/>
+        <v>64</v>
+      </c>
+      <c r="V65">
+        <f t="shared" si="1"/>
+        <v>90.625</v>
+      </c>
+    </row>
+    <row r="66" spans="19:22" x14ac:dyDescent="0.45">
+      <c r="S66">
+        <v>64</v>
+      </c>
+      <c r="T66">
+        <v>9.375E-2</v>
+      </c>
+      <c r="U66">
+        <f t="shared" si="0"/>
+        <v>65</v>
+      </c>
+      <c r="V66">
+        <f t="shared" si="1"/>
+        <v>90.625</v>
+      </c>
+    </row>
+    <row r="67" spans="19:22" x14ac:dyDescent="0.45">
+      <c r="S67">
+        <v>65</v>
+      </c>
+      <c r="T67">
+        <v>0.15625</v>
+      </c>
+      <c r="U67">
+        <f t="shared" ref="U67:U101" si="2" xml:space="preserve"> 1+S67</f>
+        <v>66</v>
+      </c>
+      <c r="V67">
+        <f t="shared" ref="V67:V101" si="3" xml:space="preserve"> (1-T67)*100</f>
+        <v>84.375</v>
+      </c>
+    </row>
+    <row r="68" spans="19:22" x14ac:dyDescent="0.45">
+      <c r="S68">
+        <v>66</v>
+      </c>
+      <c r="T68">
+        <v>0.140625</v>
+      </c>
+      <c r="U68">
+        <f t="shared" si="2"/>
+        <v>67</v>
+      </c>
+      <c r="V68">
+        <f t="shared" si="3"/>
+        <v>85.9375</v>
+      </c>
+    </row>
+    <row r="69" spans="19:22" x14ac:dyDescent="0.45">
+      <c r="S69">
+        <v>67</v>
+      </c>
+      <c r="T69">
+        <v>9.375E-2</v>
+      </c>
+      <c r="U69">
+        <f t="shared" si="2"/>
+        <v>68</v>
+      </c>
+      <c r="V69">
+        <f t="shared" si="3"/>
+        <v>90.625</v>
+      </c>
+    </row>
+    <row r="70" spans="19:22" x14ac:dyDescent="0.45">
+      <c r="S70">
+        <v>68</v>
+      </c>
+      <c r="T70">
+        <v>0.109375</v>
+      </c>
+      <c r="U70">
+        <f t="shared" si="2"/>
+        <v>69</v>
+      </c>
+      <c r="V70">
+        <f t="shared" si="3"/>
+        <v>89.0625</v>
+      </c>
+    </row>
+    <row r="71" spans="19:22" x14ac:dyDescent="0.45">
+      <c r="S71">
+        <v>69</v>
+      </c>
+      <c r="T71">
+        <v>6.25E-2</v>
+      </c>
+      <c r="U71">
+        <f t="shared" si="2"/>
+        <v>70</v>
+      </c>
+      <c r="V71">
+        <f t="shared" si="3"/>
+        <v>93.75</v>
+      </c>
+    </row>
+    <row r="72" spans="19:22" x14ac:dyDescent="0.45">
+      <c r="S72">
+        <v>70</v>
+      </c>
+      <c r="T72">
+        <v>6.25E-2</v>
+      </c>
+      <c r="U72">
+        <f t="shared" si="2"/>
+        <v>71</v>
+      </c>
+      <c r="V72">
+        <f t="shared" si="3"/>
+        <v>93.75</v>
+      </c>
+    </row>
+    <row r="73" spans="19:22" x14ac:dyDescent="0.45">
+      <c r="S73">
+        <v>71</v>
+      </c>
+      <c r="T73">
+        <v>9.375E-2</v>
+      </c>
+      <c r="U73">
+        <f t="shared" si="2"/>
+        <v>72</v>
+      </c>
+      <c r="V73">
+        <f t="shared" si="3"/>
+        <v>90.625</v>
+      </c>
+    </row>
+    <row r="74" spans="19:22" x14ac:dyDescent="0.45">
+      <c r="S74">
+        <v>72</v>
+      </c>
+      <c r="T74">
+        <v>7.8125E-2</v>
+      </c>
+      <c r="U74">
+        <f t="shared" si="2"/>
+        <v>73</v>
+      </c>
+      <c r="V74">
+        <f t="shared" si="3"/>
+        <v>92.1875</v>
+      </c>
+    </row>
+    <row r="75" spans="19:22" x14ac:dyDescent="0.45">
+      <c r="S75">
+        <v>73</v>
+      </c>
+      <c r="T75">
+        <v>9.375E-2</v>
+      </c>
+      <c r="U75">
+        <f t="shared" si="2"/>
+        <v>74</v>
+      </c>
+      <c r="V75">
+        <f t="shared" si="3"/>
+        <v>90.625</v>
+      </c>
+    </row>
+    <row r="76" spans="19:22" x14ac:dyDescent="0.45">
+      <c r="S76">
+        <v>74</v>
+      </c>
+      <c r="T76">
+        <v>0.109375</v>
+      </c>
+      <c r="U76">
+        <f t="shared" si="2"/>
+        <v>75</v>
+      </c>
+      <c r="V76">
+        <f t="shared" si="3"/>
+        <v>89.0625</v>
+      </c>
+    </row>
+    <row r="77" spans="19:22" x14ac:dyDescent="0.45">
+      <c r="S77">
+        <v>75</v>
+      </c>
+      <c r="T77">
+        <v>6.25E-2</v>
+      </c>
+      <c r="U77">
+        <f t="shared" si="2"/>
+        <v>76</v>
+      </c>
+      <c r="V77">
+        <f t="shared" si="3"/>
+        <v>93.75</v>
+      </c>
+    </row>
+    <row r="78" spans="19:22" x14ac:dyDescent="0.45">
+      <c r="S78">
+        <v>76</v>
+      </c>
+      <c r="T78">
+        <v>9.375E-2</v>
+      </c>
+      <c r="U78">
+        <f t="shared" si="2"/>
+        <v>77</v>
+      </c>
+      <c r="V78">
+        <f t="shared" si="3"/>
+        <v>90.625</v>
+      </c>
+    </row>
+    <row r="79" spans="19:22" x14ac:dyDescent="0.45">
+      <c r="S79">
+        <v>77</v>
+      </c>
+      <c r="T79">
+        <v>6.25E-2</v>
+      </c>
+      <c r="U79">
+        <f t="shared" si="2"/>
+        <v>78</v>
+      </c>
+      <c r="V79">
+        <f t="shared" si="3"/>
+        <v>93.75</v>
+      </c>
+    </row>
+    <row r="80" spans="19:22" x14ac:dyDescent="0.45">
+      <c r="S80">
+        <v>78</v>
+      </c>
+      <c r="T80">
+        <v>7.8125E-2</v>
+      </c>
+      <c r="U80">
+        <f t="shared" si="2"/>
+        <v>79</v>
+      </c>
+      <c r="V80">
+        <f t="shared" si="3"/>
+        <v>92.1875</v>
+      </c>
+    </row>
+    <row r="81" spans="19:22" x14ac:dyDescent="0.45">
+      <c r="S81">
+        <v>79</v>
+      </c>
+      <c r="T81">
+        <v>7.8125E-2</v>
+      </c>
+      <c r="U81">
+        <f t="shared" si="2"/>
+        <v>80</v>
+      </c>
+      <c r="V81">
+        <f t="shared" si="3"/>
+        <v>92.1875</v>
+      </c>
+    </row>
+    <row r="82" spans="19:22" x14ac:dyDescent="0.45">
+      <c r="S82">
+        <v>80</v>
+      </c>
+      <c r="T82">
+        <v>4.6875E-2</v>
+      </c>
+      <c r="U82">
+        <f t="shared" si="2"/>
+        <v>81</v>
+      </c>
+      <c r="V82">
+        <f t="shared" si="3"/>
+        <v>95.3125</v>
+      </c>
+    </row>
+    <row r="83" spans="19:22" x14ac:dyDescent="0.45">
+      <c r="S83">
+        <v>81</v>
+      </c>
+      <c r="T83">
+        <v>0.109375</v>
+      </c>
+      <c r="U83">
+        <f t="shared" si="2"/>
+        <v>82</v>
+      </c>
+      <c r="V83">
+        <f t="shared" si="3"/>
+        <v>89.0625</v>
+      </c>
+    </row>
+    <row r="84" spans="19:22" x14ac:dyDescent="0.45">
+      <c r="S84">
+        <v>82</v>
+      </c>
+      <c r="T84">
+        <v>9.375E-2</v>
+      </c>
+      <c r="U84">
+        <f t="shared" si="2"/>
+        <v>83</v>
+      </c>
+      <c r="V84">
+        <f t="shared" si="3"/>
+        <v>90.625</v>
+      </c>
+    </row>
+    <row r="85" spans="19:22" x14ac:dyDescent="0.45">
+      <c r="S85">
+        <v>83</v>
+      </c>
+      <c r="T85">
+        <v>4.6875E-2</v>
+      </c>
+      <c r="U85">
+        <f t="shared" si="2"/>
+        <v>84</v>
+      </c>
+      <c r="V85">
+        <f t="shared" si="3"/>
+        <v>95.3125</v>
+      </c>
+    </row>
+    <row r="86" spans="19:22" x14ac:dyDescent="0.45">
+      <c r="S86">
+        <v>84</v>
+      </c>
+      <c r="T86">
+        <v>7.8125E-2</v>
+      </c>
+      <c r="U86">
+        <f t="shared" si="2"/>
+        <v>85</v>
+      </c>
+      <c r="V86">
+        <f t="shared" si="3"/>
+        <v>92.1875</v>
+      </c>
+    </row>
+    <row r="87" spans="19:22" x14ac:dyDescent="0.45">
+      <c r="S87">
+        <v>85</v>
+      </c>
+      <c r="T87">
+        <v>7.8125E-2</v>
+      </c>
+      <c r="U87">
+        <f t="shared" si="2"/>
+        <v>86</v>
+      </c>
+      <c r="V87">
+        <f t="shared" si="3"/>
+        <v>92.1875</v>
+      </c>
+    </row>
+    <row r="88" spans="19:22" x14ac:dyDescent="0.45">
+      <c r="S88">
+        <v>86</v>
+      </c>
+      <c r="T88">
+        <v>7.8125E-2</v>
+      </c>
+      <c r="U88">
+        <f t="shared" si="2"/>
+        <v>87</v>
+      </c>
+      <c r="V88">
+        <f t="shared" si="3"/>
+        <v>92.1875</v>
+      </c>
+    </row>
+    <row r="89" spans="19:22" x14ac:dyDescent="0.45">
+      <c r="S89">
+        <v>87</v>
+      </c>
+      <c r="T89">
+        <v>6.25E-2</v>
+      </c>
+      <c r="U89">
+        <f t="shared" si="2"/>
+        <v>88</v>
+      </c>
+      <c r="V89">
+        <f t="shared" si="3"/>
+        <v>93.75</v>
+      </c>
+    </row>
+    <row r="90" spans="19:22" x14ac:dyDescent="0.45">
+      <c r="S90">
+        <v>88</v>
+      </c>
+      <c r="T90">
+        <v>7.8125E-2</v>
+      </c>
+      <c r="U90">
+        <f t="shared" si="2"/>
+        <v>89</v>
+      </c>
+      <c r="V90">
+        <f t="shared" si="3"/>
+        <v>92.1875</v>
+      </c>
+    </row>
+    <row r="91" spans="19:22" x14ac:dyDescent="0.45">
+      <c r="S91">
+        <v>89</v>
+      </c>
+      <c r="T91">
+        <v>6.25E-2</v>
+      </c>
+      <c r="U91">
+        <f t="shared" si="2"/>
+        <v>90</v>
+      </c>
+      <c r="V91">
+        <f t="shared" si="3"/>
+        <v>93.75</v>
+      </c>
+    </row>
+    <row r="92" spans="19:22" x14ac:dyDescent="0.45">
+      <c r="S92">
+        <v>90</v>
+      </c>
+      <c r="T92">
+        <v>6.25E-2</v>
+      </c>
+      <c r="U92">
+        <f t="shared" si="2"/>
+        <v>91</v>
+      </c>
+      <c r="V92">
+        <f t="shared" si="3"/>
+        <v>93.75</v>
+      </c>
+    </row>
+    <row r="93" spans="19:22" x14ac:dyDescent="0.45">
+      <c r="S93">
+        <v>91</v>
+      </c>
+      <c r="T93">
+        <v>6.25E-2</v>
+      </c>
+      <c r="U93">
+        <f t="shared" si="2"/>
+        <v>92</v>
+      </c>
+      <c r="V93">
+        <f t="shared" si="3"/>
+        <v>93.75</v>
+      </c>
+    </row>
+    <row r="94" spans="19:22" x14ac:dyDescent="0.45">
+      <c r="S94">
+        <v>92</v>
+      </c>
+      <c r="T94">
+        <v>6.25E-2</v>
+      </c>
+      <c r="U94">
+        <f t="shared" si="2"/>
+        <v>93</v>
+      </c>
+      <c r="V94">
+        <f t="shared" si="3"/>
+        <v>93.75</v>
+      </c>
+    </row>
+    <row r="95" spans="19:22" x14ac:dyDescent="0.45">
+      <c r="S95">
+        <v>93</v>
+      </c>
+      <c r="T95">
+        <v>6.25E-2</v>
+      </c>
+      <c r="U95">
+        <f t="shared" si="2"/>
+        <v>94</v>
+      </c>
+      <c r="V95">
+        <f t="shared" si="3"/>
+        <v>93.75</v>
+      </c>
+    </row>
+    <row r="96" spans="19:22" x14ac:dyDescent="0.45">
+      <c r="S96">
+        <v>94</v>
+      </c>
+      <c r="T96">
+        <v>6.25E-2</v>
+      </c>
+      <c r="U96">
+        <f t="shared" si="2"/>
+        <v>95</v>
+      </c>
+      <c r="V96">
+        <f t="shared" si="3"/>
+        <v>93.75</v>
+      </c>
+    </row>
+    <row r="97" spans="19:22" x14ac:dyDescent="0.45">
+      <c r="S97">
+        <v>95</v>
+      </c>
+      <c r="T97">
+        <v>6.25E-2</v>
+      </c>
+      <c r="U97">
+        <f t="shared" si="2"/>
+        <v>96</v>
+      </c>
+      <c r="V97">
+        <f t="shared" si="3"/>
+        <v>93.75</v>
+      </c>
+    </row>
+    <row r="98" spans="19:22" x14ac:dyDescent="0.45">
+      <c r="S98">
+        <v>96</v>
+      </c>
+      <c r="T98">
+        <v>6.25E-2</v>
+      </c>
+      <c r="U98">
+        <f t="shared" si="2"/>
+        <v>97</v>
+      </c>
+      <c r="V98">
+        <f t="shared" si="3"/>
+        <v>93.75</v>
+      </c>
+    </row>
+    <row r="99" spans="19:22" x14ac:dyDescent="0.45">
+      <c r="S99">
+        <v>97</v>
+      </c>
+      <c r="T99">
+        <v>6.25E-2</v>
+      </c>
+      <c r="U99">
+        <f t="shared" si="2"/>
+        <v>98</v>
+      </c>
+      <c r="V99">
+        <f t="shared" si="3"/>
+        <v>93.75</v>
+      </c>
+    </row>
+    <row r="100" spans="19:22" x14ac:dyDescent="0.45">
+      <c r="S100">
+        <v>98</v>
+      </c>
+      <c r="T100">
+        <v>6.25E-2</v>
+      </c>
+      <c r="U100">
+        <f t="shared" si="2"/>
+        <v>99</v>
+      </c>
+      <c r="V100">
+        <f t="shared" si="3"/>
+        <v>93.75</v>
+      </c>
+    </row>
+    <row r="101" spans="19:22" x14ac:dyDescent="0.45">
+      <c r="S101">
+        <v>99</v>
+      </c>
+      <c r="T101">
+        <v>6.25E-2</v>
+      </c>
+      <c r="U101">
+        <f t="shared" si="2"/>
+        <v>100</v>
+      </c>
+      <c r="V101">
+        <f t="shared" si="3"/>
+        <v>93.75</v>
+      </c>
+    </row>
+    <row r="102" spans="19:22" x14ac:dyDescent="0.45">
+      <c r="S102" t="s">
+        <v>11</v>
+      </c>
+      <c r="T102">
+        <v>6.25E-2</v>
+      </c>
+    </row>
+    <row r="103" spans="19:22" x14ac:dyDescent="0.45">
+      <c r="S103" t="s">
+        <v>11</v>
+      </c>
+      <c r="T103">
+        <v>9.375E-2</v>
+      </c>
+    </row>
+    <row r="104" spans="19:22" x14ac:dyDescent="0.45">
+      <c r="S104" t="s">
+        <v>11</v>
+      </c>
+      <c r="T104">
+        <v>9.375E-2</v>
+      </c>
+    </row>
+    <row r="105" spans="19:22" x14ac:dyDescent="0.45">
+      <c r="S105" t="s">
+        <v>11</v>
+      </c>
+      <c r="T105">
+        <v>0.125</v>
+      </c>
+    </row>
+    <row r="106" spans="19:22" x14ac:dyDescent="0.45">
+      <c r="S106" t="s">
+        <v>11</v>
+      </c>
+      <c r="T106">
+        <v>0.109375</v>
+      </c>
+    </row>
+    <row r="107" spans="19:22" x14ac:dyDescent="0.45">
+      <c r="S107" t="s">
+        <v>11</v>
+      </c>
+      <c r="T107">
+        <v>9.375E-2</v>
+      </c>
+    </row>
+    <row r="108" spans="19:22" x14ac:dyDescent="0.45">
+      <c r="S108" t="s">
+        <v>11</v>
+      </c>
+      <c r="T108">
+        <v>9.375E-2</v>
+      </c>
+    </row>
+    <row r="109" spans="19:22" x14ac:dyDescent="0.45">
+      <c r="S109" t="s">
+        <v>11</v>
+      </c>
+      <c r="T109">
+        <v>0.125</v>
+      </c>
+    </row>
+    <row r="110" spans="19:22" x14ac:dyDescent="0.45">
+      <c r="S110" t="s">
+        <v>11</v>
+      </c>
+      <c r="T110">
+        <v>0.109375</v>
+      </c>
+    </row>
+    <row r="111" spans="19:22" x14ac:dyDescent="0.45">
+      <c r="S111" t="s">
+        <v>11</v>
+      </c>
+      <c r="T111">
+        <v>0.171875</v>
+      </c>
+    </row>
+    <row r="112" spans="19:22" x14ac:dyDescent="0.45">
+      <c r="S112" t="s">
+        <v>11</v>
+      </c>
+      <c r="T112">
+        <v>9.375E-2</v>
+      </c>
+    </row>
+    <row r="113" spans="19:20" x14ac:dyDescent="0.45">
+      <c r="S113" t="s">
+        <v>11</v>
+      </c>
+      <c r="T113">
+        <v>0.140625</v>
+      </c>
+    </row>
+    <row r="114" spans="19:20" x14ac:dyDescent="0.45">
+      <c r="S114" t="s">
+        <v>11</v>
+      </c>
+      <c r="T114">
+        <v>6.25E-2</v>
+      </c>
+    </row>
+    <row r="115" spans="19:20" x14ac:dyDescent="0.45">
+      <c r="S115" t="s">
+        <v>11</v>
+      </c>
+      <c r="T115">
+        <v>7.8125E-2</v>
+      </c>
+    </row>
+    <row r="116" spans="19:20" x14ac:dyDescent="0.45">
+      <c r="S116" t="s">
+        <v>11</v>
+      </c>
+      <c r="T116">
+        <v>6.25E-2</v>
+      </c>
+    </row>
+    <row r="117" spans="19:20" x14ac:dyDescent="0.45">
+      <c r="S117" t="s">
+        <v>11</v>
+      </c>
+      <c r="T117">
+        <v>0.109375</v>
+      </c>
+    </row>
+    <row r="118" spans="19:20" x14ac:dyDescent="0.45">
+      <c r="S118" t="s">
+        <v>11</v>
+      </c>
+      <c r="T118">
+        <v>0.140625</v>
+      </c>
+    </row>
+    <row r="119" spans="19:20" x14ac:dyDescent="0.45">
+      <c r="S119" t="s">
+        <v>11</v>
+      </c>
+      <c r="T119">
+        <v>9.375E-2</v>
+      </c>
+    </row>
+    <row r="120" spans="19:20" x14ac:dyDescent="0.45">
+      <c r="S120" t="s">
+        <v>11</v>
+      </c>
+      <c r="T120">
+        <v>6.25E-2</v>
+      </c>
+    </row>
+    <row r="121" spans="19:20" x14ac:dyDescent="0.45">
+      <c r="S121" t="s">
+        <v>11</v>
+      </c>
+      <c r="T121">
+        <v>0.109375</v>
+      </c>
+    </row>
+    <row r="122" spans="19:20" x14ac:dyDescent="0.45">
+      <c r="S122" t="s">
+        <v>11</v>
+      </c>
+      <c r="T122">
+        <v>4.6875E-2</v>
+      </c>
+    </row>
+    <row r="123" spans="19:20" x14ac:dyDescent="0.45">
+      <c r="S123" t="s">
+        <v>11</v>
+      </c>
+      <c r="T123">
+        <v>6.25E-2</v>
+      </c>
+    </row>
+    <row r="124" spans="19:20" x14ac:dyDescent="0.45">
+      <c r="S124" t="s">
+        <v>11</v>
+      </c>
+      <c r="T124">
+        <v>9.375E-2</v>
+      </c>
+    </row>
+    <row r="125" spans="19:20" x14ac:dyDescent="0.45">
+      <c r="S125" t="s">
+        <v>11</v>
+      </c>
+      <c r="T125">
+        <v>7.8125E-2</v>
+      </c>
+    </row>
+    <row r="126" spans="19:20" x14ac:dyDescent="0.45">
+      <c r="S126" t="s">
+        <v>11</v>
+      </c>
+      <c r="T126">
+        <v>9.375E-2</v>
+      </c>
+    </row>
+    <row r="127" spans="19:20" x14ac:dyDescent="0.45">
+      <c r="S127" t="s">
+        <v>11</v>
+      </c>
+      <c r="T127">
+        <v>7.8125E-2</v>
+      </c>
+    </row>
+    <row r="128" spans="19:20" x14ac:dyDescent="0.45">
+      <c r="S128" t="s">
+        <v>11</v>
+      </c>
+      <c r="T128">
+        <v>7.8125E-2</v>
+      </c>
+    </row>
+    <row r="129" spans="19:20" x14ac:dyDescent="0.45">
+      <c r="S129" t="s">
+        <v>11</v>
+      </c>
+      <c r="T129">
+        <v>0.125</v>
+      </c>
+    </row>
+    <row r="130" spans="19:20" x14ac:dyDescent="0.45">
+      <c r="S130" t="s">
+        <v>11</v>
+      </c>
+      <c r="T130">
+        <v>0.203125</v>
+      </c>
+    </row>
+    <row r="131" spans="19:20" x14ac:dyDescent="0.45">
+      <c r="S131" t="s">
+        <v>11</v>
+      </c>
+      <c r="T131">
+        <v>0.109375</v>
+      </c>
+    </row>
+    <row r="132" spans="19:20" x14ac:dyDescent="0.45">
+      <c r="S132" t="s">
+        <v>11</v>
+      </c>
+      <c r="T132">
+        <v>0.109375</v>
+      </c>
+    </row>
+    <row r="133" spans="19:20" x14ac:dyDescent="0.45">
+      <c r="S133" t="s">
+        <v>11</v>
+      </c>
+      <c r="T133">
+        <v>0.125</v>
+      </c>
+    </row>
+    <row r="134" spans="19:20" x14ac:dyDescent="0.45">
+      <c r="S134" t="s">
+        <v>11</v>
+      </c>
+      <c r="T134">
+        <v>0.125</v>
+      </c>
+    </row>
+    <row r="135" spans="19:20" x14ac:dyDescent="0.45">
+      <c r="S135" t="s">
+        <v>11</v>
+      </c>
+      <c r="T135">
+        <v>4.6875E-2</v>
+      </c>
+    </row>
+    <row r="136" spans="19:20" x14ac:dyDescent="0.45">
+      <c r="S136" t="s">
+        <v>11</v>
+      </c>
+      <c r="T136">
+        <v>0.125</v>
+      </c>
+    </row>
+    <row r="137" spans="19:20" x14ac:dyDescent="0.45">
+      <c r="S137" t="s">
+        <v>11</v>
+      </c>
+      <c r="T137">
+        <v>0.109375</v>
+      </c>
+    </row>
+    <row r="138" spans="19:20" x14ac:dyDescent="0.45">
+      <c r="S138" t="s">
+        <v>11</v>
+      </c>
+      <c r="T138">
+        <v>9.375E-2</v>
+      </c>
+    </row>
+    <row r="139" spans="19:20" x14ac:dyDescent="0.45">
+      <c r="S139" t="s">
+        <v>11</v>
+      </c>
+      <c r="T139">
+        <v>3.125E-2</v>
+      </c>
+    </row>
+    <row r="140" spans="19:20" x14ac:dyDescent="0.45">
+      <c r="S140" t="s">
+        <v>11</v>
+      </c>
+      <c r="T140">
+        <v>9.375E-2</v>
+      </c>
+    </row>
+    <row r="141" spans="19:20" x14ac:dyDescent="0.45">
+      <c r="S141" t="s">
+        <v>11</v>
+      </c>
+      <c r="T141">
+        <v>7.8125E-2</v>
+      </c>
+    </row>
+    <row r="142" spans="19:20" x14ac:dyDescent="0.45">
+      <c r="S142" t="s">
+        <v>11</v>
+      </c>
+      <c r="T142">
+        <v>9.375E-2</v>
+      </c>
+    </row>
+    <row r="143" spans="19:20" x14ac:dyDescent="0.45">
+      <c r="S143" t="s">
+        <v>11</v>
+      </c>
+      <c r="T143">
+        <v>0.125</v>
+      </c>
+    </row>
+    <row r="144" spans="19:20" x14ac:dyDescent="0.45">
+      <c r="S144" t="s">
+        <v>11</v>
+      </c>
+      <c r="T144">
+        <v>6.25E-2</v>
+      </c>
+    </row>
+    <row r="145" spans="19:20" x14ac:dyDescent="0.45">
+      <c r="S145" t="s">
+        <v>11</v>
+      </c>
+      <c r="T145">
+        <v>0.171875</v>
+      </c>
+    </row>
+    <row r="146" spans="19:20" x14ac:dyDescent="0.45">
+      <c r="S146" t="s">
+        <v>11</v>
+      </c>
+      <c r="T146">
+        <v>0.109375</v>
+      </c>
+    </row>
+    <row r="147" spans="19:20" x14ac:dyDescent="0.45">
+      <c r="S147" t="s">
+        <v>11</v>
+      </c>
+      <c r="T147">
+        <v>0.109375</v>
+      </c>
+    </row>
+    <row r="148" spans="19:20" x14ac:dyDescent="0.45">
+      <c r="S148" t="s">
+        <v>11</v>
+      </c>
+      <c r="T148">
+        <v>0.125</v>
+      </c>
+    </row>
+    <row r="149" spans="19:20" x14ac:dyDescent="0.45">
+      <c r="S149" t="s">
+        <v>11</v>
+      </c>
+      <c r="T149">
+        <v>4.6875E-2</v>
+      </c>
+    </row>
+    <row r="150" spans="19:20" x14ac:dyDescent="0.45">
+      <c r="S150" t="s">
+        <v>11</v>
+      </c>
+      <c r="T150">
+        <v>0.15625</v>
+      </c>
+    </row>
+    <row r="151" spans="19:20" x14ac:dyDescent="0.45">
+      <c r="S151" t="s">
+        <v>11</v>
+      </c>
+      <c r="T151">
+        <v>0.109375</v>
+      </c>
+    </row>
+    <row r="152" spans="19:20" x14ac:dyDescent="0.45">
+      <c r="S152" t="s">
+        <v>11</v>
+      </c>
+      <c r="T152">
+        <v>3.6363636363636362E-2</v>
       </c>
     </row>
   </sheetData>

--- a/LJ+UA Experiments.xlsx
+++ b/LJ+UA Experiments.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dhvan\Documents\GitHub\P4P-Transformer-ASR-for-Dysarthric-Speech\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{804F7A39-947D-42DF-8516-3A54ABE28718}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97C07746-A20C-4233-A489-3A9D7F48DBE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4035" yWindow="3855" windowWidth="15390" windowHeight="9443" activeTab="4" xr2:uid="{75EE08EB-D9DA-45E6-8F41-68FBAE46F917}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13155" activeTab="5" xr2:uid="{75EE08EB-D9DA-45E6-8F41-68FBAE46F917}"/>
   </bookViews>
   <sheets>
     <sheet name="E1" sheetId="1" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="E12" sheetId="3" r:id="rId3"/>
     <sheet name="E123" sheetId="4" r:id="rId4"/>
     <sheet name="E1234" sheetId="5" r:id="rId5"/>
+    <sheet name="E12345" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="15">
   <si>
     <r>
       <rPr>
@@ -305,6 +306,50 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
+      <t>88% (1% increase)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Model Name:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> LJ200_UAControl_FreezeE12345.h5 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Accuracy:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>% (% increase)</t>
     </r>
   </si>
@@ -1006,7 +1051,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'E1'!$V$1</c:f>
+              <c:f>'E2'!$V$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1029,243 +1074,243 @@
           </c:marker>
           <c:yVal>
             <c:numRef>
-              <c:f>'E1'!$V$2:$V$101</c:f>
+              <c:f>'E2'!$V$2:$V$101</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="100"/>
                 <c:pt idx="0">
-                  <c:v>1.5625</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>15.625</c:v>
+                  <c:v>14.0625</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>42.1875</c:v>
+                  <c:v>32.8125</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>59.375</c:v>
+                  <c:v>62.5</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>71.875</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>70.3125</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>68.75</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>71.875</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>78.125</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>76.5625</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="10">
                   <c:v>78.125</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="11">
+                  <c:v>81.25</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>71.875</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>84.375</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>81.25</c:v>
+                </c:pt>
+                <c:pt idx="15">
                   <c:v>78.125</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="16">
                   <c:v>79.6875</c:v>
                 </c:pt>
-                <c:pt idx="8">
-                  <c:v>75</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>75</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>76.5625</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>78.125</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>73.4375</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>82.8125</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>78.125</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>85.9375</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>81.25</c:v>
-                </c:pt>
                 <c:pt idx="17">
-                  <c:v>79.6875</c:v>
+                  <c:v>90.625</c:v>
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>81.25</c:v>
                 </c:pt>
                 <c:pt idx="19">
+                  <c:v>82.8125</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>81.25</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>79.6875</c:v>
+                </c:pt>
+                <c:pt idx="22">
                   <c:v>87.5</c:v>
                 </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="23">
+                  <c:v>84.375</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>84.375</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>78.125</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>81.25</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>93.75</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>82.8125</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>87.5</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>81.25</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>82.8125</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>76.5625</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>81.25</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>76.5625</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>84.375</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>84.375</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>82.8125</c:v>
+                </c:pt>
+                <c:pt idx="38">
                   <c:v>89.0625</c:v>
                 </c:pt>
-                <c:pt idx="21">
+                <c:pt idx="39">
                   <c:v>85.9375</c:v>
                 </c:pt>
-                <c:pt idx="22">
-                  <c:v>90.625</c:v>
-                </c:pt>
-                <c:pt idx="23">
+                <c:pt idx="40">
+                  <c:v>84.375</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>84.375</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>85.9375</c:v>
+                </c:pt>
+                <c:pt idx="43">
                   <c:v>82.8125</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>85.9375</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>84.375</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>87.5</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>82.8125</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>84.375</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>82.8125</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>87.5</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>84.375</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>92.1875</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>85.9375</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>85.9375</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>89.0625</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>90.625</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>84.375</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>87.5</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>90.625</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>90.625</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>92.1875</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>89.0625</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>87.5</c:v>
                 </c:pt>
                 <c:pt idx="44">
                   <c:v>84.375</c:v>
                 </c:pt>
                 <c:pt idx="45">
+                  <c:v>87.5</c:v>
+                </c:pt>
+                <c:pt idx="46">
                   <c:v>90.625</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>89.0625</c:v>
                 </c:pt>
                 <c:pt idx="47">
                   <c:v>87.5</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>85.9375</c:v>
+                  <c:v>87.5</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>82.8125</c:v>
+                  <c:v>89.0625</c:v>
                 </c:pt>
                 <c:pt idx="50">
                   <c:v>87.5</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>82.8125</c:v>
+                  <c:v>85.9375</c:v>
                 </c:pt>
                 <c:pt idx="52">
+                  <c:v>93.75</c:v>
+                </c:pt>
+                <c:pt idx="53">
                   <c:v>87.5</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>92.1875</c:v>
                 </c:pt>
                 <c:pt idx="54">
                   <c:v>85.9375</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>85.9375</c:v>
+                  <c:v>82.8125</c:v>
                 </c:pt>
                 <c:pt idx="56">
                   <c:v>89.0625</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>85.9375</c:v>
+                  <c:v>89.0625</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>85.9375</c:v>
+                  <c:v>87.5</c:v>
                 </c:pt>
                 <c:pt idx="59">
+                  <c:v>90.625</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>89.0625</c:v>
+                </c:pt>
+                <c:pt idx="61">
                   <c:v>84.375</c:v>
                 </c:pt>
-                <c:pt idx="60">
-                  <c:v>84.375</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>85.9375</c:v>
-                </c:pt>
                 <c:pt idx="62">
-                  <c:v>85.9375</c:v>
+                  <c:v>87.5</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>89.0625</c:v>
+                  <c:v>90.625</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>79.6875</c:v>
+                  <c:v>87.5</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>87.5</c:v>
+                  <c:v>92.1875</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>89.0625</c:v>
+                  <c:v>92.1875</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>87.5</c:v>
+                  <c:v>92.1875</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>89.0625</c:v>
+                  <c:v>90.625</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>85.9375</c:v>
+                  <c:v>92.1875</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>87.5</c:v>
+                  <c:v>92.1875</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>89.0625</c:v>
+                  <c:v>82.8125</c:v>
                 </c:pt>
                 <c:pt idx="72">
                   <c:v>89.0625</c:v>
                 </c:pt>
                 <c:pt idx="73">
+                  <c:v>84.375</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>87.5</c:v>
+                </c:pt>
+                <c:pt idx="75">
                   <c:v>89.0625</c:v>
                 </c:pt>
-                <c:pt idx="74">
-                  <c:v>85.9375</c:v>
-                </c:pt>
-                <c:pt idx="75">
+                <c:pt idx="76">
                   <c:v>87.5</c:v>
                 </c:pt>
-                <c:pt idx="76">
-                  <c:v>85.9375</c:v>
-                </c:pt>
                 <c:pt idx="77">
-                  <c:v>85.9375</c:v>
+                  <c:v>87.5</c:v>
                 </c:pt>
                 <c:pt idx="78">
                   <c:v>89.0625</c:v>
@@ -1277,7 +1322,7 @@
                   <c:v>92.1875</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>92.1875</c:v>
+                  <c:v>90.625</c:v>
                 </c:pt>
                 <c:pt idx="82">
                   <c:v>92.1875</c:v>
@@ -1286,40 +1331,40 @@
                   <c:v>90.625</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>87.5</c:v>
+                  <c:v>89.0625</c:v>
                 </c:pt>
                 <c:pt idx="85">
                   <c:v>90.625</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>89.0625</c:v>
+                  <c:v>90.625</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>89.0625</c:v>
+                  <c:v>90.625</c:v>
                 </c:pt>
                 <c:pt idx="88">
                   <c:v>90.625</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>89.0625</c:v>
+                  <c:v>90.625</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>89.0625</c:v>
+                  <c:v>90.625</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>89.0625</c:v>
+                  <c:v>90.625</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>89.0625</c:v>
+                  <c:v>90.625</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>89.0625</c:v>
+                  <c:v>90.625</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>89.0625</c:v>
+                  <c:v>90.625</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>89.0625</c:v>
+                  <c:v>90.625</c:v>
                 </c:pt>
                 <c:pt idx="96">
                   <c:v>89.0625</c:v>
@@ -1339,7 +1384,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-2D83-4ADD-B5C5-4B43E3BCE7E4}"/>
+              <c16:uniqueId val="{00000000-9ED7-4F98-92B9-FB18941387BE}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1351,11 +1396,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="174164559"/>
-        <c:axId val="174163311"/>
+        <c:axId val="1501518943"/>
+        <c:axId val="1501525599"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="174164559"/>
+        <c:axId val="1501518943"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1411,12 +1456,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="174163311"/>
+        <c:crossAx val="1501525599"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="174163311"/>
+        <c:axId val="1501525599"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1473,7 +1518,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="174164559"/>
+        <c:crossAx val="1501518943"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1584,7 +1629,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'E1'!$V$1</c:f>
+              <c:f>'E12'!$V$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1607,51 +1652,51 @@
           </c:marker>
           <c:yVal>
             <c:numRef>
-              <c:f>'E1'!$V$2:$V$101</c:f>
+              <c:f>'E12'!$V$2:$V$152</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="100"/>
+                <c:ptCount val="151"/>
                 <c:pt idx="0">
                   <c:v>1.5625</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>15.625</c:v>
+                  <c:v>9.375</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>42.1875</c:v>
+                  <c:v>26.5625</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>59.375</c:v>
+                  <c:v>57.8125</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>76.5625</c:v>
+                  <c:v>68.75</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>78.125</c:v>
+                  <c:v>73.4375</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>78.125</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>79.6875</c:v>
+                  <c:v>76.5625</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>75</c:v>
+                  <c:v>73.4375</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>75</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>76.5625</c:v>
+                  <c:v>73.4375</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>78.125</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>73.4375</c:v>
+                  <c:v>82.8125</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>82.8125</c:v>
+                  <c:v>84.375</c:v>
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>78.125</c:v>
@@ -1666,31 +1711,31 @@
                   <c:v>79.6875</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>81.25</c:v>
+                  <c:v>75</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>87.5</c:v>
+                  <c:v>82.8125</c:v>
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>89.0625</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>85.9375</c:v>
+                  <c:v>82.8125</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>90.625</c:v>
+                  <c:v>84.375</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>82.8125</c:v>
+                  <c:v>81.25</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>85.9375</c:v>
+                  <c:v>87.5</c:v>
                 </c:pt>
                 <c:pt idx="25">
+                  <c:v>81.25</c:v>
+                </c:pt>
+                <c:pt idx="26">
                   <c:v>84.375</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>87.5</c:v>
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>82.8125</c:v>
@@ -1699,217 +1744,217 @@
                   <c:v>84.375</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>82.8125</c:v>
+                  <c:v>79.6875</c:v>
                 </c:pt>
                 <c:pt idx="30">
+                  <c:v>81.25</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>78.125</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>85.9375</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>79.6875</c:v>
+                </c:pt>
+                <c:pt idx="34">
                   <c:v>87.5</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>84.375</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>92.1875</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>85.9375</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>85.9375</c:v>
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>89.0625</c:v>
                 </c:pt>
                 <c:pt idx="36">
+                  <c:v>89.0625</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>82.8125</c:v>
+                </c:pt>
+                <c:pt idx="38">
                   <c:v>90.625</c:v>
                 </c:pt>
-                <c:pt idx="37">
-                  <c:v>84.375</c:v>
-                </c:pt>
-                <c:pt idx="38">
+                <c:pt idx="39">
                   <c:v>87.5</c:v>
                 </c:pt>
-                <c:pt idx="39">
-                  <c:v>90.625</c:v>
-                </c:pt>
                 <c:pt idx="40">
-                  <c:v>90.625</c:v>
+                  <c:v>85.9375</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>92.1875</c:v>
+                  <c:v>85.9375</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>89.0625</c:v>
+                  <c:v>75</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>87.5</c:v>
+                  <c:v>76.5625</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>84.375</c:v>
+                  <c:v>82.8125</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>90.625</c:v>
+                  <c:v>85.9375</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>89.0625</c:v>
+                  <c:v>85.9375</c:v>
                 </c:pt>
                 <c:pt idx="47">
                   <c:v>87.5</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>85.9375</c:v>
+                  <c:v>87.5</c:v>
                 </c:pt>
                 <c:pt idx="49">
+                  <c:v>79.6875</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>89.0625</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>87.5</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>90.625</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>87.5</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>89.0625</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>90.625</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>84.375</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>87.5</c:v>
+                </c:pt>
+                <c:pt idx="58">
                   <c:v>82.8125</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>87.5</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>82.8125</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>87.5</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>92.1875</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>85.9375</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>85.9375</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>89.0625</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>85.9375</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>85.9375</c:v>
                 </c:pt>
                 <c:pt idx="59">
                   <c:v>84.375</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>84.375</c:v>
+                  <c:v>87.5</c:v>
                 </c:pt>
                 <c:pt idx="61">
+                  <c:v>81.25</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>87.5</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>87.5</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>87.5</c:v>
+                </c:pt>
+                <c:pt idx="65">
                   <c:v>85.9375</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>85.9375</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>89.0625</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>79.6875</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>87.5</c:v>
                 </c:pt>
                 <c:pt idx="66">
                   <c:v>89.0625</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>87.5</c:v>
+                  <c:v>89.0625</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>89.0625</c:v>
+                  <c:v>84.375</c:v>
                 </c:pt>
                 <c:pt idx="69">
                   <c:v>85.9375</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>87.5</c:v>
+                  <c:v>84.375</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>89.0625</c:v>
+                  <c:v>84.375</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>89.0625</c:v>
+                  <c:v>82.8125</c:v>
                 </c:pt>
                 <c:pt idx="73">
                   <c:v>89.0625</c:v>
                 </c:pt>
                 <c:pt idx="74">
+                  <c:v>84.375</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>84.375</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>89.0625</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>84.375</c:v>
+                </c:pt>
+                <c:pt idx="78">
                   <c:v>85.9375</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>87.5</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>85.9375</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>85.9375</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>89.0625</c:v>
                 </c:pt>
                 <c:pt idx="79">
                   <c:v>87.5</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>92.1875</c:v>
+                  <c:v>85.9375</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>92.1875</c:v>
+                  <c:v>79.6875</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>92.1875</c:v>
+                  <c:v>85.9375</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>90.625</c:v>
+                  <c:v>87.5</c:v>
                 </c:pt>
                 <c:pt idx="84">
                   <c:v>87.5</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>90.625</c:v>
+                  <c:v>87.5</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>89.0625</c:v>
+                  <c:v>85.9375</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>89.0625</c:v>
+                  <c:v>87.5</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>90.625</c:v>
+                  <c:v>87.5</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>89.0625</c:v>
+                  <c:v>87.5</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>89.0625</c:v>
+                  <c:v>87.5</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>89.0625</c:v>
+                  <c:v>87.5</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>89.0625</c:v>
+                  <c:v>87.5</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>89.0625</c:v>
+                  <c:v>87.5</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>89.0625</c:v>
+                  <c:v>87.5</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>89.0625</c:v>
+                  <c:v>87.5</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>89.0625</c:v>
+                  <c:v>87.5</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>89.0625</c:v>
+                  <c:v>87.5</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>89.0625</c:v>
+                  <c:v>87.5</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>89.0625</c:v>
+                  <c:v>87.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1917,7 +1962,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-C33F-4664-B3CC-71819413A798}"/>
+              <c16:uniqueId val="{00000000-7986-4685-A05F-49E4FC3095FA}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1929,11 +1974,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="174164559"/>
-        <c:axId val="174163311"/>
+        <c:axId val="1509678671"/>
+        <c:axId val="1509669519"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="174164559"/>
+        <c:axId val="1509678671"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1989,12 +2034,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="174163311"/>
+        <c:crossAx val="1509669519"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="174163311"/>
+        <c:axId val="1509669519"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2051,7 +2096,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="174164559"/>
+        <c:crossAx val="1509678671"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2162,7 +2207,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'E1'!$V$1</c:f>
+              <c:f>'E123'!$V$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2185,171 +2230,171 @@
           </c:marker>
           <c:yVal>
             <c:numRef>
-              <c:f>'E1'!$V$2:$V$101</c:f>
+              <c:f>'E123'!$V$2:$V$152</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="100"/>
+                <c:ptCount val="151"/>
                 <c:pt idx="0">
-                  <c:v>1.5625</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>15.625</c:v>
+                  <c:v>6.25</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>42.1875</c:v>
+                  <c:v>18.75</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>59.375</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>76.5625</c:v>
+                  <c:v>60.9375</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>78.125</c:v>
+                  <c:v>67.1875</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>78.125</c:v>
+                  <c:v>79.6875</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>79.6875</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>75</c:v>
+                  <c:v>81.25</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>75</c:v>
+                  <c:v>76.5625</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>76.5625</c:v>
+                  <c:v>84.375</c:v>
                 </c:pt>
                 <c:pt idx="11">
+                  <c:v>81.25</c:v>
+                </c:pt>
+                <c:pt idx="12">
                   <c:v>78.125</c:v>
                 </c:pt>
-                <c:pt idx="12">
-                  <c:v>73.4375</c:v>
-                </c:pt>
                 <c:pt idx="13">
+                  <c:v>87.5</c:v>
+                </c:pt>
+                <c:pt idx="14">
                   <c:v>82.8125</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="15">
                   <c:v>78.125</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="16">
+                  <c:v>82.8125</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>84.375</c:v>
+                </c:pt>
+                <c:pt idx="18">
                   <c:v>85.9375</c:v>
                 </c:pt>
-                <c:pt idx="16">
-                  <c:v>81.25</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>79.6875</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>81.25</c:v>
-                </c:pt>
                 <c:pt idx="19">
+                  <c:v>85.9375</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>90.625</c:v>
+                </c:pt>
+                <c:pt idx="21">
                   <c:v>87.5</c:v>
                 </c:pt>
-                <c:pt idx="20">
-                  <c:v>89.0625</c:v>
-                </c:pt>
-                <c:pt idx="21">
+                <c:pt idx="22">
                   <c:v>85.9375</c:v>
                 </c:pt>
-                <c:pt idx="22">
-                  <c:v>90.625</c:v>
-                </c:pt>
                 <c:pt idx="23">
-                  <c:v>82.8125</c:v>
+                  <c:v>84.375</c:v>
                 </c:pt>
                 <c:pt idx="24">
+                  <c:v>84.375</c:v>
+                </c:pt>
+                <c:pt idx="25">
                   <c:v>85.9375</c:v>
                 </c:pt>
-                <c:pt idx="25">
+                <c:pt idx="26">
+                  <c:v>85.9375</c:v>
+                </c:pt>
+                <c:pt idx="27">
                   <c:v>84.375</c:v>
                 </c:pt>
-                <c:pt idx="26">
-                  <c:v>87.5</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>82.8125</c:v>
-                </c:pt>
                 <c:pt idx="28">
+                  <c:v>78.125</c:v>
+                </c:pt>
+                <c:pt idx="29">
                   <c:v>84.375</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>82.8125</c:v>
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>87.5</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>84.375</c:v>
+                  <c:v>87.5</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>92.1875</c:v>
+                  <c:v>85.9375</c:v>
                 </c:pt>
                 <c:pt idx="33">
+                  <c:v>81.25</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>90.625</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>87.5</c:v>
+                </c:pt>
+                <c:pt idx="36">
                   <c:v>85.9375</c:v>
                 </c:pt>
-                <c:pt idx="34">
-                  <c:v>85.9375</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>89.0625</c:v>
-                </c:pt>
-                <c:pt idx="36">
+                <c:pt idx="37">
                   <c:v>90.625</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>84.375</c:v>
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>87.5</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>90.625</c:v>
+                  <c:v>85.9375</c:v>
                 </c:pt>
                 <c:pt idx="40">
                   <c:v>90.625</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>92.1875</c:v>
+                  <c:v>84.375</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>89.0625</c:v>
+                  <c:v>85.9375</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>87.5</c:v>
+                  <c:v>84.375</c:v>
                 </c:pt>
                 <c:pt idx="44">
                   <c:v>84.375</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>90.625</c:v>
+                  <c:v>89.0625</c:v>
                 </c:pt>
                 <c:pt idx="46">
                   <c:v>89.0625</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>87.5</c:v>
+                  <c:v>85.9375</c:v>
                 </c:pt>
                 <c:pt idx="48">
                   <c:v>85.9375</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>82.8125</c:v>
+                  <c:v>84.375</c:v>
                 </c:pt>
                 <c:pt idx="50">
+                  <c:v>84.375</c:v>
+                </c:pt>
+                <c:pt idx="51">
                   <c:v>87.5</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>82.8125</c:v>
                 </c:pt>
                 <c:pt idx="52">
                   <c:v>87.5</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>92.1875</c:v>
+                  <c:v>87.5</c:v>
                 </c:pt>
                 <c:pt idx="54">
                   <c:v>85.9375</c:v>
@@ -2358,136 +2403,136 @@
                   <c:v>85.9375</c:v>
                 </c:pt>
                 <c:pt idx="56">
+                  <c:v>87.5</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>87.5</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>93.75</c:v>
+                </c:pt>
+                <c:pt idx="59">
                   <c:v>89.0625</c:v>
                 </c:pt>
-                <c:pt idx="57">
+                <c:pt idx="60">
+                  <c:v>90.625</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>90.625</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>90.625</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>90.625</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>90.625</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>84.375</c:v>
+                </c:pt>
+                <c:pt idx="66">
                   <c:v>85.9375</c:v>
                 </c:pt>
-                <c:pt idx="58">
-                  <c:v>85.9375</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>84.375</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>84.375</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>85.9375</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>85.9375</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>89.0625</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>79.6875</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>87.5</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>89.0625</c:v>
-                </c:pt>
                 <c:pt idx="67">
-                  <c:v>87.5</c:v>
+                  <c:v>90.625</c:v>
                 </c:pt>
                 <c:pt idx="68">
                   <c:v>89.0625</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>85.9375</c:v>
+                  <c:v>93.75</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>87.5</c:v>
+                  <c:v>93.75</c:v>
                 </c:pt>
                 <c:pt idx="71">
+                  <c:v>90.625</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>92.1875</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>90.625</c:v>
+                </c:pt>
+                <c:pt idx="74">
                   <c:v>89.0625</c:v>
                 </c:pt>
-                <c:pt idx="72">
+                <c:pt idx="75">
+                  <c:v>93.75</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>90.625</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>93.75</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>92.1875</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>92.1875</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>95.3125</c:v>
+                </c:pt>
+                <c:pt idx="81">
                   <c:v>89.0625</c:v>
                 </c:pt>
-                <c:pt idx="73">
-                  <c:v>89.0625</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>85.9375</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>87.5</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>85.9375</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>85.9375</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>89.0625</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>87.5</c:v>
-                </c:pt>
-                <c:pt idx="80">
+                <c:pt idx="82">
+                  <c:v>90.625</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>95.3125</c:v>
+                </c:pt>
+                <c:pt idx="84">
                   <c:v>92.1875</c:v>
                 </c:pt>
-                <c:pt idx="81">
+                <c:pt idx="85">
                   <c:v>92.1875</c:v>
                 </c:pt>
-                <c:pt idx="82">
+                <c:pt idx="86">
                   <c:v>92.1875</c:v>
                 </c:pt>
-                <c:pt idx="83">
-                  <c:v>90.625</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>87.5</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>90.625</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>89.0625</c:v>
-                </c:pt>
                 <c:pt idx="87">
-                  <c:v>89.0625</c:v>
+                  <c:v>93.75</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>90.625</c:v>
+                  <c:v>92.1875</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>89.0625</c:v>
+                  <c:v>93.75</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>89.0625</c:v>
+                  <c:v>93.75</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>89.0625</c:v>
+                  <c:v>93.75</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>89.0625</c:v>
+                  <c:v>93.75</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>89.0625</c:v>
+                  <c:v>93.75</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>89.0625</c:v>
+                  <c:v>93.75</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>89.0625</c:v>
+                  <c:v>93.75</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>89.0625</c:v>
+                  <c:v>93.75</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>89.0625</c:v>
+                  <c:v>93.75</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>89.0625</c:v>
+                  <c:v>93.75</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>89.0625</c:v>
+                  <c:v>93.75</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2495,7 +2540,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-7282-4930-93A8-C53E57766D61}"/>
+              <c16:uniqueId val="{00000000-CE2E-4D63-98A2-F3E923BEE9B5}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2507,11 +2552,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="174164559"/>
-        <c:axId val="174163311"/>
+        <c:axId val="1498697343"/>
+        <c:axId val="1498708159"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="174164559"/>
+        <c:axId val="1498697343"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2567,12 +2612,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="174163311"/>
+        <c:crossAx val="1498708159"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="174163311"/>
+        <c:axId val="1498708159"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2629,7 +2674,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="174164559"/>
+        <c:crossAx val="1498697343"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2740,7 +2785,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'E1'!$V$1</c:f>
+              <c:f>'E1234'!$V$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2763,180 +2808,180 @@
           </c:marker>
           <c:yVal>
             <c:numRef>
-              <c:f>'E1'!$V$2:$V$101</c:f>
+              <c:f>'E1234'!$V$2:$V$152</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="100"/>
+                <c:ptCount val="151"/>
                 <c:pt idx="0">
                   <c:v>1.5625</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>15.625</c:v>
+                  <c:v>7.8125</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>42.1875</c:v>
+                  <c:v>28.125</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>59.375</c:v>
+                  <c:v>46.875</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>62.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>67.1875</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>71.875</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>73.4375</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>73.4375</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>76.5625</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="10">
+                  <c:v>73.4375</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>81.25</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>81.25</c:v>
+                </c:pt>
+                <c:pt idx="13">
                   <c:v>78.125</c:v>
                 </c:pt>
-                <c:pt idx="6">
-                  <c:v>78.125</c:v>
-                </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="14">
+                  <c:v>73.4375</c:v>
+                </c:pt>
+                <c:pt idx="15">
                   <c:v>79.6875</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>75</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>75</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>76.5625</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>78.125</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>73.4375</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>82.8125</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>78.125</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>85.9375</c:v>
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>81.25</c:v>
                 </c:pt>
                 <c:pt idx="17">
+                  <c:v>70.3125</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>78.125</c:v>
+                </c:pt>
+                <c:pt idx="19">
                   <c:v>79.6875</c:v>
                 </c:pt>
-                <c:pt idx="18">
-                  <c:v>81.25</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>87.5</c:v>
-                </c:pt>
                 <c:pt idx="20">
-                  <c:v>89.0625</c:v>
+                  <c:v>76.5625</c:v>
                 </c:pt>
                 <c:pt idx="21">
+                  <c:v>82.8125</c:v>
+                </c:pt>
+                <c:pt idx="22">
                   <c:v>85.9375</c:v>
                 </c:pt>
-                <c:pt idx="22">
-                  <c:v>90.625</c:v>
-                </c:pt>
                 <c:pt idx="23">
-                  <c:v>82.8125</c:v>
+                  <c:v>84.375</c:v>
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>85.9375</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>84.375</c:v>
+                  <c:v>81.25</c:v>
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>87.5</c:v>
                 </c:pt>
                 <c:pt idx="27">
+                  <c:v>81.25</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>85.9375</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>85.9375</c:v>
+                </c:pt>
+                <c:pt idx="30">
                   <c:v>82.8125</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>84.375</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>82.8125</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>87.5</c:v>
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>84.375</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>92.1875</c:v>
+                  <c:v>85.9375</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>85.9375</c:v>
+                  <c:v>81.25</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>85.9375</c:v>
+                  <c:v>87.5</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>89.0625</c:v>
+                  <c:v>84.375</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>90.625</c:v>
+                  <c:v>79.6875</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>84.375</c:v>
+                  <c:v>82.8125</c:v>
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>87.5</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>90.625</c:v>
+                  <c:v>84.375</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>90.625</c:v>
+                  <c:v>85.9375</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>92.1875</c:v>
+                  <c:v>82.8125</c:v>
                 </c:pt>
                 <c:pt idx="42">
+                  <c:v>82.8125</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>84.375</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>85.9375</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>82.8125</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>82.8125</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>81.25</c:v>
+                </c:pt>
+                <c:pt idx="48">
                   <c:v>89.0625</c:v>
                 </c:pt>
-                <c:pt idx="43">
-                  <c:v>87.5</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>84.375</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>90.625</c:v>
-                </c:pt>
-                <c:pt idx="46">
+                <c:pt idx="49">
+                  <c:v>81.25</c:v>
+                </c:pt>
+                <c:pt idx="50">
                   <c:v>89.0625</c:v>
                 </c:pt>
-                <c:pt idx="47">
-                  <c:v>87.5</c:v>
-                </c:pt>
-                <c:pt idx="48">
+                <c:pt idx="51">
                   <c:v>85.9375</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>82.8125</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>87.5</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>82.8125</c:v>
                 </c:pt>
                 <c:pt idx="52">
                   <c:v>87.5</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>92.1875</c:v>
+                  <c:v>79.6875</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>85.9375</c:v>
+                  <c:v>87.5</c:v>
                 </c:pt>
                 <c:pt idx="55">
                   <c:v>85.9375</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>89.0625</c:v>
+                  <c:v>84.375</c:v>
                 </c:pt>
                 <c:pt idx="57">
                   <c:v>85.9375</c:v>
@@ -2945,76 +2990,76 @@
                   <c:v>85.9375</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>84.375</c:v>
+                  <c:v>90.625</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>84.375</c:v>
+                  <c:v>82.8125</c:v>
                 </c:pt>
                 <c:pt idx="61">
+                  <c:v>89.0625</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>89.0625</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>90.625</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>89.0625</c:v>
+                </c:pt>
+                <c:pt idx="65">
                   <c:v>85.9375</c:v>
                 </c:pt>
-                <c:pt idx="62">
-                  <c:v>85.9375</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>89.0625</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>79.6875</c:v>
-                </c:pt>
-                <c:pt idx="65">
+                <c:pt idx="66">
                   <c:v>87.5</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>89.0625</c:v>
                 </c:pt>
                 <c:pt idx="67">
                   <c:v>87.5</c:v>
                 </c:pt>
                 <c:pt idx="68">
+                  <c:v>85.9375</c:v>
+                </c:pt>
+                <c:pt idx="69">
                   <c:v>89.0625</c:v>
                 </c:pt>
-                <c:pt idx="69">
-                  <c:v>85.9375</c:v>
-                </c:pt>
                 <c:pt idx="70">
-                  <c:v>87.5</c:v>
+                  <c:v>79.6875</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>89.0625</c:v>
+                  <c:v>84.375</c:v>
                 </c:pt>
                 <c:pt idx="72">
                   <c:v>89.0625</c:v>
                 </c:pt>
                 <c:pt idx="73">
+                  <c:v>92.1875</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>92.1875</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>90.625</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>92.1875</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>90.625</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>92.1875</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>90.625</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>87.5</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>87.5</c:v>
+                </c:pt>
+                <c:pt idx="82">
                   <c:v>89.0625</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>85.9375</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>87.5</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>85.9375</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>85.9375</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>89.0625</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>87.5</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>92.1875</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>92.1875</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>92.1875</c:v>
                 </c:pt>
                 <c:pt idx="83">
                   <c:v>90.625</c:v>
@@ -3023,13 +3068,13 @@
                   <c:v>87.5</c:v>
                 </c:pt>
                 <c:pt idx="85">
+                  <c:v>84.375</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>87.5</c:v>
+                </c:pt>
+                <c:pt idx="87">
                   <c:v>90.625</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>89.0625</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>89.0625</c:v>
                 </c:pt>
                 <c:pt idx="88">
                   <c:v>90.625</c:v>
@@ -3041,16 +3086,16 @@
                   <c:v>89.0625</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>89.0625</c:v>
+                  <c:v>87.5</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>89.0625</c:v>
+                  <c:v>87.5</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>89.0625</c:v>
+                  <c:v>87.5</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>89.0625</c:v>
+                  <c:v>87.5</c:v>
                 </c:pt>
                 <c:pt idx="95">
                   <c:v>89.0625</c:v>
@@ -3065,7 +3110,7 @@
                   <c:v>89.0625</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>89.0625</c:v>
+                  <c:v>87.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3073,7 +3118,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-0F69-40C1-A1A8-452F46C1CD47}"/>
+              <c16:uniqueId val="{00000000-A562-4E95-9496-7F4CB79B1233}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3085,11 +3130,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="174164559"/>
-        <c:axId val="174163311"/>
+        <c:axId val="1498704831"/>
+        <c:axId val="1498719807"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="174164559"/>
+        <c:axId val="1498704831"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3145,12 +3190,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="174163311"/>
+        <c:crossAx val="1498719807"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="174163311"/>
+        <c:axId val="1498719807"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3207,7 +3252,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="174164559"/>
+        <c:crossAx val="1498704831"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -6266,44 +6311,6 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>483196</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>72321</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>67798</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>135953</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="5" name="Chart 4">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{62350AA1-35FF-421A-8BE1-623703A0DBCE}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
-        </xdr:cNvGraphicFramePr>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
@@ -6331,7 +6338,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -6375,7 +6382,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -6396,6 +6403,42 @@
         </a:prstGeom>
       </xdr:spPr>
     </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>559789</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>123512</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>23422</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>54651</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0DD028AF-611C-5980-2328-FA5E18282347}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -6446,44 +6489,6 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>483196</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>72321</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>67798</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>135953</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Chart 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E97F91FC-3133-4E39-B145-0E1F14712375}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
-        </xdr:cNvGraphicFramePr>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
@@ -6511,7 +6516,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -6555,7 +6560,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -6576,6 +6581,42 @@
         </a:prstGeom>
       </xdr:spPr>
     </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>141204</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>23729</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>151230</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>9692</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4B2E1AA7-FB75-CED6-24C2-20BEF8ED7030}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -6626,44 +6667,6 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>483196</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>72321</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>67798</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>135953</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Chart 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{243FAAC5-DAA4-4871-B66B-D14A7C9CBC77}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
-        </xdr:cNvGraphicFramePr>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
@@ -6691,7 +6694,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -6735,7 +6738,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -6756,6 +6759,42 @@
         </a:prstGeom>
       </xdr:spPr>
     </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>87808</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>168769</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>127991</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>54469</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AAC4F07B-8FB2-C2B7-B0E9-3079630B4562}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -6806,31 +6845,123 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>49082</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FC7E56DE-D38C-41A9-A865-4360580507A6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="3619500"/>
+          <a:ext cx="3287582" cy="2686050"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>399710</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>25513</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>85045</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>168462</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAAA13F3-FC3D-D4D3-DC6A-BB511DAF2C21}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5570424" y="918483"/>
+          <a:ext cx="3563371" cy="2643261"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>483196</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>72321</xdr:rowOff>
+      <xdr:colOff>1701</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>133689</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>67798</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>135953</xdr:rowOff>
+      <xdr:colOff>49326</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>19389</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Chart 2">
+        <xdr:cNvPr id="7" name="Chart 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3E1FB2A6-752E-4167-BDC4-480D4CCAD5B0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5B3A70C7-3682-9E36-3E5F-C224999804F4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
-        </xdr:cNvGraphicFramePr>
+        <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -6838,10 +6969,58 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>65539</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>14072</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>104863</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A1A214F7-C793-4A6E-9221-A7C48B7AD95F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:srcRect l="-331" t="38919" r="61637" b="11975"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1" y="608464"/>
+          <a:ext cx="3252571" cy="2753949"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -8805,8 +8984,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68AFAB66-8867-4821-9ACF-FD3223DD8066}">
   <dimension ref="A1:V101"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H6" sqref="A1:XFD1048576"/>
+    <sheetView topLeftCell="A14" zoomScale="61" workbookViewId="0">
+      <selection activeCell="L42" sqref="L42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -10468,8 +10647,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A8EB816-6050-4D95-ADB3-911C7F7A4858}">
   <dimension ref="A1:V152"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H13" sqref="A1:XFD1048576"/>
+    <sheetView zoomScale="57" workbookViewId="0">
+      <selection activeCell="V1" sqref="V1:V1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -12538,8 +12717,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8525D1C2-26B5-468B-8EDE-6B9C6AD44D63}">
   <dimension ref="A1:V152"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G9" sqref="A1:XFD1048576"/>
+    <sheetView zoomScale="64" workbookViewId="0">
+      <selection activeCell="M45" sqref="M45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -14609,8 +14788,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55D9FD51-27E4-4AE4-A4A7-D84888DA39D7}">
   <dimension ref="A1:V152"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView zoomScale="56" workbookViewId="0">
+      <selection activeCell="P50" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -14650,7 +14829,7 @@
         <v>0</v>
       </c>
       <c r="T2">
-        <v>1</v>
+        <v>0.984375</v>
       </c>
       <c r="U2">
         <f xml:space="preserve"> 1+S2</f>
@@ -14658,7 +14837,7 @@
       </c>
       <c r="V2">
         <f xml:space="preserve"> (1-T2)*100</f>
-        <v>0</v>
+        <v>1.5625</v>
       </c>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.45">
@@ -14671,7 +14850,7 @@
         <v>1</v>
       </c>
       <c r="T3">
-        <v>0.9375</v>
+        <v>0.921875</v>
       </c>
       <c r="U3">
         <f t="shared" ref="U3:U66" si="0" xml:space="preserve"> 1+S3</f>
@@ -14679,7 +14858,7 @@
       </c>
       <c r="V3">
         <f t="shared" ref="V3:V66" si="1" xml:space="preserve"> (1-T3)*100</f>
-        <v>6.25</v>
+        <v>7.8125</v>
       </c>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.45">
@@ -14687,7 +14866,7 @@
         <v>2</v>
       </c>
       <c r="T4">
-        <v>0.8125</v>
+        <v>0.71875</v>
       </c>
       <c r="U4">
         <f t="shared" si="0"/>
@@ -14695,7 +14874,7 @@
       </c>
       <c r="V4">
         <f t="shared" si="1"/>
-        <v>18.75</v>
+        <v>28.125</v>
       </c>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.45">
@@ -14703,7 +14882,7 @@
         <v>3</v>
       </c>
       <c r="T5">
-        <v>0.40625</v>
+        <v>0.53125</v>
       </c>
       <c r="U5">
         <f t="shared" si="0"/>
@@ -14711,7 +14890,7 @@
       </c>
       <c r="V5">
         <f t="shared" si="1"/>
-        <v>59.375</v>
+        <v>46.875</v>
       </c>
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.45">
@@ -14719,7 +14898,7 @@
         <v>4</v>
       </c>
       <c r="T6">
-        <v>0.390625</v>
+        <v>0.375</v>
       </c>
       <c r="U6">
         <f t="shared" si="0"/>
@@ -14727,7 +14906,7 @@
       </c>
       <c r="V6">
         <f t="shared" si="1"/>
-        <v>60.9375</v>
+        <v>62.5</v>
       </c>
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.45">
@@ -14751,7 +14930,7 @@
         <v>6</v>
       </c>
       <c r="T8">
-        <v>0.203125</v>
+        <v>0.28125</v>
       </c>
       <c r="U8">
         <f t="shared" si="0"/>
@@ -14759,7 +14938,7 @@
       </c>
       <c r="V8">
         <f t="shared" si="1"/>
-        <v>79.6875</v>
+        <v>71.875</v>
       </c>
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.45">
@@ -14767,7 +14946,7 @@
         <v>7</v>
       </c>
       <c r="T9">
-        <v>0.203125</v>
+        <v>0.265625</v>
       </c>
       <c r="U9">
         <f t="shared" si="0"/>
@@ -14775,7 +14954,7 @@
       </c>
       <c r="V9">
         <f t="shared" si="1"/>
-        <v>79.6875</v>
+        <v>73.4375</v>
       </c>
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.45">
@@ -14783,7 +14962,7 @@
         <v>8</v>
       </c>
       <c r="T10">
-        <v>0.1875</v>
+        <v>0.265625</v>
       </c>
       <c r="U10">
         <f t="shared" si="0"/>
@@ -14791,7 +14970,7 @@
       </c>
       <c r="V10">
         <f t="shared" si="1"/>
-        <v>81.25</v>
+        <v>73.4375</v>
       </c>
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.45">
@@ -14815,7 +14994,7 @@
         <v>10</v>
       </c>
       <c r="T12">
-        <v>0.15625</v>
+        <v>0.265625</v>
       </c>
       <c r="U12">
         <f t="shared" si="0"/>
@@ -14823,7 +15002,7 @@
       </c>
       <c r="V12">
         <f t="shared" si="1"/>
-        <v>84.375</v>
+        <v>73.4375</v>
       </c>
     </row>
     <row r="13" spans="1:22" x14ac:dyDescent="0.45">
@@ -14847,7 +15026,7 @@
         <v>12</v>
       </c>
       <c r="T14">
-        <v>0.21875</v>
+        <v>0.1875</v>
       </c>
       <c r="U14">
         <f t="shared" si="0"/>
@@ -14855,7 +15034,7 @@
       </c>
       <c r="V14">
         <f t="shared" si="1"/>
-        <v>78.125</v>
+        <v>81.25</v>
       </c>
     </row>
     <row r="15" spans="1:22" x14ac:dyDescent="0.45">
@@ -14863,7 +15042,7 @@
         <v>13</v>
       </c>
       <c r="T15">
-        <v>0.125</v>
+        <v>0.21875</v>
       </c>
       <c r="U15">
         <f t="shared" si="0"/>
@@ -14871,7 +15050,7 @@
       </c>
       <c r="V15">
         <f t="shared" si="1"/>
-        <v>87.5</v>
+        <v>78.125</v>
       </c>
     </row>
     <row r="16" spans="1:22" x14ac:dyDescent="0.45">
@@ -14879,7 +15058,7 @@
         <v>14</v>
       </c>
       <c r="T16">
-        <v>0.171875</v>
+        <v>0.265625</v>
       </c>
       <c r="U16">
         <f t="shared" si="0"/>
@@ -14887,7 +15066,7 @@
       </c>
       <c r="V16">
         <f t="shared" si="1"/>
-        <v>82.8125</v>
+        <v>73.4375</v>
       </c>
     </row>
     <row r="17" spans="1:22" x14ac:dyDescent="0.45">
@@ -14895,7 +15074,7 @@
         <v>15</v>
       </c>
       <c r="T17">
-        <v>0.21875</v>
+        <v>0.203125</v>
       </c>
       <c r="U17">
         <f t="shared" si="0"/>
@@ -14903,7 +15082,7 @@
       </c>
       <c r="V17">
         <f t="shared" si="1"/>
-        <v>78.125</v>
+        <v>79.6875</v>
       </c>
     </row>
     <row r="18" spans="1:22" x14ac:dyDescent="0.45">
@@ -14911,7 +15090,7 @@
         <v>16</v>
       </c>
       <c r="T18">
-        <v>0.171875</v>
+        <v>0.1875</v>
       </c>
       <c r="U18">
         <f t="shared" si="0"/>
@@ -14919,7 +15098,7 @@
       </c>
       <c r="V18">
         <f t="shared" si="1"/>
-        <v>82.8125</v>
+        <v>81.25</v>
       </c>
     </row>
     <row r="19" spans="1:22" x14ac:dyDescent="0.45">
@@ -14927,7 +15106,7 @@
         <v>17</v>
       </c>
       <c r="T19">
-        <v>0.15625</v>
+        <v>0.296875</v>
       </c>
       <c r="U19">
         <f t="shared" si="0"/>
@@ -14935,7 +15114,7 @@
       </c>
       <c r="V19">
         <f t="shared" si="1"/>
-        <v>84.375</v>
+        <v>70.3125</v>
       </c>
     </row>
     <row r="20" spans="1:22" x14ac:dyDescent="0.45">
@@ -14948,7 +15127,7 @@
         <v>18</v>
       </c>
       <c r="T20">
-        <v>0.140625</v>
+        <v>0.21875</v>
       </c>
       <c r="U20">
         <f t="shared" si="0"/>
@@ -14956,7 +15135,7 @@
       </c>
       <c r="V20">
         <f t="shared" si="1"/>
-        <v>85.9375</v>
+        <v>78.125</v>
       </c>
     </row>
     <row r="21" spans="1:22" x14ac:dyDescent="0.45">
@@ -14964,7 +15143,7 @@
         <v>19</v>
       </c>
       <c r="T21">
-        <v>0.140625</v>
+        <v>0.203125</v>
       </c>
       <c r="U21">
         <f t="shared" si="0"/>
@@ -14972,7 +15151,7 @@
       </c>
       <c r="V21">
         <f t="shared" si="1"/>
-        <v>85.9375</v>
+        <v>79.6875</v>
       </c>
     </row>
     <row r="22" spans="1:22" x14ac:dyDescent="0.45">
@@ -14980,7 +15159,7 @@
         <v>20</v>
       </c>
       <c r="T22">
-        <v>9.375E-2</v>
+        <v>0.234375</v>
       </c>
       <c r="U22">
         <f t="shared" si="0"/>
@@ -14988,7 +15167,7 @@
       </c>
       <c r="V22">
         <f t="shared" si="1"/>
-        <v>90.625</v>
+        <v>76.5625</v>
       </c>
     </row>
     <row r="23" spans="1:22" x14ac:dyDescent="0.45">
@@ -14996,7 +15175,7 @@
         <v>21</v>
       </c>
       <c r="T23">
-        <v>0.125</v>
+        <v>0.171875</v>
       </c>
       <c r="U23">
         <f t="shared" si="0"/>
@@ -15004,7 +15183,7 @@
       </c>
       <c r="V23">
         <f t="shared" si="1"/>
-        <v>87.5</v>
+        <v>82.8125</v>
       </c>
     </row>
     <row r="24" spans="1:22" x14ac:dyDescent="0.45">
@@ -15044,7 +15223,7 @@
         <v>24</v>
       </c>
       <c r="T26">
-        <v>0.15625</v>
+        <v>0.140625</v>
       </c>
       <c r="U26">
         <f t="shared" si="0"/>
@@ -15052,7 +15231,7 @@
       </c>
       <c r="V26">
         <f t="shared" si="1"/>
-        <v>84.375</v>
+        <v>85.9375</v>
       </c>
     </row>
     <row r="27" spans="1:22" x14ac:dyDescent="0.45">
@@ -15060,7 +15239,7 @@
         <v>25</v>
       </c>
       <c r="T27">
-        <v>0.140625</v>
+        <v>0.1875</v>
       </c>
       <c r="U27">
         <f t="shared" si="0"/>
@@ -15068,7 +15247,7 @@
       </c>
       <c r="V27">
         <f t="shared" si="1"/>
-        <v>85.9375</v>
+        <v>81.25</v>
       </c>
     </row>
     <row r="28" spans="1:22" x14ac:dyDescent="0.45">
@@ -15076,7 +15255,7 @@
         <v>26</v>
       </c>
       <c r="T28">
-        <v>0.140625</v>
+        <v>0.125</v>
       </c>
       <c r="U28">
         <f t="shared" si="0"/>
@@ -15084,7 +15263,7 @@
       </c>
       <c r="V28">
         <f t="shared" si="1"/>
-        <v>85.9375</v>
+        <v>87.5</v>
       </c>
     </row>
     <row r="29" spans="1:22" x14ac:dyDescent="0.45">
@@ -15092,7 +15271,7 @@
         <v>27</v>
       </c>
       <c r="T29">
-        <v>0.15625</v>
+        <v>0.1875</v>
       </c>
       <c r="U29">
         <f t="shared" si="0"/>
@@ -15100,7 +15279,7 @@
       </c>
       <c r="V29">
         <f t="shared" si="1"/>
-        <v>84.375</v>
+        <v>81.25</v>
       </c>
     </row>
     <row r="30" spans="1:22" x14ac:dyDescent="0.45">
@@ -15108,7 +15287,7 @@
         <v>28</v>
       </c>
       <c r="T30">
-        <v>0.21875</v>
+        <v>0.140625</v>
       </c>
       <c r="U30">
         <f t="shared" si="0"/>
@@ -15116,7 +15295,7 @@
       </c>
       <c r="V30">
         <f t="shared" si="1"/>
-        <v>78.125</v>
+        <v>85.9375</v>
       </c>
     </row>
     <row r="31" spans="1:22" x14ac:dyDescent="0.45">
@@ -15124,7 +15303,7 @@
         <v>29</v>
       </c>
       <c r="T31">
-        <v>0.15625</v>
+        <v>0.140625</v>
       </c>
       <c r="U31">
         <f t="shared" si="0"/>
@@ -15132,7 +15311,7 @@
       </c>
       <c r="V31">
         <f t="shared" si="1"/>
-        <v>84.375</v>
+        <v>85.9375</v>
       </c>
     </row>
     <row r="32" spans="1:22" x14ac:dyDescent="0.45">
@@ -15140,7 +15319,7 @@
         <v>30</v>
       </c>
       <c r="T32">
-        <v>0.125</v>
+        <v>0.171875</v>
       </c>
       <c r="U32">
         <f t="shared" si="0"/>
@@ -15148,7 +15327,7 @@
       </c>
       <c r="V32">
         <f t="shared" si="1"/>
-        <v>87.5</v>
+        <v>82.8125</v>
       </c>
     </row>
     <row r="33" spans="19:22" x14ac:dyDescent="0.45">
@@ -15156,7 +15335,7 @@
         <v>31</v>
       </c>
       <c r="T33">
-        <v>0.125</v>
+        <v>0.15625</v>
       </c>
       <c r="U33">
         <f t="shared" si="0"/>
@@ -15164,7 +15343,7 @@
       </c>
       <c r="V33">
         <f t="shared" si="1"/>
-        <v>87.5</v>
+        <v>84.375</v>
       </c>
     </row>
     <row r="34" spans="19:22" x14ac:dyDescent="0.45">
@@ -15204,7 +15383,7 @@
         <v>34</v>
       </c>
       <c r="T36">
-        <v>9.375E-2</v>
+        <v>0.125</v>
       </c>
       <c r="U36">
         <f t="shared" si="0"/>
@@ -15212,7 +15391,7 @@
       </c>
       <c r="V36">
         <f t="shared" si="1"/>
-        <v>90.625</v>
+        <v>87.5</v>
       </c>
     </row>
     <row r="37" spans="19:22" x14ac:dyDescent="0.45">
@@ -15220,7 +15399,7 @@
         <v>35</v>
       </c>
       <c r="T37">
-        <v>0.125</v>
+        <v>0.15625</v>
       </c>
       <c r="U37">
         <f t="shared" si="0"/>
@@ -15228,7 +15407,7 @@
       </c>
       <c r="V37">
         <f t="shared" si="1"/>
-        <v>87.5</v>
+        <v>84.375</v>
       </c>
     </row>
     <row r="38" spans="19:22" x14ac:dyDescent="0.45">
@@ -15236,7 +15415,7 @@
         <v>36</v>
       </c>
       <c r="T38">
-        <v>0.140625</v>
+        <v>0.203125</v>
       </c>
       <c r="U38">
         <f t="shared" si="0"/>
@@ -15244,7 +15423,7 @@
       </c>
       <c r="V38">
         <f t="shared" si="1"/>
-        <v>85.9375</v>
+        <v>79.6875</v>
       </c>
     </row>
     <row r="39" spans="19:22" x14ac:dyDescent="0.45">
@@ -15252,7 +15431,7 @@
         <v>37</v>
       </c>
       <c r="T39">
-        <v>9.375E-2</v>
+        <v>0.171875</v>
       </c>
       <c r="U39">
         <f t="shared" si="0"/>
@@ -15260,7 +15439,7 @@
       </c>
       <c r="V39">
         <f t="shared" si="1"/>
-        <v>90.625</v>
+        <v>82.8125</v>
       </c>
     </row>
     <row r="40" spans="19:22" x14ac:dyDescent="0.45">
@@ -15284,7 +15463,7 @@
         <v>39</v>
       </c>
       <c r="T41">
-        <v>0.140625</v>
+        <v>0.15625</v>
       </c>
       <c r="U41">
         <f t="shared" si="0"/>
@@ -15292,7 +15471,7 @@
       </c>
       <c r="V41">
         <f t="shared" si="1"/>
-        <v>85.9375</v>
+        <v>84.375</v>
       </c>
     </row>
     <row r="42" spans="19:22" x14ac:dyDescent="0.45">
@@ -15300,7 +15479,7 @@
         <v>40</v>
       </c>
       <c r="T42">
-        <v>9.375E-2</v>
+        <v>0.140625</v>
       </c>
       <c r="U42">
         <f t="shared" si="0"/>
@@ -15308,7 +15487,7 @@
       </c>
       <c r="V42">
         <f t="shared" si="1"/>
-        <v>90.625</v>
+        <v>85.9375</v>
       </c>
     </row>
     <row r="43" spans="19:22" x14ac:dyDescent="0.45">
@@ -15316,7 +15495,7 @@
         <v>41</v>
       </c>
       <c r="T43">
-        <v>0.15625</v>
+        <v>0.171875</v>
       </c>
       <c r="U43">
         <f t="shared" si="0"/>
@@ -15324,7 +15503,7 @@
       </c>
       <c r="V43">
         <f t="shared" si="1"/>
-        <v>84.375</v>
+        <v>82.8125</v>
       </c>
     </row>
     <row r="44" spans="19:22" x14ac:dyDescent="0.45">
@@ -15332,7 +15511,7 @@
         <v>42</v>
       </c>
       <c r="T44">
-        <v>0.140625</v>
+        <v>0.171875</v>
       </c>
       <c r="U44">
         <f t="shared" si="0"/>
@@ -15340,7 +15519,7 @@
       </c>
       <c r="V44">
         <f t="shared" si="1"/>
-        <v>85.9375</v>
+        <v>82.8125</v>
       </c>
     </row>
     <row r="45" spans="19:22" x14ac:dyDescent="0.45">
@@ -15364,7 +15543,7 @@
         <v>44</v>
       </c>
       <c r="T46">
-        <v>0.15625</v>
+        <v>0.140625</v>
       </c>
       <c r="U46">
         <f t="shared" si="0"/>
@@ -15372,7 +15551,7 @@
       </c>
       <c r="V46">
         <f t="shared" si="1"/>
-        <v>84.375</v>
+        <v>85.9375</v>
       </c>
     </row>
     <row r="47" spans="19:22" x14ac:dyDescent="0.45">
@@ -15380,7 +15559,7 @@
         <v>45</v>
       </c>
       <c r="T47">
-        <v>0.109375</v>
+        <v>0.171875</v>
       </c>
       <c r="U47">
         <f t="shared" si="0"/>
@@ -15388,7 +15567,7 @@
       </c>
       <c r="V47">
         <f t="shared" si="1"/>
-        <v>89.0625</v>
+        <v>82.8125</v>
       </c>
     </row>
     <row r="48" spans="19:22" x14ac:dyDescent="0.45">
@@ -15396,7 +15575,7 @@
         <v>46</v>
       </c>
       <c r="T48">
-        <v>0.109375</v>
+        <v>0.171875</v>
       </c>
       <c r="U48">
         <f t="shared" si="0"/>
@@ -15404,7 +15583,7 @@
       </c>
       <c r="V48">
         <f t="shared" si="1"/>
-        <v>89.0625</v>
+        <v>82.8125</v>
       </c>
     </row>
     <row r="49" spans="19:22" x14ac:dyDescent="0.45">
@@ -15412,7 +15591,7 @@
         <v>47</v>
       </c>
       <c r="T49">
-        <v>0.140625</v>
+        <v>0.1875</v>
       </c>
       <c r="U49">
         <f t="shared" si="0"/>
@@ -15420,7 +15599,7 @@
       </c>
       <c r="V49">
         <f t="shared" si="1"/>
-        <v>85.9375</v>
+        <v>81.25</v>
       </c>
     </row>
     <row r="50" spans="19:22" x14ac:dyDescent="0.45">
@@ -15428,7 +15607,7 @@
         <v>48</v>
       </c>
       <c r="T50">
-        <v>0.140625</v>
+        <v>0.109375</v>
       </c>
       <c r="U50">
         <f t="shared" si="0"/>
@@ -15436,7 +15615,7 @@
       </c>
       <c r="V50">
         <f t="shared" si="1"/>
-        <v>85.9375</v>
+        <v>89.0625</v>
       </c>
     </row>
     <row r="51" spans="19:22" x14ac:dyDescent="0.45">
@@ -15444,7 +15623,7 @@
         <v>49</v>
       </c>
       <c r="T51">
-        <v>0.15625</v>
+        <v>0.1875</v>
       </c>
       <c r="U51">
         <f t="shared" si="0"/>
@@ -15452,7 +15631,7 @@
       </c>
       <c r="V51">
         <f t="shared" si="1"/>
-        <v>84.375</v>
+        <v>81.25</v>
       </c>
     </row>
     <row r="52" spans="19:22" x14ac:dyDescent="0.45">
@@ -15460,7 +15639,7 @@
         <v>50</v>
       </c>
       <c r="T52">
-        <v>0.15625</v>
+        <v>0.109375</v>
       </c>
       <c r="U52">
         <f t="shared" si="0"/>
@@ -15468,7 +15647,7 @@
       </c>
       <c r="V52">
         <f t="shared" si="1"/>
-        <v>84.375</v>
+        <v>89.0625</v>
       </c>
     </row>
     <row r="53" spans="19:22" x14ac:dyDescent="0.45">
@@ -15476,7 +15655,7 @@
         <v>51</v>
       </c>
       <c r="T53">
-        <v>0.125</v>
+        <v>0.140625</v>
       </c>
       <c r="U53">
         <f t="shared" si="0"/>
@@ -15484,7 +15663,7 @@
       </c>
       <c r="V53">
         <f t="shared" si="1"/>
-        <v>87.5</v>
+        <v>85.9375</v>
       </c>
     </row>
     <row r="54" spans="19:22" x14ac:dyDescent="0.45">
@@ -15508,7 +15687,7 @@
         <v>53</v>
       </c>
       <c r="T55">
-        <v>0.125</v>
+        <v>0.203125</v>
       </c>
       <c r="U55">
         <f t="shared" si="0"/>
@@ -15516,7 +15695,7 @@
       </c>
       <c r="V55">
         <f t="shared" si="1"/>
-        <v>87.5</v>
+        <v>79.6875</v>
       </c>
     </row>
     <row r="56" spans="19:22" x14ac:dyDescent="0.45">
@@ -15524,7 +15703,7 @@
         <v>54</v>
       </c>
       <c r="T56">
-        <v>0.140625</v>
+        <v>0.125</v>
       </c>
       <c r="U56">
         <f t="shared" si="0"/>
@@ -15532,7 +15711,7 @@
       </c>
       <c r="V56">
         <f t="shared" si="1"/>
-        <v>85.9375</v>
+        <v>87.5</v>
       </c>
     </row>
     <row r="57" spans="19:22" x14ac:dyDescent="0.45">
@@ -15556,7 +15735,7 @@
         <v>56</v>
       </c>
       <c r="T58">
-        <v>0.125</v>
+        <v>0.15625</v>
       </c>
       <c r="U58">
         <f t="shared" si="0"/>
@@ -15564,7 +15743,7 @@
       </c>
       <c r="V58">
         <f t="shared" si="1"/>
-        <v>87.5</v>
+        <v>84.375</v>
       </c>
     </row>
     <row r="59" spans="19:22" x14ac:dyDescent="0.45">
@@ -15572,7 +15751,7 @@
         <v>57</v>
       </c>
       <c r="T59">
-        <v>0.125</v>
+        <v>0.140625</v>
       </c>
       <c r="U59">
         <f t="shared" si="0"/>
@@ -15580,7 +15759,7 @@
       </c>
       <c r="V59">
         <f t="shared" si="1"/>
-        <v>87.5</v>
+        <v>85.9375</v>
       </c>
     </row>
     <row r="60" spans="19:22" x14ac:dyDescent="0.45">
@@ -15588,7 +15767,7 @@
         <v>58</v>
       </c>
       <c r="T60">
-        <v>6.25E-2</v>
+        <v>0.140625</v>
       </c>
       <c r="U60">
         <f t="shared" si="0"/>
@@ -15596,7 +15775,7 @@
       </c>
       <c r="V60">
         <f t="shared" si="1"/>
-        <v>93.75</v>
+        <v>85.9375</v>
       </c>
     </row>
     <row r="61" spans="19:22" x14ac:dyDescent="0.45">
@@ -15604,7 +15783,7 @@
         <v>59</v>
       </c>
       <c r="T61">
-        <v>0.109375</v>
+        <v>9.375E-2</v>
       </c>
       <c r="U61">
         <f t="shared" si="0"/>
@@ -15612,7 +15791,7 @@
       </c>
       <c r="V61">
         <f t="shared" si="1"/>
-        <v>89.0625</v>
+        <v>90.625</v>
       </c>
     </row>
     <row r="62" spans="19:22" x14ac:dyDescent="0.45">
@@ -15620,7 +15799,7 @@
         <v>60</v>
       </c>
       <c r="T62">
-        <v>9.375E-2</v>
+        <v>0.171875</v>
       </c>
       <c r="U62">
         <f t="shared" si="0"/>
@@ -15628,7 +15807,7 @@
       </c>
       <c r="V62">
         <f t="shared" si="1"/>
-        <v>90.625</v>
+        <v>82.8125</v>
       </c>
     </row>
     <row r="63" spans="19:22" x14ac:dyDescent="0.45">
@@ -15636,7 +15815,7 @@
         <v>61</v>
       </c>
       <c r="T63">
-        <v>9.375E-2</v>
+        <v>0.109375</v>
       </c>
       <c r="U63">
         <f t="shared" si="0"/>
@@ -15644,7 +15823,7 @@
       </c>
       <c r="V63">
         <f t="shared" si="1"/>
-        <v>90.625</v>
+        <v>89.0625</v>
       </c>
     </row>
     <row r="64" spans="19:22" x14ac:dyDescent="0.45">
@@ -15652,7 +15831,7 @@
         <v>62</v>
       </c>
       <c r="T64">
-        <v>9.375E-2</v>
+        <v>0.109375</v>
       </c>
       <c r="U64">
         <f t="shared" si="0"/>
@@ -15660,7 +15839,7 @@
       </c>
       <c r="V64">
         <f t="shared" si="1"/>
-        <v>90.625</v>
+        <v>89.0625</v>
       </c>
     </row>
     <row r="65" spans="19:22" x14ac:dyDescent="0.45">
@@ -15684,7 +15863,7 @@
         <v>64</v>
       </c>
       <c r="T66">
-        <v>9.375E-2</v>
+        <v>0.109375</v>
       </c>
       <c r="U66">
         <f t="shared" si="0"/>
@@ -15692,7 +15871,7 @@
       </c>
       <c r="V66">
         <f t="shared" si="1"/>
-        <v>90.625</v>
+        <v>89.0625</v>
       </c>
     </row>
     <row r="67" spans="19:22" x14ac:dyDescent="0.45">
@@ -15700,7 +15879,7 @@
         <v>65</v>
       </c>
       <c r="T67">
-        <v>0.15625</v>
+        <v>0.140625</v>
       </c>
       <c r="U67">
         <f t="shared" ref="U67:U101" si="2" xml:space="preserve"> 1+S67</f>
@@ -15708,7 +15887,7 @@
       </c>
       <c r="V67">
         <f t="shared" ref="V67:V101" si="3" xml:space="preserve"> (1-T67)*100</f>
-        <v>84.375</v>
+        <v>85.9375</v>
       </c>
     </row>
     <row r="68" spans="19:22" x14ac:dyDescent="0.45">
@@ -15716,7 +15895,7 @@
         <v>66</v>
       </c>
       <c r="T68">
-        <v>0.140625</v>
+        <v>0.125</v>
       </c>
       <c r="U68">
         <f t="shared" si="2"/>
@@ -15724,7 +15903,7 @@
       </c>
       <c r="V68">
         <f t="shared" si="3"/>
-        <v>85.9375</v>
+        <v>87.5</v>
       </c>
     </row>
     <row r="69" spans="19:22" x14ac:dyDescent="0.45">
@@ -15732,7 +15911,7 @@
         <v>67</v>
       </c>
       <c r="T69">
-        <v>9.375E-2</v>
+        <v>0.125</v>
       </c>
       <c r="U69">
         <f t="shared" si="2"/>
@@ -15740,7 +15919,7 @@
       </c>
       <c r="V69">
         <f t="shared" si="3"/>
-        <v>90.625</v>
+        <v>87.5</v>
       </c>
     </row>
     <row r="70" spans="19:22" x14ac:dyDescent="0.45">
@@ -15748,7 +15927,7 @@
         <v>68</v>
       </c>
       <c r="T70">
-        <v>0.109375</v>
+        <v>0.140625</v>
       </c>
       <c r="U70">
         <f t="shared" si="2"/>
@@ -15756,7 +15935,7 @@
       </c>
       <c r="V70">
         <f t="shared" si="3"/>
-        <v>89.0625</v>
+        <v>85.9375</v>
       </c>
     </row>
     <row r="71" spans="19:22" x14ac:dyDescent="0.45">
@@ -15764,7 +15943,7 @@
         <v>69</v>
       </c>
       <c r="T71">
-        <v>6.25E-2</v>
+        <v>0.109375</v>
       </c>
       <c r="U71">
         <f t="shared" si="2"/>
@@ -15772,7 +15951,7 @@
       </c>
       <c r="V71">
         <f t="shared" si="3"/>
-        <v>93.75</v>
+        <v>89.0625</v>
       </c>
     </row>
     <row r="72" spans="19:22" x14ac:dyDescent="0.45">
@@ -15780,7 +15959,7 @@
         <v>70</v>
       </c>
       <c r="T72">
-        <v>6.25E-2</v>
+        <v>0.203125</v>
       </c>
       <c r="U72">
         <f t="shared" si="2"/>
@@ -15788,7 +15967,7 @@
       </c>
       <c r="V72">
         <f t="shared" si="3"/>
-        <v>93.75</v>
+        <v>79.6875</v>
       </c>
     </row>
     <row r="73" spans="19:22" x14ac:dyDescent="0.45">
@@ -15796,7 +15975,7 @@
         <v>71</v>
       </c>
       <c r="T73">
-        <v>9.375E-2</v>
+        <v>0.15625</v>
       </c>
       <c r="U73">
         <f t="shared" si="2"/>
@@ -15804,7 +15983,7 @@
       </c>
       <c r="V73">
         <f t="shared" si="3"/>
-        <v>90.625</v>
+        <v>84.375</v>
       </c>
     </row>
     <row r="74" spans="19:22" x14ac:dyDescent="0.45">
@@ -15812,7 +15991,7 @@
         <v>72</v>
       </c>
       <c r="T74">
-        <v>7.8125E-2</v>
+        <v>0.109375</v>
       </c>
       <c r="U74">
         <f t="shared" si="2"/>
@@ -15820,7 +15999,7 @@
       </c>
       <c r="V74">
         <f t="shared" si="3"/>
-        <v>92.1875</v>
+        <v>89.0625</v>
       </c>
     </row>
     <row r="75" spans="19:22" x14ac:dyDescent="0.45">
@@ -15828,7 +16007,7 @@
         <v>73</v>
       </c>
       <c r="T75">
-        <v>9.375E-2</v>
+        <v>7.8125E-2</v>
       </c>
       <c r="U75">
         <f t="shared" si="2"/>
@@ -15836,7 +16015,7 @@
       </c>
       <c r="V75">
         <f t="shared" si="3"/>
-        <v>90.625</v>
+        <v>92.1875</v>
       </c>
     </row>
     <row r="76" spans="19:22" x14ac:dyDescent="0.45">
@@ -15844,7 +16023,7 @@
         <v>74</v>
       </c>
       <c r="T76">
-        <v>0.109375</v>
+        <v>7.8125E-2</v>
       </c>
       <c r="U76">
         <f t="shared" si="2"/>
@@ -15852,7 +16031,7 @@
       </c>
       <c r="V76">
         <f t="shared" si="3"/>
-        <v>89.0625</v>
+        <v>92.1875</v>
       </c>
     </row>
     <row r="77" spans="19:22" x14ac:dyDescent="0.45">
@@ -15860,7 +16039,7 @@
         <v>75</v>
       </c>
       <c r="T77">
-        <v>6.25E-2</v>
+        <v>9.375E-2</v>
       </c>
       <c r="U77">
         <f t="shared" si="2"/>
@@ -15868,7 +16047,7 @@
       </c>
       <c r="V77">
         <f t="shared" si="3"/>
-        <v>93.75</v>
+        <v>90.625</v>
       </c>
     </row>
     <row r="78" spans="19:22" x14ac:dyDescent="0.45">
@@ -15876,7 +16055,7 @@
         <v>76</v>
       </c>
       <c r="T78">
-        <v>9.375E-2</v>
+        <v>7.8125E-2</v>
       </c>
       <c r="U78">
         <f t="shared" si="2"/>
@@ -15884,7 +16063,7 @@
       </c>
       <c r="V78">
         <f t="shared" si="3"/>
-        <v>90.625</v>
+        <v>92.1875</v>
       </c>
     </row>
     <row r="79" spans="19:22" x14ac:dyDescent="0.45">
@@ -15892,7 +16071,7 @@
         <v>77</v>
       </c>
       <c r="T79">
-        <v>6.25E-2</v>
+        <v>9.375E-2</v>
       </c>
       <c r="U79">
         <f t="shared" si="2"/>
@@ -15900,7 +16079,7 @@
       </c>
       <c r="V79">
         <f t="shared" si="3"/>
-        <v>93.75</v>
+        <v>90.625</v>
       </c>
     </row>
     <row r="80" spans="19:22" x14ac:dyDescent="0.45">
@@ -15924,7 +16103,7 @@
         <v>79</v>
       </c>
       <c r="T81">
-        <v>7.8125E-2</v>
+        <v>9.375E-2</v>
       </c>
       <c r="U81">
         <f t="shared" si="2"/>
@@ -15932,7 +16111,7 @@
       </c>
       <c r="V81">
         <f t="shared" si="3"/>
-        <v>92.1875</v>
+        <v>90.625</v>
       </c>
     </row>
     <row r="82" spans="19:22" x14ac:dyDescent="0.45">
@@ -15940,7 +16119,7 @@
         <v>80</v>
       </c>
       <c r="T82">
-        <v>4.6875E-2</v>
+        <v>0.125</v>
       </c>
       <c r="U82">
         <f t="shared" si="2"/>
@@ -15948,7 +16127,7 @@
       </c>
       <c r="V82">
         <f t="shared" si="3"/>
-        <v>95.3125</v>
+        <v>87.5</v>
       </c>
     </row>
     <row r="83" spans="19:22" x14ac:dyDescent="0.45">
@@ -15956,7 +16135,7 @@
         <v>81</v>
       </c>
       <c r="T83">
-        <v>0.109375</v>
+        <v>0.125</v>
       </c>
       <c r="U83">
         <f t="shared" si="2"/>
@@ -15964,7 +16143,7 @@
       </c>
       <c r="V83">
         <f t="shared" si="3"/>
-        <v>89.0625</v>
+        <v>87.5</v>
       </c>
     </row>
     <row r="84" spans="19:22" x14ac:dyDescent="0.45">
@@ -15972,7 +16151,7 @@
         <v>82</v>
       </c>
       <c r="T84">
-        <v>9.375E-2</v>
+        <v>0.109375</v>
       </c>
       <c r="U84">
         <f t="shared" si="2"/>
@@ -15980,7 +16159,7 @@
       </c>
       <c r="V84">
         <f t="shared" si="3"/>
-        <v>90.625</v>
+        <v>89.0625</v>
       </c>
     </row>
     <row r="85" spans="19:22" x14ac:dyDescent="0.45">
@@ -15988,7 +16167,7 @@
         <v>83</v>
       </c>
       <c r="T85">
-        <v>4.6875E-2</v>
+        <v>9.375E-2</v>
       </c>
       <c r="U85">
         <f t="shared" si="2"/>
@@ -15996,7 +16175,7 @@
       </c>
       <c r="V85">
         <f t="shared" si="3"/>
-        <v>95.3125</v>
+        <v>90.625</v>
       </c>
     </row>
     <row r="86" spans="19:22" x14ac:dyDescent="0.45">
@@ -16004,7 +16183,7 @@
         <v>84</v>
       </c>
       <c r="T86">
-        <v>7.8125E-2</v>
+        <v>0.125</v>
       </c>
       <c r="U86">
         <f t="shared" si="2"/>
@@ -16012,7 +16191,7 @@
       </c>
       <c r="V86">
         <f t="shared" si="3"/>
-        <v>92.1875</v>
+        <v>87.5</v>
       </c>
     </row>
     <row r="87" spans="19:22" x14ac:dyDescent="0.45">
@@ -16020,7 +16199,7 @@
         <v>85</v>
       </c>
       <c r="T87">
-        <v>7.8125E-2</v>
+        <v>0.15625</v>
       </c>
       <c r="U87">
         <f t="shared" si="2"/>
@@ -16028,7 +16207,7 @@
       </c>
       <c r="V87">
         <f t="shared" si="3"/>
-        <v>92.1875</v>
+        <v>84.375</v>
       </c>
     </row>
     <row r="88" spans="19:22" x14ac:dyDescent="0.45">
@@ -16036,7 +16215,7 @@
         <v>86</v>
       </c>
       <c r="T88">
-        <v>7.8125E-2</v>
+        <v>0.125</v>
       </c>
       <c r="U88">
         <f t="shared" si="2"/>
@@ -16044,7 +16223,7 @@
       </c>
       <c r="V88">
         <f t="shared" si="3"/>
-        <v>92.1875</v>
+        <v>87.5</v>
       </c>
     </row>
     <row r="89" spans="19:22" x14ac:dyDescent="0.45">
@@ -16052,7 +16231,7 @@
         <v>87</v>
       </c>
       <c r="T89">
-        <v>6.25E-2</v>
+        <v>9.375E-2</v>
       </c>
       <c r="U89">
         <f t="shared" si="2"/>
@@ -16060,7 +16239,7 @@
       </c>
       <c r="V89">
         <f t="shared" si="3"/>
-        <v>93.75</v>
+        <v>90.625</v>
       </c>
     </row>
     <row r="90" spans="19:22" x14ac:dyDescent="0.45">
@@ -16068,7 +16247,7 @@
         <v>88</v>
       </c>
       <c r="T90">
-        <v>7.8125E-2</v>
+        <v>9.375E-2</v>
       </c>
       <c r="U90">
         <f t="shared" si="2"/>
@@ -16076,7 +16255,7 @@
       </c>
       <c r="V90">
         <f t="shared" si="3"/>
-        <v>92.1875</v>
+        <v>90.625</v>
       </c>
     </row>
     <row r="91" spans="19:22" x14ac:dyDescent="0.45">
@@ -16084,7 +16263,7 @@
         <v>89</v>
       </c>
       <c r="T91">
-        <v>6.25E-2</v>
+        <v>0.109375</v>
       </c>
       <c r="U91">
         <f t="shared" si="2"/>
@@ -16092,7 +16271,7 @@
       </c>
       <c r="V91">
         <f t="shared" si="3"/>
-        <v>93.75</v>
+        <v>89.0625</v>
       </c>
     </row>
     <row r="92" spans="19:22" x14ac:dyDescent="0.45">
@@ -16100,7 +16279,7 @@
         <v>90</v>
       </c>
       <c r="T92">
-        <v>6.25E-2</v>
+        <v>0.109375</v>
       </c>
       <c r="U92">
         <f t="shared" si="2"/>
@@ -16108,7 +16287,7 @@
       </c>
       <c r="V92">
         <f t="shared" si="3"/>
-        <v>93.75</v>
+        <v>89.0625</v>
       </c>
     </row>
     <row r="93" spans="19:22" x14ac:dyDescent="0.45">
@@ -16116,7 +16295,7 @@
         <v>91</v>
       </c>
       <c r="T93">
-        <v>6.25E-2</v>
+        <v>0.125</v>
       </c>
       <c r="U93">
         <f t="shared" si="2"/>
@@ -16124,7 +16303,7 @@
       </c>
       <c r="V93">
         <f t="shared" si="3"/>
-        <v>93.75</v>
+        <v>87.5</v>
       </c>
     </row>
     <row r="94" spans="19:22" x14ac:dyDescent="0.45">
@@ -16132,7 +16311,7 @@
         <v>92</v>
       </c>
       <c r="T94">
-        <v>6.25E-2</v>
+        <v>0.125</v>
       </c>
       <c r="U94">
         <f t="shared" si="2"/>
@@ -16140,7 +16319,7 @@
       </c>
       <c r="V94">
         <f t="shared" si="3"/>
-        <v>93.75</v>
+        <v>87.5</v>
       </c>
     </row>
     <row r="95" spans="19:22" x14ac:dyDescent="0.45">
@@ -16148,7 +16327,7 @@
         <v>93</v>
       </c>
       <c r="T95">
-        <v>6.25E-2</v>
+        <v>0.125</v>
       </c>
       <c r="U95">
         <f t="shared" si="2"/>
@@ -16156,7 +16335,7 @@
       </c>
       <c r="V95">
         <f t="shared" si="3"/>
-        <v>93.75</v>
+        <v>87.5</v>
       </c>
     </row>
     <row r="96" spans="19:22" x14ac:dyDescent="0.45">
@@ -16164,7 +16343,7 @@
         <v>94</v>
       </c>
       <c r="T96">
-        <v>6.25E-2</v>
+        <v>0.125</v>
       </c>
       <c r="U96">
         <f t="shared" si="2"/>
@@ -16172,7 +16351,7 @@
       </c>
       <c r="V96">
         <f t="shared" si="3"/>
-        <v>93.75</v>
+        <v>87.5</v>
       </c>
     </row>
     <row r="97" spans="19:22" x14ac:dyDescent="0.45">
@@ -16180,7 +16359,7 @@
         <v>95</v>
       </c>
       <c r="T97">
-        <v>6.25E-2</v>
+        <v>0.109375</v>
       </c>
       <c r="U97">
         <f t="shared" si="2"/>
@@ -16188,7 +16367,7 @@
       </c>
       <c r="V97">
         <f t="shared" si="3"/>
-        <v>93.75</v>
+        <v>89.0625</v>
       </c>
     </row>
     <row r="98" spans="19:22" x14ac:dyDescent="0.45">
@@ -16196,7 +16375,7 @@
         <v>96</v>
       </c>
       <c r="T98">
-        <v>6.25E-2</v>
+        <v>0.109375</v>
       </c>
       <c r="U98">
         <f t="shared" si="2"/>
@@ -16204,7 +16383,7 @@
       </c>
       <c r="V98">
         <f t="shared" si="3"/>
-        <v>93.75</v>
+        <v>89.0625</v>
       </c>
     </row>
     <row r="99" spans="19:22" x14ac:dyDescent="0.45">
@@ -16212,7 +16391,7 @@
         <v>97</v>
       </c>
       <c r="T99">
-        <v>6.25E-2</v>
+        <v>0.109375</v>
       </c>
       <c r="U99">
         <f t="shared" si="2"/>
@@ -16220,7 +16399,7 @@
       </c>
       <c r="V99">
         <f t="shared" si="3"/>
-        <v>93.75</v>
+        <v>89.0625</v>
       </c>
     </row>
     <row r="100" spans="19:22" x14ac:dyDescent="0.45">
@@ -16228,7 +16407,7 @@
         <v>98</v>
       </c>
       <c r="T100">
-        <v>6.25E-2</v>
+        <v>0.109375</v>
       </c>
       <c r="U100">
         <f t="shared" si="2"/>
@@ -16236,7 +16415,7 @@
       </c>
       <c r="V100">
         <f t="shared" si="3"/>
-        <v>93.75</v>
+        <v>89.0625</v>
       </c>
     </row>
     <row r="101" spans="19:22" x14ac:dyDescent="0.45">
@@ -16244,15 +16423,2086 @@
         <v>99</v>
       </c>
       <c r="T101">
+        <v>0.125</v>
+      </c>
+      <c r="U101">
+        <f t="shared" si="2"/>
+        <v>100</v>
+      </c>
+      <c r="V101">
+        <f t="shared" si="3"/>
+        <v>87.5</v>
+      </c>
+    </row>
+    <row r="102" spans="19:22" x14ac:dyDescent="0.45">
+      <c r="S102" t="s">
+        <v>11</v>
+      </c>
+      <c r="T102">
         <v>6.25E-2</v>
       </c>
+    </row>
+    <row r="103" spans="19:22" x14ac:dyDescent="0.45">
+      <c r="S103" t="s">
+        <v>11</v>
+      </c>
+      <c r="T103">
+        <v>9.375E-2</v>
+      </c>
+    </row>
+    <row r="104" spans="19:22" x14ac:dyDescent="0.45">
+      <c r="S104" t="s">
+        <v>11</v>
+      </c>
+      <c r="T104">
+        <v>9.375E-2</v>
+      </c>
+    </row>
+    <row r="105" spans="19:22" x14ac:dyDescent="0.45">
+      <c r="S105" t="s">
+        <v>11</v>
+      </c>
+      <c r="T105">
+        <v>0.125</v>
+      </c>
+    </row>
+    <row r="106" spans="19:22" x14ac:dyDescent="0.45">
+      <c r="S106" t="s">
+        <v>11</v>
+      </c>
+      <c r="T106">
+        <v>0.109375</v>
+      </c>
+    </row>
+    <row r="107" spans="19:22" x14ac:dyDescent="0.45">
+      <c r="S107" t="s">
+        <v>11</v>
+      </c>
+      <c r="T107">
+        <v>9.375E-2</v>
+      </c>
+    </row>
+    <row r="108" spans="19:22" x14ac:dyDescent="0.45">
+      <c r="S108" t="s">
+        <v>11</v>
+      </c>
+      <c r="T108">
+        <v>9.375E-2</v>
+      </c>
+    </row>
+    <row r="109" spans="19:22" x14ac:dyDescent="0.45">
+      <c r="S109" t="s">
+        <v>11</v>
+      </c>
+      <c r="T109">
+        <v>0.125</v>
+      </c>
+    </row>
+    <row r="110" spans="19:22" x14ac:dyDescent="0.45">
+      <c r="S110" t="s">
+        <v>11</v>
+      </c>
+      <c r="T110">
+        <v>0.109375</v>
+      </c>
+    </row>
+    <row r="111" spans="19:22" x14ac:dyDescent="0.45">
+      <c r="S111" t="s">
+        <v>11</v>
+      </c>
+      <c r="T111">
+        <v>0.171875</v>
+      </c>
+    </row>
+    <row r="112" spans="19:22" x14ac:dyDescent="0.45">
+      <c r="S112" t="s">
+        <v>11</v>
+      </c>
+      <c r="T112">
+        <v>9.375E-2</v>
+      </c>
+    </row>
+    <row r="113" spans="19:20" x14ac:dyDescent="0.45">
+      <c r="S113" t="s">
+        <v>11</v>
+      </c>
+      <c r="T113">
+        <v>0.140625</v>
+      </c>
+    </row>
+    <row r="114" spans="19:20" x14ac:dyDescent="0.45">
+      <c r="S114" t="s">
+        <v>11</v>
+      </c>
+      <c r="T114">
+        <v>6.25E-2</v>
+      </c>
+    </row>
+    <row r="115" spans="19:20" x14ac:dyDescent="0.45">
+      <c r="S115" t="s">
+        <v>11</v>
+      </c>
+      <c r="T115">
+        <v>7.8125E-2</v>
+      </c>
+    </row>
+    <row r="116" spans="19:20" x14ac:dyDescent="0.45">
+      <c r="S116" t="s">
+        <v>11</v>
+      </c>
+      <c r="T116">
+        <v>6.25E-2</v>
+      </c>
+    </row>
+    <row r="117" spans="19:20" x14ac:dyDescent="0.45">
+      <c r="S117" t="s">
+        <v>11</v>
+      </c>
+      <c r="T117">
+        <v>0.109375</v>
+      </c>
+    </row>
+    <row r="118" spans="19:20" x14ac:dyDescent="0.45">
+      <c r="S118" t="s">
+        <v>11</v>
+      </c>
+      <c r="T118">
+        <v>0.140625</v>
+      </c>
+    </row>
+    <row r="119" spans="19:20" x14ac:dyDescent="0.45">
+      <c r="S119" t="s">
+        <v>11</v>
+      </c>
+      <c r="T119">
+        <v>9.375E-2</v>
+      </c>
+    </row>
+    <row r="120" spans="19:20" x14ac:dyDescent="0.45">
+      <c r="S120" t="s">
+        <v>11</v>
+      </c>
+      <c r="T120">
+        <v>6.25E-2</v>
+      </c>
+    </row>
+    <row r="121" spans="19:20" x14ac:dyDescent="0.45">
+      <c r="S121" t="s">
+        <v>11</v>
+      </c>
+      <c r="T121">
+        <v>0.109375</v>
+      </c>
+    </row>
+    <row r="122" spans="19:20" x14ac:dyDescent="0.45">
+      <c r="S122" t="s">
+        <v>11</v>
+      </c>
+      <c r="T122">
+        <v>4.6875E-2</v>
+      </c>
+    </row>
+    <row r="123" spans="19:20" x14ac:dyDescent="0.45">
+      <c r="S123" t="s">
+        <v>11</v>
+      </c>
+      <c r="T123">
+        <v>6.25E-2</v>
+      </c>
+    </row>
+    <row r="124" spans="19:20" x14ac:dyDescent="0.45">
+      <c r="S124" t="s">
+        <v>11</v>
+      </c>
+      <c r="T124">
+        <v>9.375E-2</v>
+      </c>
+    </row>
+    <row r="125" spans="19:20" x14ac:dyDescent="0.45">
+      <c r="S125" t="s">
+        <v>11</v>
+      </c>
+      <c r="T125">
+        <v>7.8125E-2</v>
+      </c>
+    </row>
+    <row r="126" spans="19:20" x14ac:dyDescent="0.45">
+      <c r="S126" t="s">
+        <v>11</v>
+      </c>
+      <c r="T126">
+        <v>9.375E-2</v>
+      </c>
+    </row>
+    <row r="127" spans="19:20" x14ac:dyDescent="0.45">
+      <c r="S127" t="s">
+        <v>11</v>
+      </c>
+      <c r="T127">
+        <v>7.8125E-2</v>
+      </c>
+    </row>
+    <row r="128" spans="19:20" x14ac:dyDescent="0.45">
+      <c r="S128" t="s">
+        <v>11</v>
+      </c>
+      <c r="T128">
+        <v>7.8125E-2</v>
+      </c>
+    </row>
+    <row r="129" spans="19:20" x14ac:dyDescent="0.45">
+      <c r="S129" t="s">
+        <v>11</v>
+      </c>
+      <c r="T129">
+        <v>0.125</v>
+      </c>
+    </row>
+    <row r="130" spans="19:20" x14ac:dyDescent="0.45">
+      <c r="S130" t="s">
+        <v>11</v>
+      </c>
+      <c r="T130">
+        <v>0.203125</v>
+      </c>
+    </row>
+    <row r="131" spans="19:20" x14ac:dyDescent="0.45">
+      <c r="S131" t="s">
+        <v>11</v>
+      </c>
+      <c r="T131">
+        <v>0.109375</v>
+      </c>
+    </row>
+    <row r="132" spans="19:20" x14ac:dyDescent="0.45">
+      <c r="S132" t="s">
+        <v>11</v>
+      </c>
+      <c r="T132">
+        <v>0.109375</v>
+      </c>
+    </row>
+    <row r="133" spans="19:20" x14ac:dyDescent="0.45">
+      <c r="S133" t="s">
+        <v>11</v>
+      </c>
+      <c r="T133">
+        <v>0.125</v>
+      </c>
+    </row>
+    <row r="134" spans="19:20" x14ac:dyDescent="0.45">
+      <c r="S134" t="s">
+        <v>11</v>
+      </c>
+      <c r="T134">
+        <v>0.125</v>
+      </c>
+    </row>
+    <row r="135" spans="19:20" x14ac:dyDescent="0.45">
+      <c r="S135" t="s">
+        <v>11</v>
+      </c>
+      <c r="T135">
+        <v>4.6875E-2</v>
+      </c>
+    </row>
+    <row r="136" spans="19:20" x14ac:dyDescent="0.45">
+      <c r="S136" t="s">
+        <v>11</v>
+      </c>
+      <c r="T136">
+        <v>0.125</v>
+      </c>
+    </row>
+    <row r="137" spans="19:20" x14ac:dyDescent="0.45">
+      <c r="S137" t="s">
+        <v>11</v>
+      </c>
+      <c r="T137">
+        <v>0.109375</v>
+      </c>
+    </row>
+    <row r="138" spans="19:20" x14ac:dyDescent="0.45">
+      <c r="S138" t="s">
+        <v>11</v>
+      </c>
+      <c r="T138">
+        <v>9.375E-2</v>
+      </c>
+    </row>
+    <row r="139" spans="19:20" x14ac:dyDescent="0.45">
+      <c r="S139" t="s">
+        <v>11</v>
+      </c>
+      <c r="T139">
+        <v>3.125E-2</v>
+      </c>
+    </row>
+    <row r="140" spans="19:20" x14ac:dyDescent="0.45">
+      <c r="S140" t="s">
+        <v>11</v>
+      </c>
+      <c r="T140">
+        <v>9.375E-2</v>
+      </c>
+    </row>
+    <row r="141" spans="19:20" x14ac:dyDescent="0.45">
+      <c r="S141" t="s">
+        <v>11</v>
+      </c>
+      <c r="T141">
+        <v>7.8125E-2</v>
+      </c>
+    </row>
+    <row r="142" spans="19:20" x14ac:dyDescent="0.45">
+      <c r="S142" t="s">
+        <v>11</v>
+      </c>
+      <c r="T142">
+        <v>9.375E-2</v>
+      </c>
+    </row>
+    <row r="143" spans="19:20" x14ac:dyDescent="0.45">
+      <c r="S143" t="s">
+        <v>11</v>
+      </c>
+      <c r="T143">
+        <v>0.125</v>
+      </c>
+    </row>
+    <row r="144" spans="19:20" x14ac:dyDescent="0.45">
+      <c r="S144" t="s">
+        <v>11</v>
+      </c>
+      <c r="T144">
+        <v>6.25E-2</v>
+      </c>
+    </row>
+    <row r="145" spans="19:20" x14ac:dyDescent="0.45">
+      <c r="S145" t="s">
+        <v>11</v>
+      </c>
+      <c r="T145">
+        <v>0.171875</v>
+      </c>
+    </row>
+    <row r="146" spans="19:20" x14ac:dyDescent="0.45">
+      <c r="S146" t="s">
+        <v>11</v>
+      </c>
+      <c r="T146">
+        <v>0.109375</v>
+      </c>
+    </row>
+    <row r="147" spans="19:20" x14ac:dyDescent="0.45">
+      <c r="S147" t="s">
+        <v>11</v>
+      </c>
+      <c r="T147">
+        <v>0.109375</v>
+      </c>
+    </row>
+    <row r="148" spans="19:20" x14ac:dyDescent="0.45">
+      <c r="S148" t="s">
+        <v>11</v>
+      </c>
+      <c r="T148">
+        <v>0.125</v>
+      </c>
+    </row>
+    <row r="149" spans="19:20" x14ac:dyDescent="0.45">
+      <c r="S149" t="s">
+        <v>11</v>
+      </c>
+      <c r="T149">
+        <v>4.6875E-2</v>
+      </c>
+    </row>
+    <row r="150" spans="19:20" x14ac:dyDescent="0.45">
+      <c r="S150" t="s">
+        <v>11</v>
+      </c>
+      <c r="T150">
+        <v>0.15625</v>
+      </c>
+    </row>
+    <row r="151" spans="19:20" x14ac:dyDescent="0.45">
+      <c r="S151" t="s">
+        <v>11</v>
+      </c>
+      <c r="T151">
+        <v>0.109375</v>
+      </c>
+    </row>
+    <row r="152" spans="19:20" x14ac:dyDescent="0.45">
+      <c r="S152" t="s">
+        <v>11</v>
+      </c>
+      <c r="T152">
+        <v>3.6363636363636362E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="H1:L1"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="A20:C20"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8B10FD8-A75A-4111-83B6-C97E054DB4B6}">
+  <dimension ref="A1:V152"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="S3" sqref="S3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetData>
+    <row r="1" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="A1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
+      <c r="S1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="S2">
+        <v>0</v>
+      </c>
+      <c r="T2">
+        <v>0.984375</v>
+      </c>
+      <c r="U2">
+        <f xml:space="preserve"> 1+S2</f>
+        <v>1</v>
+      </c>
+      <c r="V2">
+        <f xml:space="preserve"> (1-T2)*100</f>
+        <v>1.5625</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="A3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="S3">
+        <v>1</v>
+      </c>
+      <c r="T3">
+        <v>0.921875</v>
+      </c>
+      <c r="U3">
+        <f t="shared" ref="U3:U66" si="0" xml:space="preserve"> 1+S3</f>
+        <v>2</v>
+      </c>
+      <c r="V3">
+        <f t="shared" ref="V3:V66" si="1" xml:space="preserve"> (1-T3)*100</f>
+        <v>7.8125</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="S4">
+        <v>2</v>
+      </c>
+      <c r="T4">
+        <v>0.71875</v>
+      </c>
+      <c r="U4">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="V4">
+        <f t="shared" si="1"/>
+        <v>28.125</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="S5">
+        <v>3</v>
+      </c>
+      <c r="T5">
+        <v>0.53125</v>
+      </c>
+      <c r="U5">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="V5">
+        <f t="shared" si="1"/>
+        <v>46.875</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="S6">
+        <v>4</v>
+      </c>
+      <c r="T6">
+        <v>0.375</v>
+      </c>
+      <c r="U6">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="V6">
+        <f t="shared" si="1"/>
+        <v>62.5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="S7">
+        <v>5</v>
+      </c>
+      <c r="T7">
+        <v>0.328125</v>
+      </c>
+      <c r="U7">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="V7">
+        <f t="shared" si="1"/>
+        <v>67.1875</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="S8">
+        <v>6</v>
+      </c>
+      <c r="T8">
+        <v>0.28125</v>
+      </c>
+      <c r="U8">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="V8">
+        <f t="shared" si="1"/>
+        <v>71.875</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="S9">
+        <v>7</v>
+      </c>
+      <c r="T9">
+        <v>0.265625</v>
+      </c>
+      <c r="U9">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="V9">
+        <f t="shared" si="1"/>
+        <v>73.4375</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="S10">
+        <v>8</v>
+      </c>
+      <c r="T10">
+        <v>0.265625</v>
+      </c>
+      <c r="U10">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="V10">
+        <f t="shared" si="1"/>
+        <v>73.4375</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="S11">
+        <v>9</v>
+      </c>
+      <c r="T11">
+        <v>0.234375</v>
+      </c>
+      <c r="U11">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="V11">
+        <f t="shared" si="1"/>
+        <v>76.5625</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="S12">
+        <v>10</v>
+      </c>
+      <c r="T12">
+        <v>0.265625</v>
+      </c>
+      <c r="U12">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="V12">
+        <f t="shared" si="1"/>
+        <v>73.4375</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="S13">
+        <v>11</v>
+      </c>
+      <c r="T13">
+        <v>0.1875</v>
+      </c>
+      <c r="U13">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="V13">
+        <f t="shared" si="1"/>
+        <v>81.25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="S14">
+        <v>12</v>
+      </c>
+      <c r="T14">
+        <v>0.1875</v>
+      </c>
+      <c r="U14">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="V14">
+        <f t="shared" si="1"/>
+        <v>81.25</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="S15">
+        <v>13</v>
+      </c>
+      <c r="T15">
+        <v>0.21875</v>
+      </c>
+      <c r="U15">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="V15">
+        <f t="shared" si="1"/>
+        <v>78.125</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="S16">
+        <v>14</v>
+      </c>
+      <c r="T16">
+        <v>0.265625</v>
+      </c>
+      <c r="U16">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="V16">
+        <f t="shared" si="1"/>
+        <v>73.4375</v>
+      </c>
+    </row>
+    <row r="17" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="S17">
+        <v>15</v>
+      </c>
+      <c r="T17">
+        <v>0.203125</v>
+      </c>
+      <c r="U17">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="V17">
+        <f t="shared" si="1"/>
+        <v>79.6875</v>
+      </c>
+    </row>
+    <row r="18" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="S18">
+        <v>16</v>
+      </c>
+      <c r="T18">
+        <v>0.1875</v>
+      </c>
+      <c r="U18">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="V18">
+        <f t="shared" si="1"/>
+        <v>81.25</v>
+      </c>
+    </row>
+    <row r="19" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="S19">
+        <v>17</v>
+      </c>
+      <c r="T19">
+        <v>0.296875</v>
+      </c>
+      <c r="U19">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="V19">
+        <f t="shared" si="1"/>
+        <v>70.3125</v>
+      </c>
+    </row>
+    <row r="20" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="A20" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
+      <c r="S20">
+        <v>18</v>
+      </c>
+      <c r="T20">
+        <v>0.21875</v>
+      </c>
+      <c r="U20">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="V20">
+        <f t="shared" si="1"/>
+        <v>78.125</v>
+      </c>
+    </row>
+    <row r="21" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="S21">
+        <v>19</v>
+      </c>
+      <c r="T21">
+        <v>0.203125</v>
+      </c>
+      <c r="U21">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="V21">
+        <f t="shared" si="1"/>
+        <v>79.6875</v>
+      </c>
+    </row>
+    <row r="22" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="S22">
+        <v>20</v>
+      </c>
+      <c r="T22">
+        <v>0.234375</v>
+      </c>
+      <c r="U22">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="V22">
+        <f t="shared" si="1"/>
+        <v>76.5625</v>
+      </c>
+    </row>
+    <row r="23" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="S23">
+        <v>21</v>
+      </c>
+      <c r="T23">
+        <v>0.171875</v>
+      </c>
+      <c r="U23">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="V23">
+        <f t="shared" si="1"/>
+        <v>82.8125</v>
+      </c>
+    </row>
+    <row r="24" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="S24">
+        <v>22</v>
+      </c>
+      <c r="T24">
+        <v>0.140625</v>
+      </c>
+      <c r="U24">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="V24">
+        <f t="shared" si="1"/>
+        <v>85.9375</v>
+      </c>
+    </row>
+    <row r="25" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="S25">
+        <v>23</v>
+      </c>
+      <c r="T25">
+        <v>0.15625</v>
+      </c>
+      <c r="U25">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="V25">
+        <f t="shared" si="1"/>
+        <v>84.375</v>
+      </c>
+    </row>
+    <row r="26" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="S26">
+        <v>24</v>
+      </c>
+      <c r="T26">
+        <v>0.140625</v>
+      </c>
+      <c r="U26">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="V26">
+        <f t="shared" si="1"/>
+        <v>85.9375</v>
+      </c>
+    </row>
+    <row r="27" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="S27">
+        <v>25</v>
+      </c>
+      <c r="T27">
+        <v>0.1875</v>
+      </c>
+      <c r="U27">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+      <c r="V27">
+        <f t="shared" si="1"/>
+        <v>81.25</v>
+      </c>
+    </row>
+    <row r="28" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="S28">
+        <v>26</v>
+      </c>
+      <c r="T28">
+        <v>0.125</v>
+      </c>
+      <c r="U28">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+      <c r="V28">
+        <f t="shared" si="1"/>
+        <v>87.5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="S29">
+        <v>27</v>
+      </c>
+      <c r="T29">
+        <v>0.1875</v>
+      </c>
+      <c r="U29">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+      <c r="V29">
+        <f t="shared" si="1"/>
+        <v>81.25</v>
+      </c>
+    </row>
+    <row r="30" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="S30">
+        <v>28</v>
+      </c>
+      <c r="T30">
+        <v>0.140625</v>
+      </c>
+      <c r="U30">
+        <f t="shared" si="0"/>
+        <v>29</v>
+      </c>
+      <c r="V30">
+        <f t="shared" si="1"/>
+        <v>85.9375</v>
+      </c>
+    </row>
+    <row r="31" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="S31">
+        <v>29</v>
+      </c>
+      <c r="T31">
+        <v>0.140625</v>
+      </c>
+      <c r="U31">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="V31">
+        <f t="shared" si="1"/>
+        <v>85.9375</v>
+      </c>
+    </row>
+    <row r="32" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="S32">
+        <v>30</v>
+      </c>
+      <c r="T32">
+        <v>0.171875</v>
+      </c>
+      <c r="U32">
+        <f t="shared" si="0"/>
+        <v>31</v>
+      </c>
+      <c r="V32">
+        <f t="shared" si="1"/>
+        <v>82.8125</v>
+      </c>
+    </row>
+    <row r="33" spans="19:22" x14ac:dyDescent="0.45">
+      <c r="S33">
+        <v>31</v>
+      </c>
+      <c r="T33">
+        <v>0.15625</v>
+      </c>
+      <c r="U33">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+      <c r="V33">
+        <f t="shared" si="1"/>
+        <v>84.375</v>
+      </c>
+    </row>
+    <row r="34" spans="19:22" x14ac:dyDescent="0.45">
+      <c r="S34">
+        <v>32</v>
+      </c>
+      <c r="T34">
+        <v>0.140625</v>
+      </c>
+      <c r="U34">
+        <f t="shared" si="0"/>
+        <v>33</v>
+      </c>
+      <c r="V34">
+        <f t="shared" si="1"/>
+        <v>85.9375</v>
+      </c>
+    </row>
+    <row r="35" spans="19:22" x14ac:dyDescent="0.45">
+      <c r="S35">
+        <v>33</v>
+      </c>
+      <c r="T35">
+        <v>0.1875</v>
+      </c>
+      <c r="U35">
+        <f t="shared" si="0"/>
+        <v>34</v>
+      </c>
+      <c r="V35">
+        <f t="shared" si="1"/>
+        <v>81.25</v>
+      </c>
+    </row>
+    <row r="36" spans="19:22" x14ac:dyDescent="0.45">
+      <c r="S36">
+        <v>34</v>
+      </c>
+      <c r="T36">
+        <v>0.125</v>
+      </c>
+      <c r="U36">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+      <c r="V36">
+        <f t="shared" si="1"/>
+        <v>87.5</v>
+      </c>
+    </row>
+    <row r="37" spans="19:22" x14ac:dyDescent="0.45">
+      <c r="S37">
+        <v>35</v>
+      </c>
+      <c r="T37">
+        <v>0.15625</v>
+      </c>
+      <c r="U37">
+        <f t="shared" si="0"/>
+        <v>36</v>
+      </c>
+      <c r="V37">
+        <f t="shared" si="1"/>
+        <v>84.375</v>
+      </c>
+    </row>
+    <row r="38" spans="19:22" x14ac:dyDescent="0.45">
+      <c r="S38">
+        <v>36</v>
+      </c>
+      <c r="T38">
+        <v>0.203125</v>
+      </c>
+      <c r="U38">
+        <f t="shared" si="0"/>
+        <v>37</v>
+      </c>
+      <c r="V38">
+        <f t="shared" si="1"/>
+        <v>79.6875</v>
+      </c>
+    </row>
+    <row r="39" spans="19:22" x14ac:dyDescent="0.45">
+      <c r="S39">
+        <v>37</v>
+      </c>
+      <c r="T39">
+        <v>0.171875</v>
+      </c>
+      <c r="U39">
+        <f t="shared" si="0"/>
+        <v>38</v>
+      </c>
+      <c r="V39">
+        <f t="shared" si="1"/>
+        <v>82.8125</v>
+      </c>
+    </row>
+    <row r="40" spans="19:22" x14ac:dyDescent="0.45">
+      <c r="S40">
+        <v>38</v>
+      </c>
+      <c r="T40">
+        <v>0.125</v>
+      </c>
+      <c r="U40">
+        <f t="shared" si="0"/>
+        <v>39</v>
+      </c>
+      <c r="V40">
+        <f t="shared" si="1"/>
+        <v>87.5</v>
+      </c>
+    </row>
+    <row r="41" spans="19:22" x14ac:dyDescent="0.45">
+      <c r="S41">
+        <v>39</v>
+      </c>
+      <c r="T41">
+        <v>0.15625</v>
+      </c>
+      <c r="U41">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="V41">
+        <f t="shared" si="1"/>
+        <v>84.375</v>
+      </c>
+    </row>
+    <row r="42" spans="19:22" x14ac:dyDescent="0.45">
+      <c r="S42">
+        <v>40</v>
+      </c>
+      <c r="T42">
+        <v>0.140625</v>
+      </c>
+      <c r="U42">
+        <f t="shared" si="0"/>
+        <v>41</v>
+      </c>
+      <c r="V42">
+        <f t="shared" si="1"/>
+        <v>85.9375</v>
+      </c>
+    </row>
+    <row r="43" spans="19:22" x14ac:dyDescent="0.45">
+      <c r="S43">
+        <v>41</v>
+      </c>
+      <c r="T43">
+        <v>0.171875</v>
+      </c>
+      <c r="U43">
+        <f t="shared" si="0"/>
+        <v>42</v>
+      </c>
+      <c r="V43">
+        <f t="shared" si="1"/>
+        <v>82.8125</v>
+      </c>
+    </row>
+    <row r="44" spans="19:22" x14ac:dyDescent="0.45">
+      <c r="S44">
+        <v>42</v>
+      </c>
+      <c r="T44">
+        <v>0.171875</v>
+      </c>
+      <c r="U44">
+        <f t="shared" si="0"/>
+        <v>43</v>
+      </c>
+      <c r="V44">
+        <f t="shared" si="1"/>
+        <v>82.8125</v>
+      </c>
+    </row>
+    <row r="45" spans="19:22" x14ac:dyDescent="0.45">
+      <c r="S45">
+        <v>43</v>
+      </c>
+      <c r="T45">
+        <v>0.15625</v>
+      </c>
+      <c r="U45">
+        <f t="shared" si="0"/>
+        <v>44</v>
+      </c>
+      <c r="V45">
+        <f t="shared" si="1"/>
+        <v>84.375</v>
+      </c>
+    </row>
+    <row r="46" spans="19:22" x14ac:dyDescent="0.45">
+      <c r="S46">
+        <v>44</v>
+      </c>
+      <c r="T46">
+        <v>0.140625</v>
+      </c>
+      <c r="U46">
+        <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+      <c r="V46">
+        <f t="shared" si="1"/>
+        <v>85.9375</v>
+      </c>
+    </row>
+    <row r="47" spans="19:22" x14ac:dyDescent="0.45">
+      <c r="S47">
+        <v>45</v>
+      </c>
+      <c r="T47">
+        <v>0.171875</v>
+      </c>
+      <c r="U47">
+        <f t="shared" si="0"/>
+        <v>46</v>
+      </c>
+      <c r="V47">
+        <f t="shared" si="1"/>
+        <v>82.8125</v>
+      </c>
+    </row>
+    <row r="48" spans="19:22" x14ac:dyDescent="0.45">
+      <c r="S48">
+        <v>46</v>
+      </c>
+      <c r="T48">
+        <v>0.171875</v>
+      </c>
+      <c r="U48">
+        <f t="shared" si="0"/>
+        <v>47</v>
+      </c>
+      <c r="V48">
+        <f t="shared" si="1"/>
+        <v>82.8125</v>
+      </c>
+    </row>
+    <row r="49" spans="19:22" x14ac:dyDescent="0.45">
+      <c r="S49">
+        <v>47</v>
+      </c>
+      <c r="T49">
+        <v>0.1875</v>
+      </c>
+      <c r="U49">
+        <f t="shared" si="0"/>
+        <v>48</v>
+      </c>
+      <c r="V49">
+        <f t="shared" si="1"/>
+        <v>81.25</v>
+      </c>
+    </row>
+    <row r="50" spans="19:22" x14ac:dyDescent="0.45">
+      <c r="S50">
+        <v>48</v>
+      </c>
+      <c r="T50">
+        <v>0.109375</v>
+      </c>
+      <c r="U50">
+        <f t="shared" si="0"/>
+        <v>49</v>
+      </c>
+      <c r="V50">
+        <f t="shared" si="1"/>
+        <v>89.0625</v>
+      </c>
+    </row>
+    <row r="51" spans="19:22" x14ac:dyDescent="0.45">
+      <c r="S51">
+        <v>49</v>
+      </c>
+      <c r="T51">
+        <v>0.1875</v>
+      </c>
+      <c r="U51">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+      <c r="V51">
+        <f t="shared" si="1"/>
+        <v>81.25</v>
+      </c>
+    </row>
+    <row r="52" spans="19:22" x14ac:dyDescent="0.45">
+      <c r="S52">
+        <v>50</v>
+      </c>
+      <c r="T52">
+        <v>0.109375</v>
+      </c>
+      <c r="U52">
+        <f t="shared" si="0"/>
+        <v>51</v>
+      </c>
+      <c r="V52">
+        <f t="shared" si="1"/>
+        <v>89.0625</v>
+      </c>
+    </row>
+    <row r="53" spans="19:22" x14ac:dyDescent="0.45">
+      <c r="S53">
+        <v>51</v>
+      </c>
+      <c r="T53">
+        <v>0.140625</v>
+      </c>
+      <c r="U53">
+        <f t="shared" si="0"/>
+        <v>52</v>
+      </c>
+      <c r="V53">
+        <f t="shared" si="1"/>
+        <v>85.9375</v>
+      </c>
+    </row>
+    <row r="54" spans="19:22" x14ac:dyDescent="0.45">
+      <c r="S54">
+        <v>52</v>
+      </c>
+      <c r="T54">
+        <v>0.125</v>
+      </c>
+      <c r="U54">
+        <f t="shared" si="0"/>
+        <v>53</v>
+      </c>
+      <c r="V54">
+        <f t="shared" si="1"/>
+        <v>87.5</v>
+      </c>
+    </row>
+    <row r="55" spans="19:22" x14ac:dyDescent="0.45">
+      <c r="S55">
+        <v>53</v>
+      </c>
+      <c r="T55">
+        <v>0.203125</v>
+      </c>
+      <c r="U55">
+        <f t="shared" si="0"/>
+        <v>54</v>
+      </c>
+      <c r="V55">
+        <f t="shared" si="1"/>
+        <v>79.6875</v>
+      </c>
+    </row>
+    <row r="56" spans="19:22" x14ac:dyDescent="0.45">
+      <c r="S56">
+        <v>54</v>
+      </c>
+      <c r="T56">
+        <v>0.125</v>
+      </c>
+      <c r="U56">
+        <f t="shared" si="0"/>
+        <v>55</v>
+      </c>
+      <c r="V56">
+        <f t="shared" si="1"/>
+        <v>87.5</v>
+      </c>
+    </row>
+    <row r="57" spans="19:22" x14ac:dyDescent="0.45">
+      <c r="S57">
+        <v>55</v>
+      </c>
+      <c r="T57">
+        <v>0.140625</v>
+      </c>
+      <c r="U57">
+        <f t="shared" si="0"/>
+        <v>56</v>
+      </c>
+      <c r="V57">
+        <f t="shared" si="1"/>
+        <v>85.9375</v>
+      </c>
+    </row>
+    <row r="58" spans="19:22" x14ac:dyDescent="0.45">
+      <c r="S58">
+        <v>56</v>
+      </c>
+      <c r="T58">
+        <v>0.15625</v>
+      </c>
+      <c r="U58">
+        <f t="shared" si="0"/>
+        <v>57</v>
+      </c>
+      <c r="V58">
+        <f t="shared" si="1"/>
+        <v>84.375</v>
+      </c>
+    </row>
+    <row r="59" spans="19:22" x14ac:dyDescent="0.45">
+      <c r="S59">
+        <v>57</v>
+      </c>
+      <c r="T59">
+        <v>0.140625</v>
+      </c>
+      <c r="U59">
+        <f t="shared" si="0"/>
+        <v>58</v>
+      </c>
+      <c r="V59">
+        <f t="shared" si="1"/>
+        <v>85.9375</v>
+      </c>
+    </row>
+    <row r="60" spans="19:22" x14ac:dyDescent="0.45">
+      <c r="S60">
+        <v>58</v>
+      </c>
+      <c r="T60">
+        <v>0.140625</v>
+      </c>
+      <c r="U60">
+        <f t="shared" si="0"/>
+        <v>59</v>
+      </c>
+      <c r="V60">
+        <f t="shared" si="1"/>
+        <v>85.9375</v>
+      </c>
+    </row>
+    <row r="61" spans="19:22" x14ac:dyDescent="0.45">
+      <c r="S61">
+        <v>59</v>
+      </c>
+      <c r="T61">
+        <v>9.375E-2</v>
+      </c>
+      <c r="U61">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+      <c r="V61">
+        <f t="shared" si="1"/>
+        <v>90.625</v>
+      </c>
+    </row>
+    <row r="62" spans="19:22" x14ac:dyDescent="0.45">
+      <c r="S62">
+        <v>60</v>
+      </c>
+      <c r="T62">
+        <v>0.171875</v>
+      </c>
+      <c r="U62">
+        <f t="shared" si="0"/>
+        <v>61</v>
+      </c>
+      <c r="V62">
+        <f t="shared" si="1"/>
+        <v>82.8125</v>
+      </c>
+    </row>
+    <row r="63" spans="19:22" x14ac:dyDescent="0.45">
+      <c r="S63">
+        <v>61</v>
+      </c>
+      <c r="T63">
+        <v>0.109375</v>
+      </c>
+      <c r="U63">
+        <f t="shared" si="0"/>
+        <v>62</v>
+      </c>
+      <c r="V63">
+        <f t="shared" si="1"/>
+        <v>89.0625</v>
+      </c>
+    </row>
+    <row r="64" spans="19:22" x14ac:dyDescent="0.45">
+      <c r="S64">
+        <v>62</v>
+      </c>
+      <c r="T64">
+        <v>0.109375</v>
+      </c>
+      <c r="U64">
+        <f t="shared" si="0"/>
+        <v>63</v>
+      </c>
+      <c r="V64">
+        <f t="shared" si="1"/>
+        <v>89.0625</v>
+      </c>
+    </row>
+    <row r="65" spans="19:22" x14ac:dyDescent="0.45">
+      <c r="S65">
+        <v>63</v>
+      </c>
+      <c r="T65">
+        <v>9.375E-2</v>
+      </c>
+      <c r="U65">
+        <f t="shared" si="0"/>
+        <v>64</v>
+      </c>
+      <c r="V65">
+        <f t="shared" si="1"/>
+        <v>90.625</v>
+      </c>
+    </row>
+    <row r="66" spans="19:22" x14ac:dyDescent="0.45">
+      <c r="S66">
+        <v>64</v>
+      </c>
+      <c r="T66">
+        <v>0.109375</v>
+      </c>
+      <c r="U66">
+        <f t="shared" si="0"/>
+        <v>65</v>
+      </c>
+      <c r="V66">
+        <f t="shared" si="1"/>
+        <v>89.0625</v>
+      </c>
+    </row>
+    <row r="67" spans="19:22" x14ac:dyDescent="0.45">
+      <c r="S67">
+        <v>65</v>
+      </c>
+      <c r="T67">
+        <v>0.140625</v>
+      </c>
+      <c r="U67">
+        <f t="shared" ref="U67:U101" si="2" xml:space="preserve"> 1+S67</f>
+        <v>66</v>
+      </c>
+      <c r="V67">
+        <f t="shared" ref="V67:V101" si="3" xml:space="preserve"> (1-T67)*100</f>
+        <v>85.9375</v>
+      </c>
+    </row>
+    <row r="68" spans="19:22" x14ac:dyDescent="0.45">
+      <c r="S68">
+        <v>66</v>
+      </c>
+      <c r="T68">
+        <v>0.125</v>
+      </c>
+      <c r="U68">
+        <f t="shared" si="2"/>
+        <v>67</v>
+      </c>
+      <c r="V68">
+        <f t="shared" si="3"/>
+        <v>87.5</v>
+      </c>
+    </row>
+    <row r="69" spans="19:22" x14ac:dyDescent="0.45">
+      <c r="S69">
+        <v>67</v>
+      </c>
+      <c r="T69">
+        <v>0.125</v>
+      </c>
+      <c r="U69">
+        <f t="shared" si="2"/>
+        <v>68</v>
+      </c>
+      <c r="V69">
+        <f t="shared" si="3"/>
+        <v>87.5</v>
+      </c>
+    </row>
+    <row r="70" spans="19:22" x14ac:dyDescent="0.45">
+      <c r="S70">
+        <v>68</v>
+      </c>
+      <c r="T70">
+        <v>0.140625</v>
+      </c>
+      <c r="U70">
+        <f t="shared" si="2"/>
+        <v>69</v>
+      </c>
+      <c r="V70">
+        <f t="shared" si="3"/>
+        <v>85.9375</v>
+      </c>
+    </row>
+    <row r="71" spans="19:22" x14ac:dyDescent="0.45">
+      <c r="S71">
+        <v>69</v>
+      </c>
+      <c r="T71">
+        <v>0.109375</v>
+      </c>
+      <c r="U71">
+        <f t="shared" si="2"/>
+        <v>70</v>
+      </c>
+      <c r="V71">
+        <f t="shared" si="3"/>
+        <v>89.0625</v>
+      </c>
+    </row>
+    <row r="72" spans="19:22" x14ac:dyDescent="0.45">
+      <c r="S72">
+        <v>70</v>
+      </c>
+      <c r="T72">
+        <v>0.203125</v>
+      </c>
+      <c r="U72">
+        <f t="shared" si="2"/>
+        <v>71</v>
+      </c>
+      <c r="V72">
+        <f t="shared" si="3"/>
+        <v>79.6875</v>
+      </c>
+    </row>
+    <row r="73" spans="19:22" x14ac:dyDescent="0.45">
+      <c r="S73">
+        <v>71</v>
+      </c>
+      <c r="T73">
+        <v>0.15625</v>
+      </c>
+      <c r="U73">
+        <f t="shared" si="2"/>
+        <v>72</v>
+      </c>
+      <c r="V73">
+        <f t="shared" si="3"/>
+        <v>84.375</v>
+      </c>
+    </row>
+    <row r="74" spans="19:22" x14ac:dyDescent="0.45">
+      <c r="S74">
+        <v>72</v>
+      </c>
+      <c r="T74">
+        <v>0.109375</v>
+      </c>
+      <c r="U74">
+        <f t="shared" si="2"/>
+        <v>73</v>
+      </c>
+      <c r="V74">
+        <f t="shared" si="3"/>
+        <v>89.0625</v>
+      </c>
+    </row>
+    <row r="75" spans="19:22" x14ac:dyDescent="0.45">
+      <c r="S75">
+        <v>73</v>
+      </c>
+      <c r="T75">
+        <v>7.8125E-2</v>
+      </c>
+      <c r="U75">
+        <f t="shared" si="2"/>
+        <v>74</v>
+      </c>
+      <c r="V75">
+        <f t="shared" si="3"/>
+        <v>92.1875</v>
+      </c>
+    </row>
+    <row r="76" spans="19:22" x14ac:dyDescent="0.45">
+      <c r="S76">
+        <v>74</v>
+      </c>
+      <c r="T76">
+        <v>7.8125E-2</v>
+      </c>
+      <c r="U76">
+        <f t="shared" si="2"/>
+        <v>75</v>
+      </c>
+      <c r="V76">
+        <f t="shared" si="3"/>
+        <v>92.1875</v>
+      </c>
+    </row>
+    <row r="77" spans="19:22" x14ac:dyDescent="0.45">
+      <c r="S77">
+        <v>75</v>
+      </c>
+      <c r="T77">
+        <v>9.375E-2</v>
+      </c>
+      <c r="U77">
+        <f t="shared" si="2"/>
+        <v>76</v>
+      </c>
+      <c r="V77">
+        <f t="shared" si="3"/>
+        <v>90.625</v>
+      </c>
+    </row>
+    <row r="78" spans="19:22" x14ac:dyDescent="0.45">
+      <c r="S78">
+        <v>76</v>
+      </c>
+      <c r="T78">
+        <v>7.8125E-2</v>
+      </c>
+      <c r="U78">
+        <f t="shared" si="2"/>
+        <v>77</v>
+      </c>
+      <c r="V78">
+        <f t="shared" si="3"/>
+        <v>92.1875</v>
+      </c>
+    </row>
+    <row r="79" spans="19:22" x14ac:dyDescent="0.45">
+      <c r="S79">
+        <v>77</v>
+      </c>
+      <c r="T79">
+        <v>9.375E-2</v>
+      </c>
+      <c r="U79">
+        <f t="shared" si="2"/>
+        <v>78</v>
+      </c>
+      <c r="V79">
+        <f t="shared" si="3"/>
+        <v>90.625</v>
+      </c>
+    </row>
+    <row r="80" spans="19:22" x14ac:dyDescent="0.45">
+      <c r="S80">
+        <v>78</v>
+      </c>
+      <c r="T80">
+        <v>7.8125E-2</v>
+      </c>
+      <c r="U80">
+        <f t="shared" si="2"/>
+        <v>79</v>
+      </c>
+      <c r="V80">
+        <f t="shared" si="3"/>
+        <v>92.1875</v>
+      </c>
+    </row>
+    <row r="81" spans="19:22" x14ac:dyDescent="0.45">
+      <c r="S81">
+        <v>79</v>
+      </c>
+      <c r="T81">
+        <v>9.375E-2</v>
+      </c>
+      <c r="U81">
+        <f t="shared" si="2"/>
+        <v>80</v>
+      </c>
+      <c r="V81">
+        <f t="shared" si="3"/>
+        <v>90.625</v>
+      </c>
+    </row>
+    <row r="82" spans="19:22" x14ac:dyDescent="0.45">
+      <c r="S82">
+        <v>80</v>
+      </c>
+      <c r="T82">
+        <v>0.125</v>
+      </c>
+      <c r="U82">
+        <f t="shared" si="2"/>
+        <v>81</v>
+      </c>
+      <c r="V82">
+        <f t="shared" si="3"/>
+        <v>87.5</v>
+      </c>
+    </row>
+    <row r="83" spans="19:22" x14ac:dyDescent="0.45">
+      <c r="S83">
+        <v>81</v>
+      </c>
+      <c r="T83">
+        <v>0.125</v>
+      </c>
+      <c r="U83">
+        <f t="shared" si="2"/>
+        <v>82</v>
+      </c>
+      <c r="V83">
+        <f t="shared" si="3"/>
+        <v>87.5</v>
+      </c>
+    </row>
+    <row r="84" spans="19:22" x14ac:dyDescent="0.45">
+      <c r="S84">
+        <v>82</v>
+      </c>
+      <c r="T84">
+        <v>0.109375</v>
+      </c>
+      <c r="U84">
+        <f t="shared" si="2"/>
+        <v>83</v>
+      </c>
+      <c r="V84">
+        <f t="shared" si="3"/>
+        <v>89.0625</v>
+      </c>
+    </row>
+    <row r="85" spans="19:22" x14ac:dyDescent="0.45">
+      <c r="S85">
+        <v>83</v>
+      </c>
+      <c r="T85">
+        <v>9.375E-2</v>
+      </c>
+      <c r="U85">
+        <f t="shared" si="2"/>
+        <v>84</v>
+      </c>
+      <c r="V85">
+        <f t="shared" si="3"/>
+        <v>90.625</v>
+      </c>
+    </row>
+    <row r="86" spans="19:22" x14ac:dyDescent="0.45">
+      <c r="S86">
+        <v>84</v>
+      </c>
+      <c r="T86">
+        <v>0.125</v>
+      </c>
+      <c r="U86">
+        <f t="shared" si="2"/>
+        <v>85</v>
+      </c>
+      <c r="V86">
+        <f t="shared" si="3"/>
+        <v>87.5</v>
+      </c>
+    </row>
+    <row r="87" spans="19:22" x14ac:dyDescent="0.45">
+      <c r="S87">
+        <v>85</v>
+      </c>
+      <c r="T87">
+        <v>0.15625</v>
+      </c>
+      <c r="U87">
+        <f t="shared" si="2"/>
+        <v>86</v>
+      </c>
+      <c r="V87">
+        <f t="shared" si="3"/>
+        <v>84.375</v>
+      </c>
+    </row>
+    <row r="88" spans="19:22" x14ac:dyDescent="0.45">
+      <c r="S88">
+        <v>86</v>
+      </c>
+      <c r="T88">
+        <v>0.125</v>
+      </c>
+      <c r="U88">
+        <f t="shared" si="2"/>
+        <v>87</v>
+      </c>
+      <c r="V88">
+        <f t="shared" si="3"/>
+        <v>87.5</v>
+      </c>
+    </row>
+    <row r="89" spans="19:22" x14ac:dyDescent="0.45">
+      <c r="S89">
+        <v>87</v>
+      </c>
+      <c r="T89">
+        <v>9.375E-2</v>
+      </c>
+      <c r="U89">
+        <f t="shared" si="2"/>
+        <v>88</v>
+      </c>
+      <c r="V89">
+        <f t="shared" si="3"/>
+        <v>90.625</v>
+      </c>
+    </row>
+    <row r="90" spans="19:22" x14ac:dyDescent="0.45">
+      <c r="S90">
+        <v>88</v>
+      </c>
+      <c r="T90">
+        <v>9.375E-2</v>
+      </c>
+      <c r="U90">
+        <f t="shared" si="2"/>
+        <v>89</v>
+      </c>
+      <c r="V90">
+        <f t="shared" si="3"/>
+        <v>90.625</v>
+      </c>
+    </row>
+    <row r="91" spans="19:22" x14ac:dyDescent="0.45">
+      <c r="S91">
+        <v>89</v>
+      </c>
+      <c r="T91">
+        <v>0.109375</v>
+      </c>
+      <c r="U91">
+        <f t="shared" si="2"/>
+        <v>90</v>
+      </c>
+      <c r="V91">
+        <f t="shared" si="3"/>
+        <v>89.0625</v>
+      </c>
+    </row>
+    <row r="92" spans="19:22" x14ac:dyDescent="0.45">
+      <c r="S92">
+        <v>90</v>
+      </c>
+      <c r="T92">
+        <v>0.109375</v>
+      </c>
+      <c r="U92">
+        <f t="shared" si="2"/>
+        <v>91</v>
+      </c>
+      <c r="V92">
+        <f t="shared" si="3"/>
+        <v>89.0625</v>
+      </c>
+    </row>
+    <row r="93" spans="19:22" x14ac:dyDescent="0.45">
+      <c r="S93">
+        <v>91</v>
+      </c>
+      <c r="T93">
+        <v>0.125</v>
+      </c>
+      <c r="U93">
+        <f t="shared" si="2"/>
+        <v>92</v>
+      </c>
+      <c r="V93">
+        <f t="shared" si="3"/>
+        <v>87.5</v>
+      </c>
+    </row>
+    <row r="94" spans="19:22" x14ac:dyDescent="0.45">
+      <c r="S94">
+        <v>92</v>
+      </c>
+      <c r="T94">
+        <v>0.125</v>
+      </c>
+      <c r="U94">
+        <f t="shared" si="2"/>
+        <v>93</v>
+      </c>
+      <c r="V94">
+        <f t="shared" si="3"/>
+        <v>87.5</v>
+      </c>
+    </row>
+    <row r="95" spans="19:22" x14ac:dyDescent="0.45">
+      <c r="S95">
+        <v>93</v>
+      </c>
+      <c r="T95">
+        <v>0.125</v>
+      </c>
+      <c r="U95">
+        <f t="shared" si="2"/>
+        <v>94</v>
+      </c>
+      <c r="V95">
+        <f t="shared" si="3"/>
+        <v>87.5</v>
+      </c>
+    </row>
+    <row r="96" spans="19:22" x14ac:dyDescent="0.45">
+      <c r="S96">
+        <v>94</v>
+      </c>
+      <c r="T96">
+        <v>0.125</v>
+      </c>
+      <c r="U96">
+        <f t="shared" si="2"/>
+        <v>95</v>
+      </c>
+      <c r="V96">
+        <f t="shared" si="3"/>
+        <v>87.5</v>
+      </c>
+    </row>
+    <row r="97" spans="19:22" x14ac:dyDescent="0.45">
+      <c r="S97">
+        <v>95</v>
+      </c>
+      <c r="T97">
+        <v>0.109375</v>
+      </c>
+      <c r="U97">
+        <f t="shared" si="2"/>
+        <v>96</v>
+      </c>
+      <c r="V97">
+        <f t="shared" si="3"/>
+        <v>89.0625</v>
+      </c>
+    </row>
+    <row r="98" spans="19:22" x14ac:dyDescent="0.45">
+      <c r="S98">
+        <v>96</v>
+      </c>
+      <c r="T98">
+        <v>0.109375</v>
+      </c>
+      <c r="U98">
+        <f t="shared" si="2"/>
+        <v>97</v>
+      </c>
+      <c r="V98">
+        <f t="shared" si="3"/>
+        <v>89.0625</v>
+      </c>
+    </row>
+    <row r="99" spans="19:22" x14ac:dyDescent="0.45">
+      <c r="S99">
+        <v>97</v>
+      </c>
+      <c r="T99">
+        <v>0.109375</v>
+      </c>
+      <c r="U99">
+        <f t="shared" si="2"/>
+        <v>98</v>
+      </c>
+      <c r="V99">
+        <f t="shared" si="3"/>
+        <v>89.0625</v>
+      </c>
+    </row>
+    <row r="100" spans="19:22" x14ac:dyDescent="0.45">
+      <c r="S100">
+        <v>98</v>
+      </c>
+      <c r="T100">
+        <v>0.109375</v>
+      </c>
+      <c r="U100">
+        <f t="shared" si="2"/>
+        <v>99</v>
+      </c>
+      <c r="V100">
+        <f t="shared" si="3"/>
+        <v>89.0625</v>
+      </c>
+    </row>
+    <row r="101" spans="19:22" x14ac:dyDescent="0.45">
+      <c r="S101">
+        <v>99</v>
+      </c>
+      <c r="T101">
+        <v>0.125</v>
+      </c>
       <c r="U101">
         <f t="shared" si="2"/>
         <v>100</v>
       </c>
       <c r="V101">
         <f t="shared" si="3"/>
-        <v>93.75</v>
+        <v>87.5</v>
       </c>
     </row>
     <row r="102" spans="19:22" x14ac:dyDescent="0.45">

--- a/LJ+UA Experiments.xlsx
+++ b/LJ+UA Experiments.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dhvan\Documents\GitHub\P4P-Transformer-ASR-for-Dysarthric-Speech\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97C07746-A20C-4233-A489-3A9D7F48DBE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCBB94A9-0CFB-463B-BC8B-321F5A5E2B0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13155" activeTab="5" xr2:uid="{75EE08EB-D9DA-45E6-8F41-68FBAE46F917}"/>
+    <workbookView xWindow="2363" yWindow="1950" windowWidth="15390" windowHeight="9443" activeTab="5" xr2:uid="{75EE08EB-D9DA-45E6-8F41-68FBAE46F917}"/>
   </bookViews>
   <sheets>
     <sheet name="E1" sheetId="1" r:id="rId1"/>
@@ -350,7 +350,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>% (% increase)</t>
+      <t>87% (0% increase)</t>
     </r>
   </si>
 </sst>
@@ -3308,6 +3308,584 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'E12345'!$V$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Accuracy</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'E12345'!$V$2:$V$152</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="151"/>
+                <c:pt idx="0">
+                  <c:v>1.5625</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.25</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>39.0625</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>59.375</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>70.3125</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>71.875</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>78.125</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>73.4375</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>71.875</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>70.3125</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>78.125</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>81.25</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>78.125</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>73.4375</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>81.25</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>81.25</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>79.6875</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>81.25</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>79.6875</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>73.4375</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>76.5625</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>78.125</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>81.25</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>76.5625</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>82.8125</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>71.875</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>73.4375</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>81.25</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>81.25</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>79.6875</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>84.375</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>81.25</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>84.375</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>81.25</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>76.5625</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>81.25</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>78.125</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>79.6875</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>84.375</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>85.9375</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>85.9375</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>87.5</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>87.5</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>78.125</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>85.9375</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>89.0625</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>89.0625</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>79.6875</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>81.25</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>82.8125</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>85.9375</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>90.625</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>85.9375</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>87.5</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>84.375</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>85.9375</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>84.375</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>84.375</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>87.5</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>82.8125</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>85.9375</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>85.9375</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>85.9375</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>89.0625</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>85.9375</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>90.625</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>89.0625</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>92.1875</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>85.9375</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>92.1875</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>89.0625</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>84.375</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>92.1875</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>89.0625</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>90.625</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>90.625</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>89.0625</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>90.625</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>89.0625</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>89.0625</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>87.5</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>92.1875</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>89.0625</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>92.1875</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>89.0625</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>92.1875</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>90.625</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>92.1875</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>90.625</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>90.625</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>92.1875</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>92.1875</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>90.625</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>90.625</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>90.625</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>90.625</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>90.625</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-7EBD-4B6E-9F19-073F5926B43A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1025697936"/>
+        <c:axId val="1025698768"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1025697936"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1025698768"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1025698768"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1025697936"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -3469,6 +4047,46 @@
 </file>
 
 <file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -6088,6 +6706,522 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
@@ -7023,6 +8157,136 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>14341</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>52388</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C9B46CF2-EC4F-4061-A0AB-B47DE3E3AE55}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1" y="3619501"/>
+          <a:ext cx="3252840" cy="2586037"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>147935</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{839ACDB8-2023-65C0-526C-9A147016A06F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6305550" y="590550"/>
+          <a:ext cx="3543300" cy="2795885"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>57148</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>95248</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7CD2338A-A434-EA9F-902F-773D9261F36F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -14788,7 +16052,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55D9FD51-27E4-4AE4-A4A7-D84888DA39D7}">
   <dimension ref="A1:V152"/>
   <sheetViews>
-    <sheetView zoomScale="56" workbookViewId="0">
+    <sheetView topLeftCell="A11" zoomScale="56" workbookViewId="0">
       <selection activeCell="P50" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
@@ -16859,8 +18123,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8B10FD8-A75A-4111-83B6-C97E054DB4B6}">
   <dimension ref="A1:V152"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S3" sqref="S3"/>
+    <sheetView tabSelected="1" zoomScale="43" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="P59" sqref="P59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -16921,7 +18185,7 @@
         <v>1</v>
       </c>
       <c r="T3">
-        <v>0.921875</v>
+        <v>0.9375</v>
       </c>
       <c r="U3">
         <f t="shared" ref="U3:U66" si="0" xml:space="preserve"> 1+S3</f>
@@ -16929,7 +18193,7 @@
       </c>
       <c r="V3">
         <f t="shared" ref="V3:V66" si="1" xml:space="preserve"> (1-T3)*100</f>
-        <v>7.8125</v>
+        <v>6.25</v>
       </c>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.45">
@@ -16937,7 +18201,7 @@
         <v>2</v>
       </c>
       <c r="T4">
-        <v>0.71875</v>
+        <v>0.75</v>
       </c>
       <c r="U4">
         <f t="shared" si="0"/>
@@ -16945,7 +18209,7 @@
       </c>
       <c r="V4">
         <f t="shared" si="1"/>
-        <v>28.125</v>
+        <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.45">
@@ -16953,7 +18217,7 @@
         <v>3</v>
       </c>
       <c r="T5">
-        <v>0.53125</v>
+        <v>0.609375</v>
       </c>
       <c r="U5">
         <f t="shared" si="0"/>
@@ -16961,7 +18225,7 @@
       </c>
       <c r="V5">
         <f t="shared" si="1"/>
-        <v>46.875</v>
+        <v>39.0625</v>
       </c>
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.45">
@@ -16969,7 +18233,7 @@
         <v>4</v>
       </c>
       <c r="T6">
-        <v>0.375</v>
+        <v>0.40625</v>
       </c>
       <c r="U6">
         <f t="shared" si="0"/>
@@ -16977,7 +18241,7 @@
       </c>
       <c r="V6">
         <f t="shared" si="1"/>
-        <v>62.5</v>
+        <v>59.375</v>
       </c>
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.45">
@@ -16985,7 +18249,7 @@
         <v>5</v>
       </c>
       <c r="T7">
-        <v>0.328125</v>
+        <v>0.296875</v>
       </c>
       <c r="U7">
         <f t="shared" si="0"/>
@@ -16993,7 +18257,7 @@
       </c>
       <c r="V7">
         <f t="shared" si="1"/>
-        <v>67.1875</v>
+        <v>70.3125</v>
       </c>
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.45">
@@ -17017,7 +18281,7 @@
         <v>7</v>
       </c>
       <c r="T9">
-        <v>0.265625</v>
+        <v>0.21875</v>
       </c>
       <c r="U9">
         <f t="shared" si="0"/>
@@ -17025,7 +18289,7 @@
       </c>
       <c r="V9">
         <f t="shared" si="1"/>
-        <v>73.4375</v>
+        <v>78.125</v>
       </c>
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.45">
@@ -17049,7 +18313,7 @@
         <v>9</v>
       </c>
       <c r="T11">
-        <v>0.234375</v>
+        <v>0.28125</v>
       </c>
       <c r="U11">
         <f t="shared" si="0"/>
@@ -17057,7 +18321,7 @@
       </c>
       <c r="V11">
         <f t="shared" si="1"/>
-        <v>76.5625</v>
+        <v>71.875</v>
       </c>
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.45">
@@ -17065,7 +18329,7 @@
         <v>10</v>
       </c>
       <c r="T12">
-        <v>0.265625</v>
+        <v>0.296875</v>
       </c>
       <c r="U12">
         <f t="shared" si="0"/>
@@ -17073,7 +18337,7 @@
       </c>
       <c r="V12">
         <f t="shared" si="1"/>
-        <v>73.4375</v>
+        <v>70.3125</v>
       </c>
     </row>
     <row r="13" spans="1:22" x14ac:dyDescent="0.45">
@@ -17081,7 +18345,7 @@
         <v>11</v>
       </c>
       <c r="T13">
-        <v>0.1875</v>
+        <v>0.21875</v>
       </c>
       <c r="U13">
         <f t="shared" si="0"/>
@@ -17089,7 +18353,7 @@
       </c>
       <c r="V13">
         <f t="shared" si="1"/>
-        <v>81.25</v>
+        <v>78.125</v>
       </c>
     </row>
     <row r="14" spans="1:22" x14ac:dyDescent="0.45">
@@ -17097,7 +18361,7 @@
         <v>12</v>
       </c>
       <c r="T14">
-        <v>0.1875</v>
+        <v>0.25</v>
       </c>
       <c r="U14">
         <f t="shared" si="0"/>
@@ -17105,7 +18369,7 @@
       </c>
       <c r="V14">
         <f t="shared" si="1"/>
-        <v>81.25</v>
+        <v>75</v>
       </c>
     </row>
     <row r="15" spans="1:22" x14ac:dyDescent="0.45">
@@ -17113,7 +18377,7 @@
         <v>13</v>
       </c>
       <c r="T15">
-        <v>0.21875</v>
+        <v>0.1875</v>
       </c>
       <c r="U15">
         <f t="shared" si="0"/>
@@ -17121,7 +18385,7 @@
       </c>
       <c r="V15">
         <f t="shared" si="1"/>
-        <v>78.125</v>
+        <v>81.25</v>
       </c>
     </row>
     <row r="16" spans="1:22" x14ac:dyDescent="0.45">
@@ -17129,7 +18393,7 @@
         <v>14</v>
       </c>
       <c r="T16">
-        <v>0.265625</v>
+        <v>0.21875</v>
       </c>
       <c r="U16">
         <f t="shared" si="0"/>
@@ -17137,7 +18401,7 @@
       </c>
       <c r="V16">
         <f t="shared" si="1"/>
-        <v>73.4375</v>
+        <v>78.125</v>
       </c>
     </row>
     <row r="17" spans="1:22" x14ac:dyDescent="0.45">
@@ -17145,7 +18409,7 @@
         <v>15</v>
       </c>
       <c r="T17">
-        <v>0.203125</v>
+        <v>0.265625</v>
       </c>
       <c r="U17">
         <f t="shared" si="0"/>
@@ -17153,7 +18417,7 @@
       </c>
       <c r="V17">
         <f t="shared" si="1"/>
-        <v>79.6875</v>
+        <v>73.4375</v>
       </c>
     </row>
     <row r="18" spans="1:22" x14ac:dyDescent="0.45">
@@ -17177,7 +18441,7 @@
         <v>17</v>
       </c>
       <c r="T19">
-        <v>0.296875</v>
+        <v>0.1875</v>
       </c>
       <c r="U19">
         <f t="shared" si="0"/>
@@ -17185,7 +18449,7 @@
       </c>
       <c r="V19">
         <f t="shared" si="1"/>
-        <v>70.3125</v>
+        <v>81.25</v>
       </c>
     </row>
     <row r="20" spans="1:22" x14ac:dyDescent="0.45">
@@ -17198,7 +18462,7 @@
         <v>18</v>
       </c>
       <c r="T20">
-        <v>0.21875</v>
+        <v>0.203125</v>
       </c>
       <c r="U20">
         <f t="shared" si="0"/>
@@ -17206,7 +18470,7 @@
       </c>
       <c r="V20">
         <f t="shared" si="1"/>
-        <v>78.125</v>
+        <v>79.6875</v>
       </c>
     </row>
     <row r="21" spans="1:22" x14ac:dyDescent="0.45">
@@ -17214,7 +18478,7 @@
         <v>19</v>
       </c>
       <c r="T21">
-        <v>0.203125</v>
+        <v>0.1875</v>
       </c>
       <c r="U21">
         <f t="shared" si="0"/>
@@ -17222,7 +18486,7 @@
       </c>
       <c r="V21">
         <f t="shared" si="1"/>
-        <v>79.6875</v>
+        <v>81.25</v>
       </c>
     </row>
     <row r="22" spans="1:22" x14ac:dyDescent="0.45">
@@ -17230,7 +18494,7 @@
         <v>20</v>
       </c>
       <c r="T22">
-        <v>0.234375</v>
+        <v>0.203125</v>
       </c>
       <c r="U22">
         <f t="shared" si="0"/>
@@ -17238,7 +18502,7 @@
       </c>
       <c r="V22">
         <f t="shared" si="1"/>
-        <v>76.5625</v>
+        <v>79.6875</v>
       </c>
     </row>
     <row r="23" spans="1:22" x14ac:dyDescent="0.45">
@@ -17246,7 +18510,7 @@
         <v>21</v>
       </c>
       <c r="T23">
-        <v>0.171875</v>
+        <v>0.265625</v>
       </c>
       <c r="U23">
         <f t="shared" si="0"/>
@@ -17254,7 +18518,7 @@
       </c>
       <c r="V23">
         <f t="shared" si="1"/>
-        <v>82.8125</v>
+        <v>73.4375</v>
       </c>
     </row>
     <row r="24" spans="1:22" x14ac:dyDescent="0.45">
@@ -17262,7 +18526,7 @@
         <v>22</v>
       </c>
       <c r="T24">
-        <v>0.140625</v>
+        <v>0.234375</v>
       </c>
       <c r="U24">
         <f t="shared" si="0"/>
@@ -17270,7 +18534,7 @@
       </c>
       <c r="V24">
         <f t="shared" si="1"/>
-        <v>85.9375</v>
+        <v>76.5625</v>
       </c>
     </row>
     <row r="25" spans="1:22" x14ac:dyDescent="0.45">
@@ -17278,7 +18542,7 @@
         <v>23</v>
       </c>
       <c r="T25">
-        <v>0.15625</v>
+        <v>0.21875</v>
       </c>
       <c r="U25">
         <f t="shared" si="0"/>
@@ -17286,7 +18550,7 @@
       </c>
       <c r="V25">
         <f t="shared" si="1"/>
-        <v>84.375</v>
+        <v>78.125</v>
       </c>
     </row>
     <row r="26" spans="1:22" x14ac:dyDescent="0.45">
@@ -17294,7 +18558,7 @@
         <v>24</v>
       </c>
       <c r="T26">
-        <v>0.140625</v>
+        <v>0.1875</v>
       </c>
       <c r="U26">
         <f t="shared" si="0"/>
@@ -17302,7 +18566,7 @@
       </c>
       <c r="V26">
         <f t="shared" si="1"/>
-        <v>85.9375</v>
+        <v>81.25</v>
       </c>
     </row>
     <row r="27" spans="1:22" x14ac:dyDescent="0.45">
@@ -17310,7 +18574,7 @@
         <v>25</v>
       </c>
       <c r="T27">
-        <v>0.1875</v>
+        <v>0.234375</v>
       </c>
       <c r="U27">
         <f t="shared" si="0"/>
@@ -17318,7 +18582,7 @@
       </c>
       <c r="V27">
         <f t="shared" si="1"/>
-        <v>81.25</v>
+        <v>76.5625</v>
       </c>
     </row>
     <row r="28" spans="1:22" x14ac:dyDescent="0.45">
@@ -17326,7 +18590,7 @@
         <v>26</v>
       </c>
       <c r="T28">
-        <v>0.125</v>
+        <v>0.171875</v>
       </c>
       <c r="U28">
         <f t="shared" si="0"/>
@@ -17334,7 +18598,7 @@
       </c>
       <c r="V28">
         <f t="shared" si="1"/>
-        <v>87.5</v>
+        <v>82.8125</v>
       </c>
     </row>
     <row r="29" spans="1:22" x14ac:dyDescent="0.45">
@@ -17342,7 +18606,7 @@
         <v>27</v>
       </c>
       <c r="T29">
-        <v>0.1875</v>
+        <v>0.28125</v>
       </c>
       <c r="U29">
         <f t="shared" si="0"/>
@@ -17350,7 +18614,7 @@
       </c>
       <c r="V29">
         <f t="shared" si="1"/>
-        <v>81.25</v>
+        <v>71.875</v>
       </c>
     </row>
     <row r="30" spans="1:22" x14ac:dyDescent="0.45">
@@ -17358,7 +18622,7 @@
         <v>28</v>
       </c>
       <c r="T30">
-        <v>0.140625</v>
+        <v>0.265625</v>
       </c>
       <c r="U30">
         <f t="shared" si="0"/>
@@ -17366,7 +18630,7 @@
       </c>
       <c r="V30">
         <f t="shared" si="1"/>
-        <v>85.9375</v>
+        <v>73.4375</v>
       </c>
     </row>
     <row r="31" spans="1:22" x14ac:dyDescent="0.45">
@@ -17374,7 +18638,7 @@
         <v>29</v>
       </c>
       <c r="T31">
-        <v>0.140625</v>
+        <v>0.1875</v>
       </c>
       <c r="U31">
         <f t="shared" si="0"/>
@@ -17382,7 +18646,7 @@
       </c>
       <c r="V31">
         <f t="shared" si="1"/>
-        <v>85.9375</v>
+        <v>81.25</v>
       </c>
     </row>
     <row r="32" spans="1:22" x14ac:dyDescent="0.45">
@@ -17390,7 +18654,7 @@
         <v>30</v>
       </c>
       <c r="T32">
-        <v>0.171875</v>
+        <v>0.1875</v>
       </c>
       <c r="U32">
         <f t="shared" si="0"/>
@@ -17398,7 +18662,7 @@
       </c>
       <c r="V32">
         <f t="shared" si="1"/>
-        <v>82.8125</v>
+        <v>81.25</v>
       </c>
     </row>
     <row r="33" spans="19:22" x14ac:dyDescent="0.45">
@@ -17406,7 +18670,7 @@
         <v>31</v>
       </c>
       <c r="T33">
-        <v>0.15625</v>
+        <v>0.203125</v>
       </c>
       <c r="U33">
         <f t="shared" si="0"/>
@@ -17414,7 +18678,7 @@
       </c>
       <c r="V33">
         <f t="shared" si="1"/>
-        <v>84.375</v>
+        <v>79.6875</v>
       </c>
     </row>
     <row r="34" spans="19:22" x14ac:dyDescent="0.45">
@@ -17422,7 +18686,7 @@
         <v>32</v>
       </c>
       <c r="T34">
-        <v>0.140625</v>
+        <v>0.15625</v>
       </c>
       <c r="U34">
         <f t="shared" si="0"/>
@@ -17430,7 +18694,7 @@
       </c>
       <c r="V34">
         <f t="shared" si="1"/>
-        <v>85.9375</v>
+        <v>84.375</v>
       </c>
     </row>
     <row r="35" spans="19:22" x14ac:dyDescent="0.45">
@@ -17454,7 +18718,7 @@
         <v>34</v>
       </c>
       <c r="T36">
-        <v>0.125</v>
+        <v>0.25</v>
       </c>
       <c r="U36">
         <f t="shared" si="0"/>
@@ -17462,7 +18726,7 @@
       </c>
       <c r="V36">
         <f t="shared" si="1"/>
-        <v>87.5</v>
+        <v>75</v>
       </c>
     </row>
     <row r="37" spans="19:22" x14ac:dyDescent="0.45">
@@ -17486,7 +18750,7 @@
         <v>36</v>
       </c>
       <c r="T38">
-        <v>0.203125</v>
+        <v>0.1875</v>
       </c>
       <c r="U38">
         <f t="shared" si="0"/>
@@ -17494,7 +18758,7 @@
       </c>
       <c r="V38">
         <f t="shared" si="1"/>
-        <v>79.6875</v>
+        <v>81.25</v>
       </c>
     </row>
     <row r="39" spans="19:22" x14ac:dyDescent="0.45">
@@ -17502,7 +18766,7 @@
         <v>37</v>
       </c>
       <c r="T39">
-        <v>0.171875</v>
+        <v>0.234375</v>
       </c>
       <c r="U39">
         <f t="shared" si="0"/>
@@ -17510,7 +18774,7 @@
       </c>
       <c r="V39">
         <f t="shared" si="1"/>
-        <v>82.8125</v>
+        <v>76.5625</v>
       </c>
     </row>
     <row r="40" spans="19:22" x14ac:dyDescent="0.45">
@@ -17518,7 +18782,7 @@
         <v>38</v>
       </c>
       <c r="T40">
-        <v>0.125</v>
+        <v>0.1875</v>
       </c>
       <c r="U40">
         <f t="shared" si="0"/>
@@ -17526,7 +18790,7 @@
       </c>
       <c r="V40">
         <f t="shared" si="1"/>
-        <v>87.5</v>
+        <v>81.25</v>
       </c>
     </row>
     <row r="41" spans="19:22" x14ac:dyDescent="0.45">
@@ -17534,7 +18798,7 @@
         <v>39</v>
       </c>
       <c r="T41">
-        <v>0.15625</v>
+        <v>0.21875</v>
       </c>
       <c r="U41">
         <f t="shared" si="0"/>
@@ -17542,7 +18806,7 @@
       </c>
       <c r="V41">
         <f t="shared" si="1"/>
-        <v>84.375</v>
+        <v>78.125</v>
       </c>
     </row>
     <row r="42" spans="19:22" x14ac:dyDescent="0.45">
@@ -17550,7 +18814,7 @@
         <v>40</v>
       </c>
       <c r="T42">
-        <v>0.140625</v>
+        <v>0.203125</v>
       </c>
       <c r="U42">
         <f t="shared" si="0"/>
@@ -17558,7 +18822,7 @@
       </c>
       <c r="V42">
         <f t="shared" si="1"/>
-        <v>85.9375</v>
+        <v>79.6875</v>
       </c>
     </row>
     <row r="43" spans="19:22" x14ac:dyDescent="0.45">
@@ -17566,7 +18830,7 @@
         <v>41</v>
       </c>
       <c r="T43">
-        <v>0.171875</v>
+        <v>0.15625</v>
       </c>
       <c r="U43">
         <f t="shared" si="0"/>
@@ -17574,7 +18838,7 @@
       </c>
       <c r="V43">
         <f t="shared" si="1"/>
-        <v>82.8125</v>
+        <v>84.375</v>
       </c>
     </row>
     <row r="44" spans="19:22" x14ac:dyDescent="0.45">
@@ -17582,7 +18846,7 @@
         <v>42</v>
       </c>
       <c r="T44">
-        <v>0.171875</v>
+        <v>0.140625</v>
       </c>
       <c r="U44">
         <f t="shared" si="0"/>
@@ -17590,7 +18854,7 @@
       </c>
       <c r="V44">
         <f t="shared" si="1"/>
-        <v>82.8125</v>
+        <v>85.9375</v>
       </c>
     </row>
     <row r="45" spans="19:22" x14ac:dyDescent="0.45">
@@ -17598,7 +18862,7 @@
         <v>43</v>
       </c>
       <c r="T45">
-        <v>0.15625</v>
+        <v>0.140625</v>
       </c>
       <c r="U45">
         <f t="shared" si="0"/>
@@ -17606,7 +18870,7 @@
       </c>
       <c r="V45">
         <f t="shared" si="1"/>
-        <v>84.375</v>
+        <v>85.9375</v>
       </c>
     </row>
     <row r="46" spans="19:22" x14ac:dyDescent="0.45">
@@ -17614,7 +18878,7 @@
         <v>44</v>
       </c>
       <c r="T46">
-        <v>0.140625</v>
+        <v>0.125</v>
       </c>
       <c r="U46">
         <f t="shared" si="0"/>
@@ -17622,7 +18886,7 @@
       </c>
       <c r="V46">
         <f t="shared" si="1"/>
-        <v>85.9375</v>
+        <v>87.5</v>
       </c>
     </row>
     <row r="47" spans="19:22" x14ac:dyDescent="0.45">
@@ -17630,7 +18894,7 @@
         <v>45</v>
       </c>
       <c r="T47">
-        <v>0.171875</v>
+        <v>0.125</v>
       </c>
       <c r="U47">
         <f t="shared" si="0"/>
@@ -17638,7 +18902,7 @@
       </c>
       <c r="V47">
         <f t="shared" si="1"/>
-        <v>82.8125</v>
+        <v>87.5</v>
       </c>
     </row>
     <row r="48" spans="19:22" x14ac:dyDescent="0.45">
@@ -17646,7 +18910,7 @@
         <v>46</v>
       </c>
       <c r="T48">
-        <v>0.171875</v>
+        <v>0.21875</v>
       </c>
       <c r="U48">
         <f t="shared" si="0"/>
@@ -17654,7 +18918,7 @@
       </c>
       <c r="V48">
         <f t="shared" si="1"/>
-        <v>82.8125</v>
+        <v>78.125</v>
       </c>
     </row>
     <row r="49" spans="19:22" x14ac:dyDescent="0.45">
@@ -17662,7 +18926,7 @@
         <v>47</v>
       </c>
       <c r="T49">
-        <v>0.1875</v>
+        <v>0.140625</v>
       </c>
       <c r="U49">
         <f t="shared" si="0"/>
@@ -17670,7 +18934,7 @@
       </c>
       <c r="V49">
         <f t="shared" si="1"/>
-        <v>81.25</v>
+        <v>85.9375</v>
       </c>
     </row>
     <row r="50" spans="19:22" x14ac:dyDescent="0.45">
@@ -17694,7 +18958,7 @@
         <v>49</v>
       </c>
       <c r="T51">
-        <v>0.1875</v>
+        <v>0.109375</v>
       </c>
       <c r="U51">
         <f t="shared" si="0"/>
@@ -17702,7 +18966,7 @@
       </c>
       <c r="V51">
         <f t="shared" si="1"/>
-        <v>81.25</v>
+        <v>89.0625</v>
       </c>
     </row>
     <row r="52" spans="19:22" x14ac:dyDescent="0.45">
@@ -17710,7 +18974,7 @@
         <v>50</v>
       </c>
       <c r="T52">
-        <v>0.109375</v>
+        <v>0.203125</v>
       </c>
       <c r="U52">
         <f t="shared" si="0"/>
@@ -17718,7 +18982,7 @@
       </c>
       <c r="V52">
         <f t="shared" si="1"/>
-        <v>89.0625</v>
+        <v>79.6875</v>
       </c>
     </row>
     <row r="53" spans="19:22" x14ac:dyDescent="0.45">
@@ -17726,7 +18990,7 @@
         <v>51</v>
       </c>
       <c r="T53">
-        <v>0.140625</v>
+        <v>0.1875</v>
       </c>
       <c r="U53">
         <f t="shared" si="0"/>
@@ -17734,7 +18998,7 @@
       </c>
       <c r="V53">
         <f t="shared" si="1"/>
-        <v>85.9375</v>
+        <v>81.25</v>
       </c>
     </row>
     <row r="54" spans="19:22" x14ac:dyDescent="0.45">
@@ -17742,7 +19006,7 @@
         <v>52</v>
       </c>
       <c r="T54">
-        <v>0.125</v>
+        <v>0.171875</v>
       </c>
       <c r="U54">
         <f t="shared" si="0"/>
@@ -17750,7 +19014,7 @@
       </c>
       <c r="V54">
         <f t="shared" si="1"/>
-        <v>87.5</v>
+        <v>82.8125</v>
       </c>
     </row>
     <row r="55" spans="19:22" x14ac:dyDescent="0.45">
@@ -17758,7 +19022,7 @@
         <v>53</v>
       </c>
       <c r="T55">
-        <v>0.203125</v>
+        <v>0.140625</v>
       </c>
       <c r="U55">
         <f t="shared" si="0"/>
@@ -17766,7 +19030,7 @@
       </c>
       <c r="V55">
         <f t="shared" si="1"/>
-        <v>79.6875</v>
+        <v>85.9375</v>
       </c>
     </row>
     <row r="56" spans="19:22" x14ac:dyDescent="0.45">
@@ -17774,7 +19038,7 @@
         <v>54</v>
       </c>
       <c r="T56">
-        <v>0.125</v>
+        <v>9.375E-2</v>
       </c>
       <c r="U56">
         <f t="shared" si="0"/>
@@ -17782,7 +19046,7 @@
       </c>
       <c r="V56">
         <f t="shared" si="1"/>
-        <v>87.5</v>
+        <v>90.625</v>
       </c>
     </row>
     <row r="57" spans="19:22" x14ac:dyDescent="0.45">
@@ -17806,7 +19070,7 @@
         <v>56</v>
       </c>
       <c r="T58">
-        <v>0.15625</v>
+        <v>0.125</v>
       </c>
       <c r="U58">
         <f t="shared" si="0"/>
@@ -17814,7 +19078,7 @@
       </c>
       <c r="V58">
         <f t="shared" si="1"/>
-        <v>84.375</v>
+        <v>87.5</v>
       </c>
     </row>
     <row r="59" spans="19:22" x14ac:dyDescent="0.45">
@@ -17822,7 +19086,7 @@
         <v>57</v>
       </c>
       <c r="T59">
-        <v>0.140625</v>
+        <v>0.15625</v>
       </c>
       <c r="U59">
         <f t="shared" si="0"/>
@@ -17830,7 +19094,7 @@
       </c>
       <c r="V59">
         <f t="shared" si="1"/>
-        <v>85.9375</v>
+        <v>84.375</v>
       </c>
     </row>
     <row r="60" spans="19:22" x14ac:dyDescent="0.45">
@@ -17854,7 +19118,7 @@
         <v>59</v>
       </c>
       <c r="T61">
-        <v>9.375E-2</v>
+        <v>0.15625</v>
       </c>
       <c r="U61">
         <f t="shared" si="0"/>
@@ -17862,7 +19126,7 @@
       </c>
       <c r="V61">
         <f t="shared" si="1"/>
-        <v>90.625</v>
+        <v>84.375</v>
       </c>
     </row>
     <row r="62" spans="19:22" x14ac:dyDescent="0.45">
@@ -17870,7 +19134,7 @@
         <v>60</v>
       </c>
       <c r="T62">
-        <v>0.171875</v>
+        <v>0.15625</v>
       </c>
       <c r="U62">
         <f t="shared" si="0"/>
@@ -17878,7 +19142,7 @@
       </c>
       <c r="V62">
         <f t="shared" si="1"/>
-        <v>82.8125</v>
+        <v>84.375</v>
       </c>
     </row>
     <row r="63" spans="19:22" x14ac:dyDescent="0.45">
@@ -17886,7 +19150,7 @@
         <v>61</v>
       </c>
       <c r="T63">
-        <v>0.109375</v>
+        <v>0.125</v>
       </c>
       <c r="U63">
         <f t="shared" si="0"/>
@@ -17894,7 +19158,7 @@
       </c>
       <c r="V63">
         <f t="shared" si="1"/>
-        <v>89.0625</v>
+        <v>87.5</v>
       </c>
     </row>
     <row r="64" spans="19:22" x14ac:dyDescent="0.45">
@@ -17902,7 +19166,7 @@
         <v>62</v>
       </c>
       <c r="T64">
-        <v>0.109375</v>
+        <v>0.171875</v>
       </c>
       <c r="U64">
         <f t="shared" si="0"/>
@@ -17910,7 +19174,7 @@
       </c>
       <c r="V64">
         <f t="shared" si="1"/>
-        <v>89.0625</v>
+        <v>82.8125</v>
       </c>
     </row>
     <row r="65" spans="19:22" x14ac:dyDescent="0.45">
@@ -17918,7 +19182,7 @@
         <v>63</v>
       </c>
       <c r="T65">
-        <v>9.375E-2</v>
+        <v>0.140625</v>
       </c>
       <c r="U65">
         <f t="shared" si="0"/>
@@ -17926,7 +19190,7 @@
       </c>
       <c r="V65">
         <f t="shared" si="1"/>
-        <v>90.625</v>
+        <v>85.9375</v>
       </c>
     </row>
     <row r="66" spans="19:22" x14ac:dyDescent="0.45">
@@ -17934,7 +19198,7 @@
         <v>64</v>
       </c>
       <c r="T66">
-        <v>0.109375</v>
+        <v>0.140625</v>
       </c>
       <c r="U66">
         <f t="shared" si="0"/>
@@ -17942,7 +19206,7 @@
       </c>
       <c r="V66">
         <f t="shared" si="1"/>
-        <v>89.0625</v>
+        <v>85.9375</v>
       </c>
     </row>
     <row r="67" spans="19:22" x14ac:dyDescent="0.45">
@@ -17966,7 +19230,7 @@
         <v>66</v>
       </c>
       <c r="T68">
-        <v>0.125</v>
+        <v>0.109375</v>
       </c>
       <c r="U68">
         <f t="shared" si="2"/>
@@ -17974,7 +19238,7 @@
       </c>
       <c r="V68">
         <f t="shared" si="3"/>
-        <v>87.5</v>
+        <v>89.0625</v>
       </c>
     </row>
     <row r="69" spans="19:22" x14ac:dyDescent="0.45">
@@ -17982,7 +19246,7 @@
         <v>67</v>
       </c>
       <c r="T69">
-        <v>0.125</v>
+        <v>0.140625</v>
       </c>
       <c r="U69">
         <f t="shared" si="2"/>
@@ -17990,7 +19254,7 @@
       </c>
       <c r="V69">
         <f t="shared" si="3"/>
-        <v>87.5</v>
+        <v>85.9375</v>
       </c>
     </row>
     <row r="70" spans="19:22" x14ac:dyDescent="0.45">
@@ -17998,7 +19262,7 @@
         <v>68</v>
       </c>
       <c r="T70">
-        <v>0.140625</v>
+        <v>9.375E-2</v>
       </c>
       <c r="U70">
         <f t="shared" si="2"/>
@@ -18006,7 +19270,7 @@
       </c>
       <c r="V70">
         <f t="shared" si="3"/>
-        <v>85.9375</v>
+        <v>90.625</v>
       </c>
     </row>
     <row r="71" spans="19:22" x14ac:dyDescent="0.45">
@@ -18030,7 +19294,7 @@
         <v>70</v>
       </c>
       <c r="T72">
-        <v>0.203125</v>
+        <v>7.8125E-2</v>
       </c>
       <c r="U72">
         <f t="shared" si="2"/>
@@ -18038,7 +19302,7 @@
       </c>
       <c r="V72">
         <f t="shared" si="3"/>
-        <v>79.6875</v>
+        <v>92.1875</v>
       </c>
     </row>
     <row r="73" spans="19:22" x14ac:dyDescent="0.45">
@@ -18046,7 +19310,7 @@
         <v>71</v>
       </c>
       <c r="T73">
-        <v>0.15625</v>
+        <v>0.140625</v>
       </c>
       <c r="U73">
         <f t="shared" si="2"/>
@@ -18054,7 +19318,7 @@
       </c>
       <c r="V73">
         <f t="shared" si="3"/>
-        <v>84.375</v>
+        <v>85.9375</v>
       </c>
     </row>
     <row r="74" spans="19:22" x14ac:dyDescent="0.45">
@@ -18062,7 +19326,7 @@
         <v>72</v>
       </c>
       <c r="T74">
-        <v>0.109375</v>
+        <v>7.8125E-2</v>
       </c>
       <c r="U74">
         <f t="shared" si="2"/>
@@ -18070,7 +19334,7 @@
       </c>
       <c r="V74">
         <f t="shared" si="3"/>
-        <v>89.0625</v>
+        <v>92.1875</v>
       </c>
     </row>
     <row r="75" spans="19:22" x14ac:dyDescent="0.45">
@@ -18078,7 +19342,7 @@
         <v>73</v>
       </c>
       <c r="T75">
-        <v>7.8125E-2</v>
+        <v>0.109375</v>
       </c>
       <c r="U75">
         <f t="shared" si="2"/>
@@ -18086,7 +19350,7 @@
       </c>
       <c r="V75">
         <f t="shared" si="3"/>
-        <v>92.1875</v>
+        <v>89.0625</v>
       </c>
     </row>
     <row r="76" spans="19:22" x14ac:dyDescent="0.45">
@@ -18094,7 +19358,7 @@
         <v>74</v>
       </c>
       <c r="T76">
-        <v>7.8125E-2</v>
+        <v>0.15625</v>
       </c>
       <c r="U76">
         <f t="shared" si="2"/>
@@ -18102,7 +19366,7 @@
       </c>
       <c r="V76">
         <f t="shared" si="3"/>
-        <v>92.1875</v>
+        <v>84.375</v>
       </c>
     </row>
     <row r="77" spans="19:22" x14ac:dyDescent="0.45">
@@ -18110,7 +19374,7 @@
         <v>75</v>
       </c>
       <c r="T77">
-        <v>9.375E-2</v>
+        <v>7.8125E-2</v>
       </c>
       <c r="U77">
         <f t="shared" si="2"/>
@@ -18118,7 +19382,7 @@
       </c>
       <c r="V77">
         <f t="shared" si="3"/>
-        <v>90.625</v>
+        <v>92.1875</v>
       </c>
     </row>
     <row r="78" spans="19:22" x14ac:dyDescent="0.45">
@@ -18126,7 +19390,7 @@
         <v>76</v>
       </c>
       <c r="T78">
-        <v>7.8125E-2</v>
+        <v>0.109375</v>
       </c>
       <c r="U78">
         <f t="shared" si="2"/>
@@ -18134,7 +19398,7 @@
       </c>
       <c r="V78">
         <f t="shared" si="3"/>
-        <v>92.1875</v>
+        <v>89.0625</v>
       </c>
     </row>
     <row r="79" spans="19:22" x14ac:dyDescent="0.45">
@@ -18158,7 +19422,7 @@
         <v>78</v>
       </c>
       <c r="T80">
-        <v>7.8125E-2</v>
+        <v>9.375E-2</v>
       </c>
       <c r="U80">
         <f t="shared" si="2"/>
@@ -18166,7 +19430,7 @@
       </c>
       <c r="V80">
         <f t="shared" si="3"/>
-        <v>92.1875</v>
+        <v>90.625</v>
       </c>
     </row>
     <row r="81" spans="19:22" x14ac:dyDescent="0.45">
@@ -18174,7 +19438,7 @@
         <v>79</v>
       </c>
       <c r="T81">
-        <v>9.375E-2</v>
+        <v>0.109375</v>
       </c>
       <c r="U81">
         <f t="shared" si="2"/>
@@ -18182,7 +19446,7 @@
       </c>
       <c r="V81">
         <f t="shared" si="3"/>
-        <v>90.625</v>
+        <v>89.0625</v>
       </c>
     </row>
     <row r="82" spans="19:22" x14ac:dyDescent="0.45">
@@ -18190,7 +19454,7 @@
         <v>80</v>
       </c>
       <c r="T82">
-        <v>0.125</v>
+        <v>9.375E-2</v>
       </c>
       <c r="U82">
         <f t="shared" si="2"/>
@@ -18198,7 +19462,7 @@
       </c>
       <c r="V82">
         <f t="shared" si="3"/>
-        <v>87.5</v>
+        <v>90.625</v>
       </c>
     </row>
     <row r="83" spans="19:22" x14ac:dyDescent="0.45">
@@ -18206,7 +19470,7 @@
         <v>81</v>
       </c>
       <c r="T83">
-        <v>0.125</v>
+        <v>0.109375</v>
       </c>
       <c r="U83">
         <f t="shared" si="2"/>
@@ -18214,7 +19478,7 @@
       </c>
       <c r="V83">
         <f t="shared" si="3"/>
-        <v>87.5</v>
+        <v>89.0625</v>
       </c>
     </row>
     <row r="84" spans="19:22" x14ac:dyDescent="0.45">
@@ -18238,7 +19502,7 @@
         <v>83</v>
       </c>
       <c r="T85">
-        <v>9.375E-2</v>
+        <v>0.125</v>
       </c>
       <c r="U85">
         <f t="shared" si="2"/>
@@ -18246,7 +19510,7 @@
       </c>
       <c r="V85">
         <f t="shared" si="3"/>
-        <v>90.625</v>
+        <v>87.5</v>
       </c>
     </row>
     <row r="86" spans="19:22" x14ac:dyDescent="0.45">
@@ -18254,7 +19518,7 @@
         <v>84</v>
       </c>
       <c r="T86">
-        <v>0.125</v>
+        <v>7.8125E-2</v>
       </c>
       <c r="U86">
         <f t="shared" si="2"/>
@@ -18262,7 +19526,7 @@
       </c>
       <c r="V86">
         <f t="shared" si="3"/>
-        <v>87.5</v>
+        <v>92.1875</v>
       </c>
     </row>
     <row r="87" spans="19:22" x14ac:dyDescent="0.45">
@@ -18270,7 +19534,7 @@
         <v>85</v>
       </c>
       <c r="T87">
-        <v>0.15625</v>
+        <v>0.109375</v>
       </c>
       <c r="U87">
         <f t="shared" si="2"/>
@@ -18278,7 +19542,7 @@
       </c>
       <c r="V87">
         <f t="shared" si="3"/>
-        <v>84.375</v>
+        <v>89.0625</v>
       </c>
     </row>
     <row r="88" spans="19:22" x14ac:dyDescent="0.45">
@@ -18286,7 +19550,7 @@
         <v>86</v>
       </c>
       <c r="T88">
-        <v>0.125</v>
+        <v>7.8125E-2</v>
       </c>
       <c r="U88">
         <f t="shared" si="2"/>
@@ -18294,7 +19558,7 @@
       </c>
       <c r="V88">
         <f t="shared" si="3"/>
-        <v>87.5</v>
+        <v>92.1875</v>
       </c>
     </row>
     <row r="89" spans="19:22" x14ac:dyDescent="0.45">
@@ -18302,7 +19566,7 @@
         <v>87</v>
       </c>
       <c r="T89">
-        <v>9.375E-2</v>
+        <v>0.109375</v>
       </c>
       <c r="U89">
         <f t="shared" si="2"/>
@@ -18310,7 +19574,7 @@
       </c>
       <c r="V89">
         <f t="shared" si="3"/>
-        <v>90.625</v>
+        <v>89.0625</v>
       </c>
     </row>
     <row r="90" spans="19:22" x14ac:dyDescent="0.45">
@@ -18318,7 +19582,7 @@
         <v>88</v>
       </c>
       <c r="T90">
-        <v>9.375E-2</v>
+        <v>7.8125E-2</v>
       </c>
       <c r="U90">
         <f t="shared" si="2"/>
@@ -18326,7 +19590,7 @@
       </c>
       <c r="V90">
         <f t="shared" si="3"/>
-        <v>90.625</v>
+        <v>92.1875</v>
       </c>
     </row>
     <row r="91" spans="19:22" x14ac:dyDescent="0.45">
@@ -18334,7 +19598,7 @@
         <v>89</v>
       </c>
       <c r="T91">
-        <v>0.109375</v>
+        <v>9.375E-2</v>
       </c>
       <c r="U91">
         <f t="shared" si="2"/>
@@ -18342,7 +19606,7 @@
       </c>
       <c r="V91">
         <f t="shared" si="3"/>
-        <v>89.0625</v>
+        <v>90.625</v>
       </c>
     </row>
     <row r="92" spans="19:22" x14ac:dyDescent="0.45">
@@ -18350,7 +19614,7 @@
         <v>90</v>
       </c>
       <c r="T92">
-        <v>0.109375</v>
+        <v>7.8125E-2</v>
       </c>
       <c r="U92">
         <f t="shared" si="2"/>
@@ -18358,7 +19622,7 @@
       </c>
       <c r="V92">
         <f t="shared" si="3"/>
-        <v>89.0625</v>
+        <v>92.1875</v>
       </c>
     </row>
     <row r="93" spans="19:22" x14ac:dyDescent="0.45">
@@ -18366,7 +19630,7 @@
         <v>91</v>
       </c>
       <c r="T93">
-        <v>0.125</v>
+        <v>9.375E-2</v>
       </c>
       <c r="U93">
         <f t="shared" si="2"/>
@@ -18374,7 +19638,7 @@
       </c>
       <c r="V93">
         <f t="shared" si="3"/>
-        <v>87.5</v>
+        <v>90.625</v>
       </c>
     </row>
     <row r="94" spans="19:22" x14ac:dyDescent="0.45">
@@ -18382,7 +19646,7 @@
         <v>92</v>
       </c>
       <c r="T94">
-        <v>0.125</v>
+        <v>9.375E-2</v>
       </c>
       <c r="U94">
         <f t="shared" si="2"/>
@@ -18390,7 +19654,7 @@
       </c>
       <c r="V94">
         <f t="shared" si="3"/>
-        <v>87.5</v>
+        <v>90.625</v>
       </c>
     </row>
     <row r="95" spans="19:22" x14ac:dyDescent="0.45">
@@ -18398,7 +19662,7 @@
         <v>93</v>
       </c>
       <c r="T95">
-        <v>0.125</v>
+        <v>7.8125E-2</v>
       </c>
       <c r="U95">
         <f t="shared" si="2"/>
@@ -18406,7 +19670,7 @@
       </c>
       <c r="V95">
         <f t="shared" si="3"/>
-        <v>87.5</v>
+        <v>92.1875</v>
       </c>
     </row>
     <row r="96" spans="19:22" x14ac:dyDescent="0.45">
@@ -18414,7 +19678,7 @@
         <v>94</v>
       </c>
       <c r="T96">
-        <v>0.125</v>
+        <v>7.8125E-2</v>
       </c>
       <c r="U96">
         <f t="shared" si="2"/>
@@ -18422,7 +19686,7 @@
       </c>
       <c r="V96">
         <f t="shared" si="3"/>
-        <v>87.5</v>
+        <v>92.1875</v>
       </c>
     </row>
     <row r="97" spans="19:22" x14ac:dyDescent="0.45">
@@ -18430,7 +19694,7 @@
         <v>95</v>
       </c>
       <c r="T97">
-        <v>0.109375</v>
+        <v>9.375E-2</v>
       </c>
       <c r="U97">
         <f t="shared" si="2"/>
@@ -18438,7 +19702,7 @@
       </c>
       <c r="V97">
         <f t="shared" si="3"/>
-        <v>89.0625</v>
+        <v>90.625</v>
       </c>
     </row>
     <row r="98" spans="19:22" x14ac:dyDescent="0.45">
@@ -18446,7 +19710,7 @@
         <v>96</v>
       </c>
       <c r="T98">
-        <v>0.109375</v>
+        <v>9.375E-2</v>
       </c>
       <c r="U98">
         <f t="shared" si="2"/>
@@ -18454,7 +19718,7 @@
       </c>
       <c r="V98">
         <f t="shared" si="3"/>
-        <v>89.0625</v>
+        <v>90.625</v>
       </c>
     </row>
     <row r="99" spans="19:22" x14ac:dyDescent="0.45">
@@ -18462,7 +19726,7 @@
         <v>97</v>
       </c>
       <c r="T99">
-        <v>0.109375</v>
+        <v>9.375E-2</v>
       </c>
       <c r="U99">
         <f t="shared" si="2"/>
@@ -18470,7 +19734,7 @@
       </c>
       <c r="V99">
         <f t="shared" si="3"/>
-        <v>89.0625</v>
+        <v>90.625</v>
       </c>
     </row>
     <row r="100" spans="19:22" x14ac:dyDescent="0.45">
@@ -18478,7 +19742,7 @@
         <v>98</v>
       </c>
       <c r="T100">
-        <v>0.109375</v>
+        <v>9.375E-2</v>
       </c>
       <c r="U100">
         <f t="shared" si="2"/>
@@ -18486,7 +19750,7 @@
       </c>
       <c r="V100">
         <f t="shared" si="3"/>
-        <v>89.0625</v>
+        <v>90.625</v>
       </c>
     </row>
     <row r="101" spans="19:22" x14ac:dyDescent="0.45">
@@ -18494,7 +19758,7 @@
         <v>99</v>
       </c>
       <c r="T101">
-        <v>0.125</v>
+        <v>9.375E-2</v>
       </c>
       <c r="U101">
         <f t="shared" si="2"/>
@@ -18502,7 +19766,7 @@
       </c>
       <c r="V101">
         <f t="shared" si="3"/>
-        <v>87.5</v>
+        <v>90.625</v>
       </c>
     </row>
     <row r="102" spans="19:22" x14ac:dyDescent="0.45">
@@ -18921,6 +20185,7 @@
     <mergeCell ref="A20:C20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/LJ+UA Experiments.xlsx
+++ b/LJ+UA Experiments.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dhvan\Documents\GitHub\P4P-Transformer-ASR-for-Dysarthric-Speech\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCBB94A9-0CFB-463B-BC8B-321F5A5E2B0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B09CA099-435A-4AFD-9D80-5826EC536EDA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2363" yWindow="1950" windowWidth="15390" windowHeight="9443" activeTab="5" xr2:uid="{75EE08EB-D9DA-45E6-8F41-68FBAE46F917}"/>
+    <workbookView xWindow="2737" yWindow="1170" windowWidth="15391" windowHeight="9442" activeTab="7" xr2:uid="{75EE08EB-D9DA-45E6-8F41-68FBAE46F917}"/>
   </bookViews>
   <sheets>
     <sheet name="E1" sheetId="1" r:id="rId1"/>
@@ -19,6 +19,8 @@
     <sheet name="E123" sheetId="4" r:id="rId4"/>
     <sheet name="E1234" sheetId="5" r:id="rId5"/>
     <sheet name="E12345" sheetId="6" r:id="rId6"/>
+    <sheet name="E12345_2.0" sheetId="7" r:id="rId7"/>
+    <sheet name="E1234_2.0" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -41,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="18">
   <si>
     <r>
       <rPr>
@@ -353,6 +355,117 @@
       <t>87% (0% increase)</t>
     </r>
   </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Base model: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>LJ Speech 200 epochs 2.0, WER 88%</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Model Name:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> LJ200_2.0_UAControl_FreezeE12345.h5 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Accuracy:88</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>% (1% increase)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Model Name:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> LJ200_UAControl_FreezeE1234.h5 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Accuracy:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>% (% increase)</t>
+    </r>
+  </si>
 </sst>
 </file>
 
@@ -3886,6 +3999,584 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'E12345_2.0'!$V$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Accuracy</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'E12345_2.0'!$V$2:$V$152</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="151"/>
+                <c:pt idx="0">
+                  <c:v>-3.125</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.5625</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20.3125</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>45.3125</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>60.9375</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>67.1875</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>67.1875</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>65.625</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>73.4375</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>70.3125</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>81.25</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>73.4375</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>68.75</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>76.5625</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>76.5625</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>81.25</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>76.5625</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>76.5625</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>87.5</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>84.375</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>76.5625</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>81.25</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>81.25</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>82.8125</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>82.8125</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>84.375</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>85.9375</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>85.9375</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>76.5625</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>85.9375</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>84.375</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>85.9375</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>81.25</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>87.5</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>85.9375</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>85.9375</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>82.8125</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>81.25</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>90.625</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>84.375</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>82.8125</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>89.0625</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>87.5</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>84.375</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>82.8125</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>90.625</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>89.0625</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>81.25</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>89.0625</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>85.9375</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>92.1875</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>92.1875</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>82.8125</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>82.8125</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>87.5</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>89.0625</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>82.8125</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>85.9375</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>85.9375</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>85.9375</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>85.9375</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>84.375</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>89.0625</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>89.0625</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>87.5</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>89.0625</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>87.5</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>89.0625</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>90.625</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>87.5</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>85.9375</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>92.1875</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>89.0625</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>90.625</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>87.5</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>89.0625</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>87.5</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>85.9375</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>87.5</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>84.375</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>89.0625</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>87.5</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>85.9375</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>84.375</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>84.375</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>84.375</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>90.625</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>92.1875</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>89.0625</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>89.0625</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>90.625</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>90.625</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>90.625</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>90.625</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>89.0625</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>89.0625</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>89.0625</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>89.0625</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>89.0625</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-8B05-4854-958F-BBA4400453FA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1616515503"/>
+        <c:axId val="1616516751"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1616515503"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1616516751"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1616516751"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1616515503"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -4087,6 +4778,46 @@
 </file>
 
 <file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -7222,6 +7953,522 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
@@ -8290,6 +9537,276 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>65539</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>14072</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>104863</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{361D6DB8-41F9-47DA-929C-FC14A44565FB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:srcRect l="-331" t="38919" r="61637" b="11975"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1" y="608464"/>
+          <a:ext cx="3252571" cy="2753949"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>14341</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>52388</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{831A6391-C59D-40B5-91B3-16E617143877}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1" y="3619501"/>
+          <a:ext cx="3252840" cy="2586037"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>454455</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>65222</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>506116</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>144651</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8E539126-2C2A-6D4D-761A-BB6CB9CA33DE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>104937</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>169513</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>419746</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>163458</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{966482EB-B836-6A73-9A55-8602BE701EC9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5916801" y="524682"/>
+          <a:ext cx="3543623" cy="2657717"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>65539</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>14072</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>104863</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{646C95D0-4E1B-4190-AB80-41B15613E56D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:srcRect l="-331" t="38919" r="61637" b="11975"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1" y="608464"/>
+          <a:ext cx="3252571" cy="2753949"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>49082</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BA7242A4-2F69-4F5F-91E6-C1E18A591B88}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="3619500"/>
+          <a:ext cx="3287582" cy="2686050"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -16052,8 +17569,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55D9FD51-27E4-4AE4-A4A7-D84888DA39D7}">
   <dimension ref="A1:V152"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" zoomScale="56" workbookViewId="0">
-      <selection activeCell="P50" sqref="A1:XFD1048576"/>
+    <sheetView zoomScale="56" workbookViewId="0">
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -18123,8 +19640,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8B10FD8-A75A-4111-83B6-C97E054DB4B6}">
   <dimension ref="A1:V152"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="43" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="P59" sqref="P59"/>
+    <sheetView zoomScale="43" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H30" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -20188,4 +21705,3328 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9B58C57-A1ED-47AB-A642-5769B437C0CF}">
+  <dimension ref="A1:V101"/>
+  <sheetViews>
+    <sheetView zoomScale="59" workbookViewId="0">
+      <selection activeCell="I4" sqref="I4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetData>
+    <row r="1" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="A1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
+      <c r="S1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="S2">
+        <v>0</v>
+      </c>
+      <c r="T2">
+        <v>1.03125</v>
+      </c>
+      <c r="U2">
+        <f xml:space="preserve"> 1+S2</f>
+        <v>1</v>
+      </c>
+      <c r="V2">
+        <f xml:space="preserve"> (1-T2)*100</f>
+        <v>-3.125</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="A3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="S3">
+        <v>1</v>
+      </c>
+      <c r="T3">
+        <v>0.984375</v>
+      </c>
+      <c r="U3">
+        <f t="shared" ref="U3:U66" si="0" xml:space="preserve"> 1+S3</f>
+        <v>2</v>
+      </c>
+      <c r="V3">
+        <f t="shared" ref="V3:V66" si="1" xml:space="preserve"> (1-T3)*100</f>
+        <v>1.5625</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="S4">
+        <v>2</v>
+      </c>
+      <c r="T4">
+        <v>0.796875</v>
+      </c>
+      <c r="U4">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="V4">
+        <f t="shared" si="1"/>
+        <v>20.3125</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="S5">
+        <v>3</v>
+      </c>
+      <c r="T5">
+        <v>0.546875</v>
+      </c>
+      <c r="U5">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="V5">
+        <f t="shared" si="1"/>
+        <v>45.3125</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="S6">
+        <v>4</v>
+      </c>
+      <c r="T6">
+        <v>0.390625</v>
+      </c>
+      <c r="U6">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="V6">
+        <f t="shared" si="1"/>
+        <v>60.9375</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="S7">
+        <v>5</v>
+      </c>
+      <c r="T7">
+        <v>0.328125</v>
+      </c>
+      <c r="U7">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="V7">
+        <f t="shared" si="1"/>
+        <v>67.1875</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="S8">
+        <v>6</v>
+      </c>
+      <c r="T8">
+        <v>0.328125</v>
+      </c>
+      <c r="U8">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="V8">
+        <f t="shared" si="1"/>
+        <v>67.1875</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="S9">
+        <v>7</v>
+      </c>
+      <c r="T9">
+        <v>0.34375</v>
+      </c>
+      <c r="U9">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="V9">
+        <f t="shared" si="1"/>
+        <v>65.625</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="S10">
+        <v>8</v>
+      </c>
+      <c r="T10">
+        <v>0.265625</v>
+      </c>
+      <c r="U10">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="V10">
+        <f t="shared" si="1"/>
+        <v>73.4375</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="S11">
+        <v>9</v>
+      </c>
+      <c r="T11">
+        <v>0.296875</v>
+      </c>
+      <c r="U11">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="V11">
+        <f t="shared" si="1"/>
+        <v>70.3125</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="S12">
+        <v>10</v>
+      </c>
+      <c r="T12">
+        <v>0.1875</v>
+      </c>
+      <c r="U12">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="V12">
+        <f t="shared" si="1"/>
+        <v>81.25</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="S13">
+        <v>11</v>
+      </c>
+      <c r="T13">
+        <v>0.265625</v>
+      </c>
+      <c r="U13">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="V13">
+        <f t="shared" si="1"/>
+        <v>73.4375</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="S14">
+        <v>12</v>
+      </c>
+      <c r="T14">
+        <v>0.3125</v>
+      </c>
+      <c r="U14">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="V14">
+        <f t="shared" si="1"/>
+        <v>68.75</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="S15">
+        <v>13</v>
+      </c>
+      <c r="T15">
+        <v>0.234375</v>
+      </c>
+      <c r="U15">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="V15">
+        <f t="shared" si="1"/>
+        <v>76.5625</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="S16">
+        <v>14</v>
+      </c>
+      <c r="T16">
+        <v>0.234375</v>
+      </c>
+      <c r="U16">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="V16">
+        <f t="shared" si="1"/>
+        <v>76.5625</v>
+      </c>
+    </row>
+    <row r="17" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="S17">
+        <v>15</v>
+      </c>
+      <c r="T17">
+        <v>0.1875</v>
+      </c>
+      <c r="U17">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="V17">
+        <f t="shared" si="1"/>
+        <v>81.25</v>
+      </c>
+    </row>
+    <row r="18" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="S18">
+        <v>16</v>
+      </c>
+      <c r="T18">
+        <v>0.234375</v>
+      </c>
+      <c r="U18">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="V18">
+        <f t="shared" si="1"/>
+        <v>76.5625</v>
+      </c>
+    </row>
+    <row r="19" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="S19">
+        <v>17</v>
+      </c>
+      <c r="T19">
+        <v>0.234375</v>
+      </c>
+      <c r="U19">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="V19">
+        <f t="shared" si="1"/>
+        <v>76.5625</v>
+      </c>
+    </row>
+    <row r="20" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="A20" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
+      <c r="S20">
+        <v>18</v>
+      </c>
+      <c r="T20">
+        <v>0.125</v>
+      </c>
+      <c r="U20">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="V20">
+        <f t="shared" si="1"/>
+        <v>87.5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="S21">
+        <v>19</v>
+      </c>
+      <c r="T21">
+        <v>0.15625</v>
+      </c>
+      <c r="U21">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="V21">
+        <f t="shared" si="1"/>
+        <v>84.375</v>
+      </c>
+    </row>
+    <row r="22" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="S22">
+        <v>20</v>
+      </c>
+      <c r="T22">
+        <v>0.234375</v>
+      </c>
+      <c r="U22">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="V22">
+        <f t="shared" si="1"/>
+        <v>76.5625</v>
+      </c>
+    </row>
+    <row r="23" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="S23">
+        <v>21</v>
+      </c>
+      <c r="T23">
+        <v>0.25</v>
+      </c>
+      <c r="U23">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="V23">
+        <f t="shared" si="1"/>
+        <v>75</v>
+      </c>
+    </row>
+    <row r="24" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="S24">
+        <v>22</v>
+      </c>
+      <c r="T24">
+        <v>0.1875</v>
+      </c>
+      <c r="U24">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="V24">
+        <f t="shared" si="1"/>
+        <v>81.25</v>
+      </c>
+    </row>
+    <row r="25" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="S25">
+        <v>23</v>
+      </c>
+      <c r="T25">
+        <v>0.1875</v>
+      </c>
+      <c r="U25">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="V25">
+        <f t="shared" si="1"/>
+        <v>81.25</v>
+      </c>
+    </row>
+    <row r="26" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="S26">
+        <v>24</v>
+      </c>
+      <c r="T26">
+        <v>0.171875</v>
+      </c>
+      <c r="U26">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="V26">
+        <f t="shared" si="1"/>
+        <v>82.8125</v>
+      </c>
+    </row>
+    <row r="27" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="S27">
+        <v>25</v>
+      </c>
+      <c r="T27">
+        <v>0.171875</v>
+      </c>
+      <c r="U27">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+      <c r="V27">
+        <f t="shared" si="1"/>
+        <v>82.8125</v>
+      </c>
+    </row>
+    <row r="28" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="S28">
+        <v>26</v>
+      </c>
+      <c r="T28">
+        <v>0.15625</v>
+      </c>
+      <c r="U28">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+      <c r="V28">
+        <f t="shared" si="1"/>
+        <v>84.375</v>
+      </c>
+    </row>
+    <row r="29" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="S29">
+        <v>27</v>
+      </c>
+      <c r="T29">
+        <v>0.140625</v>
+      </c>
+      <c r="U29">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+      <c r="V29">
+        <f t="shared" si="1"/>
+        <v>85.9375</v>
+      </c>
+    </row>
+    <row r="30" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="S30">
+        <v>28</v>
+      </c>
+      <c r="T30">
+        <v>0.140625</v>
+      </c>
+      <c r="U30">
+        <f t="shared" si="0"/>
+        <v>29</v>
+      </c>
+      <c r="V30">
+        <f t="shared" si="1"/>
+        <v>85.9375</v>
+      </c>
+    </row>
+    <row r="31" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="S31">
+        <v>29</v>
+      </c>
+      <c r="T31">
+        <v>0.234375</v>
+      </c>
+      <c r="U31">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="V31">
+        <f t="shared" si="1"/>
+        <v>76.5625</v>
+      </c>
+    </row>
+    <row r="32" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="S32">
+        <v>30</v>
+      </c>
+      <c r="T32">
+        <v>0.140625</v>
+      </c>
+      <c r="U32">
+        <f t="shared" si="0"/>
+        <v>31</v>
+      </c>
+      <c r="V32">
+        <f t="shared" si="1"/>
+        <v>85.9375</v>
+      </c>
+    </row>
+    <row r="33" spans="19:22" x14ac:dyDescent="0.45">
+      <c r="S33">
+        <v>31</v>
+      </c>
+      <c r="T33">
+        <v>0.15625</v>
+      </c>
+      <c r="U33">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+      <c r="V33">
+        <f t="shared" si="1"/>
+        <v>84.375</v>
+      </c>
+    </row>
+    <row r="34" spans="19:22" x14ac:dyDescent="0.45">
+      <c r="S34">
+        <v>32</v>
+      </c>
+      <c r="T34">
+        <v>0.140625</v>
+      </c>
+      <c r="U34">
+        <f t="shared" si="0"/>
+        <v>33</v>
+      </c>
+      <c r="V34">
+        <f t="shared" si="1"/>
+        <v>85.9375</v>
+      </c>
+    </row>
+    <row r="35" spans="19:22" x14ac:dyDescent="0.45">
+      <c r="S35">
+        <v>33</v>
+      </c>
+      <c r="T35">
+        <v>0.1875</v>
+      </c>
+      <c r="U35">
+        <f t="shared" si="0"/>
+        <v>34</v>
+      </c>
+      <c r="V35">
+        <f t="shared" si="1"/>
+        <v>81.25</v>
+      </c>
+    </row>
+    <row r="36" spans="19:22" x14ac:dyDescent="0.45">
+      <c r="S36">
+        <v>34</v>
+      </c>
+      <c r="T36">
+        <v>0.125</v>
+      </c>
+      <c r="U36">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+      <c r="V36">
+        <f t="shared" si="1"/>
+        <v>87.5</v>
+      </c>
+    </row>
+    <row r="37" spans="19:22" x14ac:dyDescent="0.45">
+      <c r="S37">
+        <v>35</v>
+      </c>
+      <c r="T37">
+        <v>0.140625</v>
+      </c>
+      <c r="U37">
+        <f t="shared" si="0"/>
+        <v>36</v>
+      </c>
+      <c r="V37">
+        <f t="shared" si="1"/>
+        <v>85.9375</v>
+      </c>
+    </row>
+    <row r="38" spans="19:22" x14ac:dyDescent="0.45">
+      <c r="S38">
+        <v>36</v>
+      </c>
+      <c r="T38">
+        <v>0.140625</v>
+      </c>
+      <c r="U38">
+        <f t="shared" si="0"/>
+        <v>37</v>
+      </c>
+      <c r="V38">
+        <f t="shared" si="1"/>
+        <v>85.9375</v>
+      </c>
+    </row>
+    <row r="39" spans="19:22" x14ac:dyDescent="0.45">
+      <c r="S39">
+        <v>37</v>
+      </c>
+      <c r="T39">
+        <v>0.171875</v>
+      </c>
+      <c r="U39">
+        <f t="shared" si="0"/>
+        <v>38</v>
+      </c>
+      <c r="V39">
+        <f t="shared" si="1"/>
+        <v>82.8125</v>
+      </c>
+    </row>
+    <row r="40" spans="19:22" x14ac:dyDescent="0.45">
+      <c r="S40">
+        <v>38</v>
+      </c>
+      <c r="T40">
+        <v>0.1875</v>
+      </c>
+      <c r="U40">
+        <f t="shared" si="0"/>
+        <v>39</v>
+      </c>
+      <c r="V40">
+        <f t="shared" si="1"/>
+        <v>81.25</v>
+      </c>
+    </row>
+    <row r="41" spans="19:22" x14ac:dyDescent="0.45">
+      <c r="S41">
+        <v>39</v>
+      </c>
+      <c r="T41">
+        <v>9.375E-2</v>
+      </c>
+      <c r="U41">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="V41">
+        <f t="shared" si="1"/>
+        <v>90.625</v>
+      </c>
+    </row>
+    <row r="42" spans="19:22" x14ac:dyDescent="0.45">
+      <c r="S42">
+        <v>40</v>
+      </c>
+      <c r="T42">
+        <v>0.15625</v>
+      </c>
+      <c r="U42">
+        <f t="shared" si="0"/>
+        <v>41</v>
+      </c>
+      <c r="V42">
+        <f t="shared" si="1"/>
+        <v>84.375</v>
+      </c>
+    </row>
+    <row r="43" spans="19:22" x14ac:dyDescent="0.45">
+      <c r="S43">
+        <v>41</v>
+      </c>
+      <c r="T43">
+        <v>0.171875</v>
+      </c>
+      <c r="U43">
+        <f t="shared" si="0"/>
+        <v>42</v>
+      </c>
+      <c r="V43">
+        <f t="shared" si="1"/>
+        <v>82.8125</v>
+      </c>
+    </row>
+    <row r="44" spans="19:22" x14ac:dyDescent="0.45">
+      <c r="S44">
+        <v>42</v>
+      </c>
+      <c r="T44">
+        <v>0.109375</v>
+      </c>
+      <c r="U44">
+        <f t="shared" si="0"/>
+        <v>43</v>
+      </c>
+      <c r="V44">
+        <f t="shared" si="1"/>
+        <v>89.0625</v>
+      </c>
+    </row>
+    <row r="45" spans="19:22" x14ac:dyDescent="0.45">
+      <c r="S45">
+        <v>43</v>
+      </c>
+      <c r="T45">
+        <v>0.125</v>
+      </c>
+      <c r="U45">
+        <f t="shared" si="0"/>
+        <v>44</v>
+      </c>
+      <c r="V45">
+        <f t="shared" si="1"/>
+        <v>87.5</v>
+      </c>
+    </row>
+    <row r="46" spans="19:22" x14ac:dyDescent="0.45">
+      <c r="S46">
+        <v>44</v>
+      </c>
+      <c r="T46">
+        <v>0.15625</v>
+      </c>
+      <c r="U46">
+        <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+      <c r="V46">
+        <f t="shared" si="1"/>
+        <v>84.375</v>
+      </c>
+    </row>
+    <row r="47" spans="19:22" x14ac:dyDescent="0.45">
+      <c r="S47">
+        <v>45</v>
+      </c>
+      <c r="T47">
+        <v>0.171875</v>
+      </c>
+      <c r="U47">
+        <f t="shared" si="0"/>
+        <v>46</v>
+      </c>
+      <c r="V47">
+        <f t="shared" si="1"/>
+        <v>82.8125</v>
+      </c>
+    </row>
+    <row r="48" spans="19:22" x14ac:dyDescent="0.45">
+      <c r="S48">
+        <v>46</v>
+      </c>
+      <c r="T48">
+        <v>9.375E-2</v>
+      </c>
+      <c r="U48">
+        <f t="shared" si="0"/>
+        <v>47</v>
+      </c>
+      <c r="V48">
+        <f t="shared" si="1"/>
+        <v>90.625</v>
+      </c>
+    </row>
+    <row r="49" spans="19:22" x14ac:dyDescent="0.45">
+      <c r="S49">
+        <v>47</v>
+      </c>
+      <c r="T49">
+        <v>0.109375</v>
+      </c>
+      <c r="U49">
+        <f t="shared" si="0"/>
+        <v>48</v>
+      </c>
+      <c r="V49">
+        <f t="shared" si="1"/>
+        <v>89.0625</v>
+      </c>
+    </row>
+    <row r="50" spans="19:22" x14ac:dyDescent="0.45">
+      <c r="S50">
+        <v>48</v>
+      </c>
+      <c r="T50">
+        <v>0.1875</v>
+      </c>
+      <c r="U50">
+        <f t="shared" si="0"/>
+        <v>49</v>
+      </c>
+      <c r="V50">
+        <f t="shared" si="1"/>
+        <v>81.25</v>
+      </c>
+    </row>
+    <row r="51" spans="19:22" x14ac:dyDescent="0.45">
+      <c r="S51">
+        <v>49</v>
+      </c>
+      <c r="T51">
+        <v>0.109375</v>
+      </c>
+      <c r="U51">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+      <c r="V51">
+        <f t="shared" si="1"/>
+        <v>89.0625</v>
+      </c>
+    </row>
+    <row r="52" spans="19:22" x14ac:dyDescent="0.45">
+      <c r="S52">
+        <v>50</v>
+      </c>
+      <c r="T52">
+        <v>0.140625</v>
+      </c>
+      <c r="U52">
+        <f t="shared" si="0"/>
+        <v>51</v>
+      </c>
+      <c r="V52">
+        <f t="shared" si="1"/>
+        <v>85.9375</v>
+      </c>
+    </row>
+    <row r="53" spans="19:22" x14ac:dyDescent="0.45">
+      <c r="S53">
+        <v>51</v>
+      </c>
+      <c r="T53">
+        <v>7.8125E-2</v>
+      </c>
+      <c r="U53">
+        <f t="shared" si="0"/>
+        <v>52</v>
+      </c>
+      <c r="V53">
+        <f t="shared" si="1"/>
+        <v>92.1875</v>
+      </c>
+    </row>
+    <row r="54" spans="19:22" x14ac:dyDescent="0.45">
+      <c r="S54">
+        <v>52</v>
+      </c>
+      <c r="T54">
+        <v>7.8125E-2</v>
+      </c>
+      <c r="U54">
+        <f t="shared" si="0"/>
+        <v>53</v>
+      </c>
+      <c r="V54">
+        <f t="shared" si="1"/>
+        <v>92.1875</v>
+      </c>
+    </row>
+    <row r="55" spans="19:22" x14ac:dyDescent="0.45">
+      <c r="S55">
+        <v>53</v>
+      </c>
+      <c r="T55">
+        <v>0.171875</v>
+      </c>
+      <c r="U55">
+        <f t="shared" si="0"/>
+        <v>54</v>
+      </c>
+      <c r="V55">
+        <f t="shared" si="1"/>
+        <v>82.8125</v>
+      </c>
+    </row>
+    <row r="56" spans="19:22" x14ac:dyDescent="0.45">
+      <c r="S56">
+        <v>54</v>
+      </c>
+      <c r="T56">
+        <v>0.171875</v>
+      </c>
+      <c r="U56">
+        <f t="shared" si="0"/>
+        <v>55</v>
+      </c>
+      <c r="V56">
+        <f t="shared" si="1"/>
+        <v>82.8125</v>
+      </c>
+    </row>
+    <row r="57" spans="19:22" x14ac:dyDescent="0.45">
+      <c r="S57">
+        <v>55</v>
+      </c>
+      <c r="T57">
+        <v>0.125</v>
+      </c>
+      <c r="U57">
+        <f t="shared" si="0"/>
+        <v>56</v>
+      </c>
+      <c r="V57">
+        <f t="shared" si="1"/>
+        <v>87.5</v>
+      </c>
+    </row>
+    <row r="58" spans="19:22" x14ac:dyDescent="0.45">
+      <c r="S58">
+        <v>56</v>
+      </c>
+      <c r="T58">
+        <v>0.109375</v>
+      </c>
+      <c r="U58">
+        <f t="shared" si="0"/>
+        <v>57</v>
+      </c>
+      <c r="V58">
+        <f t="shared" si="1"/>
+        <v>89.0625</v>
+      </c>
+    </row>
+    <row r="59" spans="19:22" x14ac:dyDescent="0.45">
+      <c r="S59">
+        <v>57</v>
+      </c>
+      <c r="T59">
+        <v>0.171875</v>
+      </c>
+      <c r="U59">
+        <f t="shared" si="0"/>
+        <v>58</v>
+      </c>
+      <c r="V59">
+        <f t="shared" si="1"/>
+        <v>82.8125</v>
+      </c>
+    </row>
+    <row r="60" spans="19:22" x14ac:dyDescent="0.45">
+      <c r="S60">
+        <v>58</v>
+      </c>
+      <c r="T60">
+        <v>0.140625</v>
+      </c>
+      <c r="U60">
+        <f t="shared" si="0"/>
+        <v>59</v>
+      </c>
+      <c r="V60">
+        <f t="shared" si="1"/>
+        <v>85.9375</v>
+      </c>
+    </row>
+    <row r="61" spans="19:22" x14ac:dyDescent="0.45">
+      <c r="S61">
+        <v>59</v>
+      </c>
+      <c r="T61">
+        <v>0.140625</v>
+      </c>
+      <c r="U61">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+      <c r="V61">
+        <f t="shared" si="1"/>
+        <v>85.9375</v>
+      </c>
+    </row>
+    <row r="62" spans="19:22" x14ac:dyDescent="0.45">
+      <c r="S62">
+        <v>60</v>
+      </c>
+      <c r="T62">
+        <v>0.140625</v>
+      </c>
+      <c r="U62">
+        <f t="shared" si="0"/>
+        <v>61</v>
+      </c>
+      <c r="V62">
+        <f t="shared" si="1"/>
+        <v>85.9375</v>
+      </c>
+    </row>
+    <row r="63" spans="19:22" x14ac:dyDescent="0.45">
+      <c r="S63">
+        <v>61</v>
+      </c>
+      <c r="T63">
+        <v>0.140625</v>
+      </c>
+      <c r="U63">
+        <f t="shared" si="0"/>
+        <v>62</v>
+      </c>
+      <c r="V63">
+        <f t="shared" si="1"/>
+        <v>85.9375</v>
+      </c>
+    </row>
+    <row r="64" spans="19:22" x14ac:dyDescent="0.45">
+      <c r="S64">
+        <v>62</v>
+      </c>
+      <c r="T64">
+        <v>0.15625</v>
+      </c>
+      <c r="U64">
+        <f t="shared" si="0"/>
+        <v>63</v>
+      </c>
+      <c r="V64">
+        <f t="shared" si="1"/>
+        <v>84.375</v>
+      </c>
+    </row>
+    <row r="65" spans="19:22" x14ac:dyDescent="0.45">
+      <c r="S65">
+        <v>63</v>
+      </c>
+      <c r="T65">
+        <v>0.109375</v>
+      </c>
+      <c r="U65">
+        <f t="shared" si="0"/>
+        <v>64</v>
+      </c>
+      <c r="V65">
+        <f t="shared" si="1"/>
+        <v>89.0625</v>
+      </c>
+    </row>
+    <row r="66" spans="19:22" x14ac:dyDescent="0.45">
+      <c r="S66">
+        <v>64</v>
+      </c>
+      <c r="T66">
+        <v>0.109375</v>
+      </c>
+      <c r="U66">
+        <f t="shared" si="0"/>
+        <v>65</v>
+      </c>
+      <c r="V66">
+        <f t="shared" si="1"/>
+        <v>89.0625</v>
+      </c>
+    </row>
+    <row r="67" spans="19:22" x14ac:dyDescent="0.45">
+      <c r="S67">
+        <v>65</v>
+      </c>
+      <c r="T67">
+        <v>0.125</v>
+      </c>
+      <c r="U67">
+        <f t="shared" ref="U67:U101" si="2" xml:space="preserve"> 1+S67</f>
+        <v>66</v>
+      </c>
+      <c r="V67">
+        <f t="shared" ref="V67:V101" si="3" xml:space="preserve"> (1-T67)*100</f>
+        <v>87.5</v>
+      </c>
+    </row>
+    <row r="68" spans="19:22" x14ac:dyDescent="0.45">
+      <c r="S68">
+        <v>66</v>
+      </c>
+      <c r="T68">
+        <v>0.109375</v>
+      </c>
+      <c r="U68">
+        <f t="shared" si="2"/>
+        <v>67</v>
+      </c>
+      <c r="V68">
+        <f t="shared" si="3"/>
+        <v>89.0625</v>
+      </c>
+    </row>
+    <row r="69" spans="19:22" x14ac:dyDescent="0.45">
+      <c r="S69">
+        <v>67</v>
+      </c>
+      <c r="T69">
+        <v>0.125</v>
+      </c>
+      <c r="U69">
+        <f t="shared" si="2"/>
+        <v>68</v>
+      </c>
+      <c r="V69">
+        <f t="shared" si="3"/>
+        <v>87.5</v>
+      </c>
+    </row>
+    <row r="70" spans="19:22" x14ac:dyDescent="0.45">
+      <c r="S70">
+        <v>68</v>
+      </c>
+      <c r="T70">
+        <v>0.109375</v>
+      </c>
+      <c r="U70">
+        <f t="shared" si="2"/>
+        <v>69</v>
+      </c>
+      <c r="V70">
+        <f t="shared" si="3"/>
+        <v>89.0625</v>
+      </c>
+    </row>
+    <row r="71" spans="19:22" x14ac:dyDescent="0.45">
+      <c r="S71">
+        <v>69</v>
+      </c>
+      <c r="T71">
+        <v>9.375E-2</v>
+      </c>
+      <c r="U71">
+        <f t="shared" si="2"/>
+        <v>70</v>
+      </c>
+      <c r="V71">
+        <f t="shared" si="3"/>
+        <v>90.625</v>
+      </c>
+    </row>
+    <row r="72" spans="19:22" x14ac:dyDescent="0.45">
+      <c r="S72">
+        <v>70</v>
+      </c>
+      <c r="T72">
+        <v>0.125</v>
+      </c>
+      <c r="U72">
+        <f t="shared" si="2"/>
+        <v>71</v>
+      </c>
+      <c r="V72">
+        <f t="shared" si="3"/>
+        <v>87.5</v>
+      </c>
+    </row>
+    <row r="73" spans="19:22" x14ac:dyDescent="0.45">
+      <c r="S73">
+        <v>71</v>
+      </c>
+      <c r="T73">
+        <v>0.140625</v>
+      </c>
+      <c r="U73">
+        <f t="shared" si="2"/>
+        <v>72</v>
+      </c>
+      <c r="V73">
+        <f t="shared" si="3"/>
+        <v>85.9375</v>
+      </c>
+    </row>
+    <row r="74" spans="19:22" x14ac:dyDescent="0.45">
+      <c r="S74">
+        <v>72</v>
+      </c>
+      <c r="T74">
+        <v>7.8125E-2</v>
+      </c>
+      <c r="U74">
+        <f t="shared" si="2"/>
+        <v>73</v>
+      </c>
+      <c r="V74">
+        <f t="shared" si="3"/>
+        <v>92.1875</v>
+      </c>
+    </row>
+    <row r="75" spans="19:22" x14ac:dyDescent="0.45">
+      <c r="S75">
+        <v>73</v>
+      </c>
+      <c r="T75">
+        <v>0.109375</v>
+      </c>
+      <c r="U75">
+        <f t="shared" si="2"/>
+        <v>74</v>
+      </c>
+      <c r="V75">
+        <f t="shared" si="3"/>
+        <v>89.0625</v>
+      </c>
+    </row>
+    <row r="76" spans="19:22" x14ac:dyDescent="0.45">
+      <c r="S76">
+        <v>74</v>
+      </c>
+      <c r="T76">
+        <v>9.375E-2</v>
+      </c>
+      <c r="U76">
+        <f t="shared" si="2"/>
+        <v>75</v>
+      </c>
+      <c r="V76">
+        <f t="shared" si="3"/>
+        <v>90.625</v>
+      </c>
+    </row>
+    <row r="77" spans="19:22" x14ac:dyDescent="0.45">
+      <c r="S77">
+        <v>75</v>
+      </c>
+      <c r="T77">
+        <v>0.125</v>
+      </c>
+      <c r="U77">
+        <f t="shared" si="2"/>
+        <v>76</v>
+      </c>
+      <c r="V77">
+        <f t="shared" si="3"/>
+        <v>87.5</v>
+      </c>
+    </row>
+    <row r="78" spans="19:22" x14ac:dyDescent="0.45">
+      <c r="S78">
+        <v>76</v>
+      </c>
+      <c r="T78">
+        <v>0.109375</v>
+      </c>
+      <c r="U78">
+        <f t="shared" si="2"/>
+        <v>77</v>
+      </c>
+      <c r="V78">
+        <f t="shared" si="3"/>
+        <v>89.0625</v>
+      </c>
+    </row>
+    <row r="79" spans="19:22" x14ac:dyDescent="0.45">
+      <c r="S79">
+        <v>77</v>
+      </c>
+      <c r="T79">
+        <v>0.125</v>
+      </c>
+      <c r="U79">
+        <f t="shared" si="2"/>
+        <v>78</v>
+      </c>
+      <c r="V79">
+        <f t="shared" si="3"/>
+        <v>87.5</v>
+      </c>
+    </row>
+    <row r="80" spans="19:22" x14ac:dyDescent="0.45">
+      <c r="S80">
+        <v>78</v>
+      </c>
+      <c r="T80">
+        <v>0.140625</v>
+      </c>
+      <c r="U80">
+        <f t="shared" si="2"/>
+        <v>79</v>
+      </c>
+      <c r="V80">
+        <f t="shared" si="3"/>
+        <v>85.9375</v>
+      </c>
+    </row>
+    <row r="81" spans="19:22" x14ac:dyDescent="0.45">
+      <c r="S81">
+        <v>79</v>
+      </c>
+      <c r="T81">
+        <v>0.125</v>
+      </c>
+      <c r="U81">
+        <f t="shared" si="2"/>
+        <v>80</v>
+      </c>
+      <c r="V81">
+        <f t="shared" si="3"/>
+        <v>87.5</v>
+      </c>
+    </row>
+    <row r="82" spans="19:22" x14ac:dyDescent="0.45">
+      <c r="S82">
+        <v>80</v>
+      </c>
+      <c r="T82">
+        <v>0.15625</v>
+      </c>
+      <c r="U82">
+        <f t="shared" si="2"/>
+        <v>81</v>
+      </c>
+      <c r="V82">
+        <f t="shared" si="3"/>
+        <v>84.375</v>
+      </c>
+    </row>
+    <row r="83" spans="19:22" x14ac:dyDescent="0.45">
+      <c r="S83">
+        <v>81</v>
+      </c>
+      <c r="T83">
+        <v>0.109375</v>
+      </c>
+      <c r="U83">
+        <f t="shared" si="2"/>
+        <v>82</v>
+      </c>
+      <c r="V83">
+        <f t="shared" si="3"/>
+        <v>89.0625</v>
+      </c>
+    </row>
+    <row r="84" spans="19:22" x14ac:dyDescent="0.45">
+      <c r="S84">
+        <v>82</v>
+      </c>
+      <c r="T84">
+        <v>0.125</v>
+      </c>
+      <c r="U84">
+        <f t="shared" si="2"/>
+        <v>83</v>
+      </c>
+      <c r="V84">
+        <f t="shared" si="3"/>
+        <v>87.5</v>
+      </c>
+    </row>
+    <row r="85" spans="19:22" x14ac:dyDescent="0.45">
+      <c r="S85">
+        <v>83</v>
+      </c>
+      <c r="T85">
+        <v>0.140625</v>
+      </c>
+      <c r="U85">
+        <f t="shared" si="2"/>
+        <v>84</v>
+      </c>
+      <c r="V85">
+        <f t="shared" si="3"/>
+        <v>85.9375</v>
+      </c>
+    </row>
+    <row r="86" spans="19:22" x14ac:dyDescent="0.45">
+      <c r="S86">
+        <v>84</v>
+      </c>
+      <c r="T86">
+        <v>0.15625</v>
+      </c>
+      <c r="U86">
+        <f t="shared" si="2"/>
+        <v>85</v>
+      </c>
+      <c r="V86">
+        <f t="shared" si="3"/>
+        <v>84.375</v>
+      </c>
+    </row>
+    <row r="87" spans="19:22" x14ac:dyDescent="0.45">
+      <c r="S87">
+        <v>85</v>
+      </c>
+      <c r="T87">
+        <v>0.15625</v>
+      </c>
+      <c r="U87">
+        <f t="shared" si="2"/>
+        <v>86</v>
+      </c>
+      <c r="V87">
+        <f t="shared" si="3"/>
+        <v>84.375</v>
+      </c>
+    </row>
+    <row r="88" spans="19:22" x14ac:dyDescent="0.45">
+      <c r="S88">
+        <v>86</v>
+      </c>
+      <c r="T88">
+        <v>0.15625</v>
+      </c>
+      <c r="U88">
+        <f t="shared" si="2"/>
+        <v>87</v>
+      </c>
+      <c r="V88">
+        <f t="shared" si="3"/>
+        <v>84.375</v>
+      </c>
+    </row>
+    <row r="89" spans="19:22" x14ac:dyDescent="0.45">
+      <c r="S89">
+        <v>87</v>
+      </c>
+      <c r="T89">
+        <v>9.375E-2</v>
+      </c>
+      <c r="U89">
+        <f t="shared" si="2"/>
+        <v>88</v>
+      </c>
+      <c r="V89">
+        <f t="shared" si="3"/>
+        <v>90.625</v>
+      </c>
+    </row>
+    <row r="90" spans="19:22" x14ac:dyDescent="0.45">
+      <c r="S90">
+        <v>88</v>
+      </c>
+      <c r="T90">
+        <v>7.8125E-2</v>
+      </c>
+      <c r="U90">
+        <f t="shared" si="2"/>
+        <v>89</v>
+      </c>
+      <c r="V90">
+        <f t="shared" si="3"/>
+        <v>92.1875</v>
+      </c>
+    </row>
+    <row r="91" spans="19:22" x14ac:dyDescent="0.45">
+      <c r="S91">
+        <v>89</v>
+      </c>
+      <c r="T91">
+        <v>0.109375</v>
+      </c>
+      <c r="U91">
+        <f t="shared" si="2"/>
+        <v>90</v>
+      </c>
+      <c r="V91">
+        <f t="shared" si="3"/>
+        <v>89.0625</v>
+      </c>
+    </row>
+    <row r="92" spans="19:22" x14ac:dyDescent="0.45">
+      <c r="S92">
+        <v>90</v>
+      </c>
+      <c r="T92">
+        <v>0.109375</v>
+      </c>
+      <c r="U92">
+        <f t="shared" si="2"/>
+        <v>91</v>
+      </c>
+      <c r="V92">
+        <f t="shared" si="3"/>
+        <v>89.0625</v>
+      </c>
+    </row>
+    <row r="93" spans="19:22" x14ac:dyDescent="0.45">
+      <c r="S93">
+        <v>91</v>
+      </c>
+      <c r="T93">
+        <v>9.375E-2</v>
+      </c>
+      <c r="U93">
+        <f t="shared" si="2"/>
+        <v>92</v>
+      </c>
+      <c r="V93">
+        <f t="shared" si="3"/>
+        <v>90.625</v>
+      </c>
+    </row>
+    <row r="94" spans="19:22" x14ac:dyDescent="0.45">
+      <c r="S94">
+        <v>92</v>
+      </c>
+      <c r="T94">
+        <v>9.375E-2</v>
+      </c>
+      <c r="U94">
+        <f t="shared" si="2"/>
+        <v>93</v>
+      </c>
+      <c r="V94">
+        <f t="shared" si="3"/>
+        <v>90.625</v>
+      </c>
+    </row>
+    <row r="95" spans="19:22" x14ac:dyDescent="0.45">
+      <c r="S95">
+        <v>93</v>
+      </c>
+      <c r="T95">
+        <v>9.375E-2</v>
+      </c>
+      <c r="U95">
+        <f t="shared" si="2"/>
+        <v>94</v>
+      </c>
+      <c r="V95">
+        <f t="shared" si="3"/>
+        <v>90.625</v>
+      </c>
+    </row>
+    <row r="96" spans="19:22" x14ac:dyDescent="0.45">
+      <c r="S96">
+        <v>94</v>
+      </c>
+      <c r="T96">
+        <v>9.375E-2</v>
+      </c>
+      <c r="U96">
+        <f t="shared" si="2"/>
+        <v>95</v>
+      </c>
+      <c r="V96">
+        <f t="shared" si="3"/>
+        <v>90.625</v>
+      </c>
+    </row>
+    <row r="97" spans="19:22" x14ac:dyDescent="0.45">
+      <c r="S97">
+        <v>95</v>
+      </c>
+      <c r="T97">
+        <v>0.109375</v>
+      </c>
+      <c r="U97">
+        <f t="shared" si="2"/>
+        <v>96</v>
+      </c>
+      <c r="V97">
+        <f t="shared" si="3"/>
+        <v>89.0625</v>
+      </c>
+    </row>
+    <row r="98" spans="19:22" x14ac:dyDescent="0.45">
+      <c r="S98">
+        <v>96</v>
+      </c>
+      <c r="T98">
+        <v>0.109375</v>
+      </c>
+      <c r="U98">
+        <f t="shared" si="2"/>
+        <v>97</v>
+      </c>
+      <c r="V98">
+        <f t="shared" si="3"/>
+        <v>89.0625</v>
+      </c>
+    </row>
+    <row r="99" spans="19:22" x14ac:dyDescent="0.45">
+      <c r="S99">
+        <v>97</v>
+      </c>
+      <c r="T99">
+        <v>0.109375</v>
+      </c>
+      <c r="U99">
+        <f t="shared" si="2"/>
+        <v>98</v>
+      </c>
+      <c r="V99">
+        <f t="shared" si="3"/>
+        <v>89.0625</v>
+      </c>
+    </row>
+    <row r="100" spans="19:22" x14ac:dyDescent="0.45">
+      <c r="S100">
+        <v>98</v>
+      </c>
+      <c r="T100">
+        <v>0.109375</v>
+      </c>
+      <c r="U100">
+        <f t="shared" si="2"/>
+        <v>99</v>
+      </c>
+      <c r="V100">
+        <f t="shared" si="3"/>
+        <v>89.0625</v>
+      </c>
+    </row>
+    <row r="101" spans="19:22" x14ac:dyDescent="0.45">
+      <c r="S101">
+        <v>99</v>
+      </c>
+      <c r="T101">
+        <v>0.109375</v>
+      </c>
+      <c r="U101">
+        <f t="shared" si="2"/>
+        <v>100</v>
+      </c>
+      <c r="V101">
+        <f t="shared" si="3"/>
+        <v>89.0625</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="H1:L1"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="A20:C20"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC38E66A-0E6B-4AC5-9048-A3E8F120B5AA}">
+  <dimension ref="A1:V101"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="54" workbookViewId="0">
+      <selection activeCell="S102" sqref="S102:T114"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetData>
+    <row r="1" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="A1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
+      <c r="S1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="S2">
+        <v>0</v>
+      </c>
+      <c r="T2">
+        <v>0.984375</v>
+      </c>
+      <c r="U2">
+        <f xml:space="preserve"> 1+S2</f>
+        <v>1</v>
+      </c>
+      <c r="V2">
+        <f xml:space="preserve"> (1-T2)*100</f>
+        <v>1.5625</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="A3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="S3">
+        <v>1</v>
+      </c>
+      <c r="T3">
+        <v>0.921875</v>
+      </c>
+      <c r="U3">
+        <f t="shared" ref="U3:U66" si="0" xml:space="preserve"> 1+S3</f>
+        <v>2</v>
+      </c>
+      <c r="V3">
+        <f t="shared" ref="V3:V66" si="1" xml:space="preserve"> (1-T3)*100</f>
+        <v>7.8125</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="S4">
+        <v>2</v>
+      </c>
+      <c r="T4">
+        <v>0.71875</v>
+      </c>
+      <c r="U4">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="V4">
+        <f t="shared" si="1"/>
+        <v>28.125</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="S5">
+        <v>3</v>
+      </c>
+      <c r="T5">
+        <v>0.53125</v>
+      </c>
+      <c r="U5">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="V5">
+        <f t="shared" si="1"/>
+        <v>46.875</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="S6">
+        <v>4</v>
+      </c>
+      <c r="T6">
+        <v>0.375</v>
+      </c>
+      <c r="U6">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="V6">
+        <f t="shared" si="1"/>
+        <v>62.5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="S7">
+        <v>5</v>
+      </c>
+      <c r="T7">
+        <v>0.328125</v>
+      </c>
+      <c r="U7">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="V7">
+        <f t="shared" si="1"/>
+        <v>67.1875</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="S8">
+        <v>6</v>
+      </c>
+      <c r="T8">
+        <v>0.28125</v>
+      </c>
+      <c r="U8">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="V8">
+        <f t="shared" si="1"/>
+        <v>71.875</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="S9">
+        <v>7</v>
+      </c>
+      <c r="T9">
+        <v>0.265625</v>
+      </c>
+      <c r="U9">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="V9">
+        <f t="shared" si="1"/>
+        <v>73.4375</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="S10">
+        <v>8</v>
+      </c>
+      <c r="T10">
+        <v>0.265625</v>
+      </c>
+      <c r="U10">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="V10">
+        <f t="shared" si="1"/>
+        <v>73.4375</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="S11">
+        <v>9</v>
+      </c>
+      <c r="T11">
+        <v>0.234375</v>
+      </c>
+      <c r="U11">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="V11">
+        <f t="shared" si="1"/>
+        <v>76.5625</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="S12">
+        <v>10</v>
+      </c>
+      <c r="T12">
+        <v>0.265625</v>
+      </c>
+      <c r="U12">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="V12">
+        <f t="shared" si="1"/>
+        <v>73.4375</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="S13">
+        <v>11</v>
+      </c>
+      <c r="T13">
+        <v>0.1875</v>
+      </c>
+      <c r="U13">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="V13">
+        <f t="shared" si="1"/>
+        <v>81.25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="S14">
+        <v>12</v>
+      </c>
+      <c r="T14">
+        <v>0.1875</v>
+      </c>
+      <c r="U14">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="V14">
+        <f t="shared" si="1"/>
+        <v>81.25</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="S15">
+        <v>13</v>
+      </c>
+      <c r="T15">
+        <v>0.21875</v>
+      </c>
+      <c r="U15">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="V15">
+        <f t="shared" si="1"/>
+        <v>78.125</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="S16">
+        <v>14</v>
+      </c>
+      <c r="T16">
+        <v>0.265625</v>
+      </c>
+      <c r="U16">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="V16">
+        <f t="shared" si="1"/>
+        <v>73.4375</v>
+      </c>
+    </row>
+    <row r="17" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="S17">
+        <v>15</v>
+      </c>
+      <c r="T17">
+        <v>0.203125</v>
+      </c>
+      <c r="U17">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="V17">
+        <f t="shared" si="1"/>
+        <v>79.6875</v>
+      </c>
+    </row>
+    <row r="18" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="S18">
+        <v>16</v>
+      </c>
+      <c r="T18">
+        <v>0.1875</v>
+      </c>
+      <c r="U18">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="V18">
+        <f t="shared" si="1"/>
+        <v>81.25</v>
+      </c>
+    </row>
+    <row r="19" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="S19">
+        <v>17</v>
+      </c>
+      <c r="T19">
+        <v>0.296875</v>
+      </c>
+      <c r="U19">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="V19">
+        <f t="shared" si="1"/>
+        <v>70.3125</v>
+      </c>
+    </row>
+    <row r="20" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="A20" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
+      <c r="S20">
+        <v>18</v>
+      </c>
+      <c r="T20">
+        <v>0.21875</v>
+      </c>
+      <c r="U20">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="V20">
+        <f t="shared" si="1"/>
+        <v>78.125</v>
+      </c>
+    </row>
+    <row r="21" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="S21">
+        <v>19</v>
+      </c>
+      <c r="T21">
+        <v>0.203125</v>
+      </c>
+      <c r="U21">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="V21">
+        <f t="shared" si="1"/>
+        <v>79.6875</v>
+      </c>
+    </row>
+    <row r="22" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="S22">
+        <v>20</v>
+      </c>
+      <c r="T22">
+        <v>0.234375</v>
+      </c>
+      <c r="U22">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="V22">
+        <f t="shared" si="1"/>
+        <v>76.5625</v>
+      </c>
+    </row>
+    <row r="23" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="S23">
+        <v>21</v>
+      </c>
+      <c r="T23">
+        <v>0.171875</v>
+      </c>
+      <c r="U23">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="V23">
+        <f t="shared" si="1"/>
+        <v>82.8125</v>
+      </c>
+    </row>
+    <row r="24" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="S24">
+        <v>22</v>
+      </c>
+      <c r="T24">
+        <v>0.140625</v>
+      </c>
+      <c r="U24">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="V24">
+        <f t="shared" si="1"/>
+        <v>85.9375</v>
+      </c>
+    </row>
+    <row r="25" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="S25">
+        <v>23</v>
+      </c>
+      <c r="T25">
+        <v>0.15625</v>
+      </c>
+      <c r="U25">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="V25">
+        <f t="shared" si="1"/>
+        <v>84.375</v>
+      </c>
+    </row>
+    <row r="26" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="S26">
+        <v>24</v>
+      </c>
+      <c r="T26">
+        <v>0.140625</v>
+      </c>
+      <c r="U26">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="V26">
+        <f t="shared" si="1"/>
+        <v>85.9375</v>
+      </c>
+    </row>
+    <row r="27" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="S27">
+        <v>25</v>
+      </c>
+      <c r="T27">
+        <v>0.1875</v>
+      </c>
+      <c r="U27">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+      <c r="V27">
+        <f t="shared" si="1"/>
+        <v>81.25</v>
+      </c>
+    </row>
+    <row r="28" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="S28">
+        <v>26</v>
+      </c>
+      <c r="T28">
+        <v>0.125</v>
+      </c>
+      <c r="U28">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+      <c r="V28">
+        <f t="shared" si="1"/>
+        <v>87.5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="S29">
+        <v>27</v>
+      </c>
+      <c r="T29">
+        <v>0.1875</v>
+      </c>
+      <c r="U29">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+      <c r="V29">
+        <f t="shared" si="1"/>
+        <v>81.25</v>
+      </c>
+    </row>
+    <row r="30" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="S30">
+        <v>28</v>
+      </c>
+      <c r="T30">
+        <v>0.140625</v>
+      </c>
+      <c r="U30">
+        <f t="shared" si="0"/>
+        <v>29</v>
+      </c>
+      <c r="V30">
+        <f t="shared" si="1"/>
+        <v>85.9375</v>
+      </c>
+    </row>
+    <row r="31" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="S31">
+        <v>29</v>
+      </c>
+      <c r="T31">
+        <v>0.140625</v>
+      </c>
+      <c r="U31">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="V31">
+        <f t="shared" si="1"/>
+        <v>85.9375</v>
+      </c>
+    </row>
+    <row r="32" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="S32">
+        <v>30</v>
+      </c>
+      <c r="T32">
+        <v>0.171875</v>
+      </c>
+      <c r="U32">
+        <f t="shared" si="0"/>
+        <v>31</v>
+      </c>
+      <c r="V32">
+        <f t="shared" si="1"/>
+        <v>82.8125</v>
+      </c>
+    </row>
+    <row r="33" spans="19:22" x14ac:dyDescent="0.45">
+      <c r="S33">
+        <v>31</v>
+      </c>
+      <c r="T33">
+        <v>0.15625</v>
+      </c>
+      <c r="U33">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+      <c r="V33">
+        <f t="shared" si="1"/>
+        <v>84.375</v>
+      </c>
+    </row>
+    <row r="34" spans="19:22" x14ac:dyDescent="0.45">
+      <c r="S34">
+        <v>32</v>
+      </c>
+      <c r="T34">
+        <v>0.140625</v>
+      </c>
+      <c r="U34">
+        <f t="shared" si="0"/>
+        <v>33</v>
+      </c>
+      <c r="V34">
+        <f t="shared" si="1"/>
+        <v>85.9375</v>
+      </c>
+    </row>
+    <row r="35" spans="19:22" x14ac:dyDescent="0.45">
+      <c r="S35">
+        <v>33</v>
+      </c>
+      <c r="T35">
+        <v>0.1875</v>
+      </c>
+      <c r="U35">
+        <f t="shared" si="0"/>
+        <v>34</v>
+      </c>
+      <c r="V35">
+        <f t="shared" si="1"/>
+        <v>81.25</v>
+      </c>
+    </row>
+    <row r="36" spans="19:22" x14ac:dyDescent="0.45">
+      <c r="S36">
+        <v>34</v>
+      </c>
+      <c r="T36">
+        <v>0.125</v>
+      </c>
+      <c r="U36">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+      <c r="V36">
+        <f t="shared" si="1"/>
+        <v>87.5</v>
+      </c>
+    </row>
+    <row r="37" spans="19:22" x14ac:dyDescent="0.45">
+      <c r="S37">
+        <v>35</v>
+      </c>
+      <c r="T37">
+        <v>0.15625</v>
+      </c>
+      <c r="U37">
+        <f t="shared" si="0"/>
+        <v>36</v>
+      </c>
+      <c r="V37">
+        <f t="shared" si="1"/>
+        <v>84.375</v>
+      </c>
+    </row>
+    <row r="38" spans="19:22" x14ac:dyDescent="0.45">
+      <c r="S38">
+        <v>36</v>
+      </c>
+      <c r="T38">
+        <v>0.203125</v>
+      </c>
+      <c r="U38">
+        <f t="shared" si="0"/>
+        <v>37</v>
+      </c>
+      <c r="V38">
+        <f t="shared" si="1"/>
+        <v>79.6875</v>
+      </c>
+    </row>
+    <row r="39" spans="19:22" x14ac:dyDescent="0.45">
+      <c r="S39">
+        <v>37</v>
+      </c>
+      <c r="T39">
+        <v>0.171875</v>
+      </c>
+      <c r="U39">
+        <f t="shared" si="0"/>
+        <v>38</v>
+      </c>
+      <c r="V39">
+        <f t="shared" si="1"/>
+        <v>82.8125</v>
+      </c>
+    </row>
+    <row r="40" spans="19:22" x14ac:dyDescent="0.45">
+      <c r="S40">
+        <v>38</v>
+      </c>
+      <c r="T40">
+        <v>0.125</v>
+      </c>
+      <c r="U40">
+        <f t="shared" si="0"/>
+        <v>39</v>
+      </c>
+      <c r="V40">
+        <f t="shared" si="1"/>
+        <v>87.5</v>
+      </c>
+    </row>
+    <row r="41" spans="19:22" x14ac:dyDescent="0.45">
+      <c r="S41">
+        <v>39</v>
+      </c>
+      <c r="T41">
+        <v>0.15625</v>
+      </c>
+      <c r="U41">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="V41">
+        <f t="shared" si="1"/>
+        <v>84.375</v>
+      </c>
+    </row>
+    <row r="42" spans="19:22" x14ac:dyDescent="0.45">
+      <c r="S42">
+        <v>40</v>
+      </c>
+      <c r="T42">
+        <v>0.140625</v>
+      </c>
+      <c r="U42">
+        <f t="shared" si="0"/>
+        <v>41</v>
+      </c>
+      <c r="V42">
+        <f t="shared" si="1"/>
+        <v>85.9375</v>
+      </c>
+    </row>
+    <row r="43" spans="19:22" x14ac:dyDescent="0.45">
+      <c r="S43">
+        <v>41</v>
+      </c>
+      <c r="T43">
+        <v>0.171875</v>
+      </c>
+      <c r="U43">
+        <f t="shared" si="0"/>
+        <v>42</v>
+      </c>
+      <c r="V43">
+        <f t="shared" si="1"/>
+        <v>82.8125</v>
+      </c>
+    </row>
+    <row r="44" spans="19:22" x14ac:dyDescent="0.45">
+      <c r="S44">
+        <v>42</v>
+      </c>
+      <c r="T44">
+        <v>0.171875</v>
+      </c>
+      <c r="U44">
+        <f t="shared" si="0"/>
+        <v>43</v>
+      </c>
+      <c r="V44">
+        <f t="shared" si="1"/>
+        <v>82.8125</v>
+      </c>
+    </row>
+    <row r="45" spans="19:22" x14ac:dyDescent="0.45">
+      <c r="S45">
+        <v>43</v>
+      </c>
+      <c r="T45">
+        <v>0.15625</v>
+      </c>
+      <c r="U45">
+        <f t="shared" si="0"/>
+        <v>44</v>
+      </c>
+      <c r="V45">
+        <f t="shared" si="1"/>
+        <v>84.375</v>
+      </c>
+    </row>
+    <row r="46" spans="19:22" x14ac:dyDescent="0.45">
+      <c r="S46">
+        <v>44</v>
+      </c>
+      <c r="T46">
+        <v>0.140625</v>
+      </c>
+      <c r="U46">
+        <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+      <c r="V46">
+        <f t="shared" si="1"/>
+        <v>85.9375</v>
+      </c>
+    </row>
+    <row r="47" spans="19:22" x14ac:dyDescent="0.45">
+      <c r="S47">
+        <v>45</v>
+      </c>
+      <c r="T47">
+        <v>0.171875</v>
+      </c>
+      <c r="U47">
+        <f t="shared" si="0"/>
+        <v>46</v>
+      </c>
+      <c r="V47">
+        <f t="shared" si="1"/>
+        <v>82.8125</v>
+      </c>
+    </row>
+    <row r="48" spans="19:22" x14ac:dyDescent="0.45">
+      <c r="S48">
+        <v>46</v>
+      </c>
+      <c r="T48">
+        <v>0.171875</v>
+      </c>
+      <c r="U48">
+        <f t="shared" si="0"/>
+        <v>47</v>
+      </c>
+      <c r="V48">
+        <f t="shared" si="1"/>
+        <v>82.8125</v>
+      </c>
+    </row>
+    <row r="49" spans="19:22" x14ac:dyDescent="0.45">
+      <c r="S49">
+        <v>47</v>
+      </c>
+      <c r="T49">
+        <v>0.1875</v>
+      </c>
+      <c r="U49">
+        <f t="shared" si="0"/>
+        <v>48</v>
+      </c>
+      <c r="V49">
+        <f t="shared" si="1"/>
+        <v>81.25</v>
+      </c>
+    </row>
+    <row r="50" spans="19:22" x14ac:dyDescent="0.45">
+      <c r="S50">
+        <v>48</v>
+      </c>
+      <c r="T50">
+        <v>0.109375</v>
+      </c>
+      <c r="U50">
+        <f t="shared" si="0"/>
+        <v>49</v>
+      </c>
+      <c r="V50">
+        <f t="shared" si="1"/>
+        <v>89.0625</v>
+      </c>
+    </row>
+    <row r="51" spans="19:22" x14ac:dyDescent="0.45">
+      <c r="S51">
+        <v>49</v>
+      </c>
+      <c r="T51">
+        <v>0.1875</v>
+      </c>
+      <c r="U51">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+      <c r="V51">
+        <f t="shared" si="1"/>
+        <v>81.25</v>
+      </c>
+    </row>
+    <row r="52" spans="19:22" x14ac:dyDescent="0.45">
+      <c r="S52">
+        <v>50</v>
+      </c>
+      <c r="T52">
+        <v>0.109375</v>
+      </c>
+      <c r="U52">
+        <f t="shared" si="0"/>
+        <v>51</v>
+      </c>
+      <c r="V52">
+        <f t="shared" si="1"/>
+        <v>89.0625</v>
+      </c>
+    </row>
+    <row r="53" spans="19:22" x14ac:dyDescent="0.45">
+      <c r="S53">
+        <v>51</v>
+      </c>
+      <c r="T53">
+        <v>0.140625</v>
+      </c>
+      <c r="U53">
+        <f t="shared" si="0"/>
+        <v>52</v>
+      </c>
+      <c r="V53">
+        <f t="shared" si="1"/>
+        <v>85.9375</v>
+      </c>
+    </row>
+    <row r="54" spans="19:22" x14ac:dyDescent="0.45">
+      <c r="S54">
+        <v>52</v>
+      </c>
+      <c r="T54">
+        <v>0.125</v>
+      </c>
+      <c r="U54">
+        <f t="shared" si="0"/>
+        <v>53</v>
+      </c>
+      <c r="V54">
+        <f t="shared" si="1"/>
+        <v>87.5</v>
+      </c>
+    </row>
+    <row r="55" spans="19:22" x14ac:dyDescent="0.45">
+      <c r="S55">
+        <v>53</v>
+      </c>
+      <c r="T55">
+        <v>0.203125</v>
+      </c>
+      <c r="U55">
+        <f t="shared" si="0"/>
+        <v>54</v>
+      </c>
+      <c r="V55">
+        <f t="shared" si="1"/>
+        <v>79.6875</v>
+      </c>
+    </row>
+    <row r="56" spans="19:22" x14ac:dyDescent="0.45">
+      <c r="S56">
+        <v>54</v>
+      </c>
+      <c r="T56">
+        <v>0.125</v>
+      </c>
+      <c r="U56">
+        <f t="shared" si="0"/>
+        <v>55</v>
+      </c>
+      <c r="V56">
+        <f t="shared" si="1"/>
+        <v>87.5</v>
+      </c>
+    </row>
+    <row r="57" spans="19:22" x14ac:dyDescent="0.45">
+      <c r="S57">
+        <v>55</v>
+      </c>
+      <c r="T57">
+        <v>0.140625</v>
+      </c>
+      <c r="U57">
+        <f t="shared" si="0"/>
+        <v>56</v>
+      </c>
+      <c r="V57">
+        <f t="shared" si="1"/>
+        <v>85.9375</v>
+      </c>
+    </row>
+    <row r="58" spans="19:22" x14ac:dyDescent="0.45">
+      <c r="S58">
+        <v>56</v>
+      </c>
+      <c r="T58">
+        <v>0.15625</v>
+      </c>
+      <c r="U58">
+        <f t="shared" si="0"/>
+        <v>57</v>
+      </c>
+      <c r="V58">
+        <f t="shared" si="1"/>
+        <v>84.375</v>
+      </c>
+    </row>
+    <row r="59" spans="19:22" x14ac:dyDescent="0.45">
+      <c r="S59">
+        <v>57</v>
+      </c>
+      <c r="T59">
+        <v>0.140625</v>
+      </c>
+      <c r="U59">
+        <f t="shared" si="0"/>
+        <v>58</v>
+      </c>
+      <c r="V59">
+        <f t="shared" si="1"/>
+        <v>85.9375</v>
+      </c>
+    </row>
+    <row r="60" spans="19:22" x14ac:dyDescent="0.45">
+      <c r="S60">
+        <v>58</v>
+      </c>
+      <c r="T60">
+        <v>0.140625</v>
+      </c>
+      <c r="U60">
+        <f t="shared" si="0"/>
+        <v>59</v>
+      </c>
+      <c r="V60">
+        <f t="shared" si="1"/>
+        <v>85.9375</v>
+      </c>
+    </row>
+    <row r="61" spans="19:22" x14ac:dyDescent="0.45">
+      <c r="S61">
+        <v>59</v>
+      </c>
+      <c r="T61">
+        <v>9.375E-2</v>
+      </c>
+      <c r="U61">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+      <c r="V61">
+        <f t="shared" si="1"/>
+        <v>90.625</v>
+      </c>
+    </row>
+    <row r="62" spans="19:22" x14ac:dyDescent="0.45">
+      <c r="S62">
+        <v>60</v>
+      </c>
+      <c r="T62">
+        <v>0.171875</v>
+      </c>
+      <c r="U62">
+        <f t="shared" si="0"/>
+        <v>61</v>
+      </c>
+      <c r="V62">
+        <f t="shared" si="1"/>
+        <v>82.8125</v>
+      </c>
+    </row>
+    <row r="63" spans="19:22" x14ac:dyDescent="0.45">
+      <c r="S63">
+        <v>61</v>
+      </c>
+      <c r="T63">
+        <v>0.109375</v>
+      </c>
+      <c r="U63">
+        <f t="shared" si="0"/>
+        <v>62</v>
+      </c>
+      <c r="V63">
+        <f t="shared" si="1"/>
+        <v>89.0625</v>
+      </c>
+    </row>
+    <row r="64" spans="19:22" x14ac:dyDescent="0.45">
+      <c r="S64">
+        <v>62</v>
+      </c>
+      <c r="T64">
+        <v>0.109375</v>
+      </c>
+      <c r="U64">
+        <f t="shared" si="0"/>
+        <v>63</v>
+      </c>
+      <c r="V64">
+        <f t="shared" si="1"/>
+        <v>89.0625</v>
+      </c>
+    </row>
+    <row r="65" spans="19:22" x14ac:dyDescent="0.45">
+      <c r="S65">
+        <v>63</v>
+      </c>
+      <c r="T65">
+        <v>9.375E-2</v>
+      </c>
+      <c r="U65">
+        <f t="shared" si="0"/>
+        <v>64</v>
+      </c>
+      <c r="V65">
+        <f t="shared" si="1"/>
+        <v>90.625</v>
+      </c>
+    </row>
+    <row r="66" spans="19:22" x14ac:dyDescent="0.45">
+      <c r="S66">
+        <v>64</v>
+      </c>
+      <c r="T66">
+        <v>0.109375</v>
+      </c>
+      <c r="U66">
+        <f t="shared" si="0"/>
+        <v>65</v>
+      </c>
+      <c r="V66">
+        <f t="shared" si="1"/>
+        <v>89.0625</v>
+      </c>
+    </row>
+    <row r="67" spans="19:22" x14ac:dyDescent="0.45">
+      <c r="S67">
+        <v>65</v>
+      </c>
+      <c r="T67">
+        <v>0.140625</v>
+      </c>
+      <c r="U67">
+        <f t="shared" ref="U67:U101" si="2" xml:space="preserve"> 1+S67</f>
+        <v>66</v>
+      </c>
+      <c r="V67">
+        <f t="shared" ref="V67:V101" si="3" xml:space="preserve"> (1-T67)*100</f>
+        <v>85.9375</v>
+      </c>
+    </row>
+    <row r="68" spans="19:22" x14ac:dyDescent="0.45">
+      <c r="S68">
+        <v>66</v>
+      </c>
+      <c r="T68">
+        <v>0.125</v>
+      </c>
+      <c r="U68">
+        <f t="shared" si="2"/>
+        <v>67</v>
+      </c>
+      <c r="V68">
+        <f t="shared" si="3"/>
+        <v>87.5</v>
+      </c>
+    </row>
+    <row r="69" spans="19:22" x14ac:dyDescent="0.45">
+      <c r="S69">
+        <v>67</v>
+      </c>
+      <c r="T69">
+        <v>0.125</v>
+      </c>
+      <c r="U69">
+        <f t="shared" si="2"/>
+        <v>68</v>
+      </c>
+      <c r="V69">
+        <f t="shared" si="3"/>
+        <v>87.5</v>
+      </c>
+    </row>
+    <row r="70" spans="19:22" x14ac:dyDescent="0.45">
+      <c r="S70">
+        <v>68</v>
+      </c>
+      <c r="T70">
+        <v>0.140625</v>
+      </c>
+      <c r="U70">
+        <f t="shared" si="2"/>
+        <v>69</v>
+      </c>
+      <c r="V70">
+        <f t="shared" si="3"/>
+        <v>85.9375</v>
+      </c>
+    </row>
+    <row r="71" spans="19:22" x14ac:dyDescent="0.45">
+      <c r="S71">
+        <v>69</v>
+      </c>
+      <c r="T71">
+        <v>0.109375</v>
+      </c>
+      <c r="U71">
+        <f t="shared" si="2"/>
+        <v>70</v>
+      </c>
+      <c r="V71">
+        <f t="shared" si="3"/>
+        <v>89.0625</v>
+      </c>
+    </row>
+    <row r="72" spans="19:22" x14ac:dyDescent="0.45">
+      <c r="S72">
+        <v>70</v>
+      </c>
+      <c r="T72">
+        <v>0.203125</v>
+      </c>
+      <c r="U72">
+        <f t="shared" si="2"/>
+        <v>71</v>
+      </c>
+      <c r="V72">
+        <f t="shared" si="3"/>
+        <v>79.6875</v>
+      </c>
+    </row>
+    <row r="73" spans="19:22" x14ac:dyDescent="0.45">
+      <c r="S73">
+        <v>71</v>
+      </c>
+      <c r="T73">
+        <v>0.15625</v>
+      </c>
+      <c r="U73">
+        <f t="shared" si="2"/>
+        <v>72</v>
+      </c>
+      <c r="V73">
+        <f t="shared" si="3"/>
+        <v>84.375</v>
+      </c>
+    </row>
+    <row r="74" spans="19:22" x14ac:dyDescent="0.45">
+      <c r="S74">
+        <v>72</v>
+      </c>
+      <c r="T74">
+        <v>0.109375</v>
+      </c>
+      <c r="U74">
+        <f t="shared" si="2"/>
+        <v>73</v>
+      </c>
+      <c r="V74">
+        <f t="shared" si="3"/>
+        <v>89.0625</v>
+      </c>
+    </row>
+    <row r="75" spans="19:22" x14ac:dyDescent="0.45">
+      <c r="S75">
+        <v>73</v>
+      </c>
+      <c r="T75">
+        <v>7.8125E-2</v>
+      </c>
+      <c r="U75">
+        <f t="shared" si="2"/>
+        <v>74</v>
+      </c>
+      <c r="V75">
+        <f t="shared" si="3"/>
+        <v>92.1875</v>
+      </c>
+    </row>
+    <row r="76" spans="19:22" x14ac:dyDescent="0.45">
+      <c r="S76">
+        <v>74</v>
+      </c>
+      <c r="T76">
+        <v>7.8125E-2</v>
+      </c>
+      <c r="U76">
+        <f t="shared" si="2"/>
+        <v>75</v>
+      </c>
+      <c r="V76">
+        <f t="shared" si="3"/>
+        <v>92.1875</v>
+      </c>
+    </row>
+    <row r="77" spans="19:22" x14ac:dyDescent="0.45">
+      <c r="S77">
+        <v>75</v>
+      </c>
+      <c r="T77">
+        <v>9.375E-2</v>
+      </c>
+      <c r="U77">
+        <f t="shared" si="2"/>
+        <v>76</v>
+      </c>
+      <c r="V77">
+        <f t="shared" si="3"/>
+        <v>90.625</v>
+      </c>
+    </row>
+    <row r="78" spans="19:22" x14ac:dyDescent="0.45">
+      <c r="S78">
+        <v>76</v>
+      </c>
+      <c r="T78">
+        <v>7.8125E-2</v>
+      </c>
+      <c r="U78">
+        <f t="shared" si="2"/>
+        <v>77</v>
+      </c>
+      <c r="V78">
+        <f t="shared" si="3"/>
+        <v>92.1875</v>
+      </c>
+    </row>
+    <row r="79" spans="19:22" x14ac:dyDescent="0.45">
+      <c r="S79">
+        <v>77</v>
+      </c>
+      <c r="T79">
+        <v>9.375E-2</v>
+      </c>
+      <c r="U79">
+        <f t="shared" si="2"/>
+        <v>78</v>
+      </c>
+      <c r="V79">
+        <f t="shared" si="3"/>
+        <v>90.625</v>
+      </c>
+    </row>
+    <row r="80" spans="19:22" x14ac:dyDescent="0.45">
+      <c r="S80">
+        <v>78</v>
+      </c>
+      <c r="T80">
+        <v>7.8125E-2</v>
+      </c>
+      <c r="U80">
+        <f t="shared" si="2"/>
+        <v>79</v>
+      </c>
+      <c r="V80">
+        <f t="shared" si="3"/>
+        <v>92.1875</v>
+      </c>
+    </row>
+    <row r="81" spans="19:22" x14ac:dyDescent="0.45">
+      <c r="S81">
+        <v>79</v>
+      </c>
+      <c r="T81">
+        <v>9.375E-2</v>
+      </c>
+      <c r="U81">
+        <f t="shared" si="2"/>
+        <v>80</v>
+      </c>
+      <c r="V81">
+        <f t="shared" si="3"/>
+        <v>90.625</v>
+      </c>
+    </row>
+    <row r="82" spans="19:22" x14ac:dyDescent="0.45">
+      <c r="S82">
+        <v>80</v>
+      </c>
+      <c r="T82">
+        <v>0.125</v>
+      </c>
+      <c r="U82">
+        <f t="shared" si="2"/>
+        <v>81</v>
+      </c>
+      <c r="V82">
+        <f t="shared" si="3"/>
+        <v>87.5</v>
+      </c>
+    </row>
+    <row r="83" spans="19:22" x14ac:dyDescent="0.45">
+      <c r="S83">
+        <v>81</v>
+      </c>
+      <c r="T83">
+        <v>0.125</v>
+      </c>
+      <c r="U83">
+        <f t="shared" si="2"/>
+        <v>82</v>
+      </c>
+      <c r="V83">
+        <f t="shared" si="3"/>
+        <v>87.5</v>
+      </c>
+    </row>
+    <row r="84" spans="19:22" x14ac:dyDescent="0.45">
+      <c r="S84">
+        <v>82</v>
+      </c>
+      <c r="T84">
+        <v>0.109375</v>
+      </c>
+      <c r="U84">
+        <f t="shared" si="2"/>
+        <v>83</v>
+      </c>
+      <c r="V84">
+        <f t="shared" si="3"/>
+        <v>89.0625</v>
+      </c>
+    </row>
+    <row r="85" spans="19:22" x14ac:dyDescent="0.45">
+      <c r="S85">
+        <v>83</v>
+      </c>
+      <c r="T85">
+        <v>9.375E-2</v>
+      </c>
+      <c r="U85">
+        <f t="shared" si="2"/>
+        <v>84</v>
+      </c>
+      <c r="V85">
+        <f t="shared" si="3"/>
+        <v>90.625</v>
+      </c>
+    </row>
+    <row r="86" spans="19:22" x14ac:dyDescent="0.45">
+      <c r="S86">
+        <v>84</v>
+      </c>
+      <c r="T86">
+        <v>0.125</v>
+      </c>
+      <c r="U86">
+        <f t="shared" si="2"/>
+        <v>85</v>
+      </c>
+      <c r="V86">
+        <f t="shared" si="3"/>
+        <v>87.5</v>
+      </c>
+    </row>
+    <row r="87" spans="19:22" x14ac:dyDescent="0.45">
+      <c r="S87">
+        <v>85</v>
+      </c>
+      <c r="T87">
+        <v>0.15625</v>
+      </c>
+      <c r="U87">
+        <f t="shared" si="2"/>
+        <v>86</v>
+      </c>
+      <c r="V87">
+        <f t="shared" si="3"/>
+        <v>84.375</v>
+      </c>
+    </row>
+    <row r="88" spans="19:22" x14ac:dyDescent="0.45">
+      <c r="S88">
+        <v>86</v>
+      </c>
+      <c r="T88">
+        <v>0.125</v>
+      </c>
+      <c r="U88">
+        <f t="shared" si="2"/>
+        <v>87</v>
+      </c>
+      <c r="V88">
+        <f t="shared" si="3"/>
+        <v>87.5</v>
+      </c>
+    </row>
+    <row r="89" spans="19:22" x14ac:dyDescent="0.45">
+      <c r="S89">
+        <v>87</v>
+      </c>
+      <c r="T89">
+        <v>9.375E-2</v>
+      </c>
+      <c r="U89">
+        <f t="shared" si="2"/>
+        <v>88</v>
+      </c>
+      <c r="V89">
+        <f t="shared" si="3"/>
+        <v>90.625</v>
+      </c>
+    </row>
+    <row r="90" spans="19:22" x14ac:dyDescent="0.45">
+      <c r="S90">
+        <v>88</v>
+      </c>
+      <c r="T90">
+        <v>9.375E-2</v>
+      </c>
+      <c r="U90">
+        <f t="shared" si="2"/>
+        <v>89</v>
+      </c>
+      <c r="V90">
+        <f t="shared" si="3"/>
+        <v>90.625</v>
+      </c>
+    </row>
+    <row r="91" spans="19:22" x14ac:dyDescent="0.45">
+      <c r="S91">
+        <v>89</v>
+      </c>
+      <c r="T91">
+        <v>0.109375</v>
+      </c>
+      <c r="U91">
+        <f t="shared" si="2"/>
+        <v>90</v>
+      </c>
+      <c r="V91">
+        <f t="shared" si="3"/>
+        <v>89.0625</v>
+      </c>
+    </row>
+    <row r="92" spans="19:22" x14ac:dyDescent="0.45">
+      <c r="S92">
+        <v>90</v>
+      </c>
+      <c r="T92">
+        <v>0.109375</v>
+      </c>
+      <c r="U92">
+        <f t="shared" si="2"/>
+        <v>91</v>
+      </c>
+      <c r="V92">
+        <f t="shared" si="3"/>
+        <v>89.0625</v>
+      </c>
+    </row>
+    <row r="93" spans="19:22" x14ac:dyDescent="0.45">
+      <c r="S93">
+        <v>91</v>
+      </c>
+      <c r="T93">
+        <v>0.125</v>
+      </c>
+      <c r="U93">
+        <f t="shared" si="2"/>
+        <v>92</v>
+      </c>
+      <c r="V93">
+        <f t="shared" si="3"/>
+        <v>87.5</v>
+      </c>
+    </row>
+    <row r="94" spans="19:22" x14ac:dyDescent="0.45">
+      <c r="S94">
+        <v>92</v>
+      </c>
+      <c r="T94">
+        <v>0.125</v>
+      </c>
+      <c r="U94">
+        <f t="shared" si="2"/>
+        <v>93</v>
+      </c>
+      <c r="V94">
+        <f t="shared" si="3"/>
+        <v>87.5</v>
+      </c>
+    </row>
+    <row r="95" spans="19:22" x14ac:dyDescent="0.45">
+      <c r="S95">
+        <v>93</v>
+      </c>
+      <c r="T95">
+        <v>0.125</v>
+      </c>
+      <c r="U95">
+        <f t="shared" si="2"/>
+        <v>94</v>
+      </c>
+      <c r="V95">
+        <f t="shared" si="3"/>
+        <v>87.5</v>
+      </c>
+    </row>
+    <row r="96" spans="19:22" x14ac:dyDescent="0.45">
+      <c r="S96">
+        <v>94</v>
+      </c>
+      <c r="T96">
+        <v>0.125</v>
+      </c>
+      <c r="U96">
+        <f t="shared" si="2"/>
+        <v>95</v>
+      </c>
+      <c r="V96">
+        <f t="shared" si="3"/>
+        <v>87.5</v>
+      </c>
+    </row>
+    <row r="97" spans="19:22" x14ac:dyDescent="0.45">
+      <c r="S97">
+        <v>95</v>
+      </c>
+      <c r="T97">
+        <v>0.109375</v>
+      </c>
+      <c r="U97">
+        <f t="shared" si="2"/>
+        <v>96</v>
+      </c>
+      <c r="V97">
+        <f t="shared" si="3"/>
+        <v>89.0625</v>
+      </c>
+    </row>
+    <row r="98" spans="19:22" x14ac:dyDescent="0.45">
+      <c r="S98">
+        <v>96</v>
+      </c>
+      <c r="T98">
+        <v>0.109375</v>
+      </c>
+      <c r="U98">
+        <f t="shared" si="2"/>
+        <v>97</v>
+      </c>
+      <c r="V98">
+        <f t="shared" si="3"/>
+        <v>89.0625</v>
+      </c>
+    </row>
+    <row r="99" spans="19:22" x14ac:dyDescent="0.45">
+      <c r="S99">
+        <v>97</v>
+      </c>
+      <c r="T99">
+        <v>0.109375</v>
+      </c>
+      <c r="U99">
+        <f t="shared" si="2"/>
+        <v>98</v>
+      </c>
+      <c r="V99">
+        <f t="shared" si="3"/>
+        <v>89.0625</v>
+      </c>
+    </row>
+    <row r="100" spans="19:22" x14ac:dyDescent="0.45">
+      <c r="S100">
+        <v>98</v>
+      </c>
+      <c r="T100">
+        <v>0.109375</v>
+      </c>
+      <c r="U100">
+        <f t="shared" si="2"/>
+        <v>99</v>
+      </c>
+      <c r="V100">
+        <f t="shared" si="3"/>
+        <v>89.0625</v>
+      </c>
+    </row>
+    <row r="101" spans="19:22" x14ac:dyDescent="0.45">
+      <c r="S101">
+        <v>99</v>
+      </c>
+      <c r="T101">
+        <v>0.125</v>
+      </c>
+      <c r="U101">
+        <f t="shared" si="2"/>
+        <v>100</v>
+      </c>
+      <c r="V101">
+        <f t="shared" si="3"/>
+        <v>87.5</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="H1:L1"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="A20:C20"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/LJ+UA Experiments.xlsx
+++ b/LJ+UA Experiments.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dhvan\Documents\GitHub\P4P-Transformer-ASR-for-Dysarthric-Speech\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B09CA099-435A-4AFD-9D80-5826EC536EDA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA1F1144-007A-4C99-A322-F5EBCF8115F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2737" yWindow="1170" windowWidth="15391" windowHeight="9442" activeTab="7" xr2:uid="{75EE08EB-D9DA-45E6-8F41-68FBAE46F917}"/>
+    <workbookView xWindow="3075" yWindow="1508" windowWidth="15390" windowHeight="9442" activeTab="7" xr2:uid="{75EE08EB-D9DA-45E6-8F41-68FBAE46F917}"/>
   </bookViews>
   <sheets>
     <sheet name="E1" sheetId="1" r:id="rId1"/>
@@ -453,7 +453,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Accuracy:</t>
+      <t>Accuracy:90</t>
     </r>
     <r>
       <rPr>
@@ -463,7 +463,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>% (% increase)</t>
+      <t>% (3% increase)</t>
     </r>
   </si>
 </sst>
@@ -4522,6 +4522,584 @@
           </a:p>
         </c:txPr>
         <c:crossAx val="1616515503"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'E1234_2.0'!$V$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Accuracy</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'E1234_2.0'!$V$2:$V$101</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="100"/>
+                <c:pt idx="0">
+                  <c:v>-3.125</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.5625</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20.3125</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>45.3125</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>60.9375</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>67.1875</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>67.1875</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>65.625</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>73.4375</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>70.3125</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>81.25</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>73.4375</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>68.75</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>76.5625</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>76.5625</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>81.25</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>76.5625</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>76.5625</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>87.5</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>84.375</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>76.5625</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>81.25</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>81.25</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>82.8125</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>82.8125</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>84.375</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>85.9375</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>85.9375</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>76.5625</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>85.9375</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>84.375</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>85.9375</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>81.25</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>87.5</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>85.9375</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>85.9375</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>82.8125</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>81.25</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>90.625</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>84.375</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>82.8125</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>89.0625</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>87.5</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>84.375</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>82.8125</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>90.625</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>89.0625</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>81.25</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>89.0625</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>85.9375</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>92.1875</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>92.1875</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>82.8125</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>82.8125</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>87.5</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>89.0625</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>82.8125</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>85.9375</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>85.9375</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>85.9375</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>85.9375</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>84.375</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>89.0625</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>89.0625</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>87.5</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>89.0625</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>87.5</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>89.0625</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>90.625</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>87.5</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>85.9375</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>92.1875</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>89.0625</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>90.625</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>87.5</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>89.0625</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>87.5</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>85.9375</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>87.5</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>84.375</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>89.0625</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>87.5</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>85.9375</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>84.375</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>84.375</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>84.375</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>90.625</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>92.1875</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>89.0625</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>89.0625</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>90.625</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>90.625</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>90.625</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>90.625</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>89.0625</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>89.0625</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>89.0625</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>89.0625</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>89.0625</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-B80E-4E54-B071-D97038D2A840}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1369617215"/>
+        <c:axId val="1369617631"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1369617215"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1369617631"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1369617631"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1369617215"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4818,6 +5396,46 @@
 </file>
 
 <file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors8.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -8469,6 +9087,522 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
@@ -9804,6 +10938,92 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>536221</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>83607</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>601484</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>48681</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{40E211C4-841F-084F-0989-3118570C8466}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>176389</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>485068</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>103628</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BB952555-FD49-3D32-C0C7-FE155029ACA3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5794376" y="361598"/>
+          <a:ext cx="4347985" cy="3260989"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -23374,7 +24594,7 @@
   <dimension ref="A1:V101"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="54" workbookViewId="0">
-      <selection activeCell="S102" sqref="S102:T114"/>
+      <selection activeCell="R20" sqref="R20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -23414,7 +24634,7 @@
         <v>0</v>
       </c>
       <c r="T2">
-        <v>0.984375</v>
+        <v>1.03125</v>
       </c>
       <c r="U2">
         <f xml:space="preserve"> 1+S2</f>
@@ -23422,7 +24642,7 @@
       </c>
       <c r="V2">
         <f xml:space="preserve"> (1-T2)*100</f>
-        <v>1.5625</v>
+        <v>-3.125</v>
       </c>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.45">
@@ -23435,7 +24655,7 @@
         <v>1</v>
       </c>
       <c r="T3">
-        <v>0.921875</v>
+        <v>0.984375</v>
       </c>
       <c r="U3">
         <f t="shared" ref="U3:U66" si="0" xml:space="preserve"> 1+S3</f>
@@ -23443,7 +24663,7 @@
       </c>
       <c r="V3">
         <f t="shared" ref="V3:V66" si="1" xml:space="preserve"> (1-T3)*100</f>
-        <v>7.8125</v>
+        <v>1.5625</v>
       </c>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.45">
@@ -23451,7 +24671,7 @@
         <v>2</v>
       </c>
       <c r="T4">
-        <v>0.71875</v>
+        <v>0.796875</v>
       </c>
       <c r="U4">
         <f t="shared" si="0"/>
@@ -23459,7 +24679,7 @@
       </c>
       <c r="V4">
         <f t="shared" si="1"/>
-        <v>28.125</v>
+        <v>20.3125</v>
       </c>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.45">
@@ -23467,7 +24687,7 @@
         <v>3</v>
       </c>
       <c r="T5">
-        <v>0.53125</v>
+        <v>0.546875</v>
       </c>
       <c r="U5">
         <f t="shared" si="0"/>
@@ -23475,7 +24695,7 @@
       </c>
       <c r="V5">
         <f t="shared" si="1"/>
-        <v>46.875</v>
+        <v>45.3125</v>
       </c>
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.45">
@@ -23483,7 +24703,7 @@
         <v>4</v>
       </c>
       <c r="T6">
-        <v>0.375</v>
+        <v>0.390625</v>
       </c>
       <c r="U6">
         <f t="shared" si="0"/>
@@ -23491,7 +24711,7 @@
       </c>
       <c r="V6">
         <f t="shared" si="1"/>
-        <v>62.5</v>
+        <v>60.9375</v>
       </c>
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.45">
@@ -23515,7 +24735,7 @@
         <v>6</v>
       </c>
       <c r="T8">
-        <v>0.28125</v>
+        <v>0.328125</v>
       </c>
       <c r="U8">
         <f t="shared" si="0"/>
@@ -23523,7 +24743,7 @@
       </c>
       <c r="V8">
         <f t="shared" si="1"/>
-        <v>71.875</v>
+        <v>67.1875</v>
       </c>
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.45">
@@ -23531,7 +24751,7 @@
         <v>7</v>
       </c>
       <c r="T9">
-        <v>0.265625</v>
+        <v>0.34375</v>
       </c>
       <c r="U9">
         <f t="shared" si="0"/>
@@ -23539,7 +24759,7 @@
       </c>
       <c r="V9">
         <f t="shared" si="1"/>
-        <v>73.4375</v>
+        <v>65.625</v>
       </c>
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.45">
@@ -23563,7 +24783,7 @@
         <v>9</v>
       </c>
       <c r="T11">
-        <v>0.234375</v>
+        <v>0.296875</v>
       </c>
       <c r="U11">
         <f t="shared" si="0"/>
@@ -23571,7 +24791,7 @@
       </c>
       <c r="V11">
         <f t="shared" si="1"/>
-        <v>76.5625</v>
+        <v>70.3125</v>
       </c>
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.45">
@@ -23579,7 +24799,7 @@
         <v>10</v>
       </c>
       <c r="T12">
-        <v>0.265625</v>
+        <v>0.1875</v>
       </c>
       <c r="U12">
         <f t="shared" si="0"/>
@@ -23587,7 +24807,7 @@
       </c>
       <c r="V12">
         <f t="shared" si="1"/>
-        <v>73.4375</v>
+        <v>81.25</v>
       </c>
     </row>
     <row r="13" spans="1:22" x14ac:dyDescent="0.45">
@@ -23595,7 +24815,7 @@
         <v>11</v>
       </c>
       <c r="T13">
-        <v>0.1875</v>
+        <v>0.265625</v>
       </c>
       <c r="U13">
         <f t="shared" si="0"/>
@@ -23603,7 +24823,7 @@
       </c>
       <c r="V13">
         <f t="shared" si="1"/>
-        <v>81.25</v>
+        <v>73.4375</v>
       </c>
     </row>
     <row r="14" spans="1:22" x14ac:dyDescent="0.45">
@@ -23611,7 +24831,7 @@
         <v>12</v>
       </c>
       <c r="T14">
-        <v>0.1875</v>
+        <v>0.3125</v>
       </c>
       <c r="U14">
         <f t="shared" si="0"/>
@@ -23619,7 +24839,7 @@
       </c>
       <c r="V14">
         <f t="shared" si="1"/>
-        <v>81.25</v>
+        <v>68.75</v>
       </c>
     </row>
     <row r="15" spans="1:22" x14ac:dyDescent="0.45">
@@ -23627,7 +24847,7 @@
         <v>13</v>
       </c>
       <c r="T15">
-        <v>0.21875</v>
+        <v>0.234375</v>
       </c>
       <c r="U15">
         <f t="shared" si="0"/>
@@ -23635,7 +24855,7 @@
       </c>
       <c r="V15">
         <f t="shared" si="1"/>
-        <v>78.125</v>
+        <v>76.5625</v>
       </c>
     </row>
     <row r="16" spans="1:22" x14ac:dyDescent="0.45">
@@ -23643,7 +24863,7 @@
         <v>14</v>
       </c>
       <c r="T16">
-        <v>0.265625</v>
+        <v>0.234375</v>
       </c>
       <c r="U16">
         <f t="shared" si="0"/>
@@ -23651,7 +24871,7 @@
       </c>
       <c r="V16">
         <f t="shared" si="1"/>
-        <v>73.4375</v>
+        <v>76.5625</v>
       </c>
     </row>
     <row r="17" spans="1:22" x14ac:dyDescent="0.45">
@@ -23659,7 +24879,7 @@
         <v>15</v>
       </c>
       <c r="T17">
-        <v>0.203125</v>
+        <v>0.1875</v>
       </c>
       <c r="U17">
         <f t="shared" si="0"/>
@@ -23667,7 +24887,7 @@
       </c>
       <c r="V17">
         <f t="shared" si="1"/>
-        <v>79.6875</v>
+        <v>81.25</v>
       </c>
     </row>
     <row r="18" spans="1:22" x14ac:dyDescent="0.45">
@@ -23675,7 +24895,7 @@
         <v>16</v>
       </c>
       <c r="T18">
-        <v>0.1875</v>
+        <v>0.234375</v>
       </c>
       <c r="U18">
         <f t="shared" si="0"/>
@@ -23683,7 +24903,7 @@
       </c>
       <c r="V18">
         <f t="shared" si="1"/>
-        <v>81.25</v>
+        <v>76.5625</v>
       </c>
     </row>
     <row r="19" spans="1:22" x14ac:dyDescent="0.45">
@@ -23691,7 +24911,7 @@
         <v>17</v>
       </c>
       <c r="T19">
-        <v>0.296875</v>
+        <v>0.234375</v>
       </c>
       <c r="U19">
         <f t="shared" si="0"/>
@@ -23699,7 +24919,7 @@
       </c>
       <c r="V19">
         <f t="shared" si="1"/>
-        <v>70.3125</v>
+        <v>76.5625</v>
       </c>
     </row>
     <row r="20" spans="1:22" x14ac:dyDescent="0.45">
@@ -23712,7 +24932,7 @@
         <v>18</v>
       </c>
       <c r="T20">
-        <v>0.21875</v>
+        <v>0.125</v>
       </c>
       <c r="U20">
         <f t="shared" si="0"/>
@@ -23720,7 +24940,7 @@
       </c>
       <c r="V20">
         <f t="shared" si="1"/>
-        <v>78.125</v>
+        <v>87.5</v>
       </c>
     </row>
     <row r="21" spans="1:22" x14ac:dyDescent="0.45">
@@ -23728,7 +24948,7 @@
         <v>19</v>
       </c>
       <c r="T21">
-        <v>0.203125</v>
+        <v>0.15625</v>
       </c>
       <c r="U21">
         <f t="shared" si="0"/>
@@ -23736,7 +24956,7 @@
       </c>
       <c r="V21">
         <f t="shared" si="1"/>
-        <v>79.6875</v>
+        <v>84.375</v>
       </c>
     </row>
     <row r="22" spans="1:22" x14ac:dyDescent="0.45">
@@ -23760,7 +24980,7 @@
         <v>21</v>
       </c>
       <c r="T23">
-        <v>0.171875</v>
+        <v>0.25</v>
       </c>
       <c r="U23">
         <f t="shared" si="0"/>
@@ -23768,7 +24988,7 @@
       </c>
       <c r="V23">
         <f t="shared" si="1"/>
-        <v>82.8125</v>
+        <v>75</v>
       </c>
     </row>
     <row r="24" spans="1:22" x14ac:dyDescent="0.45">
@@ -23776,7 +24996,7 @@
         <v>22</v>
       </c>
       <c r="T24">
-        <v>0.140625</v>
+        <v>0.1875</v>
       </c>
       <c r="U24">
         <f t="shared" si="0"/>
@@ -23784,7 +25004,7 @@
       </c>
       <c r="V24">
         <f t="shared" si="1"/>
-        <v>85.9375</v>
+        <v>81.25</v>
       </c>
     </row>
     <row r="25" spans="1:22" x14ac:dyDescent="0.45">
@@ -23792,7 +25012,7 @@
         <v>23</v>
       </c>
       <c r="T25">
-        <v>0.15625</v>
+        <v>0.1875</v>
       </c>
       <c r="U25">
         <f t="shared" si="0"/>
@@ -23800,7 +25020,7 @@
       </c>
       <c r="V25">
         <f t="shared" si="1"/>
-        <v>84.375</v>
+        <v>81.25</v>
       </c>
     </row>
     <row r="26" spans="1:22" x14ac:dyDescent="0.45">
@@ -23808,7 +25028,7 @@
         <v>24</v>
       </c>
       <c r="T26">
-        <v>0.140625</v>
+        <v>0.171875</v>
       </c>
       <c r="U26">
         <f t="shared" si="0"/>
@@ -23816,7 +25036,7 @@
       </c>
       <c r="V26">
         <f t="shared" si="1"/>
-        <v>85.9375</v>
+        <v>82.8125</v>
       </c>
     </row>
     <row r="27" spans="1:22" x14ac:dyDescent="0.45">
@@ -23824,7 +25044,7 @@
         <v>25</v>
       </c>
       <c r="T27">
-        <v>0.1875</v>
+        <v>0.171875</v>
       </c>
       <c r="U27">
         <f t="shared" si="0"/>
@@ -23832,7 +25052,7 @@
       </c>
       <c r="V27">
         <f t="shared" si="1"/>
-        <v>81.25</v>
+        <v>82.8125</v>
       </c>
     </row>
     <row r="28" spans="1:22" x14ac:dyDescent="0.45">
@@ -23840,7 +25060,7 @@
         <v>26</v>
       </c>
       <c r="T28">
-        <v>0.125</v>
+        <v>0.15625</v>
       </c>
       <c r="U28">
         <f t="shared" si="0"/>
@@ -23848,7 +25068,7 @@
       </c>
       <c r="V28">
         <f t="shared" si="1"/>
-        <v>87.5</v>
+        <v>84.375</v>
       </c>
     </row>
     <row r="29" spans="1:22" x14ac:dyDescent="0.45">
@@ -23856,7 +25076,7 @@
         <v>27</v>
       </c>
       <c r="T29">
-        <v>0.1875</v>
+        <v>0.140625</v>
       </c>
       <c r="U29">
         <f t="shared" si="0"/>
@@ -23864,7 +25084,7 @@
       </c>
       <c r="V29">
         <f t="shared" si="1"/>
-        <v>81.25</v>
+        <v>85.9375</v>
       </c>
     </row>
     <row r="30" spans="1:22" x14ac:dyDescent="0.45">
@@ -23888,7 +25108,7 @@
         <v>29</v>
       </c>
       <c r="T31">
-        <v>0.140625</v>
+        <v>0.234375</v>
       </c>
       <c r="U31">
         <f t="shared" si="0"/>
@@ -23896,7 +25116,7 @@
       </c>
       <c r="V31">
         <f t="shared" si="1"/>
-        <v>85.9375</v>
+        <v>76.5625</v>
       </c>
     </row>
     <row r="32" spans="1:22" x14ac:dyDescent="0.45">
@@ -23904,7 +25124,7 @@
         <v>30</v>
       </c>
       <c r="T32">
-        <v>0.171875</v>
+        <v>0.140625</v>
       </c>
       <c r="U32">
         <f t="shared" si="0"/>
@@ -23912,7 +25132,7 @@
       </c>
       <c r="V32">
         <f t="shared" si="1"/>
-        <v>82.8125</v>
+        <v>85.9375</v>
       </c>
     </row>
     <row r="33" spans="19:22" x14ac:dyDescent="0.45">
@@ -23984,7 +25204,7 @@
         <v>35</v>
       </c>
       <c r="T37">
-        <v>0.15625</v>
+        <v>0.140625</v>
       </c>
       <c r="U37">
         <f t="shared" si="0"/>
@@ -23992,7 +25212,7 @@
       </c>
       <c r="V37">
         <f t="shared" si="1"/>
-        <v>84.375</v>
+        <v>85.9375</v>
       </c>
     </row>
     <row r="38" spans="19:22" x14ac:dyDescent="0.45">
@@ -24000,7 +25220,7 @@
         <v>36</v>
       </c>
       <c r="T38">
-        <v>0.203125</v>
+        <v>0.140625</v>
       </c>
       <c r="U38">
         <f t="shared" si="0"/>
@@ -24008,7 +25228,7 @@
       </c>
       <c r="V38">
         <f t="shared" si="1"/>
-        <v>79.6875</v>
+        <v>85.9375</v>
       </c>
     </row>
     <row r="39" spans="19:22" x14ac:dyDescent="0.45">
@@ -24032,7 +25252,7 @@
         <v>38</v>
       </c>
       <c r="T40">
-        <v>0.125</v>
+        <v>0.1875</v>
       </c>
       <c r="U40">
         <f t="shared" si="0"/>
@@ -24040,7 +25260,7 @@
       </c>
       <c r="V40">
         <f t="shared" si="1"/>
-        <v>87.5</v>
+        <v>81.25</v>
       </c>
     </row>
     <row r="41" spans="19:22" x14ac:dyDescent="0.45">
@@ -24048,7 +25268,7 @@
         <v>39</v>
       </c>
       <c r="T41">
-        <v>0.15625</v>
+        <v>9.375E-2</v>
       </c>
       <c r="U41">
         <f t="shared" si="0"/>
@@ -24056,7 +25276,7 @@
       </c>
       <c r="V41">
         <f t="shared" si="1"/>
-        <v>84.375</v>
+        <v>90.625</v>
       </c>
     </row>
     <row r="42" spans="19:22" x14ac:dyDescent="0.45">
@@ -24064,7 +25284,7 @@
         <v>40</v>
       </c>
       <c r="T42">
-        <v>0.140625</v>
+        <v>0.15625</v>
       </c>
       <c r="U42">
         <f t="shared" si="0"/>
@@ -24072,7 +25292,7 @@
       </c>
       <c r="V42">
         <f t="shared" si="1"/>
-        <v>85.9375</v>
+        <v>84.375</v>
       </c>
     </row>
     <row r="43" spans="19:22" x14ac:dyDescent="0.45">
@@ -24096,7 +25316,7 @@
         <v>42</v>
       </c>
       <c r="T44">
-        <v>0.171875</v>
+        <v>0.109375</v>
       </c>
       <c r="U44">
         <f t="shared" si="0"/>
@@ -24104,7 +25324,7 @@
       </c>
       <c r="V44">
         <f t="shared" si="1"/>
-        <v>82.8125</v>
+        <v>89.0625</v>
       </c>
     </row>
     <row r="45" spans="19:22" x14ac:dyDescent="0.45">
@@ -24112,7 +25332,7 @@
         <v>43</v>
       </c>
       <c r="T45">
-        <v>0.15625</v>
+        <v>0.125</v>
       </c>
       <c r="U45">
         <f t="shared" si="0"/>
@@ -24120,7 +25340,7 @@
       </c>
       <c r="V45">
         <f t="shared" si="1"/>
-        <v>84.375</v>
+        <v>87.5</v>
       </c>
     </row>
     <row r="46" spans="19:22" x14ac:dyDescent="0.45">
@@ -24128,7 +25348,7 @@
         <v>44</v>
       </c>
       <c r="T46">
-        <v>0.140625</v>
+        <v>0.15625</v>
       </c>
       <c r="U46">
         <f t="shared" si="0"/>
@@ -24136,7 +25356,7 @@
       </c>
       <c r="V46">
         <f t="shared" si="1"/>
-        <v>85.9375</v>
+        <v>84.375</v>
       </c>
     </row>
     <row r="47" spans="19:22" x14ac:dyDescent="0.45">
@@ -24160,7 +25380,7 @@
         <v>46</v>
       </c>
       <c r="T48">
-        <v>0.171875</v>
+        <v>9.375E-2</v>
       </c>
       <c r="U48">
         <f t="shared" si="0"/>
@@ -24168,7 +25388,7 @@
       </c>
       <c r="V48">
         <f t="shared" si="1"/>
-        <v>82.8125</v>
+        <v>90.625</v>
       </c>
     </row>
     <row r="49" spans="19:22" x14ac:dyDescent="0.45">
@@ -24176,7 +25396,7 @@
         <v>47</v>
       </c>
       <c r="T49">
-        <v>0.1875</v>
+        <v>0.109375</v>
       </c>
       <c r="U49">
         <f t="shared" si="0"/>
@@ -24184,7 +25404,7 @@
       </c>
       <c r="V49">
         <f t="shared" si="1"/>
-        <v>81.25</v>
+        <v>89.0625</v>
       </c>
     </row>
     <row r="50" spans="19:22" x14ac:dyDescent="0.45">
@@ -24192,7 +25412,7 @@
         <v>48</v>
       </c>
       <c r="T50">
-        <v>0.109375</v>
+        <v>0.1875</v>
       </c>
       <c r="U50">
         <f t="shared" si="0"/>
@@ -24200,7 +25420,7 @@
       </c>
       <c r="V50">
         <f t="shared" si="1"/>
-        <v>89.0625</v>
+        <v>81.25</v>
       </c>
     </row>
     <row r="51" spans="19:22" x14ac:dyDescent="0.45">
@@ -24208,7 +25428,7 @@
         <v>49</v>
       </c>
       <c r="T51">
-        <v>0.1875</v>
+        <v>0.109375</v>
       </c>
       <c r="U51">
         <f t="shared" si="0"/>
@@ -24216,7 +25436,7 @@
       </c>
       <c r="V51">
         <f t="shared" si="1"/>
-        <v>81.25</v>
+        <v>89.0625</v>
       </c>
     </row>
     <row r="52" spans="19:22" x14ac:dyDescent="0.45">
@@ -24224,7 +25444,7 @@
         <v>50</v>
       </c>
       <c r="T52">
-        <v>0.109375</v>
+        <v>0.140625</v>
       </c>
       <c r="U52">
         <f t="shared" si="0"/>
@@ -24232,7 +25452,7 @@
       </c>
       <c r="V52">
         <f t="shared" si="1"/>
-        <v>89.0625</v>
+        <v>85.9375</v>
       </c>
     </row>
     <row r="53" spans="19:22" x14ac:dyDescent="0.45">
@@ -24240,7 +25460,7 @@
         <v>51</v>
       </c>
       <c r="T53">
-        <v>0.140625</v>
+        <v>7.8125E-2</v>
       </c>
       <c r="U53">
         <f t="shared" si="0"/>
@@ -24248,7 +25468,7 @@
       </c>
       <c r="V53">
         <f t="shared" si="1"/>
-        <v>85.9375</v>
+        <v>92.1875</v>
       </c>
     </row>
     <row r="54" spans="19:22" x14ac:dyDescent="0.45">
@@ -24256,7 +25476,7 @@
         <v>52</v>
       </c>
       <c r="T54">
-        <v>0.125</v>
+        <v>7.8125E-2</v>
       </c>
       <c r="U54">
         <f t="shared" si="0"/>
@@ -24264,7 +25484,7 @@
       </c>
       <c r="V54">
         <f t="shared" si="1"/>
-        <v>87.5</v>
+        <v>92.1875</v>
       </c>
     </row>
     <row r="55" spans="19:22" x14ac:dyDescent="0.45">
@@ -24272,7 +25492,7 @@
         <v>53</v>
       </c>
       <c r="T55">
-        <v>0.203125</v>
+        <v>0.171875</v>
       </c>
       <c r="U55">
         <f t="shared" si="0"/>
@@ -24280,7 +25500,7 @@
       </c>
       <c r="V55">
         <f t="shared" si="1"/>
-        <v>79.6875</v>
+        <v>82.8125</v>
       </c>
     </row>
     <row r="56" spans="19:22" x14ac:dyDescent="0.45">
@@ -24288,7 +25508,7 @@
         <v>54</v>
       </c>
       <c r="T56">
-        <v>0.125</v>
+        <v>0.171875</v>
       </c>
       <c r="U56">
         <f t="shared" si="0"/>
@@ -24296,7 +25516,7 @@
       </c>
       <c r="V56">
         <f t="shared" si="1"/>
-        <v>87.5</v>
+        <v>82.8125</v>
       </c>
     </row>
     <row r="57" spans="19:22" x14ac:dyDescent="0.45">
@@ -24304,7 +25524,7 @@
         <v>55</v>
       </c>
       <c r="T57">
-        <v>0.140625</v>
+        <v>0.125</v>
       </c>
       <c r="U57">
         <f t="shared" si="0"/>
@@ -24312,7 +25532,7 @@
       </c>
       <c r="V57">
         <f t="shared" si="1"/>
-        <v>85.9375</v>
+        <v>87.5</v>
       </c>
     </row>
     <row r="58" spans="19:22" x14ac:dyDescent="0.45">
@@ -24320,7 +25540,7 @@
         <v>56</v>
       </c>
       <c r="T58">
-        <v>0.15625</v>
+        <v>0.109375</v>
       </c>
       <c r="U58">
         <f t="shared" si="0"/>
@@ -24328,7 +25548,7 @@
       </c>
       <c r="V58">
         <f t="shared" si="1"/>
-        <v>84.375</v>
+        <v>89.0625</v>
       </c>
     </row>
     <row r="59" spans="19:22" x14ac:dyDescent="0.45">
@@ -24336,7 +25556,7 @@
         <v>57</v>
       </c>
       <c r="T59">
-        <v>0.140625</v>
+        <v>0.171875</v>
       </c>
       <c r="U59">
         <f t="shared" si="0"/>
@@ -24344,7 +25564,7 @@
       </c>
       <c r="V59">
         <f t="shared" si="1"/>
-        <v>85.9375</v>
+        <v>82.8125</v>
       </c>
     </row>
     <row r="60" spans="19:22" x14ac:dyDescent="0.45">
@@ -24368,7 +25588,7 @@
         <v>59</v>
       </c>
       <c r="T61">
-        <v>9.375E-2</v>
+        <v>0.140625</v>
       </c>
       <c r="U61">
         <f t="shared" si="0"/>
@@ -24376,7 +25596,7 @@
       </c>
       <c r="V61">
         <f t="shared" si="1"/>
-        <v>90.625</v>
+        <v>85.9375</v>
       </c>
     </row>
     <row r="62" spans="19:22" x14ac:dyDescent="0.45">
@@ -24384,7 +25604,7 @@
         <v>60</v>
       </c>
       <c r="T62">
-        <v>0.171875</v>
+        <v>0.140625</v>
       </c>
       <c r="U62">
         <f t="shared" si="0"/>
@@ -24392,7 +25612,7 @@
       </c>
       <c r="V62">
         <f t="shared" si="1"/>
-        <v>82.8125</v>
+        <v>85.9375</v>
       </c>
     </row>
     <row r="63" spans="19:22" x14ac:dyDescent="0.45">
@@ -24400,7 +25620,7 @@
         <v>61</v>
       </c>
       <c r="T63">
-        <v>0.109375</v>
+        <v>0.140625</v>
       </c>
       <c r="U63">
         <f t="shared" si="0"/>
@@ -24408,7 +25628,7 @@
       </c>
       <c r="V63">
         <f t="shared" si="1"/>
-        <v>89.0625</v>
+        <v>85.9375</v>
       </c>
     </row>
     <row r="64" spans="19:22" x14ac:dyDescent="0.45">
@@ -24416,7 +25636,7 @@
         <v>62</v>
       </c>
       <c r="T64">
-        <v>0.109375</v>
+        <v>0.15625</v>
       </c>
       <c r="U64">
         <f t="shared" si="0"/>
@@ -24424,7 +25644,7 @@
       </c>
       <c r="V64">
         <f t="shared" si="1"/>
-        <v>89.0625</v>
+        <v>84.375</v>
       </c>
     </row>
     <row r="65" spans="19:22" x14ac:dyDescent="0.45">
@@ -24432,7 +25652,7 @@
         <v>63</v>
       </c>
       <c r="T65">
-        <v>9.375E-2</v>
+        <v>0.109375</v>
       </c>
       <c r="U65">
         <f t="shared" si="0"/>
@@ -24440,7 +25660,7 @@
       </c>
       <c r="V65">
         <f t="shared" si="1"/>
-        <v>90.625</v>
+        <v>89.0625</v>
       </c>
     </row>
     <row r="66" spans="19:22" x14ac:dyDescent="0.45">
@@ -24464,7 +25684,7 @@
         <v>65</v>
       </c>
       <c r="T67">
-        <v>0.140625</v>
+        <v>0.125</v>
       </c>
       <c r="U67">
         <f t="shared" ref="U67:U101" si="2" xml:space="preserve"> 1+S67</f>
@@ -24472,7 +25692,7 @@
       </c>
       <c r="V67">
         <f t="shared" ref="V67:V101" si="3" xml:space="preserve"> (1-T67)*100</f>
-        <v>85.9375</v>
+        <v>87.5</v>
       </c>
     </row>
     <row r="68" spans="19:22" x14ac:dyDescent="0.45">
@@ -24480,7 +25700,7 @@
         <v>66</v>
       </c>
       <c r="T68">
-        <v>0.125</v>
+        <v>0.109375</v>
       </c>
       <c r="U68">
         <f t="shared" si="2"/>
@@ -24488,7 +25708,7 @@
       </c>
       <c r="V68">
         <f t="shared" si="3"/>
-        <v>87.5</v>
+        <v>89.0625</v>
       </c>
     </row>
     <row r="69" spans="19:22" x14ac:dyDescent="0.45">
@@ -24512,7 +25732,7 @@
         <v>68</v>
       </c>
       <c r="T70">
-        <v>0.140625</v>
+        <v>0.109375</v>
       </c>
       <c r="U70">
         <f t="shared" si="2"/>
@@ -24520,7 +25740,7 @@
       </c>
       <c r="V70">
         <f t="shared" si="3"/>
-        <v>85.9375</v>
+        <v>89.0625</v>
       </c>
     </row>
     <row r="71" spans="19:22" x14ac:dyDescent="0.45">
@@ -24528,7 +25748,7 @@
         <v>69</v>
       </c>
       <c r="T71">
-        <v>0.109375</v>
+        <v>9.375E-2</v>
       </c>
       <c r="U71">
         <f t="shared" si="2"/>
@@ -24536,7 +25756,7 @@
       </c>
       <c r="V71">
         <f t="shared" si="3"/>
-        <v>89.0625</v>
+        <v>90.625</v>
       </c>
     </row>
     <row r="72" spans="19:22" x14ac:dyDescent="0.45">
@@ -24544,7 +25764,7 @@
         <v>70</v>
       </c>
       <c r="T72">
-        <v>0.203125</v>
+        <v>0.125</v>
       </c>
       <c r="U72">
         <f t="shared" si="2"/>
@@ -24552,7 +25772,7 @@
       </c>
       <c r="V72">
         <f t="shared" si="3"/>
-        <v>79.6875</v>
+        <v>87.5</v>
       </c>
     </row>
     <row r="73" spans="19:22" x14ac:dyDescent="0.45">
@@ -24560,7 +25780,7 @@
         <v>71</v>
       </c>
       <c r="T73">
-        <v>0.15625</v>
+        <v>0.140625</v>
       </c>
       <c r="U73">
         <f t="shared" si="2"/>
@@ -24568,7 +25788,7 @@
       </c>
       <c r="V73">
         <f t="shared" si="3"/>
-        <v>84.375</v>
+        <v>85.9375</v>
       </c>
     </row>
     <row r="74" spans="19:22" x14ac:dyDescent="0.45">
@@ -24576,7 +25796,7 @@
         <v>72</v>
       </c>
       <c r="T74">
-        <v>0.109375</v>
+        <v>7.8125E-2</v>
       </c>
       <c r="U74">
         <f t="shared" si="2"/>
@@ -24584,7 +25804,7 @@
       </c>
       <c r="V74">
         <f t="shared" si="3"/>
-        <v>89.0625</v>
+        <v>92.1875</v>
       </c>
     </row>
     <row r="75" spans="19:22" x14ac:dyDescent="0.45">
@@ -24592,7 +25812,7 @@
         <v>73</v>
       </c>
       <c r="T75">
-        <v>7.8125E-2</v>
+        <v>0.109375</v>
       </c>
       <c r="U75">
         <f t="shared" si="2"/>
@@ -24600,7 +25820,7 @@
       </c>
       <c r="V75">
         <f t="shared" si="3"/>
-        <v>92.1875</v>
+        <v>89.0625</v>
       </c>
     </row>
     <row r="76" spans="19:22" x14ac:dyDescent="0.45">
@@ -24608,7 +25828,7 @@
         <v>74</v>
       </c>
       <c r="T76">
-        <v>7.8125E-2</v>
+        <v>9.375E-2</v>
       </c>
       <c r="U76">
         <f t="shared" si="2"/>
@@ -24616,7 +25836,7 @@
       </c>
       <c r="V76">
         <f t="shared" si="3"/>
-        <v>92.1875</v>
+        <v>90.625</v>
       </c>
     </row>
     <row r="77" spans="19:22" x14ac:dyDescent="0.45">
@@ -24624,7 +25844,7 @@
         <v>75</v>
       </c>
       <c r="T77">
-        <v>9.375E-2</v>
+        <v>0.125</v>
       </c>
       <c r="U77">
         <f t="shared" si="2"/>
@@ -24632,7 +25852,7 @@
       </c>
       <c r="V77">
         <f t="shared" si="3"/>
-        <v>90.625</v>
+        <v>87.5</v>
       </c>
     </row>
     <row r="78" spans="19:22" x14ac:dyDescent="0.45">
@@ -24640,7 +25860,7 @@
         <v>76</v>
       </c>
       <c r="T78">
-        <v>7.8125E-2</v>
+        <v>0.109375</v>
       </c>
       <c r="U78">
         <f t="shared" si="2"/>
@@ -24648,7 +25868,7 @@
       </c>
       <c r="V78">
         <f t="shared" si="3"/>
-        <v>92.1875</v>
+        <v>89.0625</v>
       </c>
     </row>
     <row r="79" spans="19:22" x14ac:dyDescent="0.45">
@@ -24656,7 +25876,7 @@
         <v>77</v>
       </c>
       <c r="T79">
-        <v>9.375E-2</v>
+        <v>0.125</v>
       </c>
       <c r="U79">
         <f t="shared" si="2"/>
@@ -24664,7 +25884,7 @@
       </c>
       <c r="V79">
         <f t="shared" si="3"/>
-        <v>90.625</v>
+        <v>87.5</v>
       </c>
     </row>
     <row r="80" spans="19:22" x14ac:dyDescent="0.45">
@@ -24672,7 +25892,7 @@
         <v>78</v>
       </c>
       <c r="T80">
-        <v>7.8125E-2</v>
+        <v>0.140625</v>
       </c>
       <c r="U80">
         <f t="shared" si="2"/>
@@ -24680,7 +25900,7 @@
       </c>
       <c r="V80">
         <f t="shared" si="3"/>
-        <v>92.1875</v>
+        <v>85.9375</v>
       </c>
     </row>
     <row r="81" spans="19:22" x14ac:dyDescent="0.45">
@@ -24688,7 +25908,7 @@
         <v>79</v>
       </c>
       <c r="T81">
-        <v>9.375E-2</v>
+        <v>0.125</v>
       </c>
       <c r="U81">
         <f t="shared" si="2"/>
@@ -24696,7 +25916,7 @@
       </c>
       <c r="V81">
         <f t="shared" si="3"/>
-        <v>90.625</v>
+        <v>87.5</v>
       </c>
     </row>
     <row r="82" spans="19:22" x14ac:dyDescent="0.45">
@@ -24704,7 +25924,7 @@
         <v>80</v>
       </c>
       <c r="T82">
-        <v>0.125</v>
+        <v>0.15625</v>
       </c>
       <c r="U82">
         <f t="shared" si="2"/>
@@ -24712,7 +25932,7 @@
       </c>
       <c r="V82">
         <f t="shared" si="3"/>
-        <v>87.5</v>
+        <v>84.375</v>
       </c>
     </row>
     <row r="83" spans="19:22" x14ac:dyDescent="0.45">
@@ -24720,7 +25940,7 @@
         <v>81</v>
       </c>
       <c r="T83">
-        <v>0.125</v>
+        <v>0.109375</v>
       </c>
       <c r="U83">
         <f t="shared" si="2"/>
@@ -24728,7 +25948,7 @@
       </c>
       <c r="V83">
         <f t="shared" si="3"/>
-        <v>87.5</v>
+        <v>89.0625</v>
       </c>
     </row>
     <row r="84" spans="19:22" x14ac:dyDescent="0.45">
@@ -24736,7 +25956,7 @@
         <v>82</v>
       </c>
       <c r="T84">
-        <v>0.109375</v>
+        <v>0.125</v>
       </c>
       <c r="U84">
         <f t="shared" si="2"/>
@@ -24744,7 +25964,7 @@
       </c>
       <c r="V84">
         <f t="shared" si="3"/>
-        <v>89.0625</v>
+        <v>87.5</v>
       </c>
     </row>
     <row r="85" spans="19:22" x14ac:dyDescent="0.45">
@@ -24752,7 +25972,7 @@
         <v>83</v>
       </c>
       <c r="T85">
-        <v>9.375E-2</v>
+        <v>0.140625</v>
       </c>
       <c r="U85">
         <f t="shared" si="2"/>
@@ -24760,7 +25980,7 @@
       </c>
       <c r="V85">
         <f t="shared" si="3"/>
-        <v>90.625</v>
+        <v>85.9375</v>
       </c>
     </row>
     <row r="86" spans="19:22" x14ac:dyDescent="0.45">
@@ -24768,7 +25988,7 @@
         <v>84</v>
       </c>
       <c r="T86">
-        <v>0.125</v>
+        <v>0.15625</v>
       </c>
       <c r="U86">
         <f t="shared" si="2"/>
@@ -24776,7 +25996,7 @@
       </c>
       <c r="V86">
         <f t="shared" si="3"/>
-        <v>87.5</v>
+        <v>84.375</v>
       </c>
     </row>
     <row r="87" spans="19:22" x14ac:dyDescent="0.45">
@@ -24800,7 +26020,7 @@
         <v>86</v>
       </c>
       <c r="T88">
-        <v>0.125</v>
+        <v>0.15625</v>
       </c>
       <c r="U88">
         <f t="shared" si="2"/>
@@ -24808,7 +26028,7 @@
       </c>
       <c r="V88">
         <f t="shared" si="3"/>
-        <v>87.5</v>
+        <v>84.375</v>
       </c>
     </row>
     <row r="89" spans="19:22" x14ac:dyDescent="0.45">
@@ -24832,7 +26052,7 @@
         <v>88</v>
       </c>
       <c r="T90">
-        <v>9.375E-2</v>
+        <v>7.8125E-2</v>
       </c>
       <c r="U90">
         <f t="shared" si="2"/>
@@ -24840,7 +26060,7 @@
       </c>
       <c r="V90">
         <f t="shared" si="3"/>
-        <v>90.625</v>
+        <v>92.1875</v>
       </c>
     </row>
     <row r="91" spans="19:22" x14ac:dyDescent="0.45">
@@ -24880,7 +26100,7 @@
         <v>91</v>
       </c>
       <c r="T93">
-        <v>0.125</v>
+        <v>9.375E-2</v>
       </c>
       <c r="U93">
         <f t="shared" si="2"/>
@@ -24888,7 +26108,7 @@
       </c>
       <c r="V93">
         <f t="shared" si="3"/>
-        <v>87.5</v>
+        <v>90.625</v>
       </c>
     </row>
     <row r="94" spans="19:22" x14ac:dyDescent="0.45">
@@ -24896,7 +26116,7 @@
         <v>92</v>
       </c>
       <c r="T94">
-        <v>0.125</v>
+        <v>9.375E-2</v>
       </c>
       <c r="U94">
         <f t="shared" si="2"/>
@@ -24904,7 +26124,7 @@
       </c>
       <c r="V94">
         <f t="shared" si="3"/>
-        <v>87.5</v>
+        <v>90.625</v>
       </c>
     </row>
     <row r="95" spans="19:22" x14ac:dyDescent="0.45">
@@ -24912,7 +26132,7 @@
         <v>93</v>
       </c>
       <c r="T95">
-        <v>0.125</v>
+        <v>9.375E-2</v>
       </c>
       <c r="U95">
         <f t="shared" si="2"/>
@@ -24920,7 +26140,7 @@
       </c>
       <c r="V95">
         <f t="shared" si="3"/>
-        <v>87.5</v>
+        <v>90.625</v>
       </c>
     </row>
     <row r="96" spans="19:22" x14ac:dyDescent="0.45">
@@ -24928,7 +26148,7 @@
         <v>94</v>
       </c>
       <c r="T96">
-        <v>0.125</v>
+        <v>9.375E-2</v>
       </c>
       <c r="U96">
         <f t="shared" si="2"/>
@@ -24936,7 +26156,7 @@
       </c>
       <c r="V96">
         <f t="shared" si="3"/>
-        <v>87.5</v>
+        <v>90.625</v>
       </c>
     </row>
     <row r="97" spans="19:22" x14ac:dyDescent="0.45">
@@ -25008,7 +26228,7 @@
         <v>99</v>
       </c>
       <c r="T101">
-        <v>0.125</v>
+        <v>0.109375</v>
       </c>
       <c r="U101">
         <f t="shared" si="2"/>
@@ -25016,7 +26236,7 @@
       </c>
       <c r="V101">
         <f t="shared" si="3"/>
-        <v>87.5</v>
+        <v>89.0625</v>
       </c>
     </row>
   </sheetData>

--- a/LJ+UA Experiments.xlsx
+++ b/LJ+UA Experiments.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dhvan\Documents\GitHub\P4P-Transformer-ASR-for-Dysarthric-Speech\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA1F1144-007A-4C99-A322-F5EBCF8115F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E2958C2-82EF-4A18-930C-017FF1C3CDEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3075" yWindow="1508" windowWidth="15390" windowHeight="9442" activeTab="7" xr2:uid="{75EE08EB-D9DA-45E6-8F41-68FBAE46F917}"/>
+    <workbookView xWindow="3075" yWindow="1508" windowWidth="15390" windowHeight="9442" firstSheet="4" activeTab="10" xr2:uid="{75EE08EB-D9DA-45E6-8F41-68FBAE46F917}"/>
   </bookViews>
   <sheets>
     <sheet name="E1" sheetId="1" r:id="rId1"/>
@@ -21,6 +21,9 @@
     <sheet name="E12345" sheetId="6" r:id="rId6"/>
     <sheet name="E12345_2.0" sheetId="7" r:id="rId7"/>
     <sheet name="E1234_2.0" sheetId="8" r:id="rId8"/>
+    <sheet name="E123_2.0" sheetId="9" r:id="rId9"/>
+    <sheet name="E12_2.0" sheetId="10" r:id="rId10"/>
+    <sheet name="E1_2.0" sheetId="11" r:id="rId11"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -43,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="394" uniqueCount="21">
   <si>
     <r>
       <rPr>
@@ -442,7 +445,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> LJ200_UAControl_FreezeE1234.h5 </t>
+      <t xml:space="preserve"> LJ200_2.0_UAControl_FreezeE1234.h5 </t>
     </r>
     <r>
       <rPr>
@@ -464,6 +467,138 @@
         <scheme val="minor"/>
       </rPr>
       <t>% (3% increase)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Model Name:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> LJ200_2.0_UAControl_FreezeE123.h5 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Accuracy:88</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>% (1% increase)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Model Name:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> LJ200_2.0_UAControl_FreezeE12.h5 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Accuracy:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>% (% increase)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Model Name:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> LJ200_2.0_UAControl_FreezeE1.h5 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Accuracy:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>% (% increase)</t>
     </r>
   </si>
 </sst>
@@ -5100,6 +5235,584 @@
           </a:p>
         </c:txPr>
         <c:crossAx val="1369617215"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'E123_2.0'!$V$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Accuracy</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'E123_2.0'!$V$2:$V$152</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="151"/>
+                <c:pt idx="0">
+                  <c:v>-1.5625</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.8125</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>12.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40.625</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>57.8125</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>65.625</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>70.3125</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>67.1875</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>70.3125</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>64.0625</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>81.25</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>82.8125</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>81.25</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>84.375</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>81.25</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>79.6875</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>78.125</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>78.125</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>84.375</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>79.6875</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>76.5625</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>82.8125</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>78.125</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>84.375</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>82.8125</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>82.8125</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>79.6875</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>90.625</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>87.5</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>79.6875</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>81.25</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>90.625</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>92.1875</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>87.5</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>85.9375</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>90.625</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>89.0625</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>87.5</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>79.6875</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>92.1875</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>84.375</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>84.375</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>89.0625</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>89.0625</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>85.9375</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>92.1875</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>82.8125</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>89.0625</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>87.5</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>89.0625</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>89.0625</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>89.0625</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>84.375</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>85.9375</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>89.0625</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>85.9375</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>82.8125</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>92.1875</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>85.9375</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>85.9375</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>87.5</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>87.5</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>89.0625</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>84.375</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>85.9375</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>90.625</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>90.625</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>89.0625</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>95.3125</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>89.0625</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>92.1875</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>87.5</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>93.75</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>90.625</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>93.75</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>90.625</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>89.0625</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>87.5</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>87.5</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>85.9375</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>90.625</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>90.625</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>89.0625</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>87.5</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>85.9375</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>85.9375</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>84.375</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>85.9375</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>85.9375</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>85.9375</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>85.9375</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>85.9375</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>85.9375</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>85.9375</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>85.9375</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>85.9375</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>85.9375</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>85.9375</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-195F-4B5D-AE21-BF16A596A90D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1928587215"/>
+        <c:axId val="1928587631"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1928587215"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1928587631"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1928587631"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1928587215"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5436,6 +6149,46 @@
 </file>
 
 <file path=xl/charts/colors8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors9.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -9603,6 +10356,522 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style9.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
@@ -9776,6 +11045,190 @@
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing10.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>65539</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>14072</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>104863</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{13D5F37D-233A-4BE6-9789-6FBE58219CFD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:srcRect l="-331" t="38919" r="61637" b="11975"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1" y="608464"/>
+          <a:ext cx="3252571" cy="2753949"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>105603</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6B74E794-01FA-431D-BE74-4805E605DA76}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="3619500"/>
+          <a:ext cx="3286125" cy="2820228"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing11.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>18334</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>144186</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{39EA710F-C25C-486C-A882-F02A1E2D75B0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="3619500"/>
+          <a:ext cx="3256834" cy="2858811"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>65539</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>14072</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>104863</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B710FA1A-8261-4AA0-A50E-7166AE564B63}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:srcRect l="-331" t="38919" r="61637" b="11975"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1" y="608464"/>
+          <a:ext cx="3252571" cy="2753949"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -11027,6 +12480,184 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>65539</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>14072</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>104863</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A683B289-22BD-4167-9181-B698E4A0F904}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:srcRect l="-331" t="38919" r="61637" b="11975"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1" y="608464"/>
+          <a:ext cx="3252571" cy="2753949"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>17861</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>71439</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{87617796-1373-4CF4-929E-216CCBFA0D30}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1" y="3619501"/>
+          <a:ext cx="3256360" cy="2605088"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>109257</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>71156</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>170888</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>152960</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D3B91341-6B33-F6CA-3E82-B0D71F7E29FD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>392206</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>130736</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>635000</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>18677</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3EC6AAD0-62A5-E769-0DFA-747E19068F5A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5546912" y="485589"/>
+          <a:ext cx="4108823" cy="3081617"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -11326,8 +12957,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8291A156-869C-41B2-85E5-143FBF3A090A}">
   <dimension ref="A1:V101"/>
   <sheetViews>
-    <sheetView zoomScale="49" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="F22" sqref="A1:XFD1048576"/>
+    <sheetView topLeftCell="C1" zoomScale="49" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="H10" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -12978,6 +14609,3731 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{618A103B-AAE0-4589-86B5-9C75EBAC44A4}">
+  <dimension ref="A1:V152"/>
+  <sheetViews>
+    <sheetView zoomScale="56" workbookViewId="0">
+      <selection sqref="A1:G1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetData>
+    <row r="1" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="A1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
+      <c r="S1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="S2">
+        <v>0</v>
+      </c>
+      <c r="T2">
+        <v>0.984375</v>
+      </c>
+      <c r="U2">
+        <f xml:space="preserve"> 1+S2</f>
+        <v>1</v>
+      </c>
+      <c r="V2">
+        <f xml:space="preserve"> (1-T2)*100</f>
+        <v>1.5625</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="A3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="S3">
+        <v>1</v>
+      </c>
+      <c r="T3">
+        <v>0.90625</v>
+      </c>
+      <c r="U3">
+        <f t="shared" ref="U3:U66" si="0" xml:space="preserve"> 1+S3</f>
+        <v>2</v>
+      </c>
+      <c r="V3">
+        <f t="shared" ref="V3:V66" si="1" xml:space="preserve"> (1-T3)*100</f>
+        <v>9.375</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="S4">
+        <v>2</v>
+      </c>
+      <c r="T4">
+        <v>0.734375</v>
+      </c>
+      <c r="U4">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="V4">
+        <f t="shared" si="1"/>
+        <v>26.5625</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="S5">
+        <v>3</v>
+      </c>
+      <c r="T5">
+        <v>0.421875</v>
+      </c>
+      <c r="U5">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="V5">
+        <f t="shared" si="1"/>
+        <v>57.8125</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="S6">
+        <v>4</v>
+      </c>
+      <c r="T6">
+        <v>0.3125</v>
+      </c>
+      <c r="U6">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="V6">
+        <f t="shared" si="1"/>
+        <v>68.75</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="S7">
+        <v>5</v>
+      </c>
+      <c r="T7">
+        <v>0.265625</v>
+      </c>
+      <c r="U7">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="V7">
+        <f t="shared" si="1"/>
+        <v>73.4375</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="S8">
+        <v>6</v>
+      </c>
+      <c r="T8">
+        <v>0.21875</v>
+      </c>
+      <c r="U8">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="V8">
+        <f t="shared" si="1"/>
+        <v>78.125</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="S9">
+        <v>7</v>
+      </c>
+      <c r="T9">
+        <v>0.234375</v>
+      </c>
+      <c r="U9">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="V9">
+        <f t="shared" si="1"/>
+        <v>76.5625</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="S10">
+        <v>8</v>
+      </c>
+      <c r="T10">
+        <v>0.265625</v>
+      </c>
+      <c r="U10">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="V10">
+        <f t="shared" si="1"/>
+        <v>73.4375</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="S11">
+        <v>9</v>
+      </c>
+      <c r="T11">
+        <v>0.25</v>
+      </c>
+      <c r="U11">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="V11">
+        <f t="shared" si="1"/>
+        <v>75</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="S12">
+        <v>10</v>
+      </c>
+      <c r="T12">
+        <v>0.265625</v>
+      </c>
+      <c r="U12">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="V12">
+        <f t="shared" si="1"/>
+        <v>73.4375</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="S13">
+        <v>11</v>
+      </c>
+      <c r="T13">
+        <v>0.21875</v>
+      </c>
+      <c r="U13">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="V13">
+        <f t="shared" si="1"/>
+        <v>78.125</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="S14">
+        <v>12</v>
+      </c>
+      <c r="T14">
+        <v>0.171875</v>
+      </c>
+      <c r="U14">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="V14">
+        <f t="shared" si="1"/>
+        <v>82.8125</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="S15">
+        <v>13</v>
+      </c>
+      <c r="T15">
+        <v>0.15625</v>
+      </c>
+      <c r="U15">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="V15">
+        <f t="shared" si="1"/>
+        <v>84.375</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="S16">
+        <v>14</v>
+      </c>
+      <c r="T16">
+        <v>0.21875</v>
+      </c>
+      <c r="U16">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="V16">
+        <f t="shared" si="1"/>
+        <v>78.125</v>
+      </c>
+    </row>
+    <row r="17" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="S17">
+        <v>15</v>
+      </c>
+      <c r="T17">
+        <v>0.140625</v>
+      </c>
+      <c r="U17">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="V17">
+        <f t="shared" si="1"/>
+        <v>85.9375</v>
+      </c>
+    </row>
+    <row r="18" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="S18">
+        <v>16</v>
+      </c>
+      <c r="T18">
+        <v>0.1875</v>
+      </c>
+      <c r="U18">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="V18">
+        <f t="shared" si="1"/>
+        <v>81.25</v>
+      </c>
+    </row>
+    <row r="19" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="S19">
+        <v>17</v>
+      </c>
+      <c r="T19">
+        <v>0.203125</v>
+      </c>
+      <c r="U19">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="V19">
+        <f t="shared" si="1"/>
+        <v>79.6875</v>
+      </c>
+    </row>
+    <row r="20" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="A20" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
+      <c r="S20">
+        <v>18</v>
+      </c>
+      <c r="T20">
+        <v>0.25</v>
+      </c>
+      <c r="U20">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="V20">
+        <f t="shared" si="1"/>
+        <v>75</v>
+      </c>
+    </row>
+    <row r="21" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="S21">
+        <v>19</v>
+      </c>
+      <c r="T21">
+        <v>0.171875</v>
+      </c>
+      <c r="U21">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="V21">
+        <f t="shared" si="1"/>
+        <v>82.8125</v>
+      </c>
+    </row>
+    <row r="22" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="S22">
+        <v>20</v>
+      </c>
+      <c r="T22">
+        <v>0.109375</v>
+      </c>
+      <c r="U22">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="V22">
+        <f t="shared" si="1"/>
+        <v>89.0625</v>
+      </c>
+    </row>
+    <row r="23" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="S23">
+        <v>21</v>
+      </c>
+      <c r="T23">
+        <v>0.171875</v>
+      </c>
+      <c r="U23">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="V23">
+        <f t="shared" si="1"/>
+        <v>82.8125</v>
+      </c>
+    </row>
+    <row r="24" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="S24">
+        <v>22</v>
+      </c>
+      <c r="T24">
+        <v>0.15625</v>
+      </c>
+      <c r="U24">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="V24">
+        <f t="shared" si="1"/>
+        <v>84.375</v>
+      </c>
+    </row>
+    <row r="25" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="S25">
+        <v>23</v>
+      </c>
+      <c r="T25">
+        <v>0.1875</v>
+      </c>
+      <c r="U25">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="V25">
+        <f t="shared" si="1"/>
+        <v>81.25</v>
+      </c>
+    </row>
+    <row r="26" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="S26">
+        <v>24</v>
+      </c>
+      <c r="T26">
+        <v>0.125</v>
+      </c>
+      <c r="U26">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="V26">
+        <f t="shared" si="1"/>
+        <v>87.5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="S27">
+        <v>25</v>
+      </c>
+      <c r="T27">
+        <v>0.1875</v>
+      </c>
+      <c r="U27">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+      <c r="V27">
+        <f t="shared" si="1"/>
+        <v>81.25</v>
+      </c>
+    </row>
+    <row r="28" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="S28">
+        <v>26</v>
+      </c>
+      <c r="T28">
+        <v>0.15625</v>
+      </c>
+      <c r="U28">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+      <c r="V28">
+        <f t="shared" si="1"/>
+        <v>84.375</v>
+      </c>
+    </row>
+    <row r="29" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="S29">
+        <v>27</v>
+      </c>
+      <c r="T29">
+        <v>0.171875</v>
+      </c>
+      <c r="U29">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+      <c r="V29">
+        <f t="shared" si="1"/>
+        <v>82.8125</v>
+      </c>
+    </row>
+    <row r="30" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="S30">
+        <v>28</v>
+      </c>
+      <c r="T30">
+        <v>0.15625</v>
+      </c>
+      <c r="U30">
+        <f t="shared" si="0"/>
+        <v>29</v>
+      </c>
+      <c r="V30">
+        <f t="shared" si="1"/>
+        <v>84.375</v>
+      </c>
+    </row>
+    <row r="31" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="S31">
+        <v>29</v>
+      </c>
+      <c r="T31">
+        <v>0.203125</v>
+      </c>
+      <c r="U31">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="V31">
+        <f t="shared" si="1"/>
+        <v>79.6875</v>
+      </c>
+    </row>
+    <row r="32" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="S32">
+        <v>30</v>
+      </c>
+      <c r="T32">
+        <v>0.1875</v>
+      </c>
+      <c r="U32">
+        <f t="shared" si="0"/>
+        <v>31</v>
+      </c>
+      <c r="V32">
+        <f t="shared" si="1"/>
+        <v>81.25</v>
+      </c>
+    </row>
+    <row r="33" spans="19:22" x14ac:dyDescent="0.45">
+      <c r="S33">
+        <v>31</v>
+      </c>
+      <c r="T33">
+        <v>0.21875</v>
+      </c>
+      <c r="U33">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+      <c r="V33">
+        <f t="shared" si="1"/>
+        <v>78.125</v>
+      </c>
+    </row>
+    <row r="34" spans="19:22" x14ac:dyDescent="0.45">
+      <c r="S34">
+        <v>32</v>
+      </c>
+      <c r="T34">
+        <v>0.140625</v>
+      </c>
+      <c r="U34">
+        <f t="shared" si="0"/>
+        <v>33</v>
+      </c>
+      <c r="V34">
+        <f t="shared" si="1"/>
+        <v>85.9375</v>
+      </c>
+    </row>
+    <row r="35" spans="19:22" x14ac:dyDescent="0.45">
+      <c r="S35">
+        <v>33</v>
+      </c>
+      <c r="T35">
+        <v>0.203125</v>
+      </c>
+      <c r="U35">
+        <f t="shared" si="0"/>
+        <v>34</v>
+      </c>
+      <c r="V35">
+        <f t="shared" si="1"/>
+        <v>79.6875</v>
+      </c>
+    </row>
+    <row r="36" spans="19:22" x14ac:dyDescent="0.45">
+      <c r="S36">
+        <v>34</v>
+      </c>
+      <c r="T36">
+        <v>0.125</v>
+      </c>
+      <c r="U36">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+      <c r="V36">
+        <f t="shared" si="1"/>
+        <v>87.5</v>
+      </c>
+    </row>
+    <row r="37" spans="19:22" x14ac:dyDescent="0.45">
+      <c r="S37">
+        <v>35</v>
+      </c>
+      <c r="T37">
+        <v>0.109375</v>
+      </c>
+      <c r="U37">
+        <f t="shared" si="0"/>
+        <v>36</v>
+      </c>
+      <c r="V37">
+        <f t="shared" si="1"/>
+        <v>89.0625</v>
+      </c>
+    </row>
+    <row r="38" spans="19:22" x14ac:dyDescent="0.45">
+      <c r="S38">
+        <v>36</v>
+      </c>
+      <c r="T38">
+        <v>0.109375</v>
+      </c>
+      <c r="U38">
+        <f t="shared" si="0"/>
+        <v>37</v>
+      </c>
+      <c r="V38">
+        <f t="shared" si="1"/>
+        <v>89.0625</v>
+      </c>
+    </row>
+    <row r="39" spans="19:22" x14ac:dyDescent="0.45">
+      <c r="S39">
+        <v>37</v>
+      </c>
+      <c r="T39">
+        <v>0.171875</v>
+      </c>
+      <c r="U39">
+        <f t="shared" si="0"/>
+        <v>38</v>
+      </c>
+      <c r="V39">
+        <f t="shared" si="1"/>
+        <v>82.8125</v>
+      </c>
+    </row>
+    <row r="40" spans="19:22" x14ac:dyDescent="0.45">
+      <c r="S40">
+        <v>38</v>
+      </c>
+      <c r="T40">
+        <v>9.375E-2</v>
+      </c>
+      <c r="U40">
+        <f t="shared" si="0"/>
+        <v>39</v>
+      </c>
+      <c r="V40">
+        <f t="shared" si="1"/>
+        <v>90.625</v>
+      </c>
+    </row>
+    <row r="41" spans="19:22" x14ac:dyDescent="0.45">
+      <c r="S41">
+        <v>39</v>
+      </c>
+      <c r="T41">
+        <v>0.125</v>
+      </c>
+      <c r="U41">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="V41">
+        <f t="shared" si="1"/>
+        <v>87.5</v>
+      </c>
+    </row>
+    <row r="42" spans="19:22" x14ac:dyDescent="0.45">
+      <c r="S42">
+        <v>40</v>
+      </c>
+      <c r="T42">
+        <v>0.140625</v>
+      </c>
+      <c r="U42">
+        <f t="shared" si="0"/>
+        <v>41</v>
+      </c>
+      <c r="V42">
+        <f t="shared" si="1"/>
+        <v>85.9375</v>
+      </c>
+    </row>
+    <row r="43" spans="19:22" x14ac:dyDescent="0.45">
+      <c r="S43">
+        <v>41</v>
+      </c>
+      <c r="T43">
+        <v>0.140625</v>
+      </c>
+      <c r="U43">
+        <f t="shared" si="0"/>
+        <v>42</v>
+      </c>
+      <c r="V43">
+        <f t="shared" si="1"/>
+        <v>85.9375</v>
+      </c>
+    </row>
+    <row r="44" spans="19:22" x14ac:dyDescent="0.45">
+      <c r="S44">
+        <v>42</v>
+      </c>
+      <c r="T44">
+        <v>0.25</v>
+      </c>
+      <c r="U44">
+        <f t="shared" si="0"/>
+        <v>43</v>
+      </c>
+      <c r="V44">
+        <f t="shared" si="1"/>
+        <v>75</v>
+      </c>
+    </row>
+    <row r="45" spans="19:22" x14ac:dyDescent="0.45">
+      <c r="S45">
+        <v>43</v>
+      </c>
+      <c r="T45">
+        <v>0.234375</v>
+      </c>
+      <c r="U45">
+        <f t="shared" si="0"/>
+        <v>44</v>
+      </c>
+      <c r="V45">
+        <f t="shared" si="1"/>
+        <v>76.5625</v>
+      </c>
+    </row>
+    <row r="46" spans="19:22" x14ac:dyDescent="0.45">
+      <c r="S46">
+        <v>44</v>
+      </c>
+      <c r="T46">
+        <v>0.171875</v>
+      </c>
+      <c r="U46">
+        <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+      <c r="V46">
+        <f t="shared" si="1"/>
+        <v>82.8125</v>
+      </c>
+    </row>
+    <row r="47" spans="19:22" x14ac:dyDescent="0.45">
+      <c r="S47">
+        <v>45</v>
+      </c>
+      <c r="T47">
+        <v>0.140625</v>
+      </c>
+      <c r="U47">
+        <f t="shared" si="0"/>
+        <v>46</v>
+      </c>
+      <c r="V47">
+        <f t="shared" si="1"/>
+        <v>85.9375</v>
+      </c>
+    </row>
+    <row r="48" spans="19:22" x14ac:dyDescent="0.45">
+      <c r="S48">
+        <v>46</v>
+      </c>
+      <c r="T48">
+        <v>0.140625</v>
+      </c>
+      <c r="U48">
+        <f t="shared" si="0"/>
+        <v>47</v>
+      </c>
+      <c r="V48">
+        <f t="shared" si="1"/>
+        <v>85.9375</v>
+      </c>
+    </row>
+    <row r="49" spans="19:22" x14ac:dyDescent="0.45">
+      <c r="S49">
+        <v>47</v>
+      </c>
+      <c r="T49">
+        <v>0.125</v>
+      </c>
+      <c r="U49">
+        <f t="shared" si="0"/>
+        <v>48</v>
+      </c>
+      <c r="V49">
+        <f t="shared" si="1"/>
+        <v>87.5</v>
+      </c>
+    </row>
+    <row r="50" spans="19:22" x14ac:dyDescent="0.45">
+      <c r="S50">
+        <v>48</v>
+      </c>
+      <c r="T50">
+        <v>0.125</v>
+      </c>
+      <c r="U50">
+        <f t="shared" si="0"/>
+        <v>49</v>
+      </c>
+      <c r="V50">
+        <f t="shared" si="1"/>
+        <v>87.5</v>
+      </c>
+    </row>
+    <row r="51" spans="19:22" x14ac:dyDescent="0.45">
+      <c r="S51">
+        <v>49</v>
+      </c>
+      <c r="T51">
+        <v>0.203125</v>
+      </c>
+      <c r="U51">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+      <c r="V51">
+        <f t="shared" si="1"/>
+        <v>79.6875</v>
+      </c>
+    </row>
+    <row r="52" spans="19:22" x14ac:dyDescent="0.45">
+      <c r="S52">
+        <v>50</v>
+      </c>
+      <c r="T52">
+        <v>0.109375</v>
+      </c>
+      <c r="U52">
+        <f t="shared" si="0"/>
+        <v>51</v>
+      </c>
+      <c r="V52">
+        <f t="shared" si="1"/>
+        <v>89.0625</v>
+      </c>
+    </row>
+    <row r="53" spans="19:22" x14ac:dyDescent="0.45">
+      <c r="S53">
+        <v>51</v>
+      </c>
+      <c r="T53">
+        <v>0.125</v>
+      </c>
+      <c r="U53">
+        <f t="shared" si="0"/>
+        <v>52</v>
+      </c>
+      <c r="V53">
+        <f t="shared" si="1"/>
+        <v>87.5</v>
+      </c>
+    </row>
+    <row r="54" spans="19:22" x14ac:dyDescent="0.45">
+      <c r="S54">
+        <v>52</v>
+      </c>
+      <c r="T54">
+        <v>9.375E-2</v>
+      </c>
+      <c r="U54">
+        <f t="shared" si="0"/>
+        <v>53</v>
+      </c>
+      <c r="V54">
+        <f t="shared" si="1"/>
+        <v>90.625</v>
+      </c>
+    </row>
+    <row r="55" spans="19:22" x14ac:dyDescent="0.45">
+      <c r="S55">
+        <v>53</v>
+      </c>
+      <c r="T55">
+        <v>0.125</v>
+      </c>
+      <c r="U55">
+        <f t="shared" si="0"/>
+        <v>54</v>
+      </c>
+      <c r="V55">
+        <f t="shared" si="1"/>
+        <v>87.5</v>
+      </c>
+    </row>
+    <row r="56" spans="19:22" x14ac:dyDescent="0.45">
+      <c r="S56">
+        <v>54</v>
+      </c>
+      <c r="T56">
+        <v>0.109375</v>
+      </c>
+      <c r="U56">
+        <f t="shared" si="0"/>
+        <v>55</v>
+      </c>
+      <c r="V56">
+        <f t="shared" si="1"/>
+        <v>89.0625</v>
+      </c>
+    </row>
+    <row r="57" spans="19:22" x14ac:dyDescent="0.45">
+      <c r="S57">
+        <v>55</v>
+      </c>
+      <c r="T57">
+        <v>9.375E-2</v>
+      </c>
+      <c r="U57">
+        <f t="shared" si="0"/>
+        <v>56</v>
+      </c>
+      <c r="V57">
+        <f t="shared" si="1"/>
+        <v>90.625</v>
+      </c>
+    </row>
+    <row r="58" spans="19:22" x14ac:dyDescent="0.45">
+      <c r="S58">
+        <v>56</v>
+      </c>
+      <c r="T58">
+        <v>0.15625</v>
+      </c>
+      <c r="U58">
+        <f t="shared" si="0"/>
+        <v>57</v>
+      </c>
+      <c r="V58">
+        <f t="shared" si="1"/>
+        <v>84.375</v>
+      </c>
+    </row>
+    <row r="59" spans="19:22" x14ac:dyDescent="0.45">
+      <c r="S59">
+        <v>57</v>
+      </c>
+      <c r="T59">
+        <v>0.125</v>
+      </c>
+      <c r="U59">
+        <f t="shared" si="0"/>
+        <v>58</v>
+      </c>
+      <c r="V59">
+        <f t="shared" si="1"/>
+        <v>87.5</v>
+      </c>
+    </row>
+    <row r="60" spans="19:22" x14ac:dyDescent="0.45">
+      <c r="S60">
+        <v>58</v>
+      </c>
+      <c r="T60">
+        <v>0.171875</v>
+      </c>
+      <c r="U60">
+        <f t="shared" si="0"/>
+        <v>59</v>
+      </c>
+      <c r="V60">
+        <f t="shared" si="1"/>
+        <v>82.8125</v>
+      </c>
+    </row>
+    <row r="61" spans="19:22" x14ac:dyDescent="0.45">
+      <c r="S61">
+        <v>59</v>
+      </c>
+      <c r="T61">
+        <v>0.15625</v>
+      </c>
+      <c r="U61">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+      <c r="V61">
+        <f t="shared" si="1"/>
+        <v>84.375</v>
+      </c>
+    </row>
+    <row r="62" spans="19:22" x14ac:dyDescent="0.45">
+      <c r="S62">
+        <v>60</v>
+      </c>
+      <c r="T62">
+        <v>0.125</v>
+      </c>
+      <c r="U62">
+        <f t="shared" si="0"/>
+        <v>61</v>
+      </c>
+      <c r="V62">
+        <f t="shared" si="1"/>
+        <v>87.5</v>
+      </c>
+    </row>
+    <row r="63" spans="19:22" x14ac:dyDescent="0.45">
+      <c r="S63">
+        <v>61</v>
+      </c>
+      <c r="T63">
+        <v>0.1875</v>
+      </c>
+      <c r="U63">
+        <f t="shared" si="0"/>
+        <v>62</v>
+      </c>
+      <c r="V63">
+        <f t="shared" si="1"/>
+        <v>81.25</v>
+      </c>
+    </row>
+    <row r="64" spans="19:22" x14ac:dyDescent="0.45">
+      <c r="S64">
+        <v>62</v>
+      </c>
+      <c r="T64">
+        <v>0.125</v>
+      </c>
+      <c r="U64">
+        <f t="shared" si="0"/>
+        <v>63</v>
+      </c>
+      <c r="V64">
+        <f t="shared" si="1"/>
+        <v>87.5</v>
+      </c>
+    </row>
+    <row r="65" spans="19:22" x14ac:dyDescent="0.45">
+      <c r="S65">
+        <v>63</v>
+      </c>
+      <c r="T65">
+        <v>0.125</v>
+      </c>
+      <c r="U65">
+        <f t="shared" si="0"/>
+        <v>64</v>
+      </c>
+      <c r="V65">
+        <f t="shared" si="1"/>
+        <v>87.5</v>
+      </c>
+    </row>
+    <row r="66" spans="19:22" x14ac:dyDescent="0.45">
+      <c r="S66">
+        <v>64</v>
+      </c>
+      <c r="T66">
+        <v>0.125</v>
+      </c>
+      <c r="U66">
+        <f t="shared" si="0"/>
+        <v>65</v>
+      </c>
+      <c r="V66">
+        <f t="shared" si="1"/>
+        <v>87.5</v>
+      </c>
+    </row>
+    <row r="67" spans="19:22" x14ac:dyDescent="0.45">
+      <c r="S67">
+        <v>65</v>
+      </c>
+      <c r="T67">
+        <v>0.140625</v>
+      </c>
+      <c r="U67">
+        <f t="shared" ref="U67:U101" si="2" xml:space="preserve"> 1+S67</f>
+        <v>66</v>
+      </c>
+      <c r="V67">
+        <f t="shared" ref="V67:V101" si="3" xml:space="preserve"> (1-T67)*100</f>
+        <v>85.9375</v>
+      </c>
+    </row>
+    <row r="68" spans="19:22" x14ac:dyDescent="0.45">
+      <c r="S68">
+        <v>66</v>
+      </c>
+      <c r="T68">
+        <v>0.109375</v>
+      </c>
+      <c r="U68">
+        <f t="shared" si="2"/>
+        <v>67</v>
+      </c>
+      <c r="V68">
+        <f t="shared" si="3"/>
+        <v>89.0625</v>
+      </c>
+    </row>
+    <row r="69" spans="19:22" x14ac:dyDescent="0.45">
+      <c r="S69">
+        <v>67</v>
+      </c>
+      <c r="T69">
+        <v>0.109375</v>
+      </c>
+      <c r="U69">
+        <f t="shared" si="2"/>
+        <v>68</v>
+      </c>
+      <c r="V69">
+        <f t="shared" si="3"/>
+        <v>89.0625</v>
+      </c>
+    </row>
+    <row r="70" spans="19:22" x14ac:dyDescent="0.45">
+      <c r="S70">
+        <v>68</v>
+      </c>
+      <c r="T70">
+        <v>0.15625</v>
+      </c>
+      <c r="U70">
+        <f t="shared" si="2"/>
+        <v>69</v>
+      </c>
+      <c r="V70">
+        <f t="shared" si="3"/>
+        <v>84.375</v>
+      </c>
+    </row>
+    <row r="71" spans="19:22" x14ac:dyDescent="0.45">
+      <c r="S71">
+        <v>69</v>
+      </c>
+      <c r="T71">
+        <v>0.140625</v>
+      </c>
+      <c r="U71">
+        <f t="shared" si="2"/>
+        <v>70</v>
+      </c>
+      <c r="V71">
+        <f t="shared" si="3"/>
+        <v>85.9375</v>
+      </c>
+    </row>
+    <row r="72" spans="19:22" x14ac:dyDescent="0.45">
+      <c r="S72">
+        <v>70</v>
+      </c>
+      <c r="T72">
+        <v>0.15625</v>
+      </c>
+      <c r="U72">
+        <f t="shared" si="2"/>
+        <v>71</v>
+      </c>
+      <c r="V72">
+        <f t="shared" si="3"/>
+        <v>84.375</v>
+      </c>
+    </row>
+    <row r="73" spans="19:22" x14ac:dyDescent="0.45">
+      <c r="S73">
+        <v>71</v>
+      </c>
+      <c r="T73">
+        <v>0.15625</v>
+      </c>
+      <c r="U73">
+        <f t="shared" si="2"/>
+        <v>72</v>
+      </c>
+      <c r="V73">
+        <f t="shared" si="3"/>
+        <v>84.375</v>
+      </c>
+    </row>
+    <row r="74" spans="19:22" x14ac:dyDescent="0.45">
+      <c r="S74">
+        <v>72</v>
+      </c>
+      <c r="T74">
+        <v>0.171875</v>
+      </c>
+      <c r="U74">
+        <f t="shared" si="2"/>
+        <v>73</v>
+      </c>
+      <c r="V74">
+        <f t="shared" si="3"/>
+        <v>82.8125</v>
+      </c>
+    </row>
+    <row r="75" spans="19:22" x14ac:dyDescent="0.45">
+      <c r="S75">
+        <v>73</v>
+      </c>
+      <c r="T75">
+        <v>0.109375</v>
+      </c>
+      <c r="U75">
+        <f t="shared" si="2"/>
+        <v>74</v>
+      </c>
+      <c r="V75">
+        <f t="shared" si="3"/>
+        <v>89.0625</v>
+      </c>
+    </row>
+    <row r="76" spans="19:22" x14ac:dyDescent="0.45">
+      <c r="S76">
+        <v>74</v>
+      </c>
+      <c r="T76">
+        <v>0.15625</v>
+      </c>
+      <c r="U76">
+        <f t="shared" si="2"/>
+        <v>75</v>
+      </c>
+      <c r="V76">
+        <f t="shared" si="3"/>
+        <v>84.375</v>
+      </c>
+    </row>
+    <row r="77" spans="19:22" x14ac:dyDescent="0.45">
+      <c r="S77">
+        <v>75</v>
+      </c>
+      <c r="T77">
+        <v>0.15625</v>
+      </c>
+      <c r="U77">
+        <f t="shared" si="2"/>
+        <v>76</v>
+      </c>
+      <c r="V77">
+        <f t="shared" si="3"/>
+        <v>84.375</v>
+      </c>
+    </row>
+    <row r="78" spans="19:22" x14ac:dyDescent="0.45">
+      <c r="S78">
+        <v>76</v>
+      </c>
+      <c r="T78">
+        <v>0.109375</v>
+      </c>
+      <c r="U78">
+        <f t="shared" si="2"/>
+        <v>77</v>
+      </c>
+      <c r="V78">
+        <f t="shared" si="3"/>
+        <v>89.0625</v>
+      </c>
+    </row>
+    <row r="79" spans="19:22" x14ac:dyDescent="0.45">
+      <c r="S79">
+        <v>77</v>
+      </c>
+      <c r="T79">
+        <v>0.15625</v>
+      </c>
+      <c r="U79">
+        <f t="shared" si="2"/>
+        <v>78</v>
+      </c>
+      <c r="V79">
+        <f t="shared" si="3"/>
+        <v>84.375</v>
+      </c>
+    </row>
+    <row r="80" spans="19:22" x14ac:dyDescent="0.45">
+      <c r="S80">
+        <v>78</v>
+      </c>
+      <c r="T80">
+        <v>0.140625</v>
+      </c>
+      <c r="U80">
+        <f t="shared" si="2"/>
+        <v>79</v>
+      </c>
+      <c r="V80">
+        <f t="shared" si="3"/>
+        <v>85.9375</v>
+      </c>
+    </row>
+    <row r="81" spans="19:22" x14ac:dyDescent="0.45">
+      <c r="S81">
+        <v>79</v>
+      </c>
+      <c r="T81">
+        <v>0.125</v>
+      </c>
+      <c r="U81">
+        <f t="shared" si="2"/>
+        <v>80</v>
+      </c>
+      <c r="V81">
+        <f t="shared" si="3"/>
+        <v>87.5</v>
+      </c>
+    </row>
+    <row r="82" spans="19:22" x14ac:dyDescent="0.45">
+      <c r="S82">
+        <v>80</v>
+      </c>
+      <c r="T82">
+        <v>0.140625</v>
+      </c>
+      <c r="U82">
+        <f t="shared" si="2"/>
+        <v>81</v>
+      </c>
+      <c r="V82">
+        <f t="shared" si="3"/>
+        <v>85.9375</v>
+      </c>
+    </row>
+    <row r="83" spans="19:22" x14ac:dyDescent="0.45">
+      <c r="S83">
+        <v>81</v>
+      </c>
+      <c r="T83">
+        <v>0.203125</v>
+      </c>
+      <c r="U83">
+        <f t="shared" si="2"/>
+        <v>82</v>
+      </c>
+      <c r="V83">
+        <f t="shared" si="3"/>
+        <v>79.6875</v>
+      </c>
+    </row>
+    <row r="84" spans="19:22" x14ac:dyDescent="0.45">
+      <c r="S84">
+        <v>82</v>
+      </c>
+      <c r="T84">
+        <v>0.140625</v>
+      </c>
+      <c r="U84">
+        <f t="shared" si="2"/>
+        <v>83</v>
+      </c>
+      <c r="V84">
+        <f t="shared" si="3"/>
+        <v>85.9375</v>
+      </c>
+    </row>
+    <row r="85" spans="19:22" x14ac:dyDescent="0.45">
+      <c r="S85">
+        <v>83</v>
+      </c>
+      <c r="T85">
+        <v>0.125</v>
+      </c>
+      <c r="U85">
+        <f t="shared" si="2"/>
+        <v>84</v>
+      </c>
+      <c r="V85">
+        <f t="shared" si="3"/>
+        <v>87.5</v>
+      </c>
+    </row>
+    <row r="86" spans="19:22" x14ac:dyDescent="0.45">
+      <c r="S86">
+        <v>84</v>
+      </c>
+      <c r="T86">
+        <v>0.125</v>
+      </c>
+      <c r="U86">
+        <f t="shared" si="2"/>
+        <v>85</v>
+      </c>
+      <c r="V86">
+        <f t="shared" si="3"/>
+        <v>87.5</v>
+      </c>
+    </row>
+    <row r="87" spans="19:22" x14ac:dyDescent="0.45">
+      <c r="S87">
+        <v>85</v>
+      </c>
+      <c r="T87">
+        <v>0.125</v>
+      </c>
+      <c r="U87">
+        <f t="shared" si="2"/>
+        <v>86</v>
+      </c>
+      <c r="V87">
+        <f t="shared" si="3"/>
+        <v>87.5</v>
+      </c>
+    </row>
+    <row r="88" spans="19:22" x14ac:dyDescent="0.45">
+      <c r="S88">
+        <v>86</v>
+      </c>
+      <c r="T88">
+        <v>0.140625</v>
+      </c>
+      <c r="U88">
+        <f t="shared" si="2"/>
+        <v>87</v>
+      </c>
+      <c r="V88">
+        <f t="shared" si="3"/>
+        <v>85.9375</v>
+      </c>
+    </row>
+    <row r="89" spans="19:22" x14ac:dyDescent="0.45">
+      <c r="S89">
+        <v>87</v>
+      </c>
+      <c r="T89">
+        <v>0.125</v>
+      </c>
+      <c r="U89">
+        <f t="shared" si="2"/>
+        <v>88</v>
+      </c>
+      <c r="V89">
+        <f t="shared" si="3"/>
+        <v>87.5</v>
+      </c>
+    </row>
+    <row r="90" spans="19:22" x14ac:dyDescent="0.45">
+      <c r="S90">
+        <v>88</v>
+      </c>
+      <c r="T90">
+        <v>0.125</v>
+      </c>
+      <c r="U90">
+        <f t="shared" si="2"/>
+        <v>89</v>
+      </c>
+      <c r="V90">
+        <f t="shared" si="3"/>
+        <v>87.5</v>
+      </c>
+    </row>
+    <row r="91" spans="19:22" x14ac:dyDescent="0.45">
+      <c r="S91">
+        <v>89</v>
+      </c>
+      <c r="T91">
+        <v>0.125</v>
+      </c>
+      <c r="U91">
+        <f t="shared" si="2"/>
+        <v>90</v>
+      </c>
+      <c r="V91">
+        <f t="shared" si="3"/>
+        <v>87.5</v>
+      </c>
+    </row>
+    <row r="92" spans="19:22" x14ac:dyDescent="0.45">
+      <c r="S92">
+        <v>90</v>
+      </c>
+      <c r="T92">
+        <v>0.125</v>
+      </c>
+      <c r="U92">
+        <f t="shared" si="2"/>
+        <v>91</v>
+      </c>
+      <c r="V92">
+        <f t="shared" si="3"/>
+        <v>87.5</v>
+      </c>
+    </row>
+    <row r="93" spans="19:22" x14ac:dyDescent="0.45">
+      <c r="S93">
+        <v>91</v>
+      </c>
+      <c r="T93">
+        <v>0.125</v>
+      </c>
+      <c r="U93">
+        <f t="shared" si="2"/>
+        <v>92</v>
+      </c>
+      <c r="V93">
+        <f t="shared" si="3"/>
+        <v>87.5</v>
+      </c>
+    </row>
+    <row r="94" spans="19:22" x14ac:dyDescent="0.45">
+      <c r="S94">
+        <v>92</v>
+      </c>
+      <c r="T94">
+        <v>0.125</v>
+      </c>
+      <c r="U94">
+        <f t="shared" si="2"/>
+        <v>93</v>
+      </c>
+      <c r="V94">
+        <f t="shared" si="3"/>
+        <v>87.5</v>
+      </c>
+    </row>
+    <row r="95" spans="19:22" x14ac:dyDescent="0.45">
+      <c r="S95">
+        <v>93</v>
+      </c>
+      <c r="T95">
+        <v>0.125</v>
+      </c>
+      <c r="U95">
+        <f t="shared" si="2"/>
+        <v>94</v>
+      </c>
+      <c r="V95">
+        <f t="shared" si="3"/>
+        <v>87.5</v>
+      </c>
+    </row>
+    <row r="96" spans="19:22" x14ac:dyDescent="0.45">
+      <c r="S96">
+        <v>94</v>
+      </c>
+      <c r="T96">
+        <v>0.125</v>
+      </c>
+      <c r="U96">
+        <f t="shared" si="2"/>
+        <v>95</v>
+      </c>
+      <c r="V96">
+        <f t="shared" si="3"/>
+        <v>87.5</v>
+      </c>
+    </row>
+    <row r="97" spans="19:22" x14ac:dyDescent="0.45">
+      <c r="S97">
+        <v>95</v>
+      </c>
+      <c r="T97">
+        <v>0.125</v>
+      </c>
+      <c r="U97">
+        <f t="shared" si="2"/>
+        <v>96</v>
+      </c>
+      <c r="V97">
+        <f t="shared" si="3"/>
+        <v>87.5</v>
+      </c>
+    </row>
+    <row r="98" spans="19:22" x14ac:dyDescent="0.45">
+      <c r="S98">
+        <v>96</v>
+      </c>
+      <c r="T98">
+        <v>0.125</v>
+      </c>
+      <c r="U98">
+        <f t="shared" si="2"/>
+        <v>97</v>
+      </c>
+      <c r="V98">
+        <f t="shared" si="3"/>
+        <v>87.5</v>
+      </c>
+    </row>
+    <row r="99" spans="19:22" x14ac:dyDescent="0.45">
+      <c r="S99">
+        <v>97</v>
+      </c>
+      <c r="T99">
+        <v>0.125</v>
+      </c>
+      <c r="U99">
+        <f t="shared" si="2"/>
+        <v>98</v>
+      </c>
+      <c r="V99">
+        <f t="shared" si="3"/>
+        <v>87.5</v>
+      </c>
+    </row>
+    <row r="100" spans="19:22" x14ac:dyDescent="0.45">
+      <c r="S100">
+        <v>98</v>
+      </c>
+      <c r="T100">
+        <v>0.125</v>
+      </c>
+      <c r="U100">
+        <f t="shared" si="2"/>
+        <v>99</v>
+      </c>
+      <c r="V100">
+        <f t="shared" si="3"/>
+        <v>87.5</v>
+      </c>
+    </row>
+    <row r="101" spans="19:22" x14ac:dyDescent="0.45">
+      <c r="S101">
+        <v>99</v>
+      </c>
+      <c r="T101">
+        <v>0.125</v>
+      </c>
+      <c r="U101">
+        <f t="shared" si="2"/>
+        <v>100</v>
+      </c>
+      <c r="V101">
+        <f t="shared" si="3"/>
+        <v>87.5</v>
+      </c>
+    </row>
+    <row r="102" spans="19:22" x14ac:dyDescent="0.45">
+      <c r="S102" t="s">
+        <v>9</v>
+      </c>
+      <c r="T102">
+        <v>0.125</v>
+      </c>
+    </row>
+    <row r="103" spans="19:22" x14ac:dyDescent="0.45">
+      <c r="S103" t="s">
+        <v>9</v>
+      </c>
+      <c r="T103">
+        <v>0.125</v>
+      </c>
+    </row>
+    <row r="104" spans="19:22" x14ac:dyDescent="0.45">
+      <c r="S104" t="s">
+        <v>9</v>
+      </c>
+      <c r="T104">
+        <v>7.8125E-2</v>
+      </c>
+    </row>
+    <row r="105" spans="19:22" x14ac:dyDescent="0.45">
+      <c r="S105" t="s">
+        <v>9</v>
+      </c>
+      <c r="T105">
+        <v>9.375E-2</v>
+      </c>
+    </row>
+    <row r="106" spans="19:22" x14ac:dyDescent="0.45">
+      <c r="S106" t="s">
+        <v>9</v>
+      </c>
+      <c r="T106">
+        <v>0.140625</v>
+      </c>
+    </row>
+    <row r="107" spans="19:22" x14ac:dyDescent="0.45">
+      <c r="S107" t="s">
+        <v>9</v>
+      </c>
+      <c r="T107">
+        <v>7.8125E-2</v>
+      </c>
+    </row>
+    <row r="108" spans="19:22" x14ac:dyDescent="0.45">
+      <c r="S108" t="s">
+        <v>9</v>
+      </c>
+      <c r="T108">
+        <v>0.109375</v>
+      </c>
+    </row>
+    <row r="109" spans="19:22" x14ac:dyDescent="0.45">
+      <c r="S109" t="s">
+        <v>9</v>
+      </c>
+      <c r="T109">
+        <v>0.15625</v>
+      </c>
+    </row>
+    <row r="110" spans="19:22" x14ac:dyDescent="0.45">
+      <c r="S110" t="s">
+        <v>9</v>
+      </c>
+      <c r="T110">
+        <v>4.6875E-2</v>
+      </c>
+    </row>
+    <row r="111" spans="19:22" x14ac:dyDescent="0.45">
+      <c r="S111" t="s">
+        <v>9</v>
+      </c>
+      <c r="T111">
+        <v>0.125</v>
+      </c>
+    </row>
+    <row r="112" spans="19:22" x14ac:dyDescent="0.45">
+      <c r="S112" t="s">
+        <v>9</v>
+      </c>
+      <c r="T112">
+        <v>4.6875E-2</v>
+      </c>
+    </row>
+    <row r="113" spans="19:20" x14ac:dyDescent="0.45">
+      <c r="S113" t="s">
+        <v>9</v>
+      </c>
+      <c r="T113">
+        <v>0.171875</v>
+      </c>
+    </row>
+    <row r="114" spans="19:20" x14ac:dyDescent="0.45">
+      <c r="S114" t="s">
+        <v>9</v>
+      </c>
+      <c r="T114">
+        <v>0.140625</v>
+      </c>
+    </row>
+    <row r="115" spans="19:20" x14ac:dyDescent="0.45">
+      <c r="S115" t="s">
+        <v>9</v>
+      </c>
+      <c r="T115">
+        <v>0.109375</v>
+      </c>
+    </row>
+    <row r="116" spans="19:20" x14ac:dyDescent="0.45">
+      <c r="S116" t="s">
+        <v>9</v>
+      </c>
+      <c r="T116">
+        <v>7.8125E-2</v>
+      </c>
+    </row>
+    <row r="117" spans="19:20" x14ac:dyDescent="0.45">
+      <c r="S117" t="s">
+        <v>9</v>
+      </c>
+      <c r="T117">
+        <v>0.140625</v>
+      </c>
+    </row>
+    <row r="118" spans="19:20" x14ac:dyDescent="0.45">
+      <c r="S118" t="s">
+        <v>9</v>
+      </c>
+      <c r="T118">
+        <v>0.171875</v>
+      </c>
+    </row>
+    <row r="119" spans="19:20" x14ac:dyDescent="0.45">
+      <c r="S119" t="s">
+        <v>9</v>
+      </c>
+      <c r="T119">
+        <v>0.15625</v>
+      </c>
+    </row>
+    <row r="120" spans="19:20" x14ac:dyDescent="0.45">
+      <c r="S120" t="s">
+        <v>9</v>
+      </c>
+      <c r="T120">
+        <v>0.125</v>
+      </c>
+    </row>
+    <row r="121" spans="19:20" x14ac:dyDescent="0.45">
+      <c r="S121" t="s">
+        <v>9</v>
+      </c>
+      <c r="T121">
+        <v>9.375E-2</v>
+      </c>
+    </row>
+    <row r="122" spans="19:20" x14ac:dyDescent="0.45">
+      <c r="S122" t="s">
+        <v>9</v>
+      </c>
+      <c r="T122">
+        <v>6.25E-2</v>
+      </c>
+    </row>
+    <row r="123" spans="19:20" x14ac:dyDescent="0.45">
+      <c r="S123" t="s">
+        <v>9</v>
+      </c>
+      <c r="T123">
+        <v>9.375E-2</v>
+      </c>
+    </row>
+    <row r="124" spans="19:20" x14ac:dyDescent="0.45">
+      <c r="S124" t="s">
+        <v>9</v>
+      </c>
+      <c r="T124">
+        <v>0.125</v>
+      </c>
+    </row>
+    <row r="125" spans="19:20" x14ac:dyDescent="0.45">
+      <c r="S125" t="s">
+        <v>9</v>
+      </c>
+      <c r="T125">
+        <v>7.8125E-2</v>
+      </c>
+    </row>
+    <row r="126" spans="19:20" x14ac:dyDescent="0.45">
+      <c r="S126" t="s">
+        <v>9</v>
+      </c>
+      <c r="T126">
+        <v>0.125</v>
+      </c>
+    </row>
+    <row r="127" spans="19:20" x14ac:dyDescent="0.45">
+      <c r="S127" t="s">
+        <v>9</v>
+      </c>
+      <c r="T127">
+        <v>7.8125E-2</v>
+      </c>
+    </row>
+    <row r="128" spans="19:20" x14ac:dyDescent="0.45">
+      <c r="S128" t="s">
+        <v>9</v>
+      </c>
+      <c r="T128">
+        <v>0.125</v>
+      </c>
+    </row>
+    <row r="129" spans="19:20" x14ac:dyDescent="0.45">
+      <c r="S129" t="s">
+        <v>9</v>
+      </c>
+      <c r="T129">
+        <v>0.125</v>
+      </c>
+    </row>
+    <row r="130" spans="19:20" x14ac:dyDescent="0.45">
+      <c r="S130" t="s">
+        <v>9</v>
+      </c>
+      <c r="T130">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="131" spans="19:20" x14ac:dyDescent="0.45">
+      <c r="S131" t="s">
+        <v>9</v>
+      </c>
+      <c r="T131">
+        <v>0.109375</v>
+      </c>
+    </row>
+    <row r="132" spans="19:20" x14ac:dyDescent="0.45">
+      <c r="S132" t="s">
+        <v>9</v>
+      </c>
+      <c r="T132">
+        <v>0.15625</v>
+      </c>
+    </row>
+    <row r="133" spans="19:20" x14ac:dyDescent="0.45">
+      <c r="S133" t="s">
+        <v>9</v>
+      </c>
+      <c r="T133">
+        <v>0.125</v>
+      </c>
+    </row>
+    <row r="134" spans="19:20" x14ac:dyDescent="0.45">
+      <c r="S134" t="s">
+        <v>9</v>
+      </c>
+      <c r="T134">
+        <v>0.15625</v>
+      </c>
+    </row>
+    <row r="135" spans="19:20" x14ac:dyDescent="0.45">
+      <c r="S135" t="s">
+        <v>9</v>
+      </c>
+      <c r="T135">
+        <v>0.109375</v>
+      </c>
+    </row>
+    <row r="136" spans="19:20" x14ac:dyDescent="0.45">
+      <c r="S136" t="s">
+        <v>9</v>
+      </c>
+      <c r="T136">
+        <v>0.15625</v>
+      </c>
+    </row>
+    <row r="137" spans="19:20" x14ac:dyDescent="0.45">
+      <c r="S137" t="s">
+        <v>9</v>
+      </c>
+      <c r="T137">
+        <v>0.203125</v>
+      </c>
+    </row>
+    <row r="138" spans="19:20" x14ac:dyDescent="0.45">
+      <c r="S138" t="s">
+        <v>9</v>
+      </c>
+      <c r="T138">
+        <v>6.25E-2</v>
+      </c>
+    </row>
+    <row r="139" spans="19:20" x14ac:dyDescent="0.45">
+      <c r="S139" t="s">
+        <v>9</v>
+      </c>
+      <c r="T139">
+        <v>0.109375</v>
+      </c>
+    </row>
+    <row r="140" spans="19:20" x14ac:dyDescent="0.45">
+      <c r="S140" t="s">
+        <v>9</v>
+      </c>
+      <c r="T140">
+        <v>0.109375</v>
+      </c>
+    </row>
+    <row r="141" spans="19:20" x14ac:dyDescent="0.45">
+      <c r="S141" t="s">
+        <v>9</v>
+      </c>
+      <c r="T141">
+        <v>0.171875</v>
+      </c>
+    </row>
+    <row r="142" spans="19:20" x14ac:dyDescent="0.45">
+      <c r="S142" t="s">
+        <v>9</v>
+      </c>
+      <c r="T142">
+        <v>0.125</v>
+      </c>
+    </row>
+    <row r="143" spans="19:20" x14ac:dyDescent="0.45">
+      <c r="S143" t="s">
+        <v>9</v>
+      </c>
+      <c r="T143">
+        <v>6.25E-2</v>
+      </c>
+    </row>
+    <row r="144" spans="19:20" x14ac:dyDescent="0.45">
+      <c r="S144" t="s">
+        <v>9</v>
+      </c>
+      <c r="T144">
+        <v>4.6875E-2</v>
+      </c>
+    </row>
+    <row r="145" spans="19:20" x14ac:dyDescent="0.45">
+      <c r="S145" t="s">
+        <v>9</v>
+      </c>
+      <c r="T145">
+        <v>0.203125</v>
+      </c>
+    </row>
+    <row r="146" spans="19:20" x14ac:dyDescent="0.45">
+      <c r="S146" t="s">
+        <v>9</v>
+      </c>
+      <c r="T146">
+        <v>0.21875</v>
+      </c>
+    </row>
+    <row r="147" spans="19:20" x14ac:dyDescent="0.45">
+      <c r="S147" t="s">
+        <v>9</v>
+      </c>
+      <c r="T147">
+        <v>0.125</v>
+      </c>
+    </row>
+    <row r="148" spans="19:20" x14ac:dyDescent="0.45">
+      <c r="S148" t="s">
+        <v>9</v>
+      </c>
+      <c r="T148">
+        <v>0.140625</v>
+      </c>
+    </row>
+    <row r="149" spans="19:20" x14ac:dyDescent="0.45">
+      <c r="S149" t="s">
+        <v>9</v>
+      </c>
+      <c r="T149">
+        <v>6.25E-2</v>
+      </c>
+    </row>
+    <row r="150" spans="19:20" x14ac:dyDescent="0.45">
+      <c r="S150" t="s">
+        <v>9</v>
+      </c>
+      <c r="T150">
+        <v>0.140625</v>
+      </c>
+    </row>
+    <row r="151" spans="19:20" x14ac:dyDescent="0.45">
+      <c r="S151" t="s">
+        <v>9</v>
+      </c>
+      <c r="T151">
+        <v>0.109375</v>
+      </c>
+    </row>
+    <row r="152" spans="19:20" x14ac:dyDescent="0.45">
+      <c r="S152" t="s">
+        <v>9</v>
+      </c>
+      <c r="T152">
+        <v>7.2727272727272724E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="H1:L1"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="A20:C20"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{056CABA9-8355-4FC6-A8A3-AC72E9E3DA4B}">
+  <dimension ref="A1:V101"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="B13" zoomScale="76" workbookViewId="0">
+      <selection activeCell="O46" sqref="O46"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetData>
+    <row r="1" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="A1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
+      <c r="S1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="S2">
+        <v>0</v>
+      </c>
+      <c r="T2">
+        <v>0.984375</v>
+      </c>
+      <c r="U2">
+        <f xml:space="preserve"> 1+S2</f>
+        <v>1</v>
+      </c>
+      <c r="V2">
+        <f xml:space="preserve"> (1-T2)*100</f>
+        <v>1.5625</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="A3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="S3">
+        <v>1</v>
+      </c>
+      <c r="T3">
+        <v>0.84375</v>
+      </c>
+      <c r="U3">
+        <f t="shared" ref="U3:U66" si="0" xml:space="preserve"> 1+S3</f>
+        <v>2</v>
+      </c>
+      <c r="V3">
+        <f t="shared" ref="V3:V66" si="1" xml:space="preserve"> (1-T3)*100</f>
+        <v>15.625</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="S4">
+        <v>2</v>
+      </c>
+      <c r="T4">
+        <v>0.578125</v>
+      </c>
+      <c r="U4">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="V4">
+        <f t="shared" si="1"/>
+        <v>42.1875</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="S5">
+        <v>3</v>
+      </c>
+      <c r="T5">
+        <v>0.40625</v>
+      </c>
+      <c r="U5">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="V5">
+        <f t="shared" si="1"/>
+        <v>59.375</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="S6">
+        <v>4</v>
+      </c>
+      <c r="T6">
+        <v>0.234375</v>
+      </c>
+      <c r="U6">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="V6">
+        <f t="shared" si="1"/>
+        <v>76.5625</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="S7">
+        <v>5</v>
+      </c>
+      <c r="T7">
+        <v>0.21875</v>
+      </c>
+      <c r="U7">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="V7">
+        <f t="shared" si="1"/>
+        <v>78.125</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="S8">
+        <v>6</v>
+      </c>
+      <c r="T8">
+        <v>0.21875</v>
+      </c>
+      <c r="U8">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="V8">
+        <f t="shared" si="1"/>
+        <v>78.125</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="S9">
+        <v>7</v>
+      </c>
+      <c r="T9">
+        <v>0.203125</v>
+      </c>
+      <c r="U9">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="V9">
+        <f t="shared" si="1"/>
+        <v>79.6875</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="S10">
+        <v>8</v>
+      </c>
+      <c r="T10">
+        <v>0.25</v>
+      </c>
+      <c r="U10">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="V10">
+        <f t="shared" si="1"/>
+        <v>75</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="S11">
+        <v>9</v>
+      </c>
+      <c r="T11">
+        <v>0.25</v>
+      </c>
+      <c r="U11">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="V11">
+        <f t="shared" si="1"/>
+        <v>75</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="S12">
+        <v>10</v>
+      </c>
+      <c r="T12">
+        <v>0.234375</v>
+      </c>
+      <c r="U12">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="V12">
+        <f t="shared" si="1"/>
+        <v>76.5625</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="S13">
+        <v>11</v>
+      </c>
+      <c r="T13">
+        <v>0.21875</v>
+      </c>
+      <c r="U13">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="V13">
+        <f t="shared" si="1"/>
+        <v>78.125</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="S14">
+        <v>12</v>
+      </c>
+      <c r="T14">
+        <v>0.265625</v>
+      </c>
+      <c r="U14">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="V14">
+        <f t="shared" si="1"/>
+        <v>73.4375</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="S15">
+        <v>13</v>
+      </c>
+      <c r="T15">
+        <v>0.171875</v>
+      </c>
+      <c r="U15">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="V15">
+        <f t="shared" si="1"/>
+        <v>82.8125</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="S16">
+        <v>14</v>
+      </c>
+      <c r="T16">
+        <v>0.21875</v>
+      </c>
+      <c r="U16">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="V16">
+        <f t="shared" si="1"/>
+        <v>78.125</v>
+      </c>
+    </row>
+    <row r="17" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="S17">
+        <v>15</v>
+      </c>
+      <c r="T17">
+        <v>0.140625</v>
+      </c>
+      <c r="U17">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="V17">
+        <f t="shared" si="1"/>
+        <v>85.9375</v>
+      </c>
+    </row>
+    <row r="18" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="S18">
+        <v>16</v>
+      </c>
+      <c r="T18">
+        <v>0.1875</v>
+      </c>
+      <c r="U18">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="V18">
+        <f t="shared" si="1"/>
+        <v>81.25</v>
+      </c>
+    </row>
+    <row r="19" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="S19">
+        <v>17</v>
+      </c>
+      <c r="T19">
+        <v>0.203125</v>
+      </c>
+      <c r="U19">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="V19">
+        <f t="shared" si="1"/>
+        <v>79.6875</v>
+      </c>
+    </row>
+    <row r="20" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="A20" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
+      <c r="S20">
+        <v>18</v>
+      </c>
+      <c r="T20">
+        <v>0.1875</v>
+      </c>
+      <c r="U20">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="V20">
+        <f t="shared" si="1"/>
+        <v>81.25</v>
+      </c>
+    </row>
+    <row r="21" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="S21">
+        <v>19</v>
+      </c>
+      <c r="T21">
+        <v>0.125</v>
+      </c>
+      <c r="U21">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="V21">
+        <f t="shared" si="1"/>
+        <v>87.5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="S22">
+        <v>20</v>
+      </c>
+      <c r="T22">
+        <v>0.109375</v>
+      </c>
+      <c r="U22">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="V22">
+        <f t="shared" si="1"/>
+        <v>89.0625</v>
+      </c>
+    </row>
+    <row r="23" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="S23">
+        <v>21</v>
+      </c>
+      <c r="T23">
+        <v>0.140625</v>
+      </c>
+      <c r="U23">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="V23">
+        <f t="shared" si="1"/>
+        <v>85.9375</v>
+      </c>
+    </row>
+    <row r="24" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="S24">
+        <v>22</v>
+      </c>
+      <c r="T24">
+        <v>9.375E-2</v>
+      </c>
+      <c r="U24">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="V24">
+        <f t="shared" si="1"/>
+        <v>90.625</v>
+      </c>
+    </row>
+    <row r="25" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="S25">
+        <v>23</v>
+      </c>
+      <c r="T25">
+        <v>0.171875</v>
+      </c>
+      <c r="U25">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="V25">
+        <f t="shared" si="1"/>
+        <v>82.8125</v>
+      </c>
+    </row>
+    <row r="26" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="S26">
+        <v>24</v>
+      </c>
+      <c r="T26">
+        <v>0.140625</v>
+      </c>
+      <c r="U26">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="V26">
+        <f t="shared" si="1"/>
+        <v>85.9375</v>
+      </c>
+    </row>
+    <row r="27" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="S27">
+        <v>25</v>
+      </c>
+      <c r="T27">
+        <v>0.15625</v>
+      </c>
+      <c r="U27">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+      <c r="V27">
+        <f t="shared" si="1"/>
+        <v>84.375</v>
+      </c>
+    </row>
+    <row r="28" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="S28">
+        <v>26</v>
+      </c>
+      <c r="T28">
+        <v>0.125</v>
+      </c>
+      <c r="U28">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+      <c r="V28">
+        <f t="shared" si="1"/>
+        <v>87.5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="S29">
+        <v>27</v>
+      </c>
+      <c r="T29">
+        <v>0.171875</v>
+      </c>
+      <c r="U29">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+      <c r="V29">
+        <f t="shared" si="1"/>
+        <v>82.8125</v>
+      </c>
+    </row>
+    <row r="30" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="S30">
+        <v>28</v>
+      </c>
+      <c r="T30">
+        <v>0.15625</v>
+      </c>
+      <c r="U30">
+        <f t="shared" si="0"/>
+        <v>29</v>
+      </c>
+      <c r="V30">
+        <f t="shared" si="1"/>
+        <v>84.375</v>
+      </c>
+    </row>
+    <row r="31" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="S31">
+        <v>29</v>
+      </c>
+      <c r="T31">
+        <v>0.171875</v>
+      </c>
+      <c r="U31">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="V31">
+        <f t="shared" si="1"/>
+        <v>82.8125</v>
+      </c>
+    </row>
+    <row r="32" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="S32">
+        <v>30</v>
+      </c>
+      <c r="T32">
+        <v>0.125</v>
+      </c>
+      <c r="U32">
+        <f t="shared" si="0"/>
+        <v>31</v>
+      </c>
+      <c r="V32">
+        <f t="shared" si="1"/>
+        <v>87.5</v>
+      </c>
+    </row>
+    <row r="33" spans="19:22" x14ac:dyDescent="0.45">
+      <c r="S33">
+        <v>31</v>
+      </c>
+      <c r="T33">
+        <v>0.15625</v>
+      </c>
+      <c r="U33">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+      <c r="V33">
+        <f t="shared" si="1"/>
+        <v>84.375</v>
+      </c>
+    </row>
+    <row r="34" spans="19:22" x14ac:dyDescent="0.45">
+      <c r="S34">
+        <v>32</v>
+      </c>
+      <c r="T34">
+        <v>7.8125E-2</v>
+      </c>
+      <c r="U34">
+        <f t="shared" si="0"/>
+        <v>33</v>
+      </c>
+      <c r="V34">
+        <f t="shared" si="1"/>
+        <v>92.1875</v>
+      </c>
+    </row>
+    <row r="35" spans="19:22" x14ac:dyDescent="0.45">
+      <c r="S35">
+        <v>33</v>
+      </c>
+      <c r="T35">
+        <v>0.140625</v>
+      </c>
+      <c r="U35">
+        <f t="shared" si="0"/>
+        <v>34</v>
+      </c>
+      <c r="V35">
+        <f t="shared" si="1"/>
+        <v>85.9375</v>
+      </c>
+    </row>
+    <row r="36" spans="19:22" x14ac:dyDescent="0.45">
+      <c r="S36">
+        <v>34</v>
+      </c>
+      <c r="T36">
+        <v>0.140625</v>
+      </c>
+      <c r="U36">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+      <c r="V36">
+        <f t="shared" si="1"/>
+        <v>85.9375</v>
+      </c>
+    </row>
+    <row r="37" spans="19:22" x14ac:dyDescent="0.45">
+      <c r="S37">
+        <v>35</v>
+      </c>
+      <c r="T37">
+        <v>0.109375</v>
+      </c>
+      <c r="U37">
+        <f t="shared" si="0"/>
+        <v>36</v>
+      </c>
+      <c r="V37">
+        <f t="shared" si="1"/>
+        <v>89.0625</v>
+      </c>
+    </row>
+    <row r="38" spans="19:22" x14ac:dyDescent="0.45">
+      <c r="S38">
+        <v>36</v>
+      </c>
+      <c r="T38">
+        <v>9.375E-2</v>
+      </c>
+      <c r="U38">
+        <f t="shared" si="0"/>
+        <v>37</v>
+      </c>
+      <c r="V38">
+        <f t="shared" si="1"/>
+        <v>90.625</v>
+      </c>
+    </row>
+    <row r="39" spans="19:22" x14ac:dyDescent="0.45">
+      <c r="S39">
+        <v>37</v>
+      </c>
+      <c r="T39">
+        <v>0.15625</v>
+      </c>
+      <c r="U39">
+        <f t="shared" si="0"/>
+        <v>38</v>
+      </c>
+      <c r="V39">
+        <f t="shared" si="1"/>
+        <v>84.375</v>
+      </c>
+    </row>
+    <row r="40" spans="19:22" x14ac:dyDescent="0.45">
+      <c r="S40">
+        <v>38</v>
+      </c>
+      <c r="T40">
+        <v>0.125</v>
+      </c>
+      <c r="U40">
+        <f t="shared" si="0"/>
+        <v>39</v>
+      </c>
+      <c r="V40">
+        <f t="shared" si="1"/>
+        <v>87.5</v>
+      </c>
+    </row>
+    <row r="41" spans="19:22" x14ac:dyDescent="0.45">
+      <c r="S41">
+        <v>39</v>
+      </c>
+      <c r="T41">
+        <v>9.375E-2</v>
+      </c>
+      <c r="U41">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="V41">
+        <f t="shared" si="1"/>
+        <v>90.625</v>
+      </c>
+    </row>
+    <row r="42" spans="19:22" x14ac:dyDescent="0.45">
+      <c r="S42">
+        <v>40</v>
+      </c>
+      <c r="T42">
+        <v>9.375E-2</v>
+      </c>
+      <c r="U42">
+        <f t="shared" si="0"/>
+        <v>41</v>
+      </c>
+      <c r="V42">
+        <f t="shared" si="1"/>
+        <v>90.625</v>
+      </c>
+    </row>
+    <row r="43" spans="19:22" x14ac:dyDescent="0.45">
+      <c r="S43">
+        <v>41</v>
+      </c>
+      <c r="T43">
+        <v>7.8125E-2</v>
+      </c>
+      <c r="U43">
+        <f t="shared" si="0"/>
+        <v>42</v>
+      </c>
+      <c r="V43">
+        <f t="shared" si="1"/>
+        <v>92.1875</v>
+      </c>
+    </row>
+    <row r="44" spans="19:22" x14ac:dyDescent="0.45">
+      <c r="S44">
+        <v>42</v>
+      </c>
+      <c r="T44">
+        <v>0.109375</v>
+      </c>
+      <c r="U44">
+        <f t="shared" si="0"/>
+        <v>43</v>
+      </c>
+      <c r="V44">
+        <f t="shared" si="1"/>
+        <v>89.0625</v>
+      </c>
+    </row>
+    <row r="45" spans="19:22" x14ac:dyDescent="0.45">
+      <c r="S45">
+        <v>43</v>
+      </c>
+      <c r="T45">
+        <v>0.125</v>
+      </c>
+      <c r="U45">
+        <f t="shared" si="0"/>
+        <v>44</v>
+      </c>
+      <c r="V45">
+        <f t="shared" si="1"/>
+        <v>87.5</v>
+      </c>
+    </row>
+    <row r="46" spans="19:22" x14ac:dyDescent="0.45">
+      <c r="S46">
+        <v>44</v>
+      </c>
+      <c r="T46">
+        <v>0.15625</v>
+      </c>
+      <c r="U46">
+        <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+      <c r="V46">
+        <f t="shared" si="1"/>
+        <v>84.375</v>
+      </c>
+    </row>
+    <row r="47" spans="19:22" x14ac:dyDescent="0.45">
+      <c r="S47">
+        <v>45</v>
+      </c>
+      <c r="T47">
+        <v>9.375E-2</v>
+      </c>
+      <c r="U47">
+        <f t="shared" si="0"/>
+        <v>46</v>
+      </c>
+      <c r="V47">
+        <f t="shared" si="1"/>
+        <v>90.625</v>
+      </c>
+    </row>
+    <row r="48" spans="19:22" x14ac:dyDescent="0.45">
+      <c r="S48">
+        <v>46</v>
+      </c>
+      <c r="T48">
+        <v>0.109375</v>
+      </c>
+      <c r="U48">
+        <f t="shared" si="0"/>
+        <v>47</v>
+      </c>
+      <c r="V48">
+        <f t="shared" si="1"/>
+        <v>89.0625</v>
+      </c>
+    </row>
+    <row r="49" spans="19:22" x14ac:dyDescent="0.45">
+      <c r="S49">
+        <v>47</v>
+      </c>
+      <c r="T49">
+        <v>0.125</v>
+      </c>
+      <c r="U49">
+        <f t="shared" si="0"/>
+        <v>48</v>
+      </c>
+      <c r="V49">
+        <f t="shared" si="1"/>
+        <v>87.5</v>
+      </c>
+    </row>
+    <row r="50" spans="19:22" x14ac:dyDescent="0.45">
+      <c r="S50">
+        <v>48</v>
+      </c>
+      <c r="T50">
+        <v>0.140625</v>
+      </c>
+      <c r="U50">
+        <f t="shared" si="0"/>
+        <v>49</v>
+      </c>
+      <c r="V50">
+        <f t="shared" si="1"/>
+        <v>85.9375</v>
+      </c>
+    </row>
+    <row r="51" spans="19:22" x14ac:dyDescent="0.45">
+      <c r="S51">
+        <v>49</v>
+      </c>
+      <c r="T51">
+        <v>0.171875</v>
+      </c>
+      <c r="U51">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+      <c r="V51">
+        <f t="shared" si="1"/>
+        <v>82.8125</v>
+      </c>
+    </row>
+    <row r="52" spans="19:22" x14ac:dyDescent="0.45">
+      <c r="S52">
+        <v>50</v>
+      </c>
+      <c r="T52">
+        <v>0.125</v>
+      </c>
+      <c r="U52">
+        <f t="shared" si="0"/>
+        <v>51</v>
+      </c>
+      <c r="V52">
+        <f t="shared" si="1"/>
+        <v>87.5</v>
+      </c>
+    </row>
+    <row r="53" spans="19:22" x14ac:dyDescent="0.45">
+      <c r="S53">
+        <v>51</v>
+      </c>
+      <c r="T53">
+        <v>0.171875</v>
+      </c>
+      <c r="U53">
+        <f t="shared" si="0"/>
+        <v>52</v>
+      </c>
+      <c r="V53">
+        <f t="shared" si="1"/>
+        <v>82.8125</v>
+      </c>
+    </row>
+    <row r="54" spans="19:22" x14ac:dyDescent="0.45">
+      <c r="S54">
+        <v>52</v>
+      </c>
+      <c r="T54">
+        <v>0.125</v>
+      </c>
+      <c r="U54">
+        <f t="shared" si="0"/>
+        <v>53</v>
+      </c>
+      <c r="V54">
+        <f t="shared" si="1"/>
+        <v>87.5</v>
+      </c>
+    </row>
+    <row r="55" spans="19:22" x14ac:dyDescent="0.45">
+      <c r="S55">
+        <v>53</v>
+      </c>
+      <c r="T55">
+        <v>7.8125E-2</v>
+      </c>
+      <c r="U55">
+        <f t="shared" si="0"/>
+        <v>54</v>
+      </c>
+      <c r="V55">
+        <f t="shared" si="1"/>
+        <v>92.1875</v>
+      </c>
+    </row>
+    <row r="56" spans="19:22" x14ac:dyDescent="0.45">
+      <c r="S56">
+        <v>54</v>
+      </c>
+      <c r="T56">
+        <v>0.140625</v>
+      </c>
+      <c r="U56">
+        <f t="shared" si="0"/>
+        <v>55</v>
+      </c>
+      <c r="V56">
+        <f t="shared" si="1"/>
+        <v>85.9375</v>
+      </c>
+    </row>
+    <row r="57" spans="19:22" x14ac:dyDescent="0.45">
+      <c r="S57">
+        <v>55</v>
+      </c>
+      <c r="T57">
+        <v>0.140625</v>
+      </c>
+      <c r="U57">
+        <f t="shared" si="0"/>
+        <v>56</v>
+      </c>
+      <c r="V57">
+        <f t="shared" si="1"/>
+        <v>85.9375</v>
+      </c>
+    </row>
+    <row r="58" spans="19:22" x14ac:dyDescent="0.45">
+      <c r="S58">
+        <v>56</v>
+      </c>
+      <c r="T58">
+        <v>0.109375</v>
+      </c>
+      <c r="U58">
+        <f t="shared" si="0"/>
+        <v>57</v>
+      </c>
+      <c r="V58">
+        <f t="shared" si="1"/>
+        <v>89.0625</v>
+      </c>
+    </row>
+    <row r="59" spans="19:22" x14ac:dyDescent="0.45">
+      <c r="S59">
+        <v>57</v>
+      </c>
+      <c r="T59">
+        <v>0.140625</v>
+      </c>
+      <c r="U59">
+        <f t="shared" si="0"/>
+        <v>58</v>
+      </c>
+      <c r="V59">
+        <f t="shared" si="1"/>
+        <v>85.9375</v>
+      </c>
+    </row>
+    <row r="60" spans="19:22" x14ac:dyDescent="0.45">
+      <c r="S60">
+        <v>58</v>
+      </c>
+      <c r="T60">
+        <v>0.140625</v>
+      </c>
+      <c r="U60">
+        <f t="shared" si="0"/>
+        <v>59</v>
+      </c>
+      <c r="V60">
+        <f t="shared" si="1"/>
+        <v>85.9375</v>
+      </c>
+    </row>
+    <row r="61" spans="19:22" x14ac:dyDescent="0.45">
+      <c r="S61">
+        <v>59</v>
+      </c>
+      <c r="T61">
+        <v>0.15625</v>
+      </c>
+      <c r="U61">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+      <c r="V61">
+        <f t="shared" si="1"/>
+        <v>84.375</v>
+      </c>
+    </row>
+    <row r="62" spans="19:22" x14ac:dyDescent="0.45">
+      <c r="S62">
+        <v>60</v>
+      </c>
+      <c r="T62">
+        <v>0.15625</v>
+      </c>
+      <c r="U62">
+        <f t="shared" si="0"/>
+        <v>61</v>
+      </c>
+      <c r="V62">
+        <f t="shared" si="1"/>
+        <v>84.375</v>
+      </c>
+    </row>
+    <row r="63" spans="19:22" x14ac:dyDescent="0.45">
+      <c r="S63">
+        <v>61</v>
+      </c>
+      <c r="T63">
+        <v>0.140625</v>
+      </c>
+      <c r="U63">
+        <f t="shared" si="0"/>
+        <v>62</v>
+      </c>
+      <c r="V63">
+        <f t="shared" si="1"/>
+        <v>85.9375</v>
+      </c>
+    </row>
+    <row r="64" spans="19:22" x14ac:dyDescent="0.45">
+      <c r="S64">
+        <v>62</v>
+      </c>
+      <c r="T64">
+        <v>0.140625</v>
+      </c>
+      <c r="U64">
+        <f t="shared" si="0"/>
+        <v>63</v>
+      </c>
+      <c r="V64">
+        <f t="shared" si="1"/>
+        <v>85.9375</v>
+      </c>
+    </row>
+    <row r="65" spans="19:22" x14ac:dyDescent="0.45">
+      <c r="S65">
+        <v>63</v>
+      </c>
+      <c r="T65">
+        <v>0.109375</v>
+      </c>
+      <c r="U65">
+        <f t="shared" si="0"/>
+        <v>64</v>
+      </c>
+      <c r="V65">
+        <f t="shared" si="1"/>
+        <v>89.0625</v>
+      </c>
+    </row>
+    <row r="66" spans="19:22" x14ac:dyDescent="0.45">
+      <c r="S66">
+        <v>64</v>
+      </c>
+      <c r="T66">
+        <v>0.203125</v>
+      </c>
+      <c r="U66">
+        <f t="shared" si="0"/>
+        <v>65</v>
+      </c>
+      <c r="V66">
+        <f t="shared" si="1"/>
+        <v>79.6875</v>
+      </c>
+    </row>
+    <row r="67" spans="19:22" x14ac:dyDescent="0.45">
+      <c r="S67">
+        <v>65</v>
+      </c>
+      <c r="T67">
+        <v>0.125</v>
+      </c>
+      <c r="U67">
+        <f t="shared" ref="U67:U101" si="2" xml:space="preserve"> 1+S67</f>
+        <v>66</v>
+      </c>
+      <c r="V67">
+        <f t="shared" ref="V67:V101" si="3" xml:space="preserve"> (1-T67)*100</f>
+        <v>87.5</v>
+      </c>
+    </row>
+    <row r="68" spans="19:22" x14ac:dyDescent="0.45">
+      <c r="S68">
+        <v>66</v>
+      </c>
+      <c r="T68">
+        <v>0.109375</v>
+      </c>
+      <c r="U68">
+        <f t="shared" si="2"/>
+        <v>67</v>
+      </c>
+      <c r="V68">
+        <f t="shared" si="3"/>
+        <v>89.0625</v>
+      </c>
+    </row>
+    <row r="69" spans="19:22" x14ac:dyDescent="0.45">
+      <c r="S69">
+        <v>67</v>
+      </c>
+      <c r="T69">
+        <v>0.125</v>
+      </c>
+      <c r="U69">
+        <f t="shared" si="2"/>
+        <v>68</v>
+      </c>
+      <c r="V69">
+        <f t="shared" si="3"/>
+        <v>87.5</v>
+      </c>
+    </row>
+    <row r="70" spans="19:22" x14ac:dyDescent="0.45">
+      <c r="S70">
+        <v>68</v>
+      </c>
+      <c r="T70">
+        <v>0.109375</v>
+      </c>
+      <c r="U70">
+        <f t="shared" si="2"/>
+        <v>69</v>
+      </c>
+      <c r="V70">
+        <f t="shared" si="3"/>
+        <v>89.0625</v>
+      </c>
+    </row>
+    <row r="71" spans="19:22" x14ac:dyDescent="0.45">
+      <c r="S71">
+        <v>69</v>
+      </c>
+      <c r="T71">
+        <v>0.140625</v>
+      </c>
+      <c r="U71">
+        <f t="shared" si="2"/>
+        <v>70</v>
+      </c>
+      <c r="V71">
+        <f t="shared" si="3"/>
+        <v>85.9375</v>
+      </c>
+    </row>
+    <row r="72" spans="19:22" x14ac:dyDescent="0.45">
+      <c r="S72">
+        <v>70</v>
+      </c>
+      <c r="T72">
+        <v>0.125</v>
+      </c>
+      <c r="U72">
+        <f t="shared" si="2"/>
+        <v>71</v>
+      </c>
+      <c r="V72">
+        <f t="shared" si="3"/>
+        <v>87.5</v>
+      </c>
+    </row>
+    <row r="73" spans="19:22" x14ac:dyDescent="0.45">
+      <c r="S73">
+        <v>71</v>
+      </c>
+      <c r="T73">
+        <v>0.109375</v>
+      </c>
+      <c r="U73">
+        <f t="shared" si="2"/>
+        <v>72</v>
+      </c>
+      <c r="V73">
+        <f t="shared" si="3"/>
+        <v>89.0625</v>
+      </c>
+    </row>
+    <row r="74" spans="19:22" x14ac:dyDescent="0.45">
+      <c r="S74">
+        <v>72</v>
+      </c>
+      <c r="T74">
+        <v>0.109375</v>
+      </c>
+      <c r="U74">
+        <f t="shared" si="2"/>
+        <v>73</v>
+      </c>
+      <c r="V74">
+        <f t="shared" si="3"/>
+        <v>89.0625</v>
+      </c>
+    </row>
+    <row r="75" spans="19:22" x14ac:dyDescent="0.45">
+      <c r="S75">
+        <v>73</v>
+      </c>
+      <c r="T75">
+        <v>0.109375</v>
+      </c>
+      <c r="U75">
+        <f t="shared" si="2"/>
+        <v>74</v>
+      </c>
+      <c r="V75">
+        <f t="shared" si="3"/>
+        <v>89.0625</v>
+      </c>
+    </row>
+    <row r="76" spans="19:22" x14ac:dyDescent="0.45">
+      <c r="S76">
+        <v>74</v>
+      </c>
+      <c r="T76">
+        <v>0.140625</v>
+      </c>
+      <c r="U76">
+        <f t="shared" si="2"/>
+        <v>75</v>
+      </c>
+      <c r="V76">
+        <f t="shared" si="3"/>
+        <v>85.9375</v>
+      </c>
+    </row>
+    <row r="77" spans="19:22" x14ac:dyDescent="0.45">
+      <c r="S77">
+        <v>75</v>
+      </c>
+      <c r="T77">
+        <v>0.125</v>
+      </c>
+      <c r="U77">
+        <f t="shared" si="2"/>
+        <v>76</v>
+      </c>
+      <c r="V77">
+        <f t="shared" si="3"/>
+        <v>87.5</v>
+      </c>
+    </row>
+    <row r="78" spans="19:22" x14ac:dyDescent="0.45">
+      <c r="S78">
+        <v>76</v>
+      </c>
+      <c r="T78">
+        <v>0.140625</v>
+      </c>
+      <c r="U78">
+        <f t="shared" si="2"/>
+        <v>77</v>
+      </c>
+      <c r="V78">
+        <f t="shared" si="3"/>
+        <v>85.9375</v>
+      </c>
+    </row>
+    <row r="79" spans="19:22" x14ac:dyDescent="0.45">
+      <c r="S79">
+        <v>77</v>
+      </c>
+      <c r="T79">
+        <v>0.140625</v>
+      </c>
+      <c r="U79">
+        <f t="shared" si="2"/>
+        <v>78</v>
+      </c>
+      <c r="V79">
+        <f t="shared" si="3"/>
+        <v>85.9375</v>
+      </c>
+    </row>
+    <row r="80" spans="19:22" x14ac:dyDescent="0.45">
+      <c r="S80">
+        <v>78</v>
+      </c>
+      <c r="T80">
+        <v>0.109375</v>
+      </c>
+      <c r="U80">
+        <f t="shared" si="2"/>
+        <v>79</v>
+      </c>
+      <c r="V80">
+        <f t="shared" si="3"/>
+        <v>89.0625</v>
+      </c>
+    </row>
+    <row r="81" spans="19:22" x14ac:dyDescent="0.45">
+      <c r="S81">
+        <v>79</v>
+      </c>
+      <c r="T81">
+        <v>0.125</v>
+      </c>
+      <c r="U81">
+        <f t="shared" si="2"/>
+        <v>80</v>
+      </c>
+      <c r="V81">
+        <f t="shared" si="3"/>
+        <v>87.5</v>
+      </c>
+    </row>
+    <row r="82" spans="19:22" x14ac:dyDescent="0.45">
+      <c r="S82">
+        <v>80</v>
+      </c>
+      <c r="T82">
+        <v>7.8125E-2</v>
+      </c>
+      <c r="U82">
+        <f t="shared" si="2"/>
+        <v>81</v>
+      </c>
+      <c r="V82">
+        <f t="shared" si="3"/>
+        <v>92.1875</v>
+      </c>
+    </row>
+    <row r="83" spans="19:22" x14ac:dyDescent="0.45">
+      <c r="S83">
+        <v>81</v>
+      </c>
+      <c r="T83">
+        <v>7.8125E-2</v>
+      </c>
+      <c r="U83">
+        <f t="shared" si="2"/>
+        <v>82</v>
+      </c>
+      <c r="V83">
+        <f t="shared" si="3"/>
+        <v>92.1875</v>
+      </c>
+    </row>
+    <row r="84" spans="19:22" x14ac:dyDescent="0.45">
+      <c r="S84">
+        <v>82</v>
+      </c>
+      <c r="T84">
+        <v>7.8125E-2</v>
+      </c>
+      <c r="U84">
+        <f t="shared" si="2"/>
+        <v>83</v>
+      </c>
+      <c r="V84">
+        <f t="shared" si="3"/>
+        <v>92.1875</v>
+      </c>
+    </row>
+    <row r="85" spans="19:22" x14ac:dyDescent="0.45">
+      <c r="S85">
+        <v>83</v>
+      </c>
+      <c r="T85">
+        <v>9.375E-2</v>
+      </c>
+      <c r="U85">
+        <f t="shared" si="2"/>
+        <v>84</v>
+      </c>
+      <c r="V85">
+        <f t="shared" si="3"/>
+        <v>90.625</v>
+      </c>
+    </row>
+    <row r="86" spans="19:22" x14ac:dyDescent="0.45">
+      <c r="S86">
+        <v>84</v>
+      </c>
+      <c r="T86">
+        <v>0.125</v>
+      </c>
+      <c r="U86">
+        <f t="shared" si="2"/>
+        <v>85</v>
+      </c>
+      <c r="V86">
+        <f t="shared" si="3"/>
+        <v>87.5</v>
+      </c>
+    </row>
+    <row r="87" spans="19:22" x14ac:dyDescent="0.45">
+      <c r="S87">
+        <v>85</v>
+      </c>
+      <c r="T87">
+        <v>9.375E-2</v>
+      </c>
+      <c r="U87">
+        <f t="shared" si="2"/>
+        <v>86</v>
+      </c>
+      <c r="V87">
+        <f t="shared" si="3"/>
+        <v>90.625</v>
+      </c>
+    </row>
+    <row r="88" spans="19:22" x14ac:dyDescent="0.45">
+      <c r="S88">
+        <v>86</v>
+      </c>
+      <c r="T88">
+        <v>0.109375</v>
+      </c>
+      <c r="U88">
+        <f t="shared" si="2"/>
+        <v>87</v>
+      </c>
+      <c r="V88">
+        <f t="shared" si="3"/>
+        <v>89.0625</v>
+      </c>
+    </row>
+    <row r="89" spans="19:22" x14ac:dyDescent="0.45">
+      <c r="S89">
+        <v>87</v>
+      </c>
+      <c r="T89">
+        <v>0.109375</v>
+      </c>
+      <c r="U89">
+        <f t="shared" si="2"/>
+        <v>88</v>
+      </c>
+      <c r="V89">
+        <f t="shared" si="3"/>
+        <v>89.0625</v>
+      </c>
+    </row>
+    <row r="90" spans="19:22" x14ac:dyDescent="0.45">
+      <c r="S90">
+        <v>88</v>
+      </c>
+      <c r="T90">
+        <v>9.375E-2</v>
+      </c>
+      <c r="U90">
+        <f t="shared" si="2"/>
+        <v>89</v>
+      </c>
+      <c r="V90">
+        <f t="shared" si="3"/>
+        <v>90.625</v>
+      </c>
+    </row>
+    <row r="91" spans="19:22" x14ac:dyDescent="0.45">
+      <c r="S91">
+        <v>89</v>
+      </c>
+      <c r="T91">
+        <v>0.109375</v>
+      </c>
+      <c r="U91">
+        <f t="shared" si="2"/>
+        <v>90</v>
+      </c>
+      <c r="V91">
+        <f t="shared" si="3"/>
+        <v>89.0625</v>
+      </c>
+    </row>
+    <row r="92" spans="19:22" x14ac:dyDescent="0.45">
+      <c r="S92">
+        <v>90</v>
+      </c>
+      <c r="T92">
+        <v>0.109375</v>
+      </c>
+      <c r="U92">
+        <f t="shared" si="2"/>
+        <v>91</v>
+      </c>
+      <c r="V92">
+        <f t="shared" si="3"/>
+        <v>89.0625</v>
+      </c>
+    </row>
+    <row r="93" spans="19:22" x14ac:dyDescent="0.45">
+      <c r="S93">
+        <v>91</v>
+      </c>
+      <c r="T93">
+        <v>0.109375</v>
+      </c>
+      <c r="U93">
+        <f t="shared" si="2"/>
+        <v>92</v>
+      </c>
+      <c r="V93">
+        <f t="shared" si="3"/>
+        <v>89.0625</v>
+      </c>
+    </row>
+    <row r="94" spans="19:22" x14ac:dyDescent="0.45">
+      <c r="S94">
+        <v>92</v>
+      </c>
+      <c r="T94">
+        <v>0.109375</v>
+      </c>
+      <c r="U94">
+        <f t="shared" si="2"/>
+        <v>93</v>
+      </c>
+      <c r="V94">
+        <f t="shared" si="3"/>
+        <v>89.0625</v>
+      </c>
+    </row>
+    <row r="95" spans="19:22" x14ac:dyDescent="0.45">
+      <c r="S95">
+        <v>93</v>
+      </c>
+      <c r="T95">
+        <v>0.109375</v>
+      </c>
+      <c r="U95">
+        <f t="shared" si="2"/>
+        <v>94</v>
+      </c>
+      <c r="V95">
+        <f t="shared" si="3"/>
+        <v>89.0625</v>
+      </c>
+    </row>
+    <row r="96" spans="19:22" x14ac:dyDescent="0.45">
+      <c r="S96">
+        <v>94</v>
+      </c>
+      <c r="T96">
+        <v>0.109375</v>
+      </c>
+      <c r="U96">
+        <f t="shared" si="2"/>
+        <v>95</v>
+      </c>
+      <c r="V96">
+        <f t="shared" si="3"/>
+        <v>89.0625</v>
+      </c>
+    </row>
+    <row r="97" spans="19:22" x14ac:dyDescent="0.45">
+      <c r="S97">
+        <v>95</v>
+      </c>
+      <c r="T97">
+        <v>0.109375</v>
+      </c>
+      <c r="U97">
+        <f t="shared" si="2"/>
+        <v>96</v>
+      </c>
+      <c r="V97">
+        <f t="shared" si="3"/>
+        <v>89.0625</v>
+      </c>
+    </row>
+    <row r="98" spans="19:22" x14ac:dyDescent="0.45">
+      <c r="S98">
+        <v>96</v>
+      </c>
+      <c r="T98">
+        <v>0.109375</v>
+      </c>
+      <c r="U98">
+        <f t="shared" si="2"/>
+        <v>97</v>
+      </c>
+      <c r="V98">
+        <f t="shared" si="3"/>
+        <v>89.0625</v>
+      </c>
+    </row>
+    <row r="99" spans="19:22" x14ac:dyDescent="0.45">
+      <c r="S99">
+        <v>97</v>
+      </c>
+      <c r="T99">
+        <v>0.109375</v>
+      </c>
+      <c r="U99">
+        <f t="shared" si="2"/>
+        <v>98</v>
+      </c>
+      <c r="V99">
+        <f t="shared" si="3"/>
+        <v>89.0625</v>
+      </c>
+    </row>
+    <row r="100" spans="19:22" x14ac:dyDescent="0.45">
+      <c r="S100">
+        <v>98</v>
+      </c>
+      <c r="T100">
+        <v>0.109375</v>
+      </c>
+      <c r="U100">
+        <f t="shared" si="2"/>
+        <v>99</v>
+      </c>
+      <c r="V100">
+        <f t="shared" si="3"/>
+        <v>89.0625</v>
+      </c>
+    </row>
+    <row r="101" spans="19:22" x14ac:dyDescent="0.45">
+      <c r="S101">
+        <v>99</v>
+      </c>
+      <c r="T101">
+        <v>0.109375</v>
+      </c>
+      <c r="U101">
+        <f t="shared" si="2"/>
+        <v>100</v>
+      </c>
+      <c r="V101">
+        <f t="shared" si="3"/>
+        <v>89.0625</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="H1:L1"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="A20:C20"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -14649,7 +20005,7 @@
   <dimension ref="A1:V152"/>
   <sheetViews>
     <sheetView zoomScale="57" workbookViewId="0">
-      <selection activeCell="V1" sqref="V1:V1048576"/>
+      <selection activeCell="V1" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -16718,8 +22074,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8525D1C2-26B5-468B-8EDE-6B9C6AD44D63}">
   <dimension ref="A1:V152"/>
   <sheetViews>
-    <sheetView zoomScale="64" workbookViewId="0">
-      <selection activeCell="M45" sqref="M45"/>
+    <sheetView topLeftCell="A9" zoomScale="64" workbookViewId="0">
+      <selection activeCell="F34" sqref="F34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -22932,7 +28288,7 @@
   <dimension ref="A1:V101"/>
   <sheetViews>
     <sheetView zoomScale="59" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+      <selection sqref="A1:G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -24593,8 +29949,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC38E66A-0E6B-4AC5-9048-A3E8F120B5AA}">
   <dimension ref="A1:V101"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="54" workbookViewId="0">
-      <selection activeCell="R20" sqref="R20"/>
+    <sheetView zoomScale="54" workbookViewId="0">
+      <selection sqref="A1:G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -26237,6 +31593,2076 @@
       <c r="V101">
         <f t="shared" si="3"/>
         <v>89.0625</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="H1:L1"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="A20:C20"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80D8F60B-5C5B-4F18-8613-DC66DA0D8385}">
+  <dimension ref="A1:V152"/>
+  <sheetViews>
+    <sheetView topLeftCell="C1" zoomScale="51" workbookViewId="0">
+      <selection sqref="A1:G1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetData>
+    <row r="1" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="A1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
+      <c r="S1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="S2">
+        <v>0</v>
+      </c>
+      <c r="T2">
+        <v>1.015625</v>
+      </c>
+      <c r="U2">
+        <f xml:space="preserve"> 1+S2</f>
+        <v>1</v>
+      </c>
+      <c r="V2">
+        <f xml:space="preserve"> (1-T2)*100</f>
+        <v>-1.5625</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="A3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="S3">
+        <v>1</v>
+      </c>
+      <c r="T3">
+        <v>0.921875</v>
+      </c>
+      <c r="U3">
+        <f t="shared" ref="U3:U66" si="0" xml:space="preserve"> 1+S3</f>
+        <v>2</v>
+      </c>
+      <c r="V3">
+        <f t="shared" ref="V3:V66" si="1" xml:space="preserve"> (1-T3)*100</f>
+        <v>7.8125</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="S4">
+        <v>2</v>
+      </c>
+      <c r="T4">
+        <v>0.875</v>
+      </c>
+      <c r="U4">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="V4">
+        <f t="shared" si="1"/>
+        <v>12.5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="S5">
+        <v>3</v>
+      </c>
+      <c r="T5">
+        <v>0.59375</v>
+      </c>
+      <c r="U5">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="V5">
+        <f t="shared" si="1"/>
+        <v>40.625</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="S6">
+        <v>4</v>
+      </c>
+      <c r="T6">
+        <v>0.421875</v>
+      </c>
+      <c r="U6">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="V6">
+        <f t="shared" si="1"/>
+        <v>57.8125</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="S7">
+        <v>5</v>
+      </c>
+      <c r="T7">
+        <v>0.34375</v>
+      </c>
+      <c r="U7">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="V7">
+        <f t="shared" si="1"/>
+        <v>65.625</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="S8">
+        <v>6</v>
+      </c>
+      <c r="T8">
+        <v>0.296875</v>
+      </c>
+      <c r="U8">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="V8">
+        <f t="shared" si="1"/>
+        <v>70.3125</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="S9">
+        <v>7</v>
+      </c>
+      <c r="T9">
+        <v>0.328125</v>
+      </c>
+      <c r="U9">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="V9">
+        <f t="shared" si="1"/>
+        <v>67.1875</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="S10">
+        <v>8</v>
+      </c>
+      <c r="T10">
+        <v>0.296875</v>
+      </c>
+      <c r="U10">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="V10">
+        <f t="shared" si="1"/>
+        <v>70.3125</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="S11">
+        <v>9</v>
+      </c>
+      <c r="T11">
+        <v>0.25</v>
+      </c>
+      <c r="U11">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="V11">
+        <f t="shared" si="1"/>
+        <v>75</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="S12">
+        <v>10</v>
+      </c>
+      <c r="T12">
+        <v>0.359375</v>
+      </c>
+      <c r="U12">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="V12">
+        <f t="shared" si="1"/>
+        <v>64.0625</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="S13">
+        <v>11</v>
+      </c>
+      <c r="T13">
+        <v>0.1875</v>
+      </c>
+      <c r="U13">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="V13">
+        <f t="shared" si="1"/>
+        <v>81.25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="S14">
+        <v>12</v>
+      </c>
+      <c r="T14">
+        <v>0.171875</v>
+      </c>
+      <c r="U14">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="V14">
+        <f t="shared" si="1"/>
+        <v>82.8125</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="S15">
+        <v>13</v>
+      </c>
+      <c r="T15">
+        <v>0.1875</v>
+      </c>
+      <c r="U15">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="V15">
+        <f t="shared" si="1"/>
+        <v>81.25</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="S16">
+        <v>14</v>
+      </c>
+      <c r="T16">
+        <v>0.15625</v>
+      </c>
+      <c r="U16">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="V16">
+        <f t="shared" si="1"/>
+        <v>84.375</v>
+      </c>
+    </row>
+    <row r="17" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="S17">
+        <v>15</v>
+      </c>
+      <c r="T17">
+        <v>0.1875</v>
+      </c>
+      <c r="U17">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="V17">
+        <f t="shared" si="1"/>
+        <v>81.25</v>
+      </c>
+    </row>
+    <row r="18" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="S18">
+        <v>16</v>
+      </c>
+      <c r="T18">
+        <v>0.203125</v>
+      </c>
+      <c r="U18">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="V18">
+        <f t="shared" si="1"/>
+        <v>79.6875</v>
+      </c>
+    </row>
+    <row r="19" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="S19">
+        <v>17</v>
+      </c>
+      <c r="T19">
+        <v>0.21875</v>
+      </c>
+      <c r="U19">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="V19">
+        <f t="shared" si="1"/>
+        <v>78.125</v>
+      </c>
+    </row>
+    <row r="20" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="A20" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
+      <c r="S20">
+        <v>18</v>
+      </c>
+      <c r="T20">
+        <v>0.21875</v>
+      </c>
+      <c r="U20">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="V20">
+        <f t="shared" si="1"/>
+        <v>78.125</v>
+      </c>
+    </row>
+    <row r="21" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="S21">
+        <v>19</v>
+      </c>
+      <c r="T21">
+        <v>0.25</v>
+      </c>
+      <c r="U21">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="V21">
+        <f t="shared" si="1"/>
+        <v>75</v>
+      </c>
+    </row>
+    <row r="22" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="S22">
+        <v>20</v>
+      </c>
+      <c r="T22">
+        <v>0.15625</v>
+      </c>
+      <c r="U22">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="V22">
+        <f t="shared" si="1"/>
+        <v>84.375</v>
+      </c>
+    </row>
+    <row r="23" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="S23">
+        <v>21</v>
+      </c>
+      <c r="T23">
+        <v>0.203125</v>
+      </c>
+      <c r="U23">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="V23">
+        <f t="shared" si="1"/>
+        <v>79.6875</v>
+      </c>
+    </row>
+    <row r="24" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="S24">
+        <v>22</v>
+      </c>
+      <c r="T24">
+        <v>0.234375</v>
+      </c>
+      <c r="U24">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="V24">
+        <f t="shared" si="1"/>
+        <v>76.5625</v>
+      </c>
+    </row>
+    <row r="25" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="S25">
+        <v>23</v>
+      </c>
+      <c r="T25">
+        <v>0.171875</v>
+      </c>
+      <c r="U25">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="V25">
+        <f t="shared" si="1"/>
+        <v>82.8125</v>
+      </c>
+    </row>
+    <row r="26" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="S26">
+        <v>24</v>
+      </c>
+      <c r="T26">
+        <v>0.21875</v>
+      </c>
+      <c r="U26">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="V26">
+        <f t="shared" si="1"/>
+        <v>78.125</v>
+      </c>
+    </row>
+    <row r="27" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="S27">
+        <v>25</v>
+      </c>
+      <c r="T27">
+        <v>0.15625</v>
+      </c>
+      <c r="U27">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+      <c r="V27">
+        <f t="shared" si="1"/>
+        <v>84.375</v>
+      </c>
+    </row>
+    <row r="28" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="S28">
+        <v>26</v>
+      </c>
+      <c r="T28">
+        <v>0.171875</v>
+      </c>
+      <c r="U28">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+      <c r="V28">
+        <f t="shared" si="1"/>
+        <v>82.8125</v>
+      </c>
+    </row>
+    <row r="29" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="S29">
+        <v>27</v>
+      </c>
+      <c r="T29">
+        <v>0.171875</v>
+      </c>
+      <c r="U29">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+      <c r="V29">
+        <f t="shared" si="1"/>
+        <v>82.8125</v>
+      </c>
+    </row>
+    <row r="30" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="S30">
+        <v>28</v>
+      </c>
+      <c r="T30">
+        <v>0.203125</v>
+      </c>
+      <c r="U30">
+        <f t="shared" si="0"/>
+        <v>29</v>
+      </c>
+      <c r="V30">
+        <f t="shared" si="1"/>
+        <v>79.6875</v>
+      </c>
+    </row>
+    <row r="31" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="S31">
+        <v>29</v>
+      </c>
+      <c r="T31">
+        <v>9.375E-2</v>
+      </c>
+      <c r="U31">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="V31">
+        <f t="shared" si="1"/>
+        <v>90.625</v>
+      </c>
+    </row>
+    <row r="32" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="S32">
+        <v>30</v>
+      </c>
+      <c r="T32">
+        <v>0.125</v>
+      </c>
+      <c r="U32">
+        <f t="shared" si="0"/>
+        <v>31</v>
+      </c>
+      <c r="V32">
+        <f t="shared" si="1"/>
+        <v>87.5</v>
+      </c>
+    </row>
+    <row r="33" spans="19:22" x14ac:dyDescent="0.45">
+      <c r="S33">
+        <v>31</v>
+      </c>
+      <c r="T33">
+        <v>0.203125</v>
+      </c>
+      <c r="U33">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+      <c r="V33">
+        <f t="shared" si="1"/>
+        <v>79.6875</v>
+      </c>
+    </row>
+    <row r="34" spans="19:22" x14ac:dyDescent="0.45">
+      <c r="S34">
+        <v>32</v>
+      </c>
+      <c r="T34">
+        <v>0.1875</v>
+      </c>
+      <c r="U34">
+        <f t="shared" si="0"/>
+        <v>33</v>
+      </c>
+      <c r="V34">
+        <f t="shared" si="1"/>
+        <v>81.25</v>
+      </c>
+    </row>
+    <row r="35" spans="19:22" x14ac:dyDescent="0.45">
+      <c r="S35">
+        <v>33</v>
+      </c>
+      <c r="T35">
+        <v>9.375E-2</v>
+      </c>
+      <c r="U35">
+        <f t="shared" si="0"/>
+        <v>34</v>
+      </c>
+      <c r="V35">
+        <f t="shared" si="1"/>
+        <v>90.625</v>
+      </c>
+    </row>
+    <row r="36" spans="19:22" x14ac:dyDescent="0.45">
+      <c r="S36">
+        <v>34</v>
+      </c>
+      <c r="T36">
+        <v>7.8125E-2</v>
+      </c>
+      <c r="U36">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+      <c r="V36">
+        <f t="shared" si="1"/>
+        <v>92.1875</v>
+      </c>
+    </row>
+    <row r="37" spans="19:22" x14ac:dyDescent="0.45">
+      <c r="S37">
+        <v>35</v>
+      </c>
+      <c r="T37">
+        <v>0.125</v>
+      </c>
+      <c r="U37">
+        <f t="shared" si="0"/>
+        <v>36</v>
+      </c>
+      <c r="V37">
+        <f t="shared" si="1"/>
+        <v>87.5</v>
+      </c>
+    </row>
+    <row r="38" spans="19:22" x14ac:dyDescent="0.45">
+      <c r="S38">
+        <v>36</v>
+      </c>
+      <c r="T38">
+        <v>0.140625</v>
+      </c>
+      <c r="U38">
+        <f t="shared" si="0"/>
+        <v>37</v>
+      </c>
+      <c r="V38">
+        <f t="shared" si="1"/>
+        <v>85.9375</v>
+      </c>
+    </row>
+    <row r="39" spans="19:22" x14ac:dyDescent="0.45">
+      <c r="S39">
+        <v>37</v>
+      </c>
+      <c r="T39">
+        <v>9.375E-2</v>
+      </c>
+      <c r="U39">
+        <f t="shared" si="0"/>
+        <v>38</v>
+      </c>
+      <c r="V39">
+        <f t="shared" si="1"/>
+        <v>90.625</v>
+      </c>
+    </row>
+    <row r="40" spans="19:22" x14ac:dyDescent="0.45">
+      <c r="S40">
+        <v>38</v>
+      </c>
+      <c r="T40">
+        <v>0.109375</v>
+      </c>
+      <c r="U40">
+        <f t="shared" si="0"/>
+        <v>39</v>
+      </c>
+      <c r="V40">
+        <f t="shared" si="1"/>
+        <v>89.0625</v>
+      </c>
+    </row>
+    <row r="41" spans="19:22" x14ac:dyDescent="0.45">
+      <c r="S41">
+        <v>39</v>
+      </c>
+      <c r="T41">
+        <v>0.125</v>
+      </c>
+      <c r="U41">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="V41">
+        <f t="shared" si="1"/>
+        <v>87.5</v>
+      </c>
+    </row>
+    <row r="42" spans="19:22" x14ac:dyDescent="0.45">
+      <c r="S42">
+        <v>40</v>
+      </c>
+      <c r="T42">
+        <v>0.203125</v>
+      </c>
+      <c r="U42">
+        <f t="shared" si="0"/>
+        <v>41</v>
+      </c>
+      <c r="V42">
+        <f t="shared" si="1"/>
+        <v>79.6875</v>
+      </c>
+    </row>
+    <row r="43" spans="19:22" x14ac:dyDescent="0.45">
+      <c r="S43">
+        <v>41</v>
+      </c>
+      <c r="T43">
+        <v>7.8125E-2</v>
+      </c>
+      <c r="U43">
+        <f t="shared" si="0"/>
+        <v>42</v>
+      </c>
+      <c r="V43">
+        <f t="shared" si="1"/>
+        <v>92.1875</v>
+      </c>
+    </row>
+    <row r="44" spans="19:22" x14ac:dyDescent="0.45">
+      <c r="S44">
+        <v>42</v>
+      </c>
+      <c r="T44">
+        <v>0.15625</v>
+      </c>
+      <c r="U44">
+        <f t="shared" si="0"/>
+        <v>43</v>
+      </c>
+      <c r="V44">
+        <f t="shared" si="1"/>
+        <v>84.375</v>
+      </c>
+    </row>
+    <row r="45" spans="19:22" x14ac:dyDescent="0.45">
+      <c r="S45">
+        <v>43</v>
+      </c>
+      <c r="T45">
+        <v>0.15625</v>
+      </c>
+      <c r="U45">
+        <f t="shared" si="0"/>
+        <v>44</v>
+      </c>
+      <c r="V45">
+        <f t="shared" si="1"/>
+        <v>84.375</v>
+      </c>
+    </row>
+    <row r="46" spans="19:22" x14ac:dyDescent="0.45">
+      <c r="S46">
+        <v>44</v>
+      </c>
+      <c r="T46">
+        <v>0.109375</v>
+      </c>
+      <c r="U46">
+        <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+      <c r="V46">
+        <f t="shared" si="1"/>
+        <v>89.0625</v>
+      </c>
+    </row>
+    <row r="47" spans="19:22" x14ac:dyDescent="0.45">
+      <c r="S47">
+        <v>45</v>
+      </c>
+      <c r="T47">
+        <v>0.109375</v>
+      </c>
+      <c r="U47">
+        <f t="shared" si="0"/>
+        <v>46</v>
+      </c>
+      <c r="V47">
+        <f t="shared" si="1"/>
+        <v>89.0625</v>
+      </c>
+    </row>
+    <row r="48" spans="19:22" x14ac:dyDescent="0.45">
+      <c r="S48">
+        <v>46</v>
+      </c>
+      <c r="T48">
+        <v>0.140625</v>
+      </c>
+      <c r="U48">
+        <f t="shared" si="0"/>
+        <v>47</v>
+      </c>
+      <c r="V48">
+        <f t="shared" si="1"/>
+        <v>85.9375</v>
+      </c>
+    </row>
+    <row r="49" spans="19:22" x14ac:dyDescent="0.45">
+      <c r="S49">
+        <v>47</v>
+      </c>
+      <c r="T49">
+        <v>7.8125E-2</v>
+      </c>
+      <c r="U49">
+        <f t="shared" si="0"/>
+        <v>48</v>
+      </c>
+      <c r="V49">
+        <f t="shared" si="1"/>
+        <v>92.1875</v>
+      </c>
+    </row>
+    <row r="50" spans="19:22" x14ac:dyDescent="0.45">
+      <c r="S50">
+        <v>48</v>
+      </c>
+      <c r="T50">
+        <v>0.171875</v>
+      </c>
+      <c r="U50">
+        <f t="shared" si="0"/>
+        <v>49</v>
+      </c>
+      <c r="V50">
+        <f t="shared" si="1"/>
+        <v>82.8125</v>
+      </c>
+    </row>
+    <row r="51" spans="19:22" x14ac:dyDescent="0.45">
+      <c r="S51">
+        <v>49</v>
+      </c>
+      <c r="T51">
+        <v>0.109375</v>
+      </c>
+      <c r="U51">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+      <c r="V51">
+        <f t="shared" si="1"/>
+        <v>89.0625</v>
+      </c>
+    </row>
+    <row r="52" spans="19:22" x14ac:dyDescent="0.45">
+      <c r="S52">
+        <v>50</v>
+      </c>
+      <c r="T52">
+        <v>0.125</v>
+      </c>
+      <c r="U52">
+        <f t="shared" si="0"/>
+        <v>51</v>
+      </c>
+      <c r="V52">
+        <f t="shared" si="1"/>
+        <v>87.5</v>
+      </c>
+    </row>
+    <row r="53" spans="19:22" x14ac:dyDescent="0.45">
+      <c r="S53">
+        <v>51</v>
+      </c>
+      <c r="T53">
+        <v>0.109375</v>
+      </c>
+      <c r="U53">
+        <f t="shared" si="0"/>
+        <v>52</v>
+      </c>
+      <c r="V53">
+        <f t="shared" si="1"/>
+        <v>89.0625</v>
+      </c>
+    </row>
+    <row r="54" spans="19:22" x14ac:dyDescent="0.45">
+      <c r="S54">
+        <v>52</v>
+      </c>
+      <c r="T54">
+        <v>0.109375</v>
+      </c>
+      <c r="U54">
+        <f t="shared" si="0"/>
+        <v>53</v>
+      </c>
+      <c r="V54">
+        <f t="shared" si="1"/>
+        <v>89.0625</v>
+      </c>
+    </row>
+    <row r="55" spans="19:22" x14ac:dyDescent="0.45">
+      <c r="S55">
+        <v>53</v>
+      </c>
+      <c r="T55">
+        <v>0.109375</v>
+      </c>
+      <c r="U55">
+        <f t="shared" si="0"/>
+        <v>54</v>
+      </c>
+      <c r="V55">
+        <f t="shared" si="1"/>
+        <v>89.0625</v>
+      </c>
+    </row>
+    <row r="56" spans="19:22" x14ac:dyDescent="0.45">
+      <c r="S56">
+        <v>54</v>
+      </c>
+      <c r="T56">
+        <v>0.15625</v>
+      </c>
+      <c r="U56">
+        <f t="shared" si="0"/>
+        <v>55</v>
+      </c>
+      <c r="V56">
+        <f t="shared" si="1"/>
+        <v>84.375</v>
+      </c>
+    </row>
+    <row r="57" spans="19:22" x14ac:dyDescent="0.45">
+      <c r="S57">
+        <v>55</v>
+      </c>
+      <c r="T57">
+        <v>0.140625</v>
+      </c>
+      <c r="U57">
+        <f t="shared" si="0"/>
+        <v>56</v>
+      </c>
+      <c r="V57">
+        <f t="shared" si="1"/>
+        <v>85.9375</v>
+      </c>
+    </row>
+    <row r="58" spans="19:22" x14ac:dyDescent="0.45">
+      <c r="S58">
+        <v>56</v>
+      </c>
+      <c r="T58">
+        <v>0.109375</v>
+      </c>
+      <c r="U58">
+        <f t="shared" si="0"/>
+        <v>57</v>
+      </c>
+      <c r="V58">
+        <f t="shared" si="1"/>
+        <v>89.0625</v>
+      </c>
+    </row>
+    <row r="59" spans="19:22" x14ac:dyDescent="0.45">
+      <c r="S59">
+        <v>57</v>
+      </c>
+      <c r="T59">
+        <v>0.140625</v>
+      </c>
+      <c r="U59">
+        <f t="shared" si="0"/>
+        <v>58</v>
+      </c>
+      <c r="V59">
+        <f t="shared" si="1"/>
+        <v>85.9375</v>
+      </c>
+    </row>
+    <row r="60" spans="19:22" x14ac:dyDescent="0.45">
+      <c r="S60">
+        <v>58</v>
+      </c>
+      <c r="T60">
+        <v>0.171875</v>
+      </c>
+      <c r="U60">
+        <f t="shared" si="0"/>
+        <v>59</v>
+      </c>
+      <c r="V60">
+        <f t="shared" si="1"/>
+        <v>82.8125</v>
+      </c>
+    </row>
+    <row r="61" spans="19:22" x14ac:dyDescent="0.45">
+      <c r="S61">
+        <v>59</v>
+      </c>
+      <c r="T61">
+        <v>7.8125E-2</v>
+      </c>
+      <c r="U61">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+      <c r="V61">
+        <f t="shared" si="1"/>
+        <v>92.1875</v>
+      </c>
+    </row>
+    <row r="62" spans="19:22" x14ac:dyDescent="0.45">
+      <c r="S62">
+        <v>60</v>
+      </c>
+      <c r="T62">
+        <v>0.140625</v>
+      </c>
+      <c r="U62">
+        <f t="shared" si="0"/>
+        <v>61</v>
+      </c>
+      <c r="V62">
+        <f t="shared" si="1"/>
+        <v>85.9375</v>
+      </c>
+    </row>
+    <row r="63" spans="19:22" x14ac:dyDescent="0.45">
+      <c r="S63">
+        <v>61</v>
+      </c>
+      <c r="T63">
+        <v>0.140625</v>
+      </c>
+      <c r="U63">
+        <f t="shared" si="0"/>
+        <v>62</v>
+      </c>
+      <c r="V63">
+        <f t="shared" si="1"/>
+        <v>85.9375</v>
+      </c>
+    </row>
+    <row r="64" spans="19:22" x14ac:dyDescent="0.45">
+      <c r="S64">
+        <v>62</v>
+      </c>
+      <c r="T64">
+        <v>0.125</v>
+      </c>
+      <c r="U64">
+        <f t="shared" si="0"/>
+        <v>63</v>
+      </c>
+      <c r="V64">
+        <f t="shared" si="1"/>
+        <v>87.5</v>
+      </c>
+    </row>
+    <row r="65" spans="19:22" x14ac:dyDescent="0.45">
+      <c r="S65">
+        <v>63</v>
+      </c>
+      <c r="T65">
+        <v>0.125</v>
+      </c>
+      <c r="U65">
+        <f t="shared" si="0"/>
+        <v>64</v>
+      </c>
+      <c r="V65">
+        <f t="shared" si="1"/>
+        <v>87.5</v>
+      </c>
+    </row>
+    <row r="66" spans="19:22" x14ac:dyDescent="0.45">
+      <c r="S66">
+        <v>64</v>
+      </c>
+      <c r="T66">
+        <v>0.109375</v>
+      </c>
+      <c r="U66">
+        <f t="shared" si="0"/>
+        <v>65</v>
+      </c>
+      <c r="V66">
+        <f t="shared" si="1"/>
+        <v>89.0625</v>
+      </c>
+    </row>
+    <row r="67" spans="19:22" x14ac:dyDescent="0.45">
+      <c r="S67">
+        <v>65</v>
+      </c>
+      <c r="T67">
+        <v>0.15625</v>
+      </c>
+      <c r="U67">
+        <f t="shared" ref="U67:U101" si="2" xml:space="preserve"> 1+S67</f>
+        <v>66</v>
+      </c>
+      <c r="V67">
+        <f t="shared" ref="V67:V101" si="3" xml:space="preserve"> (1-T67)*100</f>
+        <v>84.375</v>
+      </c>
+    </row>
+    <row r="68" spans="19:22" x14ac:dyDescent="0.45">
+      <c r="S68">
+        <v>66</v>
+      </c>
+      <c r="T68">
+        <v>0.140625</v>
+      </c>
+      <c r="U68">
+        <f t="shared" si="2"/>
+        <v>67</v>
+      </c>
+      <c r="V68">
+        <f t="shared" si="3"/>
+        <v>85.9375</v>
+      </c>
+    </row>
+    <row r="69" spans="19:22" x14ac:dyDescent="0.45">
+      <c r="S69">
+        <v>67</v>
+      </c>
+      <c r="T69">
+        <v>9.375E-2</v>
+      </c>
+      <c r="U69">
+        <f t="shared" si="2"/>
+        <v>68</v>
+      </c>
+      <c r="V69">
+        <f t="shared" si="3"/>
+        <v>90.625</v>
+      </c>
+    </row>
+    <row r="70" spans="19:22" x14ac:dyDescent="0.45">
+      <c r="S70">
+        <v>68</v>
+      </c>
+      <c r="T70">
+        <v>9.375E-2</v>
+      </c>
+      <c r="U70">
+        <f t="shared" si="2"/>
+        <v>69</v>
+      </c>
+      <c r="V70">
+        <f t="shared" si="3"/>
+        <v>90.625</v>
+      </c>
+    </row>
+    <row r="71" spans="19:22" x14ac:dyDescent="0.45">
+      <c r="S71">
+        <v>69</v>
+      </c>
+      <c r="T71">
+        <v>0.109375</v>
+      </c>
+      <c r="U71">
+        <f t="shared" si="2"/>
+        <v>70</v>
+      </c>
+      <c r="V71">
+        <f t="shared" si="3"/>
+        <v>89.0625</v>
+      </c>
+    </row>
+    <row r="72" spans="19:22" x14ac:dyDescent="0.45">
+      <c r="S72">
+        <v>70</v>
+      </c>
+      <c r="T72">
+        <v>4.6875E-2</v>
+      </c>
+      <c r="U72">
+        <f t="shared" si="2"/>
+        <v>71</v>
+      </c>
+      <c r="V72">
+        <f t="shared" si="3"/>
+        <v>95.3125</v>
+      </c>
+    </row>
+    <row r="73" spans="19:22" x14ac:dyDescent="0.45">
+      <c r="S73">
+        <v>71</v>
+      </c>
+      <c r="T73">
+        <v>0.109375</v>
+      </c>
+      <c r="U73">
+        <f t="shared" si="2"/>
+        <v>72</v>
+      </c>
+      <c r="V73">
+        <f t="shared" si="3"/>
+        <v>89.0625</v>
+      </c>
+    </row>
+    <row r="74" spans="19:22" x14ac:dyDescent="0.45">
+      <c r="S74">
+        <v>72</v>
+      </c>
+      <c r="T74">
+        <v>7.8125E-2</v>
+      </c>
+      <c r="U74">
+        <f t="shared" si="2"/>
+        <v>73</v>
+      </c>
+      <c r="V74">
+        <f t="shared" si="3"/>
+        <v>92.1875</v>
+      </c>
+    </row>
+    <row r="75" spans="19:22" x14ac:dyDescent="0.45">
+      <c r="S75">
+        <v>73</v>
+      </c>
+      <c r="T75">
+        <v>0.125</v>
+      </c>
+      <c r="U75">
+        <f t="shared" si="2"/>
+        <v>74</v>
+      </c>
+      <c r="V75">
+        <f t="shared" si="3"/>
+        <v>87.5</v>
+      </c>
+    </row>
+    <row r="76" spans="19:22" x14ac:dyDescent="0.45">
+      <c r="S76">
+        <v>74</v>
+      </c>
+      <c r="T76">
+        <v>6.25E-2</v>
+      </c>
+      <c r="U76">
+        <f t="shared" si="2"/>
+        <v>75</v>
+      </c>
+      <c r="V76">
+        <f t="shared" si="3"/>
+        <v>93.75</v>
+      </c>
+    </row>
+    <row r="77" spans="19:22" x14ac:dyDescent="0.45">
+      <c r="S77">
+        <v>75</v>
+      </c>
+      <c r="T77">
+        <v>9.375E-2</v>
+      </c>
+      <c r="U77">
+        <f t="shared" si="2"/>
+        <v>76</v>
+      </c>
+      <c r="V77">
+        <f t="shared" si="3"/>
+        <v>90.625</v>
+      </c>
+    </row>
+    <row r="78" spans="19:22" x14ac:dyDescent="0.45">
+      <c r="S78">
+        <v>76</v>
+      </c>
+      <c r="T78">
+        <v>6.25E-2</v>
+      </c>
+      <c r="U78">
+        <f t="shared" si="2"/>
+        <v>77</v>
+      </c>
+      <c r="V78">
+        <f t="shared" si="3"/>
+        <v>93.75</v>
+      </c>
+    </row>
+    <row r="79" spans="19:22" x14ac:dyDescent="0.45">
+      <c r="S79">
+        <v>77</v>
+      </c>
+      <c r="T79">
+        <v>9.375E-2</v>
+      </c>
+      <c r="U79">
+        <f t="shared" si="2"/>
+        <v>78</v>
+      </c>
+      <c r="V79">
+        <f t="shared" si="3"/>
+        <v>90.625</v>
+      </c>
+    </row>
+    <row r="80" spans="19:22" x14ac:dyDescent="0.45">
+      <c r="S80">
+        <v>78</v>
+      </c>
+      <c r="T80">
+        <v>0.109375</v>
+      </c>
+      <c r="U80">
+        <f t="shared" si="2"/>
+        <v>79</v>
+      </c>
+      <c r="V80">
+        <f t="shared" si="3"/>
+        <v>89.0625</v>
+      </c>
+    </row>
+    <row r="81" spans="19:22" x14ac:dyDescent="0.45">
+      <c r="S81">
+        <v>79</v>
+      </c>
+      <c r="T81">
+        <v>0.125</v>
+      </c>
+      <c r="U81">
+        <f t="shared" si="2"/>
+        <v>80</v>
+      </c>
+      <c r="V81">
+        <f t="shared" si="3"/>
+        <v>87.5</v>
+      </c>
+    </row>
+    <row r="82" spans="19:22" x14ac:dyDescent="0.45">
+      <c r="S82">
+        <v>80</v>
+      </c>
+      <c r="T82">
+        <v>0.125</v>
+      </c>
+      <c r="U82">
+        <f t="shared" si="2"/>
+        <v>81</v>
+      </c>
+      <c r="V82">
+        <f t="shared" si="3"/>
+        <v>87.5</v>
+      </c>
+    </row>
+    <row r="83" spans="19:22" x14ac:dyDescent="0.45">
+      <c r="S83">
+        <v>81</v>
+      </c>
+      <c r="T83">
+        <v>0.140625</v>
+      </c>
+      <c r="U83">
+        <f t="shared" si="2"/>
+        <v>82</v>
+      </c>
+      <c r="V83">
+        <f t="shared" si="3"/>
+        <v>85.9375</v>
+      </c>
+    </row>
+    <row r="84" spans="19:22" x14ac:dyDescent="0.45">
+      <c r="S84">
+        <v>82</v>
+      </c>
+      <c r="T84">
+        <v>9.375E-2</v>
+      </c>
+      <c r="U84">
+        <f t="shared" si="2"/>
+        <v>83</v>
+      </c>
+      <c r="V84">
+        <f t="shared" si="3"/>
+        <v>90.625</v>
+      </c>
+    </row>
+    <row r="85" spans="19:22" x14ac:dyDescent="0.45">
+      <c r="S85">
+        <v>83</v>
+      </c>
+      <c r="T85">
+        <v>9.375E-2</v>
+      </c>
+      <c r="U85">
+        <f t="shared" si="2"/>
+        <v>84</v>
+      </c>
+      <c r="V85">
+        <f t="shared" si="3"/>
+        <v>90.625</v>
+      </c>
+    </row>
+    <row r="86" spans="19:22" x14ac:dyDescent="0.45">
+      <c r="S86">
+        <v>84</v>
+      </c>
+      <c r="T86">
+        <v>0.109375</v>
+      </c>
+      <c r="U86">
+        <f t="shared" si="2"/>
+        <v>85</v>
+      </c>
+      <c r="V86">
+        <f t="shared" si="3"/>
+        <v>89.0625</v>
+      </c>
+    </row>
+    <row r="87" spans="19:22" x14ac:dyDescent="0.45">
+      <c r="S87">
+        <v>85</v>
+      </c>
+      <c r="T87">
+        <v>0.125</v>
+      </c>
+      <c r="U87">
+        <f t="shared" si="2"/>
+        <v>86</v>
+      </c>
+      <c r="V87">
+        <f t="shared" si="3"/>
+        <v>87.5</v>
+      </c>
+    </row>
+    <row r="88" spans="19:22" x14ac:dyDescent="0.45">
+      <c r="S88">
+        <v>86</v>
+      </c>
+      <c r="T88">
+        <v>0.140625</v>
+      </c>
+      <c r="U88">
+        <f t="shared" si="2"/>
+        <v>87</v>
+      </c>
+      <c r="V88">
+        <f t="shared" si="3"/>
+        <v>85.9375</v>
+      </c>
+    </row>
+    <row r="89" spans="19:22" x14ac:dyDescent="0.45">
+      <c r="S89">
+        <v>87</v>
+      </c>
+      <c r="T89">
+        <v>0.140625</v>
+      </c>
+      <c r="U89">
+        <f t="shared" si="2"/>
+        <v>88</v>
+      </c>
+      <c r="V89">
+        <f t="shared" si="3"/>
+        <v>85.9375</v>
+      </c>
+    </row>
+    <row r="90" spans="19:22" x14ac:dyDescent="0.45">
+      <c r="S90">
+        <v>88</v>
+      </c>
+      <c r="T90">
+        <v>0.15625</v>
+      </c>
+      <c r="U90">
+        <f t="shared" si="2"/>
+        <v>89</v>
+      </c>
+      <c r="V90">
+        <f t="shared" si="3"/>
+        <v>84.375</v>
+      </c>
+    </row>
+    <row r="91" spans="19:22" x14ac:dyDescent="0.45">
+      <c r="S91">
+        <v>89</v>
+      </c>
+      <c r="T91">
+        <v>0.140625</v>
+      </c>
+      <c r="U91">
+        <f t="shared" si="2"/>
+        <v>90</v>
+      </c>
+      <c r="V91">
+        <f t="shared" si="3"/>
+        <v>85.9375</v>
+      </c>
+    </row>
+    <row r="92" spans="19:22" x14ac:dyDescent="0.45">
+      <c r="S92">
+        <v>90</v>
+      </c>
+      <c r="T92">
+        <v>0.140625</v>
+      </c>
+      <c r="U92">
+        <f t="shared" si="2"/>
+        <v>91</v>
+      </c>
+      <c r="V92">
+        <f t="shared" si="3"/>
+        <v>85.9375</v>
+      </c>
+    </row>
+    <row r="93" spans="19:22" x14ac:dyDescent="0.45">
+      <c r="S93">
+        <v>91</v>
+      </c>
+      <c r="T93">
+        <v>0.140625</v>
+      </c>
+      <c r="U93">
+        <f t="shared" si="2"/>
+        <v>92</v>
+      </c>
+      <c r="V93">
+        <f t="shared" si="3"/>
+        <v>85.9375</v>
+      </c>
+    </row>
+    <row r="94" spans="19:22" x14ac:dyDescent="0.45">
+      <c r="S94">
+        <v>92</v>
+      </c>
+      <c r="T94">
+        <v>0.140625</v>
+      </c>
+      <c r="U94">
+        <f t="shared" si="2"/>
+        <v>93</v>
+      </c>
+      <c r="V94">
+        <f t="shared" si="3"/>
+        <v>85.9375</v>
+      </c>
+    </row>
+    <row r="95" spans="19:22" x14ac:dyDescent="0.45">
+      <c r="S95">
+        <v>93</v>
+      </c>
+      <c r="T95">
+        <v>0.140625</v>
+      </c>
+      <c r="U95">
+        <f t="shared" si="2"/>
+        <v>94</v>
+      </c>
+      <c r="V95">
+        <f t="shared" si="3"/>
+        <v>85.9375</v>
+      </c>
+    </row>
+    <row r="96" spans="19:22" x14ac:dyDescent="0.45">
+      <c r="S96">
+        <v>94</v>
+      </c>
+      <c r="T96">
+        <v>0.140625</v>
+      </c>
+      <c r="U96">
+        <f t="shared" si="2"/>
+        <v>95</v>
+      </c>
+      <c r="V96">
+        <f t="shared" si="3"/>
+        <v>85.9375</v>
+      </c>
+    </row>
+    <row r="97" spans="19:22" x14ac:dyDescent="0.45">
+      <c r="S97">
+        <v>95</v>
+      </c>
+      <c r="T97">
+        <v>0.140625</v>
+      </c>
+      <c r="U97">
+        <f t="shared" si="2"/>
+        <v>96</v>
+      </c>
+      <c r="V97">
+        <f t="shared" si="3"/>
+        <v>85.9375</v>
+      </c>
+    </row>
+    <row r="98" spans="19:22" x14ac:dyDescent="0.45">
+      <c r="S98">
+        <v>96</v>
+      </c>
+      <c r="T98">
+        <v>0.140625</v>
+      </c>
+      <c r="U98">
+        <f t="shared" si="2"/>
+        <v>97</v>
+      </c>
+      <c r="V98">
+        <f t="shared" si="3"/>
+        <v>85.9375</v>
+      </c>
+    </row>
+    <row r="99" spans="19:22" x14ac:dyDescent="0.45">
+      <c r="S99">
+        <v>97</v>
+      </c>
+      <c r="T99">
+        <v>0.140625</v>
+      </c>
+      <c r="U99">
+        <f t="shared" si="2"/>
+        <v>98</v>
+      </c>
+      <c r="V99">
+        <f t="shared" si="3"/>
+        <v>85.9375</v>
+      </c>
+    </row>
+    <row r="100" spans="19:22" x14ac:dyDescent="0.45">
+      <c r="S100">
+        <v>98</v>
+      </c>
+      <c r="T100">
+        <v>0.140625</v>
+      </c>
+      <c r="U100">
+        <f t="shared" si="2"/>
+        <v>99</v>
+      </c>
+      <c r="V100">
+        <f t="shared" si="3"/>
+        <v>85.9375</v>
+      </c>
+    </row>
+    <row r="101" spans="19:22" x14ac:dyDescent="0.45">
+      <c r="S101">
+        <v>99</v>
+      </c>
+      <c r="T101">
+        <v>0.140625</v>
+      </c>
+      <c r="U101">
+        <f t="shared" si="2"/>
+        <v>100</v>
+      </c>
+      <c r="V101">
+        <f t="shared" si="3"/>
+        <v>85.9375</v>
+      </c>
+    </row>
+    <row r="102" spans="19:22" x14ac:dyDescent="0.45">
+      <c r="S102" t="s">
+        <v>11</v>
+      </c>
+      <c r="T102">
+        <v>6.25E-2</v>
+      </c>
+    </row>
+    <row r="103" spans="19:22" x14ac:dyDescent="0.45">
+      <c r="S103" t="s">
+        <v>11</v>
+      </c>
+      <c r="T103">
+        <v>9.375E-2</v>
+      </c>
+    </row>
+    <row r="104" spans="19:22" x14ac:dyDescent="0.45">
+      <c r="S104" t="s">
+        <v>11</v>
+      </c>
+      <c r="T104">
+        <v>9.375E-2</v>
+      </c>
+    </row>
+    <row r="105" spans="19:22" x14ac:dyDescent="0.45">
+      <c r="S105" t="s">
+        <v>11</v>
+      </c>
+      <c r="T105">
+        <v>0.125</v>
+      </c>
+    </row>
+    <row r="106" spans="19:22" x14ac:dyDescent="0.45">
+      <c r="S106" t="s">
+        <v>11</v>
+      </c>
+      <c r="T106">
+        <v>0.109375</v>
+      </c>
+    </row>
+    <row r="107" spans="19:22" x14ac:dyDescent="0.45">
+      <c r="S107" t="s">
+        <v>11</v>
+      </c>
+      <c r="T107">
+        <v>9.375E-2</v>
+      </c>
+    </row>
+    <row r="108" spans="19:22" x14ac:dyDescent="0.45">
+      <c r="S108" t="s">
+        <v>11</v>
+      </c>
+      <c r="T108">
+        <v>9.375E-2</v>
+      </c>
+    </row>
+    <row r="109" spans="19:22" x14ac:dyDescent="0.45">
+      <c r="S109" t="s">
+        <v>11</v>
+      </c>
+      <c r="T109">
+        <v>0.125</v>
+      </c>
+    </row>
+    <row r="110" spans="19:22" x14ac:dyDescent="0.45">
+      <c r="S110" t="s">
+        <v>11</v>
+      </c>
+      <c r="T110">
+        <v>0.109375</v>
+      </c>
+    </row>
+    <row r="111" spans="19:22" x14ac:dyDescent="0.45">
+      <c r="S111" t="s">
+        <v>11</v>
+      </c>
+      <c r="T111">
+        <v>0.171875</v>
+      </c>
+    </row>
+    <row r="112" spans="19:22" x14ac:dyDescent="0.45">
+      <c r="S112" t="s">
+        <v>11</v>
+      </c>
+      <c r="T112">
+        <v>9.375E-2</v>
+      </c>
+    </row>
+    <row r="113" spans="19:20" x14ac:dyDescent="0.45">
+      <c r="S113" t="s">
+        <v>11</v>
+      </c>
+      <c r="T113">
+        <v>0.140625</v>
+      </c>
+    </row>
+    <row r="114" spans="19:20" x14ac:dyDescent="0.45">
+      <c r="S114" t="s">
+        <v>11</v>
+      </c>
+      <c r="T114">
+        <v>6.25E-2</v>
+      </c>
+    </row>
+    <row r="115" spans="19:20" x14ac:dyDescent="0.45">
+      <c r="S115" t="s">
+        <v>11</v>
+      </c>
+      <c r="T115">
+        <v>7.8125E-2</v>
+      </c>
+    </row>
+    <row r="116" spans="19:20" x14ac:dyDescent="0.45">
+      <c r="S116" t="s">
+        <v>11</v>
+      </c>
+      <c r="T116">
+        <v>6.25E-2</v>
+      </c>
+    </row>
+    <row r="117" spans="19:20" x14ac:dyDescent="0.45">
+      <c r="S117" t="s">
+        <v>11</v>
+      </c>
+      <c r="T117">
+        <v>0.109375</v>
+      </c>
+    </row>
+    <row r="118" spans="19:20" x14ac:dyDescent="0.45">
+      <c r="S118" t="s">
+        <v>11</v>
+      </c>
+      <c r="T118">
+        <v>0.140625</v>
+      </c>
+    </row>
+    <row r="119" spans="19:20" x14ac:dyDescent="0.45">
+      <c r="S119" t="s">
+        <v>11</v>
+      </c>
+      <c r="T119">
+        <v>9.375E-2</v>
+      </c>
+    </row>
+    <row r="120" spans="19:20" x14ac:dyDescent="0.45">
+      <c r="S120" t="s">
+        <v>11</v>
+      </c>
+      <c r="T120">
+        <v>6.25E-2</v>
+      </c>
+    </row>
+    <row r="121" spans="19:20" x14ac:dyDescent="0.45">
+      <c r="S121" t="s">
+        <v>11</v>
+      </c>
+      <c r="T121">
+        <v>0.109375</v>
+      </c>
+    </row>
+    <row r="122" spans="19:20" x14ac:dyDescent="0.45">
+      <c r="S122" t="s">
+        <v>11</v>
+      </c>
+      <c r="T122">
+        <v>4.6875E-2</v>
+      </c>
+    </row>
+    <row r="123" spans="19:20" x14ac:dyDescent="0.45">
+      <c r="S123" t="s">
+        <v>11</v>
+      </c>
+      <c r="T123">
+        <v>6.25E-2</v>
+      </c>
+    </row>
+    <row r="124" spans="19:20" x14ac:dyDescent="0.45">
+      <c r="S124" t="s">
+        <v>11</v>
+      </c>
+      <c r="T124">
+        <v>9.375E-2</v>
+      </c>
+    </row>
+    <row r="125" spans="19:20" x14ac:dyDescent="0.45">
+      <c r="S125" t="s">
+        <v>11</v>
+      </c>
+      <c r="T125">
+        <v>7.8125E-2</v>
+      </c>
+    </row>
+    <row r="126" spans="19:20" x14ac:dyDescent="0.45">
+      <c r="S126" t="s">
+        <v>11</v>
+      </c>
+      <c r="T126">
+        <v>9.375E-2</v>
+      </c>
+    </row>
+    <row r="127" spans="19:20" x14ac:dyDescent="0.45">
+      <c r="S127" t="s">
+        <v>11</v>
+      </c>
+      <c r="T127">
+        <v>7.8125E-2</v>
+      </c>
+    </row>
+    <row r="128" spans="19:20" x14ac:dyDescent="0.45">
+      <c r="S128" t="s">
+        <v>11</v>
+      </c>
+      <c r="T128">
+        <v>7.8125E-2</v>
+      </c>
+    </row>
+    <row r="129" spans="19:20" x14ac:dyDescent="0.45">
+      <c r="S129" t="s">
+        <v>11</v>
+      </c>
+      <c r="T129">
+        <v>0.125</v>
+      </c>
+    </row>
+    <row r="130" spans="19:20" x14ac:dyDescent="0.45">
+      <c r="S130" t="s">
+        <v>11</v>
+      </c>
+      <c r="T130">
+        <v>0.203125</v>
+      </c>
+    </row>
+    <row r="131" spans="19:20" x14ac:dyDescent="0.45">
+      <c r="S131" t="s">
+        <v>11</v>
+      </c>
+      <c r="T131">
+        <v>0.109375</v>
+      </c>
+    </row>
+    <row r="132" spans="19:20" x14ac:dyDescent="0.45">
+      <c r="S132" t="s">
+        <v>11</v>
+      </c>
+      <c r="T132">
+        <v>0.109375</v>
+      </c>
+    </row>
+    <row r="133" spans="19:20" x14ac:dyDescent="0.45">
+      <c r="S133" t="s">
+        <v>11</v>
+      </c>
+      <c r="T133">
+        <v>0.125</v>
+      </c>
+    </row>
+    <row r="134" spans="19:20" x14ac:dyDescent="0.45">
+      <c r="S134" t="s">
+        <v>11</v>
+      </c>
+      <c r="T134">
+        <v>0.125</v>
+      </c>
+    </row>
+    <row r="135" spans="19:20" x14ac:dyDescent="0.45">
+      <c r="S135" t="s">
+        <v>11</v>
+      </c>
+      <c r="T135">
+        <v>4.6875E-2</v>
+      </c>
+    </row>
+    <row r="136" spans="19:20" x14ac:dyDescent="0.45">
+      <c r="S136" t="s">
+        <v>11</v>
+      </c>
+      <c r="T136">
+        <v>0.125</v>
+      </c>
+    </row>
+    <row r="137" spans="19:20" x14ac:dyDescent="0.45">
+      <c r="S137" t="s">
+        <v>11</v>
+      </c>
+      <c r="T137">
+        <v>0.109375</v>
+      </c>
+    </row>
+    <row r="138" spans="19:20" x14ac:dyDescent="0.45">
+      <c r="S138" t="s">
+        <v>11</v>
+      </c>
+      <c r="T138">
+        <v>9.375E-2</v>
+      </c>
+    </row>
+    <row r="139" spans="19:20" x14ac:dyDescent="0.45">
+      <c r="S139" t="s">
+        <v>11</v>
+      </c>
+      <c r="T139">
+        <v>3.125E-2</v>
+      </c>
+    </row>
+    <row r="140" spans="19:20" x14ac:dyDescent="0.45">
+      <c r="S140" t="s">
+        <v>11</v>
+      </c>
+      <c r="T140">
+        <v>9.375E-2</v>
+      </c>
+    </row>
+    <row r="141" spans="19:20" x14ac:dyDescent="0.45">
+      <c r="S141" t="s">
+        <v>11</v>
+      </c>
+      <c r="T141">
+        <v>7.8125E-2</v>
+      </c>
+    </row>
+    <row r="142" spans="19:20" x14ac:dyDescent="0.45">
+      <c r="S142" t="s">
+        <v>11</v>
+      </c>
+      <c r="T142">
+        <v>9.375E-2</v>
+      </c>
+    </row>
+    <row r="143" spans="19:20" x14ac:dyDescent="0.45">
+      <c r="S143" t="s">
+        <v>11</v>
+      </c>
+      <c r="T143">
+        <v>0.125</v>
+      </c>
+    </row>
+    <row r="144" spans="19:20" x14ac:dyDescent="0.45">
+      <c r="S144" t="s">
+        <v>11</v>
+      </c>
+      <c r="T144">
+        <v>6.25E-2</v>
+      </c>
+    </row>
+    <row r="145" spans="19:20" x14ac:dyDescent="0.45">
+      <c r="S145" t="s">
+        <v>11</v>
+      </c>
+      <c r="T145">
+        <v>0.171875</v>
+      </c>
+    </row>
+    <row r="146" spans="19:20" x14ac:dyDescent="0.45">
+      <c r="S146" t="s">
+        <v>11</v>
+      </c>
+      <c r="T146">
+        <v>0.109375</v>
+      </c>
+    </row>
+    <row r="147" spans="19:20" x14ac:dyDescent="0.45">
+      <c r="S147" t="s">
+        <v>11</v>
+      </c>
+      <c r="T147">
+        <v>0.109375</v>
+      </c>
+    </row>
+    <row r="148" spans="19:20" x14ac:dyDescent="0.45">
+      <c r="S148" t="s">
+        <v>11</v>
+      </c>
+      <c r="T148">
+        <v>0.125</v>
+      </c>
+    </row>
+    <row r="149" spans="19:20" x14ac:dyDescent="0.45">
+      <c r="S149" t="s">
+        <v>11</v>
+      </c>
+      <c r="T149">
+        <v>4.6875E-2</v>
+      </c>
+    </row>
+    <row r="150" spans="19:20" x14ac:dyDescent="0.45">
+      <c r="S150" t="s">
+        <v>11</v>
+      </c>
+      <c r="T150">
+        <v>0.15625</v>
+      </c>
+    </row>
+    <row r="151" spans="19:20" x14ac:dyDescent="0.45">
+      <c r="S151" t="s">
+        <v>11</v>
+      </c>
+      <c r="T151">
+        <v>0.109375</v>
+      </c>
+    </row>
+    <row r="152" spans="19:20" x14ac:dyDescent="0.45">
+      <c r="S152" t="s">
+        <v>11</v>
+      </c>
+      <c r="T152">
+        <v>3.6363636363636362E-2</v>
       </c>
     </row>
   </sheetData>

--- a/LJ+UA Experiments.xlsx
+++ b/LJ+UA Experiments.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dhvan\Documents\GitHub\P4P-Transformer-ASR-for-Dysarthric-Speech\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E2958C2-82EF-4A18-930C-017FF1C3CDEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20B584BD-0D8F-490C-A882-3BF8AE0B240B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3075" yWindow="1508" windowWidth="15390" windowHeight="9442" firstSheet="4" activeTab="10" xr2:uid="{75EE08EB-D9DA-45E6-8F41-68FBAE46F917}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13155" firstSheet="4" activeTab="9" xr2:uid="{75EE08EB-D9DA-45E6-8F41-68FBAE46F917}"/>
   </bookViews>
   <sheets>
     <sheet name="E1" sheetId="1" r:id="rId1"/>
@@ -22,8 +22,8 @@
     <sheet name="E12345_2.0" sheetId="7" r:id="rId7"/>
     <sheet name="E1234_2.0" sheetId="8" r:id="rId8"/>
     <sheet name="E123_2.0" sheetId="9" r:id="rId9"/>
-    <sheet name="E12_2.0" sheetId="10" r:id="rId10"/>
-    <sheet name="E1_2.0" sheetId="11" r:id="rId11"/>
+    <sheet name="E12_2.0" sheetId="11" r:id="rId10"/>
+    <sheet name="E1_2.0" sheetId="10" r:id="rId11"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -588,7 +588,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Accuracy:</t>
+      <t>Accuracy:90</t>
     </r>
     <r>
       <rPr>
@@ -598,7 +598,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>% (% increase)</t>
+      <t>% (3% increase)</t>
     </r>
   </si>
 </sst>
@@ -1189,6 +1189,584 @@
           </a:p>
         </c:txPr>
         <c:crossAx val="174164559"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'E12_2.0'!$V$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Accuracy</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'E12_2.0'!$V$2:$V$101</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="100"/>
+                <c:pt idx="0">
+                  <c:v>3.125</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.8125</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>59.375</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>70.3125</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>70.3125</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>65.625</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>70.3125</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>76.5625</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>79.6875</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>71.875</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>73.4375</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>79.6875</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>81.25</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>68.75</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>78.125</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>76.5625</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>78.125</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>76.5625</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>87.5</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>82.8125</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>81.25</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>89.0625</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>82.8125</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>84.375</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>84.375</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>82.8125</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>82.8125</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>82.8125</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>87.5</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>84.375</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>81.25</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>82.8125</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>85.9375</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>85.9375</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>87.5</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>85.9375</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>82.8125</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>85.9375</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>84.375</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>90.625</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>85.9375</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>84.375</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>85.9375</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>85.9375</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>82.8125</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>90.625</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>90.625</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>79.6875</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>82.8125</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>85.9375</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>89.0625</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>89.0625</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>82.8125</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>87.5</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>87.5</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>89.0625</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>85.9375</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>85.9375</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>84.375</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>87.5</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>87.5</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>85.9375</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>85.9375</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>87.5</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>90.625</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>92.1875</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>89.0625</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>84.375</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>93.75</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>87.5</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>90.625</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>85.9375</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>89.0625</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>87.5</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>84.375</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>92.1875</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>87.5</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>90.625</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>90.625</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>89.0625</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>84.375</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>87.5</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>90.625</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>87.5</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>85.9375</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>84.375</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>87.5</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>87.5</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>90.625</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>89.0625</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>90.625</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>90.625</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>90.625</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>90.625</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>90.625</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>90.625</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>90.625</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>90.625</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-B7EA-487C-A081-9D2885D9FEAF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="746107536"/>
+        <c:axId val="746092976"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="746107536"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="746092976"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="746092976"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="746107536"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5869,6 +6447,46 @@
 </file>
 
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors10.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -6229,6 +6847,522 @@
 </file>
 
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style10.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -11067,6 +12201,184 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B710FA1A-8261-4AA0-A50E-7166AE564B63}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:srcRect l="-331" t="38919" r="61637" b="11975"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1" y="608464"/>
+          <a:ext cx="3252571" cy="2753949"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>179845</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>25817</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>233736</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>43111</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BC2FB739-436A-684D-1370-917C593CD1E6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>52100</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>58604</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F5CC2E53-56CA-475E-9E19-BA1BE07376BA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="3634539"/>
+          <a:ext cx="3279321" cy="2784510"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>213060</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>169196</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>75197</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>62666</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Picture 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ACCCAB82-B875-5AB0-0247-1012F767AB27}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6022057" y="532650"/>
+          <a:ext cx="3734802" cy="2801102"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing11.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>65539</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>14072</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>104863</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
         <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
@@ -11098,22 +12410,22 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:colOff>42522</xdr:colOff>
       <xdr:row>20</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>51028</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>105603</xdr:rowOff>
+      <xdr:colOff>56381</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>63620</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2">
+        <xdr:cNvPr id="4" name="Picture 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6B74E794-01FA-431D-BE74-4805E605DA76}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DD8CE160-7B9C-4FAD-8B53-1BA51CDC95B9}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11129,100 +12441,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="3619500"/>
-          <a:ext cx="3286125" cy="2820228"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing11.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>18334</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>144186</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{39EA710F-C25C-486C-A882-F02A1E2D75B0}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="3619500"/>
-          <a:ext cx="3256834" cy="2858811"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>1</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>65539</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>14072</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>104863</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B710FA1A-8261-4AA0-A50E-7166AE564B63}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill rotWithShape="1">
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:srcRect l="-331" t="38919" r="61637" b="11975"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1" y="608464"/>
-          <a:ext cx="3252571" cy="2753949"/>
+          <a:off x="42522" y="3622903"/>
+          <a:ext cx="3245555" cy="2870092"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -14613,25 +15833,19 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{618A103B-AAE0-4589-86B5-9C75EBAC44A4}">
-  <dimension ref="A1:V152"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{056CABA9-8355-4FC6-A8A3-AC72E9E3DA4B}">
+  <dimension ref="A1:V101"/>
   <sheetViews>
-    <sheetView zoomScale="56" workbookViewId="0">
-      <selection sqref="A1:G1"/>
+    <sheetView tabSelected="1" zoomScale="76" workbookViewId="0">
+      <selection activeCell="R29" sqref="R29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.45">
-      <c r="A1" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
+      <c r="A1" t="s">
+        <v>20</v>
+      </c>
       <c r="H1" s="2" t="s">
         <v>0</v>
       </c>
@@ -14657,7 +15871,7 @@
         <v>0</v>
       </c>
       <c r="T2">
-        <v>0.984375</v>
+        <v>0.96875</v>
       </c>
       <c r="U2">
         <f xml:space="preserve"> 1+S2</f>
@@ -14665,7 +15879,7 @@
       </c>
       <c r="V2">
         <f xml:space="preserve"> (1-T2)*100</f>
-        <v>1.5625</v>
+        <v>3.125</v>
       </c>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.45">
@@ -14678,7 +15892,7 @@
         <v>1</v>
       </c>
       <c r="T3">
-        <v>0.90625</v>
+        <v>0.921875</v>
       </c>
       <c r="U3">
         <f t="shared" ref="U3:U66" si="0" xml:space="preserve"> 1+S3</f>
@@ -14686,7 +15900,7 @@
       </c>
       <c r="V3">
         <f t="shared" ref="V3:V66" si="1" xml:space="preserve"> (1-T3)*100</f>
-        <v>9.375</v>
+        <v>7.8125</v>
       </c>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.45">
@@ -14694,7 +15908,7 @@
         <v>2</v>
       </c>
       <c r="T4">
-        <v>0.734375</v>
+        <v>0.75</v>
       </c>
       <c r="U4">
         <f t="shared" si="0"/>
@@ -14702,7 +15916,7 @@
       </c>
       <c r="V4">
         <f t="shared" si="1"/>
-        <v>26.5625</v>
+        <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.45">
@@ -14710,7 +15924,7 @@
         <v>3</v>
       </c>
       <c r="T5">
-        <v>0.421875</v>
+        <v>0.5</v>
       </c>
       <c r="U5">
         <f t="shared" si="0"/>
@@ -14718,7 +15932,7 @@
       </c>
       <c r="V5">
         <f t="shared" si="1"/>
-        <v>57.8125</v>
+        <v>50</v>
       </c>
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.45">
@@ -14726,7 +15940,7 @@
         <v>4</v>
       </c>
       <c r="T6">
-        <v>0.3125</v>
+        <v>0.40625</v>
       </c>
       <c r="U6">
         <f t="shared" si="0"/>
@@ -14734,7 +15948,7 @@
       </c>
       <c r="V6">
         <f t="shared" si="1"/>
-        <v>68.75</v>
+        <v>59.375</v>
       </c>
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.45">
@@ -14742,7 +15956,7 @@
         <v>5</v>
       </c>
       <c r="T7">
-        <v>0.265625</v>
+        <v>0.296875</v>
       </c>
       <c r="U7">
         <f t="shared" si="0"/>
@@ -14750,7 +15964,7 @@
       </c>
       <c r="V7">
         <f t="shared" si="1"/>
-        <v>73.4375</v>
+        <v>70.3125</v>
       </c>
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.45">
@@ -14758,7 +15972,7 @@
         <v>6</v>
       </c>
       <c r="T8">
-        <v>0.21875</v>
+        <v>0.296875</v>
       </c>
       <c r="U8">
         <f t="shared" si="0"/>
@@ -14766,7 +15980,7 @@
       </c>
       <c r="V8">
         <f t="shared" si="1"/>
-        <v>78.125</v>
+        <v>70.3125</v>
       </c>
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.45">
@@ -14774,7 +15988,7 @@
         <v>7</v>
       </c>
       <c r="T9">
-        <v>0.234375</v>
+        <v>0.34375</v>
       </c>
       <c r="U9">
         <f t="shared" si="0"/>
@@ -14782,7 +15996,7 @@
       </c>
       <c r="V9">
         <f t="shared" si="1"/>
-        <v>76.5625</v>
+        <v>65.625</v>
       </c>
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.45">
@@ -14790,7 +16004,7 @@
         <v>8</v>
       </c>
       <c r="T10">
-        <v>0.265625</v>
+        <v>0.296875</v>
       </c>
       <c r="U10">
         <f t="shared" si="0"/>
@@ -14798,7 +16012,7 @@
       </c>
       <c r="V10">
         <f t="shared" si="1"/>
-        <v>73.4375</v>
+        <v>70.3125</v>
       </c>
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.45">
@@ -14806,7 +16020,7 @@
         <v>9</v>
       </c>
       <c r="T11">
-        <v>0.25</v>
+        <v>0.234375</v>
       </c>
       <c r="U11">
         <f t="shared" si="0"/>
@@ -14814,7 +16028,7 @@
       </c>
       <c r="V11">
         <f t="shared" si="1"/>
-        <v>75</v>
+        <v>76.5625</v>
       </c>
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.45">
@@ -14822,7 +16036,7 @@
         <v>10</v>
       </c>
       <c r="T12">
-        <v>0.265625</v>
+        <v>0.203125</v>
       </c>
       <c r="U12">
         <f t="shared" si="0"/>
@@ -14830,7 +16044,7 @@
       </c>
       <c r="V12">
         <f t="shared" si="1"/>
-        <v>73.4375</v>
+        <v>79.6875</v>
       </c>
     </row>
     <row r="13" spans="1:22" x14ac:dyDescent="0.45">
@@ -14838,7 +16052,7 @@
         <v>11</v>
       </c>
       <c r="T13">
-        <v>0.21875</v>
+        <v>0.28125</v>
       </c>
       <c r="U13">
         <f t="shared" si="0"/>
@@ -14846,7 +16060,7 @@
       </c>
       <c r="V13">
         <f t="shared" si="1"/>
-        <v>78.125</v>
+        <v>71.875</v>
       </c>
     </row>
     <row r="14" spans="1:22" x14ac:dyDescent="0.45">
@@ -14854,7 +16068,7 @@
         <v>12</v>
       </c>
       <c r="T14">
-        <v>0.171875</v>
+        <v>0.265625</v>
       </c>
       <c r="U14">
         <f t="shared" si="0"/>
@@ -14862,7 +16076,7 @@
       </c>
       <c r="V14">
         <f t="shared" si="1"/>
-        <v>82.8125</v>
+        <v>73.4375</v>
       </c>
     </row>
     <row r="15" spans="1:22" x14ac:dyDescent="0.45">
@@ -14870,7 +16084,7 @@
         <v>13</v>
       </c>
       <c r="T15">
-        <v>0.15625</v>
+        <v>0.203125</v>
       </c>
       <c r="U15">
         <f t="shared" si="0"/>
@@ -14878,7 +16092,7 @@
       </c>
       <c r="V15">
         <f t="shared" si="1"/>
-        <v>84.375</v>
+        <v>79.6875</v>
       </c>
     </row>
     <row r="16" spans="1:22" x14ac:dyDescent="0.45">
@@ -14886,7 +16100,7 @@
         <v>14</v>
       </c>
       <c r="T16">
-        <v>0.21875</v>
+        <v>0.1875</v>
       </c>
       <c r="U16">
         <f t="shared" si="0"/>
@@ -14894,7 +16108,7 @@
       </c>
       <c r="V16">
         <f t="shared" si="1"/>
-        <v>78.125</v>
+        <v>81.25</v>
       </c>
     </row>
     <row r="17" spans="1:22" x14ac:dyDescent="0.45">
@@ -14902,7 +16116,7 @@
         <v>15</v>
       </c>
       <c r="T17">
-        <v>0.140625</v>
+        <v>0.3125</v>
       </c>
       <c r="U17">
         <f t="shared" si="0"/>
@@ -14910,7 +16124,7 @@
       </c>
       <c r="V17">
         <f t="shared" si="1"/>
-        <v>85.9375</v>
+        <v>68.75</v>
       </c>
     </row>
     <row r="18" spans="1:22" x14ac:dyDescent="0.45">
@@ -14918,7 +16132,7 @@
         <v>16</v>
       </c>
       <c r="T18">
-        <v>0.1875</v>
+        <v>0.21875</v>
       </c>
       <c r="U18">
         <f t="shared" si="0"/>
@@ -14926,7 +16140,7 @@
       </c>
       <c r="V18">
         <f t="shared" si="1"/>
-        <v>81.25</v>
+        <v>78.125</v>
       </c>
     </row>
     <row r="19" spans="1:22" x14ac:dyDescent="0.45">
@@ -14934,7 +16148,7 @@
         <v>17</v>
       </c>
       <c r="T19">
-        <v>0.203125</v>
+        <v>0.234375</v>
       </c>
       <c r="U19">
         <f t="shared" si="0"/>
@@ -14942,7 +16156,7 @@
       </c>
       <c r="V19">
         <f t="shared" si="1"/>
-        <v>79.6875</v>
+        <v>76.5625</v>
       </c>
     </row>
     <row r="20" spans="1:22" x14ac:dyDescent="0.45">
@@ -14955,7 +16169,7 @@
         <v>18</v>
       </c>
       <c r="T20">
-        <v>0.25</v>
+        <v>0.21875</v>
       </c>
       <c r="U20">
         <f t="shared" si="0"/>
@@ -14963,7 +16177,7 @@
       </c>
       <c r="V20">
         <f t="shared" si="1"/>
-        <v>75</v>
+        <v>78.125</v>
       </c>
     </row>
     <row r="21" spans="1:22" x14ac:dyDescent="0.45">
@@ -14971,7 +16185,7 @@
         <v>19</v>
       </c>
       <c r="T21">
-        <v>0.171875</v>
+        <v>0.234375</v>
       </c>
       <c r="U21">
         <f t="shared" si="0"/>
@@ -14979,7 +16193,7 @@
       </c>
       <c r="V21">
         <f t="shared" si="1"/>
-        <v>82.8125</v>
+        <v>76.5625</v>
       </c>
     </row>
     <row r="22" spans="1:22" x14ac:dyDescent="0.45">
@@ -14987,7 +16201,7 @@
         <v>20</v>
       </c>
       <c r="T22">
-        <v>0.109375</v>
+        <v>0.125</v>
       </c>
       <c r="U22">
         <f t="shared" si="0"/>
@@ -14995,7 +16209,7 @@
       </c>
       <c r="V22">
         <f t="shared" si="1"/>
-        <v>89.0625</v>
+        <v>87.5</v>
       </c>
     </row>
     <row r="23" spans="1:22" x14ac:dyDescent="0.45">
@@ -15019,7 +16233,7 @@
         <v>22</v>
       </c>
       <c r="T24">
-        <v>0.15625</v>
+        <v>0.1875</v>
       </c>
       <c r="U24">
         <f t="shared" si="0"/>
@@ -15027,7 +16241,7 @@
       </c>
       <c r="V24">
         <f t="shared" si="1"/>
-        <v>84.375</v>
+        <v>81.25</v>
       </c>
     </row>
     <row r="25" spans="1:22" x14ac:dyDescent="0.45">
@@ -15035,7 +16249,7 @@
         <v>23</v>
       </c>
       <c r="T25">
-        <v>0.1875</v>
+        <v>0.109375</v>
       </c>
       <c r="U25">
         <f t="shared" si="0"/>
@@ -15043,7 +16257,7 @@
       </c>
       <c r="V25">
         <f t="shared" si="1"/>
-        <v>81.25</v>
+        <v>89.0625</v>
       </c>
     </row>
     <row r="26" spans="1:22" x14ac:dyDescent="0.45">
@@ -15051,7 +16265,7 @@
         <v>24</v>
       </c>
       <c r="T26">
-        <v>0.125</v>
+        <v>0.171875</v>
       </c>
       <c r="U26">
         <f t="shared" si="0"/>
@@ -15059,7 +16273,7 @@
       </c>
       <c r="V26">
         <f t="shared" si="1"/>
-        <v>87.5</v>
+        <v>82.8125</v>
       </c>
     </row>
     <row r="27" spans="1:22" x14ac:dyDescent="0.45">
@@ -15067,7 +16281,7 @@
         <v>25</v>
       </c>
       <c r="T27">
-        <v>0.1875</v>
+        <v>0.15625</v>
       </c>
       <c r="U27">
         <f t="shared" si="0"/>
@@ -15075,7 +16289,7 @@
       </c>
       <c r="V27">
         <f t="shared" si="1"/>
-        <v>81.25</v>
+        <v>84.375</v>
       </c>
     </row>
     <row r="28" spans="1:22" x14ac:dyDescent="0.45">
@@ -15115,7 +16329,7 @@
         <v>28</v>
       </c>
       <c r="T30">
-        <v>0.15625</v>
+        <v>0.171875</v>
       </c>
       <c r="U30">
         <f t="shared" si="0"/>
@@ -15123,7 +16337,7 @@
       </c>
       <c r="V30">
         <f t="shared" si="1"/>
-        <v>84.375</v>
+        <v>82.8125</v>
       </c>
     </row>
     <row r="31" spans="1:22" x14ac:dyDescent="0.45">
@@ -15131,7 +16345,7 @@
         <v>29</v>
       </c>
       <c r="T31">
-        <v>0.203125</v>
+        <v>0.171875</v>
       </c>
       <c r="U31">
         <f t="shared" si="0"/>
@@ -15139,7 +16353,7 @@
       </c>
       <c r="V31">
         <f t="shared" si="1"/>
-        <v>79.6875</v>
+        <v>82.8125</v>
       </c>
     </row>
     <row r="32" spans="1:22" x14ac:dyDescent="0.45">
@@ -15147,7 +16361,7 @@
         <v>30</v>
       </c>
       <c r="T32">
-        <v>0.1875</v>
+        <v>0.125</v>
       </c>
       <c r="U32">
         <f t="shared" si="0"/>
@@ -15155,7 +16369,7 @@
       </c>
       <c r="V32">
         <f t="shared" si="1"/>
-        <v>81.25</v>
+        <v>87.5</v>
       </c>
     </row>
     <row r="33" spans="19:22" x14ac:dyDescent="0.45">
@@ -15163,7 +16377,7 @@
         <v>31</v>
       </c>
       <c r="T33">
-        <v>0.21875</v>
+        <v>0.15625</v>
       </c>
       <c r="U33">
         <f t="shared" si="0"/>
@@ -15171,7 +16385,7 @@
       </c>
       <c r="V33">
         <f t="shared" si="1"/>
-        <v>78.125</v>
+        <v>84.375</v>
       </c>
     </row>
     <row r="34" spans="19:22" x14ac:dyDescent="0.45">
@@ -15179,7 +16393,7 @@
         <v>32</v>
       </c>
       <c r="T34">
-        <v>0.140625</v>
+        <v>0.1875</v>
       </c>
       <c r="U34">
         <f t="shared" si="0"/>
@@ -15187,7 +16401,7 @@
       </c>
       <c r="V34">
         <f t="shared" si="1"/>
-        <v>85.9375</v>
+        <v>81.25</v>
       </c>
     </row>
     <row r="35" spans="19:22" x14ac:dyDescent="0.45">
@@ -15195,7 +16409,7 @@
         <v>33</v>
       </c>
       <c r="T35">
-        <v>0.203125</v>
+        <v>0.171875</v>
       </c>
       <c r="U35">
         <f t="shared" si="0"/>
@@ -15203,7 +16417,7 @@
       </c>
       <c r="V35">
         <f t="shared" si="1"/>
-        <v>79.6875</v>
+        <v>82.8125</v>
       </c>
     </row>
     <row r="36" spans="19:22" x14ac:dyDescent="0.45">
@@ -15211,7 +16425,7 @@
         <v>34</v>
       </c>
       <c r="T36">
-        <v>0.125</v>
+        <v>0.140625</v>
       </c>
       <c r="U36">
         <f t="shared" si="0"/>
@@ -15219,7 +16433,7 @@
       </c>
       <c r="V36">
         <f t="shared" si="1"/>
-        <v>87.5</v>
+        <v>85.9375</v>
       </c>
     </row>
     <row r="37" spans="19:22" x14ac:dyDescent="0.45">
@@ -15227,7 +16441,7 @@
         <v>35</v>
       </c>
       <c r="T37">
-        <v>0.109375</v>
+        <v>0.140625</v>
       </c>
       <c r="U37">
         <f t="shared" si="0"/>
@@ -15235,7 +16449,7 @@
       </c>
       <c r="V37">
         <f t="shared" si="1"/>
-        <v>89.0625</v>
+        <v>85.9375</v>
       </c>
     </row>
     <row r="38" spans="19:22" x14ac:dyDescent="0.45">
@@ -15243,7 +16457,7 @@
         <v>36</v>
       </c>
       <c r="T38">
-        <v>0.109375</v>
+        <v>0.125</v>
       </c>
       <c r="U38">
         <f t="shared" si="0"/>
@@ -15251,7 +16465,7 @@
       </c>
       <c r="V38">
         <f t="shared" si="1"/>
-        <v>89.0625</v>
+        <v>87.5</v>
       </c>
     </row>
     <row r="39" spans="19:22" x14ac:dyDescent="0.45">
@@ -15259,7 +16473,7 @@
         <v>37</v>
       </c>
       <c r="T39">
-        <v>0.171875</v>
+        <v>0.140625</v>
       </c>
       <c r="U39">
         <f t="shared" si="0"/>
@@ -15267,7 +16481,7 @@
       </c>
       <c r="V39">
         <f t="shared" si="1"/>
-        <v>82.8125</v>
+        <v>85.9375</v>
       </c>
     </row>
     <row r="40" spans="19:22" x14ac:dyDescent="0.45">
@@ -15275,7 +16489,7 @@
         <v>38</v>
       </c>
       <c r="T40">
-        <v>9.375E-2</v>
+        <v>0.171875</v>
       </c>
       <c r="U40">
         <f t="shared" si="0"/>
@@ -15283,7 +16497,7 @@
       </c>
       <c r="V40">
         <f t="shared" si="1"/>
-        <v>90.625</v>
+        <v>82.8125</v>
       </c>
     </row>
     <row r="41" spans="19:22" x14ac:dyDescent="0.45">
@@ -15291,7 +16505,7 @@
         <v>39</v>
       </c>
       <c r="T41">
-        <v>0.125</v>
+        <v>0.140625</v>
       </c>
       <c r="U41">
         <f t="shared" si="0"/>
@@ -15299,7 +16513,7 @@
       </c>
       <c r="V41">
         <f t="shared" si="1"/>
-        <v>87.5</v>
+        <v>85.9375</v>
       </c>
     </row>
     <row r="42" spans="19:22" x14ac:dyDescent="0.45">
@@ -15307,7 +16521,7 @@
         <v>40</v>
       </c>
       <c r="T42">
-        <v>0.140625</v>
+        <v>0.15625</v>
       </c>
       <c r="U42">
         <f t="shared" si="0"/>
@@ -15315,7 +16529,7 @@
       </c>
       <c r="V42">
         <f t="shared" si="1"/>
-        <v>85.9375</v>
+        <v>84.375</v>
       </c>
     </row>
     <row r="43" spans="19:22" x14ac:dyDescent="0.45">
@@ -15323,7 +16537,7 @@
         <v>41</v>
       </c>
       <c r="T43">
-        <v>0.140625</v>
+        <v>9.375E-2</v>
       </c>
       <c r="U43">
         <f t="shared" si="0"/>
@@ -15331,7 +16545,7 @@
       </c>
       <c r="V43">
         <f t="shared" si="1"/>
-        <v>85.9375</v>
+        <v>90.625</v>
       </c>
     </row>
     <row r="44" spans="19:22" x14ac:dyDescent="0.45">
@@ -15339,7 +16553,7 @@
         <v>42</v>
       </c>
       <c r="T44">
-        <v>0.25</v>
+        <v>0.140625</v>
       </c>
       <c r="U44">
         <f t="shared" si="0"/>
@@ -15347,7 +16561,7 @@
       </c>
       <c r="V44">
         <f t="shared" si="1"/>
-        <v>75</v>
+        <v>85.9375</v>
       </c>
     </row>
     <row r="45" spans="19:22" x14ac:dyDescent="0.45">
@@ -15355,7 +16569,7 @@
         <v>43</v>
       </c>
       <c r="T45">
-        <v>0.234375</v>
+        <v>0.15625</v>
       </c>
       <c r="U45">
         <f t="shared" si="0"/>
@@ -15363,7 +16577,7 @@
       </c>
       <c r="V45">
         <f t="shared" si="1"/>
-        <v>76.5625</v>
+        <v>84.375</v>
       </c>
     </row>
     <row r="46" spans="19:22" x14ac:dyDescent="0.45">
@@ -15371,7 +16585,7 @@
         <v>44</v>
       </c>
       <c r="T46">
-        <v>0.171875</v>
+        <v>0.140625</v>
       </c>
       <c r="U46">
         <f t="shared" si="0"/>
@@ -15379,7 +16593,7 @@
       </c>
       <c r="V46">
         <f t="shared" si="1"/>
-        <v>82.8125</v>
+        <v>85.9375</v>
       </c>
     </row>
     <row r="47" spans="19:22" x14ac:dyDescent="0.45">
@@ -15403,7 +16617,7 @@
         <v>46</v>
       </c>
       <c r="T48">
-        <v>0.140625</v>
+        <v>0.171875</v>
       </c>
       <c r="U48">
         <f t="shared" si="0"/>
@@ -15411,7 +16625,7 @@
       </c>
       <c r="V48">
         <f t="shared" si="1"/>
-        <v>85.9375</v>
+        <v>82.8125</v>
       </c>
     </row>
     <row r="49" spans="19:22" x14ac:dyDescent="0.45">
@@ -15419,7 +16633,7 @@
         <v>47</v>
       </c>
       <c r="T49">
-        <v>0.125</v>
+        <v>9.375E-2</v>
       </c>
       <c r="U49">
         <f t="shared" si="0"/>
@@ -15427,7 +16641,7 @@
       </c>
       <c r="V49">
         <f t="shared" si="1"/>
-        <v>87.5</v>
+        <v>90.625</v>
       </c>
     </row>
     <row r="50" spans="19:22" x14ac:dyDescent="0.45">
@@ -15435,7 +16649,7 @@
         <v>48</v>
       </c>
       <c r="T50">
-        <v>0.125</v>
+        <v>9.375E-2</v>
       </c>
       <c r="U50">
         <f t="shared" si="0"/>
@@ -15443,7 +16657,7 @@
       </c>
       <c r="V50">
         <f t="shared" si="1"/>
-        <v>87.5</v>
+        <v>90.625</v>
       </c>
     </row>
     <row r="51" spans="19:22" x14ac:dyDescent="0.45">
@@ -15467,7 +16681,7 @@
         <v>50</v>
       </c>
       <c r="T52">
-        <v>0.109375</v>
+        <v>0.171875</v>
       </c>
       <c r="U52">
         <f t="shared" si="0"/>
@@ -15475,7 +16689,7 @@
       </c>
       <c r="V52">
         <f t="shared" si="1"/>
-        <v>89.0625</v>
+        <v>82.8125</v>
       </c>
     </row>
     <row r="53" spans="19:22" x14ac:dyDescent="0.45">
@@ -15483,7 +16697,7 @@
         <v>51</v>
       </c>
       <c r="T53">
-        <v>0.125</v>
+        <v>0.140625</v>
       </c>
       <c r="U53">
         <f t="shared" si="0"/>
@@ -15491,7 +16705,7 @@
       </c>
       <c r="V53">
         <f t="shared" si="1"/>
-        <v>87.5</v>
+        <v>85.9375</v>
       </c>
     </row>
     <row r="54" spans="19:22" x14ac:dyDescent="0.45">
@@ -15499,7 +16713,7 @@
         <v>52</v>
       </c>
       <c r="T54">
-        <v>9.375E-2</v>
+        <v>0.109375</v>
       </c>
       <c r="U54">
         <f t="shared" si="0"/>
@@ -15507,7 +16721,7 @@
       </c>
       <c r="V54">
         <f t="shared" si="1"/>
-        <v>90.625</v>
+        <v>89.0625</v>
       </c>
     </row>
     <row r="55" spans="19:22" x14ac:dyDescent="0.45">
@@ -15515,7 +16729,7 @@
         <v>53</v>
       </c>
       <c r="T55">
-        <v>0.125</v>
+        <v>0.109375</v>
       </c>
       <c r="U55">
         <f t="shared" si="0"/>
@@ -15523,7 +16737,7 @@
       </c>
       <c r="V55">
         <f t="shared" si="1"/>
-        <v>87.5</v>
+        <v>89.0625</v>
       </c>
     </row>
     <row r="56" spans="19:22" x14ac:dyDescent="0.45">
@@ -15531,7 +16745,7 @@
         <v>54</v>
       </c>
       <c r="T56">
-        <v>0.109375</v>
+        <v>0.171875</v>
       </c>
       <c r="U56">
         <f t="shared" si="0"/>
@@ -15539,7 +16753,7 @@
       </c>
       <c r="V56">
         <f t="shared" si="1"/>
-        <v>89.0625</v>
+        <v>82.8125</v>
       </c>
     </row>
     <row r="57" spans="19:22" x14ac:dyDescent="0.45">
@@ -15547,7 +16761,7 @@
         <v>55</v>
       </c>
       <c r="T57">
-        <v>9.375E-2</v>
+        <v>0.125</v>
       </c>
       <c r="U57">
         <f t="shared" si="0"/>
@@ -15555,7 +16769,7 @@
       </c>
       <c r="V57">
         <f t="shared" si="1"/>
-        <v>90.625</v>
+        <v>87.5</v>
       </c>
     </row>
     <row r="58" spans="19:22" x14ac:dyDescent="0.45">
@@ -15563,7 +16777,7 @@
         <v>56</v>
       </c>
       <c r="T58">
-        <v>0.15625</v>
+        <v>0.125</v>
       </c>
       <c r="U58">
         <f t="shared" si="0"/>
@@ -15571,7 +16785,7 @@
       </c>
       <c r="V58">
         <f t="shared" si="1"/>
-        <v>84.375</v>
+        <v>87.5</v>
       </c>
     </row>
     <row r="59" spans="19:22" x14ac:dyDescent="0.45">
@@ -15579,7 +16793,7 @@
         <v>57</v>
       </c>
       <c r="T59">
-        <v>0.125</v>
+        <v>0.109375</v>
       </c>
       <c r="U59">
         <f t="shared" si="0"/>
@@ -15587,7 +16801,7 @@
       </c>
       <c r="V59">
         <f t="shared" si="1"/>
-        <v>87.5</v>
+        <v>89.0625</v>
       </c>
     </row>
     <row r="60" spans="19:22" x14ac:dyDescent="0.45">
@@ -15595,7 +16809,7 @@
         <v>58</v>
       </c>
       <c r="T60">
-        <v>0.171875</v>
+        <v>0.140625</v>
       </c>
       <c r="U60">
         <f t="shared" si="0"/>
@@ -15603,7 +16817,7 @@
       </c>
       <c r="V60">
         <f t="shared" si="1"/>
-        <v>82.8125</v>
+        <v>85.9375</v>
       </c>
     </row>
     <row r="61" spans="19:22" x14ac:dyDescent="0.45">
@@ -15611,7 +16825,7 @@
         <v>59</v>
       </c>
       <c r="T61">
-        <v>0.15625</v>
+        <v>0.140625</v>
       </c>
       <c r="U61">
         <f t="shared" si="0"/>
@@ -15619,7 +16833,7 @@
       </c>
       <c r="V61">
         <f t="shared" si="1"/>
-        <v>84.375</v>
+        <v>85.9375</v>
       </c>
     </row>
     <row r="62" spans="19:22" x14ac:dyDescent="0.45">
@@ -15627,7 +16841,7 @@
         <v>60</v>
       </c>
       <c r="T62">
-        <v>0.125</v>
+        <v>0.15625</v>
       </c>
       <c r="U62">
         <f t="shared" si="0"/>
@@ -15635,7 +16849,7 @@
       </c>
       <c r="V62">
         <f t="shared" si="1"/>
-        <v>87.5</v>
+        <v>84.375</v>
       </c>
     </row>
     <row r="63" spans="19:22" x14ac:dyDescent="0.45">
@@ -15643,7 +16857,7 @@
         <v>61</v>
       </c>
       <c r="T63">
-        <v>0.1875</v>
+        <v>0.125</v>
       </c>
       <c r="U63">
         <f t="shared" si="0"/>
@@ -15651,7 +16865,7 @@
       </c>
       <c r="V63">
         <f t="shared" si="1"/>
-        <v>81.25</v>
+        <v>87.5</v>
       </c>
     </row>
     <row r="64" spans="19:22" x14ac:dyDescent="0.45">
@@ -15675,7 +16889,7 @@
         <v>63</v>
       </c>
       <c r="T65">
-        <v>0.125</v>
+        <v>0.140625</v>
       </c>
       <c r="U65">
         <f t="shared" si="0"/>
@@ -15683,7 +16897,7 @@
       </c>
       <c r="V65">
         <f t="shared" si="1"/>
-        <v>87.5</v>
+        <v>85.9375</v>
       </c>
     </row>
     <row r="66" spans="19:22" x14ac:dyDescent="0.45">
@@ -15691,7 +16905,7 @@
         <v>64</v>
       </c>
       <c r="T66">
-        <v>0.125</v>
+        <v>0.140625</v>
       </c>
       <c r="U66">
         <f t="shared" si="0"/>
@@ -15699,7 +16913,7 @@
       </c>
       <c r="V66">
         <f t="shared" si="1"/>
-        <v>87.5</v>
+        <v>85.9375</v>
       </c>
     </row>
     <row r="67" spans="19:22" x14ac:dyDescent="0.45">
@@ -15707,7 +16921,7 @@
         <v>65</v>
       </c>
       <c r="T67">
-        <v>0.140625</v>
+        <v>0.125</v>
       </c>
       <c r="U67">
         <f t="shared" ref="U67:U101" si="2" xml:space="preserve"> 1+S67</f>
@@ -15715,7 +16929,7 @@
       </c>
       <c r="V67">
         <f t="shared" ref="V67:V101" si="3" xml:space="preserve"> (1-T67)*100</f>
-        <v>85.9375</v>
+        <v>87.5</v>
       </c>
     </row>
     <row r="68" spans="19:22" x14ac:dyDescent="0.45">
@@ -15723,7 +16937,7 @@
         <v>66</v>
       </c>
       <c r="T68">
-        <v>0.109375</v>
+        <v>9.375E-2</v>
       </c>
       <c r="U68">
         <f t="shared" si="2"/>
@@ -15731,7 +16945,7 @@
       </c>
       <c r="V68">
         <f t="shared" si="3"/>
-        <v>89.0625</v>
+        <v>90.625</v>
       </c>
     </row>
     <row r="69" spans="19:22" x14ac:dyDescent="0.45">
@@ -15739,7 +16953,7 @@
         <v>67</v>
       </c>
       <c r="T69">
-        <v>0.109375</v>
+        <v>7.8125E-2</v>
       </c>
       <c r="U69">
         <f t="shared" si="2"/>
@@ -15747,7 +16961,7 @@
       </c>
       <c r="V69">
         <f t="shared" si="3"/>
-        <v>89.0625</v>
+        <v>92.1875</v>
       </c>
     </row>
     <row r="70" spans="19:22" x14ac:dyDescent="0.45">
@@ -15755,7 +16969,7 @@
         <v>68</v>
       </c>
       <c r="T70">
-        <v>0.15625</v>
+        <v>0.109375</v>
       </c>
       <c r="U70">
         <f t="shared" si="2"/>
@@ -15763,7 +16977,7 @@
       </c>
       <c r="V70">
         <f t="shared" si="3"/>
-        <v>84.375</v>
+        <v>89.0625</v>
       </c>
     </row>
     <row r="71" spans="19:22" x14ac:dyDescent="0.45">
@@ -15771,7 +16985,7 @@
         <v>69</v>
       </c>
       <c r="T71">
-        <v>0.140625</v>
+        <v>0.15625</v>
       </c>
       <c r="U71">
         <f t="shared" si="2"/>
@@ -15779,7 +16993,7 @@
       </c>
       <c r="V71">
         <f t="shared" si="3"/>
-        <v>85.9375</v>
+        <v>84.375</v>
       </c>
     </row>
     <row r="72" spans="19:22" x14ac:dyDescent="0.45">
@@ -15787,7 +17001,7 @@
         <v>70</v>
       </c>
       <c r="T72">
-        <v>0.15625</v>
+        <v>6.25E-2</v>
       </c>
       <c r="U72">
         <f t="shared" si="2"/>
@@ -15795,7 +17009,7 @@
       </c>
       <c r="V72">
         <f t="shared" si="3"/>
-        <v>84.375</v>
+        <v>93.75</v>
       </c>
     </row>
     <row r="73" spans="19:22" x14ac:dyDescent="0.45">
@@ -15803,7 +17017,7 @@
         <v>71</v>
       </c>
       <c r="T73">
-        <v>0.15625</v>
+        <v>0.125</v>
       </c>
       <c r="U73">
         <f t="shared" si="2"/>
@@ -15811,7 +17025,7 @@
       </c>
       <c r="V73">
         <f t="shared" si="3"/>
-        <v>84.375</v>
+        <v>87.5</v>
       </c>
     </row>
     <row r="74" spans="19:22" x14ac:dyDescent="0.45">
@@ -15819,7 +17033,7 @@
         <v>72</v>
       </c>
       <c r="T74">
-        <v>0.171875</v>
+        <v>9.375E-2</v>
       </c>
       <c r="U74">
         <f t="shared" si="2"/>
@@ -15827,7 +17041,7 @@
       </c>
       <c r="V74">
         <f t="shared" si="3"/>
-        <v>82.8125</v>
+        <v>90.625</v>
       </c>
     </row>
     <row r="75" spans="19:22" x14ac:dyDescent="0.45">
@@ -15835,7 +17049,7 @@
         <v>73</v>
       </c>
       <c r="T75">
-        <v>0.109375</v>
+        <v>0.140625</v>
       </c>
       <c r="U75">
         <f t="shared" si="2"/>
@@ -15843,7 +17057,7 @@
       </c>
       <c r="V75">
         <f t="shared" si="3"/>
-        <v>89.0625</v>
+        <v>85.9375</v>
       </c>
     </row>
     <row r="76" spans="19:22" x14ac:dyDescent="0.45">
@@ -15851,7 +17065,7 @@
         <v>74</v>
       </c>
       <c r="T76">
-        <v>0.15625</v>
+        <v>0.109375</v>
       </c>
       <c r="U76">
         <f t="shared" si="2"/>
@@ -15859,7 +17073,7 @@
       </c>
       <c r="V76">
         <f t="shared" si="3"/>
-        <v>84.375</v>
+        <v>89.0625</v>
       </c>
     </row>
     <row r="77" spans="19:22" x14ac:dyDescent="0.45">
@@ -15867,7 +17081,7 @@
         <v>75</v>
       </c>
       <c r="T77">
-        <v>0.15625</v>
+        <v>0.125</v>
       </c>
       <c r="U77">
         <f t="shared" si="2"/>
@@ -15875,7 +17089,7 @@
       </c>
       <c r="V77">
         <f t="shared" si="3"/>
-        <v>84.375</v>
+        <v>87.5</v>
       </c>
     </row>
     <row r="78" spans="19:22" x14ac:dyDescent="0.45">
@@ -15883,7 +17097,7 @@
         <v>76</v>
       </c>
       <c r="T78">
-        <v>0.109375</v>
+        <v>0.15625</v>
       </c>
       <c r="U78">
         <f t="shared" si="2"/>
@@ -15891,7 +17105,7 @@
       </c>
       <c r="V78">
         <f t="shared" si="3"/>
-        <v>89.0625</v>
+        <v>84.375</v>
       </c>
     </row>
     <row r="79" spans="19:22" x14ac:dyDescent="0.45">
@@ -15899,7 +17113,7 @@
         <v>77</v>
       </c>
       <c r="T79">
-        <v>0.15625</v>
+        <v>7.8125E-2</v>
       </c>
       <c r="U79">
         <f t="shared" si="2"/>
@@ -15907,7 +17121,7 @@
       </c>
       <c r="V79">
         <f t="shared" si="3"/>
-        <v>84.375</v>
+        <v>92.1875</v>
       </c>
     </row>
     <row r="80" spans="19:22" x14ac:dyDescent="0.45">
@@ -15915,7 +17129,7 @@
         <v>78</v>
       </c>
       <c r="T80">
-        <v>0.140625</v>
+        <v>0.125</v>
       </c>
       <c r="U80">
         <f t="shared" si="2"/>
@@ -15923,7 +17137,7 @@
       </c>
       <c r="V80">
         <f t="shared" si="3"/>
-        <v>85.9375</v>
+        <v>87.5</v>
       </c>
     </row>
     <row r="81" spans="19:22" x14ac:dyDescent="0.45">
@@ -15931,7 +17145,7 @@
         <v>79</v>
       </c>
       <c r="T81">
-        <v>0.125</v>
+        <v>9.375E-2</v>
       </c>
       <c r="U81">
         <f t="shared" si="2"/>
@@ -15939,7 +17153,7 @@
       </c>
       <c r="V81">
         <f t="shared" si="3"/>
-        <v>87.5</v>
+        <v>90.625</v>
       </c>
     </row>
     <row r="82" spans="19:22" x14ac:dyDescent="0.45">
@@ -15947,7 +17161,7 @@
         <v>80</v>
       </c>
       <c r="T82">
-        <v>0.140625</v>
+        <v>9.375E-2</v>
       </c>
       <c r="U82">
         <f t="shared" si="2"/>
@@ -15955,7 +17169,7 @@
       </c>
       <c r="V82">
         <f t="shared" si="3"/>
-        <v>85.9375</v>
+        <v>90.625</v>
       </c>
     </row>
     <row r="83" spans="19:22" x14ac:dyDescent="0.45">
@@ -15963,7 +17177,7 @@
         <v>81</v>
       </c>
       <c r="T83">
-        <v>0.203125</v>
+        <v>0.109375</v>
       </c>
       <c r="U83">
         <f t="shared" si="2"/>
@@ -15971,7 +17185,7 @@
       </c>
       <c r="V83">
         <f t="shared" si="3"/>
-        <v>79.6875</v>
+        <v>89.0625</v>
       </c>
     </row>
     <row r="84" spans="19:22" x14ac:dyDescent="0.45">
@@ -15979,7 +17193,7 @@
         <v>82</v>
       </c>
       <c r="T84">
-        <v>0.140625</v>
+        <v>0.15625</v>
       </c>
       <c r="U84">
         <f t="shared" si="2"/>
@@ -15987,7 +17201,7 @@
       </c>
       <c r="V84">
         <f t="shared" si="3"/>
-        <v>85.9375</v>
+        <v>84.375</v>
       </c>
     </row>
     <row r="85" spans="19:22" x14ac:dyDescent="0.45">
@@ -16011,7 +17225,7 @@
         <v>84</v>
       </c>
       <c r="T86">
-        <v>0.125</v>
+        <v>9.375E-2</v>
       </c>
       <c r="U86">
         <f t="shared" si="2"/>
@@ -16019,7 +17233,7 @@
       </c>
       <c r="V86">
         <f t="shared" si="3"/>
-        <v>87.5</v>
+        <v>90.625</v>
       </c>
     </row>
     <row r="87" spans="19:22" x14ac:dyDescent="0.45">
@@ -16059,7 +17273,7 @@
         <v>87</v>
       </c>
       <c r="T89">
-        <v>0.125</v>
+        <v>0.15625</v>
       </c>
       <c r="U89">
         <f t="shared" si="2"/>
@@ -16067,7 +17281,7 @@
       </c>
       <c r="V89">
         <f t="shared" si="3"/>
-        <v>87.5</v>
+        <v>84.375</v>
       </c>
     </row>
     <row r="90" spans="19:22" x14ac:dyDescent="0.45">
@@ -16107,7 +17321,7 @@
         <v>90</v>
       </c>
       <c r="T92">
-        <v>0.125</v>
+        <v>9.375E-2</v>
       </c>
       <c r="U92">
         <f t="shared" si="2"/>
@@ -16115,7 +17329,7 @@
       </c>
       <c r="V92">
         <f t="shared" si="3"/>
-        <v>87.5</v>
+        <v>90.625</v>
       </c>
     </row>
     <row r="93" spans="19:22" x14ac:dyDescent="0.45">
@@ -16123,7 +17337,7 @@
         <v>91</v>
       </c>
       <c r="T93">
-        <v>0.125</v>
+        <v>0.109375</v>
       </c>
       <c r="U93">
         <f t="shared" si="2"/>
@@ -16131,7 +17345,7 @@
       </c>
       <c r="V93">
         <f t="shared" si="3"/>
-        <v>87.5</v>
+        <v>89.0625</v>
       </c>
     </row>
     <row r="94" spans="19:22" x14ac:dyDescent="0.45">
@@ -16139,7 +17353,7 @@
         <v>92</v>
       </c>
       <c r="T94">
-        <v>0.125</v>
+        <v>9.375E-2</v>
       </c>
       <c r="U94">
         <f t="shared" si="2"/>
@@ -16147,7 +17361,7 @@
       </c>
       <c r="V94">
         <f t="shared" si="3"/>
-        <v>87.5</v>
+        <v>90.625</v>
       </c>
     </row>
     <row r="95" spans="19:22" x14ac:dyDescent="0.45">
@@ -16155,7 +17369,7 @@
         <v>93</v>
       </c>
       <c r="T95">
-        <v>0.125</v>
+        <v>9.375E-2</v>
       </c>
       <c r="U95">
         <f t="shared" si="2"/>
@@ -16163,7 +17377,7 @@
       </c>
       <c r="V95">
         <f t="shared" si="3"/>
-        <v>87.5</v>
+        <v>90.625</v>
       </c>
     </row>
     <row r="96" spans="19:22" x14ac:dyDescent="0.45">
@@ -16171,7 +17385,7 @@
         <v>94</v>
       </c>
       <c r="T96">
-        <v>0.125</v>
+        <v>9.375E-2</v>
       </c>
       <c r="U96">
         <f t="shared" si="2"/>
@@ -16179,7 +17393,7 @@
       </c>
       <c r="V96">
         <f t="shared" si="3"/>
-        <v>87.5</v>
+        <v>90.625</v>
       </c>
     </row>
     <row r="97" spans="19:22" x14ac:dyDescent="0.45">
@@ -16187,7 +17401,7 @@
         <v>95</v>
       </c>
       <c r="T97">
-        <v>0.125</v>
+        <v>9.375E-2</v>
       </c>
       <c r="U97">
         <f t="shared" si="2"/>
@@ -16195,7 +17409,7 @@
       </c>
       <c r="V97">
         <f t="shared" si="3"/>
-        <v>87.5</v>
+        <v>90.625</v>
       </c>
     </row>
     <row r="98" spans="19:22" x14ac:dyDescent="0.45">
@@ -16203,7 +17417,7 @@
         <v>96</v>
       </c>
       <c r="T98">
-        <v>0.125</v>
+        <v>9.375E-2</v>
       </c>
       <c r="U98">
         <f t="shared" si="2"/>
@@ -16211,7 +17425,7 @@
       </c>
       <c r="V98">
         <f t="shared" si="3"/>
-        <v>87.5</v>
+        <v>90.625</v>
       </c>
     </row>
     <row r="99" spans="19:22" x14ac:dyDescent="0.45">
@@ -16219,7 +17433,7 @@
         <v>97</v>
       </c>
       <c r="T99">
-        <v>0.125</v>
+        <v>9.375E-2</v>
       </c>
       <c r="U99">
         <f t="shared" si="2"/>
@@ -16227,7 +17441,7 @@
       </c>
       <c r="V99">
         <f t="shared" si="3"/>
-        <v>87.5</v>
+        <v>90.625</v>
       </c>
     </row>
     <row r="100" spans="19:22" x14ac:dyDescent="0.45">
@@ -16235,7 +17449,7 @@
         <v>98</v>
       </c>
       <c r="T100">
-        <v>0.125</v>
+        <v>9.375E-2</v>
       </c>
       <c r="U100">
         <f t="shared" si="2"/>
@@ -16243,7 +17457,7 @@
       </c>
       <c r="V100">
         <f t="shared" si="3"/>
-        <v>87.5</v>
+        <v>90.625</v>
       </c>
     </row>
     <row r="101" spans="19:22" x14ac:dyDescent="0.45">
@@ -16251,7 +17465,7 @@
         <v>99</v>
       </c>
       <c r="T101">
-        <v>0.125</v>
+        <v>9.375E-2</v>
       </c>
       <c r="U101">
         <f t="shared" si="2"/>
@@ -16259,420 +17473,11 @@
       </c>
       <c r="V101">
         <f t="shared" si="3"/>
-        <v>87.5</v>
-      </c>
-    </row>
-    <row r="102" spans="19:22" x14ac:dyDescent="0.45">
-      <c r="S102" t="s">
-        <v>9</v>
-      </c>
-      <c r="T102">
-        <v>0.125</v>
-      </c>
-    </row>
-    <row r="103" spans="19:22" x14ac:dyDescent="0.45">
-      <c r="S103" t="s">
-        <v>9</v>
-      </c>
-      <c r="T103">
-        <v>0.125</v>
-      </c>
-    </row>
-    <row r="104" spans="19:22" x14ac:dyDescent="0.45">
-      <c r="S104" t="s">
-        <v>9</v>
-      </c>
-      <c r="T104">
-        <v>7.8125E-2</v>
-      </c>
-    </row>
-    <row r="105" spans="19:22" x14ac:dyDescent="0.45">
-      <c r="S105" t="s">
-        <v>9</v>
-      </c>
-      <c r="T105">
-        <v>9.375E-2</v>
-      </c>
-    </row>
-    <row r="106" spans="19:22" x14ac:dyDescent="0.45">
-      <c r="S106" t="s">
-        <v>9</v>
-      </c>
-      <c r="T106">
-        <v>0.140625</v>
-      </c>
-    </row>
-    <row r="107" spans="19:22" x14ac:dyDescent="0.45">
-      <c r="S107" t="s">
-        <v>9</v>
-      </c>
-      <c r="T107">
-        <v>7.8125E-2</v>
-      </c>
-    </row>
-    <row r="108" spans="19:22" x14ac:dyDescent="0.45">
-      <c r="S108" t="s">
-        <v>9</v>
-      </c>
-      <c r="T108">
-        <v>0.109375</v>
-      </c>
-    </row>
-    <row r="109" spans="19:22" x14ac:dyDescent="0.45">
-      <c r="S109" t="s">
-        <v>9</v>
-      </c>
-      <c r="T109">
-        <v>0.15625</v>
-      </c>
-    </row>
-    <row r="110" spans="19:22" x14ac:dyDescent="0.45">
-      <c r="S110" t="s">
-        <v>9</v>
-      </c>
-      <c r="T110">
-        <v>4.6875E-2</v>
-      </c>
-    </row>
-    <row r="111" spans="19:22" x14ac:dyDescent="0.45">
-      <c r="S111" t="s">
-        <v>9</v>
-      </c>
-      <c r="T111">
-        <v>0.125</v>
-      </c>
-    </row>
-    <row r="112" spans="19:22" x14ac:dyDescent="0.45">
-      <c r="S112" t="s">
-        <v>9</v>
-      </c>
-      <c r="T112">
-        <v>4.6875E-2</v>
-      </c>
-    </row>
-    <row r="113" spans="19:20" x14ac:dyDescent="0.45">
-      <c r="S113" t="s">
-        <v>9</v>
-      </c>
-      <c r="T113">
-        <v>0.171875</v>
-      </c>
-    </row>
-    <row r="114" spans="19:20" x14ac:dyDescent="0.45">
-      <c r="S114" t="s">
-        <v>9</v>
-      </c>
-      <c r="T114">
-        <v>0.140625</v>
-      </c>
-    </row>
-    <row r="115" spans="19:20" x14ac:dyDescent="0.45">
-      <c r="S115" t="s">
-        <v>9</v>
-      </c>
-      <c r="T115">
-        <v>0.109375</v>
-      </c>
-    </row>
-    <row r="116" spans="19:20" x14ac:dyDescent="0.45">
-      <c r="S116" t="s">
-        <v>9</v>
-      </c>
-      <c r="T116">
-        <v>7.8125E-2</v>
-      </c>
-    </row>
-    <row r="117" spans="19:20" x14ac:dyDescent="0.45">
-      <c r="S117" t="s">
-        <v>9</v>
-      </c>
-      <c r="T117">
-        <v>0.140625</v>
-      </c>
-    </row>
-    <row r="118" spans="19:20" x14ac:dyDescent="0.45">
-      <c r="S118" t="s">
-        <v>9</v>
-      </c>
-      <c r="T118">
-        <v>0.171875</v>
-      </c>
-    </row>
-    <row r="119" spans="19:20" x14ac:dyDescent="0.45">
-      <c r="S119" t="s">
-        <v>9</v>
-      </c>
-      <c r="T119">
-        <v>0.15625</v>
-      </c>
-    </row>
-    <row r="120" spans="19:20" x14ac:dyDescent="0.45">
-      <c r="S120" t="s">
-        <v>9</v>
-      </c>
-      <c r="T120">
-        <v>0.125</v>
-      </c>
-    </row>
-    <row r="121" spans="19:20" x14ac:dyDescent="0.45">
-      <c r="S121" t="s">
-        <v>9</v>
-      </c>
-      <c r="T121">
-        <v>9.375E-2</v>
-      </c>
-    </row>
-    <row r="122" spans="19:20" x14ac:dyDescent="0.45">
-      <c r="S122" t="s">
-        <v>9</v>
-      </c>
-      <c r="T122">
-        <v>6.25E-2</v>
-      </c>
-    </row>
-    <row r="123" spans="19:20" x14ac:dyDescent="0.45">
-      <c r="S123" t="s">
-        <v>9</v>
-      </c>
-      <c r="T123">
-        <v>9.375E-2</v>
-      </c>
-    </row>
-    <row r="124" spans="19:20" x14ac:dyDescent="0.45">
-      <c r="S124" t="s">
-        <v>9</v>
-      </c>
-      <c r="T124">
-        <v>0.125</v>
-      </c>
-    </row>
-    <row r="125" spans="19:20" x14ac:dyDescent="0.45">
-      <c r="S125" t="s">
-        <v>9</v>
-      </c>
-      <c r="T125">
-        <v>7.8125E-2</v>
-      </c>
-    </row>
-    <row r="126" spans="19:20" x14ac:dyDescent="0.45">
-      <c r="S126" t="s">
-        <v>9</v>
-      </c>
-      <c r="T126">
-        <v>0.125</v>
-      </c>
-    </row>
-    <row r="127" spans="19:20" x14ac:dyDescent="0.45">
-      <c r="S127" t="s">
-        <v>9</v>
-      </c>
-      <c r="T127">
-        <v>7.8125E-2</v>
-      </c>
-    </row>
-    <row r="128" spans="19:20" x14ac:dyDescent="0.45">
-      <c r="S128" t="s">
-        <v>9</v>
-      </c>
-      <c r="T128">
-        <v>0.125</v>
-      </c>
-    </row>
-    <row r="129" spans="19:20" x14ac:dyDescent="0.45">
-      <c r="S129" t="s">
-        <v>9</v>
-      </c>
-      <c r="T129">
-        <v>0.125</v>
-      </c>
-    </row>
-    <row r="130" spans="19:20" x14ac:dyDescent="0.45">
-      <c r="S130" t="s">
-        <v>9</v>
-      </c>
-      <c r="T130">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="131" spans="19:20" x14ac:dyDescent="0.45">
-      <c r="S131" t="s">
-        <v>9</v>
-      </c>
-      <c r="T131">
-        <v>0.109375</v>
-      </c>
-    </row>
-    <row r="132" spans="19:20" x14ac:dyDescent="0.45">
-      <c r="S132" t="s">
-        <v>9</v>
-      </c>
-      <c r="T132">
-        <v>0.15625</v>
-      </c>
-    </row>
-    <row r="133" spans="19:20" x14ac:dyDescent="0.45">
-      <c r="S133" t="s">
-        <v>9</v>
-      </c>
-      <c r="T133">
-        <v>0.125</v>
-      </c>
-    </row>
-    <row r="134" spans="19:20" x14ac:dyDescent="0.45">
-      <c r="S134" t="s">
-        <v>9</v>
-      </c>
-      <c r="T134">
-        <v>0.15625</v>
-      </c>
-    </row>
-    <row r="135" spans="19:20" x14ac:dyDescent="0.45">
-      <c r="S135" t="s">
-        <v>9</v>
-      </c>
-      <c r="T135">
-        <v>0.109375</v>
-      </c>
-    </row>
-    <row r="136" spans="19:20" x14ac:dyDescent="0.45">
-      <c r="S136" t="s">
-        <v>9</v>
-      </c>
-      <c r="T136">
-        <v>0.15625</v>
-      </c>
-    </row>
-    <row r="137" spans="19:20" x14ac:dyDescent="0.45">
-      <c r="S137" t="s">
-        <v>9</v>
-      </c>
-      <c r="T137">
-        <v>0.203125</v>
-      </c>
-    </row>
-    <row r="138" spans="19:20" x14ac:dyDescent="0.45">
-      <c r="S138" t="s">
-        <v>9</v>
-      </c>
-      <c r="T138">
-        <v>6.25E-2</v>
-      </c>
-    </row>
-    <row r="139" spans="19:20" x14ac:dyDescent="0.45">
-      <c r="S139" t="s">
-        <v>9</v>
-      </c>
-      <c r="T139">
-        <v>0.109375</v>
-      </c>
-    </row>
-    <row r="140" spans="19:20" x14ac:dyDescent="0.45">
-      <c r="S140" t="s">
-        <v>9</v>
-      </c>
-      <c r="T140">
-        <v>0.109375</v>
-      </c>
-    </row>
-    <row r="141" spans="19:20" x14ac:dyDescent="0.45">
-      <c r="S141" t="s">
-        <v>9</v>
-      </c>
-      <c r="T141">
-        <v>0.171875</v>
-      </c>
-    </row>
-    <row r="142" spans="19:20" x14ac:dyDescent="0.45">
-      <c r="S142" t="s">
-        <v>9</v>
-      </c>
-      <c r="T142">
-        <v>0.125</v>
-      </c>
-    </row>
-    <row r="143" spans="19:20" x14ac:dyDescent="0.45">
-      <c r="S143" t="s">
-        <v>9</v>
-      </c>
-      <c r="T143">
-        <v>6.25E-2</v>
-      </c>
-    </row>
-    <row r="144" spans="19:20" x14ac:dyDescent="0.45">
-      <c r="S144" t="s">
-        <v>9</v>
-      </c>
-      <c r="T144">
-        <v>4.6875E-2</v>
-      </c>
-    </row>
-    <row r="145" spans="19:20" x14ac:dyDescent="0.45">
-      <c r="S145" t="s">
-        <v>9</v>
-      </c>
-      <c r="T145">
-        <v>0.203125</v>
-      </c>
-    </row>
-    <row r="146" spans="19:20" x14ac:dyDescent="0.45">
-      <c r="S146" t="s">
-        <v>9</v>
-      </c>
-      <c r="T146">
-        <v>0.21875</v>
-      </c>
-    </row>
-    <row r="147" spans="19:20" x14ac:dyDescent="0.45">
-      <c r="S147" t="s">
-        <v>9</v>
-      </c>
-      <c r="T147">
-        <v>0.125</v>
-      </c>
-    </row>
-    <row r="148" spans="19:20" x14ac:dyDescent="0.45">
-      <c r="S148" t="s">
-        <v>9</v>
-      </c>
-      <c r="T148">
-        <v>0.140625</v>
-      </c>
-    </row>
-    <row r="149" spans="19:20" x14ac:dyDescent="0.45">
-      <c r="S149" t="s">
-        <v>9</v>
-      </c>
-      <c r="T149">
-        <v>6.25E-2</v>
-      </c>
-    </row>
-    <row r="150" spans="19:20" x14ac:dyDescent="0.45">
-      <c r="S150" t="s">
-        <v>9</v>
-      </c>
-      <c r="T150">
-        <v>0.140625</v>
-      </c>
-    </row>
-    <row r="151" spans="19:20" x14ac:dyDescent="0.45">
-      <c r="S151" t="s">
-        <v>9</v>
-      </c>
-      <c r="T151">
-        <v>0.109375</v>
-      </c>
-    </row>
-    <row r="152" spans="19:20" x14ac:dyDescent="0.45">
-      <c r="S152" t="s">
-        <v>9</v>
-      </c>
-      <c r="T152">
-        <v>7.2727272727272724E-2</v>
+        <v>90.625</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="A1:G1"/>
+  <mergeCells count="3">
     <mergeCell ref="H1:L1"/>
     <mergeCell ref="A3:C3"/>
     <mergeCell ref="A20:C20"/>
@@ -16683,19 +17488,25 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{056CABA9-8355-4FC6-A8A3-AC72E9E3DA4B}">
-  <dimension ref="A1:V101"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{618A103B-AAE0-4589-86B5-9C75EBAC44A4}">
+  <dimension ref="A1:V152"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B13" zoomScale="76" workbookViewId="0">
-      <selection activeCell="O46" sqref="O46"/>
+    <sheetView zoomScale="56" workbookViewId="0">
+      <selection activeCell="I23" sqref="I23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.45">
-      <c r="A1" t="s">
-        <v>20</v>
-      </c>
+      <c r="A1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
       <c r="H1" s="2" t="s">
         <v>0</v>
       </c>
@@ -16742,7 +17553,7 @@
         <v>1</v>
       </c>
       <c r="T3">
-        <v>0.84375</v>
+        <v>0.90625</v>
       </c>
       <c r="U3">
         <f t="shared" ref="U3:U66" si="0" xml:space="preserve"> 1+S3</f>
@@ -16750,7 +17561,7 @@
       </c>
       <c r="V3">
         <f t="shared" ref="V3:V66" si="1" xml:space="preserve"> (1-T3)*100</f>
-        <v>15.625</v>
+        <v>9.375</v>
       </c>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.45">
@@ -16758,7 +17569,7 @@
         <v>2</v>
       </c>
       <c r="T4">
-        <v>0.578125</v>
+        <v>0.734375</v>
       </c>
       <c r="U4">
         <f t="shared" si="0"/>
@@ -16766,7 +17577,7 @@
       </c>
       <c r="V4">
         <f t="shared" si="1"/>
-        <v>42.1875</v>
+        <v>26.5625</v>
       </c>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.45">
@@ -16774,7 +17585,7 @@
         <v>3</v>
       </c>
       <c r="T5">
-        <v>0.40625</v>
+        <v>0.421875</v>
       </c>
       <c r="U5">
         <f t="shared" si="0"/>
@@ -16782,7 +17593,7 @@
       </c>
       <c r="V5">
         <f t="shared" si="1"/>
-        <v>59.375</v>
+        <v>57.8125</v>
       </c>
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.45">
@@ -16790,7 +17601,7 @@
         <v>4</v>
       </c>
       <c r="T6">
-        <v>0.234375</v>
+        <v>0.3125</v>
       </c>
       <c r="U6">
         <f t="shared" si="0"/>
@@ -16798,7 +17609,7 @@
       </c>
       <c r="V6">
         <f t="shared" si="1"/>
-        <v>76.5625</v>
+        <v>68.75</v>
       </c>
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.45">
@@ -16806,7 +17617,7 @@
         <v>5</v>
       </c>
       <c r="T7">
-        <v>0.21875</v>
+        <v>0.265625</v>
       </c>
       <c r="U7">
         <f t="shared" si="0"/>
@@ -16814,7 +17625,7 @@
       </c>
       <c r="V7">
         <f t="shared" si="1"/>
-        <v>78.125</v>
+        <v>73.4375</v>
       </c>
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.45">
@@ -16838,7 +17649,7 @@
         <v>7</v>
       </c>
       <c r="T9">
-        <v>0.203125</v>
+        <v>0.234375</v>
       </c>
       <c r="U9">
         <f t="shared" si="0"/>
@@ -16846,7 +17657,7 @@
       </c>
       <c r="V9">
         <f t="shared" si="1"/>
-        <v>79.6875</v>
+        <v>76.5625</v>
       </c>
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.45">
@@ -16854,7 +17665,7 @@
         <v>8</v>
       </c>
       <c r="T10">
-        <v>0.25</v>
+        <v>0.265625</v>
       </c>
       <c r="U10">
         <f t="shared" si="0"/>
@@ -16862,7 +17673,7 @@
       </c>
       <c r="V10">
         <f t="shared" si="1"/>
-        <v>75</v>
+        <v>73.4375</v>
       </c>
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.45">
@@ -16886,7 +17697,7 @@
         <v>10</v>
       </c>
       <c r="T12">
-        <v>0.234375</v>
+        <v>0.265625</v>
       </c>
       <c r="U12">
         <f t="shared" si="0"/>
@@ -16894,7 +17705,7 @@
       </c>
       <c r="V12">
         <f t="shared" si="1"/>
-        <v>76.5625</v>
+        <v>73.4375</v>
       </c>
     </row>
     <row r="13" spans="1:22" x14ac:dyDescent="0.45">
@@ -16918,7 +17729,7 @@
         <v>12</v>
       </c>
       <c r="T14">
-        <v>0.265625</v>
+        <v>0.171875</v>
       </c>
       <c r="U14">
         <f t="shared" si="0"/>
@@ -16926,7 +17737,7 @@
       </c>
       <c r="V14">
         <f t="shared" si="1"/>
-        <v>73.4375</v>
+        <v>82.8125</v>
       </c>
     </row>
     <row r="15" spans="1:22" x14ac:dyDescent="0.45">
@@ -16934,7 +17745,7 @@
         <v>13</v>
       </c>
       <c r="T15">
-        <v>0.171875</v>
+        <v>0.15625</v>
       </c>
       <c r="U15">
         <f t="shared" si="0"/>
@@ -16942,7 +17753,7 @@
       </c>
       <c r="V15">
         <f t="shared" si="1"/>
-        <v>82.8125</v>
+        <v>84.375</v>
       </c>
     </row>
     <row r="16" spans="1:22" x14ac:dyDescent="0.45">
@@ -17019,7 +17830,7 @@
         <v>18</v>
       </c>
       <c r="T20">
-        <v>0.1875</v>
+        <v>0.25</v>
       </c>
       <c r="U20">
         <f t="shared" si="0"/>
@@ -17027,7 +17838,7 @@
       </c>
       <c r="V20">
         <f t="shared" si="1"/>
-        <v>81.25</v>
+        <v>75</v>
       </c>
     </row>
     <row r="21" spans="1:22" x14ac:dyDescent="0.45">
@@ -17035,7 +17846,7 @@
         <v>19</v>
       </c>
       <c r="T21">
-        <v>0.125</v>
+        <v>0.171875</v>
       </c>
       <c r="U21">
         <f t="shared" si="0"/>
@@ -17043,7 +17854,7 @@
       </c>
       <c r="V21">
         <f t="shared" si="1"/>
-        <v>87.5</v>
+        <v>82.8125</v>
       </c>
     </row>
     <row r="22" spans="1:22" x14ac:dyDescent="0.45">
@@ -17067,7 +17878,7 @@
         <v>21</v>
       </c>
       <c r="T23">
-        <v>0.140625</v>
+        <v>0.171875</v>
       </c>
       <c r="U23">
         <f t="shared" si="0"/>
@@ -17075,7 +17886,7 @@
       </c>
       <c r="V23">
         <f t="shared" si="1"/>
-        <v>85.9375</v>
+        <v>82.8125</v>
       </c>
     </row>
     <row r="24" spans="1:22" x14ac:dyDescent="0.45">
@@ -17083,7 +17894,7 @@
         <v>22</v>
       </c>
       <c r="T24">
-        <v>9.375E-2</v>
+        <v>0.15625</v>
       </c>
       <c r="U24">
         <f t="shared" si="0"/>
@@ -17091,7 +17902,7 @@
       </c>
       <c r="V24">
         <f t="shared" si="1"/>
-        <v>90.625</v>
+        <v>84.375</v>
       </c>
     </row>
     <row r="25" spans="1:22" x14ac:dyDescent="0.45">
@@ -17099,7 +17910,7 @@
         <v>23</v>
       </c>
       <c r="T25">
-        <v>0.171875</v>
+        <v>0.1875</v>
       </c>
       <c r="U25">
         <f t="shared" si="0"/>
@@ -17107,7 +17918,7 @@
       </c>
       <c r="V25">
         <f t="shared" si="1"/>
-        <v>82.8125</v>
+        <v>81.25</v>
       </c>
     </row>
     <row r="26" spans="1:22" x14ac:dyDescent="0.45">
@@ -17115,7 +17926,7 @@
         <v>24</v>
       </c>
       <c r="T26">
-        <v>0.140625</v>
+        <v>0.125</v>
       </c>
       <c r="U26">
         <f t="shared" si="0"/>
@@ -17123,7 +17934,7 @@
       </c>
       <c r="V26">
         <f t="shared" si="1"/>
-        <v>85.9375</v>
+        <v>87.5</v>
       </c>
     </row>
     <row r="27" spans="1:22" x14ac:dyDescent="0.45">
@@ -17131,7 +17942,7 @@
         <v>25</v>
       </c>
       <c r="T27">
-        <v>0.15625</v>
+        <v>0.1875</v>
       </c>
       <c r="U27">
         <f t="shared" si="0"/>
@@ -17139,7 +17950,7 @@
       </c>
       <c r="V27">
         <f t="shared" si="1"/>
-        <v>84.375</v>
+        <v>81.25</v>
       </c>
     </row>
     <row r="28" spans="1:22" x14ac:dyDescent="0.45">
@@ -17147,7 +17958,7 @@
         <v>26</v>
       </c>
       <c r="T28">
-        <v>0.125</v>
+        <v>0.15625</v>
       </c>
       <c r="U28">
         <f t="shared" si="0"/>
@@ -17155,7 +17966,7 @@
       </c>
       <c r="V28">
         <f t="shared" si="1"/>
-        <v>87.5</v>
+        <v>84.375</v>
       </c>
     </row>
     <row r="29" spans="1:22" x14ac:dyDescent="0.45">
@@ -17195,7 +18006,7 @@
         <v>29</v>
       </c>
       <c r="T31">
-        <v>0.171875</v>
+        <v>0.203125</v>
       </c>
       <c r="U31">
         <f t="shared" si="0"/>
@@ -17203,7 +18014,7 @@
       </c>
       <c r="V31">
         <f t="shared" si="1"/>
-        <v>82.8125</v>
+        <v>79.6875</v>
       </c>
     </row>
     <row r="32" spans="1:22" x14ac:dyDescent="0.45">
@@ -17211,7 +18022,7 @@
         <v>30</v>
       </c>
       <c r="T32">
-        <v>0.125</v>
+        <v>0.1875</v>
       </c>
       <c r="U32">
         <f t="shared" si="0"/>
@@ -17219,7 +18030,7 @@
       </c>
       <c r="V32">
         <f t="shared" si="1"/>
-        <v>87.5</v>
+        <v>81.25</v>
       </c>
     </row>
     <row r="33" spans="19:22" x14ac:dyDescent="0.45">
@@ -17227,7 +18038,7 @@
         <v>31</v>
       </c>
       <c r="T33">
-        <v>0.15625</v>
+        <v>0.21875</v>
       </c>
       <c r="U33">
         <f t="shared" si="0"/>
@@ -17235,7 +18046,7 @@
       </c>
       <c r="V33">
         <f t="shared" si="1"/>
-        <v>84.375</v>
+        <v>78.125</v>
       </c>
     </row>
     <row r="34" spans="19:22" x14ac:dyDescent="0.45">
@@ -17243,7 +18054,7 @@
         <v>32</v>
       </c>
       <c r="T34">
-        <v>7.8125E-2</v>
+        <v>0.140625</v>
       </c>
       <c r="U34">
         <f t="shared" si="0"/>
@@ -17251,7 +18062,7 @@
       </c>
       <c r="V34">
         <f t="shared" si="1"/>
-        <v>92.1875</v>
+        <v>85.9375</v>
       </c>
     </row>
     <row r="35" spans="19:22" x14ac:dyDescent="0.45">
@@ -17259,7 +18070,7 @@
         <v>33</v>
       </c>
       <c r="T35">
-        <v>0.140625</v>
+        <v>0.203125</v>
       </c>
       <c r="U35">
         <f t="shared" si="0"/>
@@ -17267,7 +18078,7 @@
       </c>
       <c r="V35">
         <f t="shared" si="1"/>
-        <v>85.9375</v>
+        <v>79.6875</v>
       </c>
     </row>
     <row r="36" spans="19:22" x14ac:dyDescent="0.45">
@@ -17275,7 +18086,7 @@
         <v>34</v>
       </c>
       <c r="T36">
-        <v>0.140625</v>
+        <v>0.125</v>
       </c>
       <c r="U36">
         <f t="shared" si="0"/>
@@ -17283,7 +18094,7 @@
       </c>
       <c r="V36">
         <f t="shared" si="1"/>
-        <v>85.9375</v>
+        <v>87.5</v>
       </c>
     </row>
     <row r="37" spans="19:22" x14ac:dyDescent="0.45">
@@ -17307,7 +18118,7 @@
         <v>36</v>
       </c>
       <c r="T38">
-        <v>9.375E-2</v>
+        <v>0.109375</v>
       </c>
       <c r="U38">
         <f t="shared" si="0"/>
@@ -17315,7 +18126,7 @@
       </c>
       <c r="V38">
         <f t="shared" si="1"/>
-        <v>90.625</v>
+        <v>89.0625</v>
       </c>
     </row>
     <row r="39" spans="19:22" x14ac:dyDescent="0.45">
@@ -17323,7 +18134,7 @@
         <v>37</v>
       </c>
       <c r="T39">
-        <v>0.15625</v>
+        <v>0.171875</v>
       </c>
       <c r="U39">
         <f t="shared" si="0"/>
@@ -17331,7 +18142,7 @@
       </c>
       <c r="V39">
         <f t="shared" si="1"/>
-        <v>84.375</v>
+        <v>82.8125</v>
       </c>
     </row>
     <row r="40" spans="19:22" x14ac:dyDescent="0.45">
@@ -17339,7 +18150,7 @@
         <v>38</v>
       </c>
       <c r="T40">
-        <v>0.125</v>
+        <v>9.375E-2</v>
       </c>
       <c r="U40">
         <f t="shared" si="0"/>
@@ -17347,7 +18158,7 @@
       </c>
       <c r="V40">
         <f t="shared" si="1"/>
-        <v>87.5</v>
+        <v>90.625</v>
       </c>
     </row>
     <row r="41" spans="19:22" x14ac:dyDescent="0.45">
@@ -17355,7 +18166,7 @@
         <v>39</v>
       </c>
       <c r="T41">
-        <v>9.375E-2</v>
+        <v>0.125</v>
       </c>
       <c r="U41">
         <f t="shared" si="0"/>
@@ -17363,7 +18174,7 @@
       </c>
       <c r="V41">
         <f t="shared" si="1"/>
-        <v>90.625</v>
+        <v>87.5</v>
       </c>
     </row>
     <row r="42" spans="19:22" x14ac:dyDescent="0.45">
@@ -17371,7 +18182,7 @@
         <v>40</v>
       </c>
       <c r="T42">
-        <v>9.375E-2</v>
+        <v>0.140625</v>
       </c>
       <c r="U42">
         <f t="shared" si="0"/>
@@ -17379,7 +18190,7 @@
       </c>
       <c r="V42">
         <f t="shared" si="1"/>
-        <v>90.625</v>
+        <v>85.9375</v>
       </c>
     </row>
     <row r="43" spans="19:22" x14ac:dyDescent="0.45">
@@ -17387,7 +18198,7 @@
         <v>41</v>
       </c>
       <c r="T43">
-        <v>7.8125E-2</v>
+        <v>0.140625</v>
       </c>
       <c r="U43">
         <f t="shared" si="0"/>
@@ -17395,7 +18206,7 @@
       </c>
       <c r="V43">
         <f t="shared" si="1"/>
-        <v>92.1875</v>
+        <v>85.9375</v>
       </c>
     </row>
     <row r="44" spans="19:22" x14ac:dyDescent="0.45">
@@ -17403,7 +18214,7 @@
         <v>42</v>
       </c>
       <c r="T44">
-        <v>0.109375</v>
+        <v>0.25</v>
       </c>
       <c r="U44">
         <f t="shared" si="0"/>
@@ -17411,7 +18222,7 @@
       </c>
       <c r="V44">
         <f t="shared" si="1"/>
-        <v>89.0625</v>
+        <v>75</v>
       </c>
     </row>
     <row r="45" spans="19:22" x14ac:dyDescent="0.45">
@@ -17419,7 +18230,7 @@
         <v>43</v>
       </c>
       <c r="T45">
-        <v>0.125</v>
+        <v>0.234375</v>
       </c>
       <c r="U45">
         <f t="shared" si="0"/>
@@ -17427,7 +18238,7 @@
       </c>
       <c r="V45">
         <f t="shared" si="1"/>
-        <v>87.5</v>
+        <v>76.5625</v>
       </c>
     </row>
     <row r="46" spans="19:22" x14ac:dyDescent="0.45">
@@ -17435,7 +18246,7 @@
         <v>44</v>
       </c>
       <c r="T46">
-        <v>0.15625</v>
+        <v>0.171875</v>
       </c>
       <c r="U46">
         <f t="shared" si="0"/>
@@ -17443,7 +18254,7 @@
       </c>
       <c r="V46">
         <f t="shared" si="1"/>
-        <v>84.375</v>
+        <v>82.8125</v>
       </c>
     </row>
     <row r="47" spans="19:22" x14ac:dyDescent="0.45">
@@ -17451,7 +18262,7 @@
         <v>45</v>
       </c>
       <c r="T47">
-        <v>9.375E-2</v>
+        <v>0.140625</v>
       </c>
       <c r="U47">
         <f t="shared" si="0"/>
@@ -17459,7 +18270,7 @@
       </c>
       <c r="V47">
         <f t="shared" si="1"/>
-        <v>90.625</v>
+        <v>85.9375</v>
       </c>
     </row>
     <row r="48" spans="19:22" x14ac:dyDescent="0.45">
@@ -17467,7 +18278,7 @@
         <v>46</v>
       </c>
       <c r="T48">
-        <v>0.109375</v>
+        <v>0.140625</v>
       </c>
       <c r="U48">
         <f t="shared" si="0"/>
@@ -17475,7 +18286,7 @@
       </c>
       <c r="V48">
         <f t="shared" si="1"/>
-        <v>89.0625</v>
+        <v>85.9375</v>
       </c>
     </row>
     <row r="49" spans="19:22" x14ac:dyDescent="0.45">
@@ -17499,7 +18310,7 @@
         <v>48</v>
       </c>
       <c r="T50">
-        <v>0.140625</v>
+        <v>0.125</v>
       </c>
       <c r="U50">
         <f t="shared" si="0"/>
@@ -17507,7 +18318,7 @@
       </c>
       <c r="V50">
         <f t="shared" si="1"/>
-        <v>85.9375</v>
+        <v>87.5</v>
       </c>
     </row>
     <row r="51" spans="19:22" x14ac:dyDescent="0.45">
@@ -17515,7 +18326,7 @@
         <v>49</v>
       </c>
       <c r="T51">
-        <v>0.171875</v>
+        <v>0.203125</v>
       </c>
       <c r="U51">
         <f t="shared" si="0"/>
@@ -17523,7 +18334,7 @@
       </c>
       <c r="V51">
         <f t="shared" si="1"/>
-        <v>82.8125</v>
+        <v>79.6875</v>
       </c>
     </row>
     <row r="52" spans="19:22" x14ac:dyDescent="0.45">
@@ -17531,7 +18342,7 @@
         <v>50</v>
       </c>
       <c r="T52">
-        <v>0.125</v>
+        <v>0.109375</v>
       </c>
       <c r="U52">
         <f t="shared" si="0"/>
@@ -17539,7 +18350,7 @@
       </c>
       <c r="V52">
         <f t="shared" si="1"/>
-        <v>87.5</v>
+        <v>89.0625</v>
       </c>
     </row>
     <row r="53" spans="19:22" x14ac:dyDescent="0.45">
@@ -17547,7 +18358,7 @@
         <v>51</v>
       </c>
       <c r="T53">
-        <v>0.171875</v>
+        <v>0.125</v>
       </c>
       <c r="U53">
         <f t="shared" si="0"/>
@@ -17555,7 +18366,7 @@
       </c>
       <c r="V53">
         <f t="shared" si="1"/>
-        <v>82.8125</v>
+        <v>87.5</v>
       </c>
     </row>
     <row r="54" spans="19:22" x14ac:dyDescent="0.45">
@@ -17563,7 +18374,7 @@
         <v>52</v>
       </c>
       <c r="T54">
-        <v>0.125</v>
+        <v>9.375E-2</v>
       </c>
       <c r="U54">
         <f t="shared" si="0"/>
@@ -17571,7 +18382,7 @@
       </c>
       <c r="V54">
         <f t="shared" si="1"/>
-        <v>87.5</v>
+        <v>90.625</v>
       </c>
     </row>
     <row r="55" spans="19:22" x14ac:dyDescent="0.45">
@@ -17579,7 +18390,7 @@
         <v>53</v>
       </c>
       <c r="T55">
-        <v>7.8125E-2</v>
+        <v>0.125</v>
       </c>
       <c r="U55">
         <f t="shared" si="0"/>
@@ -17587,7 +18398,7 @@
       </c>
       <c r="V55">
         <f t="shared" si="1"/>
-        <v>92.1875</v>
+        <v>87.5</v>
       </c>
     </row>
     <row r="56" spans="19:22" x14ac:dyDescent="0.45">
@@ -17595,7 +18406,7 @@
         <v>54</v>
       </c>
       <c r="T56">
-        <v>0.140625</v>
+        <v>0.109375</v>
       </c>
       <c r="U56">
         <f t="shared" si="0"/>
@@ -17603,7 +18414,7 @@
       </c>
       <c r="V56">
         <f t="shared" si="1"/>
-        <v>85.9375</v>
+        <v>89.0625</v>
       </c>
     </row>
     <row r="57" spans="19:22" x14ac:dyDescent="0.45">
@@ -17611,7 +18422,7 @@
         <v>55</v>
       </c>
       <c r="T57">
-        <v>0.140625</v>
+        <v>9.375E-2</v>
       </c>
       <c r="U57">
         <f t="shared" si="0"/>
@@ -17619,7 +18430,7 @@
       </c>
       <c r="V57">
         <f t="shared" si="1"/>
-        <v>85.9375</v>
+        <v>90.625</v>
       </c>
     </row>
     <row r="58" spans="19:22" x14ac:dyDescent="0.45">
@@ -17627,7 +18438,7 @@
         <v>56</v>
       </c>
       <c r="T58">
-        <v>0.109375</v>
+        <v>0.15625</v>
       </c>
       <c r="U58">
         <f t="shared" si="0"/>
@@ -17635,7 +18446,7 @@
       </c>
       <c r="V58">
         <f t="shared" si="1"/>
-        <v>89.0625</v>
+        <v>84.375</v>
       </c>
     </row>
     <row r="59" spans="19:22" x14ac:dyDescent="0.45">
@@ -17643,7 +18454,7 @@
         <v>57</v>
       </c>
       <c r="T59">
-        <v>0.140625</v>
+        <v>0.125</v>
       </c>
       <c r="U59">
         <f t="shared" si="0"/>
@@ -17651,7 +18462,7 @@
       </c>
       <c r="V59">
         <f t="shared" si="1"/>
-        <v>85.9375</v>
+        <v>87.5</v>
       </c>
     </row>
     <row r="60" spans="19:22" x14ac:dyDescent="0.45">
@@ -17659,7 +18470,7 @@
         <v>58</v>
       </c>
       <c r="T60">
-        <v>0.140625</v>
+        <v>0.171875</v>
       </c>
       <c r="U60">
         <f t="shared" si="0"/>
@@ -17667,7 +18478,7 @@
       </c>
       <c r="V60">
         <f t="shared" si="1"/>
-        <v>85.9375</v>
+        <v>82.8125</v>
       </c>
     </row>
     <row r="61" spans="19:22" x14ac:dyDescent="0.45">
@@ -17691,7 +18502,7 @@
         <v>60</v>
       </c>
       <c r="T62">
-        <v>0.15625</v>
+        <v>0.125</v>
       </c>
       <c r="U62">
         <f t="shared" si="0"/>
@@ -17699,7 +18510,7 @@
       </c>
       <c r="V62">
         <f t="shared" si="1"/>
-        <v>84.375</v>
+        <v>87.5</v>
       </c>
     </row>
     <row r="63" spans="19:22" x14ac:dyDescent="0.45">
@@ -17707,7 +18518,7 @@
         <v>61</v>
       </c>
       <c r="T63">
-        <v>0.140625</v>
+        <v>0.1875</v>
       </c>
       <c r="U63">
         <f t="shared" si="0"/>
@@ -17715,7 +18526,7 @@
       </c>
       <c r="V63">
         <f t="shared" si="1"/>
-        <v>85.9375</v>
+        <v>81.25</v>
       </c>
     </row>
     <row r="64" spans="19:22" x14ac:dyDescent="0.45">
@@ -17723,7 +18534,7 @@
         <v>62</v>
       </c>
       <c r="T64">
-        <v>0.140625</v>
+        <v>0.125</v>
       </c>
       <c r="U64">
         <f t="shared" si="0"/>
@@ -17731,7 +18542,7 @@
       </c>
       <c r="V64">
         <f t="shared" si="1"/>
-        <v>85.9375</v>
+        <v>87.5</v>
       </c>
     </row>
     <row r="65" spans="19:22" x14ac:dyDescent="0.45">
@@ -17739,7 +18550,7 @@
         <v>63</v>
       </c>
       <c r="T65">
-        <v>0.109375</v>
+        <v>0.125</v>
       </c>
       <c r="U65">
         <f t="shared" si="0"/>
@@ -17747,7 +18558,7 @@
       </c>
       <c r="V65">
         <f t="shared" si="1"/>
-        <v>89.0625</v>
+        <v>87.5</v>
       </c>
     </row>
     <row r="66" spans="19:22" x14ac:dyDescent="0.45">
@@ -17755,7 +18566,7 @@
         <v>64</v>
       </c>
       <c r="T66">
-        <v>0.203125</v>
+        <v>0.125</v>
       </c>
       <c r="U66">
         <f t="shared" si="0"/>
@@ -17763,7 +18574,7 @@
       </c>
       <c r="V66">
         <f t="shared" si="1"/>
-        <v>79.6875</v>
+        <v>87.5</v>
       </c>
     </row>
     <row r="67" spans="19:22" x14ac:dyDescent="0.45">
@@ -17771,7 +18582,7 @@
         <v>65</v>
       </c>
       <c r="T67">
-        <v>0.125</v>
+        <v>0.140625</v>
       </c>
       <c r="U67">
         <f t="shared" ref="U67:U101" si="2" xml:space="preserve"> 1+S67</f>
@@ -17779,7 +18590,7 @@
       </c>
       <c r="V67">
         <f t="shared" ref="V67:V101" si="3" xml:space="preserve"> (1-T67)*100</f>
-        <v>87.5</v>
+        <v>85.9375</v>
       </c>
     </row>
     <row r="68" spans="19:22" x14ac:dyDescent="0.45">
@@ -17803,7 +18614,7 @@
         <v>67</v>
       </c>
       <c r="T69">
-        <v>0.125</v>
+        <v>0.109375</v>
       </c>
       <c r="U69">
         <f t="shared" si="2"/>
@@ -17811,7 +18622,7 @@
       </c>
       <c r="V69">
         <f t="shared" si="3"/>
-        <v>87.5</v>
+        <v>89.0625</v>
       </c>
     </row>
     <row r="70" spans="19:22" x14ac:dyDescent="0.45">
@@ -17819,7 +18630,7 @@
         <v>68</v>
       </c>
       <c r="T70">
-        <v>0.109375</v>
+        <v>0.15625</v>
       </c>
       <c r="U70">
         <f t="shared" si="2"/>
@@ -17827,7 +18638,7 @@
       </c>
       <c r="V70">
         <f t="shared" si="3"/>
-        <v>89.0625</v>
+        <v>84.375</v>
       </c>
     </row>
     <row r="71" spans="19:22" x14ac:dyDescent="0.45">
@@ -17851,7 +18662,7 @@
         <v>70</v>
       </c>
       <c r="T72">
-        <v>0.125</v>
+        <v>0.15625</v>
       </c>
       <c r="U72">
         <f t="shared" si="2"/>
@@ -17859,7 +18670,7 @@
       </c>
       <c r="V72">
         <f t="shared" si="3"/>
-        <v>87.5</v>
+        <v>84.375</v>
       </c>
     </row>
     <row r="73" spans="19:22" x14ac:dyDescent="0.45">
@@ -17867,7 +18678,7 @@
         <v>71</v>
       </c>
       <c r="T73">
-        <v>0.109375</v>
+        <v>0.15625</v>
       </c>
       <c r="U73">
         <f t="shared" si="2"/>
@@ -17875,7 +18686,7 @@
       </c>
       <c r="V73">
         <f t="shared" si="3"/>
-        <v>89.0625</v>
+        <v>84.375</v>
       </c>
     </row>
     <row r="74" spans="19:22" x14ac:dyDescent="0.45">
@@ -17883,7 +18694,7 @@
         <v>72</v>
       </c>
       <c r="T74">
-        <v>0.109375</v>
+        <v>0.171875</v>
       </c>
       <c r="U74">
         <f t="shared" si="2"/>
@@ -17891,7 +18702,7 @@
       </c>
       <c r="V74">
         <f t="shared" si="3"/>
-        <v>89.0625</v>
+        <v>82.8125</v>
       </c>
     </row>
     <row r="75" spans="19:22" x14ac:dyDescent="0.45">
@@ -17915,7 +18726,7 @@
         <v>74</v>
       </c>
       <c r="T76">
-        <v>0.140625</v>
+        <v>0.15625</v>
       </c>
       <c r="U76">
         <f t="shared" si="2"/>
@@ -17923,7 +18734,7 @@
       </c>
       <c r="V76">
         <f t="shared" si="3"/>
-        <v>85.9375</v>
+        <v>84.375</v>
       </c>
     </row>
     <row r="77" spans="19:22" x14ac:dyDescent="0.45">
@@ -17931,7 +18742,7 @@
         <v>75</v>
       </c>
       <c r="T77">
-        <v>0.125</v>
+        <v>0.15625</v>
       </c>
       <c r="U77">
         <f t="shared" si="2"/>
@@ -17939,7 +18750,7 @@
       </c>
       <c r="V77">
         <f t="shared" si="3"/>
-        <v>87.5</v>
+        <v>84.375</v>
       </c>
     </row>
     <row r="78" spans="19:22" x14ac:dyDescent="0.45">
@@ -17947,7 +18758,7 @@
         <v>76</v>
       </c>
       <c r="T78">
-        <v>0.140625</v>
+        <v>0.109375</v>
       </c>
       <c r="U78">
         <f t="shared" si="2"/>
@@ -17955,7 +18766,7 @@
       </c>
       <c r="V78">
         <f t="shared" si="3"/>
-        <v>85.9375</v>
+        <v>89.0625</v>
       </c>
     </row>
     <row r="79" spans="19:22" x14ac:dyDescent="0.45">
@@ -17963,7 +18774,7 @@
         <v>77</v>
       </c>
       <c r="T79">
-        <v>0.140625</v>
+        <v>0.15625</v>
       </c>
       <c r="U79">
         <f t="shared" si="2"/>
@@ -17971,7 +18782,7 @@
       </c>
       <c r="V79">
         <f t="shared" si="3"/>
-        <v>85.9375</v>
+        <v>84.375</v>
       </c>
     </row>
     <row r="80" spans="19:22" x14ac:dyDescent="0.45">
@@ -17979,7 +18790,7 @@
         <v>78</v>
       </c>
       <c r="T80">
-        <v>0.109375</v>
+        <v>0.140625</v>
       </c>
       <c r="U80">
         <f t="shared" si="2"/>
@@ -17987,7 +18798,7 @@
       </c>
       <c r="V80">
         <f t="shared" si="3"/>
-        <v>89.0625</v>
+        <v>85.9375</v>
       </c>
     </row>
     <row r="81" spans="19:22" x14ac:dyDescent="0.45">
@@ -18011,7 +18822,7 @@
         <v>80</v>
       </c>
       <c r="T82">
-        <v>7.8125E-2</v>
+        <v>0.140625</v>
       </c>
       <c r="U82">
         <f t="shared" si="2"/>
@@ -18019,7 +18830,7 @@
       </c>
       <c r="V82">
         <f t="shared" si="3"/>
-        <v>92.1875</v>
+        <v>85.9375</v>
       </c>
     </row>
     <row r="83" spans="19:22" x14ac:dyDescent="0.45">
@@ -18027,7 +18838,7 @@
         <v>81</v>
       </c>
       <c r="T83">
-        <v>7.8125E-2</v>
+        <v>0.203125</v>
       </c>
       <c r="U83">
         <f t="shared" si="2"/>
@@ -18035,7 +18846,7 @@
       </c>
       <c r="V83">
         <f t="shared" si="3"/>
-        <v>92.1875</v>
+        <v>79.6875</v>
       </c>
     </row>
     <row r="84" spans="19:22" x14ac:dyDescent="0.45">
@@ -18043,7 +18854,7 @@
         <v>82</v>
       </c>
       <c r="T84">
-        <v>7.8125E-2</v>
+        <v>0.140625</v>
       </c>
       <c r="U84">
         <f t="shared" si="2"/>
@@ -18051,7 +18862,7 @@
       </c>
       <c r="V84">
         <f t="shared" si="3"/>
-        <v>92.1875</v>
+        <v>85.9375</v>
       </c>
     </row>
     <row r="85" spans="19:22" x14ac:dyDescent="0.45">
@@ -18059,7 +18870,7 @@
         <v>83</v>
       </c>
       <c r="T85">
-        <v>9.375E-2</v>
+        <v>0.125</v>
       </c>
       <c r="U85">
         <f t="shared" si="2"/>
@@ -18067,7 +18878,7 @@
       </c>
       <c r="V85">
         <f t="shared" si="3"/>
-        <v>90.625</v>
+        <v>87.5</v>
       </c>
     </row>
     <row r="86" spans="19:22" x14ac:dyDescent="0.45">
@@ -18091,7 +18902,7 @@
         <v>85</v>
       </c>
       <c r="T87">
-        <v>9.375E-2</v>
+        <v>0.125</v>
       </c>
       <c r="U87">
         <f t="shared" si="2"/>
@@ -18099,7 +18910,7 @@
       </c>
       <c r="V87">
         <f t="shared" si="3"/>
-        <v>90.625</v>
+        <v>87.5</v>
       </c>
     </row>
     <row r="88" spans="19:22" x14ac:dyDescent="0.45">
@@ -18107,7 +18918,7 @@
         <v>86</v>
       </c>
       <c r="T88">
-        <v>0.109375</v>
+        <v>0.140625</v>
       </c>
       <c r="U88">
         <f t="shared" si="2"/>
@@ -18115,7 +18926,7 @@
       </c>
       <c r="V88">
         <f t="shared" si="3"/>
-        <v>89.0625</v>
+        <v>85.9375</v>
       </c>
     </row>
     <row r="89" spans="19:22" x14ac:dyDescent="0.45">
@@ -18123,7 +18934,7 @@
         <v>87</v>
       </c>
       <c r="T89">
-        <v>0.109375</v>
+        <v>0.125</v>
       </c>
       <c r="U89">
         <f t="shared" si="2"/>
@@ -18131,7 +18942,7 @@
       </c>
       <c r="V89">
         <f t="shared" si="3"/>
-        <v>89.0625</v>
+        <v>87.5</v>
       </c>
     </row>
     <row r="90" spans="19:22" x14ac:dyDescent="0.45">
@@ -18139,7 +18950,7 @@
         <v>88</v>
       </c>
       <c r="T90">
-        <v>9.375E-2</v>
+        <v>0.125</v>
       </c>
       <c r="U90">
         <f t="shared" si="2"/>
@@ -18147,7 +18958,7 @@
       </c>
       <c r="V90">
         <f t="shared" si="3"/>
-        <v>90.625</v>
+        <v>87.5</v>
       </c>
     </row>
     <row r="91" spans="19:22" x14ac:dyDescent="0.45">
@@ -18155,7 +18966,7 @@
         <v>89</v>
       </c>
       <c r="T91">
-        <v>0.109375</v>
+        <v>0.125</v>
       </c>
       <c r="U91">
         <f t="shared" si="2"/>
@@ -18163,7 +18974,7 @@
       </c>
       <c r="V91">
         <f t="shared" si="3"/>
-        <v>89.0625</v>
+        <v>87.5</v>
       </c>
     </row>
     <row r="92" spans="19:22" x14ac:dyDescent="0.45">
@@ -18171,7 +18982,7 @@
         <v>90</v>
       </c>
       <c r="T92">
-        <v>0.109375</v>
+        <v>0.125</v>
       </c>
       <c r="U92">
         <f t="shared" si="2"/>
@@ -18179,7 +18990,7 @@
       </c>
       <c r="V92">
         <f t="shared" si="3"/>
-        <v>89.0625</v>
+        <v>87.5</v>
       </c>
     </row>
     <row r="93" spans="19:22" x14ac:dyDescent="0.45">
@@ -18187,7 +18998,7 @@
         <v>91</v>
       </c>
       <c r="T93">
-        <v>0.109375</v>
+        <v>0.125</v>
       </c>
       <c r="U93">
         <f t="shared" si="2"/>
@@ -18195,7 +19006,7 @@
       </c>
       <c r="V93">
         <f t="shared" si="3"/>
-        <v>89.0625</v>
+        <v>87.5</v>
       </c>
     </row>
     <row r="94" spans="19:22" x14ac:dyDescent="0.45">
@@ -18203,7 +19014,7 @@
         <v>92</v>
       </c>
       <c r="T94">
-        <v>0.109375</v>
+        <v>0.125</v>
       </c>
       <c r="U94">
         <f t="shared" si="2"/>
@@ -18211,7 +19022,7 @@
       </c>
       <c r="V94">
         <f t="shared" si="3"/>
-        <v>89.0625</v>
+        <v>87.5</v>
       </c>
     </row>
     <row r="95" spans="19:22" x14ac:dyDescent="0.45">
@@ -18219,7 +19030,7 @@
         <v>93</v>
       </c>
       <c r="T95">
-        <v>0.109375</v>
+        <v>0.125</v>
       </c>
       <c r="U95">
         <f t="shared" si="2"/>
@@ -18227,7 +19038,7 @@
       </c>
       <c r="V95">
         <f t="shared" si="3"/>
-        <v>89.0625</v>
+        <v>87.5</v>
       </c>
     </row>
     <row r="96" spans="19:22" x14ac:dyDescent="0.45">
@@ -18235,7 +19046,7 @@
         <v>94</v>
       </c>
       <c r="T96">
-        <v>0.109375</v>
+        <v>0.125</v>
       </c>
       <c r="U96">
         <f t="shared" si="2"/>
@@ -18243,7 +19054,7 @@
       </c>
       <c r="V96">
         <f t="shared" si="3"/>
-        <v>89.0625</v>
+        <v>87.5</v>
       </c>
     </row>
     <row r="97" spans="19:22" x14ac:dyDescent="0.45">
@@ -18251,7 +19062,7 @@
         <v>95</v>
       </c>
       <c r="T97">
-        <v>0.109375</v>
+        <v>0.125</v>
       </c>
       <c r="U97">
         <f t="shared" si="2"/>
@@ -18259,7 +19070,7 @@
       </c>
       <c r="V97">
         <f t="shared" si="3"/>
-        <v>89.0625</v>
+        <v>87.5</v>
       </c>
     </row>
     <row r="98" spans="19:22" x14ac:dyDescent="0.45">
@@ -18267,7 +19078,7 @@
         <v>96</v>
       </c>
       <c r="T98">
-        <v>0.109375</v>
+        <v>0.125</v>
       </c>
       <c r="U98">
         <f t="shared" si="2"/>
@@ -18275,7 +19086,7 @@
       </c>
       <c r="V98">
         <f t="shared" si="3"/>
-        <v>89.0625</v>
+        <v>87.5</v>
       </c>
     </row>
     <row r="99" spans="19:22" x14ac:dyDescent="0.45">
@@ -18283,7 +19094,7 @@
         <v>97</v>
       </c>
       <c r="T99">
-        <v>0.109375</v>
+        <v>0.125</v>
       </c>
       <c r="U99">
         <f t="shared" si="2"/>
@@ -18291,7 +19102,7 @@
       </c>
       <c r="V99">
         <f t="shared" si="3"/>
-        <v>89.0625</v>
+        <v>87.5</v>
       </c>
     </row>
     <row r="100" spans="19:22" x14ac:dyDescent="0.45">
@@ -18299,7 +19110,7 @@
         <v>98</v>
       </c>
       <c r="T100">
-        <v>0.109375</v>
+        <v>0.125</v>
       </c>
       <c r="U100">
         <f t="shared" si="2"/>
@@ -18307,7 +19118,7 @@
       </c>
       <c r="V100">
         <f t="shared" si="3"/>
-        <v>89.0625</v>
+        <v>87.5</v>
       </c>
     </row>
     <row r="101" spans="19:22" x14ac:dyDescent="0.45">
@@ -18315,25 +19126,435 @@
         <v>99</v>
       </c>
       <c r="T101">
+        <v>0.125</v>
+      </c>
+      <c r="U101">
+        <f t="shared" si="2"/>
+        <v>100</v>
+      </c>
+      <c r="V101">
+        <f t="shared" si="3"/>
+        <v>87.5</v>
+      </c>
+    </row>
+    <row r="102" spans="19:22" x14ac:dyDescent="0.45">
+      <c r="S102" t="s">
+        <v>9</v>
+      </c>
+      <c r="T102">
+        <v>0.125</v>
+      </c>
+    </row>
+    <row r="103" spans="19:22" x14ac:dyDescent="0.45">
+      <c r="S103" t="s">
+        <v>9</v>
+      </c>
+      <c r="T103">
+        <v>0.125</v>
+      </c>
+    </row>
+    <row r="104" spans="19:22" x14ac:dyDescent="0.45">
+      <c r="S104" t="s">
+        <v>9</v>
+      </c>
+      <c r="T104">
+        <v>7.8125E-2</v>
+      </c>
+    </row>
+    <row r="105" spans="19:22" x14ac:dyDescent="0.45">
+      <c r="S105" t="s">
+        <v>9</v>
+      </c>
+      <c r="T105">
+        <v>9.375E-2</v>
+      </c>
+    </row>
+    <row r="106" spans="19:22" x14ac:dyDescent="0.45">
+      <c r="S106" t="s">
+        <v>9</v>
+      </c>
+      <c r="T106">
+        <v>0.140625</v>
+      </c>
+    </row>
+    <row r="107" spans="19:22" x14ac:dyDescent="0.45">
+      <c r="S107" t="s">
+        <v>9</v>
+      </c>
+      <c r="T107">
+        <v>7.8125E-2</v>
+      </c>
+    </row>
+    <row r="108" spans="19:22" x14ac:dyDescent="0.45">
+      <c r="S108" t="s">
+        <v>9</v>
+      </c>
+      <c r="T108">
         <v>0.109375</v>
       </c>
-      <c r="U101">
-        <f t="shared" si="2"/>
-        <v>100</v>
-      </c>
-      <c r="V101">
-        <f t="shared" si="3"/>
-        <v>89.0625</v>
+    </row>
+    <row r="109" spans="19:22" x14ac:dyDescent="0.45">
+      <c r="S109" t="s">
+        <v>9</v>
+      </c>
+      <c r="T109">
+        <v>0.15625</v>
+      </c>
+    </row>
+    <row r="110" spans="19:22" x14ac:dyDescent="0.45">
+      <c r="S110" t="s">
+        <v>9</v>
+      </c>
+      <c r="T110">
+        <v>4.6875E-2</v>
+      </c>
+    </row>
+    <row r="111" spans="19:22" x14ac:dyDescent="0.45">
+      <c r="S111" t="s">
+        <v>9</v>
+      </c>
+      <c r="T111">
+        <v>0.125</v>
+      </c>
+    </row>
+    <row r="112" spans="19:22" x14ac:dyDescent="0.45">
+      <c r="S112" t="s">
+        <v>9</v>
+      </c>
+      <c r="T112">
+        <v>4.6875E-2</v>
+      </c>
+    </row>
+    <row r="113" spans="19:20" x14ac:dyDescent="0.45">
+      <c r="S113" t="s">
+        <v>9</v>
+      </c>
+      <c r="T113">
+        <v>0.171875</v>
+      </c>
+    </row>
+    <row r="114" spans="19:20" x14ac:dyDescent="0.45">
+      <c r="S114" t="s">
+        <v>9</v>
+      </c>
+      <c r="T114">
+        <v>0.140625</v>
+      </c>
+    </row>
+    <row r="115" spans="19:20" x14ac:dyDescent="0.45">
+      <c r="S115" t="s">
+        <v>9</v>
+      </c>
+      <c r="T115">
+        <v>0.109375</v>
+      </c>
+    </row>
+    <row r="116" spans="19:20" x14ac:dyDescent="0.45">
+      <c r="S116" t="s">
+        <v>9</v>
+      </c>
+      <c r="T116">
+        <v>7.8125E-2</v>
+      </c>
+    </row>
+    <row r="117" spans="19:20" x14ac:dyDescent="0.45">
+      <c r="S117" t="s">
+        <v>9</v>
+      </c>
+      <c r="T117">
+        <v>0.140625</v>
+      </c>
+    </row>
+    <row r="118" spans="19:20" x14ac:dyDescent="0.45">
+      <c r="S118" t="s">
+        <v>9</v>
+      </c>
+      <c r="T118">
+        <v>0.171875</v>
+      </c>
+    </row>
+    <row r="119" spans="19:20" x14ac:dyDescent="0.45">
+      <c r="S119" t="s">
+        <v>9</v>
+      </c>
+      <c r="T119">
+        <v>0.15625</v>
+      </c>
+    </row>
+    <row r="120" spans="19:20" x14ac:dyDescent="0.45">
+      <c r="S120" t="s">
+        <v>9</v>
+      </c>
+      <c r="T120">
+        <v>0.125</v>
+      </c>
+    </row>
+    <row r="121" spans="19:20" x14ac:dyDescent="0.45">
+      <c r="S121" t="s">
+        <v>9</v>
+      </c>
+      <c r="T121">
+        <v>9.375E-2</v>
+      </c>
+    </row>
+    <row r="122" spans="19:20" x14ac:dyDescent="0.45">
+      <c r="S122" t="s">
+        <v>9</v>
+      </c>
+      <c r="T122">
+        <v>6.25E-2</v>
+      </c>
+    </row>
+    <row r="123" spans="19:20" x14ac:dyDescent="0.45">
+      <c r="S123" t="s">
+        <v>9</v>
+      </c>
+      <c r="T123">
+        <v>9.375E-2</v>
+      </c>
+    </row>
+    <row r="124" spans="19:20" x14ac:dyDescent="0.45">
+      <c r="S124" t="s">
+        <v>9</v>
+      </c>
+      <c r="T124">
+        <v>0.125</v>
+      </c>
+    </row>
+    <row r="125" spans="19:20" x14ac:dyDescent="0.45">
+      <c r="S125" t="s">
+        <v>9</v>
+      </c>
+      <c r="T125">
+        <v>7.8125E-2</v>
+      </c>
+    </row>
+    <row r="126" spans="19:20" x14ac:dyDescent="0.45">
+      <c r="S126" t="s">
+        <v>9</v>
+      </c>
+      <c r="T126">
+        <v>0.125</v>
+      </c>
+    </row>
+    <row r="127" spans="19:20" x14ac:dyDescent="0.45">
+      <c r="S127" t="s">
+        <v>9</v>
+      </c>
+      <c r="T127">
+        <v>7.8125E-2</v>
+      </c>
+    </row>
+    <row r="128" spans="19:20" x14ac:dyDescent="0.45">
+      <c r="S128" t="s">
+        <v>9</v>
+      </c>
+      <c r="T128">
+        <v>0.125</v>
+      </c>
+    </row>
+    <row r="129" spans="19:20" x14ac:dyDescent="0.45">
+      <c r="S129" t="s">
+        <v>9</v>
+      </c>
+      <c r="T129">
+        <v>0.125</v>
+      </c>
+    </row>
+    <row r="130" spans="19:20" x14ac:dyDescent="0.45">
+      <c r="S130" t="s">
+        <v>9</v>
+      </c>
+      <c r="T130">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="131" spans="19:20" x14ac:dyDescent="0.45">
+      <c r="S131" t="s">
+        <v>9</v>
+      </c>
+      <c r="T131">
+        <v>0.109375</v>
+      </c>
+    </row>
+    <row r="132" spans="19:20" x14ac:dyDescent="0.45">
+      <c r="S132" t="s">
+        <v>9</v>
+      </c>
+      <c r="T132">
+        <v>0.15625</v>
+      </c>
+    </row>
+    <row r="133" spans="19:20" x14ac:dyDescent="0.45">
+      <c r="S133" t="s">
+        <v>9</v>
+      </c>
+      <c r="T133">
+        <v>0.125</v>
+      </c>
+    </row>
+    <row r="134" spans="19:20" x14ac:dyDescent="0.45">
+      <c r="S134" t="s">
+        <v>9</v>
+      </c>
+      <c r="T134">
+        <v>0.15625</v>
+      </c>
+    </row>
+    <row r="135" spans="19:20" x14ac:dyDescent="0.45">
+      <c r="S135" t="s">
+        <v>9</v>
+      </c>
+      <c r="T135">
+        <v>0.109375</v>
+      </c>
+    </row>
+    <row r="136" spans="19:20" x14ac:dyDescent="0.45">
+      <c r="S136" t="s">
+        <v>9</v>
+      </c>
+      <c r="T136">
+        <v>0.15625</v>
+      </c>
+    </row>
+    <row r="137" spans="19:20" x14ac:dyDescent="0.45">
+      <c r="S137" t="s">
+        <v>9</v>
+      </c>
+      <c r="T137">
+        <v>0.203125</v>
+      </c>
+    </row>
+    <row r="138" spans="19:20" x14ac:dyDescent="0.45">
+      <c r="S138" t="s">
+        <v>9</v>
+      </c>
+      <c r="T138">
+        <v>6.25E-2</v>
+      </c>
+    </row>
+    <row r="139" spans="19:20" x14ac:dyDescent="0.45">
+      <c r="S139" t="s">
+        <v>9</v>
+      </c>
+      <c r="T139">
+        <v>0.109375</v>
+      </c>
+    </row>
+    <row r="140" spans="19:20" x14ac:dyDescent="0.45">
+      <c r="S140" t="s">
+        <v>9</v>
+      </c>
+      <c r="T140">
+        <v>0.109375</v>
+      </c>
+    </row>
+    <row r="141" spans="19:20" x14ac:dyDescent="0.45">
+      <c r="S141" t="s">
+        <v>9</v>
+      </c>
+      <c r="T141">
+        <v>0.171875</v>
+      </c>
+    </row>
+    <row r="142" spans="19:20" x14ac:dyDescent="0.45">
+      <c r="S142" t="s">
+        <v>9</v>
+      </c>
+      <c r="T142">
+        <v>0.125</v>
+      </c>
+    </row>
+    <row r="143" spans="19:20" x14ac:dyDescent="0.45">
+      <c r="S143" t="s">
+        <v>9</v>
+      </c>
+      <c r="T143">
+        <v>6.25E-2</v>
+      </c>
+    </row>
+    <row r="144" spans="19:20" x14ac:dyDescent="0.45">
+      <c r="S144" t="s">
+        <v>9</v>
+      </c>
+      <c r="T144">
+        <v>4.6875E-2</v>
+      </c>
+    </row>
+    <row r="145" spans="19:20" x14ac:dyDescent="0.45">
+      <c r="S145" t="s">
+        <v>9</v>
+      </c>
+      <c r="T145">
+        <v>0.203125</v>
+      </c>
+    </row>
+    <row r="146" spans="19:20" x14ac:dyDescent="0.45">
+      <c r="S146" t="s">
+        <v>9</v>
+      </c>
+      <c r="T146">
+        <v>0.21875</v>
+      </c>
+    </row>
+    <row r="147" spans="19:20" x14ac:dyDescent="0.45">
+      <c r="S147" t="s">
+        <v>9</v>
+      </c>
+      <c r="T147">
+        <v>0.125</v>
+      </c>
+    </row>
+    <row r="148" spans="19:20" x14ac:dyDescent="0.45">
+      <c r="S148" t="s">
+        <v>9</v>
+      </c>
+      <c r="T148">
+        <v>0.140625</v>
+      </c>
+    </row>
+    <row r="149" spans="19:20" x14ac:dyDescent="0.45">
+      <c r="S149" t="s">
+        <v>9</v>
+      </c>
+      <c r="T149">
+        <v>6.25E-2</v>
+      </c>
+    </row>
+    <row r="150" spans="19:20" x14ac:dyDescent="0.45">
+      <c r="S150" t="s">
+        <v>9</v>
+      </c>
+      <c r="T150">
+        <v>0.140625</v>
+      </c>
+    </row>
+    <row r="151" spans="19:20" x14ac:dyDescent="0.45">
+      <c r="S151" t="s">
+        <v>9</v>
+      </c>
+      <c r="T151">
+        <v>0.109375</v>
+      </c>
+    </row>
+    <row r="152" spans="19:20" x14ac:dyDescent="0.45">
+      <c r="S152" t="s">
+        <v>9</v>
+      </c>
+      <c r="T152">
+        <v>7.2727272727272724E-2</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="4">
+    <mergeCell ref="A1:G1"/>
     <mergeCell ref="H1:L1"/>
     <mergeCell ref="A3:C3"/>
     <mergeCell ref="A20:C20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -31611,7 +32832,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80D8F60B-5C5B-4F18-8613-DC66DA0D8385}">
   <dimension ref="A1:V152"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScale="51" workbookViewId="0">
+    <sheetView zoomScale="51" workbookViewId="0">
       <selection sqref="A1:G1"/>
     </sheetView>
   </sheetViews>

--- a/LJ+UA Experiments.xlsx
+++ b/LJ+UA Experiments.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dhvan\Documents\GitHub\P4P-Transformer-ASR-for-Dysarthric-Speech\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20B584BD-0D8F-490C-A882-3BF8AE0B240B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68B4F338-0335-49B3-B331-1E854067D331}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13155" firstSheet="4" activeTab="9" xr2:uid="{75EE08EB-D9DA-45E6-8F41-68FBAE46F917}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13155" firstSheet="4" activeTab="10" xr2:uid="{75EE08EB-D9DA-45E6-8F41-68FBAE46F917}"/>
   </bookViews>
   <sheets>
     <sheet name="E1" sheetId="1" r:id="rId1"/>
@@ -533,7 +533,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> LJ200_2.0_UAControl_FreezeE12.h5 </t>
+      <t xml:space="preserve"> LJ200_2.0_UAControl_FreezeE1.h5 </t>
     </r>
     <r>
       <rPr>
@@ -544,7 +544,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Accuracy:</t>
+      <t>Accuracy:90</t>
     </r>
     <r>
       <rPr>
@@ -554,7 +554,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>% (% increase)</t>
+      <t>% (3% increase)</t>
     </r>
   </si>
   <si>
@@ -577,7 +577,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> LJ200_2.0_UAControl_FreezeE1.h5 </t>
+      <t xml:space="preserve"> LJ200_2.0_UAControl_FreezeE12.h5 </t>
     </r>
     <r>
       <rPr>
@@ -588,7 +588,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Accuracy:90</t>
+      <t>Accuracy:</t>
     </r>
     <r>
       <rPr>
@@ -598,7 +598,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>% (3% increase)</t>
+      <t>89% (2% increase)</t>
     </r>
   </si>
 </sst>
@@ -1822,6 +1822,584 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'E1_2.0'!$V$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Accuracy</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'E1_2.0'!$V$2:$V$152</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="151"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9.375</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>28.125</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>46.875</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>67.1875</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>70.3125</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>71.875</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>76.5625</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>78.125</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>78.125</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>82.8125</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>81.25</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>84.375</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>81.25</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>76.5625</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>79.6875</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>81.25</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>71.875</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>79.6875</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>71.875</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>78.125</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>78.125</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>85.9375</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>82.8125</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>79.6875</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>78.125</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>73.4375</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>76.5625</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>73.4375</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>78.125</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>87.5</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>78.125</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>81.25</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>78.125</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>82.8125</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>76.5625</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>84.375</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>79.6875</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>85.9375</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>82.8125</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>78.125</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>81.25</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>78.125</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>85.9375</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>87.5</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>87.5</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>79.6875</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>82.8125</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>81.25</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>82.8125</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>84.375</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>85.9375</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>82.8125</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>87.5</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>79.6875</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>79.6875</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>85.9375</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>82.8125</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>84.375</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>79.6875</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>90.625</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>92.1875</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>89.0625</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>90.625</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>89.0625</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>89.0625</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>89.0625</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>81.25</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>81.25</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>89.0625</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>85.9375</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>87.5</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>84.375</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>84.375</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>85.9375</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>87.5</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>85.9375</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>85.9375</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>82.8125</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>85.9375</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>87.5</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>85.9375</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>84.375</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>84.375</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>84.375</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>85.9375</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>85.9375</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>85.9375</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>85.9375</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>85.9375</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>84.375</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>84.375</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>84.375</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>84.375</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>84.375</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>84.375</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-2890-4E35-8FFD-F36A54A6593A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1253912367"/>
+        <c:axId val="1253896559"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1253912367"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1253896559"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1253896559"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1253912367"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
@@ -6487,6 +7065,46 @@
 </file>
 
 <file path=xl/charts/colors10.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors11.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -7363,6 +7981,522 @@
 </file>
 
 <file path=xl/charts/style10.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style11.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -12451,6 +13585,92 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>1701</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>57148</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>49326</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>121443</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{93CE7634-D3E8-F825-DC6A-3278FD509DE9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>391206</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>102055</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>527277</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>76541</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ECFAFBDF-A544-348F-186F-760A0D0AD297}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5561920" y="459243"/>
+          <a:ext cx="4014107" cy="3010580"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -15836,7 +17056,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{056CABA9-8355-4FC6-A8A3-AC72E9E3DA4B}">
   <dimension ref="A1:V101"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="76" workbookViewId="0">
+    <sheetView zoomScale="76" workbookViewId="0">
       <selection activeCell="R29" sqref="R29"/>
     </sheetView>
   </sheetViews>
@@ -15844,7 +17064,7 @@
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>0</v>
@@ -17491,15 +18711,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{618A103B-AAE0-4589-86B5-9C75EBAC44A4}">
   <dimension ref="A1:V152"/>
   <sheetViews>
-    <sheetView zoomScale="56" workbookViewId="0">
-      <selection activeCell="I23" sqref="I23"/>
+    <sheetView tabSelected="1" zoomScale="56" workbookViewId="0">
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A1" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -17532,7 +18752,7 @@
         <v>0</v>
       </c>
       <c r="T2">
-        <v>0.984375</v>
+        <v>1</v>
       </c>
       <c r="U2">
         <f xml:space="preserve"> 1+S2</f>
@@ -17540,7 +18760,7 @@
       </c>
       <c r="V2">
         <f xml:space="preserve"> (1-T2)*100</f>
-        <v>1.5625</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.45">
@@ -17569,7 +18789,7 @@
         <v>2</v>
       </c>
       <c r="T4">
-        <v>0.734375</v>
+        <v>0.71875</v>
       </c>
       <c r="U4">
         <f t="shared" si="0"/>
@@ -17577,7 +18797,7 @@
       </c>
       <c r="V4">
         <f t="shared" si="1"/>
-        <v>26.5625</v>
+        <v>28.125</v>
       </c>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.45">
@@ -17585,7 +18805,7 @@
         <v>3</v>
       </c>
       <c r="T5">
-        <v>0.421875</v>
+        <v>0.53125</v>
       </c>
       <c r="U5">
         <f t="shared" si="0"/>
@@ -17593,7 +18813,7 @@
       </c>
       <c r="V5">
         <f t="shared" si="1"/>
-        <v>57.8125</v>
+        <v>46.875</v>
       </c>
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.45">
@@ -17601,7 +18821,7 @@
         <v>4</v>
       </c>
       <c r="T6">
-        <v>0.3125</v>
+        <v>0.328125</v>
       </c>
       <c r="U6">
         <f t="shared" si="0"/>
@@ -17609,7 +18829,7 @@
       </c>
       <c r="V6">
         <f t="shared" si="1"/>
-        <v>68.75</v>
+        <v>67.1875</v>
       </c>
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.45">
@@ -17617,7 +18837,7 @@
         <v>5</v>
       </c>
       <c r="T7">
-        <v>0.265625</v>
+        <v>0.296875</v>
       </c>
       <c r="U7">
         <f t="shared" si="0"/>
@@ -17625,7 +18845,7 @@
       </c>
       <c r="V7">
         <f t="shared" si="1"/>
-        <v>73.4375</v>
+        <v>70.3125</v>
       </c>
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.45">
@@ -17633,7 +18853,7 @@
         <v>6</v>
       </c>
       <c r="T8">
-        <v>0.21875</v>
+        <v>0.25</v>
       </c>
       <c r="U8">
         <f t="shared" si="0"/>
@@ -17641,7 +18861,7 @@
       </c>
       <c r="V8">
         <f t="shared" si="1"/>
-        <v>78.125</v>
+        <v>75</v>
       </c>
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.45">
@@ -17649,7 +18869,7 @@
         <v>7</v>
       </c>
       <c r="T9">
-        <v>0.234375</v>
+        <v>0.28125</v>
       </c>
       <c r="U9">
         <f t="shared" si="0"/>
@@ -17657,7 +18877,7 @@
       </c>
       <c r="V9">
         <f t="shared" si="1"/>
-        <v>76.5625</v>
+        <v>71.875</v>
       </c>
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.45">
@@ -17665,7 +18885,7 @@
         <v>8</v>
       </c>
       <c r="T10">
-        <v>0.265625</v>
+        <v>0.234375</v>
       </c>
       <c r="U10">
         <f t="shared" si="0"/>
@@ -17673,7 +18893,7 @@
       </c>
       <c r="V10">
         <f t="shared" si="1"/>
-        <v>73.4375</v>
+        <v>76.5625</v>
       </c>
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.45">
@@ -17697,7 +18917,7 @@
         <v>10</v>
       </c>
       <c r="T12">
-        <v>0.265625</v>
+        <v>0.21875</v>
       </c>
       <c r="U12">
         <f t="shared" si="0"/>
@@ -17705,7 +18925,7 @@
       </c>
       <c r="V12">
         <f t="shared" si="1"/>
-        <v>73.4375</v>
+        <v>78.125</v>
       </c>
     </row>
     <row r="13" spans="1:22" x14ac:dyDescent="0.45">
@@ -17745,7 +18965,7 @@
         <v>13</v>
       </c>
       <c r="T15">
-        <v>0.15625</v>
+        <v>0.25</v>
       </c>
       <c r="U15">
         <f t="shared" si="0"/>
@@ -17753,7 +18973,7 @@
       </c>
       <c r="V15">
         <f t="shared" si="1"/>
-        <v>84.375</v>
+        <v>75</v>
       </c>
     </row>
     <row r="16" spans="1:22" x14ac:dyDescent="0.45">
@@ -17761,7 +18981,7 @@
         <v>14</v>
       </c>
       <c r="T16">
-        <v>0.21875</v>
+        <v>0.1875</v>
       </c>
       <c r="U16">
         <f t="shared" si="0"/>
@@ -17769,7 +18989,7 @@
       </c>
       <c r="V16">
         <f t="shared" si="1"/>
-        <v>78.125</v>
+        <v>81.25</v>
       </c>
     </row>
     <row r="17" spans="1:22" x14ac:dyDescent="0.45">
@@ -17777,7 +18997,7 @@
         <v>15</v>
       </c>
       <c r="T17">
-        <v>0.140625</v>
+        <v>0.15625</v>
       </c>
       <c r="U17">
         <f t="shared" si="0"/>
@@ -17785,7 +19005,7 @@
       </c>
       <c r="V17">
         <f t="shared" si="1"/>
-        <v>85.9375</v>
+        <v>84.375</v>
       </c>
     </row>
     <row r="18" spans="1:22" x14ac:dyDescent="0.45">
@@ -17809,7 +19029,7 @@
         <v>17</v>
       </c>
       <c r="T19">
-        <v>0.203125</v>
+        <v>0.234375</v>
       </c>
       <c r="U19">
         <f t="shared" si="0"/>
@@ -17817,7 +19037,7 @@
       </c>
       <c r="V19">
         <f t="shared" si="1"/>
-        <v>79.6875</v>
+        <v>76.5625</v>
       </c>
     </row>
     <row r="20" spans="1:22" x14ac:dyDescent="0.45">
@@ -17830,7 +19050,7 @@
         <v>18</v>
       </c>
       <c r="T20">
-        <v>0.25</v>
+        <v>0.203125</v>
       </c>
       <c r="U20">
         <f t="shared" si="0"/>
@@ -17838,7 +19058,7 @@
       </c>
       <c r="V20">
         <f t="shared" si="1"/>
-        <v>75</v>
+        <v>79.6875</v>
       </c>
     </row>
     <row r="21" spans="1:22" x14ac:dyDescent="0.45">
@@ -17846,7 +19066,7 @@
         <v>19</v>
       </c>
       <c r="T21">
-        <v>0.171875</v>
+        <v>0.1875</v>
       </c>
       <c r="U21">
         <f t="shared" si="0"/>
@@ -17854,7 +19074,7 @@
       </c>
       <c r="V21">
         <f t="shared" si="1"/>
-        <v>82.8125</v>
+        <v>81.25</v>
       </c>
     </row>
     <row r="22" spans="1:22" x14ac:dyDescent="0.45">
@@ -17862,7 +19082,7 @@
         <v>20</v>
       </c>
       <c r="T22">
-        <v>0.109375</v>
+        <v>0.28125</v>
       </c>
       <c r="U22">
         <f t="shared" si="0"/>
@@ -17870,7 +19090,7 @@
       </c>
       <c r="V22">
         <f t="shared" si="1"/>
-        <v>89.0625</v>
+        <v>71.875</v>
       </c>
     </row>
     <row r="23" spans="1:22" x14ac:dyDescent="0.45">
@@ -17878,7 +19098,7 @@
         <v>21</v>
       </c>
       <c r="T23">
-        <v>0.171875</v>
+        <v>0.203125</v>
       </c>
       <c r="U23">
         <f t="shared" si="0"/>
@@ -17886,7 +19106,7 @@
       </c>
       <c r="V23">
         <f t="shared" si="1"/>
-        <v>82.8125</v>
+        <v>79.6875</v>
       </c>
     </row>
     <row r="24" spans="1:22" x14ac:dyDescent="0.45">
@@ -17894,7 +19114,7 @@
         <v>22</v>
       </c>
       <c r="T24">
-        <v>0.15625</v>
+        <v>0.28125</v>
       </c>
       <c r="U24">
         <f t="shared" si="0"/>
@@ -17902,7 +19122,7 @@
       </c>
       <c r="V24">
         <f t="shared" si="1"/>
-        <v>84.375</v>
+        <v>71.875</v>
       </c>
     </row>
     <row r="25" spans="1:22" x14ac:dyDescent="0.45">
@@ -17910,7 +19130,7 @@
         <v>23</v>
       </c>
       <c r="T25">
-        <v>0.1875</v>
+        <v>0.21875</v>
       </c>
       <c r="U25">
         <f t="shared" si="0"/>
@@ -17918,7 +19138,7 @@
       </c>
       <c r="V25">
         <f t="shared" si="1"/>
-        <v>81.25</v>
+        <v>78.125</v>
       </c>
     </row>
     <row r="26" spans="1:22" x14ac:dyDescent="0.45">
@@ -17926,7 +19146,7 @@
         <v>24</v>
       </c>
       <c r="T26">
-        <v>0.125</v>
+        <v>0.21875</v>
       </c>
       <c r="U26">
         <f t="shared" si="0"/>
@@ -17934,7 +19154,7 @@
       </c>
       <c r="V26">
         <f t="shared" si="1"/>
-        <v>87.5</v>
+        <v>78.125</v>
       </c>
     </row>
     <row r="27" spans="1:22" x14ac:dyDescent="0.45">
@@ -17942,7 +19162,7 @@
         <v>25</v>
       </c>
       <c r="T27">
-        <v>0.1875</v>
+        <v>0.140625</v>
       </c>
       <c r="U27">
         <f t="shared" si="0"/>
@@ -17950,7 +19170,7 @@
       </c>
       <c r="V27">
         <f t="shared" si="1"/>
-        <v>81.25</v>
+        <v>85.9375</v>
       </c>
     </row>
     <row r="28" spans="1:22" x14ac:dyDescent="0.45">
@@ -17958,7 +19178,7 @@
         <v>26</v>
       </c>
       <c r="T28">
-        <v>0.15625</v>
+        <v>0.171875</v>
       </c>
       <c r="U28">
         <f t="shared" si="0"/>
@@ -17966,7 +19186,7 @@
       </c>
       <c r="V28">
         <f t="shared" si="1"/>
-        <v>84.375</v>
+        <v>82.8125</v>
       </c>
     </row>
     <row r="29" spans="1:22" x14ac:dyDescent="0.45">
@@ -17974,7 +19194,7 @@
         <v>27</v>
       </c>
       <c r="T29">
-        <v>0.171875</v>
+        <v>0.203125</v>
       </c>
       <c r="U29">
         <f t="shared" si="0"/>
@@ -17982,7 +19202,7 @@
       </c>
       <c r="V29">
         <f t="shared" si="1"/>
-        <v>82.8125</v>
+        <v>79.6875</v>
       </c>
     </row>
     <row r="30" spans="1:22" x14ac:dyDescent="0.45">
@@ -17990,7 +19210,7 @@
         <v>28</v>
       </c>
       <c r="T30">
-        <v>0.15625</v>
+        <v>0.21875</v>
       </c>
       <c r="U30">
         <f t="shared" si="0"/>
@@ -17998,7 +19218,7 @@
       </c>
       <c r="V30">
         <f t="shared" si="1"/>
-        <v>84.375</v>
+        <v>78.125</v>
       </c>
     </row>
     <row r="31" spans="1:22" x14ac:dyDescent="0.45">
@@ -18006,7 +19226,7 @@
         <v>29</v>
       </c>
       <c r="T31">
-        <v>0.203125</v>
+        <v>0.265625</v>
       </c>
       <c r="U31">
         <f t="shared" si="0"/>
@@ -18014,7 +19234,7 @@
       </c>
       <c r="V31">
         <f t="shared" si="1"/>
-        <v>79.6875</v>
+        <v>73.4375</v>
       </c>
     </row>
     <row r="32" spans="1:22" x14ac:dyDescent="0.45">
@@ -18022,7 +19242,7 @@
         <v>30</v>
       </c>
       <c r="T32">
-        <v>0.1875</v>
+        <v>0.234375</v>
       </c>
       <c r="U32">
         <f t="shared" si="0"/>
@@ -18030,7 +19250,7 @@
       </c>
       <c r="V32">
         <f t="shared" si="1"/>
-        <v>81.25</v>
+        <v>76.5625</v>
       </c>
     </row>
     <row r="33" spans="19:22" x14ac:dyDescent="0.45">
@@ -18038,7 +19258,7 @@
         <v>31</v>
       </c>
       <c r="T33">
-        <v>0.21875</v>
+        <v>0.265625</v>
       </c>
       <c r="U33">
         <f t="shared" si="0"/>
@@ -18046,7 +19266,7 @@
       </c>
       <c r="V33">
         <f t="shared" si="1"/>
-        <v>78.125</v>
+        <v>73.4375</v>
       </c>
     </row>
     <row r="34" spans="19:22" x14ac:dyDescent="0.45">
@@ -18054,7 +19274,7 @@
         <v>32</v>
       </c>
       <c r="T34">
-        <v>0.140625</v>
+        <v>0.21875</v>
       </c>
       <c r="U34">
         <f t="shared" si="0"/>
@@ -18062,7 +19282,7 @@
       </c>
       <c r="V34">
         <f t="shared" si="1"/>
-        <v>85.9375</v>
+        <v>78.125</v>
       </c>
     </row>
     <row r="35" spans="19:22" x14ac:dyDescent="0.45">
@@ -18070,7 +19290,7 @@
         <v>33</v>
       </c>
       <c r="T35">
-        <v>0.203125</v>
+        <v>0.125</v>
       </c>
       <c r="U35">
         <f t="shared" si="0"/>
@@ -18078,7 +19298,7 @@
       </c>
       <c r="V35">
         <f t="shared" si="1"/>
-        <v>79.6875</v>
+        <v>87.5</v>
       </c>
     </row>
     <row r="36" spans="19:22" x14ac:dyDescent="0.45">
@@ -18086,7 +19306,7 @@
         <v>34</v>
       </c>
       <c r="T36">
-        <v>0.125</v>
+        <v>0.21875</v>
       </c>
       <c r="U36">
         <f t="shared" si="0"/>
@@ -18094,7 +19314,7 @@
       </c>
       <c r="V36">
         <f t="shared" si="1"/>
-        <v>87.5</v>
+        <v>78.125</v>
       </c>
     </row>
     <row r="37" spans="19:22" x14ac:dyDescent="0.45">
@@ -18102,7 +19322,7 @@
         <v>35</v>
       </c>
       <c r="T37">
-        <v>0.109375</v>
+        <v>0.1875</v>
       </c>
       <c r="U37">
         <f t="shared" si="0"/>
@@ -18110,7 +19330,7 @@
       </c>
       <c r="V37">
         <f t="shared" si="1"/>
-        <v>89.0625</v>
+        <v>81.25</v>
       </c>
     </row>
     <row r="38" spans="19:22" x14ac:dyDescent="0.45">
@@ -18118,7 +19338,7 @@
         <v>36</v>
       </c>
       <c r="T38">
-        <v>0.109375</v>
+        <v>0.21875</v>
       </c>
       <c r="U38">
         <f t="shared" si="0"/>
@@ -18126,7 +19346,7 @@
       </c>
       <c r="V38">
         <f t="shared" si="1"/>
-        <v>89.0625</v>
+        <v>78.125</v>
       </c>
     </row>
     <row r="39" spans="19:22" x14ac:dyDescent="0.45">
@@ -18134,7 +19354,7 @@
         <v>37</v>
       </c>
       <c r="T39">
-        <v>0.171875</v>
+        <v>0.25</v>
       </c>
       <c r="U39">
         <f t="shared" si="0"/>
@@ -18142,7 +19362,7 @@
       </c>
       <c r="V39">
         <f t="shared" si="1"/>
-        <v>82.8125</v>
+        <v>75</v>
       </c>
     </row>
     <row r="40" spans="19:22" x14ac:dyDescent="0.45">
@@ -18150,7 +19370,7 @@
         <v>38</v>
       </c>
       <c r="T40">
-        <v>9.375E-2</v>
+        <v>0.171875</v>
       </c>
       <c r="U40">
         <f t="shared" si="0"/>
@@ -18158,7 +19378,7 @@
       </c>
       <c r="V40">
         <f t="shared" si="1"/>
-        <v>90.625</v>
+        <v>82.8125</v>
       </c>
     </row>
     <row r="41" spans="19:22" x14ac:dyDescent="0.45">
@@ -18166,7 +19386,7 @@
         <v>39</v>
       </c>
       <c r="T41">
-        <v>0.125</v>
+        <v>0.234375</v>
       </c>
       <c r="U41">
         <f t="shared" si="0"/>
@@ -18174,7 +19394,7 @@
       </c>
       <c r="V41">
         <f t="shared" si="1"/>
-        <v>87.5</v>
+        <v>76.5625</v>
       </c>
     </row>
     <row r="42" spans="19:22" x14ac:dyDescent="0.45">
@@ -18182,7 +19402,7 @@
         <v>40</v>
       </c>
       <c r="T42">
-        <v>0.140625</v>
+        <v>0.15625</v>
       </c>
       <c r="U42">
         <f t="shared" si="0"/>
@@ -18190,7 +19410,7 @@
       </c>
       <c r="V42">
         <f t="shared" si="1"/>
-        <v>85.9375</v>
+        <v>84.375</v>
       </c>
     </row>
     <row r="43" spans="19:22" x14ac:dyDescent="0.45">
@@ -18198,7 +19418,7 @@
         <v>41</v>
       </c>
       <c r="T43">
-        <v>0.140625</v>
+        <v>0.203125</v>
       </c>
       <c r="U43">
         <f t="shared" si="0"/>
@@ -18206,7 +19426,7 @@
       </c>
       <c r="V43">
         <f t="shared" si="1"/>
-        <v>85.9375</v>
+        <v>79.6875</v>
       </c>
     </row>
     <row r="44" spans="19:22" x14ac:dyDescent="0.45">
@@ -18214,7 +19434,7 @@
         <v>42</v>
       </c>
       <c r="T44">
-        <v>0.25</v>
+        <v>0.140625</v>
       </c>
       <c r="U44">
         <f t="shared" si="0"/>
@@ -18222,7 +19442,7 @@
       </c>
       <c r="V44">
         <f t="shared" si="1"/>
-        <v>75</v>
+        <v>85.9375</v>
       </c>
     </row>
     <row r="45" spans="19:22" x14ac:dyDescent="0.45">
@@ -18230,7 +19450,7 @@
         <v>43</v>
       </c>
       <c r="T45">
-        <v>0.234375</v>
+        <v>0.171875</v>
       </c>
       <c r="U45">
         <f t="shared" si="0"/>
@@ -18238,7 +19458,7 @@
       </c>
       <c r="V45">
         <f t="shared" si="1"/>
-        <v>76.5625</v>
+        <v>82.8125</v>
       </c>
     </row>
     <row r="46" spans="19:22" x14ac:dyDescent="0.45">
@@ -18246,7 +19466,7 @@
         <v>44</v>
       </c>
       <c r="T46">
-        <v>0.171875</v>
+        <v>0.21875</v>
       </c>
       <c r="U46">
         <f t="shared" si="0"/>
@@ -18254,7 +19474,7 @@
       </c>
       <c r="V46">
         <f t="shared" si="1"/>
-        <v>82.8125</v>
+        <v>78.125</v>
       </c>
     </row>
     <row r="47" spans="19:22" x14ac:dyDescent="0.45">
@@ -18262,7 +19482,7 @@
         <v>45</v>
       </c>
       <c r="T47">
-        <v>0.140625</v>
+        <v>0.1875</v>
       </c>
       <c r="U47">
         <f t="shared" si="0"/>
@@ -18270,7 +19490,7 @@
       </c>
       <c r="V47">
         <f t="shared" si="1"/>
-        <v>85.9375</v>
+        <v>81.25</v>
       </c>
     </row>
     <row r="48" spans="19:22" x14ac:dyDescent="0.45">
@@ -18278,7 +19498,7 @@
         <v>46</v>
       </c>
       <c r="T48">
-        <v>0.140625</v>
+        <v>0.21875</v>
       </c>
       <c r="U48">
         <f t="shared" si="0"/>
@@ -18286,7 +19506,7 @@
       </c>
       <c r="V48">
         <f t="shared" si="1"/>
-        <v>85.9375</v>
+        <v>78.125</v>
       </c>
     </row>
     <row r="49" spans="19:22" x14ac:dyDescent="0.45">
@@ -18294,7 +19514,7 @@
         <v>47</v>
       </c>
       <c r="T49">
-        <v>0.125</v>
+        <v>0.140625</v>
       </c>
       <c r="U49">
         <f t="shared" si="0"/>
@@ -18302,7 +19522,7 @@
       </c>
       <c r="V49">
         <f t="shared" si="1"/>
-        <v>87.5</v>
+        <v>85.9375</v>
       </c>
     </row>
     <row r="50" spans="19:22" x14ac:dyDescent="0.45">
@@ -18326,7 +19546,7 @@
         <v>49</v>
       </c>
       <c r="T51">
-        <v>0.203125</v>
+        <v>0.125</v>
       </c>
       <c r="U51">
         <f t="shared" si="0"/>
@@ -18334,7 +19554,7 @@
       </c>
       <c r="V51">
         <f t="shared" si="1"/>
-        <v>79.6875</v>
+        <v>87.5</v>
       </c>
     </row>
     <row r="52" spans="19:22" x14ac:dyDescent="0.45">
@@ -18342,7 +19562,7 @@
         <v>50</v>
       </c>
       <c r="T52">
-        <v>0.109375</v>
+        <v>0.203125</v>
       </c>
       <c r="U52">
         <f t="shared" si="0"/>
@@ -18350,7 +19570,7 @@
       </c>
       <c r="V52">
         <f t="shared" si="1"/>
-        <v>89.0625</v>
+        <v>79.6875</v>
       </c>
     </row>
     <row r="53" spans="19:22" x14ac:dyDescent="0.45">
@@ -18358,7 +19578,7 @@
         <v>51</v>
       </c>
       <c r="T53">
-        <v>0.125</v>
+        <v>0.171875</v>
       </c>
       <c r="U53">
         <f t="shared" si="0"/>
@@ -18366,7 +19586,7 @@
       </c>
       <c r="V53">
         <f t="shared" si="1"/>
-        <v>87.5</v>
+        <v>82.8125</v>
       </c>
     </row>
     <row r="54" spans="19:22" x14ac:dyDescent="0.45">
@@ -18374,7 +19594,7 @@
         <v>52</v>
       </c>
       <c r="T54">
-        <v>9.375E-2</v>
+        <v>0.1875</v>
       </c>
       <c r="U54">
         <f t="shared" si="0"/>
@@ -18382,7 +19602,7 @@
       </c>
       <c r="V54">
         <f t="shared" si="1"/>
-        <v>90.625</v>
+        <v>81.25</v>
       </c>
     </row>
     <row r="55" spans="19:22" x14ac:dyDescent="0.45">
@@ -18390,7 +19610,7 @@
         <v>53</v>
       </c>
       <c r="T55">
-        <v>0.125</v>
+        <v>0.171875</v>
       </c>
       <c r="U55">
         <f t="shared" si="0"/>
@@ -18398,7 +19618,7 @@
       </c>
       <c r="V55">
         <f t="shared" si="1"/>
-        <v>87.5</v>
+        <v>82.8125</v>
       </c>
     </row>
     <row r="56" spans="19:22" x14ac:dyDescent="0.45">
@@ -18406,7 +19626,7 @@
         <v>54</v>
       </c>
       <c r="T56">
-        <v>0.109375</v>
+        <v>0.15625</v>
       </c>
       <c r="U56">
         <f t="shared" si="0"/>
@@ -18414,7 +19634,7 @@
       </c>
       <c r="V56">
         <f t="shared" si="1"/>
-        <v>89.0625</v>
+        <v>84.375</v>
       </c>
     </row>
     <row r="57" spans="19:22" x14ac:dyDescent="0.45">
@@ -18422,7 +19642,7 @@
         <v>55</v>
       </c>
       <c r="T57">
-        <v>9.375E-2</v>
+        <v>0.140625</v>
       </c>
       <c r="U57">
         <f t="shared" si="0"/>
@@ -18430,7 +19650,7 @@
       </c>
       <c r="V57">
         <f t="shared" si="1"/>
-        <v>90.625</v>
+        <v>85.9375</v>
       </c>
     </row>
     <row r="58" spans="19:22" x14ac:dyDescent="0.45">
@@ -18438,7 +19658,7 @@
         <v>56</v>
       </c>
       <c r="T58">
-        <v>0.15625</v>
+        <v>0.171875</v>
       </c>
       <c r="U58">
         <f t="shared" si="0"/>
@@ -18446,7 +19666,7 @@
       </c>
       <c r="V58">
         <f t="shared" si="1"/>
-        <v>84.375</v>
+        <v>82.8125</v>
       </c>
     </row>
     <row r="59" spans="19:22" x14ac:dyDescent="0.45">
@@ -18470,7 +19690,7 @@
         <v>58</v>
       </c>
       <c r="T60">
-        <v>0.171875</v>
+        <v>0.203125</v>
       </c>
       <c r="U60">
         <f t="shared" si="0"/>
@@ -18478,7 +19698,7 @@
       </c>
       <c r="V60">
         <f t="shared" si="1"/>
-        <v>82.8125</v>
+        <v>79.6875</v>
       </c>
     </row>
     <row r="61" spans="19:22" x14ac:dyDescent="0.45">
@@ -18486,7 +19706,7 @@
         <v>59</v>
       </c>
       <c r="T61">
-        <v>0.15625</v>
+        <v>0.203125</v>
       </c>
       <c r="U61">
         <f t="shared" si="0"/>
@@ -18494,7 +19714,7 @@
       </c>
       <c r="V61">
         <f t="shared" si="1"/>
-        <v>84.375</v>
+        <v>79.6875</v>
       </c>
     </row>
     <row r="62" spans="19:22" x14ac:dyDescent="0.45">
@@ -18502,7 +19722,7 @@
         <v>60</v>
       </c>
       <c r="T62">
-        <v>0.125</v>
+        <v>0.140625</v>
       </c>
       <c r="U62">
         <f t="shared" si="0"/>
@@ -18510,7 +19730,7 @@
       </c>
       <c r="V62">
         <f t="shared" si="1"/>
-        <v>87.5</v>
+        <v>85.9375</v>
       </c>
     </row>
     <row r="63" spans="19:22" x14ac:dyDescent="0.45">
@@ -18518,7 +19738,7 @@
         <v>61</v>
       </c>
       <c r="T63">
-        <v>0.1875</v>
+        <v>0.171875</v>
       </c>
       <c r="U63">
         <f t="shared" si="0"/>
@@ -18526,7 +19746,7 @@
       </c>
       <c r="V63">
         <f t="shared" si="1"/>
-        <v>81.25</v>
+        <v>82.8125</v>
       </c>
     </row>
     <row r="64" spans="19:22" x14ac:dyDescent="0.45">
@@ -18534,7 +19754,7 @@
         <v>62</v>
       </c>
       <c r="T64">
-        <v>0.125</v>
+        <v>0.15625</v>
       </c>
       <c r="U64">
         <f t="shared" si="0"/>
@@ -18542,7 +19762,7 @@
       </c>
       <c r="V64">
         <f t="shared" si="1"/>
-        <v>87.5</v>
+        <v>84.375</v>
       </c>
     </row>
     <row r="65" spans="19:22" x14ac:dyDescent="0.45">
@@ -18550,7 +19770,7 @@
         <v>63</v>
       </c>
       <c r="T65">
-        <v>0.125</v>
+        <v>0.203125</v>
       </c>
       <c r="U65">
         <f t="shared" si="0"/>
@@ -18558,7 +19778,7 @@
       </c>
       <c r="V65">
         <f t="shared" si="1"/>
-        <v>87.5</v>
+        <v>79.6875</v>
       </c>
     </row>
     <row r="66" spans="19:22" x14ac:dyDescent="0.45">
@@ -18566,7 +19786,7 @@
         <v>64</v>
       </c>
       <c r="T66">
-        <v>0.125</v>
+        <v>9.375E-2</v>
       </c>
       <c r="U66">
         <f t="shared" si="0"/>
@@ -18574,7 +19794,7 @@
       </c>
       <c r="V66">
         <f t="shared" si="1"/>
-        <v>87.5</v>
+        <v>90.625</v>
       </c>
     </row>
     <row r="67" spans="19:22" x14ac:dyDescent="0.45">
@@ -18582,7 +19802,7 @@
         <v>65</v>
       </c>
       <c r="T67">
-        <v>0.140625</v>
+        <v>7.8125E-2</v>
       </c>
       <c r="U67">
         <f t="shared" ref="U67:U101" si="2" xml:space="preserve"> 1+S67</f>
@@ -18590,7 +19810,7 @@
       </c>
       <c r="V67">
         <f t="shared" ref="V67:V101" si="3" xml:space="preserve"> (1-T67)*100</f>
-        <v>85.9375</v>
+        <v>92.1875</v>
       </c>
     </row>
     <row r="68" spans="19:22" x14ac:dyDescent="0.45">
@@ -18614,7 +19834,7 @@
         <v>67</v>
       </c>
       <c r="T69">
-        <v>0.109375</v>
+        <v>9.375E-2</v>
       </c>
       <c r="U69">
         <f t="shared" si="2"/>
@@ -18622,7 +19842,7 @@
       </c>
       <c r="V69">
         <f t="shared" si="3"/>
-        <v>89.0625</v>
+        <v>90.625</v>
       </c>
     </row>
     <row r="70" spans="19:22" x14ac:dyDescent="0.45">
@@ -18630,7 +19850,7 @@
         <v>68</v>
       </c>
       <c r="T70">
-        <v>0.15625</v>
+        <v>0.109375</v>
       </c>
       <c r="U70">
         <f t="shared" si="2"/>
@@ -18638,7 +19858,7 @@
       </c>
       <c r="V70">
         <f t="shared" si="3"/>
-        <v>84.375</v>
+        <v>89.0625</v>
       </c>
     </row>
     <row r="71" spans="19:22" x14ac:dyDescent="0.45">
@@ -18646,7 +19866,7 @@
         <v>69</v>
       </c>
       <c r="T71">
-        <v>0.140625</v>
+        <v>0.109375</v>
       </c>
       <c r="U71">
         <f t="shared" si="2"/>
@@ -18654,7 +19874,7 @@
       </c>
       <c r="V71">
         <f t="shared" si="3"/>
-        <v>85.9375</v>
+        <v>89.0625</v>
       </c>
     </row>
     <row r="72" spans="19:22" x14ac:dyDescent="0.45">
@@ -18662,7 +19882,7 @@
         <v>70</v>
       </c>
       <c r="T72">
-        <v>0.15625</v>
+        <v>0.109375</v>
       </c>
       <c r="U72">
         <f t="shared" si="2"/>
@@ -18670,7 +19890,7 @@
       </c>
       <c r="V72">
         <f t="shared" si="3"/>
-        <v>84.375</v>
+        <v>89.0625</v>
       </c>
     </row>
     <row r="73" spans="19:22" x14ac:dyDescent="0.45">
@@ -18678,7 +19898,7 @@
         <v>71</v>
       </c>
       <c r="T73">
-        <v>0.15625</v>
+        <v>0.1875</v>
       </c>
       <c r="U73">
         <f t="shared" si="2"/>
@@ -18686,7 +19906,7 @@
       </c>
       <c r="V73">
         <f t="shared" si="3"/>
-        <v>84.375</v>
+        <v>81.25</v>
       </c>
     </row>
     <row r="74" spans="19:22" x14ac:dyDescent="0.45">
@@ -18694,7 +19914,7 @@
         <v>72</v>
       </c>
       <c r="T74">
-        <v>0.171875</v>
+        <v>0.1875</v>
       </c>
       <c r="U74">
         <f t="shared" si="2"/>
@@ -18702,7 +19922,7 @@
       </c>
       <c r="V74">
         <f t="shared" si="3"/>
-        <v>82.8125</v>
+        <v>81.25</v>
       </c>
     </row>
     <row r="75" spans="19:22" x14ac:dyDescent="0.45">
@@ -18726,7 +19946,7 @@
         <v>74</v>
       </c>
       <c r="T76">
-        <v>0.15625</v>
+        <v>0.140625</v>
       </c>
       <c r="U76">
         <f t="shared" si="2"/>
@@ -18734,7 +19954,7 @@
       </c>
       <c r="V76">
         <f t="shared" si="3"/>
-        <v>84.375</v>
+        <v>85.9375</v>
       </c>
     </row>
     <row r="77" spans="19:22" x14ac:dyDescent="0.45">
@@ -18742,7 +19962,7 @@
         <v>75</v>
       </c>
       <c r="T77">
-        <v>0.15625</v>
+        <v>0.125</v>
       </c>
       <c r="U77">
         <f t="shared" si="2"/>
@@ -18750,7 +19970,7 @@
       </c>
       <c r="V77">
         <f t="shared" si="3"/>
-        <v>84.375</v>
+        <v>87.5</v>
       </c>
     </row>
     <row r="78" spans="19:22" x14ac:dyDescent="0.45">
@@ -18758,7 +19978,7 @@
         <v>76</v>
       </c>
       <c r="T78">
-        <v>0.109375</v>
+        <v>0.15625</v>
       </c>
       <c r="U78">
         <f t="shared" si="2"/>
@@ -18766,7 +19986,7 @@
       </c>
       <c r="V78">
         <f t="shared" si="3"/>
-        <v>89.0625</v>
+        <v>84.375</v>
       </c>
     </row>
     <row r="79" spans="19:22" x14ac:dyDescent="0.45">
@@ -18838,7 +20058,7 @@
         <v>81</v>
       </c>
       <c r="T83">
-        <v>0.203125</v>
+        <v>0.140625</v>
       </c>
       <c r="U83">
         <f t="shared" si="2"/>
@@ -18846,7 +20066,7 @@
       </c>
       <c r="V83">
         <f t="shared" si="3"/>
-        <v>79.6875</v>
+        <v>85.9375</v>
       </c>
     </row>
     <row r="84" spans="19:22" x14ac:dyDescent="0.45">
@@ -18854,7 +20074,7 @@
         <v>82</v>
       </c>
       <c r="T84">
-        <v>0.140625</v>
+        <v>0.171875</v>
       </c>
       <c r="U84">
         <f t="shared" si="2"/>
@@ -18862,7 +20082,7 @@
       </c>
       <c r="V84">
         <f t="shared" si="3"/>
-        <v>85.9375</v>
+        <v>82.8125</v>
       </c>
     </row>
     <row r="85" spans="19:22" x14ac:dyDescent="0.45">
@@ -18870,7 +20090,7 @@
         <v>83</v>
       </c>
       <c r="T85">
-        <v>0.125</v>
+        <v>0.140625</v>
       </c>
       <c r="U85">
         <f t="shared" si="2"/>
@@ -18878,7 +20098,7 @@
       </c>
       <c r="V85">
         <f t="shared" si="3"/>
-        <v>87.5</v>
+        <v>85.9375</v>
       </c>
     </row>
     <row r="86" spans="19:22" x14ac:dyDescent="0.45">
@@ -18902,7 +20122,7 @@
         <v>85</v>
       </c>
       <c r="T87">
-        <v>0.125</v>
+        <v>0.140625</v>
       </c>
       <c r="U87">
         <f t="shared" si="2"/>
@@ -18910,7 +20130,7 @@
       </c>
       <c r="V87">
         <f t="shared" si="3"/>
-        <v>87.5</v>
+        <v>85.9375</v>
       </c>
     </row>
     <row r="88" spans="19:22" x14ac:dyDescent="0.45">
@@ -18918,7 +20138,7 @@
         <v>86</v>
       </c>
       <c r="T88">
-        <v>0.140625</v>
+        <v>0.15625</v>
       </c>
       <c r="U88">
         <f t="shared" si="2"/>
@@ -18926,7 +20146,7 @@
       </c>
       <c r="V88">
         <f t="shared" si="3"/>
-        <v>85.9375</v>
+        <v>84.375</v>
       </c>
     </row>
     <row r="89" spans="19:22" x14ac:dyDescent="0.45">
@@ -18934,7 +20154,7 @@
         <v>87</v>
       </c>
       <c r="T89">
-        <v>0.125</v>
+        <v>0.15625</v>
       </c>
       <c r="U89">
         <f t="shared" si="2"/>
@@ -18942,7 +20162,7 @@
       </c>
       <c r="V89">
         <f t="shared" si="3"/>
-        <v>87.5</v>
+        <v>84.375</v>
       </c>
     </row>
     <row r="90" spans="19:22" x14ac:dyDescent="0.45">
@@ -18950,7 +20170,7 @@
         <v>88</v>
       </c>
       <c r="T90">
-        <v>0.125</v>
+        <v>0.15625</v>
       </c>
       <c r="U90">
         <f t="shared" si="2"/>
@@ -18958,7 +20178,7 @@
       </c>
       <c r="V90">
         <f t="shared" si="3"/>
-        <v>87.5</v>
+        <v>84.375</v>
       </c>
     </row>
     <row r="91" spans="19:22" x14ac:dyDescent="0.45">
@@ -18966,7 +20186,7 @@
         <v>89</v>
       </c>
       <c r="T91">
-        <v>0.125</v>
+        <v>0.140625</v>
       </c>
       <c r="U91">
         <f t="shared" si="2"/>
@@ -18974,7 +20194,7 @@
       </c>
       <c r="V91">
         <f t="shared" si="3"/>
-        <v>87.5</v>
+        <v>85.9375</v>
       </c>
     </row>
     <row r="92" spans="19:22" x14ac:dyDescent="0.45">
@@ -18982,7 +20202,7 @@
         <v>90</v>
       </c>
       <c r="T92">
-        <v>0.125</v>
+        <v>0.140625</v>
       </c>
       <c r="U92">
         <f t="shared" si="2"/>
@@ -18990,7 +20210,7 @@
       </c>
       <c r="V92">
         <f t="shared" si="3"/>
-        <v>87.5</v>
+        <v>85.9375</v>
       </c>
     </row>
     <row r="93" spans="19:22" x14ac:dyDescent="0.45">
@@ -18998,7 +20218,7 @@
         <v>91</v>
       </c>
       <c r="T93">
-        <v>0.125</v>
+        <v>0.140625</v>
       </c>
       <c r="U93">
         <f t="shared" si="2"/>
@@ -19006,7 +20226,7 @@
       </c>
       <c r="V93">
         <f t="shared" si="3"/>
-        <v>87.5</v>
+        <v>85.9375</v>
       </c>
     </row>
     <row r="94" spans="19:22" x14ac:dyDescent="0.45">
@@ -19014,7 +20234,7 @@
         <v>92</v>
       </c>
       <c r="T94">
-        <v>0.125</v>
+        <v>0.140625</v>
       </c>
       <c r="U94">
         <f t="shared" si="2"/>
@@ -19022,7 +20242,7 @@
       </c>
       <c r="V94">
         <f t="shared" si="3"/>
-        <v>87.5</v>
+        <v>85.9375</v>
       </c>
     </row>
     <row r="95" spans="19:22" x14ac:dyDescent="0.45">
@@ -19030,7 +20250,7 @@
         <v>93</v>
       </c>
       <c r="T95">
-        <v>0.125</v>
+        <v>0.140625</v>
       </c>
       <c r="U95">
         <f t="shared" si="2"/>
@@ -19038,7 +20258,7 @@
       </c>
       <c r="V95">
         <f t="shared" si="3"/>
-        <v>87.5</v>
+        <v>85.9375</v>
       </c>
     </row>
     <row r="96" spans="19:22" x14ac:dyDescent="0.45">
@@ -19046,7 +20266,7 @@
         <v>94</v>
       </c>
       <c r="T96">
-        <v>0.125</v>
+        <v>0.15625</v>
       </c>
       <c r="U96">
         <f t="shared" si="2"/>
@@ -19054,7 +20274,7 @@
       </c>
       <c r="V96">
         <f t="shared" si="3"/>
-        <v>87.5</v>
+        <v>84.375</v>
       </c>
     </row>
     <row r="97" spans="19:22" x14ac:dyDescent="0.45">
@@ -19062,7 +20282,7 @@
         <v>95</v>
       </c>
       <c r="T97">
-        <v>0.125</v>
+        <v>0.15625</v>
       </c>
       <c r="U97">
         <f t="shared" si="2"/>
@@ -19070,7 +20290,7 @@
       </c>
       <c r="V97">
         <f t="shared" si="3"/>
-        <v>87.5</v>
+        <v>84.375</v>
       </c>
     </row>
     <row r="98" spans="19:22" x14ac:dyDescent="0.45">
@@ -19078,7 +20298,7 @@
         <v>96</v>
       </c>
       <c r="T98">
-        <v>0.125</v>
+        <v>0.15625</v>
       </c>
       <c r="U98">
         <f t="shared" si="2"/>
@@ -19086,7 +20306,7 @@
       </c>
       <c r="V98">
         <f t="shared" si="3"/>
-        <v>87.5</v>
+        <v>84.375</v>
       </c>
     </row>
     <row r="99" spans="19:22" x14ac:dyDescent="0.45">
@@ -19094,7 +20314,7 @@
         <v>97</v>
       </c>
       <c r="T99">
-        <v>0.125</v>
+        <v>0.15625</v>
       </c>
       <c r="U99">
         <f t="shared" si="2"/>
@@ -19102,7 +20322,7 @@
       </c>
       <c r="V99">
         <f t="shared" si="3"/>
-        <v>87.5</v>
+        <v>84.375</v>
       </c>
     </row>
     <row r="100" spans="19:22" x14ac:dyDescent="0.45">
@@ -19110,7 +20330,7 @@
         <v>98</v>
       </c>
       <c r="T100">
-        <v>0.125</v>
+        <v>0.15625</v>
       </c>
       <c r="U100">
         <f t="shared" si="2"/>
@@ -19118,7 +20338,7 @@
       </c>
       <c r="V100">
         <f t="shared" si="3"/>
-        <v>87.5</v>
+        <v>84.375</v>
       </c>
     </row>
     <row r="101" spans="19:22" x14ac:dyDescent="0.45">
@@ -19126,7 +20346,7 @@
         <v>99</v>
       </c>
       <c r="T101">
-        <v>0.125</v>
+        <v>0.15625</v>
       </c>
       <c r="U101">
         <f t="shared" si="2"/>
@@ -19134,7 +20354,7 @@
       </c>
       <c r="V101">
         <f t="shared" si="3"/>
-        <v>87.5</v>
+        <v>84.375</v>
       </c>
     </row>
     <row r="102" spans="19:22" x14ac:dyDescent="0.45">

--- a/LJ+UA Experiments.xlsx
+++ b/LJ+UA Experiments.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dhvan\Documents\GitHub\P4P-Transformer-ASR-for-Dysarthric-Speech\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68B4F338-0335-49B3-B331-1E854067D331}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC521A58-02E9-4A93-A0D7-47B5A44691BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13155" firstSheet="4" activeTab="10" xr2:uid="{75EE08EB-D9DA-45E6-8F41-68FBAE46F917}"/>
+    <workbookView xWindow="3075" yWindow="1508" windowWidth="15390" windowHeight="9442" firstSheet="7" activeTab="12" xr2:uid="{75EE08EB-D9DA-45E6-8F41-68FBAE46F917}"/>
   </bookViews>
   <sheets>
     <sheet name="E1" sheetId="1" r:id="rId1"/>
@@ -24,6 +24,8 @@
     <sheet name="E123_2.0" sheetId="9" r:id="rId9"/>
     <sheet name="E12_2.0" sheetId="11" r:id="rId10"/>
     <sheet name="E1_2.0" sheetId="10" r:id="rId11"/>
+    <sheet name="Token Embeddings" sheetId="12" r:id="rId12"/>
+    <sheet name="Sequential" sheetId="13" r:id="rId13"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -46,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="394" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="402" uniqueCount="22">
   <si>
     <r>
       <rPr>
@@ -601,6 +603,50 @@
       <t>89% (2% increase)</t>
     </r>
   </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Model Name:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> LJ200_2.0_UAControl_FreezeTokenEmbeddings.h5 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Accuracy:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>91% (4% increase)</t>
+    </r>
+  </si>
 </sst>
 </file>
 
@@ -2345,6 +2391,584 @@
           </a:p>
         </c:txPr>
         <c:crossAx val="1253912367"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Token Embeddings'!$R$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Accuracy</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Token Embeddings'!$R$2:$R$101</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="100"/>
+                <c:pt idx="0">
+                  <c:v>3.125</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>14.0625</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>34.375</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>64.0625</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>78.125</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>81.25</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>73.4375</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>79.6875</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>68.75</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>82.8125</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>81.25</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>82.8125</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>73.4375</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>78.125</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>78.125</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>81.25</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>79.6875</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>70.3125</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>78.125</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>73.4375</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>82.8125</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>78.125</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>82.8125</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>78.125</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>81.25</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>79.6875</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>79.6875</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>79.6875</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>85.9375</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>82.8125</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>82.8125</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>84.375</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>79.6875</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>85.9375</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>81.25</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>82.8125</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>87.5</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>84.375</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>82.8125</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>85.9375</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>84.375</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>85.9375</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>92.1875</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>85.9375</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>81.25</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>82.8125</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>87.5</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>79.6875</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>85.9375</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>90.625</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>92.1875</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>85.9375</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>84.375</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>84.375</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>85.9375</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>89.0625</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>82.8125</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>87.5</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>90.625</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>85.9375</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>85.9375</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>87.5</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>82.8125</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>93.75</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>87.5</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>87.5</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>90.625</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>90.625</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>90.625</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>85.9375</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>87.5</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>87.5</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>92.1875</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>85.9375</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>82.8125</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>84.375</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>87.5</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>85.9375</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>84.375</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>84.375</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>85.9375</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>90.625</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>85.9375</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>89.0625</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>89.0625</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>89.0625</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>89.0625</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>89.0625</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>89.0625</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>89.0625</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>89.0625</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>89.0625</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>89.0625</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>89.0625</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>89.0625</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>89.0625</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>89.0625</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>89.0625</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>89.0625</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-C5D8-4CBD-895E-7F1CA2144553}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="63701343"/>
+        <c:axId val="63698847"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="63701343"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="63698847"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="63698847"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="63701343"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -7105,6 +7729,46 @@
 </file>
 
 <file path=xl/charts/colors11.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors12.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -8497,6 +9161,522 @@
 </file>
 
 <file path=xl/charts/style11.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style12.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -13674,6 +14854,184 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing12.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>65539</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>14072</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>104863</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6091478E-95FB-48A1-BC95-EC59C5E5E59D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:srcRect l="-331" t="38919" r="61637" b="11975"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1" y="608464"/>
+          <a:ext cx="3252571" cy="2753949"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>22501</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>157163</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2E92E899-326A-085F-A109-3478DF5CE804}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="3619500"/>
+          <a:ext cx="3261001" cy="2509838"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>550068</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>2381</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>569118</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>30956</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Chart 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0AA1CA05-E809-4923-7C1A-B0A7051C5250}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1088572</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>136073</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>428056</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>17009</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{712AC5E7-70AE-BDD7-CBA4-D113165AF359}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4966608" y="493261"/>
+          <a:ext cx="3889373" cy="2917030"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
@@ -18711,7 +20069,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{618A103B-AAE0-4589-86B5-9C75EBAC44A4}">
   <dimension ref="A1:V152"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="56" workbookViewId="0">
+    <sheetView zoomScale="56" workbookViewId="0">
       <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
@@ -20778,12 +22136,1692 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3615591-9C42-4987-AAEA-DD4B06F99473}">
+  <dimension ref="A1:R101"/>
+  <sheetViews>
+    <sheetView topLeftCell="AC1" zoomScale="56" workbookViewId="0">
+      <selection sqref="A1:G1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="7" max="7" width="18.3984375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="I1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
+      <c r="O1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="O2">
+        <v>0</v>
+      </c>
+      <c r="P2">
+        <v>0.96875</v>
+      </c>
+      <c r="Q2">
+        <f xml:space="preserve"> 1+O2</f>
+        <v>1</v>
+      </c>
+      <c r="R2">
+        <f xml:space="preserve"> (1-P2)*100</f>
+        <v>3.125</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="O3">
+        <v>1</v>
+      </c>
+      <c r="P3">
+        <v>0.859375</v>
+      </c>
+      <c r="Q3">
+        <f t="shared" ref="Q3:Q66" si="0" xml:space="preserve"> 1+O3</f>
+        <v>2</v>
+      </c>
+      <c r="R3">
+        <f t="shared" ref="R3:R66" si="1" xml:space="preserve"> (1-P3)*100</f>
+        <v>14.0625</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="O4">
+        <v>2</v>
+      </c>
+      <c r="P4">
+        <v>0.65625</v>
+      </c>
+      <c r="Q4">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="R4">
+        <f t="shared" si="1"/>
+        <v>34.375</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="O5">
+        <v>3</v>
+      </c>
+      <c r="P5">
+        <v>0.359375</v>
+      </c>
+      <c r="Q5">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="R5">
+        <f t="shared" si="1"/>
+        <v>64.0625</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="O6">
+        <v>4</v>
+      </c>
+      <c r="P6">
+        <v>0.21875</v>
+      </c>
+      <c r="Q6">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="R6">
+        <f t="shared" si="1"/>
+        <v>78.125</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="O7">
+        <v>5</v>
+      </c>
+      <c r="P7">
+        <v>0.1875</v>
+      </c>
+      <c r="Q7">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="R7">
+        <f t="shared" si="1"/>
+        <v>81.25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="O8">
+        <v>6</v>
+      </c>
+      <c r="P8">
+        <v>0.265625</v>
+      </c>
+      <c r="Q8">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="R8">
+        <f t="shared" si="1"/>
+        <v>73.4375</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="O9">
+        <v>7</v>
+      </c>
+      <c r="P9">
+        <v>0.203125</v>
+      </c>
+      <c r="Q9">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="R9">
+        <f t="shared" si="1"/>
+        <v>79.6875</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="O10">
+        <v>8</v>
+      </c>
+      <c r="P10">
+        <v>0.3125</v>
+      </c>
+      <c r="Q10">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="R10">
+        <f t="shared" si="1"/>
+        <v>68.75</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="O11">
+        <v>9</v>
+      </c>
+      <c r="P11">
+        <v>0.25</v>
+      </c>
+      <c r="Q11">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="R11">
+        <f t="shared" si="1"/>
+        <v>75</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="O12">
+        <v>10</v>
+      </c>
+      <c r="P12">
+        <v>0.171875</v>
+      </c>
+      <c r="Q12">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="R12">
+        <f t="shared" si="1"/>
+        <v>82.8125</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="O13">
+        <v>11</v>
+      </c>
+      <c r="P13">
+        <v>0.1875</v>
+      </c>
+      <c r="Q13">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="R13">
+        <f t="shared" si="1"/>
+        <v>81.25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="O14">
+        <v>12</v>
+      </c>
+      <c r="P14">
+        <v>0.171875</v>
+      </c>
+      <c r="Q14">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="R14">
+        <f t="shared" si="1"/>
+        <v>82.8125</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="O15">
+        <v>13</v>
+      </c>
+      <c r="P15">
+        <v>0.265625</v>
+      </c>
+      <c r="Q15">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="R15">
+        <f t="shared" si="1"/>
+        <v>73.4375</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="O16">
+        <v>14</v>
+      </c>
+      <c r="P16">
+        <v>0.21875</v>
+      </c>
+      <c r="Q16">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="R16">
+        <f t="shared" si="1"/>
+        <v>78.125</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="O17">
+        <v>15</v>
+      </c>
+      <c r="P17">
+        <v>0.21875</v>
+      </c>
+      <c r="Q17">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="R17">
+        <f t="shared" si="1"/>
+        <v>78.125</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="O18">
+        <v>16</v>
+      </c>
+      <c r="P18">
+        <v>0.1875</v>
+      </c>
+      <c r="Q18">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="R18">
+        <f t="shared" si="1"/>
+        <v>81.25</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="O19">
+        <v>17</v>
+      </c>
+      <c r="P19">
+        <v>0.203125</v>
+      </c>
+      <c r="Q19">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="R19">
+        <f t="shared" si="1"/>
+        <v>79.6875</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A20" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
+      <c r="O20">
+        <v>18</v>
+      </c>
+      <c r="P20">
+        <v>0.296875</v>
+      </c>
+      <c r="Q20">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="R20">
+        <f t="shared" si="1"/>
+        <v>70.3125</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="O21">
+        <v>19</v>
+      </c>
+      <c r="P21">
+        <v>0.21875</v>
+      </c>
+      <c r="Q21">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="R21">
+        <f t="shared" si="1"/>
+        <v>78.125</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="O22">
+        <v>20</v>
+      </c>
+      <c r="P22">
+        <v>0.265625</v>
+      </c>
+      <c r="Q22">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="R22">
+        <f t="shared" si="1"/>
+        <v>73.4375</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="O23">
+        <v>21</v>
+      </c>
+      <c r="P23">
+        <v>0.171875</v>
+      </c>
+      <c r="Q23">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="R23">
+        <f t="shared" si="1"/>
+        <v>82.8125</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="O24">
+        <v>22</v>
+      </c>
+      <c r="P24">
+        <v>0.21875</v>
+      </c>
+      <c r="Q24">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="R24">
+        <f t="shared" si="1"/>
+        <v>78.125</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="O25">
+        <v>23</v>
+      </c>
+      <c r="P25">
+        <v>0.171875</v>
+      </c>
+      <c r="Q25">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="R25">
+        <f t="shared" si="1"/>
+        <v>82.8125</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="O26">
+        <v>24</v>
+      </c>
+      <c r="P26">
+        <v>0.21875</v>
+      </c>
+      <c r="Q26">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="R26">
+        <f t="shared" si="1"/>
+        <v>78.125</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="O27">
+        <v>25</v>
+      </c>
+      <c r="P27">
+        <v>0.1875</v>
+      </c>
+      <c r="Q27">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+      <c r="R27">
+        <f t="shared" si="1"/>
+        <v>81.25</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="O28">
+        <v>26</v>
+      </c>
+      <c r="P28">
+        <v>0.203125</v>
+      </c>
+      <c r="Q28">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+      <c r="R28">
+        <f t="shared" si="1"/>
+        <v>79.6875</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="O29">
+        <v>27</v>
+      </c>
+      <c r="P29">
+        <v>0.203125</v>
+      </c>
+      <c r="Q29">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+      <c r="R29">
+        <f t="shared" si="1"/>
+        <v>79.6875</v>
+      </c>
+    </row>
+    <row r="30" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="O30">
+        <v>28</v>
+      </c>
+      <c r="P30">
+        <v>0.203125</v>
+      </c>
+      <c r="Q30">
+        <f t="shared" si="0"/>
+        <v>29</v>
+      </c>
+      <c r="R30">
+        <f t="shared" si="1"/>
+        <v>79.6875</v>
+      </c>
+    </row>
+    <row r="31" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="O31">
+        <v>29</v>
+      </c>
+      <c r="P31">
+        <v>0.140625</v>
+      </c>
+      <c r="Q31">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="R31">
+        <f t="shared" si="1"/>
+        <v>85.9375</v>
+      </c>
+    </row>
+    <row r="32" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="O32">
+        <v>30</v>
+      </c>
+      <c r="P32">
+        <v>0.171875</v>
+      </c>
+      <c r="Q32">
+        <f t="shared" si="0"/>
+        <v>31</v>
+      </c>
+      <c r="R32">
+        <f t="shared" si="1"/>
+        <v>82.8125</v>
+      </c>
+    </row>
+    <row r="33" spans="15:18" x14ac:dyDescent="0.45">
+      <c r="O33">
+        <v>31</v>
+      </c>
+      <c r="P33">
+        <v>0.171875</v>
+      </c>
+      <c r="Q33">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+      <c r="R33">
+        <f t="shared" si="1"/>
+        <v>82.8125</v>
+      </c>
+    </row>
+    <row r="34" spans="15:18" x14ac:dyDescent="0.45">
+      <c r="O34">
+        <v>32</v>
+      </c>
+      <c r="P34">
+        <v>0.15625</v>
+      </c>
+      <c r="Q34">
+        <f t="shared" si="0"/>
+        <v>33</v>
+      </c>
+      <c r="R34">
+        <f t="shared" si="1"/>
+        <v>84.375</v>
+      </c>
+    </row>
+    <row r="35" spans="15:18" x14ac:dyDescent="0.45">
+      <c r="O35">
+        <v>33</v>
+      </c>
+      <c r="P35">
+        <v>0.203125</v>
+      </c>
+      <c r="Q35">
+        <f t="shared" si="0"/>
+        <v>34</v>
+      </c>
+      <c r="R35">
+        <f t="shared" si="1"/>
+        <v>79.6875</v>
+      </c>
+    </row>
+    <row r="36" spans="15:18" x14ac:dyDescent="0.45">
+      <c r="O36">
+        <v>34</v>
+      </c>
+      <c r="P36">
+        <v>0.140625</v>
+      </c>
+      <c r="Q36">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+      <c r="R36">
+        <f t="shared" si="1"/>
+        <v>85.9375</v>
+      </c>
+    </row>
+    <row r="37" spans="15:18" x14ac:dyDescent="0.45">
+      <c r="O37">
+        <v>35</v>
+      </c>
+      <c r="P37">
+        <v>0.1875</v>
+      </c>
+      <c r="Q37">
+        <f t="shared" si="0"/>
+        <v>36</v>
+      </c>
+      <c r="R37">
+        <f t="shared" si="1"/>
+        <v>81.25</v>
+      </c>
+    </row>
+    <row r="38" spans="15:18" x14ac:dyDescent="0.45">
+      <c r="O38">
+        <v>36</v>
+      </c>
+      <c r="P38">
+        <v>0.171875</v>
+      </c>
+      <c r="Q38">
+        <f t="shared" si="0"/>
+        <v>37</v>
+      </c>
+      <c r="R38">
+        <f t="shared" si="1"/>
+        <v>82.8125</v>
+      </c>
+    </row>
+    <row r="39" spans="15:18" x14ac:dyDescent="0.45">
+      <c r="O39">
+        <v>37</v>
+      </c>
+      <c r="P39">
+        <v>0.125</v>
+      </c>
+      <c r="Q39">
+        <f t="shared" si="0"/>
+        <v>38</v>
+      </c>
+      <c r="R39">
+        <f t="shared" si="1"/>
+        <v>87.5</v>
+      </c>
+    </row>
+    <row r="40" spans="15:18" x14ac:dyDescent="0.45">
+      <c r="O40">
+        <v>38</v>
+      </c>
+      <c r="P40">
+        <v>0.15625</v>
+      </c>
+      <c r="Q40">
+        <f t="shared" si="0"/>
+        <v>39</v>
+      </c>
+      <c r="R40">
+        <f t="shared" si="1"/>
+        <v>84.375</v>
+      </c>
+    </row>
+    <row r="41" spans="15:18" x14ac:dyDescent="0.45">
+      <c r="O41">
+        <v>39</v>
+      </c>
+      <c r="P41">
+        <v>0.171875</v>
+      </c>
+      <c r="Q41">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="R41">
+        <f t="shared" si="1"/>
+        <v>82.8125</v>
+      </c>
+    </row>
+    <row r="42" spans="15:18" x14ac:dyDescent="0.45">
+      <c r="O42">
+        <v>40</v>
+      </c>
+      <c r="P42">
+        <v>0.140625</v>
+      </c>
+      <c r="Q42">
+        <f t="shared" si="0"/>
+        <v>41</v>
+      </c>
+      <c r="R42">
+        <f t="shared" si="1"/>
+        <v>85.9375</v>
+      </c>
+    </row>
+    <row r="43" spans="15:18" x14ac:dyDescent="0.45">
+      <c r="O43">
+        <v>41</v>
+      </c>
+      <c r="P43">
+        <v>0.15625</v>
+      </c>
+      <c r="Q43">
+        <f t="shared" si="0"/>
+        <v>42</v>
+      </c>
+      <c r="R43">
+        <f t="shared" si="1"/>
+        <v>84.375</v>
+      </c>
+    </row>
+    <row r="44" spans="15:18" x14ac:dyDescent="0.45">
+      <c r="O44">
+        <v>42</v>
+      </c>
+      <c r="P44">
+        <v>0.140625</v>
+      </c>
+      <c r="Q44">
+        <f t="shared" si="0"/>
+        <v>43</v>
+      </c>
+      <c r="R44">
+        <f t="shared" si="1"/>
+        <v>85.9375</v>
+      </c>
+    </row>
+    <row r="45" spans="15:18" x14ac:dyDescent="0.45">
+      <c r="O45">
+        <v>43</v>
+      </c>
+      <c r="P45">
+        <v>7.8125E-2</v>
+      </c>
+      <c r="Q45">
+        <f t="shared" si="0"/>
+        <v>44</v>
+      </c>
+      <c r="R45">
+        <f t="shared" si="1"/>
+        <v>92.1875</v>
+      </c>
+    </row>
+    <row r="46" spans="15:18" x14ac:dyDescent="0.45">
+      <c r="O46">
+        <v>44</v>
+      </c>
+      <c r="P46">
+        <v>0.140625</v>
+      </c>
+      <c r="Q46">
+        <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+      <c r="R46">
+        <f t="shared" si="1"/>
+        <v>85.9375</v>
+      </c>
+    </row>
+    <row r="47" spans="15:18" x14ac:dyDescent="0.45">
+      <c r="O47">
+        <v>45</v>
+      </c>
+      <c r="P47">
+        <v>0.1875</v>
+      </c>
+      <c r="Q47">
+        <f t="shared" si="0"/>
+        <v>46</v>
+      </c>
+      <c r="R47">
+        <f t="shared" si="1"/>
+        <v>81.25</v>
+      </c>
+    </row>
+    <row r="48" spans="15:18" x14ac:dyDescent="0.45">
+      <c r="O48">
+        <v>46</v>
+      </c>
+      <c r="P48">
+        <v>0.171875</v>
+      </c>
+      <c r="Q48">
+        <f t="shared" si="0"/>
+        <v>47</v>
+      </c>
+      <c r="R48">
+        <f t="shared" si="1"/>
+        <v>82.8125</v>
+      </c>
+    </row>
+    <row r="49" spans="15:18" x14ac:dyDescent="0.45">
+      <c r="O49">
+        <v>47</v>
+      </c>
+      <c r="P49">
+        <v>0.125</v>
+      </c>
+      <c r="Q49">
+        <f t="shared" si="0"/>
+        <v>48</v>
+      </c>
+      <c r="R49">
+        <f t="shared" si="1"/>
+        <v>87.5</v>
+      </c>
+    </row>
+    <row r="50" spans="15:18" x14ac:dyDescent="0.45">
+      <c r="O50">
+        <v>48</v>
+      </c>
+      <c r="P50">
+        <v>0.203125</v>
+      </c>
+      <c r="Q50">
+        <f t="shared" si="0"/>
+        <v>49</v>
+      </c>
+      <c r="R50">
+        <f t="shared" si="1"/>
+        <v>79.6875</v>
+      </c>
+    </row>
+    <row r="51" spans="15:18" x14ac:dyDescent="0.45">
+      <c r="O51">
+        <v>49</v>
+      </c>
+      <c r="P51">
+        <v>0.140625</v>
+      </c>
+      <c r="Q51">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+      <c r="R51">
+        <f t="shared" si="1"/>
+        <v>85.9375</v>
+      </c>
+    </row>
+    <row r="52" spans="15:18" x14ac:dyDescent="0.45">
+      <c r="O52">
+        <v>50</v>
+      </c>
+      <c r="P52">
+        <v>9.375E-2</v>
+      </c>
+      <c r="Q52">
+        <f t="shared" si="0"/>
+        <v>51</v>
+      </c>
+      <c r="R52">
+        <f t="shared" si="1"/>
+        <v>90.625</v>
+      </c>
+    </row>
+    <row r="53" spans="15:18" x14ac:dyDescent="0.45">
+      <c r="O53">
+        <v>51</v>
+      </c>
+      <c r="P53">
+        <v>7.8125E-2</v>
+      </c>
+      <c r="Q53">
+        <f t="shared" si="0"/>
+        <v>52</v>
+      </c>
+      <c r="R53">
+        <f t="shared" si="1"/>
+        <v>92.1875</v>
+      </c>
+    </row>
+    <row r="54" spans="15:18" x14ac:dyDescent="0.45">
+      <c r="O54">
+        <v>52</v>
+      </c>
+      <c r="P54">
+        <v>0.140625</v>
+      </c>
+      <c r="Q54">
+        <f t="shared" si="0"/>
+        <v>53</v>
+      </c>
+      <c r="R54">
+        <f t="shared" si="1"/>
+        <v>85.9375</v>
+      </c>
+    </row>
+    <row r="55" spans="15:18" x14ac:dyDescent="0.45">
+      <c r="O55">
+        <v>53</v>
+      </c>
+      <c r="P55">
+        <v>0.15625</v>
+      </c>
+      <c r="Q55">
+        <f t="shared" si="0"/>
+        <v>54</v>
+      </c>
+      <c r="R55">
+        <f t="shared" si="1"/>
+        <v>84.375</v>
+      </c>
+    </row>
+    <row r="56" spans="15:18" x14ac:dyDescent="0.45">
+      <c r="O56">
+        <v>54</v>
+      </c>
+      <c r="P56">
+        <v>0.15625</v>
+      </c>
+      <c r="Q56">
+        <f t="shared" si="0"/>
+        <v>55</v>
+      </c>
+      <c r="R56">
+        <f t="shared" si="1"/>
+        <v>84.375</v>
+      </c>
+    </row>
+    <row r="57" spans="15:18" x14ac:dyDescent="0.45">
+      <c r="O57">
+        <v>55</v>
+      </c>
+      <c r="P57">
+        <v>0.140625</v>
+      </c>
+      <c r="Q57">
+        <f t="shared" si="0"/>
+        <v>56</v>
+      </c>
+      <c r="R57">
+        <f t="shared" si="1"/>
+        <v>85.9375</v>
+      </c>
+    </row>
+    <row r="58" spans="15:18" x14ac:dyDescent="0.45">
+      <c r="O58">
+        <v>56</v>
+      </c>
+      <c r="P58">
+        <v>0.109375</v>
+      </c>
+      <c r="Q58">
+        <f t="shared" si="0"/>
+        <v>57</v>
+      </c>
+      <c r="R58">
+        <f t="shared" si="1"/>
+        <v>89.0625</v>
+      </c>
+    </row>
+    <row r="59" spans="15:18" x14ac:dyDescent="0.45">
+      <c r="O59">
+        <v>57</v>
+      </c>
+      <c r="P59">
+        <v>0.171875</v>
+      </c>
+      <c r="Q59">
+        <f t="shared" si="0"/>
+        <v>58</v>
+      </c>
+      <c r="R59">
+        <f t="shared" si="1"/>
+        <v>82.8125</v>
+      </c>
+    </row>
+    <row r="60" spans="15:18" x14ac:dyDescent="0.45">
+      <c r="O60">
+        <v>58</v>
+      </c>
+      <c r="P60">
+        <v>0.125</v>
+      </c>
+      <c r="Q60">
+        <f t="shared" si="0"/>
+        <v>59</v>
+      </c>
+      <c r="R60">
+        <f t="shared" si="1"/>
+        <v>87.5</v>
+      </c>
+    </row>
+    <row r="61" spans="15:18" x14ac:dyDescent="0.45">
+      <c r="O61">
+        <v>59</v>
+      </c>
+      <c r="P61">
+        <v>9.375E-2</v>
+      </c>
+      <c r="Q61">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+      <c r="R61">
+        <f t="shared" si="1"/>
+        <v>90.625</v>
+      </c>
+    </row>
+    <row r="62" spans="15:18" x14ac:dyDescent="0.45">
+      <c r="O62">
+        <v>60</v>
+      </c>
+      <c r="P62">
+        <v>0.140625</v>
+      </c>
+      <c r="Q62">
+        <f t="shared" si="0"/>
+        <v>61</v>
+      </c>
+      <c r="R62">
+        <f t="shared" si="1"/>
+        <v>85.9375</v>
+      </c>
+    </row>
+    <row r="63" spans="15:18" x14ac:dyDescent="0.45">
+      <c r="O63">
+        <v>61</v>
+      </c>
+      <c r="P63">
+        <v>0.140625</v>
+      </c>
+      <c r="Q63">
+        <f t="shared" si="0"/>
+        <v>62</v>
+      </c>
+      <c r="R63">
+        <f t="shared" si="1"/>
+        <v>85.9375</v>
+      </c>
+    </row>
+    <row r="64" spans="15:18" x14ac:dyDescent="0.45">
+      <c r="O64">
+        <v>62</v>
+      </c>
+      <c r="P64">
+        <v>0.125</v>
+      </c>
+      <c r="Q64">
+        <f t="shared" si="0"/>
+        <v>63</v>
+      </c>
+      <c r="R64">
+        <f t="shared" si="1"/>
+        <v>87.5</v>
+      </c>
+    </row>
+    <row r="65" spans="15:18" x14ac:dyDescent="0.45">
+      <c r="O65">
+        <v>63</v>
+      </c>
+      <c r="P65">
+        <v>0.171875</v>
+      </c>
+      <c r="Q65">
+        <f t="shared" si="0"/>
+        <v>64</v>
+      </c>
+      <c r="R65">
+        <f t="shared" si="1"/>
+        <v>82.8125</v>
+      </c>
+    </row>
+    <row r="66" spans="15:18" x14ac:dyDescent="0.45">
+      <c r="O66">
+        <v>64</v>
+      </c>
+      <c r="P66">
+        <v>6.25E-2</v>
+      </c>
+      <c r="Q66">
+        <f t="shared" si="0"/>
+        <v>65</v>
+      </c>
+      <c r="R66">
+        <f t="shared" si="1"/>
+        <v>93.75</v>
+      </c>
+    </row>
+    <row r="67" spans="15:18" x14ac:dyDescent="0.45">
+      <c r="O67">
+        <v>65</v>
+      </c>
+      <c r="P67">
+        <v>0.125</v>
+      </c>
+      <c r="Q67">
+        <f t="shared" ref="Q67:Q101" si="2" xml:space="preserve"> 1+O67</f>
+        <v>66</v>
+      </c>
+      <c r="R67">
+        <f t="shared" ref="R67:R101" si="3" xml:space="preserve"> (1-P67)*100</f>
+        <v>87.5</v>
+      </c>
+    </row>
+    <row r="68" spans="15:18" x14ac:dyDescent="0.45">
+      <c r="O68">
+        <v>66</v>
+      </c>
+      <c r="P68">
+        <v>0.125</v>
+      </c>
+      <c r="Q68">
+        <f t="shared" si="2"/>
+        <v>67</v>
+      </c>
+      <c r="R68">
+        <f t="shared" si="3"/>
+        <v>87.5</v>
+      </c>
+    </row>
+    <row r="69" spans="15:18" x14ac:dyDescent="0.45">
+      <c r="O69">
+        <v>67</v>
+      </c>
+      <c r="P69">
+        <v>9.375E-2</v>
+      </c>
+      <c r="Q69">
+        <f t="shared" si="2"/>
+        <v>68</v>
+      </c>
+      <c r="R69">
+        <f t="shared" si="3"/>
+        <v>90.625</v>
+      </c>
+    </row>
+    <row r="70" spans="15:18" x14ac:dyDescent="0.45">
+      <c r="O70">
+        <v>68</v>
+      </c>
+      <c r="P70">
+        <v>9.375E-2</v>
+      </c>
+      <c r="Q70">
+        <f t="shared" si="2"/>
+        <v>69</v>
+      </c>
+      <c r="R70">
+        <f t="shared" si="3"/>
+        <v>90.625</v>
+      </c>
+    </row>
+    <row r="71" spans="15:18" x14ac:dyDescent="0.45">
+      <c r="O71">
+        <v>69</v>
+      </c>
+      <c r="P71">
+        <v>9.375E-2</v>
+      </c>
+      <c r="Q71">
+        <f t="shared" si="2"/>
+        <v>70</v>
+      </c>
+      <c r="R71">
+        <f t="shared" si="3"/>
+        <v>90.625</v>
+      </c>
+    </row>
+    <row r="72" spans="15:18" x14ac:dyDescent="0.45">
+      <c r="O72">
+        <v>70</v>
+      </c>
+      <c r="P72">
+        <v>0.140625</v>
+      </c>
+      <c r="Q72">
+        <f t="shared" si="2"/>
+        <v>71</v>
+      </c>
+      <c r="R72">
+        <f t="shared" si="3"/>
+        <v>85.9375</v>
+      </c>
+    </row>
+    <row r="73" spans="15:18" x14ac:dyDescent="0.45">
+      <c r="O73">
+        <v>71</v>
+      </c>
+      <c r="P73">
+        <v>0.125</v>
+      </c>
+      <c r="Q73">
+        <f t="shared" si="2"/>
+        <v>72</v>
+      </c>
+      <c r="R73">
+        <f t="shared" si="3"/>
+        <v>87.5</v>
+      </c>
+    </row>
+    <row r="74" spans="15:18" x14ac:dyDescent="0.45">
+      <c r="O74">
+        <v>72</v>
+      </c>
+      <c r="P74">
+        <v>0.125</v>
+      </c>
+      <c r="Q74">
+        <f t="shared" si="2"/>
+        <v>73</v>
+      </c>
+      <c r="R74">
+        <f t="shared" si="3"/>
+        <v>87.5</v>
+      </c>
+    </row>
+    <row r="75" spans="15:18" x14ac:dyDescent="0.45">
+      <c r="O75">
+        <v>73</v>
+      </c>
+      <c r="P75">
+        <v>7.8125E-2</v>
+      </c>
+      <c r="Q75">
+        <f t="shared" si="2"/>
+        <v>74</v>
+      </c>
+      <c r="R75">
+        <f t="shared" si="3"/>
+        <v>92.1875</v>
+      </c>
+    </row>
+    <row r="76" spans="15:18" x14ac:dyDescent="0.45">
+      <c r="O76">
+        <v>74</v>
+      </c>
+      <c r="P76">
+        <v>0.140625</v>
+      </c>
+      <c r="Q76">
+        <f t="shared" si="2"/>
+        <v>75</v>
+      </c>
+      <c r="R76">
+        <f t="shared" si="3"/>
+        <v>85.9375</v>
+      </c>
+    </row>
+    <row r="77" spans="15:18" x14ac:dyDescent="0.45">
+      <c r="O77">
+        <v>75</v>
+      </c>
+      <c r="P77">
+        <v>0.171875</v>
+      </c>
+      <c r="Q77">
+        <f t="shared" si="2"/>
+        <v>76</v>
+      </c>
+      <c r="R77">
+        <f t="shared" si="3"/>
+        <v>82.8125</v>
+      </c>
+    </row>
+    <row r="78" spans="15:18" x14ac:dyDescent="0.45">
+      <c r="O78">
+        <v>76</v>
+      </c>
+      <c r="P78">
+        <v>0.15625</v>
+      </c>
+      <c r="Q78">
+        <f t="shared" si="2"/>
+        <v>77</v>
+      </c>
+      <c r="R78">
+        <f t="shared" si="3"/>
+        <v>84.375</v>
+      </c>
+    </row>
+    <row r="79" spans="15:18" x14ac:dyDescent="0.45">
+      <c r="O79">
+        <v>77</v>
+      </c>
+      <c r="P79">
+        <v>0.125</v>
+      </c>
+      <c r="Q79">
+        <f t="shared" si="2"/>
+        <v>78</v>
+      </c>
+      <c r="R79">
+        <f t="shared" si="3"/>
+        <v>87.5</v>
+      </c>
+    </row>
+    <row r="80" spans="15:18" x14ac:dyDescent="0.45">
+      <c r="O80">
+        <v>78</v>
+      </c>
+      <c r="P80">
+        <v>0.140625</v>
+      </c>
+      <c r="Q80">
+        <f t="shared" si="2"/>
+        <v>79</v>
+      </c>
+      <c r="R80">
+        <f t="shared" si="3"/>
+        <v>85.9375</v>
+      </c>
+    </row>
+    <row r="81" spans="15:18" x14ac:dyDescent="0.45">
+      <c r="O81">
+        <v>79</v>
+      </c>
+      <c r="P81">
+        <v>0.15625</v>
+      </c>
+      <c r="Q81">
+        <f t="shared" si="2"/>
+        <v>80</v>
+      </c>
+      <c r="R81">
+        <f t="shared" si="3"/>
+        <v>84.375</v>
+      </c>
+    </row>
+    <row r="82" spans="15:18" x14ac:dyDescent="0.45">
+      <c r="O82">
+        <v>80</v>
+      </c>
+      <c r="P82">
+        <v>0.15625</v>
+      </c>
+      <c r="Q82">
+        <f t="shared" si="2"/>
+        <v>81</v>
+      </c>
+      <c r="R82">
+        <f t="shared" si="3"/>
+        <v>84.375</v>
+      </c>
+    </row>
+    <row r="83" spans="15:18" x14ac:dyDescent="0.45">
+      <c r="O83">
+        <v>81</v>
+      </c>
+      <c r="P83">
+        <v>0.140625</v>
+      </c>
+      <c r="Q83">
+        <f t="shared" si="2"/>
+        <v>82</v>
+      </c>
+      <c r="R83">
+        <f t="shared" si="3"/>
+        <v>85.9375</v>
+      </c>
+    </row>
+    <row r="84" spans="15:18" x14ac:dyDescent="0.45">
+      <c r="O84">
+        <v>82</v>
+      </c>
+      <c r="P84">
+        <v>9.375E-2</v>
+      </c>
+      <c r="Q84">
+        <f t="shared" si="2"/>
+        <v>83</v>
+      </c>
+      <c r="R84">
+        <f t="shared" si="3"/>
+        <v>90.625</v>
+      </c>
+    </row>
+    <row r="85" spans="15:18" x14ac:dyDescent="0.45">
+      <c r="O85">
+        <v>83</v>
+      </c>
+      <c r="P85">
+        <v>0.140625</v>
+      </c>
+      <c r="Q85">
+        <f t="shared" si="2"/>
+        <v>84</v>
+      </c>
+      <c r="R85">
+        <f t="shared" si="3"/>
+        <v>85.9375</v>
+      </c>
+    </row>
+    <row r="86" spans="15:18" x14ac:dyDescent="0.45">
+      <c r="O86">
+        <v>84</v>
+      </c>
+      <c r="P86">
+        <v>0.109375</v>
+      </c>
+      <c r="Q86">
+        <f t="shared" si="2"/>
+        <v>85</v>
+      </c>
+      <c r="R86">
+        <f t="shared" si="3"/>
+        <v>89.0625</v>
+      </c>
+    </row>
+    <row r="87" spans="15:18" x14ac:dyDescent="0.45">
+      <c r="O87">
+        <v>85</v>
+      </c>
+      <c r="P87">
+        <v>0.109375</v>
+      </c>
+      <c r="Q87">
+        <f t="shared" si="2"/>
+        <v>86</v>
+      </c>
+      <c r="R87">
+        <f t="shared" si="3"/>
+        <v>89.0625</v>
+      </c>
+    </row>
+    <row r="88" spans="15:18" x14ac:dyDescent="0.45">
+      <c r="O88">
+        <v>86</v>
+      </c>
+      <c r="P88">
+        <v>0.109375</v>
+      </c>
+      <c r="Q88">
+        <f t="shared" si="2"/>
+        <v>87</v>
+      </c>
+      <c r="R88">
+        <f t="shared" si="3"/>
+        <v>89.0625</v>
+      </c>
+    </row>
+    <row r="89" spans="15:18" x14ac:dyDescent="0.45">
+      <c r="O89">
+        <v>87</v>
+      </c>
+      <c r="P89">
+        <v>0.109375</v>
+      </c>
+      <c r="Q89">
+        <f t="shared" si="2"/>
+        <v>88</v>
+      </c>
+      <c r="R89">
+        <f t="shared" si="3"/>
+        <v>89.0625</v>
+      </c>
+    </row>
+    <row r="90" spans="15:18" x14ac:dyDescent="0.45">
+      <c r="O90">
+        <v>88</v>
+      </c>
+      <c r="P90">
+        <v>0.109375</v>
+      </c>
+      <c r="Q90">
+        <f t="shared" si="2"/>
+        <v>89</v>
+      </c>
+      <c r="R90">
+        <f t="shared" si="3"/>
+        <v>89.0625</v>
+      </c>
+    </row>
+    <row r="91" spans="15:18" x14ac:dyDescent="0.45">
+      <c r="O91">
+        <v>89</v>
+      </c>
+      <c r="P91">
+        <v>0.109375</v>
+      </c>
+      <c r="Q91">
+        <f t="shared" si="2"/>
+        <v>90</v>
+      </c>
+      <c r="R91">
+        <f t="shared" si="3"/>
+        <v>89.0625</v>
+      </c>
+    </row>
+    <row r="92" spans="15:18" x14ac:dyDescent="0.45">
+      <c r="O92">
+        <v>90</v>
+      </c>
+      <c r="P92">
+        <v>0.109375</v>
+      </c>
+      <c r="Q92">
+        <f t="shared" si="2"/>
+        <v>91</v>
+      </c>
+      <c r="R92">
+        <f t="shared" si="3"/>
+        <v>89.0625</v>
+      </c>
+    </row>
+    <row r="93" spans="15:18" x14ac:dyDescent="0.45">
+      <c r="O93">
+        <v>91</v>
+      </c>
+      <c r="P93">
+        <v>0.109375</v>
+      </c>
+      <c r="Q93">
+        <f t="shared" si="2"/>
+        <v>92</v>
+      </c>
+      <c r="R93">
+        <f t="shared" si="3"/>
+        <v>89.0625</v>
+      </c>
+    </row>
+    <row r="94" spans="15:18" x14ac:dyDescent="0.45">
+      <c r="O94">
+        <v>92</v>
+      </c>
+      <c r="P94">
+        <v>0.109375</v>
+      </c>
+      <c r="Q94">
+        <f t="shared" si="2"/>
+        <v>93</v>
+      </c>
+      <c r="R94">
+        <f t="shared" si="3"/>
+        <v>89.0625</v>
+      </c>
+    </row>
+    <row r="95" spans="15:18" x14ac:dyDescent="0.45">
+      <c r="O95">
+        <v>93</v>
+      </c>
+      <c r="P95">
+        <v>0.109375</v>
+      </c>
+      <c r="Q95">
+        <f t="shared" si="2"/>
+        <v>94</v>
+      </c>
+      <c r="R95">
+        <f t="shared" si="3"/>
+        <v>89.0625</v>
+      </c>
+    </row>
+    <row r="96" spans="15:18" x14ac:dyDescent="0.45">
+      <c r="O96">
+        <v>94</v>
+      </c>
+      <c r="P96">
+        <v>0.109375</v>
+      </c>
+      <c r="Q96">
+        <f t="shared" si="2"/>
+        <v>95</v>
+      </c>
+      <c r="R96">
+        <f t="shared" si="3"/>
+        <v>89.0625</v>
+      </c>
+    </row>
+    <row r="97" spans="15:18" x14ac:dyDescent="0.45">
+      <c r="O97">
+        <v>95</v>
+      </c>
+      <c r="P97">
+        <v>0.109375</v>
+      </c>
+      <c r="Q97">
+        <f t="shared" si="2"/>
+        <v>96</v>
+      </c>
+      <c r="R97">
+        <f t="shared" si="3"/>
+        <v>89.0625</v>
+      </c>
+    </row>
+    <row r="98" spans="15:18" x14ac:dyDescent="0.45">
+      <c r="O98">
+        <v>96</v>
+      </c>
+      <c r="P98">
+        <v>0.109375</v>
+      </c>
+      <c r="Q98">
+        <f t="shared" si="2"/>
+        <v>97</v>
+      </c>
+      <c r="R98">
+        <f t="shared" si="3"/>
+        <v>89.0625</v>
+      </c>
+    </row>
+    <row r="99" spans="15:18" x14ac:dyDescent="0.45">
+      <c r="O99">
+        <v>97</v>
+      </c>
+      <c r="P99">
+        <v>0.109375</v>
+      </c>
+      <c r="Q99">
+        <f t="shared" si="2"/>
+        <v>98</v>
+      </c>
+      <c r="R99">
+        <f t="shared" si="3"/>
+        <v>89.0625</v>
+      </c>
+    </row>
+    <row r="100" spans="15:18" x14ac:dyDescent="0.45">
+      <c r="O100">
+        <v>98</v>
+      </c>
+      <c r="P100">
+        <v>0.109375</v>
+      </c>
+      <c r="Q100">
+        <f t="shared" si="2"/>
+        <v>99</v>
+      </c>
+      <c r="R100">
+        <f t="shared" si="3"/>
+        <v>89.0625</v>
+      </c>
+    </row>
+    <row r="101" spans="15:18" x14ac:dyDescent="0.45">
+      <c r="O101">
+        <v>99</v>
+      </c>
+      <c r="P101">
+        <v>0.109375</v>
+      </c>
+      <c r="Q101">
+        <f t="shared" si="2"/>
+        <v>100</v>
+      </c>
+      <c r="R101">
+        <f t="shared" si="3"/>
+        <v>89.0625</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="I1:M1"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="A20:C20"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9A11C02-0E45-4B43-9A91-71CE4B72F194}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H17" sqref="H17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68AFAB66-8867-4821-9ACF-FD3223DD8066}">
   <dimension ref="A1:V101"/>
   <sheetViews>
-    <sheetView topLeftCell="A14" zoomScale="61" workbookViewId="0">
-      <selection activeCell="L42" sqref="L42"/>
+    <sheetView zoomScale="61" workbookViewId="0">
+      <selection activeCell="D39" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>

--- a/LJ+UA Experiments.xlsx
+++ b/LJ+UA Experiments.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dhvan\Documents\GitHub\P4P-Transformer-ASR-for-Dysarthric-Speech\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC521A58-02E9-4A93-A0D7-47B5A44691BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4EDC16B-DCE3-4638-9BB8-D193C517DFC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3075" yWindow="1508" windowWidth="15390" windowHeight="9442" firstSheet="7" activeTab="12" xr2:uid="{75EE08EB-D9DA-45E6-8F41-68FBAE46F917}"/>
+    <workbookView xWindow="3832" yWindow="3652" windowWidth="15390" windowHeight="9443" firstSheet="7" activeTab="12" xr2:uid="{75EE08EB-D9DA-45E6-8F41-68FBAE46F917}"/>
   </bookViews>
   <sheets>
     <sheet name="E1" sheetId="1" r:id="rId1"/>
@@ -26,6 +26,7 @@
     <sheet name="E1_2.0" sheetId="10" r:id="rId11"/>
     <sheet name="Token Embeddings" sheetId="12" r:id="rId12"/>
     <sheet name="Sequential" sheetId="13" r:id="rId13"/>
+    <sheet name="D1" sheetId="14" r:id="rId14"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -48,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="402" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="461" uniqueCount="24">
   <si>
     <r>
       <rPr>
@@ -647,6 +648,53 @@
       <t>91% (4% increase)</t>
     </r>
   </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Model Name:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> LJ200_2.0_UAControl_FreezeSequential.h5 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Accuracy:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">41% </t>
+    </r>
+  </si>
+  <si>
+    <t>&lt;__main__.DisplayOutputs object at 0x7f31f3e7a9d0&gt;</t>
+  </si>
 </sst>
 </file>
 
@@ -2969,6 +3017,584 @@
           </a:p>
         </c:txPr>
         <c:crossAx val="63701343"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sequential!$R$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Accuracy</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sequential!$R$2:$R$101</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="100"/>
+                <c:pt idx="0">
+                  <c:v>-4.6875</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.5625</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.125</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>15.625</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>20.3125</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>26.5625</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>35.9375</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>34.375</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>37.5</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>40.625</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>42.1875</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>43.75</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>42.1875</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>40.625</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>31.25</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>40.625</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>45.3125</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>46.875</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>43.75</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>43.75</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>43.75</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>42.1875</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>45.3125</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>40.625</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>43.75</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>51.5625</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>45.3125</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>48.4375</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>42.1875</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>46.875</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>42.1875</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>39.0625</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>43.75</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>48.4375</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>46.875</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>39.0625</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>40.625</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>40.625</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>42.1875</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>40.625</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>46.875</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>45.3125</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>39.0625</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>39.0625</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>43.75</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>42.1875</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>39.0625</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>37.5</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>46.875</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>45.3125</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>42.1875</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>40.625</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>46.875</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>46.875</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>43.75</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>43.75</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>45.3125</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>46.875</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>45.3125</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>48.4375</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>48.4375</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>39.0625</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>46.875</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>46.875</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>46.875</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>40.625</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>42.1875</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>43.75</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>39.0625</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>37.5</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>37.5</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>34.375</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>40.625</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>37.5</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>37.5</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>37.5</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>32.8125</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>35.9375</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>40.625</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>39.0625</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>42.1875</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>45.3125</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>39.0625</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>40.625</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>42.1875</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>40.625</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>40.625</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>40.625</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>39.0625</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>40.625</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>40.625</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>43.75</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>42.1875</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>43.75</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>46.875</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>46.875</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>46.875</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>42.1875</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-3701-4B53-AFE1-36A900F7391E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1719444751"/>
+        <c:axId val="1719429775"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1719444751"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1719429775"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1719429775"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1719444751"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -7769,6 +8395,46 @@
 </file>
 
 <file path=xl/charts/colors12.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors13.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -9677,6 +10343,522 @@
 </file>
 
 <file path=xl/charts/style12.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style13.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -15032,6 +16214,184 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing13.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>65539</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>14072</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>104863</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{669B2521-3A1C-4D96-9B28-C17F68605457}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:srcRect l="-331" t="38919" r="61637" b="11975"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1" y="608464"/>
+          <a:ext cx="3252571" cy="2753949"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>52392</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>11804</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>52387</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{68115F1C-DDB3-434B-757F-2124648FCD91}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="52392" y="3619500"/>
+          <a:ext cx="3197912" cy="2586037"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>750093</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>35719</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>121443</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>64294</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0AAB331F-4994-168B-FB2A-34B74D72814F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1225904</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>97014</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>428559</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>17638</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{91C5CA4F-BF3D-B946-951D-7CA7CF856F8E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5088821" y="467431"/>
+          <a:ext cx="3735849" cy="2883957"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
@@ -22140,8 +23500,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3615591-9C42-4987-AAEA-DD4B06F99473}">
   <dimension ref="A1:R101"/>
   <sheetViews>
-    <sheetView topLeftCell="AC1" zoomScale="56" workbookViewId="0">
-      <selection sqref="A1:G1"/>
+    <sheetView zoomScale="56" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -23804,11 +25164,2083 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9A11C02-0E45-4B43-9A91-71CE4B72F194}">
+  <dimension ref="A1:R152"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="54" workbookViewId="0">
+      <selection activeCell="O2" sqref="O2:P152"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="7" max="7" width="18.3984375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="I1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
+      <c r="O1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="O2">
+        <v>0</v>
+      </c>
+      <c r="P2">
+        <v>1.046875</v>
+      </c>
+      <c r="Q2">
+        <f xml:space="preserve"> 1+O2</f>
+        <v>1</v>
+      </c>
+      <c r="R2">
+        <f xml:space="preserve"> (1-P2)*100</f>
+        <v>-4.6875</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="O3">
+        <v>1</v>
+      </c>
+      <c r="P3">
+        <v>0.984375</v>
+      </c>
+      <c r="Q3">
+        <f t="shared" ref="Q3:Q66" si="0" xml:space="preserve"> 1+O3</f>
+        <v>2</v>
+      </c>
+      <c r="R3">
+        <f t="shared" ref="R3:R66" si="1" xml:space="preserve"> (1-P3)*100</f>
+        <v>1.5625</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="O4">
+        <v>2</v>
+      </c>
+      <c r="P4">
+        <v>0.96875</v>
+      </c>
+      <c r="Q4">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="R4">
+        <f t="shared" si="1"/>
+        <v>3.125</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="O5">
+        <v>3</v>
+      </c>
+      <c r="P5">
+        <v>0.84375</v>
+      </c>
+      <c r="Q5">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="R5">
+        <f t="shared" si="1"/>
+        <v>15.625</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="O6">
+        <v>4</v>
+      </c>
+      <c r="P6">
+        <v>0.796875</v>
+      </c>
+      <c r="Q6">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="R6">
+        <f t="shared" si="1"/>
+        <v>20.3125</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="O7">
+        <v>5</v>
+      </c>
+      <c r="P7">
+        <v>0.734375</v>
+      </c>
+      <c r="Q7">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="R7">
+        <f t="shared" si="1"/>
+        <v>26.5625</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="O8">
+        <v>6</v>
+      </c>
+      <c r="P8">
+        <v>0.640625</v>
+      </c>
+      <c r="Q8">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="R8">
+        <f t="shared" si="1"/>
+        <v>35.9375</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="O9">
+        <v>7</v>
+      </c>
+      <c r="P9">
+        <v>0.65625</v>
+      </c>
+      <c r="Q9">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="R9">
+        <f t="shared" si="1"/>
+        <v>34.375</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="O10">
+        <v>8</v>
+      </c>
+      <c r="P10">
+        <v>0.625</v>
+      </c>
+      <c r="Q10">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="R10">
+        <f t="shared" si="1"/>
+        <v>37.5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="O11">
+        <v>9</v>
+      </c>
+      <c r="P11">
+        <v>0.59375</v>
+      </c>
+      <c r="Q11">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="R11">
+        <f t="shared" si="1"/>
+        <v>40.625</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="O12">
+        <v>10</v>
+      </c>
+      <c r="P12">
+        <v>0.578125</v>
+      </c>
+      <c r="Q12">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="R12">
+        <f t="shared" si="1"/>
+        <v>42.1875</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="O13">
+        <v>11</v>
+      </c>
+      <c r="P13">
+        <v>0.5625</v>
+      </c>
+      <c r="Q13">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="R13">
+        <f t="shared" si="1"/>
+        <v>43.75</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="O14">
+        <v>12</v>
+      </c>
+      <c r="P14">
+        <v>0.578125</v>
+      </c>
+      <c r="Q14">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="R14">
+        <f t="shared" si="1"/>
+        <v>42.1875</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="O15">
+        <v>13</v>
+      </c>
+      <c r="P15">
+        <v>0.59375</v>
+      </c>
+      <c r="Q15">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="R15">
+        <f t="shared" si="1"/>
+        <v>40.625</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="O16">
+        <v>14</v>
+      </c>
+      <c r="P16">
+        <v>0.6875</v>
+      </c>
+      <c r="Q16">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="R16">
+        <f t="shared" si="1"/>
+        <v>31.25</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="O17">
+        <v>15</v>
+      </c>
+      <c r="P17">
+        <v>0.5</v>
+      </c>
+      <c r="Q17">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="R17">
+        <f t="shared" si="1"/>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="O18">
+        <v>16</v>
+      </c>
+      <c r="P18">
+        <v>0.59375</v>
+      </c>
+      <c r="Q18">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="R18">
+        <f t="shared" si="1"/>
+        <v>40.625</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="O19">
+        <v>17</v>
+      </c>
+      <c r="P19">
+        <v>0.546875</v>
+      </c>
+      <c r="Q19">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="R19">
+        <f t="shared" si="1"/>
+        <v>45.3125</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A20" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
+      <c r="O20">
+        <v>18</v>
+      </c>
+      <c r="P20">
+        <v>0.53125</v>
+      </c>
+      <c r="Q20">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="R20">
+        <f t="shared" si="1"/>
+        <v>46.875</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="O21">
+        <v>19</v>
+      </c>
+      <c r="P21">
+        <v>0.5625</v>
+      </c>
+      <c r="Q21">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="R21">
+        <f t="shared" si="1"/>
+        <v>43.75</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="O22">
+        <v>20</v>
+      </c>
+      <c r="P22">
+        <v>0.5625</v>
+      </c>
+      <c r="Q22">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="R22">
+        <f t="shared" si="1"/>
+        <v>43.75</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="O23">
+        <v>21</v>
+      </c>
+      <c r="P23">
+        <v>0.5625</v>
+      </c>
+      <c r="Q23">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="R23">
+        <f t="shared" si="1"/>
+        <v>43.75</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="O24">
+        <v>22</v>
+      </c>
+      <c r="P24">
+        <v>0.578125</v>
+      </c>
+      <c r="Q24">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="R24">
+        <f t="shared" si="1"/>
+        <v>42.1875</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="O25">
+        <v>23</v>
+      </c>
+      <c r="P25">
+        <v>0.546875</v>
+      </c>
+      <c r="Q25">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="R25">
+        <f t="shared" si="1"/>
+        <v>45.3125</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="O26">
+        <v>24</v>
+      </c>
+      <c r="P26">
+        <v>0.59375</v>
+      </c>
+      <c r="Q26">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="R26">
+        <f t="shared" si="1"/>
+        <v>40.625</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="O27">
+        <v>25</v>
+      </c>
+      <c r="P27">
+        <v>0.5625</v>
+      </c>
+      <c r="Q27">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+      <c r="R27">
+        <f t="shared" si="1"/>
+        <v>43.75</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="O28">
+        <v>26</v>
+      </c>
+      <c r="P28">
+        <v>0.484375</v>
+      </c>
+      <c r="Q28">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+      <c r="R28">
+        <f t="shared" si="1"/>
+        <v>51.5625</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="O29">
+        <v>27</v>
+      </c>
+      <c r="P29">
+        <v>0.546875</v>
+      </c>
+      <c r="Q29">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+      <c r="R29">
+        <f t="shared" si="1"/>
+        <v>45.3125</v>
+      </c>
+    </row>
+    <row r="30" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="O30">
+        <v>28</v>
+      </c>
+      <c r="P30">
+        <v>0.5</v>
+      </c>
+      <c r="Q30">
+        <f t="shared" si="0"/>
+        <v>29</v>
+      </c>
+      <c r="R30">
+        <f t="shared" si="1"/>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="31" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="O31">
+        <v>29</v>
+      </c>
+      <c r="P31">
+        <v>0.515625</v>
+      </c>
+      <c r="Q31">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="R31">
+        <f t="shared" si="1"/>
+        <v>48.4375</v>
+      </c>
+    </row>
+    <row r="32" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="O32">
+        <v>30</v>
+      </c>
+      <c r="P32">
+        <v>0.578125</v>
+      </c>
+      <c r="Q32">
+        <f t="shared" si="0"/>
+        <v>31</v>
+      </c>
+      <c r="R32">
+        <f t="shared" si="1"/>
+        <v>42.1875</v>
+      </c>
+    </row>
+    <row r="33" spans="15:18" x14ac:dyDescent="0.45">
+      <c r="O33">
+        <v>31</v>
+      </c>
+      <c r="P33">
+        <v>0.53125</v>
+      </c>
+      <c r="Q33">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+      <c r="R33">
+        <f t="shared" si="1"/>
+        <v>46.875</v>
+      </c>
+    </row>
+    <row r="34" spans="15:18" x14ac:dyDescent="0.45">
+      <c r="O34">
+        <v>32</v>
+      </c>
+      <c r="P34">
+        <v>0.578125</v>
+      </c>
+      <c r="Q34">
+        <f t="shared" si="0"/>
+        <v>33</v>
+      </c>
+      <c r="R34">
+        <f t="shared" si="1"/>
+        <v>42.1875</v>
+      </c>
+    </row>
+    <row r="35" spans="15:18" x14ac:dyDescent="0.45">
+      <c r="O35">
+        <v>33</v>
+      </c>
+      <c r="P35">
+        <v>0.609375</v>
+      </c>
+      <c r="Q35">
+        <f t="shared" si="0"/>
+        <v>34</v>
+      </c>
+      <c r="R35">
+        <f t="shared" si="1"/>
+        <v>39.0625</v>
+      </c>
+    </row>
+    <row r="36" spans="15:18" x14ac:dyDescent="0.45">
+      <c r="O36">
+        <v>34</v>
+      </c>
+      <c r="P36">
+        <v>0.5625</v>
+      </c>
+      <c r="Q36">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+      <c r="R36">
+        <f t="shared" si="1"/>
+        <v>43.75</v>
+      </c>
+    </row>
+    <row r="37" spans="15:18" x14ac:dyDescent="0.45">
+      <c r="O37">
+        <v>35</v>
+      </c>
+      <c r="P37">
+        <v>0.515625</v>
+      </c>
+      <c r="Q37">
+        <f t="shared" si="0"/>
+        <v>36</v>
+      </c>
+      <c r="R37">
+        <f t="shared" si="1"/>
+        <v>48.4375</v>
+      </c>
+    </row>
+    <row r="38" spans="15:18" x14ac:dyDescent="0.45">
+      <c r="O38">
+        <v>36</v>
+      </c>
+      <c r="P38">
+        <v>0.53125</v>
+      </c>
+      <c r="Q38">
+        <f t="shared" si="0"/>
+        <v>37</v>
+      </c>
+      <c r="R38">
+        <f t="shared" si="1"/>
+        <v>46.875</v>
+      </c>
+    </row>
+    <row r="39" spans="15:18" x14ac:dyDescent="0.45">
+      <c r="O39">
+        <v>37</v>
+      </c>
+      <c r="P39">
+        <v>0.609375</v>
+      </c>
+      <c r="Q39">
+        <f t="shared" si="0"/>
+        <v>38</v>
+      </c>
+      <c r="R39">
+        <f t="shared" si="1"/>
+        <v>39.0625</v>
+      </c>
+    </row>
+    <row r="40" spans="15:18" x14ac:dyDescent="0.45">
+      <c r="O40">
+        <v>38</v>
+      </c>
+      <c r="P40">
+        <v>0.59375</v>
+      </c>
+      <c r="Q40">
+        <f t="shared" si="0"/>
+        <v>39</v>
+      </c>
+      <c r="R40">
+        <f t="shared" si="1"/>
+        <v>40.625</v>
+      </c>
+    </row>
+    <row r="41" spans="15:18" x14ac:dyDescent="0.45">
+      <c r="O41">
+        <v>39</v>
+      </c>
+      <c r="P41">
+        <v>0.59375</v>
+      </c>
+      <c r="Q41">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="R41">
+        <f t="shared" si="1"/>
+        <v>40.625</v>
+      </c>
+    </row>
+    <row r="42" spans="15:18" x14ac:dyDescent="0.45">
+      <c r="O42">
+        <v>40</v>
+      </c>
+      <c r="P42">
+        <v>0.578125</v>
+      </c>
+      <c r="Q42">
+        <f t="shared" si="0"/>
+        <v>41</v>
+      </c>
+      <c r="R42">
+        <f t="shared" si="1"/>
+        <v>42.1875</v>
+      </c>
+    </row>
+    <row r="43" spans="15:18" x14ac:dyDescent="0.45">
+      <c r="O43">
+        <v>41</v>
+      </c>
+      <c r="P43">
+        <v>0.59375</v>
+      </c>
+      <c r="Q43">
+        <f t="shared" si="0"/>
+        <v>42</v>
+      </c>
+      <c r="R43">
+        <f t="shared" si="1"/>
+        <v>40.625</v>
+      </c>
+    </row>
+    <row r="44" spans="15:18" x14ac:dyDescent="0.45">
+      <c r="O44">
+        <v>42</v>
+      </c>
+      <c r="P44">
+        <v>0.53125</v>
+      </c>
+      <c r="Q44">
+        <f t="shared" si="0"/>
+        <v>43</v>
+      </c>
+      <c r="R44">
+        <f t="shared" si="1"/>
+        <v>46.875</v>
+      </c>
+    </row>
+    <row r="45" spans="15:18" x14ac:dyDescent="0.45">
+      <c r="O45">
+        <v>43</v>
+      </c>
+      <c r="P45">
+        <v>0.546875</v>
+      </c>
+      <c r="Q45">
+        <f t="shared" si="0"/>
+        <v>44</v>
+      </c>
+      <c r="R45">
+        <f t="shared" si="1"/>
+        <v>45.3125</v>
+      </c>
+    </row>
+    <row r="46" spans="15:18" x14ac:dyDescent="0.45">
+      <c r="O46">
+        <v>44</v>
+      </c>
+      <c r="P46">
+        <v>0.609375</v>
+      </c>
+      <c r="Q46">
+        <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+      <c r="R46">
+        <f t="shared" si="1"/>
+        <v>39.0625</v>
+      </c>
+    </row>
+    <row r="47" spans="15:18" x14ac:dyDescent="0.45">
+      <c r="O47">
+        <v>45</v>
+      </c>
+      <c r="P47">
+        <v>0.609375</v>
+      </c>
+      <c r="Q47">
+        <f t="shared" si="0"/>
+        <v>46</v>
+      </c>
+      <c r="R47">
+        <f t="shared" si="1"/>
+        <v>39.0625</v>
+      </c>
+    </row>
+    <row r="48" spans="15:18" x14ac:dyDescent="0.45">
+      <c r="O48">
+        <v>46</v>
+      </c>
+      <c r="P48">
+        <v>0.5625</v>
+      </c>
+      <c r="Q48">
+        <f t="shared" si="0"/>
+        <v>47</v>
+      </c>
+      <c r="R48">
+        <f t="shared" si="1"/>
+        <v>43.75</v>
+      </c>
+    </row>
+    <row r="49" spans="15:18" x14ac:dyDescent="0.45">
+      <c r="O49">
+        <v>47</v>
+      </c>
+      <c r="P49">
+        <v>0.578125</v>
+      </c>
+      <c r="Q49">
+        <f t="shared" si="0"/>
+        <v>48</v>
+      </c>
+      <c r="R49">
+        <f t="shared" si="1"/>
+        <v>42.1875</v>
+      </c>
+    </row>
+    <row r="50" spans="15:18" x14ac:dyDescent="0.45">
+      <c r="O50">
+        <v>48</v>
+      </c>
+      <c r="P50">
+        <v>0.609375</v>
+      </c>
+      <c r="Q50">
+        <f t="shared" si="0"/>
+        <v>49</v>
+      </c>
+      <c r="R50">
+        <f t="shared" si="1"/>
+        <v>39.0625</v>
+      </c>
+    </row>
+    <row r="51" spans="15:18" x14ac:dyDescent="0.45">
+      <c r="O51">
+        <v>49</v>
+      </c>
+      <c r="P51">
+        <v>0.625</v>
+      </c>
+      <c r="Q51">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+      <c r="R51">
+        <f t="shared" si="1"/>
+        <v>37.5</v>
+      </c>
+    </row>
+    <row r="52" spans="15:18" x14ac:dyDescent="0.45">
+      <c r="O52">
+        <v>50</v>
+      </c>
+      <c r="P52">
+        <v>0.53125</v>
+      </c>
+      <c r="Q52">
+        <f t="shared" si="0"/>
+        <v>51</v>
+      </c>
+      <c r="R52">
+        <f t="shared" si="1"/>
+        <v>46.875</v>
+      </c>
+    </row>
+    <row r="53" spans="15:18" x14ac:dyDescent="0.45">
+      <c r="O53">
+        <v>51</v>
+      </c>
+      <c r="P53">
+        <v>0.546875</v>
+      </c>
+      <c r="Q53">
+        <f t="shared" si="0"/>
+        <v>52</v>
+      </c>
+      <c r="R53">
+        <f t="shared" si="1"/>
+        <v>45.3125</v>
+      </c>
+    </row>
+    <row r="54" spans="15:18" x14ac:dyDescent="0.45">
+      <c r="O54">
+        <v>52</v>
+      </c>
+      <c r="P54">
+        <v>0.578125</v>
+      </c>
+      <c r="Q54">
+        <f t="shared" si="0"/>
+        <v>53</v>
+      </c>
+      <c r="R54">
+        <f t="shared" si="1"/>
+        <v>42.1875</v>
+      </c>
+    </row>
+    <row r="55" spans="15:18" x14ac:dyDescent="0.45">
+      <c r="O55">
+        <v>53</v>
+      </c>
+      <c r="P55">
+        <v>0.59375</v>
+      </c>
+      <c r="Q55">
+        <f t="shared" si="0"/>
+        <v>54</v>
+      </c>
+      <c r="R55">
+        <f t="shared" si="1"/>
+        <v>40.625</v>
+      </c>
+    </row>
+    <row r="56" spans="15:18" x14ac:dyDescent="0.45">
+      <c r="O56">
+        <v>54</v>
+      </c>
+      <c r="P56">
+        <v>0.53125</v>
+      </c>
+      <c r="Q56">
+        <f t="shared" si="0"/>
+        <v>55</v>
+      </c>
+      <c r="R56">
+        <f t="shared" si="1"/>
+        <v>46.875</v>
+      </c>
+    </row>
+    <row r="57" spans="15:18" x14ac:dyDescent="0.45">
+      <c r="O57">
+        <v>55</v>
+      </c>
+      <c r="P57">
+        <v>0.53125</v>
+      </c>
+      <c r="Q57">
+        <f t="shared" si="0"/>
+        <v>56</v>
+      </c>
+      <c r="R57">
+        <f t="shared" si="1"/>
+        <v>46.875</v>
+      </c>
+    </row>
+    <row r="58" spans="15:18" x14ac:dyDescent="0.45">
+      <c r="O58">
+        <v>56</v>
+      </c>
+      <c r="P58">
+        <v>0.5625</v>
+      </c>
+      <c r="Q58">
+        <f t="shared" si="0"/>
+        <v>57</v>
+      </c>
+      <c r="R58">
+        <f t="shared" si="1"/>
+        <v>43.75</v>
+      </c>
+    </row>
+    <row r="59" spans="15:18" x14ac:dyDescent="0.45">
+      <c r="O59">
+        <v>57</v>
+      </c>
+      <c r="P59">
+        <v>0.5625</v>
+      </c>
+      <c r="Q59">
+        <f t="shared" si="0"/>
+        <v>58</v>
+      </c>
+      <c r="R59">
+        <f t="shared" si="1"/>
+        <v>43.75</v>
+      </c>
+    </row>
+    <row r="60" spans="15:18" x14ac:dyDescent="0.45">
+      <c r="O60">
+        <v>58</v>
+      </c>
+      <c r="P60">
+        <v>0.546875</v>
+      </c>
+      <c r="Q60">
+        <f t="shared" si="0"/>
+        <v>59</v>
+      </c>
+      <c r="R60">
+        <f t="shared" si="1"/>
+        <v>45.3125</v>
+      </c>
+    </row>
+    <row r="61" spans="15:18" x14ac:dyDescent="0.45">
+      <c r="O61">
+        <v>59</v>
+      </c>
+      <c r="P61">
+        <v>0.53125</v>
+      </c>
+      <c r="Q61">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+      <c r="R61">
+        <f t="shared" si="1"/>
+        <v>46.875</v>
+      </c>
+    </row>
+    <row r="62" spans="15:18" x14ac:dyDescent="0.45">
+      <c r="O62">
+        <v>60</v>
+      </c>
+      <c r="P62">
+        <v>0.546875</v>
+      </c>
+      <c r="Q62">
+        <f t="shared" si="0"/>
+        <v>61</v>
+      </c>
+      <c r="R62">
+        <f t="shared" si="1"/>
+        <v>45.3125</v>
+      </c>
+    </row>
+    <row r="63" spans="15:18" x14ac:dyDescent="0.45">
+      <c r="O63">
+        <v>61</v>
+      </c>
+      <c r="P63">
+        <v>0.515625</v>
+      </c>
+      <c r="Q63">
+        <f t="shared" si="0"/>
+        <v>62</v>
+      </c>
+      <c r="R63">
+        <f t="shared" si="1"/>
+        <v>48.4375</v>
+      </c>
+    </row>
+    <row r="64" spans="15:18" x14ac:dyDescent="0.45">
+      <c r="O64">
+        <v>62</v>
+      </c>
+      <c r="P64">
+        <v>0.515625</v>
+      </c>
+      <c r="Q64">
+        <f t="shared" si="0"/>
+        <v>63</v>
+      </c>
+      <c r="R64">
+        <f t="shared" si="1"/>
+        <v>48.4375</v>
+      </c>
+    </row>
+    <row r="65" spans="15:18" x14ac:dyDescent="0.45">
+      <c r="O65">
+        <v>63</v>
+      </c>
+      <c r="P65">
+        <v>0.609375</v>
+      </c>
+      <c r="Q65">
+        <f t="shared" si="0"/>
+        <v>64</v>
+      </c>
+      <c r="R65">
+        <f t="shared" si="1"/>
+        <v>39.0625</v>
+      </c>
+    </row>
+    <row r="66" spans="15:18" x14ac:dyDescent="0.45">
+      <c r="O66">
+        <v>64</v>
+      </c>
+      <c r="P66">
+        <v>0.53125</v>
+      </c>
+      <c r="Q66">
+        <f t="shared" si="0"/>
+        <v>65</v>
+      </c>
+      <c r="R66">
+        <f t="shared" si="1"/>
+        <v>46.875</v>
+      </c>
+    </row>
+    <row r="67" spans="15:18" x14ac:dyDescent="0.45">
+      <c r="O67">
+        <v>65</v>
+      </c>
+      <c r="P67">
+        <v>0.53125</v>
+      </c>
+      <c r="Q67">
+        <f t="shared" ref="Q67:Q101" si="2" xml:space="preserve"> 1+O67</f>
+        <v>66</v>
+      </c>
+      <c r="R67">
+        <f t="shared" ref="R67:R101" si="3" xml:space="preserve"> (1-P67)*100</f>
+        <v>46.875</v>
+      </c>
+    </row>
+    <row r="68" spans="15:18" x14ac:dyDescent="0.45">
+      <c r="O68">
+        <v>66</v>
+      </c>
+      <c r="P68">
+        <v>0.53125</v>
+      </c>
+      <c r="Q68">
+        <f t="shared" si="2"/>
+        <v>67</v>
+      </c>
+      <c r="R68">
+        <f t="shared" si="3"/>
+        <v>46.875</v>
+      </c>
+    </row>
+    <row r="69" spans="15:18" x14ac:dyDescent="0.45">
+      <c r="O69">
+        <v>67</v>
+      </c>
+      <c r="P69">
+        <v>0.59375</v>
+      </c>
+      <c r="Q69">
+        <f t="shared" si="2"/>
+        <v>68</v>
+      </c>
+      <c r="R69">
+        <f t="shared" si="3"/>
+        <v>40.625</v>
+      </c>
+    </row>
+    <row r="70" spans="15:18" x14ac:dyDescent="0.45">
+      <c r="O70">
+        <v>68</v>
+      </c>
+      <c r="P70">
+        <v>0.578125</v>
+      </c>
+      <c r="Q70">
+        <f t="shared" si="2"/>
+        <v>69</v>
+      </c>
+      <c r="R70">
+        <f t="shared" si="3"/>
+        <v>42.1875</v>
+      </c>
+    </row>
+    <row r="71" spans="15:18" x14ac:dyDescent="0.45">
+      <c r="O71">
+        <v>69</v>
+      </c>
+      <c r="P71">
+        <v>0.5625</v>
+      </c>
+      <c r="Q71">
+        <f t="shared" si="2"/>
+        <v>70</v>
+      </c>
+      <c r="R71">
+        <f t="shared" si="3"/>
+        <v>43.75</v>
+      </c>
+    </row>
+    <row r="72" spans="15:18" x14ac:dyDescent="0.45">
+      <c r="O72">
+        <v>70</v>
+      </c>
+      <c r="P72">
+        <v>0.609375</v>
+      </c>
+      <c r="Q72">
+        <f t="shared" si="2"/>
+        <v>71</v>
+      </c>
+      <c r="R72">
+        <f t="shared" si="3"/>
+        <v>39.0625</v>
+      </c>
+    </row>
+    <row r="73" spans="15:18" x14ac:dyDescent="0.45">
+      <c r="O73">
+        <v>71</v>
+      </c>
+      <c r="P73">
+        <v>0.625</v>
+      </c>
+      <c r="Q73">
+        <f t="shared" si="2"/>
+        <v>72</v>
+      </c>
+      <c r="R73">
+        <f t="shared" si="3"/>
+        <v>37.5</v>
+      </c>
+    </row>
+    <row r="74" spans="15:18" x14ac:dyDescent="0.45">
+      <c r="O74">
+        <v>72</v>
+      </c>
+      <c r="P74">
+        <v>0.625</v>
+      </c>
+      <c r="Q74">
+        <f t="shared" si="2"/>
+        <v>73</v>
+      </c>
+      <c r="R74">
+        <f t="shared" si="3"/>
+        <v>37.5</v>
+      </c>
+    </row>
+    <row r="75" spans="15:18" x14ac:dyDescent="0.45">
+      <c r="O75">
+        <v>73</v>
+      </c>
+      <c r="P75">
+        <v>0.65625</v>
+      </c>
+      <c r="Q75">
+        <f t="shared" si="2"/>
+        <v>74</v>
+      </c>
+      <c r="R75">
+        <f t="shared" si="3"/>
+        <v>34.375</v>
+      </c>
+    </row>
+    <row r="76" spans="15:18" x14ac:dyDescent="0.45">
+      <c r="O76">
+        <v>74</v>
+      </c>
+      <c r="P76">
+        <v>0.59375</v>
+      </c>
+      <c r="Q76">
+        <f t="shared" si="2"/>
+        <v>75</v>
+      </c>
+      <c r="R76">
+        <f t="shared" si="3"/>
+        <v>40.625</v>
+      </c>
+    </row>
+    <row r="77" spans="15:18" x14ac:dyDescent="0.45">
+      <c r="O77">
+        <v>75</v>
+      </c>
+      <c r="P77">
+        <v>0.625</v>
+      </c>
+      <c r="Q77">
+        <f t="shared" si="2"/>
+        <v>76</v>
+      </c>
+      <c r="R77">
+        <f t="shared" si="3"/>
+        <v>37.5</v>
+      </c>
+    </row>
+    <row r="78" spans="15:18" x14ac:dyDescent="0.45">
+      <c r="O78">
+        <v>76</v>
+      </c>
+      <c r="P78">
+        <v>0.625</v>
+      </c>
+      <c r="Q78">
+        <f t="shared" si="2"/>
+        <v>77</v>
+      </c>
+      <c r="R78">
+        <f t="shared" si="3"/>
+        <v>37.5</v>
+      </c>
+    </row>
+    <row r="79" spans="15:18" x14ac:dyDescent="0.45">
+      <c r="O79">
+        <v>77</v>
+      </c>
+      <c r="P79">
+        <v>0.625</v>
+      </c>
+      <c r="Q79">
+        <f t="shared" si="2"/>
+        <v>78</v>
+      </c>
+      <c r="R79">
+        <f t="shared" si="3"/>
+        <v>37.5</v>
+      </c>
+    </row>
+    <row r="80" spans="15:18" x14ac:dyDescent="0.45">
+      <c r="O80">
+        <v>78</v>
+      </c>
+      <c r="P80">
+        <v>0.671875</v>
+      </c>
+      <c r="Q80">
+        <f t="shared" si="2"/>
+        <v>79</v>
+      </c>
+      <c r="R80">
+        <f t="shared" si="3"/>
+        <v>32.8125</v>
+      </c>
+    </row>
+    <row r="81" spans="15:18" x14ac:dyDescent="0.45">
+      <c r="O81">
+        <v>79</v>
+      </c>
+      <c r="P81">
+        <v>0.640625</v>
+      </c>
+      <c r="Q81">
+        <f t="shared" si="2"/>
+        <v>80</v>
+      </c>
+      <c r="R81">
+        <f t="shared" si="3"/>
+        <v>35.9375</v>
+      </c>
+    </row>
+    <row r="82" spans="15:18" x14ac:dyDescent="0.45">
+      <c r="O82">
+        <v>80</v>
+      </c>
+      <c r="P82">
+        <v>0.59375</v>
+      </c>
+      <c r="Q82">
+        <f t="shared" si="2"/>
+        <v>81</v>
+      </c>
+      <c r="R82">
+        <f t="shared" si="3"/>
+        <v>40.625</v>
+      </c>
+    </row>
+    <row r="83" spans="15:18" x14ac:dyDescent="0.45">
+      <c r="O83">
+        <v>81</v>
+      </c>
+      <c r="P83">
+        <v>0.609375</v>
+      </c>
+      <c r="Q83">
+        <f t="shared" si="2"/>
+        <v>82</v>
+      </c>
+      <c r="R83">
+        <f t="shared" si="3"/>
+        <v>39.0625</v>
+      </c>
+    </row>
+    <row r="84" spans="15:18" x14ac:dyDescent="0.45">
+      <c r="O84">
+        <v>82</v>
+      </c>
+      <c r="P84">
+        <v>0.578125</v>
+      </c>
+      <c r="Q84">
+        <f t="shared" si="2"/>
+        <v>83</v>
+      </c>
+      <c r="R84">
+        <f t="shared" si="3"/>
+        <v>42.1875</v>
+      </c>
+    </row>
+    <row r="85" spans="15:18" x14ac:dyDescent="0.45">
+      <c r="O85">
+        <v>83</v>
+      </c>
+      <c r="P85">
+        <v>0.546875</v>
+      </c>
+      <c r="Q85">
+        <f t="shared" si="2"/>
+        <v>84</v>
+      </c>
+      <c r="R85">
+        <f t="shared" si="3"/>
+        <v>45.3125</v>
+      </c>
+    </row>
+    <row r="86" spans="15:18" x14ac:dyDescent="0.45">
+      <c r="O86">
+        <v>84</v>
+      </c>
+      <c r="P86">
+        <v>0.609375</v>
+      </c>
+      <c r="Q86">
+        <f t="shared" si="2"/>
+        <v>85</v>
+      </c>
+      <c r="R86">
+        <f t="shared" si="3"/>
+        <v>39.0625</v>
+      </c>
+    </row>
+    <row r="87" spans="15:18" x14ac:dyDescent="0.45">
+      <c r="O87">
+        <v>85</v>
+      </c>
+      <c r="P87">
+        <v>0.59375</v>
+      </c>
+      <c r="Q87">
+        <f t="shared" si="2"/>
+        <v>86</v>
+      </c>
+      <c r="R87">
+        <f t="shared" si="3"/>
+        <v>40.625</v>
+      </c>
+    </row>
+    <row r="88" spans="15:18" x14ac:dyDescent="0.45">
+      <c r="O88">
+        <v>86</v>
+      </c>
+      <c r="P88">
+        <v>0.578125</v>
+      </c>
+      <c r="Q88">
+        <f t="shared" si="2"/>
+        <v>87</v>
+      </c>
+      <c r="R88">
+        <f t="shared" si="3"/>
+        <v>42.1875</v>
+      </c>
+    </row>
+    <row r="89" spans="15:18" x14ac:dyDescent="0.45">
+      <c r="O89">
+        <v>87</v>
+      </c>
+      <c r="P89">
+        <v>0.59375</v>
+      </c>
+      <c r="Q89">
+        <f t="shared" si="2"/>
+        <v>88</v>
+      </c>
+      <c r="R89">
+        <f t="shared" si="3"/>
+        <v>40.625</v>
+      </c>
+    </row>
+    <row r="90" spans="15:18" x14ac:dyDescent="0.45">
+      <c r="O90">
+        <v>88</v>
+      </c>
+      <c r="P90">
+        <v>0.59375</v>
+      </c>
+      <c r="Q90">
+        <f t="shared" si="2"/>
+        <v>89</v>
+      </c>
+      <c r="R90">
+        <f t="shared" si="3"/>
+        <v>40.625</v>
+      </c>
+    </row>
+    <row r="91" spans="15:18" x14ac:dyDescent="0.45">
+      <c r="O91">
+        <v>89</v>
+      </c>
+      <c r="P91">
+        <v>0.59375</v>
+      </c>
+      <c r="Q91">
+        <f t="shared" si="2"/>
+        <v>90</v>
+      </c>
+      <c r="R91">
+        <f t="shared" si="3"/>
+        <v>40.625</v>
+      </c>
+    </row>
+    <row r="92" spans="15:18" x14ac:dyDescent="0.45">
+      <c r="O92">
+        <v>90</v>
+      </c>
+      <c r="P92">
+        <v>0.609375</v>
+      </c>
+      <c r="Q92">
+        <f t="shared" si="2"/>
+        <v>91</v>
+      </c>
+      <c r="R92">
+        <f t="shared" si="3"/>
+        <v>39.0625</v>
+      </c>
+    </row>
+    <row r="93" spans="15:18" x14ac:dyDescent="0.45">
+      <c r="O93">
+        <v>91</v>
+      </c>
+      <c r="P93">
+        <v>0.59375</v>
+      </c>
+      <c r="Q93">
+        <f t="shared" si="2"/>
+        <v>92</v>
+      </c>
+      <c r="R93">
+        <f t="shared" si="3"/>
+        <v>40.625</v>
+      </c>
+    </row>
+    <row r="94" spans="15:18" x14ac:dyDescent="0.45">
+      <c r="O94">
+        <v>92</v>
+      </c>
+      <c r="P94">
+        <v>0.59375</v>
+      </c>
+      <c r="Q94">
+        <f t="shared" si="2"/>
+        <v>93</v>
+      </c>
+      <c r="R94">
+        <f t="shared" si="3"/>
+        <v>40.625</v>
+      </c>
+    </row>
+    <row r="95" spans="15:18" x14ac:dyDescent="0.45">
+      <c r="O95">
+        <v>93</v>
+      </c>
+      <c r="P95">
+        <v>0.5625</v>
+      </c>
+      <c r="Q95">
+        <f t="shared" si="2"/>
+        <v>94</v>
+      </c>
+      <c r="R95">
+        <f t="shared" si="3"/>
+        <v>43.75</v>
+      </c>
+    </row>
+    <row r="96" spans="15:18" x14ac:dyDescent="0.45">
+      <c r="O96">
+        <v>94</v>
+      </c>
+      <c r="P96">
+        <v>0.578125</v>
+      </c>
+      <c r="Q96">
+        <f t="shared" si="2"/>
+        <v>95</v>
+      </c>
+      <c r="R96">
+        <f t="shared" si="3"/>
+        <v>42.1875</v>
+      </c>
+    </row>
+    <row r="97" spans="15:18" x14ac:dyDescent="0.45">
+      <c r="O97">
+        <v>95</v>
+      </c>
+      <c r="P97">
+        <v>0.5625</v>
+      </c>
+      <c r="Q97">
+        <f t="shared" si="2"/>
+        <v>96</v>
+      </c>
+      <c r="R97">
+        <f t="shared" si="3"/>
+        <v>43.75</v>
+      </c>
+    </row>
+    <row r="98" spans="15:18" x14ac:dyDescent="0.45">
+      <c r="O98">
+        <v>96</v>
+      </c>
+      <c r="P98">
+        <v>0.53125</v>
+      </c>
+      <c r="Q98">
+        <f t="shared" si="2"/>
+        <v>97</v>
+      </c>
+      <c r="R98">
+        <f t="shared" si="3"/>
+        <v>46.875</v>
+      </c>
+    </row>
+    <row r="99" spans="15:18" x14ac:dyDescent="0.45">
+      <c r="O99">
+        <v>97</v>
+      </c>
+      <c r="P99">
+        <v>0.53125</v>
+      </c>
+      <c r="Q99">
+        <f t="shared" si="2"/>
+        <v>98</v>
+      </c>
+      <c r="R99">
+        <f t="shared" si="3"/>
+        <v>46.875</v>
+      </c>
+    </row>
+    <row r="100" spans="15:18" x14ac:dyDescent="0.45">
+      <c r="O100">
+        <v>98</v>
+      </c>
+      <c r="P100">
+        <v>0.53125</v>
+      </c>
+      <c r="Q100">
+        <f t="shared" si="2"/>
+        <v>99</v>
+      </c>
+      <c r="R100">
+        <f t="shared" si="3"/>
+        <v>46.875</v>
+      </c>
+    </row>
+    <row r="101" spans="15:18" x14ac:dyDescent="0.45">
+      <c r="O101">
+        <v>99</v>
+      </c>
+      <c r="P101">
+        <v>0.578125</v>
+      </c>
+      <c r="Q101">
+        <f t="shared" si="2"/>
+        <v>100</v>
+      </c>
+      <c r="R101">
+        <f t="shared" si="3"/>
+        <v>42.1875</v>
+      </c>
+    </row>
+    <row r="102" spans="15:18" x14ac:dyDescent="0.45">
+      <c r="O102" t="s">
+        <v>23</v>
+      </c>
+      <c r="P102">
+        <v>0.578125</v>
+      </c>
+    </row>
+    <row r="103" spans="15:18" x14ac:dyDescent="0.45">
+      <c r="O103" t="s">
+        <v>23</v>
+      </c>
+      <c r="P103">
+        <v>0.578125</v>
+      </c>
+    </row>
+    <row r="104" spans="15:18" x14ac:dyDescent="0.45">
+      <c r="O104" t="s">
+        <v>23</v>
+      </c>
+      <c r="P104">
+        <v>0.5625</v>
+      </c>
+    </row>
+    <row r="105" spans="15:18" x14ac:dyDescent="0.45">
+      <c r="O105" t="s">
+        <v>23</v>
+      </c>
+      <c r="P105">
+        <v>0.578125</v>
+      </c>
+    </row>
+    <row r="106" spans="15:18" x14ac:dyDescent="0.45">
+      <c r="O106" t="s">
+        <v>23</v>
+      </c>
+      <c r="P106">
+        <v>0.625</v>
+      </c>
+    </row>
+    <row r="107" spans="15:18" x14ac:dyDescent="0.45">
+      <c r="O107" t="s">
+        <v>23</v>
+      </c>
+      <c r="P107">
+        <v>0.5625</v>
+      </c>
+    </row>
+    <row r="108" spans="15:18" x14ac:dyDescent="0.45">
+      <c r="O108" t="s">
+        <v>23</v>
+      </c>
+      <c r="P108">
+        <v>0.546875</v>
+      </c>
+    </row>
+    <row r="109" spans="15:18" x14ac:dyDescent="0.45">
+      <c r="O109" t="s">
+        <v>23</v>
+      </c>
+      <c r="P109">
+        <v>0.546875</v>
+      </c>
+    </row>
+    <row r="110" spans="15:18" x14ac:dyDescent="0.45">
+      <c r="O110" t="s">
+        <v>23</v>
+      </c>
+      <c r="P110">
+        <v>0.46875</v>
+      </c>
+    </row>
+    <row r="111" spans="15:18" x14ac:dyDescent="0.45">
+      <c r="O111" t="s">
+        <v>23</v>
+      </c>
+      <c r="P111">
+        <v>0.609375</v>
+      </c>
+    </row>
+    <row r="112" spans="15:18" x14ac:dyDescent="0.45">
+      <c r="O112" t="s">
+        <v>23</v>
+      </c>
+      <c r="P112">
+        <v>0.578125</v>
+      </c>
+    </row>
+    <row r="113" spans="15:16" x14ac:dyDescent="0.45">
+      <c r="O113" t="s">
+        <v>23</v>
+      </c>
+      <c r="P113">
+        <v>0.59375</v>
+      </c>
+    </row>
+    <row r="114" spans="15:16" x14ac:dyDescent="0.45">
+      <c r="O114" t="s">
+        <v>23</v>
+      </c>
+      <c r="P114">
+        <v>0.515625</v>
+      </c>
+    </row>
+    <row r="115" spans="15:16" x14ac:dyDescent="0.45">
+      <c r="O115" t="s">
+        <v>23</v>
+      </c>
+      <c r="P115">
+        <v>0.546875</v>
+      </c>
+    </row>
+    <row r="116" spans="15:16" x14ac:dyDescent="0.45">
+      <c r="O116" t="s">
+        <v>23</v>
+      </c>
+      <c r="P116">
+        <v>0.703125</v>
+      </c>
+    </row>
+    <row r="117" spans="15:16" x14ac:dyDescent="0.45">
+      <c r="O117" t="s">
+        <v>23</v>
+      </c>
+      <c r="P117">
+        <v>0.609375</v>
+      </c>
+    </row>
+    <row r="118" spans="15:16" x14ac:dyDescent="0.45">
+      <c r="O118" t="s">
+        <v>23</v>
+      </c>
+      <c r="P118">
+        <v>0.625</v>
+      </c>
+    </row>
+    <row r="119" spans="15:16" x14ac:dyDescent="0.45">
+      <c r="O119" t="s">
+        <v>23</v>
+      </c>
+      <c r="P119">
+        <v>0.625</v>
+      </c>
+    </row>
+    <row r="120" spans="15:16" x14ac:dyDescent="0.45">
+      <c r="O120" t="s">
+        <v>23</v>
+      </c>
+      <c r="P120">
+        <v>0.640625</v>
+      </c>
+    </row>
+    <row r="121" spans="15:16" x14ac:dyDescent="0.45">
+      <c r="O121" t="s">
+        <v>23</v>
+      </c>
+      <c r="P121">
+        <v>0.625</v>
+      </c>
+    </row>
+    <row r="122" spans="15:16" x14ac:dyDescent="0.45">
+      <c r="O122" t="s">
+        <v>23</v>
+      </c>
+      <c r="P122">
+        <v>0.578125</v>
+      </c>
+    </row>
+    <row r="123" spans="15:16" x14ac:dyDescent="0.45">
+      <c r="O123" t="s">
+        <v>23</v>
+      </c>
+      <c r="P123">
+        <v>0.71875</v>
+      </c>
+    </row>
+    <row r="124" spans="15:16" x14ac:dyDescent="0.45">
+      <c r="O124" t="s">
+        <v>23</v>
+      </c>
+      <c r="P124">
+        <v>0.71875</v>
+      </c>
+    </row>
+    <row r="125" spans="15:16" x14ac:dyDescent="0.45">
+      <c r="O125" t="s">
+        <v>23</v>
+      </c>
+      <c r="P125">
+        <v>0.625</v>
+      </c>
+    </row>
+    <row r="126" spans="15:16" x14ac:dyDescent="0.45">
+      <c r="O126" t="s">
+        <v>23</v>
+      </c>
+      <c r="P126">
+        <v>0.625</v>
+      </c>
+    </row>
+    <row r="127" spans="15:16" x14ac:dyDescent="0.45">
+      <c r="O127" t="s">
+        <v>23</v>
+      </c>
+      <c r="P127">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="128" spans="15:16" x14ac:dyDescent="0.45">
+      <c r="O128" t="s">
+        <v>23</v>
+      </c>
+      <c r="P128">
+        <v>0.53125</v>
+      </c>
+    </row>
+    <row r="129" spans="15:16" x14ac:dyDescent="0.45">
+      <c r="O129" t="s">
+        <v>23</v>
+      </c>
+      <c r="P129">
+        <v>0.53125</v>
+      </c>
+    </row>
+    <row r="130" spans="15:16" x14ac:dyDescent="0.45">
+      <c r="O130" t="s">
+        <v>23</v>
+      </c>
+      <c r="P130">
+        <v>0.671875</v>
+      </c>
+    </row>
+    <row r="131" spans="15:16" x14ac:dyDescent="0.45">
+      <c r="O131" t="s">
+        <v>23</v>
+      </c>
+      <c r="P131">
+        <v>0.703125</v>
+      </c>
+    </row>
+    <row r="132" spans="15:16" x14ac:dyDescent="0.45">
+      <c r="O132" t="s">
+        <v>23</v>
+      </c>
+      <c r="P132">
+        <v>0.53125</v>
+      </c>
+    </row>
+    <row r="133" spans="15:16" x14ac:dyDescent="0.45">
+      <c r="O133" t="s">
+        <v>23</v>
+      </c>
+      <c r="P133">
+        <v>0.578125</v>
+      </c>
+    </row>
+    <row r="134" spans="15:16" x14ac:dyDescent="0.45">
+      <c r="O134" t="s">
+        <v>23</v>
+      </c>
+      <c r="P134">
+        <v>0.5625</v>
+      </c>
+    </row>
+    <row r="135" spans="15:16" x14ac:dyDescent="0.45">
+      <c r="O135" t="s">
+        <v>23</v>
+      </c>
+      <c r="P135">
+        <v>0.671875</v>
+      </c>
+    </row>
+    <row r="136" spans="15:16" x14ac:dyDescent="0.45">
+      <c r="O136" t="s">
+        <v>23</v>
+      </c>
+      <c r="P136">
+        <v>0.6875</v>
+      </c>
+    </row>
+    <row r="137" spans="15:16" x14ac:dyDescent="0.45">
+      <c r="O137" t="s">
+        <v>23</v>
+      </c>
+      <c r="P137">
+        <v>0.59375</v>
+      </c>
+    </row>
+    <row r="138" spans="15:16" x14ac:dyDescent="0.45">
+      <c r="O138" t="s">
+        <v>23</v>
+      </c>
+      <c r="P138">
+        <v>0.5625</v>
+      </c>
+    </row>
+    <row r="139" spans="15:16" x14ac:dyDescent="0.45">
+      <c r="O139" t="s">
+        <v>23</v>
+      </c>
+      <c r="P139">
+        <v>0.59375</v>
+      </c>
+    </row>
+    <row r="140" spans="15:16" x14ac:dyDescent="0.45">
+      <c r="O140" t="s">
+        <v>23</v>
+      </c>
+      <c r="P140">
+        <v>0.4375</v>
+      </c>
+    </row>
+    <row r="141" spans="15:16" x14ac:dyDescent="0.45">
+      <c r="O141" t="s">
+        <v>23</v>
+      </c>
+      <c r="P141">
+        <v>0.609375</v>
+      </c>
+    </row>
+    <row r="142" spans="15:16" x14ac:dyDescent="0.45">
+      <c r="O142" t="s">
+        <v>23</v>
+      </c>
+      <c r="P142">
+        <v>0.578125</v>
+      </c>
+    </row>
+    <row r="143" spans="15:16" x14ac:dyDescent="0.45">
+      <c r="O143" t="s">
+        <v>23</v>
+      </c>
+      <c r="P143">
+        <v>0.546875</v>
+      </c>
+    </row>
+    <row r="144" spans="15:16" x14ac:dyDescent="0.45">
+      <c r="O144" t="s">
+        <v>23</v>
+      </c>
+      <c r="P144">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="145" spans="15:16" x14ac:dyDescent="0.45">
+      <c r="O145" t="s">
+        <v>23</v>
+      </c>
+      <c r="P145">
+        <v>0.640625</v>
+      </c>
+    </row>
+    <row r="146" spans="15:16" x14ac:dyDescent="0.45">
+      <c r="O146" t="s">
+        <v>23</v>
+      </c>
+      <c r="P146">
+        <v>0.703125</v>
+      </c>
+    </row>
+    <row r="147" spans="15:16" x14ac:dyDescent="0.45">
+      <c r="O147" t="s">
+        <v>23</v>
+      </c>
+      <c r="P147">
+        <v>0.609375</v>
+      </c>
+    </row>
+    <row r="148" spans="15:16" x14ac:dyDescent="0.45">
+      <c r="O148" t="s">
+        <v>23</v>
+      </c>
+      <c r="P148">
+        <v>0.546875</v>
+      </c>
+    </row>
+    <row r="149" spans="15:16" x14ac:dyDescent="0.45">
+      <c r="O149" t="s">
+        <v>23</v>
+      </c>
+      <c r="P149">
+        <v>0.4375</v>
+      </c>
+    </row>
+    <row r="150" spans="15:16" x14ac:dyDescent="0.45">
+      <c r="O150" t="s">
+        <v>23</v>
+      </c>
+      <c r="P150">
+        <v>0.484375</v>
+      </c>
+    </row>
+    <row r="151" spans="15:16" x14ac:dyDescent="0.45">
+      <c r="O151" t="s">
+        <v>23</v>
+      </c>
+      <c r="P151">
+        <v>0.65625</v>
+      </c>
+    </row>
+    <row r="152" spans="15:16" x14ac:dyDescent="0.45">
+      <c r="O152" t="s">
+        <v>23</v>
+      </c>
+      <c r="P152">
+        <v>0.49090909090909091</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="I1:M1"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="A20:C20"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80681054-39C8-45FA-99BE-5FAE16E8D808}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData/>

--- a/LJ+UA Experiments.xlsx
+++ b/LJ+UA Experiments.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dhvan\Documents\GitHub\P4P-Transformer-ASR-for-Dysarthric-Speech\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4EDC16B-DCE3-4638-9BB8-D193C517DFC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D03F2FC1-6297-4362-A5E6-D945E6FCA013}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3832" yWindow="3652" windowWidth="15390" windowHeight="9443" firstSheet="7" activeTab="12" xr2:uid="{75EE08EB-D9DA-45E6-8F41-68FBAE46F917}"/>
+    <workbookView xWindow="705" yWindow="705" windowWidth="15390" windowHeight="9443" firstSheet="12" activeTab="14" xr2:uid="{75EE08EB-D9DA-45E6-8F41-68FBAE46F917}"/>
   </bookViews>
   <sheets>
     <sheet name="E1" sheetId="1" r:id="rId1"/>
@@ -27,6 +27,7 @@
     <sheet name="Token Embeddings" sheetId="12" r:id="rId12"/>
     <sheet name="Sequential" sheetId="13" r:id="rId13"/>
     <sheet name="D1" sheetId="14" r:id="rId14"/>
+    <sheet name="D12" sheetId="15" r:id="rId15"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -49,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="461" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="569" uniqueCount="26">
   <si>
     <r>
       <rPr>
@@ -695,6 +696,53 @@
   <si>
     <t>&lt;__main__.DisplayOutputs object at 0x7f31f3e7a9d0&gt;</t>
   </si>
+  <si>
+    <t>&lt;__main__.DisplayOutputs object at 0x7fc6bbd46760&gt;</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Model Name:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> LJ200_2.0_UAControl_FreezeD1.h5 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Accuracy:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>90% (3% increase)</t>
+    </r>
+  </si>
 </sst>
 </file>
 
@@ -3595,6 +3643,584 @@
           </a:p>
         </c:txPr>
         <c:crossAx val="1719444751"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart14.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'D1'!$R$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Accuracy</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'D1'!$R$2:$R$147</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="146"/>
+                <c:pt idx="0">
+                  <c:v>1.5625</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>12.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>28.125</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>53.125</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>68.75</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>78.125</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>76.5625</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>84.375</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>81.25</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>76.5625</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>76.5625</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>76.5625</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>78.125</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>73.4375</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>76.5625</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>76.5625</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>85.9375</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>87.5</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>82.8125</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>79.6875</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>84.375</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>79.6875</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>79.6875</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>87.5</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>76.5625</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>87.5</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>87.5</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>85.9375</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>87.5</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>85.9375</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>89.0625</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>82.8125</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>87.5</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>85.9375</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>84.375</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>89.0625</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>89.0625</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>87.5</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>85.9375</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>85.9375</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>89.0625</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>82.8125</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>85.9375</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>85.9375</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>81.25</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>85.9375</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>87.5</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>84.375</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>85.9375</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>87.5</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>84.375</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>90.625</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>84.375</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>81.25</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>87.5</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>85.9375</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>84.375</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>81.25</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>89.0625</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>93.75</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>95.3125</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>89.0625</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>89.0625</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>89.0625</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>93.75</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>90.625</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>90.625</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>90.625</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>90.625</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>89.0625</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>90.625</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>87.5</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>89.0625</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>92.1875</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>89.0625</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>87.5</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>85.9375</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>87.5</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>87.5</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>92.1875</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>87.5</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>90.625</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>90.625</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>90.625</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>90.625</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>90.625</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>90.625</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>90.625</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>90.625</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>90.625</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>90.625</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>90.625</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>90.625</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>90.625</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>90.625</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>90.625</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>90.625</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>90.625</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-22BE-412D-BD3E-5DEA36023BF6}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="589107088"/>
+        <c:axId val="589115408"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="589107088"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="589115408"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="589115408"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="589107088"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -8435,6 +9061,46 @@
 </file>
 
 <file path=xl/charts/colors13.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors14.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -10859,6 +11525,522 @@
 </file>
 
 <file path=xl/charts/style13.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style14.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -16128,15 +17310,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>550068</xdr:colOff>
+      <xdr:colOff>550069</xdr:colOff>
       <xdr:row>20</xdr:row>
       <xdr:rowOff>2381</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>569118</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>30956</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>442232</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>59531</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -16170,7 +17352,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>428056</xdr:colOff>
+      <xdr:colOff>19842</xdr:colOff>
       <xdr:row>19</xdr:row>
       <xdr:rowOff>17009</xdr:rowOff>
     </xdr:to>
@@ -16381,6 +17563,232 @@
         <a:xfrm>
           <a:off x="5088821" y="467431"/>
           <a:ext cx="3735849" cy="2883957"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing14.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>65539</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>14072</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>104863</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0FF2ABDA-B848-4187-B2D5-528BD213A07F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:srcRect l="-331" t="38919" r="61637" b="11975"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1" y="608464"/>
+          <a:ext cx="3252571" cy="2753949"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>138266</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>171996</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{43B6DB74-F8B1-1642-EA35-A418D07CCF06}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="3687097"/>
+          <a:ext cx="3364476" cy="2568609"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1113811</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>130586</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>117782</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>23046</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FA0BE815-B2AE-1EA2-C592-2D9A2E9BE031}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4985263" y="683651"/>
+          <a:ext cx="3543709" cy="2657782"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>913323</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>99396</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>300343</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>77273</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{936669FF-2D5A-C38F-7D04-A4D381F4EAF7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing15.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>65539</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>14072</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>104863</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CB21D80D-C505-49E1-83A1-F75E8E4E1F74}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:srcRect l="-331" t="38919" r="61637" b="11975"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1" y="608464"/>
+          <a:ext cx="3252571" cy="2753949"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -19775,7 +21183,7 @@
   <dimension ref="A1:V101"/>
   <sheetViews>
     <sheetView zoomScale="76" workbookViewId="0">
-      <selection activeCell="R29" sqref="R29"/>
+      <selection activeCell="H1" sqref="H1:L1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -19785,7 +21193,7 @@
         <v>19</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="I1" s="2"/>
       <c r="J1" s="2"/>
@@ -21430,7 +22838,7 @@
   <dimension ref="A1:V152"/>
   <sheetViews>
     <sheetView zoomScale="56" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+      <selection activeCell="H1" sqref="H1:L1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -21446,7 +22854,7 @@
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
       <c r="H1" s="2" t="s">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="I1" s="2"/>
       <c r="J1" s="2"/>
@@ -23501,12 +24909,12 @@
   <dimension ref="A1:R101"/>
   <sheetViews>
     <sheetView zoomScale="56" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="I1" sqref="I1:M1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="7" max="7" width="18.3984375" customWidth="1"/>
+    <col min="7" max="7" width="24.1328125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.45">
@@ -23520,7 +24928,7 @@
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
       <c r="I1" s="2" t="s">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="J1" s="2"/>
       <c r="K1" s="2"/>
@@ -25166,8 +26574,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9A11C02-0E45-4B43-9A91-71CE4B72F194}">
   <dimension ref="A1:R152"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="54" workbookViewId="0">
-      <selection activeCell="O2" sqref="O2:P152"/>
+    <sheetView zoomScale="54" workbookViewId="0">
+      <selection activeCell="I1" sqref="I1:M1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -25186,7 +26594,7 @@
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
       <c r="I1" s="2" t="s">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="J1" s="2"/>
       <c r="K1" s="2"/>
@@ -27238,13 +28646,4068 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80681054-39C8-45FA-99BE-5FAE16E8D808}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:R147"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView zoomScale="62" workbookViewId="0">
+      <selection activeCell="F36" sqref="A1:XFD1048576"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
-  <sheetData/>
+  <cols>
+    <col min="7" max="7" width="18.3984375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A1" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="I1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
+      <c r="O1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="O2">
+        <v>0</v>
+      </c>
+      <c r="P2">
+        <v>0.984375</v>
+      </c>
+      <c r="Q2">
+        <f xml:space="preserve"> 1+O2</f>
+        <v>1</v>
+      </c>
+      <c r="R2">
+        <f xml:space="preserve"> (1-P2)*100</f>
+        <v>1.5625</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="O3">
+        <v>1</v>
+      </c>
+      <c r="P3">
+        <v>0.875</v>
+      </c>
+      <c r="Q3">
+        <f t="shared" ref="Q3:Q66" si="0" xml:space="preserve"> 1+O3</f>
+        <v>2</v>
+      </c>
+      <c r="R3">
+        <f t="shared" ref="R3:R66" si="1" xml:space="preserve"> (1-P3)*100</f>
+        <v>12.5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="O4">
+        <v>2</v>
+      </c>
+      <c r="P4">
+        <v>0.71875</v>
+      </c>
+      <c r="Q4">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="R4">
+        <f t="shared" si="1"/>
+        <v>28.125</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="O5">
+        <v>3</v>
+      </c>
+      <c r="P5">
+        <v>0.46875</v>
+      </c>
+      <c r="Q5">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="R5">
+        <f t="shared" si="1"/>
+        <v>53.125</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="O6">
+        <v>4</v>
+      </c>
+      <c r="P6">
+        <v>0.3125</v>
+      </c>
+      <c r="Q6">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="R6">
+        <f t="shared" si="1"/>
+        <v>68.75</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="O7">
+        <v>5</v>
+      </c>
+      <c r="P7">
+        <v>0.25</v>
+      </c>
+      <c r="Q7">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="R7">
+        <f t="shared" si="1"/>
+        <v>75</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="O8">
+        <v>6</v>
+      </c>
+      <c r="P8">
+        <v>0.21875</v>
+      </c>
+      <c r="Q8">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="R8">
+        <f t="shared" si="1"/>
+        <v>78.125</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="O9">
+        <v>7</v>
+      </c>
+      <c r="P9">
+        <v>0.234375</v>
+      </c>
+      <c r="Q9">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="R9">
+        <f t="shared" si="1"/>
+        <v>76.5625</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="O10">
+        <v>8</v>
+      </c>
+      <c r="P10">
+        <v>0.15625</v>
+      </c>
+      <c r="Q10">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="R10">
+        <f t="shared" si="1"/>
+        <v>84.375</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="O11">
+        <v>9</v>
+      </c>
+      <c r="P11">
+        <v>0.1875</v>
+      </c>
+      <c r="Q11">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="R11">
+        <f t="shared" si="1"/>
+        <v>81.25</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="O12">
+        <v>10</v>
+      </c>
+      <c r="P12">
+        <v>0.234375</v>
+      </c>
+      <c r="Q12">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="R12">
+        <f t="shared" si="1"/>
+        <v>76.5625</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="O13">
+        <v>11</v>
+      </c>
+      <c r="P13">
+        <v>0.234375</v>
+      </c>
+      <c r="Q13">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="R13">
+        <f t="shared" si="1"/>
+        <v>76.5625</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="O14">
+        <v>12</v>
+      </c>
+      <c r="P14">
+        <v>0.234375</v>
+      </c>
+      <c r="Q14">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="R14">
+        <f t="shared" si="1"/>
+        <v>76.5625</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="O15">
+        <v>13</v>
+      </c>
+      <c r="P15">
+        <v>0.21875</v>
+      </c>
+      <c r="Q15">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="R15">
+        <f t="shared" si="1"/>
+        <v>78.125</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="O16">
+        <v>14</v>
+      </c>
+      <c r="P16">
+        <v>0.265625</v>
+      </c>
+      <c r="Q16">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="R16">
+        <f t="shared" si="1"/>
+        <v>73.4375</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="O17">
+        <v>15</v>
+      </c>
+      <c r="P17">
+        <v>0.234375</v>
+      </c>
+      <c r="Q17">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="R17">
+        <f t="shared" si="1"/>
+        <v>76.5625</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="O18">
+        <v>16</v>
+      </c>
+      <c r="P18">
+        <v>0.234375</v>
+      </c>
+      <c r="Q18">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="R18">
+        <f t="shared" si="1"/>
+        <v>76.5625</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="O19">
+        <v>17</v>
+      </c>
+      <c r="P19">
+        <v>0.140625</v>
+      </c>
+      <c r="Q19">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="R19">
+        <f t="shared" si="1"/>
+        <v>85.9375</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A20" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
+      <c r="O20">
+        <v>18</v>
+      </c>
+      <c r="P20">
+        <v>0.125</v>
+      </c>
+      <c r="Q20">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="R20">
+        <f t="shared" si="1"/>
+        <v>87.5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="O21">
+        <v>19</v>
+      </c>
+      <c r="P21">
+        <v>0.171875</v>
+      </c>
+      <c r="Q21">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="R21">
+        <f t="shared" si="1"/>
+        <v>82.8125</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="O22">
+        <v>20</v>
+      </c>
+      <c r="P22">
+        <v>0.203125</v>
+      </c>
+      <c r="Q22">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="R22">
+        <f t="shared" si="1"/>
+        <v>79.6875</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="O23">
+        <v>21</v>
+      </c>
+      <c r="P23">
+        <v>0.15625</v>
+      </c>
+      <c r="Q23">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="R23">
+        <f t="shared" si="1"/>
+        <v>84.375</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="O24">
+        <v>22</v>
+      </c>
+      <c r="P24">
+        <v>0.203125</v>
+      </c>
+      <c r="Q24">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="R24">
+        <f t="shared" si="1"/>
+        <v>79.6875</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="O25">
+        <v>23</v>
+      </c>
+      <c r="P25">
+        <v>0.203125</v>
+      </c>
+      <c r="Q25">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="R25">
+        <f t="shared" si="1"/>
+        <v>79.6875</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="O26">
+        <v>24</v>
+      </c>
+      <c r="P26">
+        <v>0.125</v>
+      </c>
+      <c r="Q26">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="R26">
+        <f t="shared" si="1"/>
+        <v>87.5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="O27">
+        <v>25</v>
+      </c>
+      <c r="P27">
+        <v>0.234375</v>
+      </c>
+      <c r="Q27">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+      <c r="R27">
+        <f t="shared" si="1"/>
+        <v>76.5625</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="O28">
+        <v>26</v>
+      </c>
+      <c r="P28">
+        <v>0.125</v>
+      </c>
+      <c r="Q28">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+      <c r="R28">
+        <f t="shared" si="1"/>
+        <v>87.5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="O29">
+        <v>27</v>
+      </c>
+      <c r="P29">
+        <v>0.25</v>
+      </c>
+      <c r="Q29">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+      <c r="R29">
+        <f t="shared" si="1"/>
+        <v>75</v>
+      </c>
+    </row>
+    <row r="30" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="O30">
+        <v>28</v>
+      </c>
+      <c r="P30">
+        <v>0.125</v>
+      </c>
+      <c r="Q30">
+        <f t="shared" si="0"/>
+        <v>29</v>
+      </c>
+      <c r="R30">
+        <f t="shared" si="1"/>
+        <v>87.5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="O31">
+        <v>29</v>
+      </c>
+      <c r="P31">
+        <v>0.140625</v>
+      </c>
+      <c r="Q31">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="R31">
+        <f t="shared" si="1"/>
+        <v>85.9375</v>
+      </c>
+    </row>
+    <row r="32" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="O32">
+        <v>30</v>
+      </c>
+      <c r="P32">
+        <v>0.125</v>
+      </c>
+      <c r="Q32">
+        <f t="shared" si="0"/>
+        <v>31</v>
+      </c>
+      <c r="R32">
+        <f t="shared" si="1"/>
+        <v>87.5</v>
+      </c>
+    </row>
+    <row r="33" spans="15:18" x14ac:dyDescent="0.45">
+      <c r="O33">
+        <v>31</v>
+      </c>
+      <c r="P33">
+        <v>0.140625</v>
+      </c>
+      <c r="Q33">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+      <c r="R33">
+        <f t="shared" si="1"/>
+        <v>85.9375</v>
+      </c>
+    </row>
+    <row r="34" spans="15:18" x14ac:dyDescent="0.45">
+      <c r="O34">
+        <v>32</v>
+      </c>
+      <c r="P34">
+        <v>0.109375</v>
+      </c>
+      <c r="Q34">
+        <f t="shared" si="0"/>
+        <v>33</v>
+      </c>
+      <c r="R34">
+        <f t="shared" si="1"/>
+        <v>89.0625</v>
+      </c>
+    </row>
+    <row r="35" spans="15:18" x14ac:dyDescent="0.45">
+      <c r="O35">
+        <v>33</v>
+      </c>
+      <c r="P35">
+        <v>0.171875</v>
+      </c>
+      <c r="Q35">
+        <f t="shared" si="0"/>
+        <v>34</v>
+      </c>
+      <c r="R35">
+        <f t="shared" si="1"/>
+        <v>82.8125</v>
+      </c>
+    </row>
+    <row r="36" spans="15:18" x14ac:dyDescent="0.45">
+      <c r="O36">
+        <v>34</v>
+      </c>
+      <c r="P36">
+        <v>0.125</v>
+      </c>
+      <c r="Q36">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+      <c r="R36">
+        <f t="shared" si="1"/>
+        <v>87.5</v>
+      </c>
+    </row>
+    <row r="37" spans="15:18" x14ac:dyDescent="0.45">
+      <c r="O37">
+        <v>35</v>
+      </c>
+      <c r="P37">
+        <v>0.140625</v>
+      </c>
+      <c r="Q37">
+        <f t="shared" si="0"/>
+        <v>36</v>
+      </c>
+      <c r="R37">
+        <f t="shared" si="1"/>
+        <v>85.9375</v>
+      </c>
+    </row>
+    <row r="38" spans="15:18" x14ac:dyDescent="0.45">
+      <c r="O38">
+        <v>36</v>
+      </c>
+      <c r="P38">
+        <v>0.15625</v>
+      </c>
+      <c r="Q38">
+        <f t="shared" si="0"/>
+        <v>37</v>
+      </c>
+      <c r="R38">
+        <f t="shared" si="1"/>
+        <v>84.375</v>
+      </c>
+    </row>
+    <row r="39" spans="15:18" x14ac:dyDescent="0.45">
+      <c r="O39">
+        <v>37</v>
+      </c>
+      <c r="P39">
+        <v>0.109375</v>
+      </c>
+      <c r="Q39">
+        <f t="shared" si="0"/>
+        <v>38</v>
+      </c>
+      <c r="R39">
+        <f t="shared" si="1"/>
+        <v>89.0625</v>
+      </c>
+    </row>
+    <row r="40" spans="15:18" x14ac:dyDescent="0.45">
+      <c r="O40">
+        <v>38</v>
+      </c>
+      <c r="P40">
+        <v>0.109375</v>
+      </c>
+      <c r="Q40">
+        <f t="shared" si="0"/>
+        <v>39</v>
+      </c>
+      <c r="R40">
+        <f t="shared" si="1"/>
+        <v>89.0625</v>
+      </c>
+    </row>
+    <row r="41" spans="15:18" x14ac:dyDescent="0.45">
+      <c r="O41">
+        <v>39</v>
+      </c>
+      <c r="P41">
+        <v>0.125</v>
+      </c>
+      <c r="Q41">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="R41">
+        <f t="shared" si="1"/>
+        <v>87.5</v>
+      </c>
+    </row>
+    <row r="42" spans="15:18" x14ac:dyDescent="0.45">
+      <c r="O42">
+        <v>40</v>
+      </c>
+      <c r="P42">
+        <v>0.140625</v>
+      </c>
+      <c r="Q42">
+        <f t="shared" si="0"/>
+        <v>41</v>
+      </c>
+      <c r="R42">
+        <f t="shared" si="1"/>
+        <v>85.9375</v>
+      </c>
+    </row>
+    <row r="43" spans="15:18" x14ac:dyDescent="0.45">
+      <c r="O43">
+        <v>41</v>
+      </c>
+      <c r="P43">
+        <v>0.140625</v>
+      </c>
+      <c r="Q43">
+        <f t="shared" si="0"/>
+        <v>42</v>
+      </c>
+      <c r="R43">
+        <f t="shared" si="1"/>
+        <v>85.9375</v>
+      </c>
+    </row>
+    <row r="44" spans="15:18" x14ac:dyDescent="0.45">
+      <c r="O44">
+        <v>42</v>
+      </c>
+      <c r="P44">
+        <v>0.109375</v>
+      </c>
+      <c r="Q44">
+        <f t="shared" si="0"/>
+        <v>43</v>
+      </c>
+      <c r="R44">
+        <f t="shared" si="1"/>
+        <v>89.0625</v>
+      </c>
+    </row>
+    <row r="45" spans="15:18" x14ac:dyDescent="0.45">
+      <c r="O45">
+        <v>43</v>
+      </c>
+      <c r="P45">
+        <v>0.171875</v>
+      </c>
+      <c r="Q45">
+        <f t="shared" si="0"/>
+        <v>44</v>
+      </c>
+      <c r="R45">
+        <f t="shared" si="1"/>
+        <v>82.8125</v>
+      </c>
+    </row>
+    <row r="46" spans="15:18" x14ac:dyDescent="0.45">
+      <c r="O46">
+        <v>44</v>
+      </c>
+      <c r="P46">
+        <v>0.140625</v>
+      </c>
+      <c r="Q46">
+        <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+      <c r="R46">
+        <f t="shared" si="1"/>
+        <v>85.9375</v>
+      </c>
+    </row>
+    <row r="47" spans="15:18" x14ac:dyDescent="0.45">
+      <c r="O47">
+        <v>45</v>
+      </c>
+      <c r="P47">
+        <v>0.140625</v>
+      </c>
+      <c r="Q47">
+        <f t="shared" si="0"/>
+        <v>46</v>
+      </c>
+      <c r="R47">
+        <f t="shared" si="1"/>
+        <v>85.9375</v>
+      </c>
+    </row>
+    <row r="48" spans="15:18" x14ac:dyDescent="0.45">
+      <c r="O48">
+        <v>46</v>
+      </c>
+      <c r="P48">
+        <v>0.1875</v>
+      </c>
+      <c r="Q48">
+        <f t="shared" si="0"/>
+        <v>47</v>
+      </c>
+      <c r="R48">
+        <f t="shared" si="1"/>
+        <v>81.25</v>
+      </c>
+    </row>
+    <row r="49" spans="15:18" x14ac:dyDescent="0.45">
+      <c r="O49">
+        <v>47</v>
+      </c>
+      <c r="P49">
+        <v>0.140625</v>
+      </c>
+      <c r="Q49">
+        <f t="shared" si="0"/>
+        <v>48</v>
+      </c>
+      <c r="R49">
+        <f t="shared" si="1"/>
+        <v>85.9375</v>
+      </c>
+    </row>
+    <row r="50" spans="15:18" x14ac:dyDescent="0.45">
+      <c r="O50">
+        <v>48</v>
+      </c>
+      <c r="P50">
+        <v>0.125</v>
+      </c>
+      <c r="Q50">
+        <f t="shared" si="0"/>
+        <v>49</v>
+      </c>
+      <c r="R50">
+        <f t="shared" si="1"/>
+        <v>87.5</v>
+      </c>
+    </row>
+    <row r="51" spans="15:18" x14ac:dyDescent="0.45">
+      <c r="O51">
+        <v>49</v>
+      </c>
+      <c r="P51">
+        <v>0.15625</v>
+      </c>
+      <c r="Q51">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+      <c r="R51">
+        <f t="shared" si="1"/>
+        <v>84.375</v>
+      </c>
+    </row>
+    <row r="52" spans="15:18" x14ac:dyDescent="0.45">
+      <c r="O52">
+        <v>50</v>
+      </c>
+      <c r="P52">
+        <v>0.140625</v>
+      </c>
+      <c r="Q52">
+        <f t="shared" si="0"/>
+        <v>51</v>
+      </c>
+      <c r="R52">
+        <f t="shared" si="1"/>
+        <v>85.9375</v>
+      </c>
+    </row>
+    <row r="53" spans="15:18" x14ac:dyDescent="0.45">
+      <c r="O53">
+        <v>51</v>
+      </c>
+      <c r="P53">
+        <v>0.125</v>
+      </c>
+      <c r="Q53">
+        <f t="shared" si="0"/>
+        <v>52</v>
+      </c>
+      <c r="R53">
+        <f t="shared" si="1"/>
+        <v>87.5</v>
+      </c>
+    </row>
+    <row r="54" spans="15:18" x14ac:dyDescent="0.45">
+      <c r="O54">
+        <v>52</v>
+      </c>
+      <c r="P54">
+        <v>0.15625</v>
+      </c>
+      <c r="Q54">
+        <f t="shared" si="0"/>
+        <v>53</v>
+      </c>
+      <c r="R54">
+        <f t="shared" si="1"/>
+        <v>84.375</v>
+      </c>
+    </row>
+    <row r="55" spans="15:18" x14ac:dyDescent="0.45">
+      <c r="O55">
+        <v>53</v>
+      </c>
+      <c r="P55">
+        <v>9.375E-2</v>
+      </c>
+      <c r="Q55">
+        <f t="shared" si="0"/>
+        <v>54</v>
+      </c>
+      <c r="R55">
+        <f t="shared" si="1"/>
+        <v>90.625</v>
+      </c>
+    </row>
+    <row r="56" spans="15:18" x14ac:dyDescent="0.45">
+      <c r="O56">
+        <v>54</v>
+      </c>
+      <c r="P56">
+        <v>0.15625</v>
+      </c>
+      <c r="Q56">
+        <f t="shared" si="0"/>
+        <v>55</v>
+      </c>
+      <c r="R56">
+        <f t="shared" si="1"/>
+        <v>84.375</v>
+      </c>
+    </row>
+    <row r="57" spans="15:18" x14ac:dyDescent="0.45">
+      <c r="O57">
+        <v>55</v>
+      </c>
+      <c r="P57">
+        <v>0.1875</v>
+      </c>
+      <c r="Q57">
+        <f t="shared" si="0"/>
+        <v>56</v>
+      </c>
+      <c r="R57">
+        <f t="shared" si="1"/>
+        <v>81.25</v>
+      </c>
+    </row>
+    <row r="58" spans="15:18" x14ac:dyDescent="0.45">
+      <c r="O58">
+        <v>56</v>
+      </c>
+      <c r="P58">
+        <v>0.125</v>
+      </c>
+      <c r="Q58">
+        <f t="shared" si="0"/>
+        <v>57</v>
+      </c>
+      <c r="R58">
+        <f t="shared" si="1"/>
+        <v>87.5</v>
+      </c>
+    </row>
+    <row r="59" spans="15:18" x14ac:dyDescent="0.45">
+      <c r="O59">
+        <v>57</v>
+      </c>
+      <c r="P59">
+        <v>0.140625</v>
+      </c>
+      <c r="Q59">
+        <f t="shared" si="0"/>
+        <v>58</v>
+      </c>
+      <c r="R59">
+        <f t="shared" si="1"/>
+        <v>85.9375</v>
+      </c>
+    </row>
+    <row r="60" spans="15:18" x14ac:dyDescent="0.45">
+      <c r="O60">
+        <v>58</v>
+      </c>
+      <c r="P60">
+        <v>0.15625</v>
+      </c>
+      <c r="Q60">
+        <f t="shared" si="0"/>
+        <v>59</v>
+      </c>
+      <c r="R60">
+        <f t="shared" si="1"/>
+        <v>84.375</v>
+      </c>
+    </row>
+    <row r="61" spans="15:18" x14ac:dyDescent="0.45">
+      <c r="O61">
+        <v>59</v>
+      </c>
+      <c r="P61">
+        <v>0.1875</v>
+      </c>
+      <c r="Q61">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+      <c r="R61">
+        <f t="shared" si="1"/>
+        <v>81.25</v>
+      </c>
+    </row>
+    <row r="62" spans="15:18" x14ac:dyDescent="0.45">
+      <c r="O62">
+        <v>60</v>
+      </c>
+      <c r="P62">
+        <v>0.109375</v>
+      </c>
+      <c r="Q62">
+        <f t="shared" si="0"/>
+        <v>61</v>
+      </c>
+      <c r="R62">
+        <f t="shared" si="1"/>
+        <v>89.0625</v>
+      </c>
+    </row>
+    <row r="63" spans="15:18" x14ac:dyDescent="0.45">
+      <c r="O63">
+        <v>61</v>
+      </c>
+      <c r="P63">
+        <v>6.25E-2</v>
+      </c>
+      <c r="Q63">
+        <f t="shared" si="0"/>
+        <v>62</v>
+      </c>
+      <c r="R63">
+        <f t="shared" si="1"/>
+        <v>93.75</v>
+      </c>
+    </row>
+    <row r="64" spans="15:18" x14ac:dyDescent="0.45">
+      <c r="O64">
+        <v>62</v>
+      </c>
+      <c r="P64">
+        <v>4.6875E-2</v>
+      </c>
+      <c r="Q64">
+        <f t="shared" si="0"/>
+        <v>63</v>
+      </c>
+      <c r="R64">
+        <f t="shared" si="1"/>
+        <v>95.3125</v>
+      </c>
+    </row>
+    <row r="65" spans="15:18" x14ac:dyDescent="0.45">
+      <c r="O65">
+        <v>63</v>
+      </c>
+      <c r="P65">
+        <v>0.109375</v>
+      </c>
+      <c r="Q65">
+        <f t="shared" si="0"/>
+        <v>64</v>
+      </c>
+      <c r="R65">
+        <f t="shared" si="1"/>
+        <v>89.0625</v>
+      </c>
+    </row>
+    <row r="66" spans="15:18" x14ac:dyDescent="0.45">
+      <c r="O66">
+        <v>64</v>
+      </c>
+      <c r="P66">
+        <v>0.109375</v>
+      </c>
+      <c r="Q66">
+        <f t="shared" si="0"/>
+        <v>65</v>
+      </c>
+      <c r="R66">
+        <f t="shared" si="1"/>
+        <v>89.0625</v>
+      </c>
+    </row>
+    <row r="67" spans="15:18" x14ac:dyDescent="0.45">
+      <c r="O67">
+        <v>65</v>
+      </c>
+      <c r="P67">
+        <v>0.109375</v>
+      </c>
+      <c r="Q67">
+        <f t="shared" ref="Q67:Q101" si="2" xml:space="preserve"> 1+O67</f>
+        <v>66</v>
+      </c>
+      <c r="R67">
+        <f t="shared" ref="R67:R101" si="3" xml:space="preserve"> (1-P67)*100</f>
+        <v>89.0625</v>
+      </c>
+    </row>
+    <row r="68" spans="15:18" x14ac:dyDescent="0.45">
+      <c r="O68">
+        <v>66</v>
+      </c>
+      <c r="P68">
+        <v>6.25E-2</v>
+      </c>
+      <c r="Q68">
+        <f t="shared" si="2"/>
+        <v>67</v>
+      </c>
+      <c r="R68">
+        <f t="shared" si="3"/>
+        <v>93.75</v>
+      </c>
+    </row>
+    <row r="69" spans="15:18" x14ac:dyDescent="0.45">
+      <c r="O69">
+        <v>67</v>
+      </c>
+      <c r="P69">
+        <v>9.375E-2</v>
+      </c>
+      <c r="Q69">
+        <f t="shared" si="2"/>
+        <v>68</v>
+      </c>
+      <c r="R69">
+        <f t="shared" si="3"/>
+        <v>90.625</v>
+      </c>
+    </row>
+    <row r="70" spans="15:18" x14ac:dyDescent="0.45">
+      <c r="O70">
+        <v>68</v>
+      </c>
+      <c r="P70">
+        <v>9.375E-2</v>
+      </c>
+      <c r="Q70">
+        <f t="shared" si="2"/>
+        <v>69</v>
+      </c>
+      <c r="R70">
+        <f t="shared" si="3"/>
+        <v>90.625</v>
+      </c>
+    </row>
+    <row r="71" spans="15:18" x14ac:dyDescent="0.45">
+      <c r="O71">
+        <v>69</v>
+      </c>
+      <c r="P71">
+        <v>9.375E-2</v>
+      </c>
+      <c r="Q71">
+        <f t="shared" si="2"/>
+        <v>70</v>
+      </c>
+      <c r="R71">
+        <f t="shared" si="3"/>
+        <v>90.625</v>
+      </c>
+    </row>
+    <row r="72" spans="15:18" x14ac:dyDescent="0.45">
+      <c r="O72">
+        <v>70</v>
+      </c>
+      <c r="P72">
+        <v>9.375E-2</v>
+      </c>
+      <c r="Q72">
+        <f t="shared" si="2"/>
+        <v>71</v>
+      </c>
+      <c r="R72">
+        <f t="shared" si="3"/>
+        <v>90.625</v>
+      </c>
+    </row>
+    <row r="73" spans="15:18" x14ac:dyDescent="0.45">
+      <c r="O73">
+        <v>71</v>
+      </c>
+      <c r="P73">
+        <v>0.109375</v>
+      </c>
+      <c r="Q73">
+        <f t="shared" si="2"/>
+        <v>72</v>
+      </c>
+      <c r="R73">
+        <f t="shared" si="3"/>
+        <v>89.0625</v>
+      </c>
+    </row>
+    <row r="74" spans="15:18" x14ac:dyDescent="0.45">
+      <c r="O74">
+        <v>72</v>
+      </c>
+      <c r="P74">
+        <v>9.375E-2</v>
+      </c>
+      <c r="Q74">
+        <f t="shared" si="2"/>
+        <v>73</v>
+      </c>
+      <c r="R74">
+        <f t="shared" si="3"/>
+        <v>90.625</v>
+      </c>
+    </row>
+    <row r="75" spans="15:18" x14ac:dyDescent="0.45">
+      <c r="O75">
+        <v>73</v>
+      </c>
+      <c r="P75">
+        <v>0.125</v>
+      </c>
+      <c r="Q75">
+        <f t="shared" si="2"/>
+        <v>74</v>
+      </c>
+      <c r="R75">
+        <f t="shared" si="3"/>
+        <v>87.5</v>
+      </c>
+    </row>
+    <row r="76" spans="15:18" x14ac:dyDescent="0.45">
+      <c r="O76">
+        <v>74</v>
+      </c>
+      <c r="P76">
+        <v>0.109375</v>
+      </c>
+      <c r="Q76">
+        <f t="shared" si="2"/>
+        <v>75</v>
+      </c>
+      <c r="R76">
+        <f t="shared" si="3"/>
+        <v>89.0625</v>
+      </c>
+    </row>
+    <row r="77" spans="15:18" x14ac:dyDescent="0.45">
+      <c r="O77">
+        <v>75</v>
+      </c>
+      <c r="P77">
+        <v>7.8125E-2</v>
+      </c>
+      <c r="Q77">
+        <f t="shared" si="2"/>
+        <v>76</v>
+      </c>
+      <c r="R77">
+        <f t="shared" si="3"/>
+        <v>92.1875</v>
+      </c>
+    </row>
+    <row r="78" spans="15:18" x14ac:dyDescent="0.45">
+      <c r="O78">
+        <v>76</v>
+      </c>
+      <c r="P78">
+        <v>0.109375</v>
+      </c>
+      <c r="Q78">
+        <f t="shared" si="2"/>
+        <v>77</v>
+      </c>
+      <c r="R78">
+        <f t="shared" si="3"/>
+        <v>89.0625</v>
+      </c>
+    </row>
+    <row r="79" spans="15:18" x14ac:dyDescent="0.45">
+      <c r="O79">
+        <v>77</v>
+      </c>
+      <c r="P79">
+        <v>0.125</v>
+      </c>
+      <c r="Q79">
+        <f t="shared" si="2"/>
+        <v>78</v>
+      </c>
+      <c r="R79">
+        <f t="shared" si="3"/>
+        <v>87.5</v>
+      </c>
+    </row>
+    <row r="80" spans="15:18" x14ac:dyDescent="0.45">
+      <c r="O80">
+        <v>78</v>
+      </c>
+      <c r="P80">
+        <v>0.140625</v>
+      </c>
+      <c r="Q80">
+        <f t="shared" si="2"/>
+        <v>79</v>
+      </c>
+      <c r="R80">
+        <f t="shared" si="3"/>
+        <v>85.9375</v>
+      </c>
+    </row>
+    <row r="81" spans="15:18" x14ac:dyDescent="0.45">
+      <c r="O81">
+        <v>79</v>
+      </c>
+      <c r="P81">
+        <v>0.125</v>
+      </c>
+      <c r="Q81">
+        <f t="shared" si="2"/>
+        <v>80</v>
+      </c>
+      <c r="R81">
+        <f t="shared" si="3"/>
+        <v>87.5</v>
+      </c>
+    </row>
+    <row r="82" spans="15:18" x14ac:dyDescent="0.45">
+      <c r="O82">
+        <v>80</v>
+      </c>
+      <c r="P82">
+        <v>0.125</v>
+      </c>
+      <c r="Q82">
+        <f t="shared" si="2"/>
+        <v>81</v>
+      </c>
+      <c r="R82">
+        <f t="shared" si="3"/>
+        <v>87.5</v>
+      </c>
+    </row>
+    <row r="83" spans="15:18" x14ac:dyDescent="0.45">
+      <c r="O83">
+        <v>81</v>
+      </c>
+      <c r="P83">
+        <v>7.8125E-2</v>
+      </c>
+      <c r="Q83">
+        <f t="shared" si="2"/>
+        <v>82</v>
+      </c>
+      <c r="R83">
+        <f t="shared" si="3"/>
+        <v>92.1875</v>
+      </c>
+    </row>
+    <row r="84" spans="15:18" x14ac:dyDescent="0.45">
+      <c r="O84">
+        <v>82</v>
+      </c>
+      <c r="P84">
+        <v>0.125</v>
+      </c>
+      <c r="Q84">
+        <f t="shared" si="2"/>
+        <v>83</v>
+      </c>
+      <c r="R84">
+        <f t="shared" si="3"/>
+        <v>87.5</v>
+      </c>
+    </row>
+    <row r="85" spans="15:18" x14ac:dyDescent="0.45">
+      <c r="O85">
+        <v>83</v>
+      </c>
+      <c r="P85">
+        <v>9.375E-2</v>
+      </c>
+      <c r="Q85">
+        <f t="shared" si="2"/>
+        <v>84</v>
+      </c>
+      <c r="R85">
+        <f t="shared" si="3"/>
+        <v>90.625</v>
+      </c>
+    </row>
+    <row r="86" spans="15:18" x14ac:dyDescent="0.45">
+      <c r="O86">
+        <v>84</v>
+      </c>
+      <c r="P86">
+        <v>9.375E-2</v>
+      </c>
+      <c r="Q86">
+        <f t="shared" si="2"/>
+        <v>85</v>
+      </c>
+      <c r="R86">
+        <f t="shared" si="3"/>
+        <v>90.625</v>
+      </c>
+    </row>
+    <row r="87" spans="15:18" x14ac:dyDescent="0.45">
+      <c r="O87">
+        <v>85</v>
+      </c>
+      <c r="P87">
+        <v>9.375E-2</v>
+      </c>
+      <c r="Q87">
+        <f t="shared" si="2"/>
+        <v>86</v>
+      </c>
+      <c r="R87">
+        <f t="shared" si="3"/>
+        <v>90.625</v>
+      </c>
+    </row>
+    <row r="88" spans="15:18" x14ac:dyDescent="0.45">
+      <c r="O88">
+        <v>86</v>
+      </c>
+      <c r="P88">
+        <v>9.375E-2</v>
+      </c>
+      <c r="Q88">
+        <f t="shared" si="2"/>
+        <v>87</v>
+      </c>
+      <c r="R88">
+        <f t="shared" si="3"/>
+        <v>90.625</v>
+      </c>
+    </row>
+    <row r="89" spans="15:18" x14ac:dyDescent="0.45">
+      <c r="O89">
+        <v>87</v>
+      </c>
+      <c r="P89">
+        <v>9.375E-2</v>
+      </c>
+      <c r="Q89">
+        <f t="shared" si="2"/>
+        <v>88</v>
+      </c>
+      <c r="R89">
+        <f t="shared" si="3"/>
+        <v>90.625</v>
+      </c>
+    </row>
+    <row r="90" spans="15:18" x14ac:dyDescent="0.45">
+      <c r="O90">
+        <v>88</v>
+      </c>
+      <c r="P90">
+        <v>9.375E-2</v>
+      </c>
+      <c r="Q90">
+        <f t="shared" si="2"/>
+        <v>89</v>
+      </c>
+      <c r="R90">
+        <f t="shared" si="3"/>
+        <v>90.625</v>
+      </c>
+    </row>
+    <row r="91" spans="15:18" x14ac:dyDescent="0.45">
+      <c r="O91">
+        <v>89</v>
+      </c>
+      <c r="P91">
+        <v>9.375E-2</v>
+      </c>
+      <c r="Q91">
+        <f t="shared" si="2"/>
+        <v>90</v>
+      </c>
+      <c r="R91">
+        <f t="shared" si="3"/>
+        <v>90.625</v>
+      </c>
+    </row>
+    <row r="92" spans="15:18" x14ac:dyDescent="0.45">
+      <c r="O92">
+        <v>90</v>
+      </c>
+      <c r="P92">
+        <v>9.375E-2</v>
+      </c>
+      <c r="Q92">
+        <f t="shared" si="2"/>
+        <v>91</v>
+      </c>
+      <c r="R92">
+        <f t="shared" si="3"/>
+        <v>90.625</v>
+      </c>
+    </row>
+    <row r="93" spans="15:18" x14ac:dyDescent="0.45">
+      <c r="O93">
+        <v>91</v>
+      </c>
+      <c r="P93">
+        <v>9.375E-2</v>
+      </c>
+      <c r="Q93">
+        <f t="shared" si="2"/>
+        <v>92</v>
+      </c>
+      <c r="R93">
+        <f t="shared" si="3"/>
+        <v>90.625</v>
+      </c>
+    </row>
+    <row r="94" spans="15:18" x14ac:dyDescent="0.45">
+      <c r="O94">
+        <v>92</v>
+      </c>
+      <c r="P94">
+        <v>9.375E-2</v>
+      </c>
+      <c r="Q94">
+        <f t="shared" si="2"/>
+        <v>93</v>
+      </c>
+      <c r="R94">
+        <f t="shared" si="3"/>
+        <v>90.625</v>
+      </c>
+    </row>
+    <row r="95" spans="15:18" x14ac:dyDescent="0.45">
+      <c r="O95">
+        <v>93</v>
+      </c>
+      <c r="P95">
+        <v>9.375E-2</v>
+      </c>
+      <c r="Q95">
+        <f t="shared" si="2"/>
+        <v>94</v>
+      </c>
+      <c r="R95">
+        <f t="shared" si="3"/>
+        <v>90.625</v>
+      </c>
+    </row>
+    <row r="96" spans="15:18" x14ac:dyDescent="0.45">
+      <c r="O96">
+        <v>94</v>
+      </c>
+      <c r="P96">
+        <v>9.375E-2</v>
+      </c>
+      <c r="Q96">
+        <f t="shared" si="2"/>
+        <v>95</v>
+      </c>
+      <c r="R96">
+        <f t="shared" si="3"/>
+        <v>90.625</v>
+      </c>
+    </row>
+    <row r="97" spans="15:18" x14ac:dyDescent="0.45">
+      <c r="O97">
+        <v>95</v>
+      </c>
+      <c r="P97">
+        <v>9.375E-2</v>
+      </c>
+      <c r="Q97">
+        <f t="shared" si="2"/>
+        <v>96</v>
+      </c>
+      <c r="R97">
+        <f t="shared" si="3"/>
+        <v>90.625</v>
+      </c>
+    </row>
+    <row r="98" spans="15:18" x14ac:dyDescent="0.45">
+      <c r="O98">
+        <v>96</v>
+      </c>
+      <c r="P98">
+        <v>9.375E-2</v>
+      </c>
+      <c r="Q98">
+        <f t="shared" si="2"/>
+        <v>97</v>
+      </c>
+      <c r="R98">
+        <f t="shared" si="3"/>
+        <v>90.625</v>
+      </c>
+    </row>
+    <row r="99" spans="15:18" x14ac:dyDescent="0.45">
+      <c r="O99">
+        <v>97</v>
+      </c>
+      <c r="P99">
+        <v>9.375E-2</v>
+      </c>
+      <c r="Q99">
+        <f t="shared" si="2"/>
+        <v>98</v>
+      </c>
+      <c r="R99">
+        <f t="shared" si="3"/>
+        <v>90.625</v>
+      </c>
+    </row>
+    <row r="100" spans="15:18" x14ac:dyDescent="0.45">
+      <c r="O100">
+        <v>98</v>
+      </c>
+      <c r="P100">
+        <v>9.375E-2</v>
+      </c>
+      <c r="Q100">
+        <f t="shared" si="2"/>
+        <v>99</v>
+      </c>
+      <c r="R100">
+        <f t="shared" si="3"/>
+        <v>90.625</v>
+      </c>
+    </row>
+    <row r="101" spans="15:18" x14ac:dyDescent="0.45">
+      <c r="O101">
+        <v>99</v>
+      </c>
+      <c r="P101">
+        <v>9.375E-2</v>
+      </c>
+      <c r="Q101">
+        <f t="shared" si="2"/>
+        <v>100</v>
+      </c>
+      <c r="R101">
+        <f t="shared" si="3"/>
+        <v>90.625</v>
+      </c>
+    </row>
+    <row r="102" spans="15:18" x14ac:dyDescent="0.45">
+      <c r="O102" t="s">
+        <v>24</v>
+      </c>
+      <c r="P102">
+        <v>9.375E-2</v>
+      </c>
+    </row>
+    <row r="103" spans="15:18" x14ac:dyDescent="0.45">
+      <c r="O103" t="s">
+        <v>24</v>
+      </c>
+      <c r="P103">
+        <v>0.109375</v>
+      </c>
+    </row>
+    <row r="104" spans="15:18" x14ac:dyDescent="0.45">
+      <c r="O104" t="s">
+        <v>24</v>
+      </c>
+      <c r="P104">
+        <v>9.375E-2</v>
+      </c>
+    </row>
+    <row r="105" spans="15:18" x14ac:dyDescent="0.45">
+      <c r="O105" t="s">
+        <v>24</v>
+      </c>
+      <c r="P105">
+        <v>0.140625</v>
+      </c>
+    </row>
+    <row r="106" spans="15:18" x14ac:dyDescent="0.45">
+      <c r="O106" t="s">
+        <v>24</v>
+      </c>
+      <c r="P106">
+        <v>9.375E-2</v>
+      </c>
+    </row>
+    <row r="107" spans="15:18" x14ac:dyDescent="0.45">
+      <c r="O107" t="s">
+        <v>24</v>
+      </c>
+      <c r="P107">
+        <v>7.8125E-2</v>
+      </c>
+    </row>
+    <row r="108" spans="15:18" x14ac:dyDescent="0.45">
+      <c r="O108" t="s">
+        <v>24</v>
+      </c>
+      <c r="P108">
+        <v>9.375E-2</v>
+      </c>
+    </row>
+    <row r="109" spans="15:18" x14ac:dyDescent="0.45">
+      <c r="O109" t="s">
+        <v>24</v>
+      </c>
+      <c r="P109">
+        <v>0.15625</v>
+      </c>
+    </row>
+    <row r="110" spans="15:18" x14ac:dyDescent="0.45">
+      <c r="O110" t="s">
+        <v>24</v>
+      </c>
+      <c r="P110">
+        <v>9.375E-2</v>
+      </c>
+    </row>
+    <row r="111" spans="15:18" x14ac:dyDescent="0.45">
+      <c r="O111" t="s">
+        <v>24</v>
+      </c>
+      <c r="P111">
+        <v>7.8125E-2</v>
+      </c>
+    </row>
+    <row r="112" spans="15:18" x14ac:dyDescent="0.45">
+      <c r="O112" t="s">
+        <v>24</v>
+      </c>
+      <c r="P112">
+        <v>7.8125E-2</v>
+      </c>
+    </row>
+    <row r="113" spans="15:16" x14ac:dyDescent="0.45">
+      <c r="O113" t="s">
+        <v>24</v>
+      </c>
+      <c r="P113">
+        <v>7.8125E-2</v>
+      </c>
+    </row>
+    <row r="114" spans="15:16" x14ac:dyDescent="0.45">
+      <c r="O114" t="s">
+        <v>24</v>
+      </c>
+      <c r="P114">
+        <v>7.8125E-2</v>
+      </c>
+    </row>
+    <row r="115" spans="15:16" x14ac:dyDescent="0.45">
+      <c r="O115" t="s">
+        <v>24</v>
+      </c>
+      <c r="P115">
+        <v>6.25E-2</v>
+      </c>
+    </row>
+    <row r="116" spans="15:16" x14ac:dyDescent="0.45">
+      <c r="O116" t="s">
+        <v>24</v>
+      </c>
+      <c r="P116">
+        <v>3.125E-2</v>
+      </c>
+    </row>
+    <row r="117" spans="15:16" x14ac:dyDescent="0.45">
+      <c r="O117" t="s">
+        <v>24</v>
+      </c>
+      <c r="P117">
+        <v>0.109375</v>
+      </c>
+    </row>
+    <row r="118" spans="15:16" x14ac:dyDescent="0.45">
+      <c r="O118" t="s">
+        <v>24</v>
+      </c>
+      <c r="P118">
+        <v>0.109375</v>
+      </c>
+    </row>
+    <row r="119" spans="15:16" x14ac:dyDescent="0.45">
+      <c r="O119" t="s">
+        <v>24</v>
+      </c>
+      <c r="P119">
+        <v>9.375E-2</v>
+      </c>
+    </row>
+    <row r="120" spans="15:16" x14ac:dyDescent="0.45">
+      <c r="O120" t="s">
+        <v>24</v>
+      </c>
+      <c r="P120">
+        <v>0.109375</v>
+      </c>
+    </row>
+    <row r="121" spans="15:16" x14ac:dyDescent="0.45">
+      <c r="O121" t="s">
+        <v>24</v>
+      </c>
+      <c r="P121">
+        <v>9.375E-2</v>
+      </c>
+    </row>
+    <row r="122" spans="15:16" x14ac:dyDescent="0.45">
+      <c r="O122" t="s">
+        <v>24</v>
+      </c>
+      <c r="P122">
+        <v>7.8125E-2</v>
+      </c>
+    </row>
+    <row r="123" spans="15:16" x14ac:dyDescent="0.45">
+      <c r="O123" t="s">
+        <v>24</v>
+      </c>
+      <c r="P123">
+        <v>4.6875E-2</v>
+      </c>
+    </row>
+    <row r="124" spans="15:16" x14ac:dyDescent="0.45">
+      <c r="O124" t="s">
+        <v>24</v>
+      </c>
+      <c r="P124">
+        <v>0.109375</v>
+      </c>
+    </row>
+    <row r="125" spans="15:16" x14ac:dyDescent="0.45">
+      <c r="O125" t="s">
+        <v>24</v>
+      </c>
+      <c r="P125">
+        <v>6.25E-2</v>
+      </c>
+    </row>
+    <row r="126" spans="15:16" x14ac:dyDescent="0.45">
+      <c r="O126" t="s">
+        <v>24</v>
+      </c>
+      <c r="P126">
+        <v>0.109375</v>
+      </c>
+    </row>
+    <row r="127" spans="15:16" x14ac:dyDescent="0.45">
+      <c r="O127" t="s">
+        <v>24</v>
+      </c>
+      <c r="P127">
+        <v>0.109375</v>
+      </c>
+    </row>
+    <row r="128" spans="15:16" x14ac:dyDescent="0.45">
+      <c r="O128" t="s">
+        <v>24</v>
+      </c>
+      <c r="P128">
+        <v>9.375E-2</v>
+      </c>
+    </row>
+    <row r="129" spans="15:16" x14ac:dyDescent="0.45">
+      <c r="O129" t="s">
+        <v>24</v>
+      </c>
+      <c r="P129">
+        <v>7.8125E-2</v>
+      </c>
+    </row>
+    <row r="130" spans="15:16" x14ac:dyDescent="0.45">
+      <c r="O130" t="s">
+        <v>24</v>
+      </c>
+      <c r="P130">
+        <v>0.140625</v>
+      </c>
+    </row>
+    <row r="131" spans="15:16" x14ac:dyDescent="0.45">
+      <c r="O131" t="s">
+        <v>24</v>
+      </c>
+      <c r="P131">
+        <v>9.375E-2</v>
+      </c>
+    </row>
+    <row r="132" spans="15:16" x14ac:dyDescent="0.45">
+      <c r="O132" t="s">
+        <v>24</v>
+      </c>
+      <c r="P132">
+        <v>0.125</v>
+      </c>
+    </row>
+    <row r="133" spans="15:16" x14ac:dyDescent="0.45">
+      <c r="O133" t="s">
+        <v>24</v>
+      </c>
+      <c r="P133">
+        <v>0.125</v>
+      </c>
+    </row>
+    <row r="134" spans="15:16" x14ac:dyDescent="0.45">
+      <c r="O134" t="s">
+        <v>24</v>
+      </c>
+      <c r="P134">
+        <v>0.15625</v>
+      </c>
+    </row>
+    <row r="135" spans="15:16" x14ac:dyDescent="0.45">
+      <c r="O135" t="s">
+        <v>24</v>
+      </c>
+      <c r="P135">
+        <v>0.109375</v>
+      </c>
+    </row>
+    <row r="136" spans="15:16" x14ac:dyDescent="0.45">
+      <c r="O136" t="s">
+        <v>24</v>
+      </c>
+      <c r="P136">
+        <v>4.6875E-2</v>
+      </c>
+    </row>
+    <row r="137" spans="15:16" x14ac:dyDescent="0.45">
+      <c r="O137" t="s">
+        <v>24</v>
+      </c>
+      <c r="P137">
+        <v>0.140625</v>
+      </c>
+    </row>
+    <row r="138" spans="15:16" x14ac:dyDescent="0.45">
+      <c r="O138" t="s">
+        <v>24</v>
+      </c>
+      <c r="P138">
+        <v>0.125</v>
+      </c>
+    </row>
+    <row r="139" spans="15:16" x14ac:dyDescent="0.45">
+      <c r="O139" t="s">
+        <v>24</v>
+      </c>
+      <c r="P139">
+        <v>9.375E-2</v>
+      </c>
+    </row>
+    <row r="140" spans="15:16" x14ac:dyDescent="0.45">
+      <c r="O140" t="s">
+        <v>24</v>
+      </c>
+      <c r="P140">
+        <v>9.375E-2</v>
+      </c>
+    </row>
+    <row r="141" spans="15:16" x14ac:dyDescent="0.45">
+      <c r="O141" t="s">
+        <v>24</v>
+      </c>
+      <c r="P141">
+        <v>7.8125E-2</v>
+      </c>
+    </row>
+    <row r="142" spans="15:16" x14ac:dyDescent="0.45">
+      <c r="O142" t="s">
+        <v>24</v>
+      </c>
+      <c r="P142">
+        <v>0.109375</v>
+      </c>
+    </row>
+    <row r="143" spans="15:16" x14ac:dyDescent="0.45">
+      <c r="O143" t="s">
+        <v>24</v>
+      </c>
+      <c r="P143">
+        <v>0.109375</v>
+      </c>
+    </row>
+    <row r="144" spans="15:16" x14ac:dyDescent="0.45">
+      <c r="O144" t="s">
+        <v>24</v>
+      </c>
+      <c r="P144">
+        <v>9.375E-2</v>
+      </c>
+    </row>
+    <row r="145" spans="15:16" x14ac:dyDescent="0.45">
+      <c r="O145" t="s">
+        <v>24</v>
+      </c>
+      <c r="P145">
+        <v>0.171875</v>
+      </c>
+    </row>
+    <row r="146" spans="15:16" x14ac:dyDescent="0.45">
+      <c r="O146" t="s">
+        <v>24</v>
+      </c>
+      <c r="P146">
+        <v>0.125</v>
+      </c>
+    </row>
+    <row r="147" spans="15:16" x14ac:dyDescent="0.45">
+      <c r="O147" t="s">
+        <v>24</v>
+      </c>
+      <c r="P147">
+        <v>6.25E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="I1:M1"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="A20:C20"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4658E768-D3D8-460D-9F27-34957A3D41B7}">
+  <dimension ref="A1:R147"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="83" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="7" max="7" width="18.3984375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A1" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="I1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
+      <c r="O1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="O2">
+        <v>0</v>
+      </c>
+      <c r="P2">
+        <v>0.984375</v>
+      </c>
+      <c r="Q2">
+        <f xml:space="preserve"> 1+O2</f>
+        <v>1</v>
+      </c>
+      <c r="R2">
+        <f xml:space="preserve"> (1-P2)*100</f>
+        <v>1.5625</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="O3">
+        <v>1</v>
+      </c>
+      <c r="P3">
+        <v>0.875</v>
+      </c>
+      <c r="Q3">
+        <f t="shared" ref="Q3:Q66" si="0" xml:space="preserve"> 1+O3</f>
+        <v>2</v>
+      </c>
+      <c r="R3">
+        <f t="shared" ref="R3:R66" si="1" xml:space="preserve"> (1-P3)*100</f>
+        <v>12.5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="O4">
+        <v>2</v>
+      </c>
+      <c r="P4">
+        <v>0.71875</v>
+      </c>
+      <c r="Q4">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="R4">
+        <f t="shared" si="1"/>
+        <v>28.125</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="O5">
+        <v>3</v>
+      </c>
+      <c r="P5">
+        <v>0.46875</v>
+      </c>
+      <c r="Q5">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="R5">
+        <f t="shared" si="1"/>
+        <v>53.125</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="O6">
+        <v>4</v>
+      </c>
+      <c r="P6">
+        <v>0.3125</v>
+      </c>
+      <c r="Q6">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="R6">
+        <f t="shared" si="1"/>
+        <v>68.75</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="O7">
+        <v>5</v>
+      </c>
+      <c r="P7">
+        <v>0.25</v>
+      </c>
+      <c r="Q7">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="R7">
+        <f t="shared" si="1"/>
+        <v>75</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="O8">
+        <v>6</v>
+      </c>
+      <c r="P8">
+        <v>0.21875</v>
+      </c>
+      <c r="Q8">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="R8">
+        <f t="shared" si="1"/>
+        <v>78.125</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="O9">
+        <v>7</v>
+      </c>
+      <c r="P9">
+        <v>0.234375</v>
+      </c>
+      <c r="Q9">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="R9">
+        <f t="shared" si="1"/>
+        <v>76.5625</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="O10">
+        <v>8</v>
+      </c>
+      <c r="P10">
+        <v>0.15625</v>
+      </c>
+      <c r="Q10">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="R10">
+        <f t="shared" si="1"/>
+        <v>84.375</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="O11">
+        <v>9</v>
+      </c>
+      <c r="P11">
+        <v>0.1875</v>
+      </c>
+      <c r="Q11">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="R11">
+        <f t="shared" si="1"/>
+        <v>81.25</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="O12">
+        <v>10</v>
+      </c>
+      <c r="P12">
+        <v>0.234375</v>
+      </c>
+      <c r="Q12">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="R12">
+        <f t="shared" si="1"/>
+        <v>76.5625</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="O13">
+        <v>11</v>
+      </c>
+      <c r="P13">
+        <v>0.234375</v>
+      </c>
+      <c r="Q13">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="R13">
+        <f t="shared" si="1"/>
+        <v>76.5625</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="O14">
+        <v>12</v>
+      </c>
+      <c r="P14">
+        <v>0.234375</v>
+      </c>
+      <c r="Q14">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="R14">
+        <f t="shared" si="1"/>
+        <v>76.5625</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="O15">
+        <v>13</v>
+      </c>
+      <c r="P15">
+        <v>0.21875</v>
+      </c>
+      <c r="Q15">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="R15">
+        <f t="shared" si="1"/>
+        <v>78.125</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="O16">
+        <v>14</v>
+      </c>
+      <c r="P16">
+        <v>0.265625</v>
+      </c>
+      <c r="Q16">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="R16">
+        <f t="shared" si="1"/>
+        <v>73.4375</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="O17">
+        <v>15</v>
+      </c>
+      <c r="P17">
+        <v>0.234375</v>
+      </c>
+      <c r="Q17">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="R17">
+        <f t="shared" si="1"/>
+        <v>76.5625</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="O18">
+        <v>16</v>
+      </c>
+      <c r="P18">
+        <v>0.234375</v>
+      </c>
+      <c r="Q18">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="R18">
+        <f t="shared" si="1"/>
+        <v>76.5625</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="O19">
+        <v>17</v>
+      </c>
+      <c r="P19">
+        <v>0.140625</v>
+      </c>
+      <c r="Q19">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="R19">
+        <f t="shared" si="1"/>
+        <v>85.9375</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A20" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
+      <c r="O20">
+        <v>18</v>
+      </c>
+      <c r="P20">
+        <v>0.125</v>
+      </c>
+      <c r="Q20">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="R20">
+        <f t="shared" si="1"/>
+        <v>87.5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="O21">
+        <v>19</v>
+      </c>
+      <c r="P21">
+        <v>0.171875</v>
+      </c>
+      <c r="Q21">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="R21">
+        <f t="shared" si="1"/>
+        <v>82.8125</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="O22">
+        <v>20</v>
+      </c>
+      <c r="P22">
+        <v>0.203125</v>
+      </c>
+      <c r="Q22">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="R22">
+        <f t="shared" si="1"/>
+        <v>79.6875</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="O23">
+        <v>21</v>
+      </c>
+      <c r="P23">
+        <v>0.15625</v>
+      </c>
+      <c r="Q23">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="R23">
+        <f t="shared" si="1"/>
+        <v>84.375</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="O24">
+        <v>22</v>
+      </c>
+      <c r="P24">
+        <v>0.203125</v>
+      </c>
+      <c r="Q24">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="R24">
+        <f t="shared" si="1"/>
+        <v>79.6875</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="O25">
+        <v>23</v>
+      </c>
+      <c r="P25">
+        <v>0.203125</v>
+      </c>
+      <c r="Q25">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="R25">
+        <f t="shared" si="1"/>
+        <v>79.6875</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="O26">
+        <v>24</v>
+      </c>
+      <c r="P26">
+        <v>0.125</v>
+      </c>
+      <c r="Q26">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="R26">
+        <f t="shared" si="1"/>
+        <v>87.5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="O27">
+        <v>25</v>
+      </c>
+      <c r="P27">
+        <v>0.234375</v>
+      </c>
+      <c r="Q27">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+      <c r="R27">
+        <f t="shared" si="1"/>
+        <v>76.5625</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="O28">
+        <v>26</v>
+      </c>
+      <c r="P28">
+        <v>0.125</v>
+      </c>
+      <c r="Q28">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+      <c r="R28">
+        <f t="shared" si="1"/>
+        <v>87.5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="O29">
+        <v>27</v>
+      </c>
+      <c r="P29">
+        <v>0.25</v>
+      </c>
+      <c r="Q29">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+      <c r="R29">
+        <f t="shared" si="1"/>
+        <v>75</v>
+      </c>
+    </row>
+    <row r="30" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="O30">
+        <v>28</v>
+      </c>
+      <c r="P30">
+        <v>0.125</v>
+      </c>
+      <c r="Q30">
+        <f t="shared" si="0"/>
+        <v>29</v>
+      </c>
+      <c r="R30">
+        <f t="shared" si="1"/>
+        <v>87.5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="O31">
+        <v>29</v>
+      </c>
+      <c r="P31">
+        <v>0.140625</v>
+      </c>
+      <c r="Q31">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="R31">
+        <f t="shared" si="1"/>
+        <v>85.9375</v>
+      </c>
+    </row>
+    <row r="32" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="O32">
+        <v>30</v>
+      </c>
+      <c r="P32">
+        <v>0.125</v>
+      </c>
+      <c r="Q32">
+        <f t="shared" si="0"/>
+        <v>31</v>
+      </c>
+      <c r="R32">
+        <f t="shared" si="1"/>
+        <v>87.5</v>
+      </c>
+    </row>
+    <row r="33" spans="15:18" x14ac:dyDescent="0.45">
+      <c r="O33">
+        <v>31</v>
+      </c>
+      <c r="P33">
+        <v>0.140625</v>
+      </c>
+      <c r="Q33">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+      <c r="R33">
+        <f t="shared" si="1"/>
+        <v>85.9375</v>
+      </c>
+    </row>
+    <row r="34" spans="15:18" x14ac:dyDescent="0.45">
+      <c r="O34">
+        <v>32</v>
+      </c>
+      <c r="P34">
+        <v>0.109375</v>
+      </c>
+      <c r="Q34">
+        <f t="shared" si="0"/>
+        <v>33</v>
+      </c>
+      <c r="R34">
+        <f t="shared" si="1"/>
+        <v>89.0625</v>
+      </c>
+    </row>
+    <row r="35" spans="15:18" x14ac:dyDescent="0.45">
+      <c r="O35">
+        <v>33</v>
+      </c>
+      <c r="P35">
+        <v>0.171875</v>
+      </c>
+      <c r="Q35">
+        <f t="shared" si="0"/>
+        <v>34</v>
+      </c>
+      <c r="R35">
+        <f t="shared" si="1"/>
+        <v>82.8125</v>
+      </c>
+    </row>
+    <row r="36" spans="15:18" x14ac:dyDescent="0.45">
+      <c r="O36">
+        <v>34</v>
+      </c>
+      <c r="P36">
+        <v>0.125</v>
+      </c>
+      <c r="Q36">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+      <c r="R36">
+        <f t="shared" si="1"/>
+        <v>87.5</v>
+      </c>
+    </row>
+    <row r="37" spans="15:18" x14ac:dyDescent="0.45">
+      <c r="O37">
+        <v>35</v>
+      </c>
+      <c r="P37">
+        <v>0.140625</v>
+      </c>
+      <c r="Q37">
+        <f t="shared" si="0"/>
+        <v>36</v>
+      </c>
+      <c r="R37">
+        <f t="shared" si="1"/>
+        <v>85.9375</v>
+      </c>
+    </row>
+    <row r="38" spans="15:18" x14ac:dyDescent="0.45">
+      <c r="O38">
+        <v>36</v>
+      </c>
+      <c r="P38">
+        <v>0.15625</v>
+      </c>
+      <c r="Q38">
+        <f t="shared" si="0"/>
+        <v>37</v>
+      </c>
+      <c r="R38">
+        <f t="shared" si="1"/>
+        <v>84.375</v>
+      </c>
+    </row>
+    <row r="39" spans="15:18" x14ac:dyDescent="0.45">
+      <c r="O39">
+        <v>37</v>
+      </c>
+      <c r="P39">
+        <v>0.109375</v>
+      </c>
+      <c r="Q39">
+        <f t="shared" si="0"/>
+        <v>38</v>
+      </c>
+      <c r="R39">
+        <f t="shared" si="1"/>
+        <v>89.0625</v>
+      </c>
+    </row>
+    <row r="40" spans="15:18" x14ac:dyDescent="0.45">
+      <c r="O40">
+        <v>38</v>
+      </c>
+      <c r="P40">
+        <v>0.109375</v>
+      </c>
+      <c r="Q40">
+        <f t="shared" si="0"/>
+        <v>39</v>
+      </c>
+      <c r="R40">
+        <f t="shared" si="1"/>
+        <v>89.0625</v>
+      </c>
+    </row>
+    <row r="41" spans="15:18" x14ac:dyDescent="0.45">
+      <c r="O41">
+        <v>39</v>
+      </c>
+      <c r="P41">
+        <v>0.125</v>
+      </c>
+      <c r="Q41">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="R41">
+        <f t="shared" si="1"/>
+        <v>87.5</v>
+      </c>
+    </row>
+    <row r="42" spans="15:18" x14ac:dyDescent="0.45">
+      <c r="O42">
+        <v>40</v>
+      </c>
+      <c r="P42">
+        <v>0.140625</v>
+      </c>
+      <c r="Q42">
+        <f t="shared" si="0"/>
+        <v>41</v>
+      </c>
+      <c r="R42">
+        <f t="shared" si="1"/>
+        <v>85.9375</v>
+      </c>
+    </row>
+    <row r="43" spans="15:18" x14ac:dyDescent="0.45">
+      <c r="O43">
+        <v>41</v>
+      </c>
+      <c r="P43">
+        <v>0.140625</v>
+      </c>
+      <c r="Q43">
+        <f t="shared" si="0"/>
+        <v>42</v>
+      </c>
+      <c r="R43">
+        <f t="shared" si="1"/>
+        <v>85.9375</v>
+      </c>
+    </row>
+    <row r="44" spans="15:18" x14ac:dyDescent="0.45">
+      <c r="O44">
+        <v>42</v>
+      </c>
+      <c r="P44">
+        <v>0.109375</v>
+      </c>
+      <c r="Q44">
+        <f t="shared" si="0"/>
+        <v>43</v>
+      </c>
+      <c r="R44">
+        <f t="shared" si="1"/>
+        <v>89.0625</v>
+      </c>
+    </row>
+    <row r="45" spans="15:18" x14ac:dyDescent="0.45">
+      <c r="O45">
+        <v>43</v>
+      </c>
+      <c r="P45">
+        <v>0.171875</v>
+      </c>
+      <c r="Q45">
+        <f t="shared" si="0"/>
+        <v>44</v>
+      </c>
+      <c r="R45">
+        <f t="shared" si="1"/>
+        <v>82.8125</v>
+      </c>
+    </row>
+    <row r="46" spans="15:18" x14ac:dyDescent="0.45">
+      <c r="O46">
+        <v>44</v>
+      </c>
+      <c r="P46">
+        <v>0.140625</v>
+      </c>
+      <c r="Q46">
+        <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+      <c r="R46">
+        <f t="shared" si="1"/>
+        <v>85.9375</v>
+      </c>
+    </row>
+    <row r="47" spans="15:18" x14ac:dyDescent="0.45">
+      <c r="O47">
+        <v>45</v>
+      </c>
+      <c r="P47">
+        <v>0.140625</v>
+      </c>
+      <c r="Q47">
+        <f t="shared" si="0"/>
+        <v>46</v>
+      </c>
+      <c r="R47">
+        <f t="shared" si="1"/>
+        <v>85.9375</v>
+      </c>
+    </row>
+    <row r="48" spans="15:18" x14ac:dyDescent="0.45">
+      <c r="O48">
+        <v>46</v>
+      </c>
+      <c r="P48">
+        <v>0.1875</v>
+      </c>
+      <c r="Q48">
+        <f t="shared" si="0"/>
+        <v>47</v>
+      </c>
+      <c r="R48">
+        <f t="shared" si="1"/>
+        <v>81.25</v>
+      </c>
+    </row>
+    <row r="49" spans="15:18" x14ac:dyDescent="0.45">
+      <c r="O49">
+        <v>47</v>
+      </c>
+      <c r="P49">
+        <v>0.140625</v>
+      </c>
+      <c r="Q49">
+        <f t="shared" si="0"/>
+        <v>48</v>
+      </c>
+      <c r="R49">
+        <f t="shared" si="1"/>
+        <v>85.9375</v>
+      </c>
+    </row>
+    <row r="50" spans="15:18" x14ac:dyDescent="0.45">
+      <c r="O50">
+        <v>48</v>
+      </c>
+      <c r="P50">
+        <v>0.125</v>
+      </c>
+      <c r="Q50">
+        <f t="shared" si="0"/>
+        <v>49</v>
+      </c>
+      <c r="R50">
+        <f t="shared" si="1"/>
+        <v>87.5</v>
+      </c>
+    </row>
+    <row r="51" spans="15:18" x14ac:dyDescent="0.45">
+      <c r="O51">
+        <v>49</v>
+      </c>
+      <c r="P51">
+        <v>0.15625</v>
+      </c>
+      <c r="Q51">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+      <c r="R51">
+        <f t="shared" si="1"/>
+        <v>84.375</v>
+      </c>
+    </row>
+    <row r="52" spans="15:18" x14ac:dyDescent="0.45">
+      <c r="O52">
+        <v>50</v>
+      </c>
+      <c r="P52">
+        <v>0.140625</v>
+      </c>
+      <c r="Q52">
+        <f t="shared" si="0"/>
+        <v>51</v>
+      </c>
+      <c r="R52">
+        <f t="shared" si="1"/>
+        <v>85.9375</v>
+      </c>
+    </row>
+    <row r="53" spans="15:18" x14ac:dyDescent="0.45">
+      <c r="O53">
+        <v>51</v>
+      </c>
+      <c r="P53">
+        <v>0.125</v>
+      </c>
+      <c r="Q53">
+        <f t="shared" si="0"/>
+        <v>52</v>
+      </c>
+      <c r="R53">
+        <f t="shared" si="1"/>
+        <v>87.5</v>
+      </c>
+    </row>
+    <row r="54" spans="15:18" x14ac:dyDescent="0.45">
+      <c r="O54">
+        <v>52</v>
+      </c>
+      <c r="P54">
+        <v>0.15625</v>
+      </c>
+      <c r="Q54">
+        <f t="shared" si="0"/>
+        <v>53</v>
+      </c>
+      <c r="R54">
+        <f t="shared" si="1"/>
+        <v>84.375</v>
+      </c>
+    </row>
+    <row r="55" spans="15:18" x14ac:dyDescent="0.45">
+      <c r="O55">
+        <v>53</v>
+      </c>
+      <c r="P55">
+        <v>9.375E-2</v>
+      </c>
+      <c r="Q55">
+        <f t="shared" si="0"/>
+        <v>54</v>
+      </c>
+      <c r="R55">
+        <f t="shared" si="1"/>
+        <v>90.625</v>
+      </c>
+    </row>
+    <row r="56" spans="15:18" x14ac:dyDescent="0.45">
+      <c r="O56">
+        <v>54</v>
+      </c>
+      <c r="P56">
+        <v>0.15625</v>
+      </c>
+      <c r="Q56">
+        <f t="shared" si="0"/>
+        <v>55</v>
+      </c>
+      <c r="R56">
+        <f t="shared" si="1"/>
+        <v>84.375</v>
+      </c>
+    </row>
+    <row r="57" spans="15:18" x14ac:dyDescent="0.45">
+      <c r="O57">
+        <v>55</v>
+      </c>
+      <c r="P57">
+        <v>0.1875</v>
+      </c>
+      <c r="Q57">
+        <f t="shared" si="0"/>
+        <v>56</v>
+      </c>
+      <c r="R57">
+        <f t="shared" si="1"/>
+        <v>81.25</v>
+      </c>
+    </row>
+    <row r="58" spans="15:18" x14ac:dyDescent="0.45">
+      <c r="O58">
+        <v>56</v>
+      </c>
+      <c r="P58">
+        <v>0.125</v>
+      </c>
+      <c r="Q58">
+        <f t="shared" si="0"/>
+        <v>57</v>
+      </c>
+      <c r="R58">
+        <f t="shared" si="1"/>
+        <v>87.5</v>
+      </c>
+    </row>
+    <row r="59" spans="15:18" x14ac:dyDescent="0.45">
+      <c r="O59">
+        <v>57</v>
+      </c>
+      <c r="P59">
+        <v>0.140625</v>
+      </c>
+      <c r="Q59">
+        <f t="shared" si="0"/>
+        <v>58</v>
+      </c>
+      <c r="R59">
+        <f t="shared" si="1"/>
+        <v>85.9375</v>
+      </c>
+    </row>
+    <row r="60" spans="15:18" x14ac:dyDescent="0.45">
+      <c r="O60">
+        <v>58</v>
+      </c>
+      <c r="P60">
+        <v>0.15625</v>
+      </c>
+      <c r="Q60">
+        <f t="shared" si="0"/>
+        <v>59</v>
+      </c>
+      <c r="R60">
+        <f t="shared" si="1"/>
+        <v>84.375</v>
+      </c>
+    </row>
+    <row r="61" spans="15:18" x14ac:dyDescent="0.45">
+      <c r="O61">
+        <v>59</v>
+      </c>
+      <c r="P61">
+        <v>0.1875</v>
+      </c>
+      <c r="Q61">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+      <c r="R61">
+        <f t="shared" si="1"/>
+        <v>81.25</v>
+      </c>
+    </row>
+    <row r="62" spans="15:18" x14ac:dyDescent="0.45">
+      <c r="O62">
+        <v>60</v>
+      </c>
+      <c r="P62">
+        <v>0.109375</v>
+      </c>
+      <c r="Q62">
+        <f t="shared" si="0"/>
+        <v>61</v>
+      </c>
+      <c r="R62">
+        <f t="shared" si="1"/>
+        <v>89.0625</v>
+      </c>
+    </row>
+    <row r="63" spans="15:18" x14ac:dyDescent="0.45">
+      <c r="O63">
+        <v>61</v>
+      </c>
+      <c r="P63">
+        <v>6.25E-2</v>
+      </c>
+      <c r="Q63">
+        <f t="shared" si="0"/>
+        <v>62</v>
+      </c>
+      <c r="R63">
+        <f t="shared" si="1"/>
+        <v>93.75</v>
+      </c>
+    </row>
+    <row r="64" spans="15:18" x14ac:dyDescent="0.45">
+      <c r="O64">
+        <v>62</v>
+      </c>
+      <c r="P64">
+        <v>4.6875E-2</v>
+      </c>
+      <c r="Q64">
+        <f t="shared" si="0"/>
+        <v>63</v>
+      </c>
+      <c r="R64">
+        <f t="shared" si="1"/>
+        <v>95.3125</v>
+      </c>
+    </row>
+    <row r="65" spans="15:18" x14ac:dyDescent="0.45">
+      <c r="O65">
+        <v>63</v>
+      </c>
+      <c r="P65">
+        <v>0.109375</v>
+      </c>
+      <c r="Q65">
+        <f t="shared" si="0"/>
+        <v>64</v>
+      </c>
+      <c r="R65">
+        <f t="shared" si="1"/>
+        <v>89.0625</v>
+      </c>
+    </row>
+    <row r="66" spans="15:18" x14ac:dyDescent="0.45">
+      <c r="O66">
+        <v>64</v>
+      </c>
+      <c r="P66">
+        <v>0.109375</v>
+      </c>
+      <c r="Q66">
+        <f t="shared" si="0"/>
+        <v>65</v>
+      </c>
+      <c r="R66">
+        <f t="shared" si="1"/>
+        <v>89.0625</v>
+      </c>
+    </row>
+    <row r="67" spans="15:18" x14ac:dyDescent="0.45">
+      <c r="O67">
+        <v>65</v>
+      </c>
+      <c r="P67">
+        <v>0.109375</v>
+      </c>
+      <c r="Q67">
+        <f t="shared" ref="Q67:Q101" si="2" xml:space="preserve"> 1+O67</f>
+        <v>66</v>
+      </c>
+      <c r="R67">
+        <f t="shared" ref="R67:R101" si="3" xml:space="preserve"> (1-P67)*100</f>
+        <v>89.0625</v>
+      </c>
+    </row>
+    <row r="68" spans="15:18" x14ac:dyDescent="0.45">
+      <c r="O68">
+        <v>66</v>
+      </c>
+      <c r="P68">
+        <v>6.25E-2</v>
+      </c>
+      <c r="Q68">
+        <f t="shared" si="2"/>
+        <v>67</v>
+      </c>
+      <c r="R68">
+        <f t="shared" si="3"/>
+        <v>93.75</v>
+      </c>
+    </row>
+    <row r="69" spans="15:18" x14ac:dyDescent="0.45">
+      <c r="O69">
+        <v>67</v>
+      </c>
+      <c r="P69">
+        <v>9.375E-2</v>
+      </c>
+      <c r="Q69">
+        <f t="shared" si="2"/>
+        <v>68</v>
+      </c>
+      <c r="R69">
+        <f t="shared" si="3"/>
+        <v>90.625</v>
+      </c>
+    </row>
+    <row r="70" spans="15:18" x14ac:dyDescent="0.45">
+      <c r="O70">
+        <v>68</v>
+      </c>
+      <c r="P70">
+        <v>9.375E-2</v>
+      </c>
+      <c r="Q70">
+        <f t="shared" si="2"/>
+        <v>69</v>
+      </c>
+      <c r="R70">
+        <f t="shared" si="3"/>
+        <v>90.625</v>
+      </c>
+    </row>
+    <row r="71" spans="15:18" x14ac:dyDescent="0.45">
+      <c r="O71">
+        <v>69</v>
+      </c>
+      <c r="P71">
+        <v>9.375E-2</v>
+      </c>
+      <c r="Q71">
+        <f t="shared" si="2"/>
+        <v>70</v>
+      </c>
+      <c r="R71">
+        <f t="shared" si="3"/>
+        <v>90.625</v>
+      </c>
+    </row>
+    <row r="72" spans="15:18" x14ac:dyDescent="0.45">
+      <c r="O72">
+        <v>70</v>
+      </c>
+      <c r="P72">
+        <v>9.375E-2</v>
+      </c>
+      <c r="Q72">
+        <f t="shared" si="2"/>
+        <v>71</v>
+      </c>
+      <c r="R72">
+        <f t="shared" si="3"/>
+        <v>90.625</v>
+      </c>
+    </row>
+    <row r="73" spans="15:18" x14ac:dyDescent="0.45">
+      <c r="O73">
+        <v>71</v>
+      </c>
+      <c r="P73">
+        <v>0.109375</v>
+      </c>
+      <c r="Q73">
+        <f t="shared" si="2"/>
+        <v>72</v>
+      </c>
+      <c r="R73">
+        <f t="shared" si="3"/>
+        <v>89.0625</v>
+      </c>
+    </row>
+    <row r="74" spans="15:18" x14ac:dyDescent="0.45">
+      <c r="O74">
+        <v>72</v>
+      </c>
+      <c r="P74">
+        <v>9.375E-2</v>
+      </c>
+      <c r="Q74">
+        <f t="shared" si="2"/>
+        <v>73</v>
+      </c>
+      <c r="R74">
+        <f t="shared" si="3"/>
+        <v>90.625</v>
+      </c>
+    </row>
+    <row r="75" spans="15:18" x14ac:dyDescent="0.45">
+      <c r="O75">
+        <v>73</v>
+      </c>
+      <c r="P75">
+        <v>0.125</v>
+      </c>
+      <c r="Q75">
+        <f t="shared" si="2"/>
+        <v>74</v>
+      </c>
+      <c r="R75">
+        <f t="shared" si="3"/>
+        <v>87.5</v>
+      </c>
+    </row>
+    <row r="76" spans="15:18" x14ac:dyDescent="0.45">
+      <c r="O76">
+        <v>74</v>
+      </c>
+      <c r="P76">
+        <v>0.109375</v>
+      </c>
+      <c r="Q76">
+        <f t="shared" si="2"/>
+        <v>75</v>
+      </c>
+      <c r="R76">
+        <f t="shared" si="3"/>
+        <v>89.0625</v>
+      </c>
+    </row>
+    <row r="77" spans="15:18" x14ac:dyDescent="0.45">
+      <c r="O77">
+        <v>75</v>
+      </c>
+      <c r="P77">
+        <v>7.8125E-2</v>
+      </c>
+      <c r="Q77">
+        <f t="shared" si="2"/>
+        <v>76</v>
+      </c>
+      <c r="R77">
+        <f t="shared" si="3"/>
+        <v>92.1875</v>
+      </c>
+    </row>
+    <row r="78" spans="15:18" x14ac:dyDescent="0.45">
+      <c r="O78">
+        <v>76</v>
+      </c>
+      <c r="P78">
+        <v>0.109375</v>
+      </c>
+      <c r="Q78">
+        <f t="shared" si="2"/>
+        <v>77</v>
+      </c>
+      <c r="R78">
+        <f t="shared" si="3"/>
+        <v>89.0625</v>
+      </c>
+    </row>
+    <row r="79" spans="15:18" x14ac:dyDescent="0.45">
+      <c r="O79">
+        <v>77</v>
+      </c>
+      <c r="P79">
+        <v>0.125</v>
+      </c>
+      <c r="Q79">
+        <f t="shared" si="2"/>
+        <v>78</v>
+      </c>
+      <c r="R79">
+        <f t="shared" si="3"/>
+        <v>87.5</v>
+      </c>
+    </row>
+    <row r="80" spans="15:18" x14ac:dyDescent="0.45">
+      <c r="O80">
+        <v>78</v>
+      </c>
+      <c r="P80">
+        <v>0.140625</v>
+      </c>
+      <c r="Q80">
+        <f t="shared" si="2"/>
+        <v>79</v>
+      </c>
+      <c r="R80">
+        <f t="shared" si="3"/>
+        <v>85.9375</v>
+      </c>
+    </row>
+    <row r="81" spans="15:18" x14ac:dyDescent="0.45">
+      <c r="O81">
+        <v>79</v>
+      </c>
+      <c r="P81">
+        <v>0.125</v>
+      </c>
+      <c r="Q81">
+        <f t="shared" si="2"/>
+        <v>80</v>
+      </c>
+      <c r="R81">
+        <f t="shared" si="3"/>
+        <v>87.5</v>
+      </c>
+    </row>
+    <row r="82" spans="15:18" x14ac:dyDescent="0.45">
+      <c r="O82">
+        <v>80</v>
+      </c>
+      <c r="P82">
+        <v>0.125</v>
+      </c>
+      <c r="Q82">
+        <f t="shared" si="2"/>
+        <v>81</v>
+      </c>
+      <c r="R82">
+        <f t="shared" si="3"/>
+        <v>87.5</v>
+      </c>
+    </row>
+    <row r="83" spans="15:18" x14ac:dyDescent="0.45">
+      <c r="O83">
+        <v>81</v>
+      </c>
+      <c r="P83">
+        <v>7.8125E-2</v>
+      </c>
+      <c r="Q83">
+        <f t="shared" si="2"/>
+        <v>82</v>
+      </c>
+      <c r="R83">
+        <f t="shared" si="3"/>
+        <v>92.1875</v>
+      </c>
+    </row>
+    <row r="84" spans="15:18" x14ac:dyDescent="0.45">
+      <c r="O84">
+        <v>82</v>
+      </c>
+      <c r="P84">
+        <v>0.125</v>
+      </c>
+      <c r="Q84">
+        <f t="shared" si="2"/>
+        <v>83</v>
+      </c>
+      <c r="R84">
+        <f t="shared" si="3"/>
+        <v>87.5</v>
+      </c>
+    </row>
+    <row r="85" spans="15:18" x14ac:dyDescent="0.45">
+      <c r="O85">
+        <v>83</v>
+      </c>
+      <c r="P85">
+        <v>9.375E-2</v>
+      </c>
+      <c r="Q85">
+        <f t="shared" si="2"/>
+        <v>84</v>
+      </c>
+      <c r="R85">
+        <f t="shared" si="3"/>
+        <v>90.625</v>
+      </c>
+    </row>
+    <row r="86" spans="15:18" x14ac:dyDescent="0.45">
+      <c r="O86">
+        <v>84</v>
+      </c>
+      <c r="P86">
+        <v>9.375E-2</v>
+      </c>
+      <c r="Q86">
+        <f t="shared" si="2"/>
+        <v>85</v>
+      </c>
+      <c r="R86">
+        <f t="shared" si="3"/>
+        <v>90.625</v>
+      </c>
+    </row>
+    <row r="87" spans="15:18" x14ac:dyDescent="0.45">
+      <c r="O87">
+        <v>85</v>
+      </c>
+      <c r="P87">
+        <v>9.375E-2</v>
+      </c>
+      <c r="Q87">
+        <f t="shared" si="2"/>
+        <v>86</v>
+      </c>
+      <c r="R87">
+        <f t="shared" si="3"/>
+        <v>90.625</v>
+      </c>
+    </row>
+    <row r="88" spans="15:18" x14ac:dyDescent="0.45">
+      <c r="O88">
+        <v>86</v>
+      </c>
+      <c r="P88">
+        <v>9.375E-2</v>
+      </c>
+      <c r="Q88">
+        <f t="shared" si="2"/>
+        <v>87</v>
+      </c>
+      <c r="R88">
+        <f t="shared" si="3"/>
+        <v>90.625</v>
+      </c>
+    </row>
+    <row r="89" spans="15:18" x14ac:dyDescent="0.45">
+      <c r="O89">
+        <v>87</v>
+      </c>
+      <c r="P89">
+        <v>9.375E-2</v>
+      </c>
+      <c r="Q89">
+        <f t="shared" si="2"/>
+        <v>88</v>
+      </c>
+      <c r="R89">
+        <f t="shared" si="3"/>
+        <v>90.625</v>
+      </c>
+    </row>
+    <row r="90" spans="15:18" x14ac:dyDescent="0.45">
+      <c r="O90">
+        <v>88</v>
+      </c>
+      <c r="P90">
+        <v>9.375E-2</v>
+      </c>
+      <c r="Q90">
+        <f t="shared" si="2"/>
+        <v>89</v>
+      </c>
+      <c r="R90">
+        <f t="shared" si="3"/>
+        <v>90.625</v>
+      </c>
+    </row>
+    <row r="91" spans="15:18" x14ac:dyDescent="0.45">
+      <c r="O91">
+        <v>89</v>
+      </c>
+      <c r="P91">
+        <v>9.375E-2</v>
+      </c>
+      <c r="Q91">
+        <f t="shared" si="2"/>
+        <v>90</v>
+      </c>
+      <c r="R91">
+        <f t="shared" si="3"/>
+        <v>90.625</v>
+      </c>
+    </row>
+    <row r="92" spans="15:18" x14ac:dyDescent="0.45">
+      <c r="O92">
+        <v>90</v>
+      </c>
+      <c r="P92">
+        <v>9.375E-2</v>
+      </c>
+      <c r="Q92">
+        <f t="shared" si="2"/>
+        <v>91</v>
+      </c>
+      <c r="R92">
+        <f t="shared" si="3"/>
+        <v>90.625</v>
+      </c>
+    </row>
+    <row r="93" spans="15:18" x14ac:dyDescent="0.45">
+      <c r="O93">
+        <v>91</v>
+      </c>
+      <c r="P93">
+        <v>9.375E-2</v>
+      </c>
+      <c r="Q93">
+        <f t="shared" si="2"/>
+        <v>92</v>
+      </c>
+      <c r="R93">
+        <f t="shared" si="3"/>
+        <v>90.625</v>
+      </c>
+    </row>
+    <row r="94" spans="15:18" x14ac:dyDescent="0.45">
+      <c r="O94">
+        <v>92</v>
+      </c>
+      <c r="P94">
+        <v>9.375E-2</v>
+      </c>
+      <c r="Q94">
+        <f t="shared" si="2"/>
+        <v>93</v>
+      </c>
+      <c r="R94">
+        <f t="shared" si="3"/>
+        <v>90.625</v>
+      </c>
+    </row>
+    <row r="95" spans="15:18" x14ac:dyDescent="0.45">
+      <c r="O95">
+        <v>93</v>
+      </c>
+      <c r="P95">
+        <v>9.375E-2</v>
+      </c>
+      <c r="Q95">
+        <f t="shared" si="2"/>
+        <v>94</v>
+      </c>
+      <c r="R95">
+        <f t="shared" si="3"/>
+        <v>90.625</v>
+      </c>
+    </row>
+    <row r="96" spans="15:18" x14ac:dyDescent="0.45">
+      <c r="O96">
+        <v>94</v>
+      </c>
+      <c r="P96">
+        <v>9.375E-2</v>
+      </c>
+      <c r="Q96">
+        <f t="shared" si="2"/>
+        <v>95</v>
+      </c>
+      <c r="R96">
+        <f t="shared" si="3"/>
+        <v>90.625</v>
+      </c>
+    </row>
+    <row r="97" spans="15:18" x14ac:dyDescent="0.45">
+      <c r="O97">
+        <v>95</v>
+      </c>
+      <c r="P97">
+        <v>9.375E-2</v>
+      </c>
+      <c r="Q97">
+        <f t="shared" si="2"/>
+        <v>96</v>
+      </c>
+      <c r="R97">
+        <f t="shared" si="3"/>
+        <v>90.625</v>
+      </c>
+    </row>
+    <row r="98" spans="15:18" x14ac:dyDescent="0.45">
+      <c r="O98">
+        <v>96</v>
+      </c>
+      <c r="P98">
+        <v>9.375E-2</v>
+      </c>
+      <c r="Q98">
+        <f t="shared" si="2"/>
+        <v>97</v>
+      </c>
+      <c r="R98">
+        <f t="shared" si="3"/>
+        <v>90.625</v>
+      </c>
+    </row>
+    <row r="99" spans="15:18" x14ac:dyDescent="0.45">
+      <c r="O99">
+        <v>97</v>
+      </c>
+      <c r="P99">
+        <v>9.375E-2</v>
+      </c>
+      <c r="Q99">
+        <f t="shared" si="2"/>
+        <v>98</v>
+      </c>
+      <c r="R99">
+        <f t="shared" si="3"/>
+        <v>90.625</v>
+      </c>
+    </row>
+    <row r="100" spans="15:18" x14ac:dyDescent="0.45">
+      <c r="O100">
+        <v>98</v>
+      </c>
+      <c r="P100">
+        <v>9.375E-2</v>
+      </c>
+      <c r="Q100">
+        <f t="shared" si="2"/>
+        <v>99</v>
+      </c>
+      <c r="R100">
+        <f t="shared" si="3"/>
+        <v>90.625</v>
+      </c>
+    </row>
+    <row r="101" spans="15:18" x14ac:dyDescent="0.45">
+      <c r="O101">
+        <v>99</v>
+      </c>
+      <c r="P101">
+        <v>9.375E-2</v>
+      </c>
+      <c r="Q101">
+        <f t="shared" si="2"/>
+        <v>100</v>
+      </c>
+      <c r="R101">
+        <f t="shared" si="3"/>
+        <v>90.625</v>
+      </c>
+    </row>
+    <row r="102" spans="15:18" x14ac:dyDescent="0.45">
+      <c r="O102" t="s">
+        <v>24</v>
+      </c>
+      <c r="P102">
+        <v>9.375E-2</v>
+      </c>
+    </row>
+    <row r="103" spans="15:18" x14ac:dyDescent="0.45">
+      <c r="O103" t="s">
+        <v>24</v>
+      </c>
+      <c r="P103">
+        <v>0.109375</v>
+      </c>
+    </row>
+    <row r="104" spans="15:18" x14ac:dyDescent="0.45">
+      <c r="O104" t="s">
+        <v>24</v>
+      </c>
+      <c r="P104">
+        <v>9.375E-2</v>
+      </c>
+    </row>
+    <row r="105" spans="15:18" x14ac:dyDescent="0.45">
+      <c r="O105" t="s">
+        <v>24</v>
+      </c>
+      <c r="P105">
+        <v>0.140625</v>
+      </c>
+    </row>
+    <row r="106" spans="15:18" x14ac:dyDescent="0.45">
+      <c r="O106" t="s">
+        <v>24</v>
+      </c>
+      <c r="P106">
+        <v>9.375E-2</v>
+      </c>
+    </row>
+    <row r="107" spans="15:18" x14ac:dyDescent="0.45">
+      <c r="O107" t="s">
+        <v>24</v>
+      </c>
+      <c r="P107">
+        <v>7.8125E-2</v>
+      </c>
+    </row>
+    <row r="108" spans="15:18" x14ac:dyDescent="0.45">
+      <c r="O108" t="s">
+        <v>24</v>
+      </c>
+      <c r="P108">
+        <v>9.375E-2</v>
+      </c>
+    </row>
+    <row r="109" spans="15:18" x14ac:dyDescent="0.45">
+      <c r="O109" t="s">
+        <v>24</v>
+      </c>
+      <c r="P109">
+        <v>0.15625</v>
+      </c>
+    </row>
+    <row r="110" spans="15:18" x14ac:dyDescent="0.45">
+      <c r="O110" t="s">
+        <v>24</v>
+      </c>
+      <c r="P110">
+        <v>9.375E-2</v>
+      </c>
+    </row>
+    <row r="111" spans="15:18" x14ac:dyDescent="0.45">
+      <c r="O111" t="s">
+        <v>24</v>
+      </c>
+      <c r="P111">
+        <v>7.8125E-2</v>
+      </c>
+    </row>
+    <row r="112" spans="15:18" x14ac:dyDescent="0.45">
+      <c r="O112" t="s">
+        <v>24</v>
+      </c>
+      <c r="P112">
+        <v>7.8125E-2</v>
+      </c>
+    </row>
+    <row r="113" spans="15:16" x14ac:dyDescent="0.45">
+      <c r="O113" t="s">
+        <v>24</v>
+      </c>
+      <c r="P113">
+        <v>7.8125E-2</v>
+      </c>
+    </row>
+    <row r="114" spans="15:16" x14ac:dyDescent="0.45">
+      <c r="O114" t="s">
+        <v>24</v>
+      </c>
+      <c r="P114">
+        <v>7.8125E-2</v>
+      </c>
+    </row>
+    <row r="115" spans="15:16" x14ac:dyDescent="0.45">
+      <c r="O115" t="s">
+        <v>24</v>
+      </c>
+      <c r="P115">
+        <v>6.25E-2</v>
+      </c>
+    </row>
+    <row r="116" spans="15:16" x14ac:dyDescent="0.45">
+      <c r="O116" t="s">
+        <v>24</v>
+      </c>
+      <c r="P116">
+        <v>3.125E-2</v>
+      </c>
+    </row>
+    <row r="117" spans="15:16" x14ac:dyDescent="0.45">
+      <c r="O117" t="s">
+        <v>24</v>
+      </c>
+      <c r="P117">
+        <v>0.109375</v>
+      </c>
+    </row>
+    <row r="118" spans="15:16" x14ac:dyDescent="0.45">
+      <c r="O118" t="s">
+        <v>24</v>
+      </c>
+      <c r="P118">
+        <v>0.109375</v>
+      </c>
+    </row>
+    <row r="119" spans="15:16" x14ac:dyDescent="0.45">
+      <c r="O119" t="s">
+        <v>24</v>
+      </c>
+      <c r="P119">
+        <v>9.375E-2</v>
+      </c>
+    </row>
+    <row r="120" spans="15:16" x14ac:dyDescent="0.45">
+      <c r="O120" t="s">
+        <v>24</v>
+      </c>
+      <c r="P120">
+        <v>0.109375</v>
+      </c>
+    </row>
+    <row r="121" spans="15:16" x14ac:dyDescent="0.45">
+      <c r="O121" t="s">
+        <v>24</v>
+      </c>
+      <c r="P121">
+        <v>9.375E-2</v>
+      </c>
+    </row>
+    <row r="122" spans="15:16" x14ac:dyDescent="0.45">
+      <c r="O122" t="s">
+        <v>24</v>
+      </c>
+      <c r="P122">
+        <v>7.8125E-2</v>
+      </c>
+    </row>
+    <row r="123" spans="15:16" x14ac:dyDescent="0.45">
+      <c r="O123" t="s">
+        <v>24</v>
+      </c>
+      <c r="P123">
+        <v>4.6875E-2</v>
+      </c>
+    </row>
+    <row r="124" spans="15:16" x14ac:dyDescent="0.45">
+      <c r="O124" t="s">
+        <v>24</v>
+      </c>
+      <c r="P124">
+        <v>0.109375</v>
+      </c>
+    </row>
+    <row r="125" spans="15:16" x14ac:dyDescent="0.45">
+      <c r="O125" t="s">
+        <v>24</v>
+      </c>
+      <c r="P125">
+        <v>6.25E-2</v>
+      </c>
+    </row>
+    <row r="126" spans="15:16" x14ac:dyDescent="0.45">
+      <c r="O126" t="s">
+        <v>24</v>
+      </c>
+      <c r="P126">
+        <v>0.109375</v>
+      </c>
+    </row>
+    <row r="127" spans="15:16" x14ac:dyDescent="0.45">
+      <c r="O127" t="s">
+        <v>24</v>
+      </c>
+      <c r="P127">
+        <v>0.109375</v>
+      </c>
+    </row>
+    <row r="128" spans="15:16" x14ac:dyDescent="0.45">
+      <c r="O128" t="s">
+        <v>24</v>
+      </c>
+      <c r="P128">
+        <v>9.375E-2</v>
+      </c>
+    </row>
+    <row r="129" spans="15:16" x14ac:dyDescent="0.45">
+      <c r="O129" t="s">
+        <v>24</v>
+      </c>
+      <c r="P129">
+        <v>7.8125E-2</v>
+      </c>
+    </row>
+    <row r="130" spans="15:16" x14ac:dyDescent="0.45">
+      <c r="O130" t="s">
+        <v>24</v>
+      </c>
+      <c r="P130">
+        <v>0.140625</v>
+      </c>
+    </row>
+    <row r="131" spans="15:16" x14ac:dyDescent="0.45">
+      <c r="O131" t="s">
+        <v>24</v>
+      </c>
+      <c r="P131">
+        <v>9.375E-2</v>
+      </c>
+    </row>
+    <row r="132" spans="15:16" x14ac:dyDescent="0.45">
+      <c r="O132" t="s">
+        <v>24</v>
+      </c>
+      <c r="P132">
+        <v>0.125</v>
+      </c>
+    </row>
+    <row r="133" spans="15:16" x14ac:dyDescent="0.45">
+      <c r="O133" t="s">
+        <v>24</v>
+      </c>
+      <c r="P133">
+        <v>0.125</v>
+      </c>
+    </row>
+    <row r="134" spans="15:16" x14ac:dyDescent="0.45">
+      <c r="O134" t="s">
+        <v>24</v>
+      </c>
+      <c r="P134">
+        <v>0.15625</v>
+      </c>
+    </row>
+    <row r="135" spans="15:16" x14ac:dyDescent="0.45">
+      <c r="O135" t="s">
+        <v>24</v>
+      </c>
+      <c r="P135">
+        <v>0.109375</v>
+      </c>
+    </row>
+    <row r="136" spans="15:16" x14ac:dyDescent="0.45">
+      <c r="O136" t="s">
+        <v>24</v>
+      </c>
+      <c r="P136">
+        <v>4.6875E-2</v>
+      </c>
+    </row>
+    <row r="137" spans="15:16" x14ac:dyDescent="0.45">
+      <c r="O137" t="s">
+        <v>24</v>
+      </c>
+      <c r="P137">
+        <v>0.140625</v>
+      </c>
+    </row>
+    <row r="138" spans="15:16" x14ac:dyDescent="0.45">
+      <c r="O138" t="s">
+        <v>24</v>
+      </c>
+      <c r="P138">
+        <v>0.125</v>
+      </c>
+    </row>
+    <row r="139" spans="15:16" x14ac:dyDescent="0.45">
+      <c r="O139" t="s">
+        <v>24</v>
+      </c>
+      <c r="P139">
+        <v>9.375E-2</v>
+      </c>
+    </row>
+    <row r="140" spans="15:16" x14ac:dyDescent="0.45">
+      <c r="O140" t="s">
+        <v>24</v>
+      </c>
+      <c r="P140">
+        <v>9.375E-2</v>
+      </c>
+    </row>
+    <row r="141" spans="15:16" x14ac:dyDescent="0.45">
+      <c r="O141" t="s">
+        <v>24</v>
+      </c>
+      <c r="P141">
+        <v>7.8125E-2</v>
+      </c>
+    </row>
+    <row r="142" spans="15:16" x14ac:dyDescent="0.45">
+      <c r="O142" t="s">
+        <v>24</v>
+      </c>
+      <c r="P142">
+        <v>0.109375</v>
+      </c>
+    </row>
+    <row r="143" spans="15:16" x14ac:dyDescent="0.45">
+      <c r="O143" t="s">
+        <v>24</v>
+      </c>
+      <c r="P143">
+        <v>0.109375</v>
+      </c>
+    </row>
+    <row r="144" spans="15:16" x14ac:dyDescent="0.45">
+      <c r="O144" t="s">
+        <v>24</v>
+      </c>
+      <c r="P144">
+        <v>9.375E-2</v>
+      </c>
+    </row>
+    <row r="145" spans="15:16" x14ac:dyDescent="0.45">
+      <c r="O145" t="s">
+        <v>24</v>
+      </c>
+      <c r="P145">
+        <v>0.171875</v>
+      </c>
+    </row>
+    <row r="146" spans="15:16" x14ac:dyDescent="0.45">
+      <c r="O146" t="s">
+        <v>24</v>
+      </c>
+      <c r="P146">
+        <v>0.125</v>
+      </c>
+    </row>
+    <row r="147" spans="15:16" x14ac:dyDescent="0.45">
+      <c r="O147" t="s">
+        <v>24</v>
+      </c>
+      <c r="P147">
+        <v>6.25E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="I1:M1"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="A20:C20"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -30985,7 +36448,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8525D1C2-26B5-468B-8EDE-6B9C6AD44D63}">
   <dimension ref="A1:V152"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" zoomScale="64" workbookViewId="0">
+    <sheetView zoomScale="64" workbookViewId="0">
       <selection activeCell="F34" sqref="F34"/>
     </sheetView>
   </sheetViews>
@@ -37199,7 +42662,7 @@
   <dimension ref="A1:V101"/>
   <sheetViews>
     <sheetView zoomScale="59" workbookViewId="0">
-      <selection sqref="A1:G1"/>
+      <selection activeCell="H1" sqref="H1:L1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -38861,7 +44324,7 @@
   <dimension ref="A1:V101"/>
   <sheetViews>
     <sheetView zoomScale="54" workbookViewId="0">
-      <selection sqref="A1:G1"/>
+      <selection activeCell="H1" sqref="H1:L1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -38877,7 +44340,7 @@
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
       <c r="H1" s="2" t="s">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="I1" s="2"/>
       <c r="J1" s="2"/>
@@ -40523,7 +45986,7 @@
   <dimension ref="A1:V152"/>
   <sheetViews>
     <sheetView zoomScale="51" workbookViewId="0">
-      <selection sqref="A1:G1"/>
+      <selection activeCell="H1" sqref="H1:L1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -40539,7 +46002,7 @@
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
       <c r="H1" s="2" t="s">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="I1" s="2"/>
       <c r="J1" s="2"/>

--- a/LJ+UA Experiments.xlsx
+++ b/LJ+UA Experiments.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dhvan\Documents\GitHub\P4P-Transformer-ASR-for-Dysarthric-Speech\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D03F2FC1-6297-4362-A5E6-D945E6FCA013}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{837E5216-17AD-45AB-823E-CF6AB0C5AD85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="705" yWindow="705" windowWidth="15390" windowHeight="9443" firstSheet="12" activeTab="14" xr2:uid="{75EE08EB-D9DA-45E6-8F41-68FBAE46F917}"/>
+    <workbookView xWindow="705" yWindow="705" windowWidth="15390" windowHeight="9443" firstSheet="12" activeTab="15" xr2:uid="{75EE08EB-D9DA-45E6-8F41-68FBAE46F917}"/>
   </bookViews>
   <sheets>
     <sheet name="E1" sheetId="1" r:id="rId1"/>
@@ -28,6 +28,7 @@
     <sheet name="Sequential" sheetId="13" r:id="rId13"/>
     <sheet name="D1" sheetId="14" r:id="rId14"/>
     <sheet name="D12" sheetId="15" r:id="rId15"/>
+    <sheet name="D123" sheetId="16" r:id="rId16"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -50,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="569" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="574" uniqueCount="28">
   <si>
     <r>
       <rPr>
@@ -743,6 +744,53 @@
       <t>90% (3% increase)</t>
     </r>
   </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Model Name:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> LJ200_2.0_UAControl_FreezeD1.h5 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Accuracy:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>89% (2% increase)</t>
+    </r>
+  </si>
+  <si>
+    <t>&lt;__main__.DisplayOutputs object at 0x7fa0d88d6d60&gt;</t>
+  </si>
 </sst>
 </file>
 
@@ -4221,6 +4269,584 @@
           </a:p>
         </c:txPr>
         <c:crossAx val="589107088"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart15.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'D12'!$R$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Accuracy</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'D12'!$R$2:$R$152</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="151"/>
+                <c:pt idx="0">
+                  <c:v>-4.6875</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>14.0625</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>34.375</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>56.25</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>71.875</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>70.3125</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>73.4375</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>76.5625</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>76.5625</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>76.5625</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>70.3125</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>76.5625</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>65.625</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>78.125</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>71.875</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>78.125</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>82.8125</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>78.125</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>78.125</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>84.375</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>81.25</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>81.25</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>79.6875</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>78.125</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>79.6875</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>87.5</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>82.8125</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>81.25</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>89.0625</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>81.25</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>82.8125</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>84.375</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>82.8125</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>81.25</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>87.5</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>79.6875</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>89.0625</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>85.9375</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>79.6875</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>81.25</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>82.8125</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>81.25</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>84.375</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>79.6875</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>84.375</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>79.6875</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>85.9375</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>79.6875</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>87.5</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>79.6875</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>81.25</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>79.6875</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>76.5625</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>85.9375</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>85.9375</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>81.25</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>81.25</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>81.25</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>87.5</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>78.125</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>84.375</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>82.8125</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>84.375</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>82.8125</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>79.6875</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>84.375</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>81.25</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>81.25</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>89.0625</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>89.0625</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>85.9375</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>82.8125</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>89.0625</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>78.125</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>84.375</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>82.8125</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>85.9375</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>82.8125</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>89.0625</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>81.25</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>84.375</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>84.375</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>84.375</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>87.5</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>87.5</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>85.9375</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>85.9375</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>85.9375</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>85.9375</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>85.9375</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>85.9375</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>85.9375</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>85.9375</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>85.9375</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>85.9375</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>85.9375</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-11A4-4E9B-9658-4E1B854CC0EA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="478668496"/>
+        <c:axId val="478668912"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="478668496"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="478668912"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="478668912"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="478668496"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -9101,6 +9727,46 @@
 </file>
 
 <file path=xl/charts/colors14.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors15.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -12041,6 +12707,522 @@
 </file>
 
 <file path=xl/charts/style14.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style15.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -17797,6 +18979,136 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>17214</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>171841</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0C73CAAF-C4E9-A4FD-9FB9-64790113E5BA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="3672290"/>
+          <a:ext cx="3259157" cy="2926057"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>806756</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>45674</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>174433</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>34657</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C417C687-4A84-90BB-8064-B82FA483A48D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1141016</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>427477</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>9922</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5413A12E-9DA0-F3C1-291E-F0E73AAC1CB2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5010547" y="535781"/>
+          <a:ext cx="3175836" cy="2331641"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -30680,10 +31992,10 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4658E768-D3D8-460D-9F27-34957A3D41B7}">
-  <dimension ref="A1:R147"/>
+  <dimension ref="A1:R152"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="83" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView zoomScale="48" workbookViewId="0">
+      <selection activeCell="N14" sqref="N14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -30693,7 +32005,7 @@
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A1" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -30726,7 +32038,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.984375</v>
+        <v>1.046875</v>
       </c>
       <c r="Q2">
         <f xml:space="preserve"> 1+O2</f>
@@ -30734,7 +32046,7 @@
       </c>
       <c r="R2">
         <f xml:space="preserve"> (1-P2)*100</f>
-        <v>1.5625</v>
+        <v>-4.6875</v>
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.45">
@@ -30747,7 +32059,7 @@
         <v>1</v>
       </c>
       <c r="P3">
-        <v>0.875</v>
+        <v>0.859375</v>
       </c>
       <c r="Q3">
         <f t="shared" ref="Q3:Q66" si="0" xml:space="preserve"> 1+O3</f>
@@ -30755,7 +32067,7 @@
       </c>
       <c r="R3">
         <f t="shared" ref="R3:R66" si="1" xml:space="preserve"> (1-P3)*100</f>
-        <v>12.5</v>
+        <v>14.0625</v>
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.45">
@@ -30763,7 +32075,7 @@
         <v>2</v>
       </c>
       <c r="P4">
-        <v>0.71875</v>
+        <v>0.65625</v>
       </c>
       <c r="Q4">
         <f t="shared" si="0"/>
@@ -30771,7 +32083,7 @@
       </c>
       <c r="R4">
         <f t="shared" si="1"/>
-        <v>28.125</v>
+        <v>34.375</v>
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.45">
@@ -30779,7 +32091,7 @@
         <v>3</v>
       </c>
       <c r="P5">
-        <v>0.46875</v>
+        <v>0.4375</v>
       </c>
       <c r="Q5">
         <f t="shared" si="0"/>
@@ -30787,7 +32099,7 @@
       </c>
       <c r="R5">
         <f t="shared" si="1"/>
-        <v>53.125</v>
+        <v>56.25</v>
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.45">
@@ -30795,7 +32107,7 @@
         <v>4</v>
       </c>
       <c r="P6">
-        <v>0.3125</v>
+        <v>0.28125</v>
       </c>
       <c r="Q6">
         <f t="shared" si="0"/>
@@ -30803,7 +32115,7 @@
       </c>
       <c r="R6">
         <f t="shared" si="1"/>
-        <v>68.75</v>
+        <v>71.875</v>
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.45">
@@ -30811,7 +32123,7 @@
         <v>5</v>
       </c>
       <c r="P7">
-        <v>0.25</v>
+        <v>0.296875</v>
       </c>
       <c r="Q7">
         <f t="shared" si="0"/>
@@ -30819,7 +32131,7 @@
       </c>
       <c r="R7">
         <f t="shared" si="1"/>
-        <v>75</v>
+        <v>70.3125</v>
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.45">
@@ -30827,7 +32139,7 @@
         <v>6</v>
       </c>
       <c r="P8">
-        <v>0.21875</v>
+        <v>0.265625</v>
       </c>
       <c r="Q8">
         <f t="shared" si="0"/>
@@ -30835,7 +32147,7 @@
       </c>
       <c r="R8">
         <f t="shared" si="1"/>
-        <v>78.125</v>
+        <v>73.4375</v>
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.45">
@@ -30843,7 +32155,7 @@
         <v>7</v>
       </c>
       <c r="P9">
-        <v>0.234375</v>
+        <v>0.25</v>
       </c>
       <c r="Q9">
         <f t="shared" si="0"/>
@@ -30851,7 +32163,7 @@
       </c>
       <c r="R9">
         <f t="shared" si="1"/>
-        <v>76.5625</v>
+        <v>75</v>
       </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.45">
@@ -30859,7 +32171,7 @@
         <v>8</v>
       </c>
       <c r="P10">
-        <v>0.15625</v>
+        <v>0.234375</v>
       </c>
       <c r="Q10">
         <f t="shared" si="0"/>
@@ -30867,7 +32179,7 @@
       </c>
       <c r="R10">
         <f t="shared" si="1"/>
-        <v>84.375</v>
+        <v>76.5625</v>
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.45">
@@ -30875,7 +32187,7 @@
         <v>9</v>
       </c>
       <c r="P11">
-        <v>0.1875</v>
+        <v>0.234375</v>
       </c>
       <c r="Q11">
         <f t="shared" si="0"/>
@@ -30883,7 +32195,7 @@
       </c>
       <c r="R11">
         <f t="shared" si="1"/>
-        <v>81.25</v>
+        <v>76.5625</v>
       </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.45">
@@ -30907,7 +32219,7 @@
         <v>11</v>
       </c>
       <c r="P13">
-        <v>0.234375</v>
+        <v>0.296875</v>
       </c>
       <c r="Q13">
         <f t="shared" si="0"/>
@@ -30915,7 +32227,7 @@
       </c>
       <c r="R13">
         <f t="shared" si="1"/>
-        <v>76.5625</v>
+        <v>70.3125</v>
       </c>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.45">
@@ -30939,7 +32251,7 @@
         <v>13</v>
       </c>
       <c r="P15">
-        <v>0.21875</v>
+        <v>0.34375</v>
       </c>
       <c r="Q15">
         <f t="shared" si="0"/>
@@ -30947,7 +32259,7 @@
       </c>
       <c r="R15">
         <f t="shared" si="1"/>
-        <v>78.125</v>
+        <v>65.625</v>
       </c>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.45">
@@ -30955,7 +32267,7 @@
         <v>14</v>
       </c>
       <c r="P16">
-        <v>0.265625</v>
+        <v>0.25</v>
       </c>
       <c r="Q16">
         <f t="shared" si="0"/>
@@ -30963,7 +32275,7 @@
       </c>
       <c r="R16">
         <f t="shared" si="1"/>
-        <v>73.4375</v>
+        <v>75</v>
       </c>
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.45">
@@ -30971,7 +32283,7 @@
         <v>15</v>
       </c>
       <c r="P17">
-        <v>0.234375</v>
+        <v>0.21875</v>
       </c>
       <c r="Q17">
         <f t="shared" si="0"/>
@@ -30979,7 +32291,7 @@
       </c>
       <c r="R17">
         <f t="shared" si="1"/>
-        <v>76.5625</v>
+        <v>78.125</v>
       </c>
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.45">
@@ -30987,7 +32299,7 @@
         <v>16</v>
       </c>
       <c r="P18">
-        <v>0.234375</v>
+        <v>0.28125</v>
       </c>
       <c r="Q18">
         <f t="shared" si="0"/>
@@ -30995,7 +32307,7 @@
       </c>
       <c r="R18">
         <f t="shared" si="1"/>
-        <v>76.5625</v>
+        <v>71.875</v>
       </c>
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.45">
@@ -31003,7 +32315,7 @@
         <v>17</v>
       </c>
       <c r="P19">
-        <v>0.140625</v>
+        <v>0.25</v>
       </c>
       <c r="Q19">
         <f t="shared" si="0"/>
@@ -31011,7 +32323,7 @@
       </c>
       <c r="R19">
         <f t="shared" si="1"/>
-        <v>85.9375</v>
+        <v>75</v>
       </c>
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.45">
@@ -31024,7 +32336,7 @@
         <v>18</v>
       </c>
       <c r="P20">
-        <v>0.125</v>
+        <v>0.21875</v>
       </c>
       <c r="Q20">
         <f t="shared" si="0"/>
@@ -31032,7 +32344,7 @@
       </c>
       <c r="R20">
         <f t="shared" si="1"/>
-        <v>87.5</v>
+        <v>78.125</v>
       </c>
     </row>
     <row r="21" spans="1:18" x14ac:dyDescent="0.45">
@@ -31056,7 +32368,7 @@
         <v>20</v>
       </c>
       <c r="P22">
-        <v>0.203125</v>
+        <v>0.21875</v>
       </c>
       <c r="Q22">
         <f t="shared" si="0"/>
@@ -31064,7 +32376,7 @@
       </c>
       <c r="R22">
         <f t="shared" si="1"/>
-        <v>79.6875</v>
+        <v>78.125</v>
       </c>
     </row>
     <row r="23" spans="1:18" x14ac:dyDescent="0.45">
@@ -31072,7 +32384,7 @@
         <v>21</v>
       </c>
       <c r="P23">
-        <v>0.15625</v>
+        <v>0.25</v>
       </c>
       <c r="Q23">
         <f t="shared" si="0"/>
@@ -31080,7 +32392,7 @@
       </c>
       <c r="R23">
         <f t="shared" si="1"/>
-        <v>84.375</v>
+        <v>75</v>
       </c>
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.45">
@@ -31088,7 +32400,7 @@
         <v>22</v>
       </c>
       <c r="P24">
-        <v>0.203125</v>
+        <v>0.21875</v>
       </c>
       <c r="Q24">
         <f t="shared" si="0"/>
@@ -31096,7 +32408,7 @@
       </c>
       <c r="R24">
         <f t="shared" si="1"/>
-        <v>79.6875</v>
+        <v>78.125</v>
       </c>
     </row>
     <row r="25" spans="1:18" x14ac:dyDescent="0.45">
@@ -31104,7 +32416,7 @@
         <v>23</v>
       </c>
       <c r="P25">
-        <v>0.203125</v>
+        <v>0.15625</v>
       </c>
       <c r="Q25">
         <f t="shared" si="0"/>
@@ -31112,7 +32424,7 @@
       </c>
       <c r="R25">
         <f t="shared" si="1"/>
-        <v>79.6875</v>
+        <v>84.375</v>
       </c>
     </row>
     <row r="26" spans="1:18" x14ac:dyDescent="0.45">
@@ -31120,7 +32432,7 @@
         <v>24</v>
       </c>
       <c r="P26">
-        <v>0.125</v>
+        <v>0.1875</v>
       </c>
       <c r="Q26">
         <f t="shared" si="0"/>
@@ -31128,7 +32440,7 @@
       </c>
       <c r="R26">
         <f t="shared" si="1"/>
-        <v>87.5</v>
+        <v>81.25</v>
       </c>
     </row>
     <row r="27" spans="1:18" x14ac:dyDescent="0.45">
@@ -31136,7 +32448,7 @@
         <v>25</v>
       </c>
       <c r="P27">
-        <v>0.234375</v>
+        <v>0.1875</v>
       </c>
       <c r="Q27">
         <f t="shared" si="0"/>
@@ -31144,7 +32456,7 @@
       </c>
       <c r="R27">
         <f t="shared" si="1"/>
-        <v>76.5625</v>
+        <v>81.25</v>
       </c>
     </row>
     <row r="28" spans="1:18" x14ac:dyDescent="0.45">
@@ -31152,7 +32464,7 @@
         <v>26</v>
       </c>
       <c r="P28">
-        <v>0.125</v>
+        <v>0.203125</v>
       </c>
       <c r="Q28">
         <f t="shared" si="0"/>
@@ -31160,7 +32472,7 @@
       </c>
       <c r="R28">
         <f t="shared" si="1"/>
-        <v>87.5</v>
+        <v>79.6875</v>
       </c>
     </row>
     <row r="29" spans="1:18" x14ac:dyDescent="0.45">
@@ -31168,7 +32480,7 @@
         <v>27</v>
       </c>
       <c r="P29">
-        <v>0.25</v>
+        <v>0.21875</v>
       </c>
       <c r="Q29">
         <f t="shared" si="0"/>
@@ -31176,7 +32488,7 @@
       </c>
       <c r="R29">
         <f t="shared" si="1"/>
-        <v>75</v>
+        <v>78.125</v>
       </c>
     </row>
     <row r="30" spans="1:18" x14ac:dyDescent="0.45">
@@ -31184,7 +32496,7 @@
         <v>28</v>
       </c>
       <c r="P30">
-        <v>0.125</v>
+        <v>0.203125</v>
       </c>
       <c r="Q30">
         <f t="shared" si="0"/>
@@ -31192,7 +32504,7 @@
       </c>
       <c r="R30">
         <f t="shared" si="1"/>
-        <v>87.5</v>
+        <v>79.6875</v>
       </c>
     </row>
     <row r="31" spans="1:18" x14ac:dyDescent="0.45">
@@ -31200,7 +32512,7 @@
         <v>29</v>
       </c>
       <c r="P31">
-        <v>0.140625</v>
+        <v>0.125</v>
       </c>
       <c r="Q31">
         <f t="shared" si="0"/>
@@ -31208,7 +32520,7 @@
       </c>
       <c r="R31">
         <f t="shared" si="1"/>
-        <v>85.9375</v>
+        <v>87.5</v>
       </c>
     </row>
     <row r="32" spans="1:18" x14ac:dyDescent="0.45">
@@ -31216,7 +32528,7 @@
         <v>30</v>
       </c>
       <c r="P32">
-        <v>0.125</v>
+        <v>0.171875</v>
       </c>
       <c r="Q32">
         <f t="shared" si="0"/>
@@ -31224,7 +32536,7 @@
       </c>
       <c r="R32">
         <f t="shared" si="1"/>
-        <v>87.5</v>
+        <v>82.8125</v>
       </c>
     </row>
     <row r="33" spans="15:18" x14ac:dyDescent="0.45">
@@ -31232,7 +32544,7 @@
         <v>31</v>
       </c>
       <c r="P33">
-        <v>0.140625</v>
+        <v>0.1875</v>
       </c>
       <c r="Q33">
         <f t="shared" si="0"/>
@@ -31240,7 +32552,7 @@
       </c>
       <c r="R33">
         <f t="shared" si="1"/>
-        <v>85.9375</v>
+        <v>81.25</v>
       </c>
     </row>
     <row r="34" spans="15:18" x14ac:dyDescent="0.45">
@@ -31264,7 +32576,7 @@
         <v>33</v>
       </c>
       <c r="P35">
-        <v>0.171875</v>
+        <v>0.1875</v>
       </c>
       <c r="Q35">
         <f t="shared" si="0"/>
@@ -31272,7 +32584,7 @@
       </c>
       <c r="R35">
         <f t="shared" si="1"/>
-        <v>82.8125</v>
+        <v>81.25</v>
       </c>
     </row>
     <row r="36" spans="15:18" x14ac:dyDescent="0.45">
@@ -31280,7 +32592,7 @@
         <v>34</v>
       </c>
       <c r="P36">
-        <v>0.125</v>
+        <v>0.171875</v>
       </c>
       <c r="Q36">
         <f t="shared" si="0"/>
@@ -31288,7 +32600,7 @@
       </c>
       <c r="R36">
         <f t="shared" si="1"/>
-        <v>87.5</v>
+        <v>82.8125</v>
       </c>
     </row>
     <row r="37" spans="15:18" x14ac:dyDescent="0.45">
@@ -31296,7 +32608,7 @@
         <v>35</v>
       </c>
       <c r="P37">
-        <v>0.140625</v>
+        <v>0.15625</v>
       </c>
       <c r="Q37">
         <f t="shared" si="0"/>
@@ -31304,7 +32616,7 @@
       </c>
       <c r="R37">
         <f t="shared" si="1"/>
-        <v>85.9375</v>
+        <v>84.375</v>
       </c>
     </row>
     <row r="38" spans="15:18" x14ac:dyDescent="0.45">
@@ -31312,7 +32624,7 @@
         <v>36</v>
       </c>
       <c r="P38">
-        <v>0.15625</v>
+        <v>0.171875</v>
       </c>
       <c r="Q38">
         <f t="shared" si="0"/>
@@ -31320,7 +32632,7 @@
       </c>
       <c r="R38">
         <f t="shared" si="1"/>
-        <v>84.375</v>
+        <v>82.8125</v>
       </c>
     </row>
     <row r="39" spans="15:18" x14ac:dyDescent="0.45">
@@ -31328,7 +32640,7 @@
         <v>37</v>
       </c>
       <c r="P39">
-        <v>0.109375</v>
+        <v>0.1875</v>
       </c>
       <c r="Q39">
         <f t="shared" si="0"/>
@@ -31336,7 +32648,7 @@
       </c>
       <c r="R39">
         <f t="shared" si="1"/>
-        <v>89.0625</v>
+        <v>81.25</v>
       </c>
     </row>
     <row r="40" spans="15:18" x14ac:dyDescent="0.45">
@@ -31344,7 +32656,7 @@
         <v>38</v>
       </c>
       <c r="P40">
-        <v>0.109375</v>
+        <v>0.125</v>
       </c>
       <c r="Q40">
         <f t="shared" si="0"/>
@@ -31352,7 +32664,7 @@
       </c>
       <c r="R40">
         <f t="shared" si="1"/>
-        <v>89.0625</v>
+        <v>87.5</v>
       </c>
     </row>
     <row r="41" spans="15:18" x14ac:dyDescent="0.45">
@@ -31360,7 +32672,7 @@
         <v>39</v>
       </c>
       <c r="P41">
-        <v>0.125</v>
+        <v>0.203125</v>
       </c>
       <c r="Q41">
         <f t="shared" si="0"/>
@@ -31368,7 +32680,7 @@
       </c>
       <c r="R41">
         <f t="shared" si="1"/>
-        <v>87.5</v>
+        <v>79.6875</v>
       </c>
     </row>
     <row r="42" spans="15:18" x14ac:dyDescent="0.45">
@@ -31376,7 +32688,7 @@
         <v>40</v>
       </c>
       <c r="P42">
-        <v>0.140625</v>
+        <v>0.109375</v>
       </c>
       <c r="Q42">
         <f t="shared" si="0"/>
@@ -31384,7 +32696,7 @@
       </c>
       <c r="R42">
         <f t="shared" si="1"/>
-        <v>85.9375</v>
+        <v>89.0625</v>
       </c>
     </row>
     <row r="43" spans="15:18" x14ac:dyDescent="0.45">
@@ -31408,7 +32720,7 @@
         <v>42</v>
       </c>
       <c r="P44">
-        <v>0.109375</v>
+        <v>0.203125</v>
       </c>
       <c r="Q44">
         <f t="shared" si="0"/>
@@ -31416,7 +32728,7 @@
       </c>
       <c r="R44">
         <f t="shared" si="1"/>
-        <v>89.0625</v>
+        <v>79.6875</v>
       </c>
     </row>
     <row r="45" spans="15:18" x14ac:dyDescent="0.45">
@@ -31424,7 +32736,7 @@
         <v>43</v>
       </c>
       <c r="P45">
-        <v>0.171875</v>
+        <v>0.1875</v>
       </c>
       <c r="Q45">
         <f t="shared" si="0"/>
@@ -31432,7 +32744,7 @@
       </c>
       <c r="R45">
         <f t="shared" si="1"/>
-        <v>82.8125</v>
+        <v>81.25</v>
       </c>
     </row>
     <row r="46" spans="15:18" x14ac:dyDescent="0.45">
@@ -31440,7 +32752,7 @@
         <v>44</v>
       </c>
       <c r="P46">
-        <v>0.140625</v>
+        <v>0.171875</v>
       </c>
       <c r="Q46">
         <f t="shared" si="0"/>
@@ -31448,7 +32760,7 @@
       </c>
       <c r="R46">
         <f t="shared" si="1"/>
-        <v>85.9375</v>
+        <v>82.8125</v>
       </c>
     </row>
     <row r="47" spans="15:18" x14ac:dyDescent="0.45">
@@ -31456,7 +32768,7 @@
         <v>45</v>
       </c>
       <c r="P47">
-        <v>0.140625</v>
+        <v>0.1875</v>
       </c>
       <c r="Q47">
         <f t="shared" si="0"/>
@@ -31464,7 +32776,7 @@
       </c>
       <c r="R47">
         <f t="shared" si="1"/>
-        <v>85.9375</v>
+        <v>81.25</v>
       </c>
     </row>
     <row r="48" spans="15:18" x14ac:dyDescent="0.45">
@@ -31472,7 +32784,7 @@
         <v>46</v>
       </c>
       <c r="P48">
-        <v>0.1875</v>
+        <v>0.15625</v>
       </c>
       <c r="Q48">
         <f t="shared" si="0"/>
@@ -31480,7 +32792,7 @@
       </c>
       <c r="R48">
         <f t="shared" si="1"/>
-        <v>81.25</v>
+        <v>84.375</v>
       </c>
     </row>
     <row r="49" spans="15:18" x14ac:dyDescent="0.45">
@@ -31488,7 +32800,7 @@
         <v>47</v>
       </c>
       <c r="P49">
-        <v>0.140625</v>
+        <v>0.203125</v>
       </c>
       <c r="Q49">
         <f t="shared" si="0"/>
@@ -31496,7 +32808,7 @@
       </c>
       <c r="R49">
         <f t="shared" si="1"/>
-        <v>85.9375</v>
+        <v>79.6875</v>
       </c>
     </row>
     <row r="50" spans="15:18" x14ac:dyDescent="0.45">
@@ -31504,7 +32816,7 @@
         <v>48</v>
       </c>
       <c r="P50">
-        <v>0.125</v>
+        <v>0.15625</v>
       </c>
       <c r="Q50">
         <f t="shared" si="0"/>
@@ -31512,7 +32824,7 @@
       </c>
       <c r="R50">
         <f t="shared" si="1"/>
-        <v>87.5</v>
+        <v>84.375</v>
       </c>
     </row>
     <row r="51" spans="15:18" x14ac:dyDescent="0.45">
@@ -31520,7 +32832,7 @@
         <v>49</v>
       </c>
       <c r="P51">
-        <v>0.15625</v>
+        <v>0.203125</v>
       </c>
       <c r="Q51">
         <f t="shared" si="0"/>
@@ -31528,7 +32840,7 @@
       </c>
       <c r="R51">
         <f t="shared" si="1"/>
-        <v>84.375</v>
+        <v>79.6875</v>
       </c>
     </row>
     <row r="52" spans="15:18" x14ac:dyDescent="0.45">
@@ -31552,7 +32864,7 @@
         <v>51</v>
       </c>
       <c r="P53">
-        <v>0.125</v>
+        <v>0.203125</v>
       </c>
       <c r="Q53">
         <f t="shared" si="0"/>
@@ -31560,7 +32872,7 @@
       </c>
       <c r="R53">
         <f t="shared" si="1"/>
-        <v>87.5</v>
+        <v>79.6875</v>
       </c>
     </row>
     <row r="54" spans="15:18" x14ac:dyDescent="0.45">
@@ -31568,7 +32880,7 @@
         <v>52</v>
       </c>
       <c r="P54">
-        <v>0.15625</v>
+        <v>0.125</v>
       </c>
       <c r="Q54">
         <f t="shared" si="0"/>
@@ -31576,7 +32888,7 @@
       </c>
       <c r="R54">
         <f t="shared" si="1"/>
-        <v>84.375</v>
+        <v>87.5</v>
       </c>
     </row>
     <row r="55" spans="15:18" x14ac:dyDescent="0.45">
@@ -31584,7 +32896,7 @@
         <v>53</v>
       </c>
       <c r="P55">
-        <v>9.375E-2</v>
+        <v>0.203125</v>
       </c>
       <c r="Q55">
         <f t="shared" si="0"/>
@@ -31592,7 +32904,7 @@
       </c>
       <c r="R55">
         <f t="shared" si="1"/>
-        <v>90.625</v>
+        <v>79.6875</v>
       </c>
     </row>
     <row r="56" spans="15:18" x14ac:dyDescent="0.45">
@@ -31600,7 +32912,7 @@
         <v>54</v>
       </c>
       <c r="P56">
-        <v>0.15625</v>
+        <v>0.1875</v>
       </c>
       <c r="Q56">
         <f t="shared" si="0"/>
@@ -31608,7 +32920,7 @@
       </c>
       <c r="R56">
         <f t="shared" si="1"/>
-        <v>84.375</v>
+        <v>81.25</v>
       </c>
     </row>
     <row r="57" spans="15:18" x14ac:dyDescent="0.45">
@@ -31616,7 +32928,7 @@
         <v>55</v>
       </c>
       <c r="P57">
-        <v>0.1875</v>
+        <v>0.203125</v>
       </c>
       <c r="Q57">
         <f t="shared" si="0"/>
@@ -31624,7 +32936,7 @@
       </c>
       <c r="R57">
         <f t="shared" si="1"/>
-        <v>81.25</v>
+        <v>79.6875</v>
       </c>
     </row>
     <row r="58" spans="15:18" x14ac:dyDescent="0.45">
@@ -31632,7 +32944,7 @@
         <v>56</v>
       </c>
       <c r="P58">
-        <v>0.125</v>
+        <v>0.234375</v>
       </c>
       <c r="Q58">
         <f t="shared" si="0"/>
@@ -31640,7 +32952,7 @@
       </c>
       <c r="R58">
         <f t="shared" si="1"/>
-        <v>87.5</v>
+        <v>76.5625</v>
       </c>
     </row>
     <row r="59" spans="15:18" x14ac:dyDescent="0.45">
@@ -31664,7 +32976,7 @@
         <v>58</v>
       </c>
       <c r="P60">
-        <v>0.15625</v>
+        <v>0.140625</v>
       </c>
       <c r="Q60">
         <f t="shared" si="0"/>
@@ -31672,7 +32984,7 @@
       </c>
       <c r="R60">
         <f t="shared" si="1"/>
-        <v>84.375</v>
+        <v>85.9375</v>
       </c>
     </row>
     <row r="61" spans="15:18" x14ac:dyDescent="0.45">
@@ -31696,7 +33008,7 @@
         <v>60</v>
       </c>
       <c r="P62">
-        <v>0.109375</v>
+        <v>0.1875</v>
       </c>
       <c r="Q62">
         <f t="shared" si="0"/>
@@ -31704,7 +33016,7 @@
       </c>
       <c r="R62">
         <f t="shared" si="1"/>
-        <v>89.0625</v>
+        <v>81.25</v>
       </c>
     </row>
     <row r="63" spans="15:18" x14ac:dyDescent="0.45">
@@ -31712,7 +33024,7 @@
         <v>61</v>
       </c>
       <c r="P63">
-        <v>6.25E-2</v>
+        <v>0.1875</v>
       </c>
       <c r="Q63">
         <f t="shared" si="0"/>
@@ -31720,7 +33032,7 @@
       </c>
       <c r="R63">
         <f t="shared" si="1"/>
-        <v>93.75</v>
+        <v>81.25</v>
       </c>
     </row>
     <row r="64" spans="15:18" x14ac:dyDescent="0.45">
@@ -31728,7 +33040,7 @@
         <v>62</v>
       </c>
       <c r="P64">
-        <v>4.6875E-2</v>
+        <v>0.125</v>
       </c>
       <c r="Q64">
         <f t="shared" si="0"/>
@@ -31736,7 +33048,7 @@
       </c>
       <c r="R64">
         <f t="shared" si="1"/>
-        <v>95.3125</v>
+        <v>87.5</v>
       </c>
     </row>
     <row r="65" spans="15:18" x14ac:dyDescent="0.45">
@@ -31744,7 +33056,7 @@
         <v>63</v>
       </c>
       <c r="P65">
-        <v>0.109375</v>
+        <v>0.21875</v>
       </c>
       <c r="Q65">
         <f t="shared" si="0"/>
@@ -31752,7 +33064,7 @@
       </c>
       <c r="R65">
         <f t="shared" si="1"/>
-        <v>89.0625</v>
+        <v>78.125</v>
       </c>
     </row>
     <row r="66" spans="15:18" x14ac:dyDescent="0.45">
@@ -31760,7 +33072,7 @@
         <v>64</v>
       </c>
       <c r="P66">
-        <v>0.109375</v>
+        <v>0.15625</v>
       </c>
       <c r="Q66">
         <f t="shared" si="0"/>
@@ -31768,7 +33080,7 @@
       </c>
       <c r="R66">
         <f t="shared" si="1"/>
-        <v>89.0625</v>
+        <v>84.375</v>
       </c>
     </row>
     <row r="67" spans="15:18" x14ac:dyDescent="0.45">
@@ -31776,7 +33088,7 @@
         <v>65</v>
       </c>
       <c r="P67">
-        <v>0.109375</v>
+        <v>0.171875</v>
       </c>
       <c r="Q67">
         <f t="shared" ref="Q67:Q101" si="2" xml:space="preserve"> 1+O67</f>
@@ -31784,7 +33096,7 @@
       </c>
       <c r="R67">
         <f t="shared" ref="R67:R101" si="3" xml:space="preserve"> (1-P67)*100</f>
-        <v>89.0625</v>
+        <v>82.8125</v>
       </c>
     </row>
     <row r="68" spans="15:18" x14ac:dyDescent="0.45">
@@ -31792,7 +33104,7 @@
         <v>66</v>
       </c>
       <c r="P68">
-        <v>6.25E-2</v>
+        <v>0.15625</v>
       </c>
       <c r="Q68">
         <f t="shared" si="2"/>
@@ -31800,7 +33112,7 @@
       </c>
       <c r="R68">
         <f t="shared" si="3"/>
-        <v>93.75</v>
+        <v>84.375</v>
       </c>
     </row>
     <row r="69" spans="15:18" x14ac:dyDescent="0.45">
@@ -31808,7 +33120,7 @@
         <v>67</v>
       </c>
       <c r="P69">
-        <v>9.375E-2</v>
+        <v>0.171875</v>
       </c>
       <c r="Q69">
         <f t="shared" si="2"/>
@@ -31816,7 +33128,7 @@
       </c>
       <c r="R69">
         <f t="shared" si="3"/>
-        <v>90.625</v>
+        <v>82.8125</v>
       </c>
     </row>
     <row r="70" spans="15:18" x14ac:dyDescent="0.45">
@@ -31824,7 +33136,7 @@
         <v>68</v>
       </c>
       <c r="P70">
-        <v>9.375E-2</v>
+        <v>0.203125</v>
       </c>
       <c r="Q70">
         <f t="shared" si="2"/>
@@ -31832,7 +33144,7 @@
       </c>
       <c r="R70">
         <f t="shared" si="3"/>
-        <v>90.625</v>
+        <v>79.6875</v>
       </c>
     </row>
     <row r="71" spans="15:18" x14ac:dyDescent="0.45">
@@ -31840,7 +33152,7 @@
         <v>69</v>
       </c>
       <c r="P71">
-        <v>9.375E-2</v>
+        <v>0.15625</v>
       </c>
       <c r="Q71">
         <f t="shared" si="2"/>
@@ -31848,7 +33160,7 @@
       </c>
       <c r="R71">
         <f t="shared" si="3"/>
-        <v>90.625</v>
+        <v>84.375</v>
       </c>
     </row>
     <row r="72" spans="15:18" x14ac:dyDescent="0.45">
@@ -31856,7 +33168,7 @@
         <v>70</v>
       </c>
       <c r="P72">
-        <v>9.375E-2</v>
+        <v>0.1875</v>
       </c>
       <c r="Q72">
         <f t="shared" si="2"/>
@@ -31864,7 +33176,7 @@
       </c>
       <c r="R72">
         <f t="shared" si="3"/>
-        <v>90.625</v>
+        <v>81.25</v>
       </c>
     </row>
     <row r="73" spans="15:18" x14ac:dyDescent="0.45">
@@ -31872,7 +33184,7 @@
         <v>71</v>
       </c>
       <c r="P73">
-        <v>0.109375</v>
+        <v>0.1875</v>
       </c>
       <c r="Q73">
         <f t="shared" si="2"/>
@@ -31880,7 +33192,7 @@
       </c>
       <c r="R73">
         <f t="shared" si="3"/>
-        <v>89.0625</v>
+        <v>81.25</v>
       </c>
     </row>
     <row r="74" spans="15:18" x14ac:dyDescent="0.45">
@@ -31888,7 +33200,7 @@
         <v>72</v>
       </c>
       <c r="P74">
-        <v>9.375E-2</v>
+        <v>0.109375</v>
       </c>
       <c r="Q74">
         <f t="shared" si="2"/>
@@ -31896,7 +33208,7 @@
       </c>
       <c r="R74">
         <f t="shared" si="3"/>
-        <v>90.625</v>
+        <v>89.0625</v>
       </c>
     </row>
     <row r="75" spans="15:18" x14ac:dyDescent="0.45">
@@ -31904,7 +33216,7 @@
         <v>73</v>
       </c>
       <c r="P75">
-        <v>0.125</v>
+        <v>0.109375</v>
       </c>
       <c r="Q75">
         <f t="shared" si="2"/>
@@ -31912,7 +33224,7 @@
       </c>
       <c r="R75">
         <f t="shared" si="3"/>
-        <v>87.5</v>
+        <v>89.0625</v>
       </c>
     </row>
     <row r="76" spans="15:18" x14ac:dyDescent="0.45">
@@ -31920,7 +33232,7 @@
         <v>74</v>
       </c>
       <c r="P76">
-        <v>0.109375</v>
+        <v>0.140625</v>
       </c>
       <c r="Q76">
         <f t="shared" si="2"/>
@@ -31928,7 +33240,7 @@
       </c>
       <c r="R76">
         <f t="shared" si="3"/>
-        <v>89.0625</v>
+        <v>85.9375</v>
       </c>
     </row>
     <row r="77" spans="15:18" x14ac:dyDescent="0.45">
@@ -31936,7 +33248,7 @@
         <v>75</v>
       </c>
       <c r="P77">
-        <v>7.8125E-2</v>
+        <v>0.171875</v>
       </c>
       <c r="Q77">
         <f t="shared" si="2"/>
@@ -31944,7 +33256,7 @@
       </c>
       <c r="R77">
         <f t="shared" si="3"/>
-        <v>92.1875</v>
+        <v>82.8125</v>
       </c>
     </row>
     <row r="78" spans="15:18" x14ac:dyDescent="0.45">
@@ -31968,7 +33280,7 @@
         <v>77</v>
       </c>
       <c r="P79">
-        <v>0.125</v>
+        <v>0.21875</v>
       </c>
       <c r="Q79">
         <f t="shared" si="2"/>
@@ -31976,7 +33288,7 @@
       </c>
       <c r="R79">
         <f t="shared" si="3"/>
-        <v>87.5</v>
+        <v>78.125</v>
       </c>
     </row>
     <row r="80" spans="15:18" x14ac:dyDescent="0.45">
@@ -31984,7 +33296,7 @@
         <v>78</v>
       </c>
       <c r="P80">
-        <v>0.140625</v>
+        <v>0.15625</v>
       </c>
       <c r="Q80">
         <f t="shared" si="2"/>
@@ -31992,7 +33304,7 @@
       </c>
       <c r="R80">
         <f t="shared" si="3"/>
-        <v>85.9375</v>
+        <v>84.375</v>
       </c>
     </row>
     <row r="81" spans="15:18" x14ac:dyDescent="0.45">
@@ -32000,7 +33312,7 @@
         <v>79</v>
       </c>
       <c r="P81">
-        <v>0.125</v>
+        <v>0.171875</v>
       </c>
       <c r="Q81">
         <f t="shared" si="2"/>
@@ -32008,7 +33320,7 @@
       </c>
       <c r="R81">
         <f t="shared" si="3"/>
-        <v>87.5</v>
+        <v>82.8125</v>
       </c>
     </row>
     <row r="82" spans="15:18" x14ac:dyDescent="0.45">
@@ -32016,7 +33328,7 @@
         <v>80</v>
       </c>
       <c r="P82">
-        <v>0.125</v>
+        <v>0.140625</v>
       </c>
       <c r="Q82">
         <f t="shared" si="2"/>
@@ -32024,7 +33336,7 @@
       </c>
       <c r="R82">
         <f t="shared" si="3"/>
-        <v>87.5</v>
+        <v>85.9375</v>
       </c>
     </row>
     <row r="83" spans="15:18" x14ac:dyDescent="0.45">
@@ -32032,7 +33344,7 @@
         <v>81</v>
       </c>
       <c r="P83">
-        <v>7.8125E-2</v>
+        <v>0.171875</v>
       </c>
       <c r="Q83">
         <f t="shared" si="2"/>
@@ -32040,7 +33352,7 @@
       </c>
       <c r="R83">
         <f t="shared" si="3"/>
-        <v>92.1875</v>
+        <v>82.8125</v>
       </c>
     </row>
     <row r="84" spans="15:18" x14ac:dyDescent="0.45">
@@ -32048,7 +33360,7 @@
         <v>82</v>
       </c>
       <c r="P84">
-        <v>0.125</v>
+        <v>0.109375</v>
       </c>
       <c r="Q84">
         <f t="shared" si="2"/>
@@ -32056,7 +33368,7 @@
       </c>
       <c r="R84">
         <f t="shared" si="3"/>
-        <v>87.5</v>
+        <v>89.0625</v>
       </c>
     </row>
     <row r="85" spans="15:18" x14ac:dyDescent="0.45">
@@ -32064,7 +33376,7 @@
         <v>83</v>
       </c>
       <c r="P85">
-        <v>9.375E-2</v>
+        <v>0.1875</v>
       </c>
       <c r="Q85">
         <f t="shared" si="2"/>
@@ -32072,7 +33384,7 @@
       </c>
       <c r="R85">
         <f t="shared" si="3"/>
-        <v>90.625</v>
+        <v>81.25</v>
       </c>
     </row>
     <row r="86" spans="15:18" x14ac:dyDescent="0.45">
@@ -32080,7 +33392,7 @@
         <v>84</v>
       </c>
       <c r="P86">
-        <v>9.375E-2</v>
+        <v>0.15625</v>
       </c>
       <c r="Q86">
         <f t="shared" si="2"/>
@@ -32088,7 +33400,7 @@
       </c>
       <c r="R86">
         <f t="shared" si="3"/>
-        <v>90.625</v>
+        <v>84.375</v>
       </c>
     </row>
     <row r="87" spans="15:18" x14ac:dyDescent="0.45">
@@ -32096,7 +33408,7 @@
         <v>85</v>
       </c>
       <c r="P87">
-        <v>9.375E-2</v>
+        <v>0.15625</v>
       </c>
       <c r="Q87">
         <f t="shared" si="2"/>
@@ -32104,7 +33416,7 @@
       </c>
       <c r="R87">
         <f t="shared" si="3"/>
-        <v>90.625</v>
+        <v>84.375</v>
       </c>
     </row>
     <row r="88" spans="15:18" x14ac:dyDescent="0.45">
@@ -32112,7 +33424,7 @@
         <v>86</v>
       </c>
       <c r="P88">
-        <v>9.375E-2</v>
+        <v>0.15625</v>
       </c>
       <c r="Q88">
         <f t="shared" si="2"/>
@@ -32120,7 +33432,7 @@
       </c>
       <c r="R88">
         <f t="shared" si="3"/>
-        <v>90.625</v>
+        <v>84.375</v>
       </c>
     </row>
     <row r="89" spans="15:18" x14ac:dyDescent="0.45">
@@ -32128,7 +33440,7 @@
         <v>87</v>
       </c>
       <c r="P89">
-        <v>9.375E-2</v>
+        <v>0.125</v>
       </c>
       <c r="Q89">
         <f t="shared" si="2"/>
@@ -32136,7 +33448,7 @@
       </c>
       <c r="R89">
         <f t="shared" si="3"/>
-        <v>90.625</v>
+        <v>87.5</v>
       </c>
     </row>
     <row r="90" spans="15:18" x14ac:dyDescent="0.45">
@@ -32144,7 +33456,7 @@
         <v>88</v>
       </c>
       <c r="P90">
-        <v>9.375E-2</v>
+        <v>0.125</v>
       </c>
       <c r="Q90">
         <f t="shared" si="2"/>
@@ -32152,7 +33464,7 @@
       </c>
       <c r="R90">
         <f t="shared" si="3"/>
-        <v>90.625</v>
+        <v>87.5</v>
       </c>
     </row>
     <row r="91" spans="15:18" x14ac:dyDescent="0.45">
@@ -32160,7 +33472,7 @@
         <v>89</v>
       </c>
       <c r="P91">
-        <v>9.375E-2</v>
+        <v>0.140625</v>
       </c>
       <c r="Q91">
         <f t="shared" si="2"/>
@@ -32168,7 +33480,7 @@
       </c>
       <c r="R91">
         <f t="shared" si="3"/>
-        <v>90.625</v>
+        <v>85.9375</v>
       </c>
     </row>
     <row r="92" spans="15:18" x14ac:dyDescent="0.45">
@@ -32176,7 +33488,7 @@
         <v>90</v>
       </c>
       <c r="P92">
-        <v>9.375E-2</v>
+        <v>0.140625</v>
       </c>
       <c r="Q92">
         <f t="shared" si="2"/>
@@ -32184,7 +33496,7 @@
       </c>
       <c r="R92">
         <f t="shared" si="3"/>
-        <v>90.625</v>
+        <v>85.9375</v>
       </c>
     </row>
     <row r="93" spans="15:18" x14ac:dyDescent="0.45">
@@ -32192,7 +33504,7 @@
         <v>91</v>
       </c>
       <c r="P93">
-        <v>9.375E-2</v>
+        <v>0.140625</v>
       </c>
       <c r="Q93">
         <f t="shared" si="2"/>
@@ -32200,7 +33512,7 @@
       </c>
       <c r="R93">
         <f t="shared" si="3"/>
-        <v>90.625</v>
+        <v>85.9375</v>
       </c>
     </row>
     <row r="94" spans="15:18" x14ac:dyDescent="0.45">
@@ -32208,7 +33520,7 @@
         <v>92</v>
       </c>
       <c r="P94">
-        <v>9.375E-2</v>
+        <v>0.140625</v>
       </c>
       <c r="Q94">
         <f t="shared" si="2"/>
@@ -32216,7 +33528,7 @@
       </c>
       <c r="R94">
         <f t="shared" si="3"/>
-        <v>90.625</v>
+        <v>85.9375</v>
       </c>
     </row>
     <row r="95" spans="15:18" x14ac:dyDescent="0.45">
@@ -32224,7 +33536,7 @@
         <v>93</v>
       </c>
       <c r="P95">
-        <v>9.375E-2</v>
+        <v>0.140625</v>
       </c>
       <c r="Q95">
         <f t="shared" si="2"/>
@@ -32232,7 +33544,7 @@
       </c>
       <c r="R95">
         <f t="shared" si="3"/>
-        <v>90.625</v>
+        <v>85.9375</v>
       </c>
     </row>
     <row r="96" spans="15:18" x14ac:dyDescent="0.45">
@@ -32240,7 +33552,7 @@
         <v>94</v>
       </c>
       <c r="P96">
-        <v>9.375E-2</v>
+        <v>0.140625</v>
       </c>
       <c r="Q96">
         <f t="shared" si="2"/>
@@ -32248,7 +33560,7 @@
       </c>
       <c r="R96">
         <f t="shared" si="3"/>
-        <v>90.625</v>
+        <v>85.9375</v>
       </c>
     </row>
     <row r="97" spans="15:18" x14ac:dyDescent="0.45">
@@ -32256,7 +33568,7 @@
         <v>95</v>
       </c>
       <c r="P97">
-        <v>9.375E-2</v>
+        <v>0.140625</v>
       </c>
       <c r="Q97">
         <f t="shared" si="2"/>
@@ -32264,7 +33576,7 @@
       </c>
       <c r="R97">
         <f t="shared" si="3"/>
-        <v>90.625</v>
+        <v>85.9375</v>
       </c>
     </row>
     <row r="98" spans="15:18" x14ac:dyDescent="0.45">
@@ -32272,7 +33584,7 @@
         <v>96</v>
       </c>
       <c r="P98">
-        <v>9.375E-2</v>
+        <v>0.140625</v>
       </c>
       <c r="Q98">
         <f t="shared" si="2"/>
@@ -32280,7 +33592,7 @@
       </c>
       <c r="R98">
         <f t="shared" si="3"/>
-        <v>90.625</v>
+        <v>85.9375</v>
       </c>
     </row>
     <row r="99" spans="15:18" x14ac:dyDescent="0.45">
@@ -32288,7 +33600,7 @@
         <v>97</v>
       </c>
       <c r="P99">
-        <v>9.375E-2</v>
+        <v>0.140625</v>
       </c>
       <c r="Q99">
         <f t="shared" si="2"/>
@@ -32296,7 +33608,7 @@
       </c>
       <c r="R99">
         <f t="shared" si="3"/>
-        <v>90.625</v>
+        <v>85.9375</v>
       </c>
     </row>
     <row r="100" spans="15:18" x14ac:dyDescent="0.45">
@@ -32304,7 +33616,7 @@
         <v>98</v>
       </c>
       <c r="P100">
-        <v>9.375E-2</v>
+        <v>0.140625</v>
       </c>
       <c r="Q100">
         <f t="shared" si="2"/>
@@ -32312,7 +33624,7 @@
       </c>
       <c r="R100">
         <f t="shared" si="3"/>
-        <v>90.625</v>
+        <v>85.9375</v>
       </c>
     </row>
     <row r="101" spans="15:18" x14ac:dyDescent="0.45">
@@ -32320,7 +33632,7 @@
         <v>99</v>
       </c>
       <c r="P101">
-        <v>9.375E-2</v>
+        <v>0.140625</v>
       </c>
       <c r="Q101">
         <f t="shared" si="2"/>
@@ -32328,44 +33640,44 @@
       </c>
       <c r="R101">
         <f t="shared" si="3"/>
-        <v>90.625</v>
+        <v>85.9375</v>
       </c>
     </row>
     <row r="102" spans="15:18" x14ac:dyDescent="0.45">
       <c r="O102" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="P102">
-        <v>9.375E-2</v>
+        <v>0.140625</v>
       </c>
     </row>
     <row r="103" spans="15:18" x14ac:dyDescent="0.45">
       <c r="O103" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="P103">
-        <v>0.109375</v>
+        <v>7.8125E-2</v>
       </c>
     </row>
     <row r="104" spans="15:18" x14ac:dyDescent="0.45">
       <c r="O104" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="P104">
-        <v>9.375E-2</v>
+        <v>4.6875E-2</v>
       </c>
     </row>
     <row r="105" spans="15:18" x14ac:dyDescent="0.45">
       <c r="O105" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="P105">
-        <v>0.140625</v>
+        <v>0.125</v>
       </c>
     </row>
     <row r="106" spans="15:18" x14ac:dyDescent="0.45">
       <c r="O106" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="P106">
         <v>9.375E-2</v>
@@ -32373,7 +33685,7 @@
     </row>
     <row r="107" spans="15:18" x14ac:dyDescent="0.45">
       <c r="O107" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="P107">
         <v>7.8125E-2</v>
@@ -32381,39 +33693,39 @@
     </row>
     <row r="108" spans="15:18" x14ac:dyDescent="0.45">
       <c r="O108" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="P108">
-        <v>9.375E-2</v>
+        <v>0.125</v>
       </c>
     </row>
     <row r="109" spans="15:18" x14ac:dyDescent="0.45">
       <c r="O109" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="P109">
-        <v>0.15625</v>
+        <v>0.171875</v>
       </c>
     </row>
     <row r="110" spans="15:18" x14ac:dyDescent="0.45">
       <c r="O110" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="P110">
-        <v>9.375E-2</v>
+        <v>4.6875E-2</v>
       </c>
     </row>
     <row r="111" spans="15:18" x14ac:dyDescent="0.45">
       <c r="O111" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="P111">
-        <v>7.8125E-2</v>
+        <v>0.1875</v>
       </c>
     </row>
     <row r="112" spans="15:18" x14ac:dyDescent="0.45">
       <c r="O112" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="P112">
         <v>7.8125E-2</v>
@@ -32421,23 +33733,23 @@
     </row>
     <row r="113" spans="15:16" x14ac:dyDescent="0.45">
       <c r="O113" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="P113">
-        <v>7.8125E-2</v>
+        <v>0.125</v>
       </c>
     </row>
     <row r="114" spans="15:16" x14ac:dyDescent="0.45">
       <c r="O114" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="P114">
-        <v>7.8125E-2</v>
+        <v>3.125E-2</v>
       </c>
     </row>
     <row r="115" spans="15:16" x14ac:dyDescent="0.45">
       <c r="O115" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="P115">
         <v>6.25E-2</v>
@@ -32445,47 +33757,47 @@
     </row>
     <row r="116" spans="15:16" x14ac:dyDescent="0.45">
       <c r="O116" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="P116">
-        <v>3.125E-2</v>
+        <v>6.25E-2</v>
       </c>
     </row>
     <row r="117" spans="15:16" x14ac:dyDescent="0.45">
       <c r="O117" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="P117">
-        <v>0.109375</v>
+        <v>0.125</v>
       </c>
     </row>
     <row r="118" spans="15:16" x14ac:dyDescent="0.45">
       <c r="O118" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="P118">
-        <v>0.109375</v>
+        <v>4.6875E-2</v>
       </c>
     </row>
     <row r="119" spans="15:16" x14ac:dyDescent="0.45">
       <c r="O119" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="P119">
-        <v>9.375E-2</v>
+        <v>0.109375</v>
       </c>
     </row>
     <row r="120" spans="15:16" x14ac:dyDescent="0.45">
       <c r="O120" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="P120">
-        <v>0.109375</v>
+        <v>0.125</v>
       </c>
     </row>
     <row r="121" spans="15:16" x14ac:dyDescent="0.45">
       <c r="O121" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="P121">
         <v>9.375E-2</v>
@@ -32493,95 +33805,95 @@
     </row>
     <row r="122" spans="15:16" x14ac:dyDescent="0.45">
       <c r="O122" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="P122">
-        <v>7.8125E-2</v>
+        <v>6.25E-2</v>
       </c>
     </row>
     <row r="123" spans="15:16" x14ac:dyDescent="0.45">
       <c r="O123" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="P123">
-        <v>4.6875E-2</v>
+        <v>7.8125E-2</v>
       </c>
     </row>
     <row r="124" spans="15:16" x14ac:dyDescent="0.45">
       <c r="O124" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="P124">
-        <v>0.109375</v>
+        <v>9.375E-2</v>
       </c>
     </row>
     <row r="125" spans="15:16" x14ac:dyDescent="0.45">
       <c r="O125" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="P125">
-        <v>6.25E-2</v>
+        <v>0.140625</v>
       </c>
     </row>
     <row r="126" spans="15:16" x14ac:dyDescent="0.45">
       <c r="O126" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="P126">
-        <v>0.109375</v>
+        <v>6.25E-2</v>
       </c>
     </row>
     <row r="127" spans="15:16" x14ac:dyDescent="0.45">
       <c r="O127" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="P127">
-        <v>0.109375</v>
+        <v>0.140625</v>
       </c>
     </row>
     <row r="128" spans="15:16" x14ac:dyDescent="0.45">
       <c r="O128" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="P128">
-        <v>9.375E-2</v>
+        <v>0.21875</v>
       </c>
     </row>
     <row r="129" spans="15:16" x14ac:dyDescent="0.45">
       <c r="O129" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="P129">
-        <v>7.8125E-2</v>
+        <v>9.375E-2</v>
       </c>
     </row>
     <row r="130" spans="15:16" x14ac:dyDescent="0.45">
       <c r="O130" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="P130">
-        <v>0.140625</v>
+        <v>0.1875</v>
       </c>
     </row>
     <row r="131" spans="15:16" x14ac:dyDescent="0.45">
       <c r="O131" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="P131">
-        <v>9.375E-2</v>
+        <v>0.109375</v>
       </c>
     </row>
     <row r="132" spans="15:16" x14ac:dyDescent="0.45">
       <c r="O132" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="P132">
-        <v>0.125</v>
+        <v>9.375E-2</v>
       </c>
     </row>
     <row r="133" spans="15:16" x14ac:dyDescent="0.45">
       <c r="O133" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="P133">
         <v>0.125</v>
@@ -32589,114 +33901,154 @@
     </row>
     <row r="134" spans="15:16" x14ac:dyDescent="0.45">
       <c r="O134" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="P134">
-        <v>0.15625</v>
+        <v>0.140625</v>
       </c>
     </row>
     <row r="135" spans="15:16" x14ac:dyDescent="0.45">
       <c r="O135" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="P135">
-        <v>0.109375</v>
+        <v>7.8125E-2</v>
       </c>
     </row>
     <row r="136" spans="15:16" x14ac:dyDescent="0.45">
       <c r="O136" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="P136">
-        <v>4.6875E-2</v>
+        <v>9.375E-2</v>
       </c>
     </row>
     <row r="137" spans="15:16" x14ac:dyDescent="0.45">
       <c r="O137" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="P137">
-        <v>0.140625</v>
+        <v>0.203125</v>
       </c>
     </row>
     <row r="138" spans="15:16" x14ac:dyDescent="0.45">
       <c r="O138" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="P138">
-        <v>0.125</v>
+        <v>0.109375</v>
       </c>
     </row>
     <row r="139" spans="15:16" x14ac:dyDescent="0.45">
       <c r="O139" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="P139">
-        <v>9.375E-2</v>
+        <v>7.8125E-2</v>
       </c>
     </row>
     <row r="140" spans="15:16" x14ac:dyDescent="0.45">
       <c r="O140" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="P140">
-        <v>9.375E-2</v>
+        <v>7.8125E-2</v>
       </c>
     </row>
     <row r="141" spans="15:16" x14ac:dyDescent="0.45">
       <c r="O141" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="P141">
-        <v>7.8125E-2</v>
+        <v>9.375E-2</v>
       </c>
     </row>
     <row r="142" spans="15:16" x14ac:dyDescent="0.45">
       <c r="O142" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="P142">
-        <v>0.109375</v>
+        <v>6.25E-2</v>
       </c>
     </row>
     <row r="143" spans="15:16" x14ac:dyDescent="0.45">
       <c r="O143" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="P143">
-        <v>0.109375</v>
+        <v>0.15625</v>
       </c>
     </row>
     <row r="144" spans="15:16" x14ac:dyDescent="0.45">
       <c r="O144" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="P144">
-        <v>9.375E-2</v>
+        <v>7.8125E-2</v>
       </c>
     </row>
     <row r="145" spans="15:16" x14ac:dyDescent="0.45">
       <c r="O145" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="P145">
-        <v>0.171875</v>
+        <v>0.203125</v>
       </c>
     </row>
     <row r="146" spans="15:16" x14ac:dyDescent="0.45">
       <c r="O146" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="P146">
-        <v>0.125</v>
+        <v>0.140625</v>
       </c>
     </row>
     <row r="147" spans="15:16" x14ac:dyDescent="0.45">
       <c r="O147" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="P147">
-        <v>6.25E-2</v>
+        <v>0.109375</v>
+      </c>
+    </row>
+    <row r="148" spans="15:16" x14ac:dyDescent="0.45">
+      <c r="O148" t="s">
+        <v>27</v>
+      </c>
+      <c r="P148">
+        <v>0.171875</v>
+      </c>
+    </row>
+    <row r="149" spans="15:16" x14ac:dyDescent="0.45">
+      <c r="O149" t="s">
+        <v>27</v>
+      </c>
+      <c r="P149">
+        <v>7.8125E-2</v>
+      </c>
+    </row>
+    <row r="150" spans="15:16" x14ac:dyDescent="0.45">
+      <c r="O150" t="s">
+        <v>27</v>
+      </c>
+      <c r="P150">
+        <v>0.15625</v>
+      </c>
+    </row>
+    <row r="151" spans="15:16" x14ac:dyDescent="0.45">
+      <c r="O151" t="s">
+        <v>27</v>
+      </c>
+      <c r="P151">
+        <v>7.8125E-2</v>
+      </c>
+    </row>
+    <row r="152" spans="15:16" x14ac:dyDescent="0.45">
+      <c r="O152" t="s">
+        <v>27</v>
+      </c>
+      <c r="P152">
+        <v>7.2727272727272724E-2</v>
       </c>
     </row>
   </sheetData>
@@ -32707,7 +34059,22 @@
     <mergeCell ref="A20:C20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8AAE529-F193-441A-938A-BCEC1BD439A5}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 

--- a/LJ+UA Experiments.xlsx
+++ b/LJ+UA Experiments.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dhvan\Documents\GitHub\P4P-Transformer-ASR-for-Dysarthric-Speech\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{837E5216-17AD-45AB-823E-CF6AB0C5AD85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{776E8771-9B94-4F87-AF7C-E0B71FE631D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="705" yWindow="705" windowWidth="15390" windowHeight="9443" firstSheet="12" activeTab="15" xr2:uid="{75EE08EB-D9DA-45E6-8F41-68FBAE46F917}"/>
+    <workbookView xWindow="1042" yWindow="1042" windowWidth="15390" windowHeight="9443" firstSheet="13" activeTab="16" xr2:uid="{75EE08EB-D9DA-45E6-8F41-68FBAE46F917}"/>
   </bookViews>
   <sheets>
     <sheet name="E1" sheetId="1" r:id="rId1"/>
@@ -29,6 +29,7 @@
     <sheet name="D1" sheetId="14" r:id="rId14"/>
     <sheet name="D12" sheetId="15" r:id="rId15"/>
     <sheet name="D123" sheetId="16" r:id="rId16"/>
+    <sheet name="Token + D123" sheetId="17" r:id="rId17"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -51,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="574" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="692" uniqueCount="31">
   <si>
     <r>
       <rPr>
@@ -791,6 +792,97 @@
   <si>
     <t>&lt;__main__.DisplayOutputs object at 0x7fa0d88d6d60&gt;</t>
   </si>
+  <si>
+    <t>&lt;__main__.DisplayOutputs object at 0x7f7730457880&gt;</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Model Name:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> LJ200_2.0_UAControl_FreezeD123.h5 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Accuracy:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>90% (3% increase)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Model Name:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> LJ200_2.0_UAControl_FreezeTokenD123.h5 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Accuracy:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>% (% increase)</t>
+    </r>
+  </si>
 </sst>
 </file>
 
@@ -4847,6 +4939,584 @@
           </a:p>
         </c:txPr>
         <c:crossAx val="478668496"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart16.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'D123'!$R$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Accuracy</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'D123'!$R$2:$R$152</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="151"/>
+                <c:pt idx="0">
+                  <c:v>-17.1875</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>18.75</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>39.0625</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>56.25</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>71.875</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>64.0625</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>73.4375</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>73.4375</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>70.3125</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>70.3125</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>79.6875</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>82.8125</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>76.5625</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>89.0625</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>84.375</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>85.9375</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>78.125</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>79.6875</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>90.625</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>84.375</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>84.375</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>81.25</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>87.5</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>85.9375</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>81.25</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>82.8125</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>85.9375</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>85.9375</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>85.9375</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>85.9375</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>82.8125</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>82.8125</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>82.8125</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>84.375</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>84.375</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>87.5</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>89.0625</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>90.625</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>85.9375</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>87.5</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>84.375</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>84.375</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>84.375</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>89.0625</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>87.5</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>87.5</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>92.1875</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>87.5</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>87.5</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>92.1875</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>87.5</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>84.375</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>90.625</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>92.1875</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>89.0625</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>89.0625</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>87.5</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>81.25</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>90.625</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>90.625</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>87.5</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>90.625</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>92.1875</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>87.5</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>89.0625</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>87.5</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>90.625</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>87.5</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>89.0625</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>87.5</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>87.5</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>87.5</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>82.8125</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>84.375</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>87.5</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>87.5</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>85.9375</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>87.5</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>89.0625</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>87.5</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>87.5</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>87.5</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>87.5</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>87.5</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>87.5</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>89.0625</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>89.0625</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>90.625</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>90.625</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>90.625</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>90.625</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>90.625</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>87.5</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>89.0625</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>89.0625</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>89.0625</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>89.0625</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>89.0625</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>89.0625</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-CEE6-4AF2-8ADB-22A8FE65156A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="762140863"/>
+        <c:axId val="762138783"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="762140863"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="762138783"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="762138783"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="762140863"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -9767,6 +10437,46 @@
 </file>
 
 <file path=xl/charts/colors15.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors16.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -13223,6 +13933,522 @@
 </file>
 
 <file path=xl/charts/style15.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style16.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -19112,6 +20338,232 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing16.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>65539</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>14072</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>104863</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AF27B50B-4244-4C71-B85D-3390654C7DF2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:srcRect l="-331" t="38919" r="61637" b="11975"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1" y="608464"/>
+          <a:ext cx="3252571" cy="2753949"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>156753</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>142040</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Picture 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{30578C74-D164-BB7C-B128-728B9CBA2AF4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="3676317"/>
+          <a:ext cx="3415306" cy="2899276"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>902369</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>108619</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>108617</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{27B3C211-694F-AF17-15E2-EED4F21A5D80}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4812632" y="476251"/>
+          <a:ext cx="3776578" cy="2832434"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>784557</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>182479</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>134516</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>168442</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{97934964-FAB4-883E-04C4-292880AA70F8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing17.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>65539</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>14072</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>104863</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B3C9AD54-00A7-4BB6-AA08-144EE4F25C44}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:srcRect l="-331" t="38919" r="61637" b="11975"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1" y="608464"/>
+          <a:ext cx="3252571" cy="2753949"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
@@ -31995,7 +33447,7 @@
   <dimension ref="A1:R152"/>
   <sheetViews>
     <sheetView zoomScale="48" workbookViewId="0">
-      <selection activeCell="N14" sqref="N14"/>
+      <selection activeCell="G33" sqref="G33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -34066,15 +35518,4148 @@
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8AAE529-F193-441A-938A-BCEC1BD439A5}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:R152"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView topLeftCell="E1" zoomScale="57" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="K42" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
-  <sheetData/>
+  <cols>
+    <col min="7" max="7" width="18.3984375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A1" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="I1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
+      <c r="O1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="O2">
+        <v>0</v>
+      </c>
+      <c r="P2">
+        <v>1.171875</v>
+      </c>
+      <c r="Q2">
+        <f xml:space="preserve"> 1+O2</f>
+        <v>1</v>
+      </c>
+      <c r="R2">
+        <f xml:space="preserve"> (1-P2)*100</f>
+        <v>-17.1875</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="O3">
+        <v>1</v>
+      </c>
+      <c r="P3">
+        <v>1</v>
+      </c>
+      <c r="Q3">
+        <f t="shared" ref="Q3:Q66" si="0" xml:space="preserve"> 1+O3</f>
+        <v>2</v>
+      </c>
+      <c r="R3">
+        <f t="shared" ref="R3:R66" si="1" xml:space="preserve"> (1-P3)*100</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="O4">
+        <v>2</v>
+      </c>
+      <c r="P4">
+        <v>0.8125</v>
+      </c>
+      <c r="Q4">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="R4">
+        <f t="shared" si="1"/>
+        <v>18.75</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="O5">
+        <v>3</v>
+      </c>
+      <c r="P5">
+        <v>0.609375</v>
+      </c>
+      <c r="Q5">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="R5">
+        <f t="shared" si="1"/>
+        <v>39.0625</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="O6">
+        <v>4</v>
+      </c>
+      <c r="P6">
+        <v>0.4375</v>
+      </c>
+      <c r="Q6">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="R6">
+        <f t="shared" si="1"/>
+        <v>56.25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="O7">
+        <v>5</v>
+      </c>
+      <c r="P7">
+        <v>0.28125</v>
+      </c>
+      <c r="Q7">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="R7">
+        <f t="shared" si="1"/>
+        <v>71.875</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="O8">
+        <v>6</v>
+      </c>
+      <c r="P8">
+        <v>0.359375</v>
+      </c>
+      <c r="Q8">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="R8">
+        <f t="shared" si="1"/>
+        <v>64.0625</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="O9">
+        <v>7</v>
+      </c>
+      <c r="P9">
+        <v>0.265625</v>
+      </c>
+      <c r="Q9">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="R9">
+        <f t="shared" si="1"/>
+        <v>73.4375</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="O10">
+        <v>8</v>
+      </c>
+      <c r="P10">
+        <v>0.265625</v>
+      </c>
+      <c r="Q10">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="R10">
+        <f t="shared" si="1"/>
+        <v>73.4375</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="O11">
+        <v>9</v>
+      </c>
+      <c r="P11">
+        <v>0.296875</v>
+      </c>
+      <c r="Q11">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="R11">
+        <f t="shared" si="1"/>
+        <v>70.3125</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="O12">
+        <v>10</v>
+      </c>
+      <c r="P12">
+        <v>0.296875</v>
+      </c>
+      <c r="Q12">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="R12">
+        <f t="shared" si="1"/>
+        <v>70.3125</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="O13">
+        <v>11</v>
+      </c>
+      <c r="P13">
+        <v>0.203125</v>
+      </c>
+      <c r="Q13">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="R13">
+        <f t="shared" si="1"/>
+        <v>79.6875</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="O14">
+        <v>12</v>
+      </c>
+      <c r="P14">
+        <v>0.171875</v>
+      </c>
+      <c r="Q14">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="R14">
+        <f t="shared" si="1"/>
+        <v>82.8125</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="O15">
+        <v>13</v>
+      </c>
+      <c r="P15">
+        <v>0.234375</v>
+      </c>
+      <c r="Q15">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="R15">
+        <f t="shared" si="1"/>
+        <v>76.5625</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="O16">
+        <v>14</v>
+      </c>
+      <c r="P16">
+        <v>0.109375</v>
+      </c>
+      <c r="Q16">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="R16">
+        <f t="shared" si="1"/>
+        <v>89.0625</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="O17">
+        <v>15</v>
+      </c>
+      <c r="P17">
+        <v>0.15625</v>
+      </c>
+      <c r="Q17">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="R17">
+        <f t="shared" si="1"/>
+        <v>84.375</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="O18">
+        <v>16</v>
+      </c>
+      <c r="P18">
+        <v>0.140625</v>
+      </c>
+      <c r="Q18">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="R18">
+        <f t="shared" si="1"/>
+        <v>85.9375</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="O19">
+        <v>17</v>
+      </c>
+      <c r="P19">
+        <v>0.21875</v>
+      </c>
+      <c r="Q19">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="R19">
+        <f t="shared" si="1"/>
+        <v>78.125</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A20" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
+      <c r="O20">
+        <v>18</v>
+      </c>
+      <c r="P20">
+        <v>0.203125</v>
+      </c>
+      <c r="Q20">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="R20">
+        <f t="shared" si="1"/>
+        <v>79.6875</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="O21">
+        <v>19</v>
+      </c>
+      <c r="P21">
+        <v>9.375E-2</v>
+      </c>
+      <c r="Q21">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="R21">
+        <f t="shared" si="1"/>
+        <v>90.625</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="O22">
+        <v>20</v>
+      </c>
+      <c r="P22">
+        <v>0.15625</v>
+      </c>
+      <c r="Q22">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="R22">
+        <f t="shared" si="1"/>
+        <v>84.375</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="O23">
+        <v>21</v>
+      </c>
+      <c r="P23">
+        <v>0.15625</v>
+      </c>
+      <c r="Q23">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="R23">
+        <f t="shared" si="1"/>
+        <v>84.375</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="O24">
+        <v>22</v>
+      </c>
+      <c r="P24">
+        <v>0.1875</v>
+      </c>
+      <c r="Q24">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="R24">
+        <f t="shared" si="1"/>
+        <v>81.25</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="O25">
+        <v>23</v>
+      </c>
+      <c r="P25">
+        <v>0.125</v>
+      </c>
+      <c r="Q25">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="R25">
+        <f t="shared" si="1"/>
+        <v>87.5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="O26">
+        <v>24</v>
+      </c>
+      <c r="P26">
+        <v>0.140625</v>
+      </c>
+      <c r="Q26">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="R26">
+        <f t="shared" si="1"/>
+        <v>85.9375</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="O27">
+        <v>25</v>
+      </c>
+      <c r="P27">
+        <v>0.1875</v>
+      </c>
+      <c r="Q27">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+      <c r="R27">
+        <f t="shared" si="1"/>
+        <v>81.25</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="O28">
+        <v>26</v>
+      </c>
+      <c r="P28">
+        <v>0.171875</v>
+      </c>
+      <c r="Q28">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+      <c r="R28">
+        <f t="shared" si="1"/>
+        <v>82.8125</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="O29">
+        <v>27</v>
+      </c>
+      <c r="P29">
+        <v>0.140625</v>
+      </c>
+      <c r="Q29">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+      <c r="R29">
+        <f t="shared" si="1"/>
+        <v>85.9375</v>
+      </c>
+    </row>
+    <row r="30" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="O30">
+        <v>28</v>
+      </c>
+      <c r="P30">
+        <v>0.140625</v>
+      </c>
+      <c r="Q30">
+        <f t="shared" si="0"/>
+        <v>29</v>
+      </c>
+      <c r="R30">
+        <f t="shared" si="1"/>
+        <v>85.9375</v>
+      </c>
+    </row>
+    <row r="31" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="O31">
+        <v>29</v>
+      </c>
+      <c r="P31">
+        <v>0.140625</v>
+      </c>
+      <c r="Q31">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="R31">
+        <f t="shared" si="1"/>
+        <v>85.9375</v>
+      </c>
+    </row>
+    <row r="32" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="O32">
+        <v>30</v>
+      </c>
+      <c r="P32">
+        <v>0.140625</v>
+      </c>
+      <c r="Q32">
+        <f t="shared" si="0"/>
+        <v>31</v>
+      </c>
+      <c r="R32">
+        <f t="shared" si="1"/>
+        <v>85.9375</v>
+      </c>
+    </row>
+    <row r="33" spans="15:18" x14ac:dyDescent="0.45">
+      <c r="O33">
+        <v>31</v>
+      </c>
+      <c r="P33">
+        <v>0.171875</v>
+      </c>
+      <c r="Q33">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+      <c r="R33">
+        <f t="shared" si="1"/>
+        <v>82.8125</v>
+      </c>
+    </row>
+    <row r="34" spans="15:18" x14ac:dyDescent="0.45">
+      <c r="O34">
+        <v>32</v>
+      </c>
+      <c r="P34">
+        <v>0.171875</v>
+      </c>
+      <c r="Q34">
+        <f t="shared" si="0"/>
+        <v>33</v>
+      </c>
+      <c r="R34">
+        <f t="shared" si="1"/>
+        <v>82.8125</v>
+      </c>
+    </row>
+    <row r="35" spans="15:18" x14ac:dyDescent="0.45">
+      <c r="O35">
+        <v>33</v>
+      </c>
+      <c r="P35">
+        <v>0.171875</v>
+      </c>
+      <c r="Q35">
+        <f t="shared" si="0"/>
+        <v>34</v>
+      </c>
+      <c r="R35">
+        <f t="shared" si="1"/>
+        <v>82.8125</v>
+      </c>
+    </row>
+    <row r="36" spans="15:18" x14ac:dyDescent="0.45">
+      <c r="O36">
+        <v>34</v>
+      </c>
+      <c r="P36">
+        <v>0.15625</v>
+      </c>
+      <c r="Q36">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+      <c r="R36">
+        <f t="shared" si="1"/>
+        <v>84.375</v>
+      </c>
+    </row>
+    <row r="37" spans="15:18" x14ac:dyDescent="0.45">
+      <c r="O37">
+        <v>35</v>
+      </c>
+      <c r="P37">
+        <v>0.15625</v>
+      </c>
+      <c r="Q37">
+        <f t="shared" si="0"/>
+        <v>36</v>
+      </c>
+      <c r="R37">
+        <f t="shared" si="1"/>
+        <v>84.375</v>
+      </c>
+    </row>
+    <row r="38" spans="15:18" x14ac:dyDescent="0.45">
+      <c r="O38">
+        <v>36</v>
+      </c>
+      <c r="P38">
+        <v>0.125</v>
+      </c>
+      <c r="Q38">
+        <f t="shared" si="0"/>
+        <v>37</v>
+      </c>
+      <c r="R38">
+        <f t="shared" si="1"/>
+        <v>87.5</v>
+      </c>
+    </row>
+    <row r="39" spans="15:18" x14ac:dyDescent="0.45">
+      <c r="O39">
+        <v>37</v>
+      </c>
+      <c r="P39">
+        <v>0.109375</v>
+      </c>
+      <c r="Q39">
+        <f t="shared" si="0"/>
+        <v>38</v>
+      </c>
+      <c r="R39">
+        <f t="shared" si="1"/>
+        <v>89.0625</v>
+      </c>
+    </row>
+    <row r="40" spans="15:18" x14ac:dyDescent="0.45">
+      <c r="O40">
+        <v>38</v>
+      </c>
+      <c r="P40">
+        <v>9.375E-2</v>
+      </c>
+      <c r="Q40">
+        <f t="shared" si="0"/>
+        <v>39</v>
+      </c>
+      <c r="R40">
+        <f t="shared" si="1"/>
+        <v>90.625</v>
+      </c>
+    </row>
+    <row r="41" spans="15:18" x14ac:dyDescent="0.45">
+      <c r="O41">
+        <v>39</v>
+      </c>
+      <c r="P41">
+        <v>0.140625</v>
+      </c>
+      <c r="Q41">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="R41">
+        <f t="shared" si="1"/>
+        <v>85.9375</v>
+      </c>
+    </row>
+    <row r="42" spans="15:18" x14ac:dyDescent="0.45">
+      <c r="O42">
+        <v>40</v>
+      </c>
+      <c r="P42">
+        <v>0.125</v>
+      </c>
+      <c r="Q42">
+        <f t="shared" si="0"/>
+        <v>41</v>
+      </c>
+      <c r="R42">
+        <f t="shared" si="1"/>
+        <v>87.5</v>
+      </c>
+    </row>
+    <row r="43" spans="15:18" x14ac:dyDescent="0.45">
+      <c r="O43">
+        <v>41</v>
+      </c>
+      <c r="P43">
+        <v>0.15625</v>
+      </c>
+      <c r="Q43">
+        <f t="shared" si="0"/>
+        <v>42</v>
+      </c>
+      <c r="R43">
+        <f t="shared" si="1"/>
+        <v>84.375</v>
+      </c>
+    </row>
+    <row r="44" spans="15:18" x14ac:dyDescent="0.45">
+      <c r="O44">
+        <v>42</v>
+      </c>
+      <c r="P44">
+        <v>0.15625</v>
+      </c>
+      <c r="Q44">
+        <f t="shared" si="0"/>
+        <v>43</v>
+      </c>
+      <c r="R44">
+        <f t="shared" si="1"/>
+        <v>84.375</v>
+      </c>
+    </row>
+    <row r="45" spans="15:18" x14ac:dyDescent="0.45">
+      <c r="O45">
+        <v>43</v>
+      </c>
+      <c r="P45">
+        <v>0.15625</v>
+      </c>
+      <c r="Q45">
+        <f t="shared" si="0"/>
+        <v>44</v>
+      </c>
+      <c r="R45">
+        <f t="shared" si="1"/>
+        <v>84.375</v>
+      </c>
+    </row>
+    <row r="46" spans="15:18" x14ac:dyDescent="0.45">
+      <c r="O46">
+        <v>44</v>
+      </c>
+      <c r="P46">
+        <v>0.109375</v>
+      </c>
+      <c r="Q46">
+        <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+      <c r="R46">
+        <f t="shared" si="1"/>
+        <v>89.0625</v>
+      </c>
+    </row>
+    <row r="47" spans="15:18" x14ac:dyDescent="0.45">
+      <c r="O47">
+        <v>45</v>
+      </c>
+      <c r="P47">
+        <v>0.125</v>
+      </c>
+      <c r="Q47">
+        <f t="shared" si="0"/>
+        <v>46</v>
+      </c>
+      <c r="R47">
+        <f t="shared" si="1"/>
+        <v>87.5</v>
+      </c>
+    </row>
+    <row r="48" spans="15:18" x14ac:dyDescent="0.45">
+      <c r="O48">
+        <v>46</v>
+      </c>
+      <c r="P48">
+        <v>0.125</v>
+      </c>
+      <c r="Q48">
+        <f t="shared" si="0"/>
+        <v>47</v>
+      </c>
+      <c r="R48">
+        <f t="shared" si="1"/>
+        <v>87.5</v>
+      </c>
+    </row>
+    <row r="49" spans="15:18" x14ac:dyDescent="0.45">
+      <c r="O49">
+        <v>47</v>
+      </c>
+      <c r="P49">
+        <v>7.8125E-2</v>
+      </c>
+      <c r="Q49">
+        <f t="shared" si="0"/>
+        <v>48</v>
+      </c>
+      <c r="R49">
+        <f t="shared" si="1"/>
+        <v>92.1875</v>
+      </c>
+    </row>
+    <row r="50" spans="15:18" x14ac:dyDescent="0.45">
+      <c r="O50">
+        <v>48</v>
+      </c>
+      <c r="P50">
+        <v>0.125</v>
+      </c>
+      <c r="Q50">
+        <f t="shared" si="0"/>
+        <v>49</v>
+      </c>
+      <c r="R50">
+        <f t="shared" si="1"/>
+        <v>87.5</v>
+      </c>
+    </row>
+    <row r="51" spans="15:18" x14ac:dyDescent="0.45">
+      <c r="O51">
+        <v>49</v>
+      </c>
+      <c r="P51">
+        <v>0.125</v>
+      </c>
+      <c r="Q51">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+      <c r="R51">
+        <f t="shared" si="1"/>
+        <v>87.5</v>
+      </c>
+    </row>
+    <row r="52" spans="15:18" x14ac:dyDescent="0.45">
+      <c r="O52">
+        <v>50</v>
+      </c>
+      <c r="P52">
+        <v>7.8125E-2</v>
+      </c>
+      <c r="Q52">
+        <f t="shared" si="0"/>
+        <v>51</v>
+      </c>
+      <c r="R52">
+        <f t="shared" si="1"/>
+        <v>92.1875</v>
+      </c>
+    </row>
+    <row r="53" spans="15:18" x14ac:dyDescent="0.45">
+      <c r="O53">
+        <v>51</v>
+      </c>
+      <c r="P53">
+        <v>0.125</v>
+      </c>
+      <c r="Q53">
+        <f t="shared" si="0"/>
+        <v>52</v>
+      </c>
+      <c r="R53">
+        <f t="shared" si="1"/>
+        <v>87.5</v>
+      </c>
+    </row>
+    <row r="54" spans="15:18" x14ac:dyDescent="0.45">
+      <c r="O54">
+        <v>52</v>
+      </c>
+      <c r="P54">
+        <v>0.15625</v>
+      </c>
+      <c r="Q54">
+        <f t="shared" si="0"/>
+        <v>53</v>
+      </c>
+      <c r="R54">
+        <f t="shared" si="1"/>
+        <v>84.375</v>
+      </c>
+    </row>
+    <row r="55" spans="15:18" x14ac:dyDescent="0.45">
+      <c r="O55">
+        <v>53</v>
+      </c>
+      <c r="P55">
+        <v>9.375E-2</v>
+      </c>
+      <c r="Q55">
+        <f t="shared" si="0"/>
+        <v>54</v>
+      </c>
+      <c r="R55">
+        <f t="shared" si="1"/>
+        <v>90.625</v>
+      </c>
+    </row>
+    <row r="56" spans="15:18" x14ac:dyDescent="0.45">
+      <c r="O56">
+        <v>54</v>
+      </c>
+      <c r="P56">
+        <v>7.8125E-2</v>
+      </c>
+      <c r="Q56">
+        <f t="shared" si="0"/>
+        <v>55</v>
+      </c>
+      <c r="R56">
+        <f t="shared" si="1"/>
+        <v>92.1875</v>
+      </c>
+    </row>
+    <row r="57" spans="15:18" x14ac:dyDescent="0.45">
+      <c r="O57">
+        <v>55</v>
+      </c>
+      <c r="P57">
+        <v>0.109375</v>
+      </c>
+      <c r="Q57">
+        <f t="shared" si="0"/>
+        <v>56</v>
+      </c>
+      <c r="R57">
+        <f t="shared" si="1"/>
+        <v>89.0625</v>
+      </c>
+    </row>
+    <row r="58" spans="15:18" x14ac:dyDescent="0.45">
+      <c r="O58">
+        <v>56</v>
+      </c>
+      <c r="P58">
+        <v>0.109375</v>
+      </c>
+      <c r="Q58">
+        <f t="shared" si="0"/>
+        <v>57</v>
+      </c>
+      <c r="R58">
+        <f t="shared" si="1"/>
+        <v>89.0625</v>
+      </c>
+    </row>
+    <row r="59" spans="15:18" x14ac:dyDescent="0.45">
+      <c r="O59">
+        <v>57</v>
+      </c>
+      <c r="P59">
+        <v>0.125</v>
+      </c>
+      <c r="Q59">
+        <f t="shared" si="0"/>
+        <v>58</v>
+      </c>
+      <c r="R59">
+        <f t="shared" si="1"/>
+        <v>87.5</v>
+      </c>
+    </row>
+    <row r="60" spans="15:18" x14ac:dyDescent="0.45">
+      <c r="O60">
+        <v>58</v>
+      </c>
+      <c r="P60">
+        <v>0.1875</v>
+      </c>
+      <c r="Q60">
+        <f t="shared" si="0"/>
+        <v>59</v>
+      </c>
+      <c r="R60">
+        <f t="shared" si="1"/>
+        <v>81.25</v>
+      </c>
+    </row>
+    <row r="61" spans="15:18" x14ac:dyDescent="0.45">
+      <c r="O61">
+        <v>59</v>
+      </c>
+      <c r="P61">
+        <v>9.375E-2</v>
+      </c>
+      <c r="Q61">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+      <c r="R61">
+        <f t="shared" si="1"/>
+        <v>90.625</v>
+      </c>
+    </row>
+    <row r="62" spans="15:18" x14ac:dyDescent="0.45">
+      <c r="O62">
+        <v>60</v>
+      </c>
+      <c r="P62">
+        <v>9.375E-2</v>
+      </c>
+      <c r="Q62">
+        <f t="shared" si="0"/>
+        <v>61</v>
+      </c>
+      <c r="R62">
+        <f t="shared" si="1"/>
+        <v>90.625</v>
+      </c>
+    </row>
+    <row r="63" spans="15:18" x14ac:dyDescent="0.45">
+      <c r="O63">
+        <v>61</v>
+      </c>
+      <c r="P63">
+        <v>0.125</v>
+      </c>
+      <c r="Q63">
+        <f t="shared" si="0"/>
+        <v>62</v>
+      </c>
+      <c r="R63">
+        <f t="shared" si="1"/>
+        <v>87.5</v>
+      </c>
+    </row>
+    <row r="64" spans="15:18" x14ac:dyDescent="0.45">
+      <c r="O64">
+        <v>62</v>
+      </c>
+      <c r="P64">
+        <v>9.375E-2</v>
+      </c>
+      <c r="Q64">
+        <f t="shared" si="0"/>
+        <v>63</v>
+      </c>
+      <c r="R64">
+        <f t="shared" si="1"/>
+        <v>90.625</v>
+      </c>
+    </row>
+    <row r="65" spans="15:18" x14ac:dyDescent="0.45">
+      <c r="O65">
+        <v>63</v>
+      </c>
+      <c r="P65">
+        <v>7.8125E-2</v>
+      </c>
+      <c r="Q65">
+        <f t="shared" si="0"/>
+        <v>64</v>
+      </c>
+      <c r="R65">
+        <f t="shared" si="1"/>
+        <v>92.1875</v>
+      </c>
+    </row>
+    <row r="66" spans="15:18" x14ac:dyDescent="0.45">
+      <c r="O66">
+        <v>64</v>
+      </c>
+      <c r="P66">
+        <v>0.125</v>
+      </c>
+      <c r="Q66">
+        <f t="shared" si="0"/>
+        <v>65</v>
+      </c>
+      <c r="R66">
+        <f t="shared" si="1"/>
+        <v>87.5</v>
+      </c>
+    </row>
+    <row r="67" spans="15:18" x14ac:dyDescent="0.45">
+      <c r="O67">
+        <v>65</v>
+      </c>
+      <c r="P67">
+        <v>0.109375</v>
+      </c>
+      <c r="Q67">
+        <f t="shared" ref="Q67:Q101" si="2" xml:space="preserve"> 1+O67</f>
+        <v>66</v>
+      </c>
+      <c r="R67">
+        <f t="shared" ref="R67:R101" si="3" xml:space="preserve"> (1-P67)*100</f>
+        <v>89.0625</v>
+      </c>
+    </row>
+    <row r="68" spans="15:18" x14ac:dyDescent="0.45">
+      <c r="O68">
+        <v>66</v>
+      </c>
+      <c r="P68">
+        <v>0.125</v>
+      </c>
+      <c r="Q68">
+        <f t="shared" si="2"/>
+        <v>67</v>
+      </c>
+      <c r="R68">
+        <f t="shared" si="3"/>
+        <v>87.5</v>
+      </c>
+    </row>
+    <row r="69" spans="15:18" x14ac:dyDescent="0.45">
+      <c r="O69">
+        <v>67</v>
+      </c>
+      <c r="P69">
+        <v>9.375E-2</v>
+      </c>
+      <c r="Q69">
+        <f t="shared" si="2"/>
+        <v>68</v>
+      </c>
+      <c r="R69">
+        <f t="shared" si="3"/>
+        <v>90.625</v>
+      </c>
+    </row>
+    <row r="70" spans="15:18" x14ac:dyDescent="0.45">
+      <c r="O70">
+        <v>68</v>
+      </c>
+      <c r="P70">
+        <v>0.125</v>
+      </c>
+      <c r="Q70">
+        <f t="shared" si="2"/>
+        <v>69</v>
+      </c>
+      <c r="R70">
+        <f t="shared" si="3"/>
+        <v>87.5</v>
+      </c>
+    </row>
+    <row r="71" spans="15:18" x14ac:dyDescent="0.45">
+      <c r="O71">
+        <v>69</v>
+      </c>
+      <c r="P71">
+        <v>0.109375</v>
+      </c>
+      <c r="Q71">
+        <f t="shared" si="2"/>
+        <v>70</v>
+      </c>
+      <c r="R71">
+        <f t="shared" si="3"/>
+        <v>89.0625</v>
+      </c>
+    </row>
+    <row r="72" spans="15:18" x14ac:dyDescent="0.45">
+      <c r="O72">
+        <v>70</v>
+      </c>
+      <c r="P72">
+        <v>0.125</v>
+      </c>
+      <c r="Q72">
+        <f t="shared" si="2"/>
+        <v>71</v>
+      </c>
+      <c r="R72">
+        <f t="shared" si="3"/>
+        <v>87.5</v>
+      </c>
+    </row>
+    <row r="73" spans="15:18" x14ac:dyDescent="0.45">
+      <c r="O73">
+        <v>71</v>
+      </c>
+      <c r="P73">
+        <v>0.125</v>
+      </c>
+      <c r="Q73">
+        <f t="shared" si="2"/>
+        <v>72</v>
+      </c>
+      <c r="R73">
+        <f t="shared" si="3"/>
+        <v>87.5</v>
+      </c>
+    </row>
+    <row r="74" spans="15:18" x14ac:dyDescent="0.45">
+      <c r="O74">
+        <v>72</v>
+      </c>
+      <c r="P74">
+        <v>0.125</v>
+      </c>
+      <c r="Q74">
+        <f t="shared" si="2"/>
+        <v>73</v>
+      </c>
+      <c r="R74">
+        <f t="shared" si="3"/>
+        <v>87.5</v>
+      </c>
+    </row>
+    <row r="75" spans="15:18" x14ac:dyDescent="0.45">
+      <c r="O75">
+        <v>73</v>
+      </c>
+      <c r="P75">
+        <v>0.171875</v>
+      </c>
+      <c r="Q75">
+        <f t="shared" si="2"/>
+        <v>74</v>
+      </c>
+      <c r="R75">
+        <f t="shared" si="3"/>
+        <v>82.8125</v>
+      </c>
+    </row>
+    <row r="76" spans="15:18" x14ac:dyDescent="0.45">
+      <c r="O76">
+        <v>74</v>
+      </c>
+      <c r="P76">
+        <v>0.15625</v>
+      </c>
+      <c r="Q76">
+        <f t="shared" si="2"/>
+        <v>75</v>
+      </c>
+      <c r="R76">
+        <f t="shared" si="3"/>
+        <v>84.375</v>
+      </c>
+    </row>
+    <row r="77" spans="15:18" x14ac:dyDescent="0.45">
+      <c r="O77">
+        <v>75</v>
+      </c>
+      <c r="P77">
+        <v>0.125</v>
+      </c>
+      <c r="Q77">
+        <f t="shared" si="2"/>
+        <v>76</v>
+      </c>
+      <c r="R77">
+        <f t="shared" si="3"/>
+        <v>87.5</v>
+      </c>
+    </row>
+    <row r="78" spans="15:18" x14ac:dyDescent="0.45">
+      <c r="O78">
+        <v>76</v>
+      </c>
+      <c r="P78">
+        <v>0.125</v>
+      </c>
+      <c r="Q78">
+        <f t="shared" si="2"/>
+        <v>77</v>
+      </c>
+      <c r="R78">
+        <f t="shared" si="3"/>
+        <v>87.5</v>
+      </c>
+    </row>
+    <row r="79" spans="15:18" x14ac:dyDescent="0.45">
+      <c r="O79">
+        <v>77</v>
+      </c>
+      <c r="P79">
+        <v>0.140625</v>
+      </c>
+      <c r="Q79">
+        <f t="shared" si="2"/>
+        <v>78</v>
+      </c>
+      <c r="R79">
+        <f t="shared" si="3"/>
+        <v>85.9375</v>
+      </c>
+    </row>
+    <row r="80" spans="15:18" x14ac:dyDescent="0.45">
+      <c r="O80">
+        <v>78</v>
+      </c>
+      <c r="P80">
+        <v>0.125</v>
+      </c>
+      <c r="Q80">
+        <f t="shared" si="2"/>
+        <v>79</v>
+      </c>
+      <c r="R80">
+        <f t="shared" si="3"/>
+        <v>87.5</v>
+      </c>
+    </row>
+    <row r="81" spans="15:18" x14ac:dyDescent="0.45">
+      <c r="O81">
+        <v>79</v>
+      </c>
+      <c r="P81">
+        <v>0.109375</v>
+      </c>
+      <c r="Q81">
+        <f t="shared" si="2"/>
+        <v>80</v>
+      </c>
+      <c r="R81">
+        <f t="shared" si="3"/>
+        <v>89.0625</v>
+      </c>
+    </row>
+    <row r="82" spans="15:18" x14ac:dyDescent="0.45">
+      <c r="O82">
+        <v>80</v>
+      </c>
+      <c r="P82">
+        <v>0.125</v>
+      </c>
+      <c r="Q82">
+        <f t="shared" si="2"/>
+        <v>81</v>
+      </c>
+      <c r="R82">
+        <f t="shared" si="3"/>
+        <v>87.5</v>
+      </c>
+    </row>
+    <row r="83" spans="15:18" x14ac:dyDescent="0.45">
+      <c r="O83">
+        <v>81</v>
+      </c>
+      <c r="P83">
+        <v>0.125</v>
+      </c>
+      <c r="Q83">
+        <f t="shared" si="2"/>
+        <v>82</v>
+      </c>
+      <c r="R83">
+        <f t="shared" si="3"/>
+        <v>87.5</v>
+      </c>
+    </row>
+    <row r="84" spans="15:18" x14ac:dyDescent="0.45">
+      <c r="O84">
+        <v>82</v>
+      </c>
+      <c r="P84">
+        <v>0.125</v>
+      </c>
+      <c r="Q84">
+        <f t="shared" si="2"/>
+        <v>83</v>
+      </c>
+      <c r="R84">
+        <f t="shared" si="3"/>
+        <v>87.5</v>
+      </c>
+    </row>
+    <row r="85" spans="15:18" x14ac:dyDescent="0.45">
+      <c r="O85">
+        <v>83</v>
+      </c>
+      <c r="P85">
+        <v>0.125</v>
+      </c>
+      <c r="Q85">
+        <f t="shared" si="2"/>
+        <v>84</v>
+      </c>
+      <c r="R85">
+        <f t="shared" si="3"/>
+        <v>87.5</v>
+      </c>
+    </row>
+    <row r="86" spans="15:18" x14ac:dyDescent="0.45">
+      <c r="O86">
+        <v>84</v>
+      </c>
+      <c r="P86">
+        <v>0.125</v>
+      </c>
+      <c r="Q86">
+        <f t="shared" si="2"/>
+        <v>85</v>
+      </c>
+      <c r="R86">
+        <f t="shared" si="3"/>
+        <v>87.5</v>
+      </c>
+    </row>
+    <row r="87" spans="15:18" x14ac:dyDescent="0.45">
+      <c r="O87">
+        <v>85</v>
+      </c>
+      <c r="P87">
+        <v>0.125</v>
+      </c>
+      <c r="Q87">
+        <f t="shared" si="2"/>
+        <v>86</v>
+      </c>
+      <c r="R87">
+        <f t="shared" si="3"/>
+        <v>87.5</v>
+      </c>
+    </row>
+    <row r="88" spans="15:18" x14ac:dyDescent="0.45">
+      <c r="O88">
+        <v>86</v>
+      </c>
+      <c r="P88">
+        <v>0.109375</v>
+      </c>
+      <c r="Q88">
+        <f t="shared" si="2"/>
+        <v>87</v>
+      </c>
+      <c r="R88">
+        <f t="shared" si="3"/>
+        <v>89.0625</v>
+      </c>
+    </row>
+    <row r="89" spans="15:18" x14ac:dyDescent="0.45">
+      <c r="O89">
+        <v>87</v>
+      </c>
+      <c r="P89">
+        <v>0.109375</v>
+      </c>
+      <c r="Q89">
+        <f t="shared" si="2"/>
+        <v>88</v>
+      </c>
+      <c r="R89">
+        <f t="shared" si="3"/>
+        <v>89.0625</v>
+      </c>
+    </row>
+    <row r="90" spans="15:18" x14ac:dyDescent="0.45">
+      <c r="O90">
+        <v>88</v>
+      </c>
+      <c r="P90">
+        <v>9.375E-2</v>
+      </c>
+      <c r="Q90">
+        <f t="shared" si="2"/>
+        <v>89</v>
+      </c>
+      <c r="R90">
+        <f t="shared" si="3"/>
+        <v>90.625</v>
+      </c>
+    </row>
+    <row r="91" spans="15:18" x14ac:dyDescent="0.45">
+      <c r="O91">
+        <v>89</v>
+      </c>
+      <c r="P91">
+        <v>9.375E-2</v>
+      </c>
+      <c r="Q91">
+        <f t="shared" si="2"/>
+        <v>90</v>
+      </c>
+      <c r="R91">
+        <f t="shared" si="3"/>
+        <v>90.625</v>
+      </c>
+    </row>
+    <row r="92" spans="15:18" x14ac:dyDescent="0.45">
+      <c r="O92">
+        <v>90</v>
+      </c>
+      <c r="P92">
+        <v>9.375E-2</v>
+      </c>
+      <c r="Q92">
+        <f t="shared" si="2"/>
+        <v>91</v>
+      </c>
+      <c r="R92">
+        <f t="shared" si="3"/>
+        <v>90.625</v>
+      </c>
+    </row>
+    <row r="93" spans="15:18" x14ac:dyDescent="0.45">
+      <c r="O93">
+        <v>91</v>
+      </c>
+      <c r="P93">
+        <v>9.375E-2</v>
+      </c>
+      <c r="Q93">
+        <f t="shared" si="2"/>
+        <v>92</v>
+      </c>
+      <c r="R93">
+        <f t="shared" si="3"/>
+        <v>90.625</v>
+      </c>
+    </row>
+    <row r="94" spans="15:18" x14ac:dyDescent="0.45">
+      <c r="O94">
+        <v>92</v>
+      </c>
+      <c r="P94">
+        <v>9.375E-2</v>
+      </c>
+      <c r="Q94">
+        <f t="shared" si="2"/>
+        <v>93</v>
+      </c>
+      <c r="R94">
+        <f t="shared" si="3"/>
+        <v>90.625</v>
+      </c>
+    </row>
+    <row r="95" spans="15:18" x14ac:dyDescent="0.45">
+      <c r="O95">
+        <v>93</v>
+      </c>
+      <c r="P95">
+        <v>0.125</v>
+      </c>
+      <c r="Q95">
+        <f t="shared" si="2"/>
+        <v>94</v>
+      </c>
+      <c r="R95">
+        <f t="shared" si="3"/>
+        <v>87.5</v>
+      </c>
+    </row>
+    <row r="96" spans="15:18" x14ac:dyDescent="0.45">
+      <c r="O96">
+        <v>94</v>
+      </c>
+      <c r="P96">
+        <v>0.109375</v>
+      </c>
+      <c r="Q96">
+        <f t="shared" si="2"/>
+        <v>95</v>
+      </c>
+      <c r="R96">
+        <f t="shared" si="3"/>
+        <v>89.0625</v>
+      </c>
+    </row>
+    <row r="97" spans="15:18" x14ac:dyDescent="0.45">
+      <c r="O97">
+        <v>95</v>
+      </c>
+      <c r="P97">
+        <v>0.109375</v>
+      </c>
+      <c r="Q97">
+        <f t="shared" si="2"/>
+        <v>96</v>
+      </c>
+      <c r="R97">
+        <f t="shared" si="3"/>
+        <v>89.0625</v>
+      </c>
+    </row>
+    <row r="98" spans="15:18" x14ac:dyDescent="0.45">
+      <c r="O98">
+        <v>96</v>
+      </c>
+      <c r="P98">
+        <v>0.109375</v>
+      </c>
+      <c r="Q98">
+        <f t="shared" si="2"/>
+        <v>97</v>
+      </c>
+      <c r="R98">
+        <f t="shared" si="3"/>
+        <v>89.0625</v>
+      </c>
+    </row>
+    <row r="99" spans="15:18" x14ac:dyDescent="0.45">
+      <c r="O99">
+        <v>97</v>
+      </c>
+      <c r="P99">
+        <v>0.109375</v>
+      </c>
+      <c r="Q99">
+        <f t="shared" si="2"/>
+        <v>98</v>
+      </c>
+      <c r="R99">
+        <f t="shared" si="3"/>
+        <v>89.0625</v>
+      </c>
+    </row>
+    <row r="100" spans="15:18" x14ac:dyDescent="0.45">
+      <c r="O100">
+        <v>98</v>
+      </c>
+      <c r="P100">
+        <v>0.109375</v>
+      </c>
+      <c r="Q100">
+        <f t="shared" si="2"/>
+        <v>99</v>
+      </c>
+      <c r="R100">
+        <f t="shared" si="3"/>
+        <v>89.0625</v>
+      </c>
+    </row>
+    <row r="101" spans="15:18" x14ac:dyDescent="0.45">
+      <c r="O101">
+        <v>99</v>
+      </c>
+      <c r="P101">
+        <v>0.109375</v>
+      </c>
+      <c r="Q101">
+        <f t="shared" si="2"/>
+        <v>100</v>
+      </c>
+      <c r="R101">
+        <f t="shared" si="3"/>
+        <v>89.0625</v>
+      </c>
+    </row>
+    <row r="102" spans="15:18" x14ac:dyDescent="0.45">
+      <c r="O102" t="s">
+        <v>28</v>
+      </c>
+      <c r="P102">
+        <v>0.109375</v>
+      </c>
+    </row>
+    <row r="103" spans="15:18" x14ac:dyDescent="0.45">
+      <c r="O103" t="s">
+        <v>28</v>
+      </c>
+      <c r="P103">
+        <v>9.375E-2</v>
+      </c>
+    </row>
+    <row r="104" spans="15:18" x14ac:dyDescent="0.45">
+      <c r="O104" t="s">
+        <v>28</v>
+      </c>
+      <c r="P104">
+        <v>9.375E-2</v>
+      </c>
+    </row>
+    <row r="105" spans="15:18" x14ac:dyDescent="0.45">
+      <c r="O105" t="s">
+        <v>28</v>
+      </c>
+      <c r="P105">
+        <v>0.109375</v>
+      </c>
+    </row>
+    <row r="106" spans="15:18" x14ac:dyDescent="0.45">
+      <c r="O106" t="s">
+        <v>28</v>
+      </c>
+      <c r="P106">
+        <v>0.140625</v>
+      </c>
+    </row>
+    <row r="107" spans="15:18" x14ac:dyDescent="0.45">
+      <c r="O107" t="s">
+        <v>28</v>
+      </c>
+      <c r="P107">
+        <v>9.375E-2</v>
+      </c>
+    </row>
+    <row r="108" spans="15:18" x14ac:dyDescent="0.45">
+      <c r="O108" t="s">
+        <v>28</v>
+      </c>
+      <c r="P108">
+        <v>0.109375</v>
+      </c>
+    </row>
+    <row r="109" spans="15:18" x14ac:dyDescent="0.45">
+      <c r="O109" t="s">
+        <v>28</v>
+      </c>
+      <c r="P109">
+        <v>0.109375</v>
+      </c>
+    </row>
+    <row r="110" spans="15:18" x14ac:dyDescent="0.45">
+      <c r="O110" t="s">
+        <v>28</v>
+      </c>
+      <c r="P110">
+        <v>6.25E-2</v>
+      </c>
+    </row>
+    <row r="111" spans="15:18" x14ac:dyDescent="0.45">
+      <c r="O111" t="s">
+        <v>28</v>
+      </c>
+      <c r="P111">
+        <v>0.15625</v>
+      </c>
+    </row>
+    <row r="112" spans="15:18" x14ac:dyDescent="0.45">
+      <c r="O112" t="s">
+        <v>28</v>
+      </c>
+      <c r="P112">
+        <v>4.6875E-2</v>
+      </c>
+    </row>
+    <row r="113" spans="15:16" x14ac:dyDescent="0.45">
+      <c r="O113" t="s">
+        <v>28</v>
+      </c>
+      <c r="P113">
+        <v>7.8125E-2</v>
+      </c>
+    </row>
+    <row r="114" spans="15:16" x14ac:dyDescent="0.45">
+      <c r="O114" t="s">
+        <v>28</v>
+      </c>
+      <c r="P114">
+        <v>9.375E-2</v>
+      </c>
+    </row>
+    <row r="115" spans="15:16" x14ac:dyDescent="0.45">
+      <c r="O115" t="s">
+        <v>28</v>
+      </c>
+      <c r="P115">
+        <v>4.6875E-2</v>
+      </c>
+    </row>
+    <row r="116" spans="15:16" x14ac:dyDescent="0.45">
+      <c r="O116" t="s">
+        <v>28</v>
+      </c>
+      <c r="P116">
+        <v>3.125E-2</v>
+      </c>
+    </row>
+    <row r="117" spans="15:16" x14ac:dyDescent="0.45">
+      <c r="O117" t="s">
+        <v>28</v>
+      </c>
+      <c r="P117">
+        <v>0.109375</v>
+      </c>
+    </row>
+    <row r="118" spans="15:16" x14ac:dyDescent="0.45">
+      <c r="O118" t="s">
+        <v>28</v>
+      </c>
+      <c r="P118">
+        <v>9.375E-2</v>
+      </c>
+    </row>
+    <row r="119" spans="15:16" x14ac:dyDescent="0.45">
+      <c r="O119" t="s">
+        <v>28</v>
+      </c>
+      <c r="P119">
+        <v>0.125</v>
+      </c>
+    </row>
+    <row r="120" spans="15:16" x14ac:dyDescent="0.45">
+      <c r="O120" t="s">
+        <v>28</v>
+      </c>
+      <c r="P120">
+        <v>7.8125E-2</v>
+      </c>
+    </row>
+    <row r="121" spans="15:16" x14ac:dyDescent="0.45">
+      <c r="O121" t="s">
+        <v>28</v>
+      </c>
+      <c r="P121">
+        <v>0.109375</v>
+      </c>
+    </row>
+    <row r="122" spans="15:16" x14ac:dyDescent="0.45">
+      <c r="O122" t="s">
+        <v>28</v>
+      </c>
+      <c r="P122">
+        <v>6.25E-2</v>
+      </c>
+    </row>
+    <row r="123" spans="15:16" x14ac:dyDescent="0.45">
+      <c r="O123" t="s">
+        <v>28</v>
+      </c>
+      <c r="P123">
+        <v>9.375E-2</v>
+      </c>
+    </row>
+    <row r="124" spans="15:16" x14ac:dyDescent="0.45">
+      <c r="O124" t="s">
+        <v>28</v>
+      </c>
+      <c r="P124">
+        <v>7.8125E-2</v>
+      </c>
+    </row>
+    <row r="125" spans="15:16" x14ac:dyDescent="0.45">
+      <c r="O125" t="s">
+        <v>28</v>
+      </c>
+      <c r="P125">
+        <v>7.8125E-2</v>
+      </c>
+    </row>
+    <row r="126" spans="15:16" x14ac:dyDescent="0.45">
+      <c r="O126" t="s">
+        <v>28</v>
+      </c>
+      <c r="P126">
+        <v>9.375E-2</v>
+      </c>
+    </row>
+    <row r="127" spans="15:16" x14ac:dyDescent="0.45">
+      <c r="O127" t="s">
+        <v>28</v>
+      </c>
+      <c r="P127">
+        <v>9.375E-2</v>
+      </c>
+    </row>
+    <row r="128" spans="15:16" x14ac:dyDescent="0.45">
+      <c r="O128" t="s">
+        <v>28</v>
+      </c>
+      <c r="P128">
+        <v>0.140625</v>
+      </c>
+    </row>
+    <row r="129" spans="15:16" x14ac:dyDescent="0.45">
+      <c r="O129" t="s">
+        <v>28</v>
+      </c>
+      <c r="P129">
+        <v>4.6875E-2</v>
+      </c>
+    </row>
+    <row r="130" spans="15:16" x14ac:dyDescent="0.45">
+      <c r="O130" t="s">
+        <v>28</v>
+      </c>
+      <c r="P130">
+        <v>0.171875</v>
+      </c>
+    </row>
+    <row r="131" spans="15:16" x14ac:dyDescent="0.45">
+      <c r="O131" t="s">
+        <v>28</v>
+      </c>
+      <c r="P131">
+        <v>7.8125E-2</v>
+      </c>
+    </row>
+    <row r="132" spans="15:16" x14ac:dyDescent="0.45">
+      <c r="O132" t="s">
+        <v>28</v>
+      </c>
+      <c r="P132">
+        <v>7.8125E-2</v>
+      </c>
+    </row>
+    <row r="133" spans="15:16" x14ac:dyDescent="0.45">
+      <c r="O133" t="s">
+        <v>28</v>
+      </c>
+      <c r="P133">
+        <v>6.25E-2</v>
+      </c>
+    </row>
+    <row r="134" spans="15:16" x14ac:dyDescent="0.45">
+      <c r="O134" t="s">
+        <v>28</v>
+      </c>
+      <c r="P134">
+        <v>0.109375</v>
+      </c>
+    </row>
+    <row r="135" spans="15:16" x14ac:dyDescent="0.45">
+      <c r="O135" t="s">
+        <v>28</v>
+      </c>
+      <c r="P135">
+        <v>7.8125E-2</v>
+      </c>
+    </row>
+    <row r="136" spans="15:16" x14ac:dyDescent="0.45">
+      <c r="O136" t="s">
+        <v>28</v>
+      </c>
+      <c r="P136">
+        <v>0.125</v>
+      </c>
+    </row>
+    <row r="137" spans="15:16" x14ac:dyDescent="0.45">
+      <c r="O137" t="s">
+        <v>28</v>
+      </c>
+      <c r="P137">
+        <v>0.140625</v>
+      </c>
+    </row>
+    <row r="138" spans="15:16" x14ac:dyDescent="0.45">
+      <c r="O138" t="s">
+        <v>28</v>
+      </c>
+      <c r="P138">
+        <v>4.6875E-2</v>
+      </c>
+    </row>
+    <row r="139" spans="15:16" x14ac:dyDescent="0.45">
+      <c r="O139" t="s">
+        <v>28</v>
+      </c>
+      <c r="P139">
+        <v>4.6875E-2</v>
+      </c>
+    </row>
+    <row r="140" spans="15:16" x14ac:dyDescent="0.45">
+      <c r="O140" t="s">
+        <v>28</v>
+      </c>
+      <c r="P140">
+        <v>0.109375</v>
+      </c>
+    </row>
+    <row r="141" spans="15:16" x14ac:dyDescent="0.45">
+      <c r="O141" t="s">
+        <v>28</v>
+      </c>
+      <c r="P141">
+        <v>3.125E-2</v>
+      </c>
+    </row>
+    <row r="142" spans="15:16" x14ac:dyDescent="0.45">
+      <c r="O142" t="s">
+        <v>28</v>
+      </c>
+      <c r="P142">
+        <v>0.140625</v>
+      </c>
+    </row>
+    <row r="143" spans="15:16" x14ac:dyDescent="0.45">
+      <c r="O143" t="s">
+        <v>28</v>
+      </c>
+      <c r="P143">
+        <v>9.375E-2</v>
+      </c>
+    </row>
+    <row r="144" spans="15:16" x14ac:dyDescent="0.45">
+      <c r="O144" t="s">
+        <v>28</v>
+      </c>
+      <c r="P144">
+        <v>4.6875E-2</v>
+      </c>
+    </row>
+    <row r="145" spans="15:16" x14ac:dyDescent="0.45">
+      <c r="O145" t="s">
+        <v>28</v>
+      </c>
+      <c r="P145">
+        <v>0.171875</v>
+      </c>
+    </row>
+    <row r="146" spans="15:16" x14ac:dyDescent="0.45">
+      <c r="O146" t="s">
+        <v>28</v>
+      </c>
+      <c r="P146">
+        <v>0.15625</v>
+      </c>
+    </row>
+    <row r="147" spans="15:16" x14ac:dyDescent="0.45">
+      <c r="O147" t="s">
+        <v>28</v>
+      </c>
+      <c r="P147">
+        <v>0.109375</v>
+      </c>
+    </row>
+    <row r="148" spans="15:16" x14ac:dyDescent="0.45">
+      <c r="O148" t="s">
+        <v>28</v>
+      </c>
+      <c r="P148">
+        <v>0.125</v>
+      </c>
+    </row>
+    <row r="149" spans="15:16" x14ac:dyDescent="0.45">
+      <c r="O149" t="s">
+        <v>28</v>
+      </c>
+      <c r="P149">
+        <v>7.8125E-2</v>
+      </c>
+    </row>
+    <row r="150" spans="15:16" x14ac:dyDescent="0.45">
+      <c r="O150" t="s">
+        <v>28</v>
+      </c>
+      <c r="P150">
+        <v>0.140625</v>
+      </c>
+    </row>
+    <row r="151" spans="15:16" x14ac:dyDescent="0.45">
+      <c r="O151" t="s">
+        <v>28</v>
+      </c>
+      <c r="P151">
+        <v>7.8125E-2</v>
+      </c>
+    </row>
+    <row r="152" spans="15:16" x14ac:dyDescent="0.45">
+      <c r="O152" t="s">
+        <v>28</v>
+      </c>
+      <c r="P152">
+        <v>7.2727272727272724E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="I1:M1"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="A20:C20"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B801163C-6F17-4CD7-9F92-0241685B0218}">
+  <dimension ref="A1:R152"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:G1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="7" max="7" width="18.3984375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A1" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="I1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
+      <c r="O1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="O2">
+        <v>0</v>
+      </c>
+      <c r="P2">
+        <v>1.171875</v>
+      </c>
+      <c r="Q2">
+        <f xml:space="preserve"> 1+O2</f>
+        <v>1</v>
+      </c>
+      <c r="R2">
+        <f xml:space="preserve"> (1-P2)*100</f>
+        <v>-17.1875</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="O3">
+        <v>1</v>
+      </c>
+      <c r="P3">
+        <v>1</v>
+      </c>
+      <c r="Q3">
+        <f t="shared" ref="Q3:Q66" si="0" xml:space="preserve"> 1+O3</f>
+        <v>2</v>
+      </c>
+      <c r="R3">
+        <f t="shared" ref="R3:R66" si="1" xml:space="preserve"> (1-P3)*100</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="O4">
+        <v>2</v>
+      </c>
+      <c r="P4">
+        <v>0.8125</v>
+      </c>
+      <c r="Q4">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="R4">
+        <f t="shared" si="1"/>
+        <v>18.75</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="O5">
+        <v>3</v>
+      </c>
+      <c r="P5">
+        <v>0.609375</v>
+      </c>
+      <c r="Q5">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="R5">
+        <f t="shared" si="1"/>
+        <v>39.0625</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="O6">
+        <v>4</v>
+      </c>
+      <c r="P6">
+        <v>0.4375</v>
+      </c>
+      <c r="Q6">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="R6">
+        <f t="shared" si="1"/>
+        <v>56.25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="O7">
+        <v>5</v>
+      </c>
+      <c r="P7">
+        <v>0.28125</v>
+      </c>
+      <c r="Q7">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="R7">
+        <f t="shared" si="1"/>
+        <v>71.875</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="O8">
+        <v>6</v>
+      </c>
+      <c r="P8">
+        <v>0.359375</v>
+      </c>
+      <c r="Q8">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="R8">
+        <f t="shared" si="1"/>
+        <v>64.0625</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="O9">
+        <v>7</v>
+      </c>
+      <c r="P9">
+        <v>0.265625</v>
+      </c>
+      <c r="Q9">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="R9">
+        <f t="shared" si="1"/>
+        <v>73.4375</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="O10">
+        <v>8</v>
+      </c>
+      <c r="P10">
+        <v>0.265625</v>
+      </c>
+      <c r="Q10">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="R10">
+        <f t="shared" si="1"/>
+        <v>73.4375</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="O11">
+        <v>9</v>
+      </c>
+      <c r="P11">
+        <v>0.296875</v>
+      </c>
+      <c r="Q11">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="R11">
+        <f t="shared" si="1"/>
+        <v>70.3125</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="O12">
+        <v>10</v>
+      </c>
+      <c r="P12">
+        <v>0.296875</v>
+      </c>
+      <c r="Q12">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="R12">
+        <f t="shared" si="1"/>
+        <v>70.3125</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="O13">
+        <v>11</v>
+      </c>
+      <c r="P13">
+        <v>0.203125</v>
+      </c>
+      <c r="Q13">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="R13">
+        <f t="shared" si="1"/>
+        <v>79.6875</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="O14">
+        <v>12</v>
+      </c>
+      <c r="P14">
+        <v>0.171875</v>
+      </c>
+      <c r="Q14">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="R14">
+        <f t="shared" si="1"/>
+        <v>82.8125</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="O15">
+        <v>13</v>
+      </c>
+      <c r="P15">
+        <v>0.234375</v>
+      </c>
+      <c r="Q15">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="R15">
+        <f t="shared" si="1"/>
+        <v>76.5625</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="O16">
+        <v>14</v>
+      </c>
+      <c r="P16">
+        <v>0.109375</v>
+      </c>
+      <c r="Q16">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="R16">
+        <f t="shared" si="1"/>
+        <v>89.0625</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="O17">
+        <v>15</v>
+      </c>
+      <c r="P17">
+        <v>0.15625</v>
+      </c>
+      <c r="Q17">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="R17">
+        <f t="shared" si="1"/>
+        <v>84.375</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="O18">
+        <v>16</v>
+      </c>
+      <c r="P18">
+        <v>0.140625</v>
+      </c>
+      <c r="Q18">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="R18">
+        <f t="shared" si="1"/>
+        <v>85.9375</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="O19">
+        <v>17</v>
+      </c>
+      <c r="P19">
+        <v>0.21875</v>
+      </c>
+      <c r="Q19">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="R19">
+        <f t="shared" si="1"/>
+        <v>78.125</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A20" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
+      <c r="O20">
+        <v>18</v>
+      </c>
+      <c r="P20">
+        <v>0.203125</v>
+      </c>
+      <c r="Q20">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="R20">
+        <f t="shared" si="1"/>
+        <v>79.6875</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="O21">
+        <v>19</v>
+      </c>
+      <c r="P21">
+        <v>9.375E-2</v>
+      </c>
+      <c r="Q21">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="R21">
+        <f t="shared" si="1"/>
+        <v>90.625</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="O22">
+        <v>20</v>
+      </c>
+      <c r="P22">
+        <v>0.15625</v>
+      </c>
+      <c r="Q22">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="R22">
+        <f t="shared" si="1"/>
+        <v>84.375</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="O23">
+        <v>21</v>
+      </c>
+      <c r="P23">
+        <v>0.15625</v>
+      </c>
+      <c r="Q23">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="R23">
+        <f t="shared" si="1"/>
+        <v>84.375</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="O24">
+        <v>22</v>
+      </c>
+      <c r="P24">
+        <v>0.1875</v>
+      </c>
+      <c r="Q24">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="R24">
+        <f t="shared" si="1"/>
+        <v>81.25</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="O25">
+        <v>23</v>
+      </c>
+      <c r="P25">
+        <v>0.125</v>
+      </c>
+      <c r="Q25">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="R25">
+        <f t="shared" si="1"/>
+        <v>87.5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="O26">
+        <v>24</v>
+      </c>
+      <c r="P26">
+        <v>0.140625</v>
+      </c>
+      <c r="Q26">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="R26">
+        <f t="shared" si="1"/>
+        <v>85.9375</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="O27">
+        <v>25</v>
+      </c>
+      <c r="P27">
+        <v>0.1875</v>
+      </c>
+      <c r="Q27">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+      <c r="R27">
+        <f t="shared" si="1"/>
+        <v>81.25</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="O28">
+        <v>26</v>
+      </c>
+      <c r="P28">
+        <v>0.171875</v>
+      </c>
+      <c r="Q28">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+      <c r="R28">
+        <f t="shared" si="1"/>
+        <v>82.8125</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="O29">
+        <v>27</v>
+      </c>
+      <c r="P29">
+        <v>0.140625</v>
+      </c>
+      <c r="Q29">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+      <c r="R29">
+        <f t="shared" si="1"/>
+        <v>85.9375</v>
+      </c>
+    </row>
+    <row r="30" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="O30">
+        <v>28</v>
+      </c>
+      <c r="P30">
+        <v>0.140625</v>
+      </c>
+      <c r="Q30">
+        <f t="shared" si="0"/>
+        <v>29</v>
+      </c>
+      <c r="R30">
+        <f t="shared" si="1"/>
+        <v>85.9375</v>
+      </c>
+    </row>
+    <row r="31" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="O31">
+        <v>29</v>
+      </c>
+      <c r="P31">
+        <v>0.140625</v>
+      </c>
+      <c r="Q31">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="R31">
+        <f t="shared" si="1"/>
+        <v>85.9375</v>
+      </c>
+    </row>
+    <row r="32" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="O32">
+        <v>30</v>
+      </c>
+      <c r="P32">
+        <v>0.140625</v>
+      </c>
+      <c r="Q32">
+        <f t="shared" si="0"/>
+        <v>31</v>
+      </c>
+      <c r="R32">
+        <f t="shared" si="1"/>
+        <v>85.9375</v>
+      </c>
+    </row>
+    <row r="33" spans="15:18" x14ac:dyDescent="0.45">
+      <c r="O33">
+        <v>31</v>
+      </c>
+      <c r="P33">
+        <v>0.171875</v>
+      </c>
+      <c r="Q33">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+      <c r="R33">
+        <f t="shared" si="1"/>
+        <v>82.8125</v>
+      </c>
+    </row>
+    <row r="34" spans="15:18" x14ac:dyDescent="0.45">
+      <c r="O34">
+        <v>32</v>
+      </c>
+      <c r="P34">
+        <v>0.171875</v>
+      </c>
+      <c r="Q34">
+        <f t="shared" si="0"/>
+        <v>33</v>
+      </c>
+      <c r="R34">
+        <f t="shared" si="1"/>
+        <v>82.8125</v>
+      </c>
+    </row>
+    <row r="35" spans="15:18" x14ac:dyDescent="0.45">
+      <c r="O35">
+        <v>33</v>
+      </c>
+      <c r="P35">
+        <v>0.171875</v>
+      </c>
+      <c r="Q35">
+        <f t="shared" si="0"/>
+        <v>34</v>
+      </c>
+      <c r="R35">
+        <f t="shared" si="1"/>
+        <v>82.8125</v>
+      </c>
+    </row>
+    <row r="36" spans="15:18" x14ac:dyDescent="0.45">
+      <c r="O36">
+        <v>34</v>
+      </c>
+      <c r="P36">
+        <v>0.15625</v>
+      </c>
+      <c r="Q36">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+      <c r="R36">
+        <f t="shared" si="1"/>
+        <v>84.375</v>
+      </c>
+    </row>
+    <row r="37" spans="15:18" x14ac:dyDescent="0.45">
+      <c r="O37">
+        <v>35</v>
+      </c>
+      <c r="P37">
+        <v>0.15625</v>
+      </c>
+      <c r="Q37">
+        <f t="shared" si="0"/>
+        <v>36</v>
+      </c>
+      <c r="R37">
+        <f t="shared" si="1"/>
+        <v>84.375</v>
+      </c>
+    </row>
+    <row r="38" spans="15:18" x14ac:dyDescent="0.45">
+      <c r="O38">
+        <v>36</v>
+      </c>
+      <c r="P38">
+        <v>0.125</v>
+      </c>
+      <c r="Q38">
+        <f t="shared" si="0"/>
+        <v>37</v>
+      </c>
+      <c r="R38">
+        <f t="shared" si="1"/>
+        <v>87.5</v>
+      </c>
+    </row>
+    <row r="39" spans="15:18" x14ac:dyDescent="0.45">
+      <c r="O39">
+        <v>37</v>
+      </c>
+      <c r="P39">
+        <v>0.109375</v>
+      </c>
+      <c r="Q39">
+        <f t="shared" si="0"/>
+        <v>38</v>
+      </c>
+      <c r="R39">
+        <f t="shared" si="1"/>
+        <v>89.0625</v>
+      </c>
+    </row>
+    <row r="40" spans="15:18" x14ac:dyDescent="0.45">
+      <c r="O40">
+        <v>38</v>
+      </c>
+      <c r="P40">
+        <v>9.375E-2</v>
+      </c>
+      <c r="Q40">
+        <f t="shared" si="0"/>
+        <v>39</v>
+      </c>
+      <c r="R40">
+        <f t="shared" si="1"/>
+        <v>90.625</v>
+      </c>
+    </row>
+    <row r="41" spans="15:18" x14ac:dyDescent="0.45">
+      <c r="O41">
+        <v>39</v>
+      </c>
+      <c r="P41">
+        <v>0.140625</v>
+      </c>
+      <c r="Q41">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="R41">
+        <f t="shared" si="1"/>
+        <v>85.9375</v>
+      </c>
+    </row>
+    <row r="42" spans="15:18" x14ac:dyDescent="0.45">
+      <c r="O42">
+        <v>40</v>
+      </c>
+      <c r="P42">
+        <v>0.125</v>
+      </c>
+      <c r="Q42">
+        <f t="shared" si="0"/>
+        <v>41</v>
+      </c>
+      <c r="R42">
+        <f t="shared" si="1"/>
+        <v>87.5</v>
+      </c>
+    </row>
+    <row r="43" spans="15:18" x14ac:dyDescent="0.45">
+      <c r="O43">
+        <v>41</v>
+      </c>
+      <c r="P43">
+        <v>0.15625</v>
+      </c>
+      <c r="Q43">
+        <f t="shared" si="0"/>
+        <v>42</v>
+      </c>
+      <c r="R43">
+        <f t="shared" si="1"/>
+        <v>84.375</v>
+      </c>
+    </row>
+    <row r="44" spans="15:18" x14ac:dyDescent="0.45">
+      <c r="O44">
+        <v>42</v>
+      </c>
+      <c r="P44">
+        <v>0.15625</v>
+      </c>
+      <c r="Q44">
+        <f t="shared" si="0"/>
+        <v>43</v>
+      </c>
+      <c r="R44">
+        <f t="shared" si="1"/>
+        <v>84.375</v>
+      </c>
+    </row>
+    <row r="45" spans="15:18" x14ac:dyDescent="0.45">
+      <c r="O45">
+        <v>43</v>
+      </c>
+      <c r="P45">
+        <v>0.15625</v>
+      </c>
+      <c r="Q45">
+        <f t="shared" si="0"/>
+        <v>44</v>
+      </c>
+      <c r="R45">
+        <f t="shared" si="1"/>
+        <v>84.375</v>
+      </c>
+    </row>
+    <row r="46" spans="15:18" x14ac:dyDescent="0.45">
+      <c r="O46">
+        <v>44</v>
+      </c>
+      <c r="P46">
+        <v>0.109375</v>
+      </c>
+      <c r="Q46">
+        <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+      <c r="R46">
+        <f t="shared" si="1"/>
+        <v>89.0625</v>
+      </c>
+    </row>
+    <row r="47" spans="15:18" x14ac:dyDescent="0.45">
+      <c r="O47">
+        <v>45</v>
+      </c>
+      <c r="P47">
+        <v>0.125</v>
+      </c>
+      <c r="Q47">
+        <f t="shared" si="0"/>
+        <v>46</v>
+      </c>
+      <c r="R47">
+        <f t="shared" si="1"/>
+        <v>87.5</v>
+      </c>
+    </row>
+    <row r="48" spans="15:18" x14ac:dyDescent="0.45">
+      <c r="O48">
+        <v>46</v>
+      </c>
+      <c r="P48">
+        <v>0.125</v>
+      </c>
+      <c r="Q48">
+        <f t="shared" si="0"/>
+        <v>47</v>
+      </c>
+      <c r="R48">
+        <f t="shared" si="1"/>
+        <v>87.5</v>
+      </c>
+    </row>
+    <row r="49" spans="15:18" x14ac:dyDescent="0.45">
+      <c r="O49">
+        <v>47</v>
+      </c>
+      <c r="P49">
+        <v>7.8125E-2</v>
+      </c>
+      <c r="Q49">
+        <f t="shared" si="0"/>
+        <v>48</v>
+      </c>
+      <c r="R49">
+        <f t="shared" si="1"/>
+        <v>92.1875</v>
+      </c>
+    </row>
+    <row r="50" spans="15:18" x14ac:dyDescent="0.45">
+      <c r="O50">
+        <v>48</v>
+      </c>
+      <c r="P50">
+        <v>0.125</v>
+      </c>
+      <c r="Q50">
+        <f t="shared" si="0"/>
+        <v>49</v>
+      </c>
+      <c r="R50">
+        <f t="shared" si="1"/>
+        <v>87.5</v>
+      </c>
+    </row>
+    <row r="51" spans="15:18" x14ac:dyDescent="0.45">
+      <c r="O51">
+        <v>49</v>
+      </c>
+      <c r="P51">
+        <v>0.125</v>
+      </c>
+      <c r="Q51">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+      <c r="R51">
+        <f t="shared" si="1"/>
+        <v>87.5</v>
+      </c>
+    </row>
+    <row r="52" spans="15:18" x14ac:dyDescent="0.45">
+      <c r="O52">
+        <v>50</v>
+      </c>
+      <c r="P52">
+        <v>7.8125E-2</v>
+      </c>
+      <c r="Q52">
+        <f t="shared" si="0"/>
+        <v>51</v>
+      </c>
+      <c r="R52">
+        <f t="shared" si="1"/>
+        <v>92.1875</v>
+      </c>
+    </row>
+    <row r="53" spans="15:18" x14ac:dyDescent="0.45">
+      <c r="O53">
+        <v>51</v>
+      </c>
+      <c r="P53">
+        <v>0.125</v>
+      </c>
+      <c r="Q53">
+        <f t="shared" si="0"/>
+        <v>52</v>
+      </c>
+      <c r="R53">
+        <f t="shared" si="1"/>
+        <v>87.5</v>
+      </c>
+    </row>
+    <row r="54" spans="15:18" x14ac:dyDescent="0.45">
+      <c r="O54">
+        <v>52</v>
+      </c>
+      <c r="P54">
+        <v>0.15625</v>
+      </c>
+      <c r="Q54">
+        <f t="shared" si="0"/>
+        <v>53</v>
+      </c>
+      <c r="R54">
+        <f t="shared" si="1"/>
+        <v>84.375</v>
+      </c>
+    </row>
+    <row r="55" spans="15:18" x14ac:dyDescent="0.45">
+      <c r="O55">
+        <v>53</v>
+      </c>
+      <c r="P55">
+        <v>9.375E-2</v>
+      </c>
+      <c r="Q55">
+        <f t="shared" si="0"/>
+        <v>54</v>
+      </c>
+      <c r="R55">
+        <f t="shared" si="1"/>
+        <v>90.625</v>
+      </c>
+    </row>
+    <row r="56" spans="15:18" x14ac:dyDescent="0.45">
+      <c r="O56">
+        <v>54</v>
+      </c>
+      <c r="P56">
+        <v>7.8125E-2</v>
+      </c>
+      <c r="Q56">
+        <f t="shared" si="0"/>
+        <v>55</v>
+      </c>
+      <c r="R56">
+        <f t="shared" si="1"/>
+        <v>92.1875</v>
+      </c>
+    </row>
+    <row r="57" spans="15:18" x14ac:dyDescent="0.45">
+      <c r="O57">
+        <v>55</v>
+      </c>
+      <c r="P57">
+        <v>0.109375</v>
+      </c>
+      <c r="Q57">
+        <f t="shared" si="0"/>
+        <v>56</v>
+      </c>
+      <c r="R57">
+        <f t="shared" si="1"/>
+        <v>89.0625</v>
+      </c>
+    </row>
+    <row r="58" spans="15:18" x14ac:dyDescent="0.45">
+      <c r="O58">
+        <v>56</v>
+      </c>
+      <c r="P58">
+        <v>0.109375</v>
+      </c>
+      <c r="Q58">
+        <f t="shared" si="0"/>
+        <v>57</v>
+      </c>
+      <c r="R58">
+        <f t="shared" si="1"/>
+        <v>89.0625</v>
+      </c>
+    </row>
+    <row r="59" spans="15:18" x14ac:dyDescent="0.45">
+      <c r="O59">
+        <v>57</v>
+      </c>
+      <c r="P59">
+        <v>0.125</v>
+      </c>
+      <c r="Q59">
+        <f t="shared" si="0"/>
+        <v>58</v>
+      </c>
+      <c r="R59">
+        <f t="shared" si="1"/>
+        <v>87.5</v>
+      </c>
+    </row>
+    <row r="60" spans="15:18" x14ac:dyDescent="0.45">
+      <c r="O60">
+        <v>58</v>
+      </c>
+      <c r="P60">
+        <v>0.1875</v>
+      </c>
+      <c r="Q60">
+        <f t="shared" si="0"/>
+        <v>59</v>
+      </c>
+      <c r="R60">
+        <f t="shared" si="1"/>
+        <v>81.25</v>
+      </c>
+    </row>
+    <row r="61" spans="15:18" x14ac:dyDescent="0.45">
+      <c r="O61">
+        <v>59</v>
+      </c>
+      <c r="P61">
+        <v>9.375E-2</v>
+      </c>
+      <c r="Q61">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+      <c r="R61">
+        <f t="shared" si="1"/>
+        <v>90.625</v>
+      </c>
+    </row>
+    <row r="62" spans="15:18" x14ac:dyDescent="0.45">
+      <c r="O62">
+        <v>60</v>
+      </c>
+      <c r="P62">
+        <v>9.375E-2</v>
+      </c>
+      <c r="Q62">
+        <f t="shared" si="0"/>
+        <v>61</v>
+      </c>
+      <c r="R62">
+        <f t="shared" si="1"/>
+        <v>90.625</v>
+      </c>
+    </row>
+    <row r="63" spans="15:18" x14ac:dyDescent="0.45">
+      <c r="O63">
+        <v>61</v>
+      </c>
+      <c r="P63">
+        <v>0.125</v>
+      </c>
+      <c r="Q63">
+        <f t="shared" si="0"/>
+        <v>62</v>
+      </c>
+      <c r="R63">
+        <f t="shared" si="1"/>
+        <v>87.5</v>
+      </c>
+    </row>
+    <row r="64" spans="15:18" x14ac:dyDescent="0.45">
+      <c r="O64">
+        <v>62</v>
+      </c>
+      <c r="P64">
+        <v>9.375E-2</v>
+      </c>
+      <c r="Q64">
+        <f t="shared" si="0"/>
+        <v>63</v>
+      </c>
+      <c r="R64">
+        <f t="shared" si="1"/>
+        <v>90.625</v>
+      </c>
+    </row>
+    <row r="65" spans="15:18" x14ac:dyDescent="0.45">
+      <c r="O65">
+        <v>63</v>
+      </c>
+      <c r="P65">
+        <v>7.8125E-2</v>
+      </c>
+      <c r="Q65">
+        <f t="shared" si="0"/>
+        <v>64</v>
+      </c>
+      <c r="R65">
+        <f t="shared" si="1"/>
+        <v>92.1875</v>
+      </c>
+    </row>
+    <row r="66" spans="15:18" x14ac:dyDescent="0.45">
+      <c r="O66">
+        <v>64</v>
+      </c>
+      <c r="P66">
+        <v>0.125</v>
+      </c>
+      <c r="Q66">
+        <f t="shared" si="0"/>
+        <v>65</v>
+      </c>
+      <c r="R66">
+        <f t="shared" si="1"/>
+        <v>87.5</v>
+      </c>
+    </row>
+    <row r="67" spans="15:18" x14ac:dyDescent="0.45">
+      <c r="O67">
+        <v>65</v>
+      </c>
+      <c r="P67">
+        <v>0.109375</v>
+      </c>
+      <c r="Q67">
+        <f t="shared" ref="Q67:Q101" si="2" xml:space="preserve"> 1+O67</f>
+        <v>66</v>
+      </c>
+      <c r="R67">
+        <f t="shared" ref="R67:R101" si="3" xml:space="preserve"> (1-P67)*100</f>
+        <v>89.0625</v>
+      </c>
+    </row>
+    <row r="68" spans="15:18" x14ac:dyDescent="0.45">
+      <c r="O68">
+        <v>66</v>
+      </c>
+      <c r="P68">
+        <v>0.125</v>
+      </c>
+      <c r="Q68">
+        <f t="shared" si="2"/>
+        <v>67</v>
+      </c>
+      <c r="R68">
+        <f t="shared" si="3"/>
+        <v>87.5</v>
+      </c>
+    </row>
+    <row r="69" spans="15:18" x14ac:dyDescent="0.45">
+      <c r="O69">
+        <v>67</v>
+      </c>
+      <c r="P69">
+        <v>9.375E-2</v>
+      </c>
+      <c r="Q69">
+        <f t="shared" si="2"/>
+        <v>68</v>
+      </c>
+      <c r="R69">
+        <f t="shared" si="3"/>
+        <v>90.625</v>
+      </c>
+    </row>
+    <row r="70" spans="15:18" x14ac:dyDescent="0.45">
+      <c r="O70">
+        <v>68</v>
+      </c>
+      <c r="P70">
+        <v>0.125</v>
+      </c>
+      <c r="Q70">
+        <f t="shared" si="2"/>
+        <v>69</v>
+      </c>
+      <c r="R70">
+        <f t="shared" si="3"/>
+        <v>87.5</v>
+      </c>
+    </row>
+    <row r="71" spans="15:18" x14ac:dyDescent="0.45">
+      <c r="O71">
+        <v>69</v>
+      </c>
+      <c r="P71">
+        <v>0.109375</v>
+      </c>
+      <c r="Q71">
+        <f t="shared" si="2"/>
+        <v>70</v>
+      </c>
+      <c r="R71">
+        <f t="shared" si="3"/>
+        <v>89.0625</v>
+      </c>
+    </row>
+    <row r="72" spans="15:18" x14ac:dyDescent="0.45">
+      <c r="O72">
+        <v>70</v>
+      </c>
+      <c r="P72">
+        <v>0.125</v>
+      </c>
+      <c r="Q72">
+        <f t="shared" si="2"/>
+        <v>71</v>
+      </c>
+      <c r="R72">
+        <f t="shared" si="3"/>
+        <v>87.5</v>
+      </c>
+    </row>
+    <row r="73" spans="15:18" x14ac:dyDescent="0.45">
+      <c r="O73">
+        <v>71</v>
+      </c>
+      <c r="P73">
+        <v>0.125</v>
+      </c>
+      <c r="Q73">
+        <f t="shared" si="2"/>
+        <v>72</v>
+      </c>
+      <c r="R73">
+        <f t="shared" si="3"/>
+        <v>87.5</v>
+      </c>
+    </row>
+    <row r="74" spans="15:18" x14ac:dyDescent="0.45">
+      <c r="O74">
+        <v>72</v>
+      </c>
+      <c r="P74">
+        <v>0.125</v>
+      </c>
+      <c r="Q74">
+        <f t="shared" si="2"/>
+        <v>73</v>
+      </c>
+      <c r="R74">
+        <f t="shared" si="3"/>
+        <v>87.5</v>
+      </c>
+    </row>
+    <row r="75" spans="15:18" x14ac:dyDescent="0.45">
+      <c r="O75">
+        <v>73</v>
+      </c>
+      <c r="P75">
+        <v>0.171875</v>
+      </c>
+      <c r="Q75">
+        <f t="shared" si="2"/>
+        <v>74</v>
+      </c>
+      <c r="R75">
+        <f t="shared" si="3"/>
+        <v>82.8125</v>
+      </c>
+    </row>
+    <row r="76" spans="15:18" x14ac:dyDescent="0.45">
+      <c r="O76">
+        <v>74</v>
+      </c>
+      <c r="P76">
+        <v>0.15625</v>
+      </c>
+      <c r="Q76">
+        <f t="shared" si="2"/>
+        <v>75</v>
+      </c>
+      <c r="R76">
+        <f t="shared" si="3"/>
+        <v>84.375</v>
+      </c>
+    </row>
+    <row r="77" spans="15:18" x14ac:dyDescent="0.45">
+      <c r="O77">
+        <v>75</v>
+      </c>
+      <c r="P77">
+        <v>0.125</v>
+      </c>
+      <c r="Q77">
+        <f t="shared" si="2"/>
+        <v>76</v>
+      </c>
+      <c r="R77">
+        <f t="shared" si="3"/>
+        <v>87.5</v>
+      </c>
+    </row>
+    <row r="78" spans="15:18" x14ac:dyDescent="0.45">
+      <c r="O78">
+        <v>76</v>
+      </c>
+      <c r="P78">
+        <v>0.125</v>
+      </c>
+      <c r="Q78">
+        <f t="shared" si="2"/>
+        <v>77</v>
+      </c>
+      <c r="R78">
+        <f t="shared" si="3"/>
+        <v>87.5</v>
+      </c>
+    </row>
+    <row r="79" spans="15:18" x14ac:dyDescent="0.45">
+      <c r="O79">
+        <v>77</v>
+      </c>
+      <c r="P79">
+        <v>0.140625</v>
+      </c>
+      <c r="Q79">
+        <f t="shared" si="2"/>
+        <v>78</v>
+      </c>
+      <c r="R79">
+        <f t="shared" si="3"/>
+        <v>85.9375</v>
+      </c>
+    </row>
+    <row r="80" spans="15:18" x14ac:dyDescent="0.45">
+      <c r="O80">
+        <v>78</v>
+      </c>
+      <c r="P80">
+        <v>0.125</v>
+      </c>
+      <c r="Q80">
+        <f t="shared" si="2"/>
+        <v>79</v>
+      </c>
+      <c r="R80">
+        <f t="shared" si="3"/>
+        <v>87.5</v>
+      </c>
+    </row>
+    <row r="81" spans="15:18" x14ac:dyDescent="0.45">
+      <c r="O81">
+        <v>79</v>
+      </c>
+      <c r="P81">
+        <v>0.109375</v>
+      </c>
+      <c r="Q81">
+        <f t="shared" si="2"/>
+        <v>80</v>
+      </c>
+      <c r="R81">
+        <f t="shared" si="3"/>
+        <v>89.0625</v>
+      </c>
+    </row>
+    <row r="82" spans="15:18" x14ac:dyDescent="0.45">
+      <c r="O82">
+        <v>80</v>
+      </c>
+      <c r="P82">
+        <v>0.125</v>
+      </c>
+      <c r="Q82">
+        <f t="shared" si="2"/>
+        <v>81</v>
+      </c>
+      <c r="R82">
+        <f t="shared" si="3"/>
+        <v>87.5</v>
+      </c>
+    </row>
+    <row r="83" spans="15:18" x14ac:dyDescent="0.45">
+      <c r="O83">
+        <v>81</v>
+      </c>
+      <c r="P83">
+        <v>0.125</v>
+      </c>
+      <c r="Q83">
+        <f t="shared" si="2"/>
+        <v>82</v>
+      </c>
+      <c r="R83">
+        <f t="shared" si="3"/>
+        <v>87.5</v>
+      </c>
+    </row>
+    <row r="84" spans="15:18" x14ac:dyDescent="0.45">
+      <c r="O84">
+        <v>82</v>
+      </c>
+      <c r="P84">
+        <v>0.125</v>
+      </c>
+      <c r="Q84">
+        <f t="shared" si="2"/>
+        <v>83</v>
+      </c>
+      <c r="R84">
+        <f t="shared" si="3"/>
+        <v>87.5</v>
+      </c>
+    </row>
+    <row r="85" spans="15:18" x14ac:dyDescent="0.45">
+      <c r="O85">
+        <v>83</v>
+      </c>
+      <c r="P85">
+        <v>0.125</v>
+      </c>
+      <c r="Q85">
+        <f t="shared" si="2"/>
+        <v>84</v>
+      </c>
+      <c r="R85">
+        <f t="shared" si="3"/>
+        <v>87.5</v>
+      </c>
+    </row>
+    <row r="86" spans="15:18" x14ac:dyDescent="0.45">
+      <c r="O86">
+        <v>84</v>
+      </c>
+      <c r="P86">
+        <v>0.125</v>
+      </c>
+      <c r="Q86">
+        <f t="shared" si="2"/>
+        <v>85</v>
+      </c>
+      <c r="R86">
+        <f t="shared" si="3"/>
+        <v>87.5</v>
+      </c>
+    </row>
+    <row r="87" spans="15:18" x14ac:dyDescent="0.45">
+      <c r="O87">
+        <v>85</v>
+      </c>
+      <c r="P87">
+        <v>0.125</v>
+      </c>
+      <c r="Q87">
+        <f t="shared" si="2"/>
+        <v>86</v>
+      </c>
+      <c r="R87">
+        <f t="shared" si="3"/>
+        <v>87.5</v>
+      </c>
+    </row>
+    <row r="88" spans="15:18" x14ac:dyDescent="0.45">
+      <c r="O88">
+        <v>86</v>
+      </c>
+      <c r="P88">
+        <v>0.109375</v>
+      </c>
+      <c r="Q88">
+        <f t="shared" si="2"/>
+        <v>87</v>
+      </c>
+      <c r="R88">
+        <f t="shared" si="3"/>
+        <v>89.0625</v>
+      </c>
+    </row>
+    <row r="89" spans="15:18" x14ac:dyDescent="0.45">
+      <c r="O89">
+        <v>87</v>
+      </c>
+      <c r="P89">
+        <v>0.109375</v>
+      </c>
+      <c r="Q89">
+        <f t="shared" si="2"/>
+        <v>88</v>
+      </c>
+      <c r="R89">
+        <f t="shared" si="3"/>
+        <v>89.0625</v>
+      </c>
+    </row>
+    <row r="90" spans="15:18" x14ac:dyDescent="0.45">
+      <c r="O90">
+        <v>88</v>
+      </c>
+      <c r="P90">
+        <v>9.375E-2</v>
+      </c>
+      <c r="Q90">
+        <f t="shared" si="2"/>
+        <v>89</v>
+      </c>
+      <c r="R90">
+        <f t="shared" si="3"/>
+        <v>90.625</v>
+      </c>
+    </row>
+    <row r="91" spans="15:18" x14ac:dyDescent="0.45">
+      <c r="O91">
+        <v>89</v>
+      </c>
+      <c r="P91">
+        <v>9.375E-2</v>
+      </c>
+      <c r="Q91">
+        <f t="shared" si="2"/>
+        <v>90</v>
+      </c>
+      <c r="R91">
+        <f t="shared" si="3"/>
+        <v>90.625</v>
+      </c>
+    </row>
+    <row r="92" spans="15:18" x14ac:dyDescent="0.45">
+      <c r="O92">
+        <v>90</v>
+      </c>
+      <c r="P92">
+        <v>9.375E-2</v>
+      </c>
+      <c r="Q92">
+        <f t="shared" si="2"/>
+        <v>91</v>
+      </c>
+      <c r="R92">
+        <f t="shared" si="3"/>
+        <v>90.625</v>
+      </c>
+    </row>
+    <row r="93" spans="15:18" x14ac:dyDescent="0.45">
+      <c r="O93">
+        <v>91</v>
+      </c>
+      <c r="P93">
+        <v>9.375E-2</v>
+      </c>
+      <c r="Q93">
+        <f t="shared" si="2"/>
+        <v>92</v>
+      </c>
+      <c r="R93">
+        <f t="shared" si="3"/>
+        <v>90.625</v>
+      </c>
+    </row>
+    <row r="94" spans="15:18" x14ac:dyDescent="0.45">
+      <c r="O94">
+        <v>92</v>
+      </c>
+      <c r="P94">
+        <v>9.375E-2</v>
+      </c>
+      <c r="Q94">
+        <f t="shared" si="2"/>
+        <v>93</v>
+      </c>
+      <c r="R94">
+        <f t="shared" si="3"/>
+        <v>90.625</v>
+      </c>
+    </row>
+    <row r="95" spans="15:18" x14ac:dyDescent="0.45">
+      <c r="O95">
+        <v>93</v>
+      </c>
+      <c r="P95">
+        <v>0.125</v>
+      </c>
+      <c r="Q95">
+        <f t="shared" si="2"/>
+        <v>94</v>
+      </c>
+      <c r="R95">
+        <f t="shared" si="3"/>
+        <v>87.5</v>
+      </c>
+    </row>
+    <row r="96" spans="15:18" x14ac:dyDescent="0.45">
+      <c r="O96">
+        <v>94</v>
+      </c>
+      <c r="P96">
+        <v>0.109375</v>
+      </c>
+      <c r="Q96">
+        <f t="shared" si="2"/>
+        <v>95</v>
+      </c>
+      <c r="R96">
+        <f t="shared" si="3"/>
+        <v>89.0625</v>
+      </c>
+    </row>
+    <row r="97" spans="15:18" x14ac:dyDescent="0.45">
+      <c r="O97">
+        <v>95</v>
+      </c>
+      <c r="P97">
+        <v>0.109375</v>
+      </c>
+      <c r="Q97">
+        <f t="shared" si="2"/>
+        <v>96</v>
+      </c>
+      <c r="R97">
+        <f t="shared" si="3"/>
+        <v>89.0625</v>
+      </c>
+    </row>
+    <row r="98" spans="15:18" x14ac:dyDescent="0.45">
+      <c r="O98">
+        <v>96</v>
+      </c>
+      <c r="P98">
+        <v>0.109375</v>
+      </c>
+      <c r="Q98">
+        <f t="shared" si="2"/>
+        <v>97</v>
+      </c>
+      <c r="R98">
+        <f t="shared" si="3"/>
+        <v>89.0625</v>
+      </c>
+    </row>
+    <row r="99" spans="15:18" x14ac:dyDescent="0.45">
+      <c r="O99">
+        <v>97</v>
+      </c>
+      <c r="P99">
+        <v>0.109375</v>
+      </c>
+      <c r="Q99">
+        <f t="shared" si="2"/>
+        <v>98</v>
+      </c>
+      <c r="R99">
+        <f t="shared" si="3"/>
+        <v>89.0625</v>
+      </c>
+    </row>
+    <row r="100" spans="15:18" x14ac:dyDescent="0.45">
+      <c r="O100">
+        <v>98</v>
+      </c>
+      <c r="P100">
+        <v>0.109375</v>
+      </c>
+      <c r="Q100">
+        <f t="shared" si="2"/>
+        <v>99</v>
+      </c>
+      <c r="R100">
+        <f t="shared" si="3"/>
+        <v>89.0625</v>
+      </c>
+    </row>
+    <row r="101" spans="15:18" x14ac:dyDescent="0.45">
+      <c r="O101">
+        <v>99</v>
+      </c>
+      <c r="P101">
+        <v>0.109375</v>
+      </c>
+      <c r="Q101">
+        <f t="shared" si="2"/>
+        <v>100</v>
+      </c>
+      <c r="R101">
+        <f t="shared" si="3"/>
+        <v>89.0625</v>
+      </c>
+    </row>
+    <row r="102" spans="15:18" x14ac:dyDescent="0.45">
+      <c r="O102" t="s">
+        <v>28</v>
+      </c>
+      <c r="P102">
+        <v>0.109375</v>
+      </c>
+    </row>
+    <row r="103" spans="15:18" x14ac:dyDescent="0.45">
+      <c r="O103" t="s">
+        <v>28</v>
+      </c>
+      <c r="P103">
+        <v>9.375E-2</v>
+      </c>
+    </row>
+    <row r="104" spans="15:18" x14ac:dyDescent="0.45">
+      <c r="O104" t="s">
+        <v>28</v>
+      </c>
+      <c r="P104">
+        <v>9.375E-2</v>
+      </c>
+    </row>
+    <row r="105" spans="15:18" x14ac:dyDescent="0.45">
+      <c r="O105" t="s">
+        <v>28</v>
+      </c>
+      <c r="P105">
+        <v>0.109375</v>
+      </c>
+    </row>
+    <row r="106" spans="15:18" x14ac:dyDescent="0.45">
+      <c r="O106" t="s">
+        <v>28</v>
+      </c>
+      <c r="P106">
+        <v>0.140625</v>
+      </c>
+    </row>
+    <row r="107" spans="15:18" x14ac:dyDescent="0.45">
+      <c r="O107" t="s">
+        <v>28</v>
+      </c>
+      <c r="P107">
+        <v>9.375E-2</v>
+      </c>
+    </row>
+    <row r="108" spans="15:18" x14ac:dyDescent="0.45">
+      <c r="O108" t="s">
+        <v>28</v>
+      </c>
+      <c r="P108">
+        <v>0.109375</v>
+      </c>
+    </row>
+    <row r="109" spans="15:18" x14ac:dyDescent="0.45">
+      <c r="O109" t="s">
+        <v>28</v>
+      </c>
+      <c r="P109">
+        <v>0.109375</v>
+      </c>
+    </row>
+    <row r="110" spans="15:18" x14ac:dyDescent="0.45">
+      <c r="O110" t="s">
+        <v>28</v>
+      </c>
+      <c r="P110">
+        <v>6.25E-2</v>
+      </c>
+    </row>
+    <row r="111" spans="15:18" x14ac:dyDescent="0.45">
+      <c r="O111" t="s">
+        <v>28</v>
+      </c>
+      <c r="P111">
+        <v>0.15625</v>
+      </c>
+    </row>
+    <row r="112" spans="15:18" x14ac:dyDescent="0.45">
+      <c r="O112" t="s">
+        <v>28</v>
+      </c>
+      <c r="P112">
+        <v>4.6875E-2</v>
+      </c>
+    </row>
+    <row r="113" spans="15:16" x14ac:dyDescent="0.45">
+      <c r="O113" t="s">
+        <v>28</v>
+      </c>
+      <c r="P113">
+        <v>7.8125E-2</v>
+      </c>
+    </row>
+    <row r="114" spans="15:16" x14ac:dyDescent="0.45">
+      <c r="O114" t="s">
+        <v>28</v>
+      </c>
+      <c r="P114">
+        <v>9.375E-2</v>
+      </c>
+    </row>
+    <row r="115" spans="15:16" x14ac:dyDescent="0.45">
+      <c r="O115" t="s">
+        <v>28</v>
+      </c>
+      <c r="P115">
+        <v>4.6875E-2</v>
+      </c>
+    </row>
+    <row r="116" spans="15:16" x14ac:dyDescent="0.45">
+      <c r="O116" t="s">
+        <v>28</v>
+      </c>
+      <c r="P116">
+        <v>3.125E-2</v>
+      </c>
+    </row>
+    <row r="117" spans="15:16" x14ac:dyDescent="0.45">
+      <c r="O117" t="s">
+        <v>28</v>
+      </c>
+      <c r="P117">
+        <v>0.109375</v>
+      </c>
+    </row>
+    <row r="118" spans="15:16" x14ac:dyDescent="0.45">
+      <c r="O118" t="s">
+        <v>28</v>
+      </c>
+      <c r="P118">
+        <v>9.375E-2</v>
+      </c>
+    </row>
+    <row r="119" spans="15:16" x14ac:dyDescent="0.45">
+      <c r="O119" t="s">
+        <v>28</v>
+      </c>
+      <c r="P119">
+        <v>0.125</v>
+      </c>
+    </row>
+    <row r="120" spans="15:16" x14ac:dyDescent="0.45">
+      <c r="O120" t="s">
+        <v>28</v>
+      </c>
+      <c r="P120">
+        <v>7.8125E-2</v>
+      </c>
+    </row>
+    <row r="121" spans="15:16" x14ac:dyDescent="0.45">
+      <c r="O121" t="s">
+        <v>28</v>
+      </c>
+      <c r="P121">
+        <v>0.109375</v>
+      </c>
+    </row>
+    <row r="122" spans="15:16" x14ac:dyDescent="0.45">
+      <c r="O122" t="s">
+        <v>28</v>
+      </c>
+      <c r="P122">
+        <v>6.25E-2</v>
+      </c>
+    </row>
+    <row r="123" spans="15:16" x14ac:dyDescent="0.45">
+      <c r="O123" t="s">
+        <v>28</v>
+      </c>
+      <c r="P123">
+        <v>9.375E-2</v>
+      </c>
+    </row>
+    <row r="124" spans="15:16" x14ac:dyDescent="0.45">
+      <c r="O124" t="s">
+        <v>28</v>
+      </c>
+      <c r="P124">
+        <v>7.8125E-2</v>
+      </c>
+    </row>
+    <row r="125" spans="15:16" x14ac:dyDescent="0.45">
+      <c r="O125" t="s">
+        <v>28</v>
+      </c>
+      <c r="P125">
+        <v>7.8125E-2</v>
+      </c>
+    </row>
+    <row r="126" spans="15:16" x14ac:dyDescent="0.45">
+      <c r="O126" t="s">
+        <v>28</v>
+      </c>
+      <c r="P126">
+        <v>9.375E-2</v>
+      </c>
+    </row>
+    <row r="127" spans="15:16" x14ac:dyDescent="0.45">
+      <c r="O127" t="s">
+        <v>28</v>
+      </c>
+      <c r="P127">
+        <v>9.375E-2</v>
+      </c>
+    </row>
+    <row r="128" spans="15:16" x14ac:dyDescent="0.45">
+      <c r="O128" t="s">
+        <v>28</v>
+      </c>
+      <c r="P128">
+        <v>0.140625</v>
+      </c>
+    </row>
+    <row r="129" spans="15:16" x14ac:dyDescent="0.45">
+      <c r="O129" t="s">
+        <v>28</v>
+      </c>
+      <c r="P129">
+        <v>4.6875E-2</v>
+      </c>
+    </row>
+    <row r="130" spans="15:16" x14ac:dyDescent="0.45">
+      <c r="O130" t="s">
+        <v>28</v>
+      </c>
+      <c r="P130">
+        <v>0.171875</v>
+      </c>
+    </row>
+    <row r="131" spans="15:16" x14ac:dyDescent="0.45">
+      <c r="O131" t="s">
+        <v>28</v>
+      </c>
+      <c r="P131">
+        <v>7.8125E-2</v>
+      </c>
+    </row>
+    <row r="132" spans="15:16" x14ac:dyDescent="0.45">
+      <c r="O132" t="s">
+        <v>28</v>
+      </c>
+      <c r="P132">
+        <v>7.8125E-2</v>
+      </c>
+    </row>
+    <row r="133" spans="15:16" x14ac:dyDescent="0.45">
+      <c r="O133" t="s">
+        <v>28</v>
+      </c>
+      <c r="P133">
+        <v>6.25E-2</v>
+      </c>
+    </row>
+    <row r="134" spans="15:16" x14ac:dyDescent="0.45">
+      <c r="O134" t="s">
+        <v>28</v>
+      </c>
+      <c r="P134">
+        <v>0.109375</v>
+      </c>
+    </row>
+    <row r="135" spans="15:16" x14ac:dyDescent="0.45">
+      <c r="O135" t="s">
+        <v>28</v>
+      </c>
+      <c r="P135">
+        <v>7.8125E-2</v>
+      </c>
+    </row>
+    <row r="136" spans="15:16" x14ac:dyDescent="0.45">
+      <c r="O136" t="s">
+        <v>28</v>
+      </c>
+      <c r="P136">
+        <v>0.125</v>
+      </c>
+    </row>
+    <row r="137" spans="15:16" x14ac:dyDescent="0.45">
+      <c r="O137" t="s">
+        <v>28</v>
+      </c>
+      <c r="P137">
+        <v>0.140625</v>
+      </c>
+    </row>
+    <row r="138" spans="15:16" x14ac:dyDescent="0.45">
+      <c r="O138" t="s">
+        <v>28</v>
+      </c>
+      <c r="P138">
+        <v>4.6875E-2</v>
+      </c>
+    </row>
+    <row r="139" spans="15:16" x14ac:dyDescent="0.45">
+      <c r="O139" t="s">
+        <v>28</v>
+      </c>
+      <c r="P139">
+        <v>4.6875E-2</v>
+      </c>
+    </row>
+    <row r="140" spans="15:16" x14ac:dyDescent="0.45">
+      <c r="O140" t="s">
+        <v>28</v>
+      </c>
+      <c r="P140">
+        <v>0.109375</v>
+      </c>
+    </row>
+    <row r="141" spans="15:16" x14ac:dyDescent="0.45">
+      <c r="O141" t="s">
+        <v>28</v>
+      </c>
+      <c r="P141">
+        <v>3.125E-2</v>
+      </c>
+    </row>
+    <row r="142" spans="15:16" x14ac:dyDescent="0.45">
+      <c r="O142" t="s">
+        <v>28</v>
+      </c>
+      <c r="P142">
+        <v>0.140625</v>
+      </c>
+    </row>
+    <row r="143" spans="15:16" x14ac:dyDescent="0.45">
+      <c r="O143" t="s">
+        <v>28</v>
+      </c>
+      <c r="P143">
+        <v>9.375E-2</v>
+      </c>
+    </row>
+    <row r="144" spans="15:16" x14ac:dyDescent="0.45">
+      <c r="O144" t="s">
+        <v>28</v>
+      </c>
+      <c r="P144">
+        <v>4.6875E-2</v>
+      </c>
+    </row>
+    <row r="145" spans="15:16" x14ac:dyDescent="0.45">
+      <c r="O145" t="s">
+        <v>28</v>
+      </c>
+      <c r="P145">
+        <v>0.171875</v>
+      </c>
+    </row>
+    <row r="146" spans="15:16" x14ac:dyDescent="0.45">
+      <c r="O146" t="s">
+        <v>28</v>
+      </c>
+      <c r="P146">
+        <v>0.15625</v>
+      </c>
+    </row>
+    <row r="147" spans="15:16" x14ac:dyDescent="0.45">
+      <c r="O147" t="s">
+        <v>28</v>
+      </c>
+      <c r="P147">
+        <v>0.109375</v>
+      </c>
+    </row>
+    <row r="148" spans="15:16" x14ac:dyDescent="0.45">
+      <c r="O148" t="s">
+        <v>28</v>
+      </c>
+      <c r="P148">
+        <v>0.125</v>
+      </c>
+    </row>
+    <row r="149" spans="15:16" x14ac:dyDescent="0.45">
+      <c r="O149" t="s">
+        <v>28</v>
+      </c>
+      <c r="P149">
+        <v>7.8125E-2</v>
+      </c>
+    </row>
+    <row r="150" spans="15:16" x14ac:dyDescent="0.45">
+      <c r="O150" t="s">
+        <v>28</v>
+      </c>
+      <c r="P150">
+        <v>0.140625</v>
+      </c>
+    </row>
+    <row r="151" spans="15:16" x14ac:dyDescent="0.45">
+      <c r="O151" t="s">
+        <v>28</v>
+      </c>
+      <c r="P151">
+        <v>7.8125E-2</v>
+      </c>
+    </row>
+    <row r="152" spans="15:16" x14ac:dyDescent="0.45">
+      <c r="O152" t="s">
+        <v>28</v>
+      </c>
+      <c r="P152">
+        <v>7.2727272727272724E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="I1:M1"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="A20:C20"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/LJ+UA Experiments.xlsx
+++ b/LJ+UA Experiments.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dhvan\Documents\GitHub\P4P-Transformer-ASR-for-Dysarthric-Speech\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{776E8771-9B94-4F87-AF7C-E0B71FE631D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8E24869-71F7-4894-98FC-2505E8BF069F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1042" yWindow="1042" windowWidth="15390" windowHeight="9443" firstSheet="13" activeTab="16" xr2:uid="{75EE08EB-D9DA-45E6-8F41-68FBAE46F917}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13155" firstSheet="16" activeTab="17" xr2:uid="{75EE08EB-D9DA-45E6-8F41-68FBAE46F917}"/>
   </bookViews>
   <sheets>
     <sheet name="E1" sheetId="1" r:id="rId1"/>
@@ -30,6 +30,7 @@
     <sheet name="D12" sheetId="15" r:id="rId15"/>
     <sheet name="D123" sheetId="16" r:id="rId16"/>
     <sheet name="Token + D123" sheetId="17" r:id="rId17"/>
+    <sheet name="Speech Pos + Token + D123" sheetId="18" r:id="rId18"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -52,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="692" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="751" uniqueCount="32">
   <si>
     <r>
       <rPr>
@@ -840,6 +841,9 @@
     </r>
   </si>
   <si>
+    <t>&lt;__main__.DisplayOutputs object at 0x7fd1fbdb2550&gt;</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <b/>
@@ -880,7 +884,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>% (% increase)</t>
+      <t>92% (5% increase)</t>
     </r>
   </si>
 </sst>
@@ -5517,6 +5521,1162 @@
           </a:p>
         </c:txPr>
         <c:crossAx val="762140863"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart17.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Token + D123'!$R$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Accuracy</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Token + D123'!$R$2:$R$152</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="151"/>
+                <c:pt idx="0">
+                  <c:v>-10.9375</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>29.6875</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>48.4375</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>65.625</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>68.75</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>70.3125</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>76.5625</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>81.25</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>68.75</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>73.4375</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>81.25</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>78.125</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>81.25</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>82.8125</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>79.6875</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>82.8125</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>71.875</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>73.4375</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>76.5625</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>79.6875</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>85.9375</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>84.375</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>71.875</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>82.8125</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>87.5</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>81.25</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>89.0625</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>81.25</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>89.0625</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>87.5</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>81.25</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>82.8125</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>89.0625</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>82.8125</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>87.5</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>89.0625</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>85.9375</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>90.625</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>82.8125</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>85.9375</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>81.25</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>85.9375</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>82.8125</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>76.5625</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>82.8125</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>87.5</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>84.375</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>84.375</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>85.9375</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>81.25</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>85.9375</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>82.8125</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>89.0625</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>81.25</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>87.5</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>84.375</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>82.8125</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>89.0625</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>93.75</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>92.1875</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>93.75</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>85.9375</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>89.0625</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>90.625</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>84.375</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>90.625</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>82.8125</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>85.9375</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>84.375</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>89.0625</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>87.5</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>87.5</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>85.9375</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>85.9375</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>82.8125</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>87.5</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>87.5</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>89.0625</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>89.0625</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>89.0625</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>89.0625</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>89.0625</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>89.0625</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>89.0625</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>89.0625</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>89.0625</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>87.5</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>87.5</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>87.5</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>89.0625</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>89.0625</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>87.5</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>90.625</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>90.625</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>89.0625</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>90.625</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>90.625</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-551F-4969-BFA0-0B4C83A006A8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1262615983"/>
+        <c:axId val="1262614735"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1262615983"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1262614735"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1262614735"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1262615983"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart18.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Token + D123'!$R$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Accuracy</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Token + D123'!$R$2:$R$152</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="151"/>
+                <c:pt idx="0">
+                  <c:v>-10.9375</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>29.6875</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>48.4375</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>65.625</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>68.75</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>70.3125</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>76.5625</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>81.25</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>68.75</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>73.4375</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>81.25</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>78.125</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>81.25</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>82.8125</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>79.6875</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>82.8125</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>71.875</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>73.4375</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>76.5625</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>79.6875</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>85.9375</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>84.375</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>71.875</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>82.8125</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>87.5</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>81.25</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>89.0625</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>81.25</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>89.0625</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>87.5</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>81.25</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>82.8125</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>89.0625</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>82.8125</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>87.5</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>89.0625</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>85.9375</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>90.625</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>82.8125</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>85.9375</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>81.25</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>85.9375</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>82.8125</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>76.5625</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>82.8125</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>87.5</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>84.375</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>84.375</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>85.9375</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>81.25</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>85.9375</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>82.8125</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>89.0625</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>81.25</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>87.5</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>84.375</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>82.8125</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>89.0625</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>93.75</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>92.1875</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>93.75</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>85.9375</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>89.0625</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>90.625</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>84.375</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>90.625</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>82.8125</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>85.9375</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>84.375</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>89.0625</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>87.5</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>87.5</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>85.9375</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>85.9375</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>82.8125</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>87.5</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>87.5</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>89.0625</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>89.0625</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>89.0625</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>89.0625</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>89.0625</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>89.0625</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>89.0625</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>89.0625</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>89.0625</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>87.5</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>87.5</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>87.5</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>89.0625</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>89.0625</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>87.5</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>90.625</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>90.625</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>89.0625</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>90.625</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>90.625</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-D512-4F60-9CAA-AE24A413CB7E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1262615983"/>
+        <c:axId val="1262614735"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1262615983"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1262614735"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1262614735"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1262615983"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -10477,6 +11637,86 @@
 </file>
 
 <file path=xl/charts/colors16.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors17.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors18.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -14449,6 +15689,1038 @@
 </file>
 
 <file path=xl/charts/style16.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style17.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style18.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -20561,6 +22833,316 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>105662</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>63973</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EA6F5AED-FE5E-5480-5329-B67E89E07659}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1" y="3554105"/>
+          <a:ext cx="3339897" cy="2729552"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>931175</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>97145</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>120841</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C727CF5F-7A83-D947-B6AA-57FA10872DD5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4812257" y="533117"/>
+          <a:ext cx="3715224" cy="2786418"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>436444</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>53595</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>459190</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>131216</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{37B15720-EBF1-1359-1646-8A47CBD0E52B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing18.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>65539</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>14072</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>104863</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{84F869C2-6554-49A2-AE17-BD8B542EB748}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:srcRect l="-331" t="38919" r="61637" b="11975"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1" y="608464"/>
+          <a:ext cx="3252571" cy="2753949"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>931175</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>97145</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>120841</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8356FB54-C7B0-405E-BD98-E6FA5B732590}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4817375" y="542926"/>
+          <a:ext cx="3718920" cy="2835465"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>436444</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>53595</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>459190</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>131216</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{42CC93B6-7331-4369-A093-9911572FF619}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>126223</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{05CBF4FF-4A69-3F25-CCF4-85B8CC31B460}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="3619500"/>
+          <a:ext cx="3364723" cy="2962275"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -35520,7 +38102,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8AAE529-F193-441A-938A-BCEC1BD439A5}">
   <dimension ref="A1:R152"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" zoomScale="57" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A8" zoomScale="57" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="K42" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
@@ -37594,8 +40176,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B801163C-6F17-4CD7-9F92-0241685B0218}">
   <dimension ref="A1:R152"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:G1"/>
+    <sheetView zoomScale="67" workbookViewId="0">
+      <selection activeCell="D42" sqref="D42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -37605,7 +40187,7 @@
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A1" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -37638,7 +40220,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>1.171875</v>
+        <v>1.109375</v>
       </c>
       <c r="Q2">
         <f xml:space="preserve"> 1+O2</f>
@@ -37646,7 +40228,7 @@
       </c>
       <c r="R2">
         <f xml:space="preserve"> (1-P2)*100</f>
-        <v>-17.1875</v>
+        <v>-10.9375</v>
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.45">
@@ -37675,7 +40257,7 @@
         <v>2</v>
       </c>
       <c r="P4">
-        <v>0.8125</v>
+        <v>0.703125</v>
       </c>
       <c r="Q4">
         <f t="shared" si="0"/>
@@ -37683,7 +40265,7 @@
       </c>
       <c r="R4">
         <f t="shared" si="1"/>
-        <v>18.75</v>
+        <v>29.6875</v>
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.45">
@@ -37691,7 +40273,7 @@
         <v>3</v>
       </c>
       <c r="P5">
-        <v>0.609375</v>
+        <v>0.515625</v>
       </c>
       <c r="Q5">
         <f t="shared" si="0"/>
@@ -37699,7 +40281,7 @@
       </c>
       <c r="R5">
         <f t="shared" si="1"/>
-        <v>39.0625</v>
+        <v>48.4375</v>
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.45">
@@ -37707,7 +40289,7 @@
         <v>4</v>
       </c>
       <c r="P6">
-        <v>0.4375</v>
+        <v>0.34375</v>
       </c>
       <c r="Q6">
         <f t="shared" si="0"/>
@@ -37715,7 +40297,7 @@
       </c>
       <c r="R6">
         <f t="shared" si="1"/>
-        <v>56.25</v>
+        <v>65.625</v>
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.45">
@@ -37723,7 +40305,7 @@
         <v>5</v>
       </c>
       <c r="P7">
-        <v>0.28125</v>
+        <v>0.3125</v>
       </c>
       <c r="Q7">
         <f t="shared" si="0"/>
@@ -37731,7 +40313,7 @@
       </c>
       <c r="R7">
         <f t="shared" si="1"/>
-        <v>71.875</v>
+        <v>68.75</v>
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.45">
@@ -37739,7 +40321,7 @@
         <v>6</v>
       </c>
       <c r="P8">
-        <v>0.359375</v>
+        <v>0.296875</v>
       </c>
       <c r="Q8">
         <f t="shared" si="0"/>
@@ -37747,7 +40329,7 @@
       </c>
       <c r="R8">
         <f t="shared" si="1"/>
-        <v>64.0625</v>
+        <v>70.3125</v>
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.45">
@@ -37755,7 +40337,7 @@
         <v>7</v>
       </c>
       <c r="P9">
-        <v>0.265625</v>
+        <v>0.234375</v>
       </c>
       <c r="Q9">
         <f t="shared" si="0"/>
@@ -37763,7 +40345,7 @@
       </c>
       <c r="R9">
         <f t="shared" si="1"/>
-        <v>73.4375</v>
+        <v>76.5625</v>
       </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.45">
@@ -37771,7 +40353,7 @@
         <v>8</v>
       </c>
       <c r="P10">
-        <v>0.265625</v>
+        <v>0.1875</v>
       </c>
       <c r="Q10">
         <f t="shared" si="0"/>
@@ -37779,7 +40361,7 @@
       </c>
       <c r="R10">
         <f t="shared" si="1"/>
-        <v>73.4375</v>
+        <v>81.25</v>
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.45">
@@ -37787,7 +40369,7 @@
         <v>9</v>
       </c>
       <c r="P11">
-        <v>0.296875</v>
+        <v>0.3125</v>
       </c>
       <c r="Q11">
         <f t="shared" si="0"/>
@@ -37795,7 +40377,7 @@
       </c>
       <c r="R11">
         <f t="shared" si="1"/>
-        <v>70.3125</v>
+        <v>68.75</v>
       </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.45">
@@ -37803,7 +40385,7 @@
         <v>10</v>
       </c>
       <c r="P12">
-        <v>0.296875</v>
+        <v>0.265625</v>
       </c>
       <c r="Q12">
         <f t="shared" si="0"/>
@@ -37811,7 +40393,7 @@
       </c>
       <c r="R12">
         <f t="shared" si="1"/>
-        <v>70.3125</v>
+        <v>73.4375</v>
       </c>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.45">
@@ -37819,7 +40401,7 @@
         <v>11</v>
       </c>
       <c r="P13">
-        <v>0.203125</v>
+        <v>0.1875</v>
       </c>
       <c r="Q13">
         <f t="shared" si="0"/>
@@ -37827,7 +40409,7 @@
       </c>
       <c r="R13">
         <f t="shared" si="1"/>
-        <v>79.6875</v>
+        <v>81.25</v>
       </c>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.45">
@@ -37835,7 +40417,7 @@
         <v>12</v>
       </c>
       <c r="P14">
-        <v>0.171875</v>
+        <v>0.21875</v>
       </c>
       <c r="Q14">
         <f t="shared" si="0"/>
@@ -37843,7 +40425,7 @@
       </c>
       <c r="R14">
         <f t="shared" si="1"/>
-        <v>82.8125</v>
+        <v>78.125</v>
       </c>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.45">
@@ -37851,7 +40433,7 @@
         <v>13</v>
       </c>
       <c r="P15">
-        <v>0.234375</v>
+        <v>0.1875</v>
       </c>
       <c r="Q15">
         <f t="shared" si="0"/>
@@ -37859,7 +40441,7 @@
       </c>
       <c r="R15">
         <f t="shared" si="1"/>
-        <v>76.5625</v>
+        <v>81.25</v>
       </c>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.45">
@@ -37867,7 +40449,7 @@
         <v>14</v>
       </c>
       <c r="P16">
-        <v>0.109375</v>
+        <v>0.171875</v>
       </c>
       <c r="Q16">
         <f t="shared" si="0"/>
@@ -37875,7 +40457,7 @@
       </c>
       <c r="R16">
         <f t="shared" si="1"/>
-        <v>89.0625</v>
+        <v>82.8125</v>
       </c>
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.45">
@@ -37883,7 +40465,7 @@
         <v>15</v>
       </c>
       <c r="P17">
-        <v>0.15625</v>
+        <v>0.203125</v>
       </c>
       <c r="Q17">
         <f t="shared" si="0"/>
@@ -37891,7 +40473,7 @@
       </c>
       <c r="R17">
         <f t="shared" si="1"/>
-        <v>84.375</v>
+        <v>79.6875</v>
       </c>
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.45">
@@ -37899,7 +40481,7 @@
         <v>16</v>
       </c>
       <c r="P18">
-        <v>0.140625</v>
+        <v>0.171875</v>
       </c>
       <c r="Q18">
         <f t="shared" si="0"/>
@@ -37907,7 +40489,7 @@
       </c>
       <c r="R18">
         <f t="shared" si="1"/>
-        <v>85.9375</v>
+        <v>82.8125</v>
       </c>
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.45">
@@ -37915,7 +40497,7 @@
         <v>17</v>
       </c>
       <c r="P19">
-        <v>0.21875</v>
+        <v>0.28125</v>
       </c>
       <c r="Q19">
         <f t="shared" si="0"/>
@@ -37923,7 +40505,7 @@
       </c>
       <c r="R19">
         <f t="shared" si="1"/>
-        <v>78.125</v>
+        <v>71.875</v>
       </c>
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.45">
@@ -37936,7 +40518,7 @@
         <v>18</v>
       </c>
       <c r="P20">
-        <v>0.203125</v>
+        <v>0.265625</v>
       </c>
       <c r="Q20">
         <f t="shared" si="0"/>
@@ -37944,7 +40526,7 @@
       </c>
       <c r="R20">
         <f t="shared" si="1"/>
-        <v>79.6875</v>
+        <v>73.4375</v>
       </c>
     </row>
     <row r="21" spans="1:18" x14ac:dyDescent="0.45">
@@ -37952,7 +40534,7 @@
         <v>19</v>
       </c>
       <c r="P21">
-        <v>9.375E-2</v>
+        <v>0.234375</v>
       </c>
       <c r="Q21">
         <f t="shared" si="0"/>
@@ -37960,7 +40542,7 @@
       </c>
       <c r="R21">
         <f t="shared" si="1"/>
-        <v>90.625</v>
+        <v>76.5625</v>
       </c>
     </row>
     <row r="22" spans="1:18" x14ac:dyDescent="0.45">
@@ -37968,7 +40550,7 @@
         <v>20</v>
       </c>
       <c r="P22">
-        <v>0.15625</v>
+        <v>0.203125</v>
       </c>
       <c r="Q22">
         <f t="shared" si="0"/>
@@ -37976,7 +40558,7 @@
       </c>
       <c r="R22">
         <f t="shared" si="1"/>
-        <v>84.375</v>
+        <v>79.6875</v>
       </c>
     </row>
     <row r="23" spans="1:18" x14ac:dyDescent="0.45">
@@ -37984,7 +40566,7 @@
         <v>21</v>
       </c>
       <c r="P23">
-        <v>0.15625</v>
+        <v>0.25</v>
       </c>
       <c r="Q23">
         <f t="shared" si="0"/>
@@ -37992,7 +40574,7 @@
       </c>
       <c r="R23">
         <f t="shared" si="1"/>
-        <v>84.375</v>
+        <v>75</v>
       </c>
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.45">
@@ -38000,7 +40582,7 @@
         <v>22</v>
       </c>
       <c r="P24">
-        <v>0.1875</v>
+        <v>0.140625</v>
       </c>
       <c r="Q24">
         <f t="shared" si="0"/>
@@ -38008,7 +40590,7 @@
       </c>
       <c r="R24">
         <f t="shared" si="1"/>
-        <v>81.25</v>
+        <v>85.9375</v>
       </c>
     </row>
     <row r="25" spans="1:18" x14ac:dyDescent="0.45">
@@ -38016,7 +40598,7 @@
         <v>23</v>
       </c>
       <c r="P25">
-        <v>0.125</v>
+        <v>0.15625</v>
       </c>
       <c r="Q25">
         <f t="shared" si="0"/>
@@ -38024,7 +40606,7 @@
       </c>
       <c r="R25">
         <f t="shared" si="1"/>
-        <v>87.5</v>
+        <v>84.375</v>
       </c>
     </row>
     <row r="26" spans="1:18" x14ac:dyDescent="0.45">
@@ -38032,7 +40614,7 @@
         <v>24</v>
       </c>
       <c r="P26">
-        <v>0.140625</v>
+        <v>0.28125</v>
       </c>
       <c r="Q26">
         <f t="shared" si="0"/>
@@ -38040,7 +40622,7 @@
       </c>
       <c r="R26">
         <f t="shared" si="1"/>
-        <v>85.9375</v>
+        <v>71.875</v>
       </c>
     </row>
     <row r="27" spans="1:18" x14ac:dyDescent="0.45">
@@ -38048,7 +40630,7 @@
         <v>25</v>
       </c>
       <c r="P27">
-        <v>0.1875</v>
+        <v>0.171875</v>
       </c>
       <c r="Q27">
         <f t="shared" si="0"/>
@@ -38056,7 +40638,7 @@
       </c>
       <c r="R27">
         <f t="shared" si="1"/>
-        <v>81.25</v>
+        <v>82.8125</v>
       </c>
     </row>
     <row r="28" spans="1:18" x14ac:dyDescent="0.45">
@@ -38064,7 +40646,7 @@
         <v>26</v>
       </c>
       <c r="P28">
-        <v>0.171875</v>
+        <v>0.125</v>
       </c>
       <c r="Q28">
         <f t="shared" si="0"/>
@@ -38072,7 +40654,7 @@
       </c>
       <c r="R28">
         <f t="shared" si="1"/>
-        <v>82.8125</v>
+        <v>87.5</v>
       </c>
     </row>
     <row r="29" spans="1:18" x14ac:dyDescent="0.45">
@@ -38080,7 +40662,7 @@
         <v>27</v>
       </c>
       <c r="P29">
-        <v>0.140625</v>
+        <v>0.1875</v>
       </c>
       <c r="Q29">
         <f t="shared" si="0"/>
@@ -38088,7 +40670,7 @@
       </c>
       <c r="R29">
         <f t="shared" si="1"/>
-        <v>85.9375</v>
+        <v>81.25</v>
       </c>
     </row>
     <row r="30" spans="1:18" x14ac:dyDescent="0.45">
@@ -38096,7 +40678,7 @@
         <v>28</v>
       </c>
       <c r="P30">
-        <v>0.140625</v>
+        <v>0.109375</v>
       </c>
       <c r="Q30">
         <f t="shared" si="0"/>
@@ -38104,7 +40686,7 @@
       </c>
       <c r="R30">
         <f t="shared" si="1"/>
-        <v>85.9375</v>
+        <v>89.0625</v>
       </c>
     </row>
     <row r="31" spans="1:18" x14ac:dyDescent="0.45">
@@ -38112,7 +40694,7 @@
         <v>29</v>
       </c>
       <c r="P31">
-        <v>0.140625</v>
+        <v>0.1875</v>
       </c>
       <c r="Q31">
         <f t="shared" si="0"/>
@@ -38120,7 +40702,7 @@
       </c>
       <c r="R31">
         <f t="shared" si="1"/>
-        <v>85.9375</v>
+        <v>81.25</v>
       </c>
     </row>
     <row r="32" spans="1:18" x14ac:dyDescent="0.45">
@@ -38128,7 +40710,7 @@
         <v>30</v>
       </c>
       <c r="P32">
-        <v>0.140625</v>
+        <v>0.109375</v>
       </c>
       <c r="Q32">
         <f t="shared" si="0"/>
@@ -38136,7 +40718,7 @@
       </c>
       <c r="R32">
         <f t="shared" si="1"/>
-        <v>85.9375</v>
+        <v>89.0625</v>
       </c>
     </row>
     <row r="33" spans="15:18" x14ac:dyDescent="0.45">
@@ -38144,7 +40726,7 @@
         <v>31</v>
       </c>
       <c r="P33">
-        <v>0.171875</v>
+        <v>0.125</v>
       </c>
       <c r="Q33">
         <f t="shared" si="0"/>
@@ -38152,7 +40734,7 @@
       </c>
       <c r="R33">
         <f t="shared" si="1"/>
-        <v>82.8125</v>
+        <v>87.5</v>
       </c>
     </row>
     <row r="34" spans="15:18" x14ac:dyDescent="0.45">
@@ -38160,7 +40742,7 @@
         <v>32</v>
       </c>
       <c r="P34">
-        <v>0.171875</v>
+        <v>0.1875</v>
       </c>
       <c r="Q34">
         <f t="shared" si="0"/>
@@ -38168,7 +40750,7 @@
       </c>
       <c r="R34">
         <f t="shared" si="1"/>
-        <v>82.8125</v>
+        <v>81.25</v>
       </c>
     </row>
     <row r="35" spans="15:18" x14ac:dyDescent="0.45">
@@ -38176,7 +40758,7 @@
         <v>33</v>
       </c>
       <c r="P35">
-        <v>0.171875</v>
+        <v>0.25</v>
       </c>
       <c r="Q35">
         <f t="shared" si="0"/>
@@ -38184,7 +40766,7 @@
       </c>
       <c r="R35">
         <f t="shared" si="1"/>
-        <v>82.8125</v>
+        <v>75</v>
       </c>
     </row>
     <row r="36" spans="15:18" x14ac:dyDescent="0.45">
@@ -38192,7 +40774,7 @@
         <v>34</v>
       </c>
       <c r="P36">
-        <v>0.15625</v>
+        <v>0.171875</v>
       </c>
       <c r="Q36">
         <f t="shared" si="0"/>
@@ -38200,7 +40782,7 @@
       </c>
       <c r="R36">
         <f t="shared" si="1"/>
-        <v>84.375</v>
+        <v>82.8125</v>
       </c>
     </row>
     <row r="37" spans="15:18" x14ac:dyDescent="0.45">
@@ -38208,7 +40790,7 @@
         <v>35</v>
       </c>
       <c r="P37">
-        <v>0.15625</v>
+        <v>0.109375</v>
       </c>
       <c r="Q37">
         <f t="shared" si="0"/>
@@ -38216,7 +40798,7 @@
       </c>
       <c r="R37">
         <f t="shared" si="1"/>
-        <v>84.375</v>
+        <v>89.0625</v>
       </c>
     </row>
     <row r="38" spans="15:18" x14ac:dyDescent="0.45">
@@ -38224,7 +40806,7 @@
         <v>36</v>
       </c>
       <c r="P38">
-        <v>0.125</v>
+        <v>0.171875</v>
       </c>
       <c r="Q38">
         <f t="shared" si="0"/>
@@ -38232,7 +40814,7 @@
       </c>
       <c r="R38">
         <f t="shared" si="1"/>
-        <v>87.5</v>
+        <v>82.8125</v>
       </c>
     </row>
     <row r="39" spans="15:18" x14ac:dyDescent="0.45">
@@ -38240,7 +40822,7 @@
         <v>37</v>
       </c>
       <c r="P39">
-        <v>0.109375</v>
+        <v>0.125</v>
       </c>
       <c r="Q39">
         <f t="shared" si="0"/>
@@ -38248,7 +40830,7 @@
       </c>
       <c r="R39">
         <f t="shared" si="1"/>
-        <v>89.0625</v>
+        <v>87.5</v>
       </c>
     </row>
     <row r="40" spans="15:18" x14ac:dyDescent="0.45">
@@ -38256,7 +40838,7 @@
         <v>38</v>
       </c>
       <c r="P40">
-        <v>9.375E-2</v>
+        <v>0.109375</v>
       </c>
       <c r="Q40">
         <f t="shared" si="0"/>
@@ -38264,7 +40846,7 @@
       </c>
       <c r="R40">
         <f t="shared" si="1"/>
-        <v>90.625</v>
+        <v>89.0625</v>
       </c>
     </row>
     <row r="41" spans="15:18" x14ac:dyDescent="0.45">
@@ -38288,7 +40870,7 @@
         <v>40</v>
       </c>
       <c r="P42">
-        <v>0.125</v>
+        <v>9.375E-2</v>
       </c>
       <c r="Q42">
         <f t="shared" si="0"/>
@@ -38296,7 +40878,7 @@
       </c>
       <c r="R42">
         <f t="shared" si="1"/>
-        <v>87.5</v>
+        <v>90.625</v>
       </c>
     </row>
     <row r="43" spans="15:18" x14ac:dyDescent="0.45">
@@ -38304,7 +40886,7 @@
         <v>41</v>
       </c>
       <c r="P43">
-        <v>0.15625</v>
+        <v>0.171875</v>
       </c>
       <c r="Q43">
         <f t="shared" si="0"/>
@@ -38312,7 +40894,7 @@
       </c>
       <c r="R43">
         <f t="shared" si="1"/>
-        <v>84.375</v>
+        <v>82.8125</v>
       </c>
     </row>
     <row r="44" spans="15:18" x14ac:dyDescent="0.45">
@@ -38320,7 +40902,7 @@
         <v>42</v>
       </c>
       <c r="P44">
-        <v>0.15625</v>
+        <v>0.140625</v>
       </c>
       <c r="Q44">
         <f t="shared" si="0"/>
@@ -38328,7 +40910,7 @@
       </c>
       <c r="R44">
         <f t="shared" si="1"/>
-        <v>84.375</v>
+        <v>85.9375</v>
       </c>
     </row>
     <row r="45" spans="15:18" x14ac:dyDescent="0.45">
@@ -38336,7 +40918,7 @@
         <v>43</v>
       </c>
       <c r="P45">
-        <v>0.15625</v>
+        <v>0.1875</v>
       </c>
       <c r="Q45">
         <f t="shared" si="0"/>
@@ -38344,7 +40926,7 @@
       </c>
       <c r="R45">
         <f t="shared" si="1"/>
-        <v>84.375</v>
+        <v>81.25</v>
       </c>
     </row>
     <row r="46" spans="15:18" x14ac:dyDescent="0.45">
@@ -38352,7 +40934,7 @@
         <v>44</v>
       </c>
       <c r="P46">
-        <v>0.109375</v>
+        <v>0.140625</v>
       </c>
       <c r="Q46">
         <f t="shared" si="0"/>
@@ -38360,7 +40942,7 @@
       </c>
       <c r="R46">
         <f t="shared" si="1"/>
-        <v>89.0625</v>
+        <v>85.9375</v>
       </c>
     </row>
     <row r="47" spans="15:18" x14ac:dyDescent="0.45">
@@ -38368,7 +40950,7 @@
         <v>45</v>
       </c>
       <c r="P47">
-        <v>0.125</v>
+        <v>0.171875</v>
       </c>
       <c r="Q47">
         <f t="shared" si="0"/>
@@ -38376,7 +40958,7 @@
       </c>
       <c r="R47">
         <f t="shared" si="1"/>
-        <v>87.5</v>
+        <v>82.8125</v>
       </c>
     </row>
     <row r="48" spans="15:18" x14ac:dyDescent="0.45">
@@ -38384,7 +40966,7 @@
         <v>46</v>
       </c>
       <c r="P48">
-        <v>0.125</v>
+        <v>0.234375</v>
       </c>
       <c r="Q48">
         <f t="shared" si="0"/>
@@ -38392,7 +40974,7 @@
       </c>
       <c r="R48">
         <f t="shared" si="1"/>
-        <v>87.5</v>
+        <v>76.5625</v>
       </c>
     </row>
     <row r="49" spans="15:18" x14ac:dyDescent="0.45">
@@ -38400,7 +40982,7 @@
         <v>47</v>
       </c>
       <c r="P49">
-        <v>7.8125E-2</v>
+        <v>0.171875</v>
       </c>
       <c r="Q49">
         <f t="shared" si="0"/>
@@ -38408,7 +40990,7 @@
       </c>
       <c r="R49">
         <f t="shared" si="1"/>
-        <v>92.1875</v>
+        <v>82.8125</v>
       </c>
     </row>
     <row r="50" spans="15:18" x14ac:dyDescent="0.45">
@@ -38432,7 +41014,7 @@
         <v>49</v>
       </c>
       <c r="P51">
-        <v>0.125</v>
+        <v>0.15625</v>
       </c>
       <c r="Q51">
         <f t="shared" si="0"/>
@@ -38440,7 +41022,7 @@
       </c>
       <c r="R51">
         <f t="shared" si="1"/>
-        <v>87.5</v>
+        <v>84.375</v>
       </c>
     </row>
     <row r="52" spans="15:18" x14ac:dyDescent="0.45">
@@ -38448,7 +41030,7 @@
         <v>50</v>
       </c>
       <c r="P52">
-        <v>7.8125E-2</v>
+        <v>0.15625</v>
       </c>
       <c r="Q52">
         <f t="shared" si="0"/>
@@ -38456,7 +41038,7 @@
       </c>
       <c r="R52">
         <f t="shared" si="1"/>
-        <v>92.1875</v>
+        <v>84.375</v>
       </c>
     </row>
     <row r="53" spans="15:18" x14ac:dyDescent="0.45">
@@ -38464,7 +41046,7 @@
         <v>51</v>
       </c>
       <c r="P53">
-        <v>0.125</v>
+        <v>0.140625</v>
       </c>
       <c r="Q53">
         <f t="shared" si="0"/>
@@ -38472,7 +41054,7 @@
       </c>
       <c r="R53">
         <f t="shared" si="1"/>
-        <v>87.5</v>
+        <v>85.9375</v>
       </c>
     </row>
     <row r="54" spans="15:18" x14ac:dyDescent="0.45">
@@ -38480,7 +41062,7 @@
         <v>52</v>
       </c>
       <c r="P54">
-        <v>0.15625</v>
+        <v>0.1875</v>
       </c>
       <c r="Q54">
         <f t="shared" si="0"/>
@@ -38488,7 +41070,7 @@
       </c>
       <c r="R54">
         <f t="shared" si="1"/>
-        <v>84.375</v>
+        <v>81.25</v>
       </c>
     </row>
     <row r="55" spans="15:18" x14ac:dyDescent="0.45">
@@ -38496,7 +41078,7 @@
         <v>53</v>
       </c>
       <c r="P55">
-        <v>9.375E-2</v>
+        <v>0.140625</v>
       </c>
       <c r="Q55">
         <f t="shared" si="0"/>
@@ -38504,7 +41086,7 @@
       </c>
       <c r="R55">
         <f t="shared" si="1"/>
-        <v>90.625</v>
+        <v>85.9375</v>
       </c>
     </row>
     <row r="56" spans="15:18" x14ac:dyDescent="0.45">
@@ -38512,7 +41094,7 @@
         <v>54</v>
       </c>
       <c r="P56">
-        <v>7.8125E-2</v>
+        <v>0.171875</v>
       </c>
       <c r="Q56">
         <f t="shared" si="0"/>
@@ -38520,7 +41102,7 @@
       </c>
       <c r="R56">
         <f t="shared" si="1"/>
-        <v>92.1875</v>
+        <v>82.8125</v>
       </c>
     </row>
     <row r="57" spans="15:18" x14ac:dyDescent="0.45">
@@ -38544,7 +41126,7 @@
         <v>56</v>
       </c>
       <c r="P58">
-        <v>0.109375</v>
+        <v>0.1875</v>
       </c>
       <c r="Q58">
         <f t="shared" si="0"/>
@@ -38552,7 +41134,7 @@
       </c>
       <c r="R58">
         <f t="shared" si="1"/>
-        <v>89.0625</v>
+        <v>81.25</v>
       </c>
     </row>
     <row r="59" spans="15:18" x14ac:dyDescent="0.45">
@@ -38576,7 +41158,7 @@
         <v>58</v>
       </c>
       <c r="P60">
-        <v>0.1875</v>
+        <v>0.15625</v>
       </c>
       <c r="Q60">
         <f t="shared" si="0"/>
@@ -38584,7 +41166,7 @@
       </c>
       <c r="R60">
         <f t="shared" si="1"/>
-        <v>81.25</v>
+        <v>84.375</v>
       </c>
     </row>
     <row r="61" spans="15:18" x14ac:dyDescent="0.45">
@@ -38592,7 +41174,7 @@
         <v>59</v>
       </c>
       <c r="P61">
-        <v>9.375E-2</v>
+        <v>0.171875</v>
       </c>
       <c r="Q61">
         <f t="shared" si="0"/>
@@ -38600,7 +41182,7 @@
       </c>
       <c r="R61">
         <f t="shared" si="1"/>
-        <v>90.625</v>
+        <v>82.8125</v>
       </c>
     </row>
     <row r="62" spans="15:18" x14ac:dyDescent="0.45">
@@ -38608,7 +41190,7 @@
         <v>60</v>
       </c>
       <c r="P62">
-        <v>9.375E-2</v>
+        <v>0.109375</v>
       </c>
       <c r="Q62">
         <f t="shared" si="0"/>
@@ -38616,7 +41198,7 @@
       </c>
       <c r="R62">
         <f t="shared" si="1"/>
-        <v>90.625</v>
+        <v>89.0625</v>
       </c>
     </row>
     <row r="63" spans="15:18" x14ac:dyDescent="0.45">
@@ -38624,7 +41206,7 @@
         <v>61</v>
       </c>
       <c r="P63">
-        <v>0.125</v>
+        <v>6.25E-2</v>
       </c>
       <c r="Q63">
         <f t="shared" si="0"/>
@@ -38632,7 +41214,7 @@
       </c>
       <c r="R63">
         <f t="shared" si="1"/>
-        <v>87.5</v>
+        <v>93.75</v>
       </c>
     </row>
     <row r="64" spans="15:18" x14ac:dyDescent="0.45">
@@ -38640,7 +41222,7 @@
         <v>62</v>
       </c>
       <c r="P64">
-        <v>9.375E-2</v>
+        <v>7.8125E-2</v>
       </c>
       <c r="Q64">
         <f t="shared" si="0"/>
@@ -38648,7 +41230,7 @@
       </c>
       <c r="R64">
         <f t="shared" si="1"/>
-        <v>90.625</v>
+        <v>92.1875</v>
       </c>
     </row>
     <row r="65" spans="15:18" x14ac:dyDescent="0.45">
@@ -38656,7 +41238,7 @@
         <v>63</v>
       </c>
       <c r="P65">
-        <v>7.8125E-2</v>
+        <v>6.25E-2</v>
       </c>
       <c r="Q65">
         <f t="shared" si="0"/>
@@ -38664,7 +41246,7 @@
       </c>
       <c r="R65">
         <f t="shared" si="1"/>
-        <v>92.1875</v>
+        <v>93.75</v>
       </c>
     </row>
     <row r="66" spans="15:18" x14ac:dyDescent="0.45">
@@ -38672,7 +41254,7 @@
         <v>64</v>
       </c>
       <c r="P66">
-        <v>0.125</v>
+        <v>0.140625</v>
       </c>
       <c r="Q66">
         <f t="shared" si="0"/>
@@ -38680,7 +41262,7 @@
       </c>
       <c r="R66">
         <f t="shared" si="1"/>
-        <v>87.5</v>
+        <v>85.9375</v>
       </c>
     </row>
     <row r="67" spans="15:18" x14ac:dyDescent="0.45">
@@ -38704,7 +41286,7 @@
         <v>66</v>
       </c>
       <c r="P68">
-        <v>0.125</v>
+        <v>9.375E-2</v>
       </c>
       <c r="Q68">
         <f t="shared" si="2"/>
@@ -38712,7 +41294,7 @@
       </c>
       <c r="R68">
         <f t="shared" si="3"/>
-        <v>87.5</v>
+        <v>90.625</v>
       </c>
     </row>
     <row r="69" spans="15:18" x14ac:dyDescent="0.45">
@@ -38720,7 +41302,7 @@
         <v>67</v>
       </c>
       <c r="P69">
-        <v>9.375E-2</v>
+        <v>0.15625</v>
       </c>
       <c r="Q69">
         <f t="shared" si="2"/>
@@ -38728,7 +41310,7 @@
       </c>
       <c r="R69">
         <f t="shared" si="3"/>
-        <v>90.625</v>
+        <v>84.375</v>
       </c>
     </row>
     <row r="70" spans="15:18" x14ac:dyDescent="0.45">
@@ -38736,7 +41318,7 @@
         <v>68</v>
       </c>
       <c r="P70">
-        <v>0.125</v>
+        <v>9.375E-2</v>
       </c>
       <c r="Q70">
         <f t="shared" si="2"/>
@@ -38744,7 +41326,7 @@
       </c>
       <c r="R70">
         <f t="shared" si="3"/>
-        <v>87.5</v>
+        <v>90.625</v>
       </c>
     </row>
     <row r="71" spans="15:18" x14ac:dyDescent="0.45">
@@ -38752,7 +41334,7 @@
         <v>69</v>
       </c>
       <c r="P71">
-        <v>0.109375</v>
+        <v>0.171875</v>
       </c>
       <c r="Q71">
         <f t="shared" si="2"/>
@@ -38760,7 +41342,7 @@
       </c>
       <c r="R71">
         <f t="shared" si="3"/>
-        <v>89.0625</v>
+        <v>82.8125</v>
       </c>
     </row>
     <row r="72" spans="15:18" x14ac:dyDescent="0.45">
@@ -38768,7 +41350,7 @@
         <v>70</v>
       </c>
       <c r="P72">
-        <v>0.125</v>
+        <v>0.140625</v>
       </c>
       <c r="Q72">
         <f t="shared" si="2"/>
@@ -38776,7 +41358,7 @@
       </c>
       <c r="R72">
         <f t="shared" si="3"/>
-        <v>87.5</v>
+        <v>85.9375</v>
       </c>
     </row>
     <row r="73" spans="15:18" x14ac:dyDescent="0.45">
@@ -38784,7 +41366,7 @@
         <v>71</v>
       </c>
       <c r="P73">
-        <v>0.125</v>
+        <v>0.15625</v>
       </c>
       <c r="Q73">
         <f t="shared" si="2"/>
@@ -38792,7 +41374,7 @@
       </c>
       <c r="R73">
         <f t="shared" si="3"/>
-        <v>87.5</v>
+        <v>84.375</v>
       </c>
     </row>
     <row r="74" spans="15:18" x14ac:dyDescent="0.45">
@@ -38800,7 +41382,7 @@
         <v>72</v>
       </c>
       <c r="P74">
-        <v>0.125</v>
+        <v>0.109375</v>
       </c>
       <c r="Q74">
         <f t="shared" si="2"/>
@@ -38808,7 +41390,7 @@
       </c>
       <c r="R74">
         <f t="shared" si="3"/>
-        <v>87.5</v>
+        <v>89.0625</v>
       </c>
     </row>
     <row r="75" spans="15:18" x14ac:dyDescent="0.45">
@@ -38816,7 +41398,7 @@
         <v>73</v>
       </c>
       <c r="P75">
-        <v>0.171875</v>
+        <v>0.125</v>
       </c>
       <c r="Q75">
         <f t="shared" si="2"/>
@@ -38824,7 +41406,7 @@
       </c>
       <c r="R75">
         <f t="shared" si="3"/>
-        <v>82.8125</v>
+        <v>87.5</v>
       </c>
     </row>
     <row r="76" spans="15:18" x14ac:dyDescent="0.45">
@@ -38832,7 +41414,7 @@
         <v>74</v>
       </c>
       <c r="P76">
-        <v>0.15625</v>
+        <v>0.125</v>
       </c>
       <c r="Q76">
         <f t="shared" si="2"/>
@@ -38840,7 +41422,7 @@
       </c>
       <c r="R76">
         <f t="shared" si="3"/>
-        <v>84.375</v>
+        <v>87.5</v>
       </c>
     </row>
     <row r="77" spans="15:18" x14ac:dyDescent="0.45">
@@ -38848,7 +41430,7 @@
         <v>75</v>
       </c>
       <c r="P77">
-        <v>0.125</v>
+        <v>0.140625</v>
       </c>
       <c r="Q77">
         <f t="shared" si="2"/>
@@ -38856,7 +41438,7 @@
       </c>
       <c r="R77">
         <f t="shared" si="3"/>
-        <v>87.5</v>
+        <v>85.9375</v>
       </c>
     </row>
     <row r="78" spans="15:18" x14ac:dyDescent="0.45">
@@ -38864,7 +41446,7 @@
         <v>76</v>
       </c>
       <c r="P78">
-        <v>0.125</v>
+        <v>0.140625</v>
       </c>
       <c r="Q78">
         <f t="shared" si="2"/>
@@ -38872,7 +41454,7 @@
       </c>
       <c r="R78">
         <f t="shared" si="3"/>
-        <v>87.5</v>
+        <v>85.9375</v>
       </c>
     </row>
     <row r="79" spans="15:18" x14ac:dyDescent="0.45">
@@ -38880,7 +41462,7 @@
         <v>77</v>
       </c>
       <c r="P79">
-        <v>0.140625</v>
+        <v>0.171875</v>
       </c>
       <c r="Q79">
         <f t="shared" si="2"/>
@@ -38888,7 +41470,7 @@
       </c>
       <c r="R79">
         <f t="shared" si="3"/>
-        <v>85.9375</v>
+        <v>82.8125</v>
       </c>
     </row>
     <row r="80" spans="15:18" x14ac:dyDescent="0.45">
@@ -38912,7 +41494,7 @@
         <v>79</v>
       </c>
       <c r="P81">
-        <v>0.109375</v>
+        <v>0.125</v>
       </c>
       <c r="Q81">
         <f t="shared" si="2"/>
@@ -38920,7 +41502,7 @@
       </c>
       <c r="R81">
         <f t="shared" si="3"/>
-        <v>89.0625</v>
+        <v>87.5</v>
       </c>
     </row>
     <row r="82" spans="15:18" x14ac:dyDescent="0.45">
@@ -38928,7 +41510,7 @@
         <v>80</v>
       </c>
       <c r="P82">
-        <v>0.125</v>
+        <v>0.109375</v>
       </c>
       <c r="Q82">
         <f t="shared" si="2"/>
@@ -38936,7 +41518,7 @@
       </c>
       <c r="R82">
         <f t="shared" si="3"/>
-        <v>87.5</v>
+        <v>89.0625</v>
       </c>
     </row>
     <row r="83" spans="15:18" x14ac:dyDescent="0.45">
@@ -38944,7 +41526,7 @@
         <v>81</v>
       </c>
       <c r="P83">
-        <v>0.125</v>
+        <v>0.109375</v>
       </c>
       <c r="Q83">
         <f t="shared" si="2"/>
@@ -38952,7 +41534,7 @@
       </c>
       <c r="R83">
         <f t="shared" si="3"/>
-        <v>87.5</v>
+        <v>89.0625</v>
       </c>
     </row>
     <row r="84" spans="15:18" x14ac:dyDescent="0.45">
@@ -38960,7 +41542,7 @@
         <v>82</v>
       </c>
       <c r="P84">
-        <v>0.125</v>
+        <v>0.109375</v>
       </c>
       <c r="Q84">
         <f t="shared" si="2"/>
@@ -38968,7 +41550,7 @@
       </c>
       <c r="R84">
         <f t="shared" si="3"/>
-        <v>87.5</v>
+        <v>89.0625</v>
       </c>
     </row>
     <row r="85" spans="15:18" x14ac:dyDescent="0.45">
@@ -38976,7 +41558,7 @@
         <v>83</v>
       </c>
       <c r="P85">
-        <v>0.125</v>
+        <v>0.109375</v>
       </c>
       <c r="Q85">
         <f t="shared" si="2"/>
@@ -38984,7 +41566,7 @@
       </c>
       <c r="R85">
         <f t="shared" si="3"/>
-        <v>87.5</v>
+        <v>89.0625</v>
       </c>
     </row>
     <row r="86" spans="15:18" x14ac:dyDescent="0.45">
@@ -38992,7 +41574,7 @@
         <v>84</v>
       </c>
       <c r="P86">
-        <v>0.125</v>
+        <v>0.109375</v>
       </c>
       <c r="Q86">
         <f t="shared" si="2"/>
@@ -39000,7 +41582,7 @@
       </c>
       <c r="R86">
         <f t="shared" si="3"/>
-        <v>87.5</v>
+        <v>89.0625</v>
       </c>
     </row>
     <row r="87" spans="15:18" x14ac:dyDescent="0.45">
@@ -39008,7 +41590,7 @@
         <v>85</v>
       </c>
       <c r="P87">
-        <v>0.125</v>
+        <v>0.109375</v>
       </c>
       <c r="Q87">
         <f t="shared" si="2"/>
@@ -39016,7 +41598,7 @@
       </c>
       <c r="R87">
         <f t="shared" si="3"/>
-        <v>87.5</v>
+        <v>89.0625</v>
       </c>
     </row>
     <row r="88" spans="15:18" x14ac:dyDescent="0.45">
@@ -39056,7 +41638,7 @@
         <v>88</v>
       </c>
       <c r="P90">
-        <v>9.375E-2</v>
+        <v>0.109375</v>
       </c>
       <c r="Q90">
         <f t="shared" si="2"/>
@@ -39064,7 +41646,7 @@
       </c>
       <c r="R90">
         <f t="shared" si="3"/>
-        <v>90.625</v>
+        <v>89.0625</v>
       </c>
     </row>
     <row r="91" spans="15:18" x14ac:dyDescent="0.45">
@@ -39072,7 +41654,7 @@
         <v>89</v>
       </c>
       <c r="P91">
-        <v>9.375E-2</v>
+        <v>0.125</v>
       </c>
       <c r="Q91">
         <f t="shared" si="2"/>
@@ -39080,7 +41662,7 @@
       </c>
       <c r="R91">
         <f t="shared" si="3"/>
-        <v>90.625</v>
+        <v>87.5</v>
       </c>
     </row>
     <row r="92" spans="15:18" x14ac:dyDescent="0.45">
@@ -39088,7 +41670,7 @@
         <v>90</v>
       </c>
       <c r="P92">
-        <v>9.375E-2</v>
+        <v>0.125</v>
       </c>
       <c r="Q92">
         <f t="shared" si="2"/>
@@ -39096,7 +41678,7 @@
       </c>
       <c r="R92">
         <f t="shared" si="3"/>
-        <v>90.625</v>
+        <v>87.5</v>
       </c>
     </row>
     <row r="93" spans="15:18" x14ac:dyDescent="0.45">
@@ -39104,7 +41686,7 @@
         <v>91</v>
       </c>
       <c r="P93">
-        <v>9.375E-2</v>
+        <v>0.125</v>
       </c>
       <c r="Q93">
         <f t="shared" si="2"/>
@@ -39112,7 +41694,7 @@
       </c>
       <c r="R93">
         <f t="shared" si="3"/>
-        <v>90.625</v>
+        <v>87.5</v>
       </c>
     </row>
     <row r="94" spans="15:18" x14ac:dyDescent="0.45">
@@ -39120,7 +41702,7 @@
         <v>92</v>
       </c>
       <c r="P94">
-        <v>9.375E-2</v>
+        <v>0.109375</v>
       </c>
       <c r="Q94">
         <f t="shared" si="2"/>
@@ -39128,7 +41710,7 @@
       </c>
       <c r="R94">
         <f t="shared" si="3"/>
-        <v>90.625</v>
+        <v>89.0625</v>
       </c>
     </row>
     <row r="95" spans="15:18" x14ac:dyDescent="0.45">
@@ -39136,7 +41718,7 @@
         <v>93</v>
       </c>
       <c r="P95">
-        <v>0.125</v>
+        <v>0.109375</v>
       </c>
       <c r="Q95">
         <f t="shared" si="2"/>
@@ -39144,7 +41726,7 @@
       </c>
       <c r="R95">
         <f t="shared" si="3"/>
-        <v>87.5</v>
+        <v>89.0625</v>
       </c>
     </row>
     <row r="96" spans="15:18" x14ac:dyDescent="0.45">
@@ -39152,7 +41734,7 @@
         <v>94</v>
       </c>
       <c r="P96">
-        <v>0.109375</v>
+        <v>0.125</v>
       </c>
       <c r="Q96">
         <f t="shared" si="2"/>
@@ -39160,7 +41742,7 @@
       </c>
       <c r="R96">
         <f t="shared" si="3"/>
-        <v>89.0625</v>
+        <v>87.5</v>
       </c>
     </row>
     <row r="97" spans="15:18" x14ac:dyDescent="0.45">
@@ -39168,7 +41750,7 @@
         <v>95</v>
       </c>
       <c r="P97">
-        <v>0.109375</v>
+        <v>9.375E-2</v>
       </c>
       <c r="Q97">
         <f t="shared" si="2"/>
@@ -39176,7 +41758,7 @@
       </c>
       <c r="R97">
         <f t="shared" si="3"/>
-        <v>89.0625</v>
+        <v>90.625</v>
       </c>
     </row>
     <row r="98" spans="15:18" x14ac:dyDescent="0.45">
@@ -39184,7 +41766,7 @@
         <v>96</v>
       </c>
       <c r="P98">
-        <v>0.109375</v>
+        <v>9.375E-2</v>
       </c>
       <c r="Q98">
         <f t="shared" si="2"/>
@@ -39192,7 +41774,7 @@
       </c>
       <c r="R98">
         <f t="shared" si="3"/>
-        <v>89.0625</v>
+        <v>90.625</v>
       </c>
     </row>
     <row r="99" spans="15:18" x14ac:dyDescent="0.45">
@@ -39216,7 +41798,7 @@
         <v>98</v>
       </c>
       <c r="P100">
-        <v>0.109375</v>
+        <v>9.375E-2</v>
       </c>
       <c r="Q100">
         <f t="shared" si="2"/>
@@ -39224,7 +41806,7 @@
       </c>
       <c r="R100">
         <f t="shared" si="3"/>
-        <v>89.0625</v>
+        <v>90.625</v>
       </c>
     </row>
     <row r="101" spans="15:18" x14ac:dyDescent="0.45">
@@ -39232,7 +41814,7 @@
         <v>99</v>
       </c>
       <c r="P101">
-        <v>0.109375</v>
+        <v>9.375E-2</v>
       </c>
       <c r="Q101">
         <f t="shared" si="2"/>
@@ -39240,140 +41822,140 @@
       </c>
       <c r="R101">
         <f t="shared" si="3"/>
-        <v>89.0625</v>
+        <v>90.625</v>
       </c>
     </row>
     <row r="102" spans="15:18" x14ac:dyDescent="0.45">
       <c r="O102" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P102">
-        <v>0.109375</v>
+        <v>9.375E-2</v>
       </c>
     </row>
     <row r="103" spans="15:18" x14ac:dyDescent="0.45">
       <c r="O103" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P103">
-        <v>9.375E-2</v>
+        <v>0.125</v>
       </c>
     </row>
     <row r="104" spans="15:18" x14ac:dyDescent="0.45">
       <c r="O104" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P104">
-        <v>9.375E-2</v>
+        <v>6.25E-2</v>
       </c>
     </row>
     <row r="105" spans="15:18" x14ac:dyDescent="0.45">
       <c r="O105" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P105">
-        <v>0.109375</v>
+        <v>9.375E-2</v>
       </c>
     </row>
     <row r="106" spans="15:18" x14ac:dyDescent="0.45">
       <c r="O106" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P106">
-        <v>0.140625</v>
+        <v>6.25E-2</v>
       </c>
     </row>
     <row r="107" spans="15:18" x14ac:dyDescent="0.45">
       <c r="O107" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P107">
-        <v>9.375E-2</v>
+        <v>7.8125E-2</v>
       </c>
     </row>
     <row r="108" spans="15:18" x14ac:dyDescent="0.45">
       <c r="O108" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P108">
-        <v>0.109375</v>
+        <v>6.25E-2</v>
       </c>
     </row>
     <row r="109" spans="15:18" x14ac:dyDescent="0.45">
       <c r="O109" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P109">
-        <v>0.109375</v>
+        <v>0.125</v>
       </c>
     </row>
     <row r="110" spans="15:18" x14ac:dyDescent="0.45">
       <c r="O110" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P110">
-        <v>6.25E-2</v>
+        <v>3.125E-2</v>
       </c>
     </row>
     <row r="111" spans="15:18" x14ac:dyDescent="0.45">
       <c r="O111" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P111">
-        <v>0.15625</v>
+        <v>6.25E-2</v>
       </c>
     </row>
     <row r="112" spans="15:18" x14ac:dyDescent="0.45">
       <c r="O112" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P112">
-        <v>4.6875E-2</v>
+        <v>6.25E-2</v>
       </c>
     </row>
     <row r="113" spans="15:16" x14ac:dyDescent="0.45">
       <c r="O113" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P113">
-        <v>7.8125E-2</v>
+        <v>4.6875E-2</v>
       </c>
     </row>
     <row r="114" spans="15:16" x14ac:dyDescent="0.45">
       <c r="O114" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P114">
-        <v>9.375E-2</v>
+        <v>4.6875E-2</v>
       </c>
     </row>
     <row r="115" spans="15:16" x14ac:dyDescent="0.45">
       <c r="O115" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P115">
-        <v>4.6875E-2</v>
+        <v>7.8125E-2</v>
       </c>
     </row>
     <row r="116" spans="15:16" x14ac:dyDescent="0.45">
       <c r="O116" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P116">
-        <v>3.125E-2</v>
+        <v>7.8125E-2</v>
       </c>
     </row>
     <row r="117" spans="15:16" x14ac:dyDescent="0.45">
       <c r="O117" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P117">
-        <v>0.109375</v>
+        <v>6.25E-2</v>
       </c>
     </row>
     <row r="118" spans="15:16" x14ac:dyDescent="0.45">
       <c r="O118" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P118">
         <v>9.375E-2</v>
@@ -39381,103 +41963,103 @@
     </row>
     <row r="119" spans="15:16" x14ac:dyDescent="0.45">
       <c r="O119" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P119">
-        <v>0.125</v>
+        <v>9.375E-2</v>
       </c>
     </row>
     <row r="120" spans="15:16" x14ac:dyDescent="0.45">
       <c r="O120" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P120">
-        <v>7.8125E-2</v>
+        <v>0.140625</v>
       </c>
     </row>
     <row r="121" spans="15:16" x14ac:dyDescent="0.45">
       <c r="O121" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P121">
-        <v>0.109375</v>
+        <v>6.25E-2</v>
       </c>
     </row>
     <row r="122" spans="15:16" x14ac:dyDescent="0.45">
       <c r="O122" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P122">
-        <v>6.25E-2</v>
+        <v>4.6875E-2</v>
       </c>
     </row>
     <row r="123" spans="15:16" x14ac:dyDescent="0.45">
       <c r="O123" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P123">
-        <v>9.375E-2</v>
+        <v>7.8125E-2</v>
       </c>
     </row>
     <row r="124" spans="15:16" x14ac:dyDescent="0.45">
       <c r="O124" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P124">
-        <v>7.8125E-2</v>
+        <v>6.25E-2</v>
       </c>
     </row>
     <row r="125" spans="15:16" x14ac:dyDescent="0.45">
       <c r="O125" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P125">
-        <v>7.8125E-2</v>
+        <v>0.109375</v>
       </c>
     </row>
     <row r="126" spans="15:16" x14ac:dyDescent="0.45">
       <c r="O126" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P126">
-        <v>9.375E-2</v>
+        <v>7.8125E-2</v>
       </c>
     </row>
     <row r="127" spans="15:16" x14ac:dyDescent="0.45">
       <c r="O127" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P127">
-        <v>9.375E-2</v>
+        <v>6.25E-2</v>
       </c>
     </row>
     <row r="128" spans="15:16" x14ac:dyDescent="0.45">
       <c r="O128" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P128">
-        <v>0.140625</v>
+        <v>0.125</v>
       </c>
     </row>
     <row r="129" spans="15:16" x14ac:dyDescent="0.45">
       <c r="O129" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P129">
-        <v>4.6875E-2</v>
+        <v>6.25E-2</v>
       </c>
     </row>
     <row r="130" spans="15:16" x14ac:dyDescent="0.45">
       <c r="O130" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P130">
-        <v>0.171875</v>
+        <v>0.109375</v>
       </c>
     </row>
     <row r="131" spans="15:16" x14ac:dyDescent="0.45">
       <c r="O131" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P131">
         <v>7.8125E-2</v>
@@ -39485,47 +42067,47 @@
     </row>
     <row r="132" spans="15:16" x14ac:dyDescent="0.45">
       <c r="O132" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P132">
-        <v>7.8125E-2</v>
+        <v>0.109375</v>
       </c>
     </row>
     <row r="133" spans="15:16" x14ac:dyDescent="0.45">
       <c r="O133" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P133">
-        <v>6.25E-2</v>
+        <v>9.375E-2</v>
       </c>
     </row>
     <row r="134" spans="15:16" x14ac:dyDescent="0.45">
       <c r="O134" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P134">
-        <v>0.109375</v>
+        <v>7.8125E-2</v>
       </c>
     </row>
     <row r="135" spans="15:16" x14ac:dyDescent="0.45">
       <c r="O135" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P135">
-        <v>7.8125E-2</v>
+        <v>4.6875E-2</v>
       </c>
     </row>
     <row r="136" spans="15:16" x14ac:dyDescent="0.45">
       <c r="O136" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P136">
-        <v>0.125</v>
+        <v>7.8125E-2</v>
       </c>
     </row>
     <row r="137" spans="15:16" x14ac:dyDescent="0.45">
       <c r="O137" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P137">
         <v>0.140625</v>
@@ -39533,47 +42115,47 @@
     </row>
     <row r="138" spans="15:16" x14ac:dyDescent="0.45">
       <c r="O138" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P138">
-        <v>4.6875E-2</v>
+        <v>0.109375</v>
       </c>
     </row>
     <row r="139" spans="15:16" x14ac:dyDescent="0.45">
       <c r="O139" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P139">
-        <v>4.6875E-2</v>
+        <v>6.25E-2</v>
       </c>
     </row>
     <row r="140" spans="15:16" x14ac:dyDescent="0.45">
       <c r="O140" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P140">
-        <v>0.109375</v>
+        <v>9.375E-2</v>
       </c>
     </row>
     <row r="141" spans="15:16" x14ac:dyDescent="0.45">
       <c r="O141" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P141">
-        <v>3.125E-2</v>
+        <v>7.8125E-2</v>
       </c>
     </row>
     <row r="142" spans="15:16" x14ac:dyDescent="0.45">
       <c r="O142" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P142">
-        <v>0.140625</v>
+        <v>0.109375</v>
       </c>
     </row>
     <row r="143" spans="15:16" x14ac:dyDescent="0.45">
       <c r="O143" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P143">
         <v>9.375E-2</v>
@@ -39581,31 +42163,31 @@
     </row>
     <row r="144" spans="15:16" x14ac:dyDescent="0.45">
       <c r="O144" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P144">
-        <v>4.6875E-2</v>
+        <v>7.8125E-2</v>
       </c>
     </row>
     <row r="145" spans="15:16" x14ac:dyDescent="0.45">
       <c r="O145" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P145">
-        <v>0.171875</v>
+        <v>0.125</v>
       </c>
     </row>
     <row r="146" spans="15:16" x14ac:dyDescent="0.45">
       <c r="O146" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P146">
-        <v>0.15625</v>
+        <v>9.375E-2</v>
       </c>
     </row>
     <row r="147" spans="15:16" x14ac:dyDescent="0.45">
       <c r="O147" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P147">
         <v>0.109375</v>
@@ -39613,42 +42195,2116 @@
     </row>
     <row r="148" spans="15:16" x14ac:dyDescent="0.45">
       <c r="O148" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P148">
-        <v>0.125</v>
+        <v>0.15625</v>
       </c>
     </row>
     <row r="149" spans="15:16" x14ac:dyDescent="0.45">
       <c r="O149" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P149">
-        <v>7.8125E-2</v>
+        <v>6.25E-2</v>
       </c>
     </row>
     <row r="150" spans="15:16" x14ac:dyDescent="0.45">
       <c r="O150" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P150">
-        <v>0.140625</v>
+        <v>0.109375</v>
       </c>
     </row>
     <row r="151" spans="15:16" x14ac:dyDescent="0.45">
       <c r="O151" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P151">
-        <v>7.8125E-2</v>
+        <v>6.25E-2</v>
       </c>
     </row>
     <row r="152" spans="15:16" x14ac:dyDescent="0.45">
       <c r="O152" t="s">
+        <v>30</v>
+      </c>
+      <c r="P152">
+        <v>5.4545454545454543E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="I1:M1"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="A20:C20"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF31BBA9-D11B-4EA5-B7E0-3EB9F201FFE1}">
+  <dimension ref="A1:R152"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E43" sqref="E43"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="7" max="7" width="18.3984375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A1" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="I1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
+      <c r="O1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="O2">
+        <v>0</v>
+      </c>
+      <c r="P2">
+        <v>1.109375</v>
+      </c>
+      <c r="Q2">
+        <f xml:space="preserve"> 1+O2</f>
+        <v>1</v>
+      </c>
+      <c r="R2">
+        <f xml:space="preserve"> (1-P2)*100</f>
+        <v>-10.9375</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="O3">
+        <v>1</v>
+      </c>
+      <c r="P3">
+        <v>1</v>
+      </c>
+      <c r="Q3">
+        <f t="shared" ref="Q3:Q66" si="0" xml:space="preserve"> 1+O3</f>
+        <v>2</v>
+      </c>
+      <c r="R3">
+        <f t="shared" ref="R3:R66" si="1" xml:space="preserve"> (1-P3)*100</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="O4">
+        <v>2</v>
+      </c>
+      <c r="P4">
+        <v>0.703125</v>
+      </c>
+      <c r="Q4">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="R4">
+        <f t="shared" si="1"/>
+        <v>29.6875</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="O5">
+        <v>3</v>
+      </c>
+      <c r="P5">
+        <v>0.515625</v>
+      </c>
+      <c r="Q5">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="R5">
+        <f t="shared" si="1"/>
+        <v>48.4375</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="O6">
+        <v>4</v>
+      </c>
+      <c r="P6">
+        <v>0.34375</v>
+      </c>
+      <c r="Q6">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="R6">
+        <f t="shared" si="1"/>
+        <v>65.625</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="O7">
+        <v>5</v>
+      </c>
+      <c r="P7">
+        <v>0.3125</v>
+      </c>
+      <c r="Q7">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="R7">
+        <f t="shared" si="1"/>
+        <v>68.75</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="O8">
+        <v>6</v>
+      </c>
+      <c r="P8">
+        <v>0.296875</v>
+      </c>
+      <c r="Q8">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="R8">
+        <f t="shared" si="1"/>
+        <v>70.3125</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="O9">
+        <v>7</v>
+      </c>
+      <c r="P9">
+        <v>0.234375</v>
+      </c>
+      <c r="Q9">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="R9">
+        <f t="shared" si="1"/>
+        <v>76.5625</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="O10">
+        <v>8</v>
+      </c>
+      <c r="P10">
+        <v>0.1875</v>
+      </c>
+      <c r="Q10">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="R10">
+        <f t="shared" si="1"/>
+        <v>81.25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="O11">
+        <v>9</v>
+      </c>
+      <c r="P11">
+        <v>0.3125</v>
+      </c>
+      <c r="Q11">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="R11">
+        <f t="shared" si="1"/>
+        <v>68.75</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="O12">
+        <v>10</v>
+      </c>
+      <c r="P12">
+        <v>0.265625</v>
+      </c>
+      <c r="Q12">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="R12">
+        <f t="shared" si="1"/>
+        <v>73.4375</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="O13">
+        <v>11</v>
+      </c>
+      <c r="P13">
+        <v>0.1875</v>
+      </c>
+      <c r="Q13">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="R13">
+        <f t="shared" si="1"/>
+        <v>81.25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="O14">
+        <v>12</v>
+      </c>
+      <c r="P14">
+        <v>0.21875</v>
+      </c>
+      <c r="Q14">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="R14">
+        <f t="shared" si="1"/>
+        <v>78.125</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="O15">
+        <v>13</v>
+      </c>
+      <c r="P15">
+        <v>0.1875</v>
+      </c>
+      <c r="Q15">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="R15">
+        <f t="shared" si="1"/>
+        <v>81.25</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="O16">
+        <v>14</v>
+      </c>
+      <c r="P16">
+        <v>0.171875</v>
+      </c>
+      <c r="Q16">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="R16">
+        <f t="shared" si="1"/>
+        <v>82.8125</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="O17">
+        <v>15</v>
+      </c>
+      <c r="P17">
+        <v>0.203125</v>
+      </c>
+      <c r="Q17">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="R17">
+        <f t="shared" si="1"/>
+        <v>79.6875</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="O18">
+        <v>16</v>
+      </c>
+      <c r="P18">
+        <v>0.171875</v>
+      </c>
+      <c r="Q18">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="R18">
+        <f t="shared" si="1"/>
+        <v>82.8125</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="O19">
+        <v>17</v>
+      </c>
+      <c r="P19">
+        <v>0.28125</v>
+      </c>
+      <c r="Q19">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="R19">
+        <f t="shared" si="1"/>
+        <v>71.875</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A20" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
+      <c r="O20">
+        <v>18</v>
+      </c>
+      <c r="P20">
+        <v>0.265625</v>
+      </c>
+      <c r="Q20">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="R20">
+        <f t="shared" si="1"/>
+        <v>73.4375</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="O21">
+        <v>19</v>
+      </c>
+      <c r="P21">
+        <v>0.234375</v>
+      </c>
+      <c r="Q21">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="R21">
+        <f t="shared" si="1"/>
+        <v>76.5625</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="O22">
+        <v>20</v>
+      </c>
+      <c r="P22">
+        <v>0.203125</v>
+      </c>
+      <c r="Q22">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="R22">
+        <f t="shared" si="1"/>
+        <v>79.6875</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="O23">
+        <v>21</v>
+      </c>
+      <c r="P23">
+        <v>0.25</v>
+      </c>
+      <c r="Q23">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="R23">
+        <f t="shared" si="1"/>
+        <v>75</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="O24">
+        <v>22</v>
+      </c>
+      <c r="P24">
+        <v>0.140625</v>
+      </c>
+      <c r="Q24">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="R24">
+        <f t="shared" si="1"/>
+        <v>85.9375</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="O25">
+        <v>23</v>
+      </c>
+      <c r="P25">
+        <v>0.15625</v>
+      </c>
+      <c r="Q25">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="R25">
+        <f t="shared" si="1"/>
+        <v>84.375</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="O26">
+        <v>24</v>
+      </c>
+      <c r="P26">
+        <v>0.28125</v>
+      </c>
+      <c r="Q26">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="R26">
+        <f t="shared" si="1"/>
+        <v>71.875</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="O27">
+        <v>25</v>
+      </c>
+      <c r="P27">
+        <v>0.171875</v>
+      </c>
+      <c r="Q27">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+      <c r="R27">
+        <f t="shared" si="1"/>
+        <v>82.8125</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="O28">
+        <v>26</v>
+      </c>
+      <c r="P28">
+        <v>0.125</v>
+      </c>
+      <c r="Q28">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+      <c r="R28">
+        <f t="shared" si="1"/>
+        <v>87.5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="O29">
+        <v>27</v>
+      </c>
+      <c r="P29">
+        <v>0.1875</v>
+      </c>
+      <c r="Q29">
+        <f t="shared" si="0"/>
         <v>28</v>
       </c>
+      <c r="R29">
+        <f t="shared" si="1"/>
+        <v>81.25</v>
+      </c>
+    </row>
+    <row r="30" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="O30">
+        <v>28</v>
+      </c>
+      <c r="P30">
+        <v>0.109375</v>
+      </c>
+      <c r="Q30">
+        <f t="shared" si="0"/>
+        <v>29</v>
+      </c>
+      <c r="R30">
+        <f t="shared" si="1"/>
+        <v>89.0625</v>
+      </c>
+    </row>
+    <row r="31" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="O31">
+        <v>29</v>
+      </c>
+      <c r="P31">
+        <v>0.1875</v>
+      </c>
+      <c r="Q31">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="R31">
+        <f t="shared" si="1"/>
+        <v>81.25</v>
+      </c>
+    </row>
+    <row r="32" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="O32">
+        <v>30</v>
+      </c>
+      <c r="P32">
+        <v>0.109375</v>
+      </c>
+      <c r="Q32">
+        <f t="shared" si="0"/>
+        <v>31</v>
+      </c>
+      <c r="R32">
+        <f t="shared" si="1"/>
+        <v>89.0625</v>
+      </c>
+    </row>
+    <row r="33" spans="15:18" x14ac:dyDescent="0.45">
+      <c r="O33">
+        <v>31</v>
+      </c>
+      <c r="P33">
+        <v>0.125</v>
+      </c>
+      <c r="Q33">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+      <c r="R33">
+        <f t="shared" si="1"/>
+        <v>87.5</v>
+      </c>
+    </row>
+    <row r="34" spans="15:18" x14ac:dyDescent="0.45">
+      <c r="O34">
+        <v>32</v>
+      </c>
+      <c r="P34">
+        <v>0.1875</v>
+      </c>
+      <c r="Q34">
+        <f t="shared" si="0"/>
+        <v>33</v>
+      </c>
+      <c r="R34">
+        <f t="shared" si="1"/>
+        <v>81.25</v>
+      </c>
+    </row>
+    <row r="35" spans="15:18" x14ac:dyDescent="0.45">
+      <c r="O35">
+        <v>33</v>
+      </c>
+      <c r="P35">
+        <v>0.25</v>
+      </c>
+      <c r="Q35">
+        <f t="shared" si="0"/>
+        <v>34</v>
+      </c>
+      <c r="R35">
+        <f t="shared" si="1"/>
+        <v>75</v>
+      </c>
+    </row>
+    <row r="36" spans="15:18" x14ac:dyDescent="0.45">
+      <c r="O36">
+        <v>34</v>
+      </c>
+      <c r="P36">
+        <v>0.171875</v>
+      </c>
+      <c r="Q36">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+      <c r="R36">
+        <f t="shared" si="1"/>
+        <v>82.8125</v>
+      </c>
+    </row>
+    <row r="37" spans="15:18" x14ac:dyDescent="0.45">
+      <c r="O37">
+        <v>35</v>
+      </c>
+      <c r="P37">
+        <v>0.109375</v>
+      </c>
+      <c r="Q37">
+        <f t="shared" si="0"/>
+        <v>36</v>
+      </c>
+      <c r="R37">
+        <f t="shared" si="1"/>
+        <v>89.0625</v>
+      </c>
+    </row>
+    <row r="38" spans="15:18" x14ac:dyDescent="0.45">
+      <c r="O38">
+        <v>36</v>
+      </c>
+      <c r="P38">
+        <v>0.171875</v>
+      </c>
+      <c r="Q38">
+        <f t="shared" si="0"/>
+        <v>37</v>
+      </c>
+      <c r="R38">
+        <f t="shared" si="1"/>
+        <v>82.8125</v>
+      </c>
+    </row>
+    <row r="39" spans="15:18" x14ac:dyDescent="0.45">
+      <c r="O39">
+        <v>37</v>
+      </c>
+      <c r="P39">
+        <v>0.125</v>
+      </c>
+      <c r="Q39">
+        <f t="shared" si="0"/>
+        <v>38</v>
+      </c>
+      <c r="R39">
+        <f t="shared" si="1"/>
+        <v>87.5</v>
+      </c>
+    </row>
+    <row r="40" spans="15:18" x14ac:dyDescent="0.45">
+      <c r="O40">
+        <v>38</v>
+      </c>
+      <c r="P40">
+        <v>0.109375</v>
+      </c>
+      <c r="Q40">
+        <f t="shared" si="0"/>
+        <v>39</v>
+      </c>
+      <c r="R40">
+        <f t="shared" si="1"/>
+        <v>89.0625</v>
+      </c>
+    </row>
+    <row r="41" spans="15:18" x14ac:dyDescent="0.45">
+      <c r="O41">
+        <v>39</v>
+      </c>
+      <c r="P41">
+        <v>0.140625</v>
+      </c>
+      <c r="Q41">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="R41">
+        <f t="shared" si="1"/>
+        <v>85.9375</v>
+      </c>
+    </row>
+    <row r="42" spans="15:18" x14ac:dyDescent="0.45">
+      <c r="O42">
+        <v>40</v>
+      </c>
+      <c r="P42">
+        <v>9.375E-2</v>
+      </c>
+      <c r="Q42">
+        <f t="shared" si="0"/>
+        <v>41</v>
+      </c>
+      <c r="R42">
+        <f t="shared" si="1"/>
+        <v>90.625</v>
+      </c>
+    </row>
+    <row r="43" spans="15:18" x14ac:dyDescent="0.45">
+      <c r="O43">
+        <v>41</v>
+      </c>
+      <c r="P43">
+        <v>0.171875</v>
+      </c>
+      <c r="Q43">
+        <f t="shared" si="0"/>
+        <v>42</v>
+      </c>
+      <c r="R43">
+        <f t="shared" si="1"/>
+        <v>82.8125</v>
+      </c>
+    </row>
+    <row r="44" spans="15:18" x14ac:dyDescent="0.45">
+      <c r="O44">
+        <v>42</v>
+      </c>
+      <c r="P44">
+        <v>0.140625</v>
+      </c>
+      <c r="Q44">
+        <f t="shared" si="0"/>
+        <v>43</v>
+      </c>
+      <c r="R44">
+        <f t="shared" si="1"/>
+        <v>85.9375</v>
+      </c>
+    </row>
+    <row r="45" spans="15:18" x14ac:dyDescent="0.45">
+      <c r="O45">
+        <v>43</v>
+      </c>
+      <c r="P45">
+        <v>0.1875</v>
+      </c>
+      <c r="Q45">
+        <f t="shared" si="0"/>
+        <v>44</v>
+      </c>
+      <c r="R45">
+        <f t="shared" si="1"/>
+        <v>81.25</v>
+      </c>
+    </row>
+    <row r="46" spans="15:18" x14ac:dyDescent="0.45">
+      <c r="O46">
+        <v>44</v>
+      </c>
+      <c r="P46">
+        <v>0.140625</v>
+      </c>
+      <c r="Q46">
+        <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+      <c r="R46">
+        <f t="shared" si="1"/>
+        <v>85.9375</v>
+      </c>
+    </row>
+    <row r="47" spans="15:18" x14ac:dyDescent="0.45">
+      <c r="O47">
+        <v>45</v>
+      </c>
+      <c r="P47">
+        <v>0.171875</v>
+      </c>
+      <c r="Q47">
+        <f t="shared" si="0"/>
+        <v>46</v>
+      </c>
+      <c r="R47">
+        <f t="shared" si="1"/>
+        <v>82.8125</v>
+      </c>
+    </row>
+    <row r="48" spans="15:18" x14ac:dyDescent="0.45">
+      <c r="O48">
+        <v>46</v>
+      </c>
+      <c r="P48">
+        <v>0.234375</v>
+      </c>
+      <c r="Q48">
+        <f t="shared" si="0"/>
+        <v>47</v>
+      </c>
+      <c r="R48">
+        <f t="shared" si="1"/>
+        <v>76.5625</v>
+      </c>
+    </row>
+    <row r="49" spans="15:18" x14ac:dyDescent="0.45">
+      <c r="O49">
+        <v>47</v>
+      </c>
+      <c r="P49">
+        <v>0.171875</v>
+      </c>
+      <c r="Q49">
+        <f t="shared" si="0"/>
+        <v>48</v>
+      </c>
+      <c r="R49">
+        <f t="shared" si="1"/>
+        <v>82.8125</v>
+      </c>
+    </row>
+    <row r="50" spans="15:18" x14ac:dyDescent="0.45">
+      <c r="O50">
+        <v>48</v>
+      </c>
+      <c r="P50">
+        <v>0.125</v>
+      </c>
+      <c r="Q50">
+        <f t="shared" si="0"/>
+        <v>49</v>
+      </c>
+      <c r="R50">
+        <f t="shared" si="1"/>
+        <v>87.5</v>
+      </c>
+    </row>
+    <row r="51" spans="15:18" x14ac:dyDescent="0.45">
+      <c r="O51">
+        <v>49</v>
+      </c>
+      <c r="P51">
+        <v>0.15625</v>
+      </c>
+      <c r="Q51">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+      <c r="R51">
+        <f t="shared" si="1"/>
+        <v>84.375</v>
+      </c>
+    </row>
+    <row r="52" spans="15:18" x14ac:dyDescent="0.45">
+      <c r="O52">
+        <v>50</v>
+      </c>
+      <c r="P52">
+        <v>0.15625</v>
+      </c>
+      <c r="Q52">
+        <f t="shared" si="0"/>
+        <v>51</v>
+      </c>
+      <c r="R52">
+        <f t="shared" si="1"/>
+        <v>84.375</v>
+      </c>
+    </row>
+    <row r="53" spans="15:18" x14ac:dyDescent="0.45">
+      <c r="O53">
+        <v>51</v>
+      </c>
+      <c r="P53">
+        <v>0.140625</v>
+      </c>
+      <c r="Q53">
+        <f t="shared" si="0"/>
+        <v>52</v>
+      </c>
+      <c r="R53">
+        <f t="shared" si="1"/>
+        <v>85.9375</v>
+      </c>
+    </row>
+    <row r="54" spans="15:18" x14ac:dyDescent="0.45">
+      <c r="O54">
+        <v>52</v>
+      </c>
+      <c r="P54">
+        <v>0.1875</v>
+      </c>
+      <c r="Q54">
+        <f t="shared" si="0"/>
+        <v>53</v>
+      </c>
+      <c r="R54">
+        <f t="shared" si="1"/>
+        <v>81.25</v>
+      </c>
+    </row>
+    <row r="55" spans="15:18" x14ac:dyDescent="0.45">
+      <c r="O55">
+        <v>53</v>
+      </c>
+      <c r="P55">
+        <v>0.140625</v>
+      </c>
+      <c r="Q55">
+        <f t="shared" si="0"/>
+        <v>54</v>
+      </c>
+      <c r="R55">
+        <f t="shared" si="1"/>
+        <v>85.9375</v>
+      </c>
+    </row>
+    <row r="56" spans="15:18" x14ac:dyDescent="0.45">
+      <c r="O56">
+        <v>54</v>
+      </c>
+      <c r="P56">
+        <v>0.171875</v>
+      </c>
+      <c r="Q56">
+        <f t="shared" si="0"/>
+        <v>55</v>
+      </c>
+      <c r="R56">
+        <f t="shared" si="1"/>
+        <v>82.8125</v>
+      </c>
+    </row>
+    <row r="57" spans="15:18" x14ac:dyDescent="0.45">
+      <c r="O57">
+        <v>55</v>
+      </c>
+      <c r="P57">
+        <v>0.109375</v>
+      </c>
+      <c r="Q57">
+        <f t="shared" si="0"/>
+        <v>56</v>
+      </c>
+      <c r="R57">
+        <f t="shared" si="1"/>
+        <v>89.0625</v>
+      </c>
+    </row>
+    <row r="58" spans="15:18" x14ac:dyDescent="0.45">
+      <c r="O58">
+        <v>56</v>
+      </c>
+      <c r="P58">
+        <v>0.1875</v>
+      </c>
+      <c r="Q58">
+        <f t="shared" si="0"/>
+        <v>57</v>
+      </c>
+      <c r="R58">
+        <f t="shared" si="1"/>
+        <v>81.25</v>
+      </c>
+    </row>
+    <row r="59" spans="15:18" x14ac:dyDescent="0.45">
+      <c r="O59">
+        <v>57</v>
+      </c>
+      <c r="P59">
+        <v>0.125</v>
+      </c>
+      <c r="Q59">
+        <f t="shared" si="0"/>
+        <v>58</v>
+      </c>
+      <c r="R59">
+        <f t="shared" si="1"/>
+        <v>87.5</v>
+      </c>
+    </row>
+    <row r="60" spans="15:18" x14ac:dyDescent="0.45">
+      <c r="O60">
+        <v>58</v>
+      </c>
+      <c r="P60">
+        <v>0.15625</v>
+      </c>
+      <c r="Q60">
+        <f t="shared" si="0"/>
+        <v>59</v>
+      </c>
+      <c r="R60">
+        <f t="shared" si="1"/>
+        <v>84.375</v>
+      </c>
+    </row>
+    <row r="61" spans="15:18" x14ac:dyDescent="0.45">
+      <c r="O61">
+        <v>59</v>
+      </c>
+      <c r="P61">
+        <v>0.171875</v>
+      </c>
+      <c r="Q61">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+      <c r="R61">
+        <f t="shared" si="1"/>
+        <v>82.8125</v>
+      </c>
+    </row>
+    <row r="62" spans="15:18" x14ac:dyDescent="0.45">
+      <c r="O62">
+        <v>60</v>
+      </c>
+      <c r="P62">
+        <v>0.109375</v>
+      </c>
+      <c r="Q62">
+        <f t="shared" si="0"/>
+        <v>61</v>
+      </c>
+      <c r="R62">
+        <f t="shared" si="1"/>
+        <v>89.0625</v>
+      </c>
+    </row>
+    <row r="63" spans="15:18" x14ac:dyDescent="0.45">
+      <c r="O63">
+        <v>61</v>
+      </c>
+      <c r="P63">
+        <v>6.25E-2</v>
+      </c>
+      <c r="Q63">
+        <f t="shared" si="0"/>
+        <v>62</v>
+      </c>
+      <c r="R63">
+        <f t="shared" si="1"/>
+        <v>93.75</v>
+      </c>
+    </row>
+    <row r="64" spans="15:18" x14ac:dyDescent="0.45">
+      <c r="O64">
+        <v>62</v>
+      </c>
+      <c r="P64">
+        <v>7.8125E-2</v>
+      </c>
+      <c r="Q64">
+        <f t="shared" si="0"/>
+        <v>63</v>
+      </c>
+      <c r="R64">
+        <f t="shared" si="1"/>
+        <v>92.1875</v>
+      </c>
+    </row>
+    <row r="65" spans="15:18" x14ac:dyDescent="0.45">
+      <c r="O65">
+        <v>63</v>
+      </c>
+      <c r="P65">
+        <v>6.25E-2</v>
+      </c>
+      <c r="Q65">
+        <f t="shared" si="0"/>
+        <v>64</v>
+      </c>
+      <c r="R65">
+        <f t="shared" si="1"/>
+        <v>93.75</v>
+      </c>
+    </row>
+    <row r="66" spans="15:18" x14ac:dyDescent="0.45">
+      <c r="O66">
+        <v>64</v>
+      </c>
+      <c r="P66">
+        <v>0.140625</v>
+      </c>
+      <c r="Q66">
+        <f t="shared" si="0"/>
+        <v>65</v>
+      </c>
+      <c r="R66">
+        <f t="shared" si="1"/>
+        <v>85.9375</v>
+      </c>
+    </row>
+    <row r="67" spans="15:18" x14ac:dyDescent="0.45">
+      <c r="O67">
+        <v>65</v>
+      </c>
+      <c r="P67">
+        <v>0.109375</v>
+      </c>
+      <c r="Q67">
+        <f t="shared" ref="Q67:Q101" si="2" xml:space="preserve"> 1+O67</f>
+        <v>66</v>
+      </c>
+      <c r="R67">
+        <f t="shared" ref="R67:R101" si="3" xml:space="preserve"> (1-P67)*100</f>
+        <v>89.0625</v>
+      </c>
+    </row>
+    <row r="68" spans="15:18" x14ac:dyDescent="0.45">
+      <c r="O68">
+        <v>66</v>
+      </c>
+      <c r="P68">
+        <v>9.375E-2</v>
+      </c>
+      <c r="Q68">
+        <f t="shared" si="2"/>
+        <v>67</v>
+      </c>
+      <c r="R68">
+        <f t="shared" si="3"/>
+        <v>90.625</v>
+      </c>
+    </row>
+    <row r="69" spans="15:18" x14ac:dyDescent="0.45">
+      <c r="O69">
+        <v>67</v>
+      </c>
+      <c r="P69">
+        <v>0.15625</v>
+      </c>
+      <c r="Q69">
+        <f t="shared" si="2"/>
+        <v>68</v>
+      </c>
+      <c r="R69">
+        <f t="shared" si="3"/>
+        <v>84.375</v>
+      </c>
+    </row>
+    <row r="70" spans="15:18" x14ac:dyDescent="0.45">
+      <c r="O70">
+        <v>68</v>
+      </c>
+      <c r="P70">
+        <v>9.375E-2</v>
+      </c>
+      <c r="Q70">
+        <f t="shared" si="2"/>
+        <v>69</v>
+      </c>
+      <c r="R70">
+        <f t="shared" si="3"/>
+        <v>90.625</v>
+      </c>
+    </row>
+    <row r="71" spans="15:18" x14ac:dyDescent="0.45">
+      <c r="O71">
+        <v>69</v>
+      </c>
+      <c r="P71">
+        <v>0.171875</v>
+      </c>
+      <c r="Q71">
+        <f t="shared" si="2"/>
+        <v>70</v>
+      </c>
+      <c r="R71">
+        <f t="shared" si="3"/>
+        <v>82.8125</v>
+      </c>
+    </row>
+    <row r="72" spans="15:18" x14ac:dyDescent="0.45">
+      <c r="O72">
+        <v>70</v>
+      </c>
+      <c r="P72">
+        <v>0.140625</v>
+      </c>
+      <c r="Q72">
+        <f t="shared" si="2"/>
+        <v>71</v>
+      </c>
+      <c r="R72">
+        <f t="shared" si="3"/>
+        <v>85.9375</v>
+      </c>
+    </row>
+    <row r="73" spans="15:18" x14ac:dyDescent="0.45">
+      <c r="O73">
+        <v>71</v>
+      </c>
+      <c r="P73">
+        <v>0.15625</v>
+      </c>
+      <c r="Q73">
+        <f t="shared" si="2"/>
+        <v>72</v>
+      </c>
+      <c r="R73">
+        <f t="shared" si="3"/>
+        <v>84.375</v>
+      </c>
+    </row>
+    <row r="74" spans="15:18" x14ac:dyDescent="0.45">
+      <c r="O74">
+        <v>72</v>
+      </c>
+      <c r="P74">
+        <v>0.109375</v>
+      </c>
+      <c r="Q74">
+        <f t="shared" si="2"/>
+        <v>73</v>
+      </c>
+      <c r="R74">
+        <f t="shared" si="3"/>
+        <v>89.0625</v>
+      </c>
+    </row>
+    <row r="75" spans="15:18" x14ac:dyDescent="0.45">
+      <c r="O75">
+        <v>73</v>
+      </c>
+      <c r="P75">
+        <v>0.125</v>
+      </c>
+      <c r="Q75">
+        <f t="shared" si="2"/>
+        <v>74</v>
+      </c>
+      <c r="R75">
+        <f t="shared" si="3"/>
+        <v>87.5</v>
+      </c>
+    </row>
+    <row r="76" spans="15:18" x14ac:dyDescent="0.45">
+      <c r="O76">
+        <v>74</v>
+      </c>
+      <c r="P76">
+        <v>0.125</v>
+      </c>
+      <c r="Q76">
+        <f t="shared" si="2"/>
+        <v>75</v>
+      </c>
+      <c r="R76">
+        <f t="shared" si="3"/>
+        <v>87.5</v>
+      </c>
+    </row>
+    <row r="77" spans="15:18" x14ac:dyDescent="0.45">
+      <c r="O77">
+        <v>75</v>
+      </c>
+      <c r="P77">
+        <v>0.140625</v>
+      </c>
+      <c r="Q77">
+        <f t="shared" si="2"/>
+        <v>76</v>
+      </c>
+      <c r="R77">
+        <f t="shared" si="3"/>
+        <v>85.9375</v>
+      </c>
+    </row>
+    <row r="78" spans="15:18" x14ac:dyDescent="0.45">
+      <c r="O78">
+        <v>76</v>
+      </c>
+      <c r="P78">
+        <v>0.140625</v>
+      </c>
+      <c r="Q78">
+        <f t="shared" si="2"/>
+        <v>77</v>
+      </c>
+      <c r="R78">
+        <f t="shared" si="3"/>
+        <v>85.9375</v>
+      </c>
+    </row>
+    <row r="79" spans="15:18" x14ac:dyDescent="0.45">
+      <c r="O79">
+        <v>77</v>
+      </c>
+      <c r="P79">
+        <v>0.171875</v>
+      </c>
+      <c r="Q79">
+        <f t="shared" si="2"/>
+        <v>78</v>
+      </c>
+      <c r="R79">
+        <f t="shared" si="3"/>
+        <v>82.8125</v>
+      </c>
+    </row>
+    <row r="80" spans="15:18" x14ac:dyDescent="0.45">
+      <c r="O80">
+        <v>78</v>
+      </c>
+      <c r="P80">
+        <v>0.125</v>
+      </c>
+      <c r="Q80">
+        <f t="shared" si="2"/>
+        <v>79</v>
+      </c>
+      <c r="R80">
+        <f t="shared" si="3"/>
+        <v>87.5</v>
+      </c>
+    </row>
+    <row r="81" spans="15:18" x14ac:dyDescent="0.45">
+      <c r="O81">
+        <v>79</v>
+      </c>
+      <c r="P81">
+        <v>0.125</v>
+      </c>
+      <c r="Q81">
+        <f t="shared" si="2"/>
+        <v>80</v>
+      </c>
+      <c r="R81">
+        <f t="shared" si="3"/>
+        <v>87.5</v>
+      </c>
+    </row>
+    <row r="82" spans="15:18" x14ac:dyDescent="0.45">
+      <c r="O82">
+        <v>80</v>
+      </c>
+      <c r="P82">
+        <v>0.109375</v>
+      </c>
+      <c r="Q82">
+        <f t="shared" si="2"/>
+        <v>81</v>
+      </c>
+      <c r="R82">
+        <f t="shared" si="3"/>
+        <v>89.0625</v>
+      </c>
+    </row>
+    <row r="83" spans="15:18" x14ac:dyDescent="0.45">
+      <c r="O83">
+        <v>81</v>
+      </c>
+      <c r="P83">
+        <v>0.109375</v>
+      </c>
+      <c r="Q83">
+        <f t="shared" si="2"/>
+        <v>82</v>
+      </c>
+      <c r="R83">
+        <f t="shared" si="3"/>
+        <v>89.0625</v>
+      </c>
+    </row>
+    <row r="84" spans="15:18" x14ac:dyDescent="0.45">
+      <c r="O84">
+        <v>82</v>
+      </c>
+      <c r="P84">
+        <v>0.109375</v>
+      </c>
+      <c r="Q84">
+        <f t="shared" si="2"/>
+        <v>83</v>
+      </c>
+      <c r="R84">
+        <f t="shared" si="3"/>
+        <v>89.0625</v>
+      </c>
+    </row>
+    <row r="85" spans="15:18" x14ac:dyDescent="0.45">
+      <c r="O85">
+        <v>83</v>
+      </c>
+      <c r="P85">
+        <v>0.109375</v>
+      </c>
+      <c r="Q85">
+        <f t="shared" si="2"/>
+        <v>84</v>
+      </c>
+      <c r="R85">
+        <f t="shared" si="3"/>
+        <v>89.0625</v>
+      </c>
+    </row>
+    <row r="86" spans="15:18" x14ac:dyDescent="0.45">
+      <c r="O86">
+        <v>84</v>
+      </c>
+      <c r="P86">
+        <v>0.109375</v>
+      </c>
+      <c r="Q86">
+        <f t="shared" si="2"/>
+        <v>85</v>
+      </c>
+      <c r="R86">
+        <f t="shared" si="3"/>
+        <v>89.0625</v>
+      </c>
+    </row>
+    <row r="87" spans="15:18" x14ac:dyDescent="0.45">
+      <c r="O87">
+        <v>85</v>
+      </c>
+      <c r="P87">
+        <v>0.109375</v>
+      </c>
+      <c r="Q87">
+        <f t="shared" si="2"/>
+        <v>86</v>
+      </c>
+      <c r="R87">
+        <f t="shared" si="3"/>
+        <v>89.0625</v>
+      </c>
+    </row>
+    <row r="88" spans="15:18" x14ac:dyDescent="0.45">
+      <c r="O88">
+        <v>86</v>
+      </c>
+      <c r="P88">
+        <v>0.109375</v>
+      </c>
+      <c r="Q88">
+        <f t="shared" si="2"/>
+        <v>87</v>
+      </c>
+      <c r="R88">
+        <f t="shared" si="3"/>
+        <v>89.0625</v>
+      </c>
+    </row>
+    <row r="89" spans="15:18" x14ac:dyDescent="0.45">
+      <c r="O89">
+        <v>87</v>
+      </c>
+      <c r="P89">
+        <v>0.109375</v>
+      </c>
+      <c r="Q89">
+        <f t="shared" si="2"/>
+        <v>88</v>
+      </c>
+      <c r="R89">
+        <f t="shared" si="3"/>
+        <v>89.0625</v>
+      </c>
+    </row>
+    <row r="90" spans="15:18" x14ac:dyDescent="0.45">
+      <c r="O90">
+        <v>88</v>
+      </c>
+      <c r="P90">
+        <v>0.109375</v>
+      </c>
+      <c r="Q90">
+        <f t="shared" si="2"/>
+        <v>89</v>
+      </c>
+      <c r="R90">
+        <f t="shared" si="3"/>
+        <v>89.0625</v>
+      </c>
+    </row>
+    <row r="91" spans="15:18" x14ac:dyDescent="0.45">
+      <c r="O91">
+        <v>89</v>
+      </c>
+      <c r="P91">
+        <v>0.125</v>
+      </c>
+      <c r="Q91">
+        <f t="shared" si="2"/>
+        <v>90</v>
+      </c>
+      <c r="R91">
+        <f t="shared" si="3"/>
+        <v>87.5</v>
+      </c>
+    </row>
+    <row r="92" spans="15:18" x14ac:dyDescent="0.45">
+      <c r="O92">
+        <v>90</v>
+      </c>
+      <c r="P92">
+        <v>0.125</v>
+      </c>
+      <c r="Q92">
+        <f t="shared" si="2"/>
+        <v>91</v>
+      </c>
+      <c r="R92">
+        <f t="shared" si="3"/>
+        <v>87.5</v>
+      </c>
+    </row>
+    <row r="93" spans="15:18" x14ac:dyDescent="0.45">
+      <c r="O93">
+        <v>91</v>
+      </c>
+      <c r="P93">
+        <v>0.125</v>
+      </c>
+      <c r="Q93">
+        <f t="shared" si="2"/>
+        <v>92</v>
+      </c>
+      <c r="R93">
+        <f t="shared" si="3"/>
+        <v>87.5</v>
+      </c>
+    </row>
+    <row r="94" spans="15:18" x14ac:dyDescent="0.45">
+      <c r="O94">
+        <v>92</v>
+      </c>
+      <c r="P94">
+        <v>0.109375</v>
+      </c>
+      <c r="Q94">
+        <f t="shared" si="2"/>
+        <v>93</v>
+      </c>
+      <c r="R94">
+        <f t="shared" si="3"/>
+        <v>89.0625</v>
+      </c>
+    </row>
+    <row r="95" spans="15:18" x14ac:dyDescent="0.45">
+      <c r="O95">
+        <v>93</v>
+      </c>
+      <c r="P95">
+        <v>0.109375</v>
+      </c>
+      <c r="Q95">
+        <f t="shared" si="2"/>
+        <v>94</v>
+      </c>
+      <c r="R95">
+        <f t="shared" si="3"/>
+        <v>89.0625</v>
+      </c>
+    </row>
+    <row r="96" spans="15:18" x14ac:dyDescent="0.45">
+      <c r="O96">
+        <v>94</v>
+      </c>
+      <c r="P96">
+        <v>0.125</v>
+      </c>
+      <c r="Q96">
+        <f t="shared" si="2"/>
+        <v>95</v>
+      </c>
+      <c r="R96">
+        <f t="shared" si="3"/>
+        <v>87.5</v>
+      </c>
+    </row>
+    <row r="97" spans="15:18" x14ac:dyDescent="0.45">
+      <c r="O97">
+        <v>95</v>
+      </c>
+      <c r="P97">
+        <v>9.375E-2</v>
+      </c>
+      <c r="Q97">
+        <f t="shared" si="2"/>
+        <v>96</v>
+      </c>
+      <c r="R97">
+        <f t="shared" si="3"/>
+        <v>90.625</v>
+      </c>
+    </row>
+    <row r="98" spans="15:18" x14ac:dyDescent="0.45">
+      <c r="O98">
+        <v>96</v>
+      </c>
+      <c r="P98">
+        <v>9.375E-2</v>
+      </c>
+      <c r="Q98">
+        <f t="shared" si="2"/>
+        <v>97</v>
+      </c>
+      <c r="R98">
+        <f t="shared" si="3"/>
+        <v>90.625</v>
+      </c>
+    </row>
+    <row r="99" spans="15:18" x14ac:dyDescent="0.45">
+      <c r="O99">
+        <v>97</v>
+      </c>
+      <c r="P99">
+        <v>0.109375</v>
+      </c>
+      <c r="Q99">
+        <f t="shared" si="2"/>
+        <v>98</v>
+      </c>
+      <c r="R99">
+        <f t="shared" si="3"/>
+        <v>89.0625</v>
+      </c>
+    </row>
+    <row r="100" spans="15:18" x14ac:dyDescent="0.45">
+      <c r="O100">
+        <v>98</v>
+      </c>
+      <c r="P100">
+        <v>9.375E-2</v>
+      </c>
+      <c r="Q100">
+        <f t="shared" si="2"/>
+        <v>99</v>
+      </c>
+      <c r="R100">
+        <f t="shared" si="3"/>
+        <v>90.625</v>
+      </c>
+    </row>
+    <row r="101" spans="15:18" x14ac:dyDescent="0.45">
+      <c r="O101">
+        <v>99</v>
+      </c>
+      <c r="P101">
+        <v>9.375E-2</v>
+      </c>
+      <c r="Q101">
+        <f t="shared" si="2"/>
+        <v>100</v>
+      </c>
+      <c r="R101">
+        <f t="shared" si="3"/>
+        <v>90.625</v>
+      </c>
+    </row>
+    <row r="102" spans="15:18" x14ac:dyDescent="0.45">
+      <c r="O102" t="s">
+        <v>30</v>
+      </c>
+      <c r="P102">
+        <v>9.375E-2</v>
+      </c>
+    </row>
+    <row r="103" spans="15:18" x14ac:dyDescent="0.45">
+      <c r="O103" t="s">
+        <v>30</v>
+      </c>
+      <c r="P103">
+        <v>0.125</v>
+      </c>
+    </row>
+    <row r="104" spans="15:18" x14ac:dyDescent="0.45">
+      <c r="O104" t="s">
+        <v>30</v>
+      </c>
+      <c r="P104">
+        <v>6.25E-2</v>
+      </c>
+    </row>
+    <row r="105" spans="15:18" x14ac:dyDescent="0.45">
+      <c r="O105" t="s">
+        <v>30</v>
+      </c>
+      <c r="P105">
+        <v>9.375E-2</v>
+      </c>
+    </row>
+    <row r="106" spans="15:18" x14ac:dyDescent="0.45">
+      <c r="O106" t="s">
+        <v>30</v>
+      </c>
+      <c r="P106">
+        <v>6.25E-2</v>
+      </c>
+    </row>
+    <row r="107" spans="15:18" x14ac:dyDescent="0.45">
+      <c r="O107" t="s">
+        <v>30</v>
+      </c>
+      <c r="P107">
+        <v>7.8125E-2</v>
+      </c>
+    </row>
+    <row r="108" spans="15:18" x14ac:dyDescent="0.45">
+      <c r="O108" t="s">
+        <v>30</v>
+      </c>
+      <c r="P108">
+        <v>6.25E-2</v>
+      </c>
+    </row>
+    <row r="109" spans="15:18" x14ac:dyDescent="0.45">
+      <c r="O109" t="s">
+        <v>30</v>
+      </c>
+      <c r="P109">
+        <v>0.125</v>
+      </c>
+    </row>
+    <row r="110" spans="15:18" x14ac:dyDescent="0.45">
+      <c r="O110" t="s">
+        <v>30</v>
+      </c>
+      <c r="P110">
+        <v>3.125E-2</v>
+      </c>
+    </row>
+    <row r="111" spans="15:18" x14ac:dyDescent="0.45">
+      <c r="O111" t="s">
+        <v>30</v>
+      </c>
+      <c r="P111">
+        <v>6.25E-2</v>
+      </c>
+    </row>
+    <row r="112" spans="15:18" x14ac:dyDescent="0.45">
+      <c r="O112" t="s">
+        <v>30</v>
+      </c>
+      <c r="P112">
+        <v>6.25E-2</v>
+      </c>
+    </row>
+    <row r="113" spans="15:16" x14ac:dyDescent="0.45">
+      <c r="O113" t="s">
+        <v>30</v>
+      </c>
+      <c r="P113">
+        <v>4.6875E-2</v>
+      </c>
+    </row>
+    <row r="114" spans="15:16" x14ac:dyDescent="0.45">
+      <c r="O114" t="s">
+        <v>30</v>
+      </c>
+      <c r="P114">
+        <v>4.6875E-2</v>
+      </c>
+    </row>
+    <row r="115" spans="15:16" x14ac:dyDescent="0.45">
+      <c r="O115" t="s">
+        <v>30</v>
+      </c>
+      <c r="P115">
+        <v>7.8125E-2</v>
+      </c>
+    </row>
+    <row r="116" spans="15:16" x14ac:dyDescent="0.45">
+      <c r="O116" t="s">
+        <v>30</v>
+      </c>
+      <c r="P116">
+        <v>7.8125E-2</v>
+      </c>
+    </row>
+    <row r="117" spans="15:16" x14ac:dyDescent="0.45">
+      <c r="O117" t="s">
+        <v>30</v>
+      </c>
+      <c r="P117">
+        <v>6.25E-2</v>
+      </c>
+    </row>
+    <row r="118" spans="15:16" x14ac:dyDescent="0.45">
+      <c r="O118" t="s">
+        <v>30</v>
+      </c>
+      <c r="P118">
+        <v>9.375E-2</v>
+      </c>
+    </row>
+    <row r="119" spans="15:16" x14ac:dyDescent="0.45">
+      <c r="O119" t="s">
+        <v>30</v>
+      </c>
+      <c r="P119">
+        <v>9.375E-2</v>
+      </c>
+    </row>
+    <row r="120" spans="15:16" x14ac:dyDescent="0.45">
+      <c r="O120" t="s">
+        <v>30</v>
+      </c>
+      <c r="P120">
+        <v>0.140625</v>
+      </c>
+    </row>
+    <row r="121" spans="15:16" x14ac:dyDescent="0.45">
+      <c r="O121" t="s">
+        <v>30</v>
+      </c>
+      <c r="P121">
+        <v>6.25E-2</v>
+      </c>
+    </row>
+    <row r="122" spans="15:16" x14ac:dyDescent="0.45">
+      <c r="O122" t="s">
+        <v>30</v>
+      </c>
+      <c r="P122">
+        <v>4.6875E-2</v>
+      </c>
+    </row>
+    <row r="123" spans="15:16" x14ac:dyDescent="0.45">
+      <c r="O123" t="s">
+        <v>30</v>
+      </c>
+      <c r="P123">
+        <v>7.8125E-2</v>
+      </c>
+    </row>
+    <row r="124" spans="15:16" x14ac:dyDescent="0.45">
+      <c r="O124" t="s">
+        <v>30</v>
+      </c>
+      <c r="P124">
+        <v>6.25E-2</v>
+      </c>
+    </row>
+    <row r="125" spans="15:16" x14ac:dyDescent="0.45">
+      <c r="O125" t="s">
+        <v>30</v>
+      </c>
+      <c r="P125">
+        <v>0.109375</v>
+      </c>
+    </row>
+    <row r="126" spans="15:16" x14ac:dyDescent="0.45">
+      <c r="O126" t="s">
+        <v>30</v>
+      </c>
+      <c r="P126">
+        <v>7.8125E-2</v>
+      </c>
+    </row>
+    <row r="127" spans="15:16" x14ac:dyDescent="0.45">
+      <c r="O127" t="s">
+        <v>30</v>
+      </c>
+      <c r="P127">
+        <v>6.25E-2</v>
+      </c>
+    </row>
+    <row r="128" spans="15:16" x14ac:dyDescent="0.45">
+      <c r="O128" t="s">
+        <v>30</v>
+      </c>
+      <c r="P128">
+        <v>0.125</v>
+      </c>
+    </row>
+    <row r="129" spans="15:16" x14ac:dyDescent="0.45">
+      <c r="O129" t="s">
+        <v>30</v>
+      </c>
+      <c r="P129">
+        <v>6.25E-2</v>
+      </c>
+    </row>
+    <row r="130" spans="15:16" x14ac:dyDescent="0.45">
+      <c r="O130" t="s">
+        <v>30</v>
+      </c>
+      <c r="P130">
+        <v>0.109375</v>
+      </c>
+    </row>
+    <row r="131" spans="15:16" x14ac:dyDescent="0.45">
+      <c r="O131" t="s">
+        <v>30</v>
+      </c>
+      <c r="P131">
+        <v>7.8125E-2</v>
+      </c>
+    </row>
+    <row r="132" spans="15:16" x14ac:dyDescent="0.45">
+      <c r="O132" t="s">
+        <v>30</v>
+      </c>
+      <c r="P132">
+        <v>0.109375</v>
+      </c>
+    </row>
+    <row r="133" spans="15:16" x14ac:dyDescent="0.45">
+      <c r="O133" t="s">
+        <v>30</v>
+      </c>
+      <c r="P133">
+        <v>9.375E-2</v>
+      </c>
+    </row>
+    <row r="134" spans="15:16" x14ac:dyDescent="0.45">
+      <c r="O134" t="s">
+        <v>30</v>
+      </c>
+      <c r="P134">
+        <v>7.8125E-2</v>
+      </c>
+    </row>
+    <row r="135" spans="15:16" x14ac:dyDescent="0.45">
+      <c r="O135" t="s">
+        <v>30</v>
+      </c>
+      <c r="P135">
+        <v>4.6875E-2</v>
+      </c>
+    </row>
+    <row r="136" spans="15:16" x14ac:dyDescent="0.45">
+      <c r="O136" t="s">
+        <v>30</v>
+      </c>
+      <c r="P136">
+        <v>7.8125E-2</v>
+      </c>
+    </row>
+    <row r="137" spans="15:16" x14ac:dyDescent="0.45">
+      <c r="O137" t="s">
+        <v>30</v>
+      </c>
+      <c r="P137">
+        <v>0.140625</v>
+      </c>
+    </row>
+    <row r="138" spans="15:16" x14ac:dyDescent="0.45">
+      <c r="O138" t="s">
+        <v>30</v>
+      </c>
+      <c r="P138">
+        <v>0.109375</v>
+      </c>
+    </row>
+    <row r="139" spans="15:16" x14ac:dyDescent="0.45">
+      <c r="O139" t="s">
+        <v>30</v>
+      </c>
+      <c r="P139">
+        <v>6.25E-2</v>
+      </c>
+    </row>
+    <row r="140" spans="15:16" x14ac:dyDescent="0.45">
+      <c r="O140" t="s">
+        <v>30</v>
+      </c>
+      <c r="P140">
+        <v>9.375E-2</v>
+      </c>
+    </row>
+    <row r="141" spans="15:16" x14ac:dyDescent="0.45">
+      <c r="O141" t="s">
+        <v>30</v>
+      </c>
+      <c r="P141">
+        <v>7.8125E-2</v>
+      </c>
+    </row>
+    <row r="142" spans="15:16" x14ac:dyDescent="0.45">
+      <c r="O142" t="s">
+        <v>30</v>
+      </c>
+      <c r="P142">
+        <v>0.109375</v>
+      </c>
+    </row>
+    <row r="143" spans="15:16" x14ac:dyDescent="0.45">
+      <c r="O143" t="s">
+        <v>30</v>
+      </c>
+      <c r="P143">
+        <v>9.375E-2</v>
+      </c>
+    </row>
+    <row r="144" spans="15:16" x14ac:dyDescent="0.45">
+      <c r="O144" t="s">
+        <v>30</v>
+      </c>
+      <c r="P144">
+        <v>7.8125E-2</v>
+      </c>
+    </row>
+    <row r="145" spans="15:16" x14ac:dyDescent="0.45">
+      <c r="O145" t="s">
+        <v>30</v>
+      </c>
+      <c r="P145">
+        <v>0.125</v>
+      </c>
+    </row>
+    <row r="146" spans="15:16" x14ac:dyDescent="0.45">
+      <c r="O146" t="s">
+        <v>30</v>
+      </c>
+      <c r="P146">
+        <v>9.375E-2</v>
+      </c>
+    </row>
+    <row r="147" spans="15:16" x14ac:dyDescent="0.45">
+      <c r="O147" t="s">
+        <v>30</v>
+      </c>
+      <c r="P147">
+        <v>0.109375</v>
+      </c>
+    </row>
+    <row r="148" spans="15:16" x14ac:dyDescent="0.45">
+      <c r="O148" t="s">
+        <v>30</v>
+      </c>
+      <c r="P148">
+        <v>0.15625</v>
+      </c>
+    </row>
+    <row r="149" spans="15:16" x14ac:dyDescent="0.45">
+      <c r="O149" t="s">
+        <v>30</v>
+      </c>
+      <c r="P149">
+        <v>6.25E-2</v>
+      </c>
+    </row>
+    <row r="150" spans="15:16" x14ac:dyDescent="0.45">
+      <c r="O150" t="s">
+        <v>30</v>
+      </c>
+      <c r="P150">
+        <v>0.109375</v>
+      </c>
+    </row>
+    <row r="151" spans="15:16" x14ac:dyDescent="0.45">
+      <c r="O151" t="s">
+        <v>30</v>
+      </c>
+      <c r="P151">
+        <v>6.25E-2</v>
+      </c>
+    </row>
+    <row r="152" spans="15:16" x14ac:dyDescent="0.45">
+      <c r="O152" t="s">
+        <v>30</v>
+      </c>
       <c r="P152">
-        <v>7.2727272727272724E-2</v>
+        <v>5.4545454545454543E-2</v>
       </c>
     </row>
   </sheetData>

--- a/LJ+UA Experiments.xlsx
+++ b/LJ+UA Experiments.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dhvan\Documents\GitHub\P4P-Transformer-ASR-for-Dysarthric-Speech\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8E24869-71F7-4894-98FC-2505E8BF069F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0091B9E-7877-4BD5-9D67-62DFCB74F57D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13155" firstSheet="16" activeTab="17" xr2:uid="{75EE08EB-D9DA-45E6-8F41-68FBAE46F917}"/>
+    <workbookView xWindow="1718" yWindow="1718" windowWidth="15389" windowHeight="9442" firstSheet="16" activeTab="17" xr2:uid="{75EE08EB-D9DA-45E6-8F41-68FBAE46F917}"/>
   </bookViews>
   <sheets>
     <sheet name="E1" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
     <sheet name="D12" sheetId="15" r:id="rId15"/>
     <sheet name="D123" sheetId="16" r:id="rId16"/>
     <sheet name="Token + D123" sheetId="17" r:id="rId17"/>
-    <sheet name="Speech Pos + Token + D123" sheetId="18" r:id="rId18"/>
+    <sheet name="Speech PoseC1 + Token + D123" sheetId="18" r:id="rId18"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -53,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="751" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="751" uniqueCount="34">
   <si>
     <r>
       <rPr>
@@ -887,6 +887,53 @@
       <t>92% (5% increase)</t>
     </r>
   </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Model Name:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> LJ200_2.0_UAControl_FreezeTokenD123SEC1.h5 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Accuracy:1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">2% </t>
+    </r>
+  </si>
+  <si>
+    <t>&lt;__main__.DisplayOutputs object at 0x7f7eafe586a0&gt;</t>
+  </si>
 </sst>
 </file>
 
@@ -5965,584 +6012,6 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-551F-4969-BFA0-0B4C83A006A8}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="1262615983"/>
-        <c:axId val="1262614735"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="1262615983"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1262614735"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="1262614735"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1262615983"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solid